--- a/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
+++ b/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\git-repo\mosip\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\git-repo\mosip\docs\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D6EDDC3F-0A0F-4EC3-9AB5-CE02AF9ED912}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DF1356CE-5459-427B-9EAD-3BC30EA9A6FA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="261">
   <si>
     <t>S.No.</t>
   </si>
@@ -3083,6 +3083,34 @@
 ii. MOSIP to provide an additional API to fetch specific data of an individual based on UIN number (Evaluate security aspect, as linking of HoF and maintenance of family relationship will be required as a security imperative) and send to Social Protection Data System
 iii. MOSIP to provide a mechanism to record the consent of HoF
 iv. This is required to accommodate Household Program of GoM</t>
+    </r>
+  </si>
+  <si>
+    <t>Mail from Ramesh dtd 21Jan19_Reference Meeting with GoM/PwC/MOSIP Tech Board - 12Jan'19</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>USB Bootable Dongle vs Downloadable Software</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">:
+1. The USB dongle work can be de-prioritized for Morocco. We need to make sure that we can work with the TPM for keys to be stored on Windows 10. Also need to check if docker allows access to TPM on Windows 10.
+2. From a deployment guideline perspective we have to advise morocco to enable bitlocker for encryption of hard drive.
+3. We can look at USB dongle later as part of Vanilla version of MOSIP
+</t>
     </r>
   </si>
 </sst>
@@ -5184,11 +5212,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S84"/>
+  <dimension ref="A1:S85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A85" sqref="A85"/>
+      <pane ySplit="2" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -9187,6 +9215,49 @@
       <c r="P84" s="5"/>
       <c r="Q84" s="34"/>
     </row>
+    <row r="85" spans="1:17" ht="142.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="5">
+        <v>86</v>
+      </c>
+      <c r="B85" s="6">
+        <v>43486</v>
+      </c>
+      <c r="C85" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="D85" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F85" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="G85" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="I85" s="34">
+        <v>1</v>
+      </c>
+      <c r="J85" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="K85" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="L85" s="22">
+        <v>43486</v>
+      </c>
+      <c r="M85" s="33"/>
+      <c r="N85" s="5"/>
+      <c r="O85" s="35"/>
+      <c r="P85" s="5"/>
+      <c r="Q85" s="34"/>
+    </row>
   </sheetData>
   <autoFilter ref="A2:Q84" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
@@ -9425,6 +9496,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D32E068FDE16E34B8075022FB1536456" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d905b7d076fda08b8ad7ac1f301e6870">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7784986bdb25cf89cb05135ef15ccb6c" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9596,15 +9676,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -9629,6 +9700,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62A013D4-4E69-4E0D-8B8F-1AA53B7A2CEA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9642,14 +9721,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
+++ b/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\git-repo\mosip\docs\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DF1356CE-5459-427B-9EAD-3BC30EA9A6FA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{21C8D0A5-F31B-4008-B7D1-03AE52A3AD06}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Status Legends" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MOSIP_Feature_Roadmap!$A$2:$Q$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MOSIP_Feature_Roadmap!$A$2:$R$85</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="267">
   <si>
     <t>S.No.</t>
   </si>
@@ -3112,6 +3112,29 @@
 3. We can look at USB dongle later as part of Vanilla version of MOSIP
 </t>
     </r>
+  </si>
+  <si>
+    <t>Comments - Anadi</t>
+  </si>
+  <si>
+    <t>&lt;22Jan19&gt;
+Not needed by GoM but demoed and hence to be included</t>
+  </si>
+  <si>
+    <t>&lt;22Jan19&gt;
+OK</t>
+  </si>
+  <si>
+    <t>&lt;22Jan19&gt;
+Need Design and Effort</t>
+  </si>
+  <si>
+    <t>&lt;22Jan19&gt;
+Infra as code is not a change request. It was always a part of design as Kubernets. Refer email from me on the same subject. Shravan to explain.</t>
+  </si>
+  <si>
+    <t>&lt;22Jan19&gt;
+OK. Go as per Sanjay's inputs.</t>
   </si>
 </sst>
 </file>
@@ -3704,7 +3727,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="MINDTREE" refreshedDate="43448.660082060182" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="64" xr:uid="{00000000-000A-0000-FFFF-FFFF05000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A2:Q65" sheet="MOSIP_Feature_Roadmap"/>
+    <worksheetSource ref="A2:R65" sheet="MOSIP_Feature_Roadmap"/>
   </cacheSource>
   <cacheFields count="15">
     <cacheField name="S.No." numFmtId="0">
@@ -5212,11 +5235,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S85"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:T85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A86" sqref="A86"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -5228,20 +5252,20 @@
     <col min="5" max="5" width="15.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="71.140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="44.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="29" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" style="11" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="53.7109375" style="3" customWidth="1"/>
-    <col min="18" max="16384" width="20.28515625" style="11"/>
+    <col min="8" max="9" width="44.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="29" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" style="11" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="53.7109375" style="3" customWidth="1"/>
+    <col min="19" max="16384" width="20.28515625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="79" t="s">
         <v>242</v>
       </c>
@@ -5258,11 +5282,12 @@
       <c r="L1" s="80"/>
       <c r="M1" s="80"/>
       <c r="N1" s="80"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="82"/>
-    </row>
-    <row r="2" spans="1:17" ht="57" x14ac:dyDescent="0.25">
+      <c r="O1" s="80"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="82"/>
+    </row>
+    <row r="2" spans="1:18" ht="57" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -5287,35 +5312,38 @@
       <c r="H2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="J2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="K2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="L2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="M2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="N2" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="O2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="61" t="s">
+      <c r="P2" s="61" t="s">
         <v>204</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="Q2" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="R2" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="4" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="4" customFormat="1" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -5340,31 +5368,32 @@
       <c r="H3" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="34">
+      <c r="I3" s="34"/>
+      <c r="J3" s="34">
         <v>1</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="K3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="L3" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="22">
+      <c r="M3" s="22">
         <v>43419</v>
       </c>
-      <c r="M3" s="27">
+      <c r="N3" s="27">
         <v>36</v>
       </c>
-      <c r="N3" s="32" t="s">
+      <c r="O3" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="O3" s="32"/>
       <c r="P3" s="32"/>
-      <c r="Q3" s="22" t="s">
+      <c r="Q3" s="32"/>
+      <c r="R3" s="22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="4" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -5389,31 +5418,32 @@
       <c r="H4" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="34"/>
+      <c r="J4" s="34">
         <v>1</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="K4" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="34" t="s">
+      <c r="L4" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="22">
+      <c r="M4" s="22">
         <v>43419</v>
       </c>
-      <c r="M4" s="33">
+      <c r="N4" s="33">
         <v>12</v>
       </c>
-      <c r="N4" s="32" t="s">
+      <c r="O4" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="32"/>
       <c r="P4" s="32"/>
-      <c r="Q4" s="22" t="s">
+      <c r="Q4" s="32"/>
+      <c r="R4" s="22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="4" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="4" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -5438,31 +5468,32 @@
       <c r="H5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="34"/>
+      <c r="J5" s="34">
         <v>1</v>
       </c>
-      <c r="J5" s="34" t="s">
+      <c r="K5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="34" t="s">
+      <c r="L5" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="22">
+      <c r="M5" s="22">
         <v>43419</v>
       </c>
-      <c r="M5" s="33">
+      <c r="N5" s="33">
         <v>35</v>
       </c>
-      <c r="N5" s="32" t="s">
+      <c r="O5" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="O5" s="32"/>
       <c r="P5" s="32"/>
-      <c r="Q5" s="22" t="s">
+      <c r="Q5" s="32"/>
+      <c r="R5" s="22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="4" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -5487,31 +5518,32 @@
       <c r="H6" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="20"/>
+      <c r="J6" s="20">
         <v>1</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="K6" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="34" t="s">
+      <c r="L6" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="22">
+      <c r="M6" s="22">
         <v>43419</v>
       </c>
-      <c r="M6" s="28">
+      <c r="N6" s="28">
         <v>30</v>
       </c>
-      <c r="N6" s="32" t="s">
+      <c r="O6" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="O6" s="32"/>
       <c r="P6" s="32"/>
-      <c r="Q6" s="23" t="s">
+      <c r="Q6" s="32"/>
+      <c r="R6" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" s="1" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -5536,29 +5568,30 @@
       <c r="H7" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="20"/>
+      <c r="J7" s="20">
         <v>1</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="K7" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="34" t="s">
+      <c r="L7" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="22">
+      <c r="M7" s="22">
         <v>43419</v>
       </c>
-      <c r="M7" s="28">
+      <c r="N7" s="28">
         <v>0</v>
       </c>
-      <c r="N7" s="32" t="s">
+      <c r="O7" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="O7" s="32"/>
       <c r="P7" s="32"/>
-      <c r="Q7" s="22"/>
-    </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+      <c r="Q7" s="32"/>
+      <c r="R7" s="22"/>
+    </row>
+    <row r="8" spans="1:18" s="1" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -5583,29 +5616,30 @@
       <c r="H8" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8" s="34"/>
+      <c r="J8" s="34">
         <v>1</v>
       </c>
-      <c r="J8" s="34" t="s">
+      <c r="K8" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="34" t="s">
+      <c r="L8" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="22">
+      <c r="M8" s="22">
         <v>43419</v>
       </c>
-      <c r="M8" s="28">
+      <c r="N8" s="28">
         <v>36</v>
       </c>
-      <c r="N8" s="32" t="s">
+      <c r="O8" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="O8" s="32"/>
       <c r="P8" s="32"/>
-      <c r="Q8" s="22"/>
-    </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="Q8" s="32"/>
+      <c r="R8" s="22"/>
+    </row>
+    <row r="9" spans="1:18" s="1" customFormat="1" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -5630,28 +5664,29 @@
       <c r="H9" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="34"/>
+      <c r="J9" s="34">
         <v>2</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="K9" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="34" t="s">
+      <c r="L9" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="22">
+      <c r="M9" s="22">
         <v>43419</v>
       </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="32">
-        <f t="shared" ref="N9:N55" si="0">M9*1.5</f>
+      <c r="N9" s="9"/>
+      <c r="O9" s="32">
+        <f t="shared" ref="O9:O55" si="0">N9*1.5</f>
         <v>0</v>
       </c>
-      <c r="O9" s="32"/>
       <c r="P9" s="32"/>
-      <c r="Q9" s="22"/>
-    </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="Q9" s="32"/>
+      <c r="R9" s="22"/>
+    </row>
+    <row r="10" spans="1:18" s="1" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -5676,31 +5711,32 @@
       <c r="H10" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="34">
+      <c r="I10" s="20"/>
+      <c r="J10" s="34">
         <v>1</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="K10" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="34" t="s">
+      <c r="L10" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="22">
+      <c r="M10" s="22">
         <v>43419</v>
       </c>
-      <c r="M10" s="28">
+      <c r="N10" s="28">
         <v>20</v>
       </c>
-      <c r="N10" s="32" t="s">
+      <c r="O10" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="O10" s="32"/>
       <c r="P10" s="32"/>
-      <c r="Q10" s="22" t="s">
+      <c r="Q10" s="32"/>
+      <c r="R10" s="22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" s="1" customFormat="1" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -5725,35 +5761,36 @@
       <c r="H11" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="34">
+      <c r="I11" s="34"/>
+      <c r="J11" s="34">
         <v>1</v>
       </c>
-      <c r="J11" s="34" t="s">
+      <c r="K11" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="34" t="s">
+      <c r="L11" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="22">
+      <c r="M11" s="22">
         <v>43419</v>
       </c>
-      <c r="M11" s="53" t="s">
+      <c r="N11" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="N11" s="43">
+      <c r="O11" s="43">
         <v>36</v>
       </c>
-      <c r="O11" s="63" t="s">
+      <c r="P11" s="63" t="s">
         <v>199</v>
       </c>
-      <c r="P11" s="32" t="s">
+      <c r="Q11" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="Q11" s="22" t="s">
+      <c r="R11" s="22" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" ht="126.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" s="1" customFormat="1" ht="126.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -5778,35 +5815,36 @@
       <c r="H12" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="34">
+      <c r="I12" s="34"/>
+      <c r="J12" s="34">
         <v>1</v>
       </c>
-      <c r="J12" s="34" t="s">
+      <c r="K12" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="34" t="s">
+      <c r="L12" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="22">
+      <c r="M12" s="22">
         <v>43419</v>
       </c>
-      <c r="M12" s="55">
+      <c r="N12" s="55">
         <v>36</v>
       </c>
-      <c r="N12" s="43">
+      <c r="O12" s="43">
         <v>54</v>
       </c>
-      <c r="O12" s="63" t="s">
+      <c r="P12" s="63" t="s">
         <v>199</v>
       </c>
-      <c r="P12" s="32" t="s">
+      <c r="Q12" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="Q12" s="22" t="s">
+      <c r="R12" s="22" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="4" customFormat="1" ht="171" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="4" customFormat="1" ht="171" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -5831,35 +5869,36 @@
       <c r="H13" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="20"/>
+      <c r="J13" s="20">
         <v>1</v>
       </c>
-      <c r="J13" s="34" t="s">
+      <c r="K13" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="34" t="s">
+      <c r="L13" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="22">
+      <c r="M13" s="22">
         <v>43419</v>
       </c>
-      <c r="M13" s="53" t="s">
+      <c r="N13" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="N13" s="43">
+      <c r="O13" s="43">
         <v>72</v>
       </c>
-      <c r="O13" s="63" t="s">
+      <c r="P13" s="63" t="s">
         <v>199</v>
       </c>
-      <c r="P13" s="32" t="s">
+      <c r="Q13" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="Q13" s="22" t="s">
+      <c r="R13" s="22" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" s="1" customFormat="1" ht="114" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -5884,35 +5923,36 @@
       <c r="H14" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="25">
+      <c r="I14" s="25"/>
+      <c r="J14" s="25">
         <v>1</v>
       </c>
-      <c r="J14" s="34" t="s">
+      <c r="K14" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="34" t="s">
+      <c r="L14" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="22">
+      <c r="M14" s="22">
         <v>43419</v>
-      </c>
-      <c r="M14" s="43">
-        <v>0</v>
       </c>
       <c r="N14" s="43">
         <v>0</v>
       </c>
-      <c r="O14" s="64" t="s">
+      <c r="O14" s="43">
+        <v>0</v>
+      </c>
+      <c r="P14" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="P14" s="32" t="s">
+      <c r="Q14" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="Q14" s="22" t="s">
+      <c r="R14" s="22" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="4" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" s="4" customFormat="1" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -5937,35 +5977,36 @@
       <c r="H15" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="34"/>
+      <c r="J15" s="34">
         <v>1</v>
       </c>
-      <c r="J15" s="34" t="s">
+      <c r="K15" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="34" t="s">
+      <c r="L15" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="22">
+      <c r="M15" s="22">
         <v>43419</v>
       </c>
-      <c r="M15" s="56">
+      <c r="N15" s="56">
         <v>10</v>
       </c>
-      <c r="N15" s="57" t="s">
+      <c r="O15" s="57" t="s">
         <v>211</v>
       </c>
-      <c r="O15" s="65" t="s">
+      <c r="P15" s="65" t="s">
         <v>199</v>
       </c>
-      <c r="P15" s="57" t="s">
+      <c r="Q15" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="Q15" s="58" t="s">
+      <c r="R15" s="58" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" s="1" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -5988,25 +6029,26 @@
       <c r="H16" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="34">
+      <c r="I16" s="34"/>
+      <c r="J16" s="34">
         <v>1</v>
       </c>
-      <c r="J16" s="34" t="s">
+      <c r="K16" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="34" t="s">
+      <c r="L16" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="22">
+      <c r="M16" s="22">
         <v>43419</v>
       </c>
-      <c r="M16" s="32"/>
       <c r="N16" s="32"/>
       <c r="O16" s="32"/>
       <c r="P16" s="32"/>
-      <c r="Q16" s="22"/>
-    </row>
-    <row r="17" spans="1:17" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="Q16" s="32"/>
+      <c r="R16" s="22"/>
+    </row>
+    <row r="17" spans="1:18" s="4" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -6029,25 +6071,26 @@
       <c r="H17" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="34"/>
+      <c r="J17" s="34">
         <v>1</v>
       </c>
-      <c r="J17" s="34" t="s">
+      <c r="K17" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="34" t="s">
+      <c r="L17" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L17" s="22">
+      <c r="M17" s="22">
         <v>43419</v>
       </c>
-      <c r="M17" s="32"/>
       <c r="N17" s="32"/>
       <c r="O17" s="32"/>
       <c r="P17" s="32"/>
-      <c r="Q17" s="22"/>
-    </row>
-    <row r="18" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="Q17" s="32"/>
+      <c r="R17" s="22"/>
+    </row>
+    <row r="18" spans="1:18" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -6072,31 +6115,32 @@
       <c r="H18" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="I18" s="34">
+      <c r="I18" s="34"/>
+      <c r="J18" s="34">
         <v>1</v>
       </c>
-      <c r="J18" s="34" t="s">
+      <c r="K18" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="34" t="s">
+      <c r="L18" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L18" s="22">
+      <c r="M18" s="22">
         <v>43419</v>
       </c>
-      <c r="M18" s="28">
+      <c r="N18" s="28">
         <v>10</v>
       </c>
-      <c r="N18" s="32" t="s">
+      <c r="O18" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="O18" s="32"/>
       <c r="P18" s="32"/>
-      <c r="Q18" s="22" t="s">
+      <c r="Q18" s="32"/>
+      <c r="R18" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -6121,31 +6165,32 @@
       <c r="H19" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="I19" s="34">
+      <c r="I19" s="34"/>
+      <c r="J19" s="34">
         <v>1</v>
       </c>
-      <c r="J19" s="34" t="s">
+      <c r="K19" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="34" t="s">
+      <c r="L19" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L19" s="22">
+      <c r="M19" s="22">
         <v>43419</v>
       </c>
-      <c r="M19" s="27">
+      <c r="N19" s="27">
         <v>5</v>
       </c>
-      <c r="N19" s="32" t="s">
+      <c r="O19" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="O19" s="32"/>
       <c r="P19" s="32"/>
-      <c r="Q19" s="22" t="s">
+      <c r="Q19" s="32"/>
+      <c r="R19" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -6170,35 +6215,36 @@
       <c r="H20" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="15"/>
+      <c r="J20" s="15">
         <v>1</v>
       </c>
-      <c r="J20" s="34" t="s">
+      <c r="K20" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="34" t="s">
+      <c r="L20" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L20" s="22">
+      <c r="M20" s="22">
         <v>43419</v>
       </c>
-      <c r="M20" s="55">
+      <c r="N20" s="55">
         <v>20</v>
       </c>
-      <c r="N20" s="43">
+      <c r="O20" s="43">
         <v>30</v>
       </c>
-      <c r="O20" s="65" t="s">
+      <c r="P20" s="65" t="s">
         <v>199</v>
       </c>
-      <c r="P20" s="32" t="s">
+      <c r="Q20" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="Q20" s="22" t="s">
+      <c r="R20" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -6223,25 +6269,26 @@
       <c r="H21" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="I21" s="34">
+      <c r="I21" s="34"/>
+      <c r="J21" s="34">
         <v>1</v>
       </c>
-      <c r="J21" s="34" t="s">
+      <c r="K21" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="34" t="s">
+      <c r="L21" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L21" s="22">
+      <c r="M21" s="22">
         <v>43419</v>
       </c>
-      <c r="M21" s="32"/>
       <c r="N21" s="32"/>
       <c r="O21" s="32"/>
       <c r="P21" s="32"/>
-      <c r="Q21" s="22"/>
-    </row>
-    <row r="22" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="Q21" s="32"/>
+      <c r="R21" s="22"/>
+    </row>
+    <row r="22" spans="1:18" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -6266,25 +6313,26 @@
       <c r="H22" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="I22" s="25">
+      <c r="I22" s="25"/>
+      <c r="J22" s="25">
         <v>1</v>
       </c>
-      <c r="J22" s="34" t="s">
+      <c r="K22" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="34" t="s">
+      <c r="L22" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L22" s="22">
+      <c r="M22" s="22">
         <v>43419</v>
       </c>
-      <c r="M22" s="32"/>
       <c r="N22" s="32"/>
       <c r="O22" s="32"/>
       <c r="P22" s="32"/>
-      <c r="Q22" s="22"/>
-    </row>
-    <row r="23" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="Q22" s="32"/>
+      <c r="R22" s="22"/>
+    </row>
+    <row r="23" spans="1:18" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -6309,31 +6357,32 @@
       <c r="H23" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="I23" s="34">
+      <c r="I23" s="34"/>
+      <c r="J23" s="34">
         <v>1</v>
       </c>
-      <c r="J23" s="34" t="s">
+      <c r="K23" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="34" t="s">
+      <c r="L23" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L23" s="22">
+      <c r="M23" s="22">
         <v>43419</v>
       </c>
-      <c r="M23" s="31">
+      <c r="N23" s="31">
         <v>10</v>
       </c>
-      <c r="N23" s="32" t="s">
+      <c r="O23" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="O23" s="32"/>
       <c r="P23" s="32"/>
-      <c r="Q23" s="22" t="s">
+      <c r="Q23" s="32"/>
+      <c r="R23" s="22" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -6358,31 +6407,32 @@
       <c r="H24" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="34"/>
+      <c r="J24" s="15">
         <v>1</v>
       </c>
-      <c r="J24" s="34" t="s">
+      <c r="K24" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="34" t="s">
+      <c r="L24" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L24" s="22">
+      <c r="M24" s="22">
         <v>43419</v>
       </c>
-      <c r="M24" s="28">
+      <c r="N24" s="28">
         <v>5</v>
       </c>
-      <c r="N24" s="32" t="s">
+      <c r="O24" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="O24" s="32"/>
       <c r="P24" s="32"/>
-      <c r="Q24" s="24" t="s">
+      <c r="Q24" s="32"/>
+      <c r="R24" s="24" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>23</v>
       </c>
@@ -6407,25 +6457,26 @@
       <c r="H25" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I25" s="34"/>
+      <c r="J25" s="15">
         <v>1</v>
       </c>
-      <c r="J25" s="34" t="s">
+      <c r="K25" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="K25" s="34" t="s">
+      <c r="L25" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L25" s="22">
+      <c r="M25" s="22">
         <v>43419</v>
       </c>
-      <c r="M25" s="28"/>
-      <c r="N25" s="32"/>
+      <c r="N25" s="28"/>
       <c r="O25" s="32"/>
       <c r="P25" s="32"/>
-      <c r="Q25" s="22"/>
-    </row>
-    <row r="26" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="Q25" s="32"/>
+      <c r="R25" s="22"/>
+    </row>
+    <row r="26" spans="1:18" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -6450,29 +6501,32 @@
       <c r="H26" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="15">
+      <c r="I26" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="J26" s="15">
         <v>1</v>
       </c>
-      <c r="J26" s="15" t="s">
+      <c r="K26" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="K26" s="15" t="s">
+      <c r="L26" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="L26" s="22">
+      <c r="M26" s="22">
         <v>43419</v>
       </c>
-      <c r="M26" s="5">
+      <c r="N26" s="5">
         <v>30</v>
       </c>
-      <c r="N26" s="32" t="s">
+      <c r="O26" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="O26" s="32"/>
       <c r="P26" s="32"/>
-      <c r="Q26" s="15"/>
-    </row>
-    <row r="27" spans="1:17" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q26" s="32"/>
+      <c r="R26" s="15"/>
+    </row>
+    <row r="27" spans="1:18" ht="101.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>25</v>
       </c>
@@ -6497,35 +6551,36 @@
       <c r="H27" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="I27" s="15">
+      <c r="I27" s="34"/>
+      <c r="J27" s="15">
         <v>1</v>
       </c>
-      <c r="J27" s="15" t="s">
+      <c r="K27" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="K27" s="15" t="s">
+      <c r="L27" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="L27" s="22">
+      <c r="M27" s="22">
         <v>43419</v>
       </c>
-      <c r="M27" s="55">
+      <c r="N27" s="55">
         <v>20</v>
       </c>
-      <c r="N27" s="43">
+      <c r="O27" s="43">
         <v>30</v>
       </c>
-      <c r="O27" s="66" t="s">
+      <c r="P27" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="P27" s="32" t="s">
+      <c r="Q27" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="Q27" s="15" t="s">
+      <c r="R27" s="15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -6550,29 +6605,32 @@
       <c r="H28" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="I28" s="34">
+      <c r="I28" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="J28" s="34">
         <v>1</v>
       </c>
-      <c r="J28" s="34" t="s">
+      <c r="K28" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K28" s="34" t="s">
+      <c r="L28" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L28" s="22">
+      <c r="M28" s="22">
         <v>43440</v>
       </c>
-      <c r="M28" s="33">
+      <c r="N28" s="33">
         <v>6</v>
       </c>
-      <c r="N28" s="32" t="s">
+      <c r="O28" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="O28" s="32"/>
       <c r="P28" s="32"/>
-      <c r="Q28" s="34"/>
-    </row>
-    <row r="29" spans="1:17" s="8" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="Q28" s="32"/>
+      <c r="R28" s="34"/>
+    </row>
+    <row r="29" spans="1:18" s="8" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>27</v>
       </c>
@@ -6597,31 +6655,32 @@
       <c r="H29" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="I29" s="34">
+      <c r="I29" s="34"/>
+      <c r="J29" s="34">
         <v>1</v>
       </c>
-      <c r="J29" s="34" t="s">
+      <c r="K29" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K29" s="34" t="s">
+      <c r="L29" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L29" s="22">
+      <c r="M29" s="22">
         <v>43440</v>
       </c>
-      <c r="M29" s="31">
+      <c r="N29" s="31">
         <v>10</v>
       </c>
-      <c r="N29" s="32" t="s">
+      <c r="O29" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="O29" s="32"/>
       <c r="P29" s="32"/>
-      <c r="Q29" s="34" t="s">
+      <c r="Q29" s="32"/>
+      <c r="R29" s="34" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="8" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" s="8" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -6646,31 +6705,32 @@
       <c r="H30" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I30" s="34">
+      <c r="I30" s="34"/>
+      <c r="J30" s="34">
         <v>1</v>
       </c>
-      <c r="J30" s="34" t="s">
+      <c r="K30" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K30" s="34" t="s">
+      <c r="L30" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L30" s="22">
+      <c r="M30" s="22">
         <v>43440</v>
       </c>
-      <c r="M30" s="31">
+      <c r="N30" s="31">
         <v>15</v>
       </c>
-      <c r="N30" s="32" t="s">
+      <c r="O30" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="O30" s="32"/>
       <c r="P30" s="32"/>
-      <c r="Q30" s="34" t="s">
+      <c r="Q30" s="32"/>
+      <c r="R30" s="34" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>29</v>
       </c>
@@ -6695,29 +6755,30 @@
       <c r="H31" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="I31" s="34">
+      <c r="I31" s="34"/>
+      <c r="J31" s="34">
         <v>1</v>
       </c>
-      <c r="J31" s="34" t="s">
+      <c r="K31" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K31" s="34" t="s">
+      <c r="L31" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L31" s="22">
+      <c r="M31" s="22">
         <v>43440</v>
       </c>
-      <c r="M31" s="5">
+      <c r="N31" s="5">
         <v>1</v>
       </c>
-      <c r="N31" s="32" t="s">
+      <c r="O31" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="O31" s="32"/>
       <c r="P31" s="32"/>
-      <c r="Q31" s="15"/>
-    </row>
-    <row r="32" spans="1:17" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="Q31" s="32"/>
+      <c r="R31" s="15"/>
+    </row>
+    <row r="32" spans="1:18" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -6742,31 +6803,34 @@
       <c r="H32" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="I32" s="16">
+      <c r="I32" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="J32" s="16">
         <v>1</v>
       </c>
-      <c r="J32" s="34" t="s">
+      <c r="K32" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K32" s="34" t="s">
+      <c r="L32" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L32" s="22">
+      <c r="M32" s="22">
         <v>43440</v>
       </c>
-      <c r="M32" s="5">
+      <c r="N32" s="5">
         <v>0</v>
       </c>
-      <c r="N32" s="32" t="s">
+      <c r="O32" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="O32" s="32"/>
       <c r="P32" s="32"/>
-      <c r="Q32" s="34" t="s">
+      <c r="Q32" s="32"/>
+      <c r="R32" s="34" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>31</v>
       </c>
@@ -6791,31 +6855,34 @@
       <c r="H33" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="I33" s="16">
+      <c r="I33" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="J33" s="16">
         <v>1</v>
       </c>
-      <c r="J33" s="34" t="s">
+      <c r="K33" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K33" s="34" t="s">
+      <c r="L33" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L33" s="22">
+      <c r="M33" s="22">
         <v>43440</v>
       </c>
-      <c r="M33" s="33">
+      <c r="N33" s="33">
         <v>10</v>
       </c>
-      <c r="N33" s="32" t="s">
+      <c r="O33" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="O33" s="32"/>
       <c r="P33" s="32"/>
-      <c r="Q33" s="34" t="s">
+      <c r="Q33" s="32"/>
+      <c r="R33" s="34" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>32</v>
       </c>
@@ -6840,31 +6907,32 @@
       <c r="H34" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="I34" s="34">
+      <c r="I34" s="34"/>
+      <c r="J34" s="34">
         <v>1</v>
       </c>
-      <c r="J34" s="34" t="s">
+      <c r="K34" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K34" s="34" t="s">
+      <c r="L34" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L34" s="22">
+      <c r="M34" s="22">
         <v>43440</v>
       </c>
-      <c r="M34" s="33">
+      <c r="N34" s="33">
         <v>0</v>
       </c>
-      <c r="N34" s="32" t="s">
+      <c r="O34" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="O34" s="32"/>
       <c r="P34" s="32"/>
-      <c r="Q34" s="34" t="s">
+      <c r="Q34" s="32"/>
+      <c r="R34" s="34" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>33</v>
       </c>
@@ -6889,31 +6957,32 @@
       <c r="H35" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="I35" s="34">
+      <c r="I35" s="34"/>
+      <c r="J35" s="34">
         <v>1</v>
       </c>
-      <c r="J35" s="34" t="s">
+      <c r="K35" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K35" s="34" t="s">
+      <c r="L35" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L35" s="22">
+      <c r="M35" s="22">
         <v>43440</v>
       </c>
-      <c r="M35" s="33">
+      <c r="N35" s="33">
         <v>0</v>
       </c>
-      <c r="N35" s="32" t="s">
+      <c r="O35" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="O35" s="32"/>
       <c r="P35" s="32"/>
-      <c r="Q35" s="34" t="s">
+      <c r="Q35" s="32"/>
+      <c r="R35" s="34" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>34</v>
       </c>
@@ -6938,25 +7007,28 @@
       <c r="H36" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="I36" s="34">
+      <c r="I36" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="J36" s="34">
         <v>2</v>
       </c>
-      <c r="J36" s="34" t="s">
+      <c r="K36" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K36" s="34" t="s">
+      <c r="L36" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L36" s="22">
+      <c r="M36" s="22">
         <v>43440</v>
       </c>
-      <c r="M36" s="33"/>
-      <c r="N36" s="32"/>
+      <c r="N36" s="33"/>
       <c r="O36" s="32"/>
       <c r="P36" s="32"/>
-      <c r="Q36" s="34"/>
-    </row>
-    <row r="37" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="Q36" s="32"/>
+      <c r="R36" s="34"/>
+    </row>
+    <row r="37" spans="1:18" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>35</v>
       </c>
@@ -6981,28 +7053,29 @@
       <c r="H37" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="I37" s="34">
+      <c r="I37" s="34"/>
+      <c r="J37" s="34">
         <v>2</v>
       </c>
-      <c r="J37" s="34" t="s">
+      <c r="K37" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K37" s="34" t="s">
+      <c r="L37" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L37" s="22">
+      <c r="M37" s="22">
         <v>43440</v>
       </c>
-      <c r="M37" s="33"/>
-      <c r="N37" s="32">
+      <c r="N37" s="33"/>
+      <c r="O37" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O37" s="32"/>
       <c r="P37" s="32"/>
-      <c r="Q37" s="34"/>
-    </row>
-    <row r="38" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="Q37" s="32"/>
+      <c r="R37" s="34"/>
+    </row>
+    <row r="38" spans="1:18" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>36</v>
       </c>
@@ -7027,30 +7100,31 @@
       <c r="H38" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="I38" s="34" t="s">
+      <c r="I38" s="34"/>
+      <c r="J38" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="J38" s="34" t="s">
+      <c r="K38" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K38" s="34" t="s">
+      <c r="L38" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L38" s="22">
+      <c r="M38" s="22">
         <v>43440</v>
       </c>
-      <c r="M38" s="33">
+      <c r="N38" s="33">
         <v>0</v>
       </c>
-      <c r="N38" s="32">
+      <c r="O38" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O38" s="32"/>
       <c r="P38" s="32"/>
-      <c r="Q38" s="34"/>
-    </row>
-    <row r="39" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="Q38" s="32"/>
+      <c r="R38" s="34"/>
+    </row>
+    <row r="39" spans="1:18" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>37</v>
       </c>
@@ -7075,28 +7149,29 @@
       <c r="H39" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I39" s="34">
+      <c r="I39" s="34"/>
+      <c r="J39" s="34">
         <v>2</v>
       </c>
-      <c r="J39" s="34" t="s">
+      <c r="K39" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K39" s="34" t="s">
+      <c r="L39" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L39" s="22">
+      <c r="M39" s="22">
         <v>43452</v>
       </c>
-      <c r="M39" s="33"/>
-      <c r="N39" s="32">
+      <c r="N39" s="33"/>
+      <c r="O39" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O39" s="32"/>
       <c r="P39" s="32"/>
-      <c r="Q39" s="34"/>
-    </row>
-    <row r="40" spans="1:17" ht="256.5" x14ac:dyDescent="0.25">
+      <c r="Q39" s="32"/>
+      <c r="R39" s="34"/>
+    </row>
+    <row r="40" spans="1:18" ht="256.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>38</v>
       </c>
@@ -7121,33 +7196,34 @@
       <c r="H40" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="I40" s="34" t="s">
+      <c r="I40" s="34"/>
+      <c r="J40" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="J40" s="34" t="s">
+      <c r="K40" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K40" s="34" t="s">
+      <c r="L40" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L40" s="22">
+      <c r="M40" s="22">
         <v>43440</v>
       </c>
-      <c r="M40" s="55">
+      <c r="N40" s="55">
         <v>60</v>
       </c>
-      <c r="N40" s="43">
+      <c r="O40" s="43">
         <v>90</v>
       </c>
-      <c r="O40" s="62" t="s">
+      <c r="P40" s="62" t="s">
         <v>199</v>
       </c>
-      <c r="P40" s="32"/>
-      <c r="Q40" s="34" t="s">
+      <c r="Q40" s="32"/>
+      <c r="R40" s="34" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -7172,29 +7248,30 @@
       <c r="H41" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="I41" s="34">
+      <c r="I41" s="34"/>
+      <c r="J41" s="34">
         <v>2</v>
       </c>
-      <c r="J41" s="34" t="s">
+      <c r="K41" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K41" s="34" t="s">
+      <c r="L41" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L41" s="22">
+      <c r="M41" s="22">
         <v>43440</v>
       </c>
-      <c r="M41" s="33">
+      <c r="N41" s="33">
         <v>60</v>
       </c>
-      <c r="N41" s="32"/>
       <c r="O41" s="32"/>
       <c r="P41" s="32"/>
-      <c r="Q41" s="34" t="s">
+      <c r="Q41" s="32"/>
+      <c r="R41" s="34" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="83.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -7219,35 +7296,36 @@
       <c r="H42" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="I42" s="34">
+      <c r="I42" s="34"/>
+      <c r="J42" s="34">
         <v>1</v>
       </c>
-      <c r="J42" s="34" t="s">
+      <c r="K42" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K42" s="34" t="s">
+      <c r="L42" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L42" s="22">
+      <c r="M42" s="22">
         <v>43440</v>
       </c>
-      <c r="M42" s="33">
+      <c r="N42" s="33">
         <v>18</v>
       </c>
-      <c r="N42" s="32" t="s">
+      <c r="O42" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="O42" s="66" t="s">
+      <c r="P42" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="P42" s="32" t="s">
+      <c r="Q42" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="Q42" s="34" t="s">
+      <c r="R42" s="34" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -7272,35 +7350,36 @@
       <c r="H43" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I43" s="34">
+      <c r="I43" s="34"/>
+      <c r="J43" s="34">
         <v>1</v>
       </c>
-      <c r="J43" s="34" t="s">
+      <c r="K43" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K43" s="34" t="s">
+      <c r="L43" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L43" s="22">
+      <c r="M43" s="22">
         <v>43452</v>
       </c>
-      <c r="M43" s="42">
+      <c r="N43" s="42">
         <v>20</v>
       </c>
-      <c r="N43" s="43">
+      <c r="O43" s="43">
         <v>30</v>
       </c>
-      <c r="O43" s="64" t="s">
+      <c r="P43" s="64" t="s">
         <v>228</v>
       </c>
-      <c r="P43" s="32" t="s">
+      <c r="Q43" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="Q43" s="34" t="s">
+      <c r="R43" s="34" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="57" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>45</v>
       </c>
@@ -7325,25 +7404,26 @@
       <c r="H44" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="I44" s="34">
+      <c r="I44" s="34"/>
+      <c r="J44" s="34">
         <v>2</v>
       </c>
-      <c r="J44" s="34" t="s">
+      <c r="K44" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K44" s="34" t="s">
+      <c r="L44" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="L44" s="22">
+      <c r="M44" s="22">
         <v>43452</v>
       </c>
-      <c r="M44" s="33"/>
-      <c r="N44" s="32"/>
+      <c r="N44" s="33"/>
       <c r="O44" s="32"/>
       <c r="P44" s="32"/>
-      <c r="Q44" s="34"/>
-    </row>
-    <row r="45" spans="1:17" ht="57" x14ac:dyDescent="0.25">
+      <c r="Q44" s="32"/>
+      <c r="R44" s="34"/>
+    </row>
+    <row r="45" spans="1:18" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>46</v>
       </c>
@@ -7368,35 +7448,36 @@
       <c r="H45" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I45" s="34">
+      <c r="I45" s="34"/>
+      <c r="J45" s="34">
         <v>1</v>
       </c>
-      <c r="J45" s="34" t="s">
+      <c r="K45" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K45" s="34" t="s">
+      <c r="L45" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L45" s="22">
+      <c r="M45" s="22">
         <v>43440</v>
       </c>
-      <c r="M45" s="59">
+      <c r="N45" s="59">
         <v>5</v>
       </c>
-      <c r="N45" s="60">
+      <c r="O45" s="60">
         <v>8</v>
       </c>
-      <c r="O45" s="67" t="s">
+      <c r="P45" s="67" t="s">
         <v>215</v>
       </c>
-      <c r="P45" s="57" t="s">
+      <c r="Q45" s="57" t="s">
         <v>230</v>
       </c>
-      <c r="Q45" s="20" t="s">
+      <c r="R45" s="20" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="57" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" ht="57" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>47</v>
       </c>
@@ -7421,31 +7502,32 @@
       <c r="H46" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="I46" s="34">
+      <c r="I46" s="20"/>
+      <c r="J46" s="34">
         <v>1</v>
       </c>
-      <c r="J46" s="34" t="s">
+      <c r="K46" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K46" s="34" t="s">
+      <c r="L46" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L46" s="22">
+      <c r="M46" s="22">
         <v>43440</v>
       </c>
-      <c r="M46" s="33">
+      <c r="N46" s="33">
         <v>0</v>
       </c>
-      <c r="N46" s="32" t="s">
+      <c r="O46" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="O46" s="32"/>
       <c r="P46" s="32"/>
-      <c r="Q46" s="34" t="s">
+      <c r="Q46" s="32"/>
+      <c r="R46" s="34" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>48</v>
       </c>
@@ -7470,28 +7552,29 @@
       <c r="H47" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="I47" s="34">
+      <c r="I47" s="34"/>
+      <c r="J47" s="34">
         <v>2</v>
       </c>
-      <c r="J47" s="34" t="s">
+      <c r="K47" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K47" s="34" t="s">
+      <c r="L47" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L47" s="22">
+      <c r="M47" s="22">
         <v>43440</v>
       </c>
-      <c r="M47" s="33"/>
-      <c r="N47" s="32">
+      <c r="N47" s="33"/>
+      <c r="O47" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O47" s="32"/>
       <c r="P47" s="32"/>
-      <c r="Q47" s="34"/>
-    </row>
-    <row r="48" spans="1:17" ht="156.75" x14ac:dyDescent="0.25">
+      <c r="Q47" s="32"/>
+      <c r="R47" s="34"/>
+    </row>
+    <row r="48" spans="1:18" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>49</v>
       </c>
@@ -7516,25 +7599,26 @@
       <c r="H48" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="I48" s="34">
+      <c r="I48" s="34"/>
+      <c r="J48" s="34">
         <v>1</v>
       </c>
-      <c r="J48" s="34" t="s">
+      <c r="K48" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K48" s="34" t="s">
+      <c r="L48" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L48" s="22">
+      <c r="M48" s="22">
         <v>43440</v>
       </c>
-      <c r="M48" s="33"/>
-      <c r="N48" s="32"/>
+      <c r="N48" s="33"/>
       <c r="O48" s="32"/>
       <c r="P48" s="32"/>
-      <c r="Q48" s="34"/>
-    </row>
-    <row r="49" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="Q48" s="32"/>
+      <c r="R48" s="34"/>
+    </row>
+    <row r="49" spans="1:18" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>50</v>
       </c>
@@ -7559,31 +7643,32 @@
       <c r="H49" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I49" s="34">
+      <c r="I49" s="34"/>
+      <c r="J49" s="34">
         <v>1</v>
       </c>
-      <c r="J49" s="34" t="s">
+      <c r="K49" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K49" s="34" t="s">
+      <c r="L49" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L49" s="22">
+      <c r="M49" s="22">
         <v>43440</v>
       </c>
-      <c r="M49" s="33">
+      <c r="N49" s="33">
         <v>12</v>
       </c>
-      <c r="N49" s="32" t="s">
+      <c r="O49" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="O49" s="32"/>
       <c r="P49" s="32"/>
-      <c r="Q49" s="34" t="s">
+      <c r="Q49" s="32"/>
+      <c r="R49" s="34" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>51</v>
       </c>
@@ -7608,25 +7693,26 @@
       <c r="H50" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I50" s="34">
+      <c r="I50" s="34"/>
+      <c r="J50" s="34">
         <v>1</v>
       </c>
-      <c r="J50" s="34" t="s">
+      <c r="K50" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K50" s="34" t="s">
+      <c r="L50" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L50" s="22">
+      <c r="M50" s="22">
         <v>43440</v>
       </c>
-      <c r="M50" s="33"/>
-      <c r="N50" s="32"/>
+      <c r="N50" s="33"/>
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
-      <c r="Q50" s="34"/>
-    </row>
-    <row r="51" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="Q50" s="32"/>
+      <c r="R50" s="34"/>
+    </row>
+    <row r="51" spans="1:18" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>52</v>
       </c>
@@ -7651,28 +7737,29 @@
       <c r="H51" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="I51" s="34">
+      <c r="I51" s="34"/>
+      <c r="J51" s="34">
         <v>2</v>
       </c>
-      <c r="J51" s="34" t="s">
+      <c r="K51" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K51" s="34" t="s">
+      <c r="L51" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L51" s="22">
+      <c r="M51" s="22">
         <v>43452</v>
       </c>
-      <c r="M51" s="33"/>
-      <c r="N51" s="32">
+      <c r="N51" s="33"/>
+      <c r="O51" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O51" s="32"/>
       <c r="P51" s="32"/>
-      <c r="Q51" s="34"/>
-    </row>
-    <row r="52" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="Q51" s="32"/>
+      <c r="R51" s="34"/>
+    </row>
+    <row r="52" spans="1:18" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>53</v>
       </c>
@@ -7697,31 +7784,32 @@
       <c r="H52" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I52" s="34">
+      <c r="I52" s="34"/>
+      <c r="J52" s="34">
         <v>1</v>
       </c>
-      <c r="J52" s="34" t="s">
+      <c r="K52" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K52" s="34" t="s">
+      <c r="L52" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L52" s="22">
+      <c r="M52" s="22">
         <v>43452</v>
       </c>
-      <c r="M52" s="33">
+      <c r="N52" s="33">
         <v>20</v>
       </c>
-      <c r="N52" s="32" t="s">
+      <c r="O52" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="O52" s="32"/>
       <c r="P52" s="32"/>
-      <c r="Q52" s="34" t="s">
+      <c r="Q52" s="32"/>
+      <c r="R52" s="34" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="57" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>54</v>
       </c>
@@ -7746,31 +7834,32 @@
       <c r="H53" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="I53" s="34">
+      <c r="I53" s="34"/>
+      <c r="J53" s="34">
         <v>1</v>
       </c>
-      <c r="J53" s="34" t="s">
+      <c r="K53" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K53" s="34" t="s">
+      <c r="L53" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L53" s="22">
+      <c r="M53" s="22">
         <v>43440</v>
       </c>
-      <c r="M53" s="33">
+      <c r="N53" s="33">
         <v>40</v>
       </c>
-      <c r="N53" s="32" t="s">
+      <c r="O53" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="O53" s="32"/>
       <c r="P53" s="32"/>
-      <c r="Q53" s="34" t="s">
+      <c r="Q53" s="32"/>
+      <c r="R53" s="34" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>55</v>
       </c>
@@ -7795,28 +7884,29 @@
       <c r="H54" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="I54" s="34">
+      <c r="I54" s="34"/>
+      <c r="J54" s="34">
         <v>2</v>
       </c>
-      <c r="J54" s="34" t="s">
+      <c r="K54" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K54" s="34" t="s">
+      <c r="L54" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L54" s="22">
+      <c r="M54" s="22">
         <v>43440</v>
       </c>
-      <c r="M54" s="33"/>
-      <c r="N54" s="32">
+      <c r="N54" s="33"/>
+      <c r="O54" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O54" s="32"/>
       <c r="P54" s="32"/>
-      <c r="Q54" s="34"/>
-    </row>
-    <row r="55" spans="1:17" ht="57" x14ac:dyDescent="0.25">
+      <c r="Q54" s="32"/>
+      <c r="R54" s="34"/>
+    </row>
+    <row r="55" spans="1:18" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>56</v>
       </c>
@@ -7841,28 +7931,29 @@
       <c r="H55" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="I55" s="34">
+      <c r="I55" s="34"/>
+      <c r="J55" s="34">
         <v>2</v>
       </c>
-      <c r="J55" s="34" t="s">
+      <c r="K55" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K55" s="34" t="s">
+      <c r="L55" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L55" s="22">
+      <c r="M55" s="22">
         <v>43440</v>
       </c>
-      <c r="M55" s="33"/>
-      <c r="N55" s="32">
+      <c r="N55" s="33"/>
+      <c r="O55" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O55" s="32"/>
       <c r="P55" s="32"/>
-      <c r="Q55" s="34"/>
-    </row>
-    <row r="56" spans="1:17" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="Q55" s="32"/>
+      <c r="R55" s="34"/>
+    </row>
+    <row r="56" spans="1:18" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>57</v>
       </c>
@@ -7887,29 +7978,30 @@
       <c r="H56" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I56" s="34">
+      <c r="I56" s="34"/>
+      <c r="J56" s="34">
         <v>1</v>
       </c>
-      <c r="J56" s="34" t="s">
+      <c r="K56" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K56" s="34" t="s">
+      <c r="L56" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L56" s="22">
+      <c r="M56" s="22">
         <v>43440</v>
       </c>
-      <c r="M56" s="33">
+      <c r="N56" s="33">
         <v>4</v>
       </c>
-      <c r="N56" s="32" t="s">
+      <c r="O56" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="O56" s="32"/>
       <c r="P56" s="32"/>
-      <c r="Q56" s="34"/>
-    </row>
-    <row r="57" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="Q56" s="32"/>
+      <c r="R56" s="34"/>
+    </row>
+    <row r="57" spans="1:18" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>58</v>
       </c>
@@ -7934,31 +8026,32 @@
       <c r="H57" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I57" s="34">
+      <c r="I57" s="34"/>
+      <c r="J57" s="34">
         <v>1</v>
       </c>
-      <c r="J57" s="34" t="s">
+      <c r="K57" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K57" s="34" t="s">
+      <c r="L57" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L57" s="22">
+      <c r="M57" s="22">
         <v>43440</v>
       </c>
-      <c r="M57" s="33">
+      <c r="N57" s="33">
         <v>0</v>
       </c>
-      <c r="N57" s="32">
+      <c r="O57" s="32">
         <v>0</v>
       </c>
-      <c r="O57" s="32"/>
       <c r="P57" s="32"/>
-      <c r="Q57" s="34" t="s">
+      <c r="Q57" s="32"/>
+      <c r="R57" s="34" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>59</v>
       </c>
@@ -7983,35 +8076,36 @@
       <c r="H58" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I58" s="34">
+      <c r="I58" s="34"/>
+      <c r="J58" s="34">
         <v>1</v>
       </c>
-      <c r="J58" s="34" t="s">
+      <c r="K58" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K58" s="34" t="s">
+      <c r="L58" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L58" s="22">
+      <c r="M58" s="22">
         <v>43440</v>
       </c>
-      <c r="M58" s="42">
+      <c r="N58" s="42">
         <v>20</v>
       </c>
-      <c r="N58" s="43">
+      <c r="O58" s="43">
         <v>30</v>
       </c>
-      <c r="O58" s="66" t="s">
+      <c r="P58" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="P58" s="32" t="s">
+      <c r="Q58" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="Q58" s="34" t="s">
+      <c r="R58" s="34" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>60</v>
       </c>
@@ -8036,25 +8130,26 @@
       <c r="H59" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="I59" s="34">
+      <c r="I59" s="34"/>
+      <c r="J59" s="34">
         <v>2</v>
       </c>
-      <c r="J59" s="34" t="s">
+      <c r="K59" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K59" s="34" t="s">
+      <c r="L59" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L59" s="22">
+      <c r="M59" s="22">
         <v>43440</v>
       </c>
-      <c r="M59" s="33"/>
-      <c r="N59" s="35"/>
+      <c r="N59" s="33"/>
       <c r="O59" s="35"/>
       <c r="P59" s="35"/>
-      <c r="Q59" s="34"/>
-    </row>
-    <row r="60" spans="1:17" ht="57" x14ac:dyDescent="0.25">
+      <c r="Q59" s="35"/>
+      <c r="R59" s="34"/>
+    </row>
+    <row r="60" spans="1:18" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>61</v>
       </c>
@@ -8079,25 +8174,26 @@
       <c r="H60" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="I60" s="34" t="s">
+      <c r="I60" s="34"/>
+      <c r="J60" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="J60" s="34" t="s">
+      <c r="K60" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K60" s="34" t="s">
+      <c r="L60" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L60" s="22">
+      <c r="M60" s="22">
         <v>43440</v>
       </c>
-      <c r="M60" s="33"/>
-      <c r="N60" s="35"/>
+      <c r="N60" s="33"/>
       <c r="O60" s="35"/>
       <c r="P60" s="35"/>
-      <c r="Q60" s="34"/>
-    </row>
-    <row r="61" spans="1:17" ht="171" x14ac:dyDescent="0.25">
+      <c r="Q60" s="35"/>
+      <c r="R60" s="34"/>
+    </row>
+    <row r="61" spans="1:18" ht="171" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>62</v>
       </c>
@@ -8122,31 +8218,32 @@
       <c r="H61" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I61" s="34">
+      <c r="I61" s="34"/>
+      <c r="J61" s="34">
         <v>1</v>
       </c>
-      <c r="J61" s="34" t="s">
+      <c r="K61" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K61" s="34" t="s">
+      <c r="L61" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="L61" s="22">
+      <c r="M61" s="22">
         <v>43452</v>
       </c>
-      <c r="M61" s="33">
+      <c r="N61" s="33">
         <v>15</v>
       </c>
-      <c r="N61" s="5">
+      <c r="O61" s="5">
         <v>40</v>
       </c>
-      <c r="O61" s="5"/>
       <c r="P61" s="5"/>
-      <c r="Q61" s="34" t="s">
+      <c r="Q61" s="5"/>
+      <c r="R61" s="34" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>63</v>
       </c>
@@ -8171,31 +8268,32 @@
       <c r="H62" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I62" s="34" t="s">
+      <c r="I62" s="34"/>
+      <c r="J62" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="J62" s="34" t="s">
+      <c r="K62" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K62" s="34" t="s">
+      <c r="L62" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L62" s="22">
+      <c r="M62" s="22">
         <v>43452</v>
       </c>
-      <c r="M62" s="33">
+      <c r="N62" s="33">
         <v>30</v>
       </c>
-      <c r="N62" s="5">
+      <c r="O62" s="5">
         <v>60</v>
       </c>
-      <c r="O62" s="5"/>
       <c r="P62" s="5"/>
-      <c r="Q62" s="34" t="s">
+      <c r="Q62" s="5"/>
+      <c r="R62" s="34" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>64</v>
       </c>
@@ -8221,30 +8319,33 @@
         <v>97</v>
       </c>
       <c r="I63" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="J63" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="J63" s="34" t="s">
+      <c r="K63" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K63" s="34" t="s">
+      <c r="L63" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L63" s="22">
+      <c r="M63" s="22">
         <v>43452</v>
       </c>
-      <c r="M63" s="33">
+      <c r="N63" s="33">
         <v>40</v>
       </c>
-      <c r="N63" s="5">
+      <c r="O63" s="5">
         <v>56</v>
       </c>
-      <c r="O63" s="5"/>
       <c r="P63" s="5"/>
-      <c r="Q63" s="34" t="s">
+      <c r="Q63" s="5"/>
+      <c r="R63" s="34" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="228" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" ht="228" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>65</v>
       </c>
@@ -8269,29 +8370,30 @@
       <c r="H64" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I64" s="34">
+      <c r="I64" s="34"/>
+      <c r="J64" s="34">
         <v>1</v>
       </c>
-      <c r="J64" s="34" t="s">
+      <c r="K64" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K64" s="34" t="s">
+      <c r="L64" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L64" s="22">
+      <c r="M64" s="22">
         <v>43446</v>
       </c>
-      <c r="M64" s="33"/>
-      <c r="N64" s="5">
+      <c r="N64" s="33"/>
+      <c r="O64" s="5">
         <v>24</v>
       </c>
-      <c r="O64" s="5"/>
       <c r="P64" s="5"/>
-      <c r="Q64" s="34" t="s">
+      <c r="Q64" s="5"/>
+      <c r="R64" s="34" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>66</v>
       </c>
@@ -8316,27 +8418,28 @@
       <c r="H65" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I65" s="34">
+      <c r="I65" s="34"/>
+      <c r="J65" s="34">
         <v>1</v>
       </c>
-      <c r="J65" s="34" t="s">
+      <c r="K65" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K65" s="34" t="s">
+      <c r="L65" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L65" s="22">
+      <c r="M65" s="22">
         <v>43446</v>
       </c>
-      <c r="M65" s="33"/>
-      <c r="N65" s="5">
+      <c r="N65" s="33"/>
+      <c r="O65" s="5">
         <v>4</v>
       </c>
-      <c r="O65" s="5"/>
       <c r="P65" s="5"/>
-      <c r="Q65" s="34"/>
-    </row>
-    <row r="66" spans="1:19" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q65" s="5"/>
+      <c r="R65" s="34"/>
+    </row>
+    <row r="66" spans="1:20" ht="106.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>67</v>
       </c>
@@ -8361,29 +8464,30 @@
       <c r="H66" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I66" s="34">
+      <c r="I66" s="34"/>
+      <c r="J66" s="34">
         <v>1</v>
       </c>
-      <c r="J66" s="34" t="s">
+      <c r="K66" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K66" s="34" t="s">
+      <c r="L66" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L66" s="22">
+      <c r="M66" s="22">
         <v>43451</v>
       </c>
-      <c r="M66" s="33"/>
-      <c r="N66" s="5">
+      <c r="N66" s="33"/>
+      <c r="O66" s="5">
         <v>18</v>
       </c>
-      <c r="O66" s="5"/>
       <c r="P66" s="5"/>
-      <c r="Q66" s="34" t="s">
+      <c r="Q66" s="5"/>
+      <c r="R66" s="34" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="114" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>68</v>
       </c>
@@ -8408,33 +8512,36 @@
       <c r="H67" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I67" s="34">
+      <c r="I67" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="J67" s="34">
         <v>1</v>
       </c>
-      <c r="J67" s="34" t="s">
+      <c r="K67" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K67" s="34" t="s">
+      <c r="L67" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L67" s="22">
+      <c r="M67" s="22">
         <v>43452</v>
       </c>
-      <c r="M67" s="33">
+      <c r="N67" s="33">
         <v>10</v>
       </c>
-      <c r="N67" s="5">
+      <c r="O67" s="5">
         <v>20</v>
       </c>
-      <c r="O67" s="5"/>
       <c r="P67" s="5"/>
-      <c r="Q67" s="34" t="s">
+      <c r="Q67" s="5"/>
+      <c r="R67" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="R67" s="5"/>
-      <c r="S67" s="34"/>
-    </row>
-    <row r="68" spans="1:19" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="S67" s="5"/>
+      <c r="T67" s="34"/>
+    </row>
+    <row r="68" spans="1:20" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>69</v>
       </c>
@@ -8459,29 +8566,30 @@
       <c r="H68" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I68" s="34">
+      <c r="I68" s="34"/>
+      <c r="J68" s="34">
         <v>1</v>
       </c>
-      <c r="J68" s="34" t="s">
+      <c r="K68" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K68" s="34" t="s">
+      <c r="L68" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L68" s="22">
+      <c r="M68" s="22">
         <v>43452</v>
       </c>
-      <c r="M68" s="33"/>
-      <c r="N68" s="5">
+      <c r="N68" s="33"/>
+      <c r="O68" s="5">
         <v>16</v>
       </c>
-      <c r="O68" s="5"/>
       <c r="P68" s="5"/>
       <c r="Q68" s="5"/>
-      <c r="R68" s="41"/>
-      <c r="S68" s="30"/>
-    </row>
-    <row r="69" spans="1:19" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="R68" s="5"/>
+      <c r="S68" s="41"/>
+      <c r="T68" s="30"/>
+    </row>
+    <row r="69" spans="1:20" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>70</v>
       </c>
@@ -8506,31 +8614,32 @@
       <c r="H69" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="I69" s="30" t="s">
+      <c r="I69" s="30"/>
+      <c r="J69" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="J69" s="30" t="s">
+      <c r="K69" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="K69" s="30" t="s">
+      <c r="L69" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="L69" s="40">
+      <c r="M69" s="40">
         <v>43452</v>
-      </c>
-      <c r="M69" s="5">
-        <v>0</v>
       </c>
       <c r="N69" s="5">
         <v>0</v>
       </c>
-      <c r="O69" s="5"/>
+      <c r="O69" s="5">
+        <v>0</v>
+      </c>
       <c r="P69" s="5"/>
       <c r="Q69" s="5"/>
       <c r="R69" s="5"/>
-      <c r="S69" s="34"/>
-    </row>
-    <row r="70" spans="1:19" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="S69" s="5"/>
+      <c r="T69" s="34"/>
+    </row>
+    <row r="70" spans="1:20" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>71</v>
       </c>
@@ -8555,35 +8664,36 @@
       <c r="H70" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="I70" s="30">
+      <c r="I70" s="30"/>
+      <c r="J70" s="30">
         <v>1</v>
       </c>
-      <c r="J70" s="30" t="s">
+      <c r="K70" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="K70" s="30" t="s">
+      <c r="L70" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="L70" s="40">
+      <c r="M70" s="40">
         <v>43452</v>
       </c>
-      <c r="M70" s="42">
+      <c r="N70" s="42">
         <v>20</v>
       </c>
-      <c r="N70" s="41">
+      <c r="O70" s="41">
         <v>30</v>
       </c>
-      <c r="O70" s="65" t="s">
+      <c r="P70" s="65" t="s">
         <v>199</v>
       </c>
-      <c r="P70" s="41" t="s">
+      <c r="Q70" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="Q70" s="68" t="s">
+      <c r="R70" s="68" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>72</v>
       </c>
@@ -8608,35 +8718,36 @@
       <c r="H71" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I71" s="34">
+      <c r="I71" s="34"/>
+      <c r="J71" s="34">
         <v>1</v>
       </c>
-      <c r="J71" s="34" t="s">
+      <c r="K71" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K71" s="34" t="s">
+      <c r="L71" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L71" s="22">
+      <c r="M71" s="22">
         <v>43452</v>
       </c>
-      <c r="M71" s="42">
+      <c r="N71" s="42">
         <v>10</v>
       </c>
-      <c r="N71" s="43">
+      <c r="O71" s="43">
         <v>15</v>
       </c>
-      <c r="O71" s="78" t="s">
+      <c r="P71" s="78" t="s">
         <v>257</v>
       </c>
-      <c r="P71" s="5" t="s">
+      <c r="Q71" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="Q71" s="68" t="s">
+      <c r="R71" s="68" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>73</v>
       </c>
@@ -8661,27 +8772,28 @@
       <c r="H72" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I72" s="34">
+      <c r="I72" s="34"/>
+      <c r="J72" s="34">
         <v>1</v>
       </c>
-      <c r="J72" s="34" t="s">
+      <c r="K72" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K72" s="34" t="s">
+      <c r="L72" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="L72" s="22">
+      <c r="M72" s="22">
         <v>43465</v>
       </c>
-      <c r="M72" s="52"/>
-      <c r="N72" s="5"/>
+      <c r="N72" s="52"/>
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
       <c r="Q72" s="5"/>
       <c r="R72" s="5"/>
-      <c r="S72" s="34"/>
-    </row>
-    <row r="73" spans="1:19" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="S72" s="5"/>
+      <c r="T72" s="34"/>
+    </row>
+    <row r="73" spans="1:20" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>74</v>
       </c>
@@ -8706,27 +8818,28 @@
       <c r="H73" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I73" s="34">
+      <c r="I73" s="34"/>
+      <c r="J73" s="34">
         <v>1</v>
       </c>
-      <c r="J73" s="34" t="s">
+      <c r="K73" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K73" s="34" t="s">
+      <c r="L73" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="L73" s="22">
+      <c r="M73" s="22">
         <v>43465</v>
       </c>
-      <c r="M73" s="52"/>
-      <c r="N73" s="5"/>
+      <c r="N73" s="52"/>
       <c r="O73" s="5"/>
       <c r="P73" s="5"/>
       <c r="Q73" s="5"/>
       <c r="R73" s="5"/>
-      <c r="S73" s="34"/>
-    </row>
-    <row r="74" spans="1:19" ht="57" x14ac:dyDescent="0.25">
+      <c r="S73" s="5"/>
+      <c r="T73" s="34"/>
+    </row>
+    <row r="74" spans="1:20" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>75</v>
       </c>
@@ -8751,27 +8864,28 @@
       <c r="H74" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I74" s="34">
+      <c r="I74" s="34"/>
+      <c r="J74" s="34">
         <v>1</v>
       </c>
-      <c r="J74" s="34" t="s">
+      <c r="K74" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K74" s="34" t="s">
+      <c r="L74" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="L74" s="22">
+      <c r="M74" s="22">
         <v>43465</v>
       </c>
-      <c r="M74" s="52"/>
-      <c r="N74" s="5"/>
+      <c r="N74" s="52"/>
       <c r="O74" s="5"/>
       <c r="P74" s="5"/>
       <c r="Q74" s="5"/>
       <c r="R74" s="5"/>
-      <c r="S74" s="34"/>
-    </row>
-    <row r="75" spans="1:19" ht="57" x14ac:dyDescent="0.25">
+      <c r="S74" s="5"/>
+      <c r="T74" s="34"/>
+    </row>
+    <row r="75" spans="1:20" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>76</v>
       </c>
@@ -8796,27 +8910,28 @@
       <c r="H75" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I75" s="34">
+      <c r="I75" s="34"/>
+      <c r="J75" s="34">
         <v>1</v>
       </c>
-      <c r="J75" s="34" t="s">
+      <c r="K75" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K75" s="34" t="s">
+      <c r="L75" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="L75" s="22">
+      <c r="M75" s="22">
         <v>43465</v>
       </c>
-      <c r="M75" s="52"/>
-      <c r="N75" s="5"/>
+      <c r="N75" s="52"/>
       <c r="O75" s="5"/>
       <c r="P75" s="5"/>
       <c r="Q75" s="5"/>
-      <c r="R75" s="77"/>
-      <c r="S75" s="34"/>
-    </row>
-    <row r="76" spans="1:19" ht="142.5" x14ac:dyDescent="0.25">
+      <c r="R75" s="5"/>
+      <c r="S75" s="77"/>
+      <c r="T75" s="34"/>
+    </row>
+    <row r="76" spans="1:20" ht="142.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>77</v>
       </c>
@@ -8841,27 +8956,28 @@
       <c r="H76" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I76" s="34">
+      <c r="I76" s="34"/>
+      <c r="J76" s="34">
         <v>1</v>
       </c>
-      <c r="J76" s="34" t="s">
+      <c r="K76" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K76" s="34" t="s">
+      <c r="L76" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="L76" s="22">
+      <c r="M76" s="22">
         <v>43465</v>
       </c>
-      <c r="M76" s="52"/>
-      <c r="N76" s="5"/>
+      <c r="N76" s="52"/>
       <c r="O76" s="5"/>
       <c r="P76" s="5"/>
       <c r="Q76" s="5"/>
-      <c r="R76" s="77"/>
-      <c r="S76" s="34"/>
-    </row>
-    <row r="77" spans="1:19" ht="114" x14ac:dyDescent="0.25">
+      <c r="R76" s="5"/>
+      <c r="S76" s="77"/>
+      <c r="T76" s="34"/>
+    </row>
+    <row r="77" spans="1:20" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>78</v>
       </c>
@@ -8886,35 +9002,36 @@
       <c r="H77" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="I77" s="34" t="s">
+      <c r="I77" s="34"/>
+      <c r="J77" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="J77" s="34" t="s">
+      <c r="K77" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K77" s="34" t="s">
+      <c r="L77" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="L77" s="22">
+      <c r="M77" s="22">
         <v>43477</v>
       </c>
-      <c r="M77" s="33">
+      <c r="N77" s="33">
         <v>0</v>
       </c>
-      <c r="N77" s="5">
+      <c r="O77" s="5">
         <v>0</v>
       </c>
-      <c r="O77" s="64" t="s">
+      <c r="P77" s="64" t="s">
         <v>228</v>
       </c>
-      <c r="P77" s="5" t="s">
+      <c r="Q77" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="Q77" s="34" t="s">
+      <c r="R77" s="34" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>79</v>
       </c>
@@ -8939,25 +9056,26 @@
       <c r="H78" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I78" s="34">
+      <c r="I78" s="34"/>
+      <c r="J78" s="34">
         <v>1</v>
       </c>
-      <c r="J78" s="34" t="s">
+      <c r="K78" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K78" s="34" t="s">
+      <c r="L78" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="L78" s="22">
+      <c r="M78" s="22">
         <v>43477</v>
       </c>
-      <c r="M78" s="33"/>
-      <c r="N78" s="5"/>
-      <c r="O78" s="35"/>
-      <c r="P78" s="5"/>
-      <c r="Q78" s="34"/>
-    </row>
-    <row r="79" spans="1:19" ht="57" x14ac:dyDescent="0.25">
+      <c r="N78" s="33"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="35"/>
+      <c r="Q78" s="5"/>
+      <c r="R78" s="34"/>
+    </row>
+    <row r="79" spans="1:20" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>80</v>
       </c>
@@ -8982,25 +9100,26 @@
       <c r="H79" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I79" s="34">
+      <c r="I79" s="34"/>
+      <c r="J79" s="34">
         <v>1</v>
       </c>
-      <c r="J79" s="34" t="s">
+      <c r="K79" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K79" s="34" t="s">
+      <c r="L79" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="L79" s="22">
+      <c r="M79" s="22">
         <v>43477</v>
       </c>
-      <c r="M79" s="33"/>
-      <c r="N79" s="5"/>
-      <c r="O79" s="35"/>
-      <c r="P79" s="5"/>
-      <c r="Q79" s="34"/>
-    </row>
-    <row r="80" spans="1:19" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="N79" s="33"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="35"/>
+      <c r="Q79" s="5"/>
+      <c r="R79" s="34"/>
+    </row>
+    <row r="80" spans="1:20" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>81</v>
       </c>
@@ -9025,25 +9144,26 @@
       <c r="H80" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I80" s="34">
+      <c r="I80" s="34"/>
+      <c r="J80" s="34">
         <v>1</v>
       </c>
-      <c r="J80" s="34" t="s">
+      <c r="K80" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K80" s="34" t="s">
+      <c r="L80" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="L80" s="22">
+      <c r="M80" s="22">
         <v>43477</v>
       </c>
-      <c r="M80" s="33"/>
-      <c r="N80" s="5"/>
-      <c r="O80" s="35"/>
-      <c r="P80" s="5"/>
-      <c r="Q80" s="34"/>
-    </row>
-    <row r="81" spans="1:17" ht="114" x14ac:dyDescent="0.25">
+      <c r="N80" s="33"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="35"/>
+      <c r="Q80" s="5"/>
+      <c r="R80" s="34"/>
+    </row>
+    <row r="81" spans="1:18" ht="114" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>82</v>
       </c>
@@ -9068,25 +9188,26 @@
       <c r="H81" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I81" s="34">
+      <c r="I81" s="34"/>
+      <c r="J81" s="34">
         <v>1</v>
       </c>
-      <c r="J81" s="34" t="s">
+      <c r="K81" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K81" s="34" t="s">
+      <c r="L81" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="L81" s="22">
+      <c r="M81" s="22">
         <v>43477</v>
       </c>
-      <c r="M81" s="33"/>
-      <c r="N81" s="5"/>
-      <c r="O81" s="35"/>
-      <c r="P81" s="5"/>
-      <c r="Q81" s="34"/>
-    </row>
-    <row r="82" spans="1:17" ht="114" x14ac:dyDescent="0.25">
+      <c r="N81" s="33"/>
+      <c r="O81" s="5"/>
+      <c r="P81" s="35"/>
+      <c r="Q81" s="5"/>
+      <c r="R81" s="34"/>
+    </row>
+    <row r="82" spans="1:18" ht="114" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>83</v>
       </c>
@@ -9111,25 +9232,26 @@
       <c r="H82" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I82" s="34">
+      <c r="I82" s="34"/>
+      <c r="J82" s="34">
         <v>1</v>
       </c>
-      <c r="J82" s="34" t="s">
+      <c r="K82" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K82" s="34" t="s">
+      <c r="L82" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="L82" s="22">
+      <c r="M82" s="22">
         <v>43477</v>
       </c>
-      <c r="M82" s="33"/>
-      <c r="N82" s="5"/>
-      <c r="O82" s="35"/>
-      <c r="P82" s="5"/>
-      <c r="Q82" s="34"/>
-    </row>
-    <row r="83" spans="1:17" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="N82" s="33"/>
+      <c r="O82" s="5"/>
+      <c r="P82" s="35"/>
+      <c r="Q82" s="5"/>
+      <c r="R82" s="34"/>
+    </row>
+    <row r="83" spans="1:18" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>84</v>
       </c>
@@ -9154,25 +9276,28 @@
       <c r="H83" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I83" s="34">
+      <c r="I83" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="J83" s="34">
         <v>1</v>
       </c>
-      <c r="J83" s="34" t="s">
+      <c r="K83" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K83" s="34" t="s">
+      <c r="L83" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="L83" s="22">
+      <c r="M83" s="22">
         <v>43477</v>
       </c>
-      <c r="M83" s="33"/>
-      <c r="N83" s="5"/>
-      <c r="O83" s="35"/>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="34"/>
-    </row>
-    <row r="84" spans="1:17" ht="57" x14ac:dyDescent="0.25">
+      <c r="N83" s="33"/>
+      <c r="O83" s="5"/>
+      <c r="P83" s="35"/>
+      <c r="Q83" s="5"/>
+      <c r="R83" s="34"/>
+    </row>
+    <row r="84" spans="1:18" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>85</v>
       </c>
@@ -9197,25 +9322,26 @@
       <c r="H84" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I84" s="34">
+      <c r="I84" s="34"/>
+      <c r="J84" s="34">
         <v>1</v>
       </c>
-      <c r="J84" s="34" t="s">
+      <c r="K84" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K84" s="34" t="s">
+      <c r="L84" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="L84" s="22">
+      <c r="M84" s="22">
         <v>43477</v>
       </c>
-      <c r="M84" s="33"/>
-      <c r="N84" s="5"/>
-      <c r="O84" s="35"/>
-      <c r="P84" s="5"/>
-      <c r="Q84" s="34"/>
-    </row>
-    <row r="85" spans="1:17" ht="142.5" x14ac:dyDescent="0.25">
+      <c r="N84" s="33"/>
+      <c r="O84" s="5"/>
+      <c r="P84" s="35"/>
+      <c r="Q84" s="5"/>
+      <c r="R84" s="34"/>
+    </row>
+    <row r="85" spans="1:18" ht="142.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>86</v>
       </c>
@@ -9240,28 +9366,36 @@
       <c r="H85" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I85" s="34">
+      <c r="I85" s="34"/>
+      <c r="J85" s="34">
         <v>1</v>
       </c>
-      <c r="J85" s="34" t="s">
+      <c r="K85" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K85" s="34" t="s">
+      <c r="L85" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="L85" s="22">
+      <c r="M85" s="22">
         <v>43486</v>
       </c>
-      <c r="M85" s="33"/>
-      <c r="N85" s="5"/>
-      <c r="O85" s="35"/>
-      <c r="P85" s="5"/>
-      <c r="Q85" s="34"/>
+      <c r="N85" s="33"/>
+      <c r="O85" s="5"/>
+      <c r="P85" s="35"/>
+      <c r="Q85" s="5"/>
+      <c r="R85" s="34"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Q84" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:R85" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="DevOps"/>
+        <filter val="ID Authentication"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
-    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9496,15 +9630,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D32E068FDE16E34B8075022FB1536456" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d905b7d076fda08b8ad7ac1f301e6870">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7784986bdb25cf89cb05135ef15ccb6c" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9676,6 +9801,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -9700,14 +9834,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62A013D4-4E69-4E0D-8B8F-1AA53B7A2CEA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9721,6 +9847,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
+++ b/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\git-repo\mosip\docs\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{21C8D0A5-F31B-4008-B7D1-03AE52A3AD06}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{44576A71-BDD6-49A1-A037-B88E6822002B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="279">
   <si>
     <t>S.No.</t>
   </si>
@@ -612,42 +612,6 @@
   </si>
   <si>
     <t>Discussion with GoM/PwC on 24-Oct-18</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mode of login to client, Mode of local duplicate check on client, Mode of officer authentication at end of each registration on client: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Backlog</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Support multifactor authentication using username + password and/or OTP, fingerprint - Iris and Face is a new inclusion as requested by GoM/PwC</t>
-    </r>
   </si>
   <si>
     <t>Resham</t>
@@ -3118,23 +3082,111 @@
   </si>
   <si>
     <t>&lt;22Jan19&gt;
-Not needed by GoM but demoed and hence to be included</t>
+OK</t>
   </si>
   <si>
     <t>&lt;22Jan19&gt;
-OK</t>
+Prioritize GoM req with stubbed config/modularity in v1. Config perspective, the parameter will not be marked and only GoM required modes of login should be the primary focus. If the config is marked, then MOSIP should respond with "Feature not available".
+Scope the other peices (Other modes) in v1+.</t>
   </si>
   <si>
     <t>&lt;22Jan19&gt;
-Need Design and Effort</t>
+Prioritize GoM req with stubbed config/modularity in v1. Scope the other peices in v1+. My problem is with effort estimate, why so much?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;22Jan19&gt;
+Prioritize GoM req with stubbed config/modularity in v1. Scope the other peices in v1+. My problem is with effort estimate, why so much? </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Mode of local duplicate check on client, 
+2. Mode of officer authentication at end of each registration on client: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Backlog</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Support multifactor authentication using username + password and/or OTP, fingerprint - Iris and Face is a new inclusion as requested by GoM/PwC</t>
+    </r>
   </si>
   <si>
     <t>&lt;22Jan19&gt;
-Infra as code is not a change request. It was always a part of design as Kubernets. Refer email from me on the same subject. Shravan to explain.</t>
+Infra as code is not a change request, it was always a part of design as K8. Refer my email on the subject. Shravan to explain.</t>
   </si>
   <si>
     <t>&lt;22Jan19&gt;
-OK. Go as per Sanjay's inputs.</t>
+Discuss Change Desc with Ramesh, Sanjays inputs look good.</t>
+  </si>
+  <si>
+    <t>&lt;22Jan19&gt;
+OK. Go as per Sanjay's inputs.
+Correct the change description. Above threshold match for biometric and exact match for demographic data.</t>
+  </si>
+  <si>
+    <t>&lt;22Jan19&gt;
+As discussed with Sanjay, there is no change request. Please take it off the list.</t>
+  </si>
+  <si>
+    <t>&lt;22Jan19&gt;
+As discussed with Sanjay, there is no change request, exact match is the limited match. Please take it off the list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;22Jan19&gt;
+Biometric image is for v1+. </t>
+  </si>
+  <si>
+    <t>&lt;22Jan19&gt;
+small time changes. Include in v1. 12 days of PD needed for these! I need justification for estimate.</t>
+  </si>
+  <si>
+    <t>&lt;22Jan19&gt;
+If face is in scope of GoM keep it, else for v1+</t>
+  </si>
+  <si>
+    <t>&lt;22Jan19&gt;
+Its an essential part of eKYC security. Should be implemented for v1. Need design and effort estimate.</t>
+  </si>
+  <si>
+    <t>&lt;22Jan19&gt;
+Not really needed by GoM, but has been demoed to them. So do it.</t>
+  </si>
+  <si>
+    <t>&lt;22Jan19&gt;
+It is really subset of 61, please merge the two. Needs to be implemented for v1.</t>
+  </si>
+  <si>
+    <t>&lt;22Jan19&gt;
+It is in scope of v1. Need design (using modularity principles) and effort estimate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;22Jan19&gt;
+We need to do it. Need to see design &amp; Effort estimate
+</t>
   </si>
 </sst>
 </file>
@@ -4886,7 +4938,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField dataField="1" showAll="0"/>
@@ -5235,12 +5287,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:T85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -5257,7 +5308,7 @@
     <col min="11" max="11" width="20.85546875" style="3" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" style="3" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="29" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" style="29" customWidth="1"/>
     <col min="15" max="15" width="15.85546875" style="2" customWidth="1"/>
     <col min="16" max="16" width="15.85546875" style="11" customWidth="1"/>
     <col min="17" max="17" width="15.85546875" style="2" customWidth="1"/>
@@ -5267,7 +5318,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="79" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B1" s="80"/>
       <c r="C1" s="80"/>
@@ -5313,7 +5364,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J2" s="21" t="s">
         <v>8</v>
@@ -5328,22 +5379,22 @@
         <v>11</v>
       </c>
       <c r="N2" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O2" s="21" t="s">
         <v>12</v>
       </c>
       <c r="P2" s="61" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q2" s="21" t="s">
         <v>204</v>
-      </c>
-      <c r="Q2" s="21" t="s">
-        <v>205</v>
       </c>
       <c r="R2" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="4" customFormat="1" ht="114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="4" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -5368,7 +5419,9 @@
       <c r="H3" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="34"/>
+      <c r="I3" s="34" t="s">
+        <v>262</v>
+      </c>
       <c r="J3" s="34">
         <v>1</v>
       </c>
@@ -5385,7 +5438,7 @@
         <v>36</v>
       </c>
       <c r="O3" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P3" s="32"/>
       <c r="Q3" s="32"/>
@@ -5393,7 +5446,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="4" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="4" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -5418,7 +5471,9 @@
       <c r="H4" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="34"/>
+      <c r="I4" s="34" t="s">
+        <v>263</v>
+      </c>
       <c r="J4" s="34">
         <v>1</v>
       </c>
@@ -5435,7 +5490,7 @@
         <v>12</v>
       </c>
       <c r="O4" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P4" s="32"/>
       <c r="Q4" s="32"/>
@@ -5443,7 +5498,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="4" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="4" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -5468,7 +5523,9 @@
       <c r="H5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="34"/>
+      <c r="I5" s="34" t="s">
+        <v>264</v>
+      </c>
       <c r="J5" s="34">
         <v>1</v>
       </c>
@@ -5485,7 +5542,7 @@
         <v>35</v>
       </c>
       <c r="O5" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P5" s="32"/>
       <c r="Q5" s="32"/>
@@ -5493,7 +5550,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="4" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -5535,7 +5592,7 @@
         <v>30</v>
       </c>
       <c r="O6" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P6" s="32"/>
       <c r="Q6" s="32"/>
@@ -5543,7 +5600,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="1" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -5585,13 +5642,13 @@
         <v>0</v>
       </c>
       <c r="O7" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P7" s="32"/>
       <c r="Q7" s="32"/>
       <c r="R7" s="22"/>
     </row>
-    <row r="8" spans="1:18" s="1" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -5633,7 +5690,7 @@
         <v>36</v>
       </c>
       <c r="O8" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P8" s="32"/>
       <c r="Q8" s="32"/>
@@ -5686,7 +5743,7 @@
       <c r="Q9" s="32"/>
       <c r="R9" s="22"/>
     </row>
-    <row r="10" spans="1:18" s="1" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -5703,10 +5760,10 @@
         <v>31</v>
       </c>
       <c r="F10" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="G10" s="15" t="s">
         <v>44</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>45</v>
       </c>
       <c r="H10" s="20" t="s">
         <v>29</v>
@@ -5728,15 +5785,15 @@
         <v>20</v>
       </c>
       <c r="O10" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P10" s="32"/>
       <c r="Q10" s="32"/>
       <c r="R10" s="22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" s="1" customFormat="1" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -5747,19 +5804,19 @@
         <v>43</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="54" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" s="34"/>
       <c r="J11" s="34">
@@ -5775,22 +5832,22 @@
         <v>43419</v>
       </c>
       <c r="N11" s="53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O11" s="43">
         <v>36</v>
       </c>
       <c r="P11" s="63" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q11" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="Q11" s="32" t="s">
-        <v>200</v>
-      </c>
       <c r="R11" s="22" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" s="1" customFormat="1" ht="126.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="1" customFormat="1" ht="126.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -5801,19 +5858,19 @@
         <v>43</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="54" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H12" s="34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I12" s="34"/>
       <c r="J12" s="34">
@@ -5835,16 +5892,16 @@
         <v>54</v>
       </c>
       <c r="P12" s="63" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q12" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="Q12" s="32" t="s">
-        <v>200</v>
-      </c>
       <c r="R12" s="22" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="4" customFormat="1" ht="171" hidden="1" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="4" customFormat="1" ht="171" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -5855,19 +5912,19 @@
         <v>43</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F13" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="20" t="s">
         <v>51</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>52</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20">
@@ -5883,22 +5940,22 @@
         <v>43419</v>
       </c>
       <c r="N13" s="53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O13" s="43">
         <v>72</v>
       </c>
       <c r="P13" s="63" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q13" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="R13" s="22" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" s="1" customFormat="1" ht="114" hidden="1" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -5909,19 +5966,19 @@
         <v>43</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F14" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="25" t="s">
         <v>54</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>55</v>
       </c>
       <c r="I14" s="25"/>
       <c r="J14" s="25">
@@ -5943,16 +6000,16 @@
         <v>0</v>
       </c>
       <c r="P14" s="64" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R14" s="22" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" s="4" customFormat="1" ht="114" hidden="1" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="4" customFormat="1" ht="114" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -5963,19 +6020,19 @@
         <v>43</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F15" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="34" t="s">
         <v>57</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="34" t="s">
-        <v>58</v>
       </c>
       <c r="I15" s="34"/>
       <c r="J15" s="34">
@@ -5994,40 +6051,40 @@
         <v>10</v>
       </c>
       <c r="O15" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="P15" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q15" s="57" t="s">
         <v>211</v>
       </c>
-      <c r="P15" s="65" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q15" s="57" t="s">
-        <v>212</v>
-      </c>
       <c r="R15" s="58" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" s="1" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>14</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="34" t="s">
         <v>59</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>60</v>
       </c>
       <c r="E16" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F16" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="34" t="s">
         <v>61</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="34" t="s">
-        <v>62</v>
       </c>
       <c r="I16" s="34"/>
       <c r="J16" s="34">
@@ -6048,28 +6105,28 @@
       <c r="Q16" s="32"/>
       <c r="R16" s="22"/>
     </row>
-    <row r="17" spans="1:18" s="4" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>15</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="34" t="s">
         <v>59</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>60</v>
       </c>
       <c r="E17" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="34" t="s">
         <v>63</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>64</v>
       </c>
       <c r="I17" s="34"/>
       <c r="J17" s="34">
@@ -6090,7 +6147,7 @@
       <c r="Q17" s="32"/>
       <c r="R17" s="22"/>
     </row>
-    <row r="18" spans="1:18" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -6098,7 +6155,7 @@
         <v>43402</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="34" t="s">
         <v>15</v>
@@ -6107,13 +6164,13 @@
         <v>31</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H18" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I18" s="34"/>
       <c r="J18" s="34">
@@ -6132,15 +6189,15 @@
         <v>10</v>
       </c>
       <c r="O18" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P18" s="32"/>
       <c r="Q18" s="32"/>
       <c r="R18" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -6148,7 +6205,7 @@
         <v>43402</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" s="34" t="s">
         <v>15</v>
@@ -6157,13 +6214,13 @@
         <v>31</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H19" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I19" s="34"/>
       <c r="J19" s="34">
@@ -6182,15 +6239,15 @@
         <v>5</v>
       </c>
       <c r="O19" s="32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P19" s="32"/>
       <c r="Q19" s="32"/>
       <c r="R19" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -6198,22 +6255,22 @@
         <v>43402</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F20" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="15" t="s">
         <v>69</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>70</v>
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="15">
@@ -6235,16 +6292,16 @@
         <v>30</v>
       </c>
       <c r="P20" s="65" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q20" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R20" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -6252,22 +6309,22 @@
         <v>43402</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E21" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F21" s="48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H21" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I21" s="34"/>
       <c r="J21" s="34">
@@ -6288,7 +6345,7 @@
       <c r="Q21" s="32"/>
       <c r="R21" s="22"/>
     </row>
-    <row r="22" spans="1:18" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -6296,22 +6353,22 @@
         <v>43402</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E22" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F22" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="25" t="s">
         <v>75</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>76</v>
       </c>
       <c r="I22" s="25"/>
       <c r="J22" s="25">
@@ -6332,7 +6389,7 @@
       <c r="Q22" s="32"/>
       <c r="R22" s="22"/>
     </row>
-    <row r="23" spans="1:18" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -6340,7 +6397,7 @@
         <v>43402</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>15</v>
@@ -6349,13 +6406,13 @@
         <v>31</v>
       </c>
       <c r="F23" s="48" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H23" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I23" s="34"/>
       <c r="J23" s="34">
@@ -6374,15 +6431,15 @@
         <v>10</v>
       </c>
       <c r="O23" s="32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P23" s="32"/>
       <c r="Q23" s="32"/>
       <c r="R23" s="22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -6390,7 +6447,7 @@
         <v>43418</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>15</v>
@@ -6399,13 +6456,13 @@
         <v>31</v>
       </c>
       <c r="F24" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H24" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I24" s="34"/>
       <c r="J24" s="15">
@@ -6424,15 +6481,15 @@
         <v>5</v>
       </c>
       <c r="O24" s="32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P24" s="32"/>
       <c r="Q24" s="32"/>
       <c r="R24" s="24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>23</v>
       </c>
@@ -6440,22 +6497,22 @@
         <v>43418</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E25" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F25" s="44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H25" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I25" s="34"/>
       <c r="J25" s="15">
@@ -6476,7 +6533,7 @@
       <c r="Q25" s="32"/>
       <c r="R25" s="22"/>
     </row>
-    <row r="26" spans="1:18" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="57" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -6484,34 +6541,34 @@
         <v>43418</v>
       </c>
       <c r="C26" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>82</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>83</v>
       </c>
       <c r="E26" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F26" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H26" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I26" s="34" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J26" s="15">
         <v>1</v>
       </c>
       <c r="K26" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="L26" s="15" t="s">
         <v>85</v>
-      </c>
-      <c r="L26" s="15" t="s">
-        <v>86</v>
       </c>
       <c r="M26" s="22">
         <v>43419</v>
@@ -6520,13 +6577,13 @@
         <v>30</v>
       </c>
       <c r="O26" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P26" s="32"/>
       <c r="Q26" s="32"/>
       <c r="R26" s="15"/>
     </row>
-    <row r="27" spans="1:18" ht="101.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>25</v>
       </c>
@@ -6534,32 +6591,32 @@
         <v>43418</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E27" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F27" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H27" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I27" s="34"/>
       <c r="J27" s="15">
         <v>1</v>
       </c>
       <c r="K27" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="L27" s="15" t="s">
         <v>85</v>
-      </c>
-      <c r="L27" s="15" t="s">
-        <v>86</v>
       </c>
       <c r="M27" s="22">
         <v>43419</v>
@@ -6571,16 +6628,16 @@
         <v>30</v>
       </c>
       <c r="P27" s="66" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q27" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="Q27" s="32" t="s">
-        <v>214</v>
-      </c>
       <c r="R27" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -6588,31 +6645,31 @@
         <v>43430</v>
       </c>
       <c r="C28" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="34" t="s">
         <v>90</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>91</v>
       </c>
       <c r="E28" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H28" s="34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I28" s="34" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J28" s="34">
         <v>1</v>
       </c>
       <c r="K28" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L28" s="34" t="s">
         <v>21</v>
@@ -6624,13 +6681,13 @@
         <v>6</v>
       </c>
       <c r="O28" s="32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P28" s="32"/>
       <c r="Q28" s="32"/>
       <c r="R28" s="34"/>
     </row>
-    <row r="29" spans="1:18" s="8" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" s="8" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>27</v>
       </c>
@@ -6638,7 +6695,7 @@
         <v>43430</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="34" t="s">
         <v>15</v>
@@ -6647,20 +6704,20 @@
         <v>31</v>
       </c>
       <c r="F29" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="34" t="s">
         <v>93</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H29" s="34" t="s">
-        <v>94</v>
       </c>
       <c r="I29" s="34"/>
       <c r="J29" s="34">
         <v>1</v>
       </c>
       <c r="K29" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L29" s="34" t="s">
         <v>21</v>
@@ -6672,15 +6729,15 @@
         <v>10</v>
       </c>
       <c r="O29" s="32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P29" s="32"/>
       <c r="Q29" s="32"/>
       <c r="R29" s="34" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" s="8" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" s="8" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -6688,7 +6745,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="34" t="s">
         <v>15</v>
@@ -6697,20 +6754,20 @@
         <v>31</v>
       </c>
       <c r="F30" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="34" t="s">
         <v>96</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H30" s="34" t="s">
-        <v>97</v>
       </c>
       <c r="I30" s="34"/>
       <c r="J30" s="34">
         <v>1</v>
       </c>
       <c r="K30" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L30" s="34" t="s">
         <v>21</v>
@@ -6722,15 +6779,15 @@
         <v>15</v>
       </c>
       <c r="O30" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P30" s="32"/>
       <c r="Q30" s="32"/>
       <c r="R30" s="34" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>29</v>
       </c>
@@ -6738,7 +6795,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D31" s="34" t="s">
         <v>15</v>
@@ -6747,20 +6804,20 @@
         <v>31</v>
       </c>
       <c r="F31" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H31" s="34" t="s">
         <v>99</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H31" s="34" t="s">
-        <v>100</v>
       </c>
       <c r="I31" s="34"/>
       <c r="J31" s="34">
         <v>1</v>
       </c>
       <c r="K31" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L31" s="34" t="s">
         <v>21</v>
@@ -6772,7 +6829,7 @@
         <v>1</v>
       </c>
       <c r="O31" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P31" s="32"/>
       <c r="Q31" s="32"/>
@@ -6786,7 +6843,7 @@
         <v>43430</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="34" t="s">
         <v>38</v>
@@ -6795,22 +6852,22 @@
         <v>31</v>
       </c>
       <c r="F32" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H32" s="30" t="s">
-        <v>103</v>
-      </c>
       <c r="I32" s="30" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J32" s="16">
         <v>1</v>
       </c>
       <c r="K32" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L32" s="34" t="s">
         <v>21</v>
@@ -6822,12 +6879,12 @@
         <v>0</v>
       </c>
       <c r="O32" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P32" s="32"/>
       <c r="Q32" s="32"/>
       <c r="R32" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="71.25" x14ac:dyDescent="0.25">
@@ -6838,7 +6895,7 @@
         <v>43430</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D33" s="34" t="s">
         <v>38</v>
@@ -6847,22 +6904,22 @@
         <v>31</v>
       </c>
       <c r="F33" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H33" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="G33" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H33" s="34" t="s">
-        <v>106</v>
-      </c>
       <c r="I33" s="30" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="J33" s="16">
         <v>1</v>
       </c>
       <c r="K33" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L33" s="34" t="s">
         <v>21</v>
@@ -6874,12 +6931,12 @@
         <v>10</v>
       </c>
       <c r="O33" s="32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P33" s="32"/>
       <c r="Q33" s="32"/>
       <c r="R33" s="34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="142.5" x14ac:dyDescent="0.25">
@@ -6890,7 +6947,7 @@
         <v>43430</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D34" s="34" t="s">
         <v>38</v>
@@ -6899,20 +6956,22 @@
         <v>31</v>
       </c>
       <c r="F34" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="G34" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H34" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="I34" s="34"/>
+      <c r="I34" s="30" t="s">
+        <v>269</v>
+      </c>
       <c r="J34" s="34">
         <v>1</v>
       </c>
       <c r="K34" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L34" s="34" t="s">
         <v>21</v>
@@ -6924,12 +6983,12 @@
         <v>0</v>
       </c>
       <c r="O34" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P34" s="32"/>
       <c r="Q34" s="32"/>
       <c r="R34" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="71.25" x14ac:dyDescent="0.25">
@@ -6940,7 +6999,7 @@
         <v>43430</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D35" s="34" t="s">
         <v>38</v>
@@ -6949,20 +7008,22 @@
         <v>31</v>
       </c>
       <c r="F35" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H35" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="I35" s="34"/>
+        <v>107</v>
+      </c>
+      <c r="I35" s="30" t="s">
+        <v>270</v>
+      </c>
       <c r="J35" s="34">
         <v>1</v>
       </c>
       <c r="K35" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L35" s="34" t="s">
         <v>21</v>
@@ -6974,15 +7035,15 @@
         <v>0</v>
       </c>
       <c r="O35" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P35" s="32"/>
       <c r="Q35" s="32"/>
       <c r="R35" s="34" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>34</v>
       </c>
@@ -6990,31 +7051,31 @@
         <v>43430</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E36" s="34" t="s">
         <v>39</v>
       </c>
       <c r="F36" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H36" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="G36" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H36" s="34" t="s">
-        <v>112</v>
-      </c>
       <c r="I36" s="34" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J36" s="34">
         <v>2</v>
       </c>
       <c r="K36" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L36" s="34" t="s">
         <v>21</v>
@@ -7028,7 +7089,7 @@
       <c r="Q36" s="32"/>
       <c r="R36" s="34"/>
     </row>
-    <row r="37" spans="1:18" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>35</v>
       </c>
@@ -7036,7 +7097,7 @@
         <v>43430</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="34" t="s">
         <v>15</v>
@@ -7045,20 +7106,20 @@
         <v>39</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H37" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I37" s="34"/>
       <c r="J37" s="34">
         <v>2</v>
       </c>
       <c r="K37" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L37" s="34" t="s">
         <v>21</v>
@@ -7075,7 +7136,7 @@
       <c r="Q37" s="32"/>
       <c r="R37" s="34"/>
     </row>
-    <row r="38" spans="1:18" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>36</v>
       </c>
@@ -7083,7 +7144,7 @@
         <v>43427</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="34" t="s">
         <v>15</v>
@@ -7092,20 +7153,20 @@
         <v>39</v>
       </c>
       <c r="F38" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H38" s="34" t="s">
         <v>115</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H38" s="34" t="s">
-        <v>116</v>
       </c>
       <c r="I38" s="34"/>
       <c r="J38" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K38" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L38" s="34" t="s">
         <v>21</v>
@@ -7124,7 +7185,7 @@
       <c r="Q38" s="32"/>
       <c r="R38" s="34"/>
     </row>
-    <row r="39" spans="1:18" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>37</v>
       </c>
@@ -7132,7 +7193,7 @@
         <v>43427</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D39" s="34" t="s">
         <v>15</v>
@@ -7141,20 +7202,20 @@
         <v>39</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H39" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I39" s="34"/>
       <c r="J39" s="34">
         <v>2</v>
       </c>
       <c r="K39" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L39" s="34" t="s">
         <v>21</v>
@@ -7171,7 +7232,7 @@
       <c r="Q39" s="32"/>
       <c r="R39" s="34"/>
     </row>
-    <row r="40" spans="1:18" ht="256.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" ht="256.5" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>38</v>
       </c>
@@ -7179,29 +7240,29 @@
         <v>43427</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D40" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E40" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F40" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H40" s="34" t="s">
         <v>118</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H40" s="34" t="s">
-        <v>119</v>
       </c>
       <c r="I40" s="34"/>
       <c r="J40" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K40" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L40" s="34" t="s">
         <v>21</v>
@@ -7216,14 +7277,14 @@
         <v>90</v>
       </c>
       <c r="P40" s="62" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q40" s="32"/>
       <c r="R40" s="34" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -7231,29 +7292,29 @@
         <v>43427</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D41" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E41" s="34" t="s">
         <v>39</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H41" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I41" s="34"/>
       <c r="J41" s="34">
         <v>2</v>
       </c>
       <c r="K41" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L41" s="34" t="s">
         <v>21</v>
@@ -7268,10 +7329,10 @@
       <c r="P41" s="32"/>
       <c r="Q41" s="32"/>
       <c r="R41" s="34" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" ht="83.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -7279,29 +7340,29 @@
         <v>43427</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E42" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F42" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H42" s="34" t="s">
         <v>121</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H42" s="34" t="s">
-        <v>122</v>
       </c>
       <c r="I42" s="34"/>
       <c r="J42" s="34">
         <v>1</v>
       </c>
       <c r="K42" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L42" s="34" t="s">
         <v>21</v>
@@ -7313,19 +7374,19 @@
         <v>18</v>
       </c>
       <c r="O42" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P42" s="66" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q42" s="32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="R42" s="34" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -7333,29 +7394,29 @@
         <v>43427</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E43" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H43" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I43" s="34"/>
       <c r="J43" s="34">
         <v>1</v>
       </c>
       <c r="K43" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L43" s="34" t="s">
         <v>21</v>
@@ -7370,16 +7431,16 @@
         <v>30</v>
       </c>
       <c r="P43" s="64" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q43" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="R43" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="Q43" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="R43" s="34" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:18" ht="57" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>45</v>
       </c>
@@ -7387,32 +7448,32 @@
         <v>43427</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D44" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E44" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H44" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I44" s="34"/>
       <c r="J44" s="34">
         <v>2</v>
       </c>
       <c r="K44" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L44" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M44" s="22">
         <v>43452</v>
@@ -7423,7 +7484,7 @@
       <c r="Q44" s="32"/>
       <c r="R44" s="34"/>
     </row>
-    <row r="45" spans="1:18" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" ht="57" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>46</v>
       </c>
@@ -7431,29 +7492,29 @@
         <v>43427</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D45" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E45" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H45" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I45" s="34"/>
       <c r="J45" s="34">
         <v>1</v>
       </c>
       <c r="K45" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L45" s="34" t="s">
         <v>21</v>
@@ -7468,13 +7529,13 @@
         <v>8</v>
       </c>
       <c r="P45" s="67" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q45" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="R45" s="20" t="s">
         <v>230</v>
-      </c>
-      <c r="R45" s="20" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="57" x14ac:dyDescent="0.25">
@@ -7485,7 +7546,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D46" s="34" t="s">
         <v>38</v>
@@ -7494,20 +7555,22 @@
         <v>31</v>
       </c>
       <c r="F46" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H46" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="G46" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H46" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="I46" s="20"/>
+      <c r="I46" s="30" t="s">
+        <v>271</v>
+      </c>
       <c r="J46" s="34">
         <v>1</v>
       </c>
       <c r="K46" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L46" s="34" t="s">
         <v>21</v>
@@ -7519,15 +7582,15 @@
         <v>0</v>
       </c>
       <c r="O46" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P46" s="32"/>
       <c r="Q46" s="32"/>
       <c r="R46" s="34" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>48</v>
       </c>
@@ -7535,7 +7598,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D47" s="34" t="s">
         <v>15</v>
@@ -7544,20 +7607,20 @@
         <v>39</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H47" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I47" s="34"/>
       <c r="J47" s="34">
         <v>2</v>
       </c>
       <c r="K47" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L47" s="34" t="s">
         <v>21</v>
@@ -7574,7 +7637,7 @@
       <c r="Q47" s="32"/>
       <c r="R47" s="34"/>
     </row>
-    <row r="48" spans="1:18" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>49</v>
       </c>
@@ -7582,29 +7645,29 @@
         <v>43427</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D48" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E48" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F48" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H48" s="34" t="s">
         <v>128</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H48" s="34" t="s">
-        <v>129</v>
       </c>
       <c r="I48" s="34"/>
       <c r="J48" s="34">
         <v>1</v>
       </c>
       <c r="K48" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L48" s="34" t="s">
         <v>21</v>
@@ -7618,7 +7681,7 @@
       <c r="Q48" s="32"/>
       <c r="R48" s="34"/>
     </row>
-    <row r="49" spans="1:18" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>50</v>
       </c>
@@ -7626,7 +7689,7 @@
         <v>43427</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D49" s="34" t="s">
         <v>15</v>
@@ -7635,20 +7698,20 @@
         <v>31</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H49" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I49" s="34"/>
       <c r="J49" s="34">
         <v>1</v>
       </c>
       <c r="K49" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L49" s="34" t="s">
         <v>21</v>
@@ -7660,15 +7723,15 @@
         <v>12</v>
       </c>
       <c r="O49" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P49" s="32"/>
       <c r="Q49" s="32"/>
       <c r="R49" s="34" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>51</v>
       </c>
@@ -7676,29 +7739,29 @@
         <v>43427</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D50" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E50" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H50" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I50" s="34"/>
       <c r="J50" s="34">
         <v>1</v>
       </c>
       <c r="K50" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L50" s="34" t="s">
         <v>21</v>
@@ -7712,7 +7775,7 @@
       <c r="Q50" s="32"/>
       <c r="R50" s="34"/>
     </row>
-    <row r="51" spans="1:18" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>52</v>
       </c>
@@ -7720,7 +7783,7 @@
         <v>43427</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D51" s="34" t="s">
         <v>15</v>
@@ -7729,20 +7792,20 @@
         <v>39</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H51" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I51" s="34"/>
       <c r="J51" s="34">
         <v>2</v>
       </c>
       <c r="K51" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L51" s="34" t="s">
         <v>21</v>
@@ -7759,7 +7822,7 @@
       <c r="Q51" s="32"/>
       <c r="R51" s="34"/>
     </row>
-    <row r="52" spans="1:18" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>53</v>
       </c>
@@ -7767,7 +7830,7 @@
         <v>43427</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D52" s="34" t="s">
         <v>15</v>
@@ -7776,20 +7839,20 @@
         <v>31</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H52" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I52" s="34"/>
       <c r="J52" s="34">
         <v>1</v>
       </c>
       <c r="K52" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L52" s="34" t="s">
         <v>21</v>
@@ -7801,15 +7864,15 @@
         <v>20</v>
       </c>
       <c r="O52" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P52" s="32"/>
       <c r="Q52" s="32"/>
       <c r="R52" s="34" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" ht="57" hidden="1" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="57" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>54</v>
       </c>
@@ -7817,7 +7880,7 @@
         <v>43427</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D53" s="34" t="s">
         <v>15</v>
@@ -7826,20 +7889,20 @@
         <v>31</v>
       </c>
       <c r="F53" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H53" s="34" t="s">
         <v>135</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H53" s="34" t="s">
-        <v>136</v>
       </c>
       <c r="I53" s="34"/>
       <c r="J53" s="34">
         <v>1</v>
       </c>
       <c r="K53" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L53" s="34" t="s">
         <v>21</v>
@@ -7851,15 +7914,15 @@
         <v>40</v>
       </c>
       <c r="O53" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P53" s="32"/>
       <c r="Q53" s="32"/>
       <c r="R53" s="34" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>55</v>
       </c>
@@ -7867,7 +7930,7 @@
         <v>43427</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D54" s="34" t="s">
         <v>15</v>
@@ -7876,20 +7939,20 @@
         <v>39</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H54" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I54" s="34"/>
       <c r="J54" s="34">
         <v>2</v>
       </c>
       <c r="K54" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L54" s="34" t="s">
         <v>21</v>
@@ -7906,7 +7969,7 @@
       <c r="Q54" s="32"/>
       <c r="R54" s="34"/>
     </row>
-    <row r="55" spans="1:18" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" ht="57" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>56</v>
       </c>
@@ -7914,7 +7977,7 @@
         <v>43427</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D55" s="34" t="s">
         <v>15</v>
@@ -7923,20 +7986,20 @@
         <v>39</v>
       </c>
       <c r="F55" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H55" s="34" t="s">
         <v>139</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H55" s="34" t="s">
-        <v>140</v>
       </c>
       <c r="I55" s="34"/>
       <c r="J55" s="34">
         <v>2</v>
       </c>
       <c r="K55" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L55" s="34" t="s">
         <v>21</v>
@@ -7953,7 +8016,7 @@
       <c r="Q55" s="32"/>
       <c r="R55" s="34"/>
     </row>
-    <row r="56" spans="1:18" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>57</v>
       </c>
@@ -7961,29 +8024,31 @@
         <v>43432</v>
       </c>
       <c r="C56" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D56" s="34" t="s">
         <v>141</v>
-      </c>
-      <c r="D56" s="34" t="s">
-        <v>142</v>
       </c>
       <c r="E56" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H56" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="I56" s="34"/>
+        <v>96</v>
+      </c>
+      <c r="I56" s="34" t="s">
+        <v>272</v>
+      </c>
       <c r="J56" s="34">
         <v>1</v>
       </c>
       <c r="K56" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L56" s="34" t="s">
         <v>21</v>
@@ -7995,7 +8060,7 @@
         <v>4</v>
       </c>
       <c r="O56" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P56" s="32"/>
       <c r="Q56" s="32"/>
@@ -8009,7 +8074,7 @@
         <v>43432</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D57" s="34" t="s">
         <v>38</v>
@@ -8018,20 +8083,22 @@
         <v>31</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H57" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="I57" s="34"/>
+        <v>96</v>
+      </c>
+      <c r="I57" s="30" t="s">
+        <v>273</v>
+      </c>
       <c r="J57" s="34">
         <v>1</v>
       </c>
       <c r="K57" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L57" s="34" t="s">
         <v>21</v>
@@ -8048,10 +8115,10 @@
       <c r="P57" s="32"/>
       <c r="Q57" s="32"/>
       <c r="R57" s="34" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>59</v>
       </c>
@@ -8059,29 +8126,29 @@
         <v>43432</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D58" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E58" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H58" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I58" s="34"/>
       <c r="J58" s="34">
         <v>1</v>
       </c>
       <c r="K58" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L58" s="34" t="s">
         <v>21</v>
@@ -8096,16 +8163,16 @@
         <v>30</v>
       </c>
       <c r="P58" s="66" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q58" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="R58" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="R58" s="34" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:18" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>60</v>
       </c>
@@ -8113,29 +8180,31 @@
         <v>43432</v>
       </c>
       <c r="C59" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D59" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E59" s="34" t="s">
         <v>39</v>
       </c>
       <c r="F59" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H59" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="G59" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H59" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="I59" s="34"/>
+      <c r="I59" s="34" t="s">
+        <v>261</v>
+      </c>
       <c r="J59" s="34">
         <v>2</v>
       </c>
       <c r="K59" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L59" s="34" t="s">
         <v>21</v>
@@ -8149,7 +8218,7 @@
       <c r="Q59" s="35"/>
       <c r="R59" s="34"/>
     </row>
-    <row r="60" spans="1:18" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" ht="57" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>61</v>
       </c>
@@ -8157,29 +8226,31 @@
         <v>43432</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D60" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E60" s="34" t="s">
         <v>39</v>
       </c>
       <c r="F60" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H60" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="I60" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="J60" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="G60" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H60" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="I60" s="34"/>
-      <c r="J60" s="34" t="s">
-        <v>183</v>
-      </c>
       <c r="K60" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L60" s="34" t="s">
         <v>21</v>
@@ -8201,7 +8272,7 @@
         <v>43440</v>
       </c>
       <c r="C61" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D61" s="34" t="s">
         <v>38</v>
@@ -8210,23 +8281,25 @@
         <v>31</v>
       </c>
       <c r="F61" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H61" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="I61" s="34"/>
+        <v>96</v>
+      </c>
+      <c r="I61" s="34" t="s">
+        <v>274</v>
+      </c>
       <c r="J61" s="34">
         <v>1</v>
       </c>
       <c r="K61" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L61" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M61" s="22">
         <v>43452</v>
@@ -8240,10 +8313,10 @@
       <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
       <c r="R61" s="34" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>63</v>
       </c>
@@ -8251,7 +8324,7 @@
         <v>43440</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D62" s="34" t="s">
         <v>15</v>
@@ -8260,20 +8333,20 @@
         <v>31</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H62" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I62" s="34"/>
       <c r="J62" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K62" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L62" s="34" t="s">
         <v>21</v>
@@ -8290,10 +8363,10 @@
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
       <c r="R62" s="34" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>64</v>
       </c>
@@ -8301,31 +8374,31 @@
         <v>43440</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D63" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E63" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H63" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I63" s="34" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J63" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K63" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L63" s="34" t="s">
         <v>21</v>
@@ -8342,10 +8415,10 @@
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
       <c r="R63" s="34" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" ht="228" hidden="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="228" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>65</v>
       </c>
@@ -8353,7 +8426,7 @@
         <v>43446</v>
       </c>
       <c r="C64" s="34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D64" s="34" t="s">
         <v>15</v>
@@ -8362,20 +8435,20 @@
         <v>31</v>
       </c>
       <c r="F64" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H64" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I64" s="34"/>
       <c r="J64" s="34">
         <v>1</v>
       </c>
       <c r="K64" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L64" s="34" t="s">
         <v>21</v>
@@ -8390,10 +8463,10 @@
       <c r="P64" s="5"/>
       <c r="Q64" s="5"/>
       <c r="R64" s="34" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>66</v>
       </c>
@@ -8401,7 +8474,7 @@
         <v>43446</v>
       </c>
       <c r="C65" s="34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D65" s="34" t="s">
         <v>15</v>
@@ -8410,20 +8483,20 @@
         <v>31</v>
       </c>
       <c r="F65" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G65" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H65" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I65" s="34"/>
       <c r="J65" s="34">
         <v>1</v>
       </c>
       <c r="K65" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L65" s="34" t="s">
         <v>21</v>
@@ -8439,7 +8512,7 @@
       <c r="Q65" s="5"/>
       <c r="R65" s="34"/>
     </row>
-    <row r="66" spans="1:20" ht="106.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>67</v>
       </c>
@@ -8447,7 +8520,7 @@
         <v>43451</v>
       </c>
       <c r="C66" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D66" s="34" t="s">
         <v>15</v>
@@ -8456,20 +8529,20 @@
         <v>31</v>
       </c>
       <c r="F66" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G66" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H66" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I66" s="34"/>
       <c r="J66" s="34">
         <v>1</v>
       </c>
       <c r="K66" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L66" s="34" t="s">
         <v>21</v>
@@ -8484,10 +8557,10 @@
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
       <c r="R66" s="34" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" ht="114" hidden="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" ht="114" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>68</v>
       </c>
@@ -8495,31 +8568,31 @@
         <v>43451</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D67" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E67" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F67" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H67" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I67" s="34" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="J67" s="34">
         <v>1</v>
       </c>
       <c r="K67" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L67" s="34" t="s">
         <v>21</v>
@@ -8536,12 +8609,12 @@
       <c r="P67" s="5"/>
       <c r="Q67" s="5"/>
       <c r="R67" s="34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S67" s="5"/>
       <c r="T67" s="34"/>
     </row>
-    <row r="68" spans="1:20" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>69</v>
       </c>
@@ -8549,7 +8622,7 @@
         <v>43451</v>
       </c>
       <c r="C68" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D68" s="34" t="s">
         <v>15</v>
@@ -8558,20 +8631,20 @@
         <v>31</v>
       </c>
       <c r="F68" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G68" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H68" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I68" s="34"/>
       <c r="J68" s="34">
         <v>1</v>
       </c>
       <c r="K68" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L68" s="34" t="s">
         <v>21</v>
@@ -8589,7 +8662,7 @@
       <c r="S68" s="41"/>
       <c r="T68" s="30"/>
     </row>
-    <row r="69" spans="1:20" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>70</v>
       </c>
@@ -8597,7 +8670,7 @@
         <v>43454</v>
       </c>
       <c r="C69" s="34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D69" s="30" t="s">
         <v>15</v>
@@ -8606,20 +8679,20 @@
         <v>39</v>
       </c>
       <c r="F69" s="34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H69" s="30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I69" s="30"/>
       <c r="J69" s="30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K69" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L69" s="30" t="s">
         <v>21</v>
@@ -8639,7 +8712,7 @@
       <c r="S69" s="5"/>
       <c r="T69" s="34"/>
     </row>
-    <row r="70" spans="1:20" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>71</v>
       </c>
@@ -8647,29 +8720,29 @@
         <v>43454</v>
       </c>
       <c r="C70" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E70" s="30" t="s">
         <v>31</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G70" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H70" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I70" s="30"/>
       <c r="J70" s="30">
         <v>1</v>
       </c>
       <c r="K70" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L70" s="30" t="s">
         <v>21</v>
@@ -8684,16 +8757,16 @@
         <v>30</v>
       </c>
       <c r="P70" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q70" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="Q70" s="41" t="s">
-        <v>200</v>
-      </c>
       <c r="R70" s="68" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>72</v>
       </c>
@@ -8701,29 +8774,29 @@
         <v>43454</v>
       </c>
       <c r="C71" s="34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D71" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E71" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F71" s="34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H71" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I71" s="34"/>
       <c r="J71" s="34">
         <v>1</v>
       </c>
       <c r="K71" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L71" s="34" t="s">
         <v>21</v>
@@ -8738,16 +8811,16 @@
         <v>15</v>
       </c>
       <c r="P71" s="78" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q71" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R71" s="68" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>73</v>
       </c>
@@ -8755,7 +8828,7 @@
         <v>43465</v>
       </c>
       <c r="C72" s="34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D72" s="34" t="s">
         <v>15</v>
@@ -8764,23 +8837,23 @@
         <v>31</v>
       </c>
       <c r="F72" s="34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H72" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I72" s="34"/>
       <c r="J72" s="34">
         <v>1</v>
       </c>
       <c r="K72" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L72" s="34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M72" s="22">
         <v>43465</v>
@@ -8793,7 +8866,7 @@
       <c r="S72" s="5"/>
       <c r="T72" s="34"/>
     </row>
-    <row r="73" spans="1:20" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>74</v>
       </c>
@@ -8801,7 +8874,7 @@
         <v>43465</v>
       </c>
       <c r="C73" s="34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D73" s="34" t="s">
         <v>15</v>
@@ -8810,23 +8883,23 @@
         <v>31</v>
       </c>
       <c r="F73" s="34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G73" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H73" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I73" s="34"/>
       <c r="J73" s="34">
         <v>1</v>
       </c>
       <c r="K73" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L73" s="34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M73" s="22">
         <v>43465</v>
@@ -8839,7 +8912,7 @@
       <c r="S73" s="5"/>
       <c r="T73" s="34"/>
     </row>
-    <row r="74" spans="1:20" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" ht="57" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>75</v>
       </c>
@@ -8847,7 +8920,7 @@
         <v>43465</v>
       </c>
       <c r="C74" s="34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D74" s="34" t="s">
         <v>15</v>
@@ -8856,23 +8929,23 @@
         <v>31</v>
       </c>
       <c r="F74" s="34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G74" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H74" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I74" s="34"/>
       <c r="J74" s="34">
         <v>1</v>
       </c>
       <c r="K74" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L74" s="34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M74" s="22">
         <v>43465</v>
@@ -8885,7 +8958,7 @@
       <c r="S74" s="5"/>
       <c r="T74" s="34"/>
     </row>
-    <row r="75" spans="1:20" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" ht="57" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>76</v>
       </c>
@@ -8893,7 +8966,7 @@
         <v>43465</v>
       </c>
       <c r="C75" s="34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D75" s="34" t="s">
         <v>15</v>
@@ -8902,23 +8975,23 @@
         <v>31</v>
       </c>
       <c r="F75" s="34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H75" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I75" s="34"/>
       <c r="J75" s="34">
         <v>1</v>
       </c>
       <c r="K75" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L75" s="34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M75" s="22">
         <v>43465</v>
@@ -8931,7 +9004,7 @@
       <c r="S75" s="77"/>
       <c r="T75" s="34"/>
     </row>
-    <row r="76" spans="1:20" ht="142.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>77</v>
       </c>
@@ -8939,7 +9012,7 @@
         <v>43465</v>
       </c>
       <c r="C76" s="34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D76" s="34" t="s">
         <v>15</v>
@@ -8948,23 +9021,23 @@
         <v>31</v>
       </c>
       <c r="F76" s="34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G76" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H76" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I76" s="34"/>
       <c r="J76" s="34">
         <v>1</v>
       </c>
       <c r="K76" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L76" s="34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M76" s="22">
         <v>43465</v>
@@ -8977,7 +9050,7 @@
       <c r="S76" s="77"/>
       <c r="T76" s="34"/>
     </row>
-    <row r="77" spans="1:20" ht="114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" ht="114" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>78</v>
       </c>
@@ -8985,32 +9058,32 @@
         <v>43477</v>
       </c>
       <c r="C77" s="34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D77" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E77" s="34" t="s">
         <v>39</v>
       </c>
       <c r="F77" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H77" s="34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I77" s="34"/>
       <c r="J77" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K77" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L77" s="34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M77" s="22">
         <v>43477</v>
@@ -9022,16 +9095,16 @@
         <v>0</v>
       </c>
       <c r="P77" s="64" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q77" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R77" s="34" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>79</v>
       </c>
@@ -9039,7 +9112,7 @@
         <v>43477</v>
       </c>
       <c r="C78" s="34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D78" s="34" t="s">
         <v>15</v>
@@ -9048,23 +9121,23 @@
         <v>31</v>
       </c>
       <c r="F78" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H78" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I78" s="34"/>
       <c r="J78" s="34">
         <v>1</v>
       </c>
       <c r="K78" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L78" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M78" s="22">
         <v>43477</v>
@@ -9075,7 +9148,7 @@
       <c r="Q78" s="5"/>
       <c r="R78" s="34"/>
     </row>
-    <row r="79" spans="1:20" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" ht="57" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>80</v>
       </c>
@@ -9083,7 +9156,7 @@
         <v>43477</v>
       </c>
       <c r="C79" s="34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D79" s="34" t="s">
         <v>15</v>
@@ -9092,23 +9165,23 @@
         <v>31</v>
       </c>
       <c r="F79" s="34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H79" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I79" s="34"/>
       <c r="J79" s="34">
         <v>1</v>
       </c>
       <c r="K79" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L79" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M79" s="22">
         <v>43477</v>
@@ -9119,7 +9192,7 @@
       <c r="Q79" s="5"/>
       <c r="R79" s="34"/>
     </row>
-    <row r="80" spans="1:20" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>81</v>
       </c>
@@ -9127,7 +9200,7 @@
         <v>43477</v>
       </c>
       <c r="C80" s="34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D80" s="34" t="s">
         <v>15</v>
@@ -9136,23 +9209,23 @@
         <v>31</v>
       </c>
       <c r="F80" s="34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G80" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H80" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I80" s="34"/>
       <c r="J80" s="34">
         <v>1</v>
       </c>
       <c r="K80" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L80" s="34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M80" s="22">
         <v>43477</v>
@@ -9171,7 +9244,7 @@
         <v>43477</v>
       </c>
       <c r="C81" s="34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D81" s="34" t="s">
         <v>38</v>
@@ -9180,23 +9253,25 @@
         <v>31</v>
       </c>
       <c r="F81" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G81" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H81" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="I81" s="34"/>
+        <v>96</v>
+      </c>
+      <c r="I81" s="34" t="s">
+        <v>276</v>
+      </c>
       <c r="J81" s="34">
         <v>1</v>
       </c>
       <c r="K81" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L81" s="34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M81" s="22">
         <v>43477</v>
@@ -9215,7 +9290,7 @@
         <v>43477</v>
       </c>
       <c r="C82" s="34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D82" s="34" t="s">
         <v>38</v>
@@ -9224,23 +9299,25 @@
         <v>31</v>
       </c>
       <c r="F82" s="34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H82" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="I82" s="34"/>
+        <v>96</v>
+      </c>
+      <c r="I82" s="34" t="s">
+        <v>277</v>
+      </c>
       <c r="J82" s="34">
         <v>1</v>
       </c>
       <c r="K82" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L82" s="34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M82" s="22">
         <v>43477</v>
@@ -9251,7 +9328,7 @@
       <c r="Q82" s="5"/>
       <c r="R82" s="34"/>
     </row>
-    <row r="83" spans="1:18" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>84</v>
       </c>
@@ -9259,34 +9336,34 @@
         <v>43477</v>
       </c>
       <c r="C83" s="34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D83" s="34" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E83" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F83" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G83" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H83" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I83" s="34" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="J83" s="34">
         <v>1</v>
       </c>
       <c r="K83" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L83" s="34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M83" s="22">
         <v>43477</v>
@@ -9297,7 +9374,7 @@
       <c r="Q83" s="5"/>
       <c r="R83" s="34"/>
     </row>
-    <row r="84" spans="1:18" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" ht="57" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>85</v>
       </c>
@@ -9305,32 +9382,32 @@
         <v>43477</v>
       </c>
       <c r="C84" s="34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D84" s="34" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E84" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F84" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G84" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H84" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I84" s="34"/>
       <c r="J84" s="34">
         <v>1</v>
       </c>
       <c r="K84" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L84" s="34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M84" s="22">
         <v>43477</v>
@@ -9341,7 +9418,7 @@
       <c r="Q84" s="5"/>
       <c r="R84" s="34"/>
     </row>
-    <row r="85" spans="1:18" ht="142.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>86</v>
       </c>
@@ -9349,7 +9426,7 @@
         <v>43486</v>
       </c>
       <c r="C85" s="34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D85" s="34" t="s">
         <v>15</v>
@@ -9358,23 +9435,23 @@
         <v>31</v>
       </c>
       <c r="F85" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G85" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H85" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I85" s="34"/>
       <c r="J85" s="34">
         <v>1</v>
       </c>
       <c r="K85" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L85" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M85" s="22">
         <v>43486</v>
@@ -9386,14 +9463,7 @@
       <c r="R85" s="34"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:R85" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="DevOps"/>
-        <filter val="ID Authentication"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:R85" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:R1"/>
   </mergeCells>
@@ -9420,7 +9490,7 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
@@ -9430,7 +9500,7 @@
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
@@ -9440,17 +9510,17 @@
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
@@ -9477,18 +9547,18 @@
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" t="s">
         <v>171</v>
-      </c>
-      <c r="C3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="38">
         <v>1</v>
@@ -9510,7 +9580,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B6" s="38">
         <v>3</v>
@@ -9521,7 +9591,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" s="38">
         <v>3</v>
@@ -9543,7 +9613,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="38">
         <v>15</v>
@@ -9554,7 +9624,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="38">
         <v>7</v>
@@ -9565,7 +9635,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B11" s="38">
         <v>64</v>
@@ -9593,34 +9663,34 @@
   <sheetData>
     <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="69" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1" s="70" t="s">
         <v>240</v>
-      </c>
-      <c r="C1" s="70" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="71"/>
       <c r="C2" s="72" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="73"/>
       <c r="C3" s="72" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="74"/>
       <c r="C4" s="72" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="75"/>
       <c r="C5" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -9630,6 +9700,38 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D32E068FDE16E34B8075022FB1536456" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d905b7d076fda08b8ad7ac1f301e6870">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7784986bdb25cf89cb05135ef15ccb6c" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9801,39 +9903,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62A013D4-4E69-4E0D-8B8F-1AA53B7A2CEA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9849,28 +9943,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
+++ b/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\git-repo\mosip\docs\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{44576A71-BDD6-49A1-A037-B88E6822002B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C065AD6C-6BFE-4260-9930-C8E88E23283C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="2" r:id="rId5"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="288">
   <si>
     <t>S.No.</t>
   </si>
@@ -3187,6 +3187,54 @@
     <t xml:space="preserve">&lt;22Jan19&gt;
 We need to do it. Need to see design &amp; Effort estimate
 </t>
+  </si>
+  <si>
+    <t>Delete pre-reg packet if not consumed in client after 15 days of appointment date.</t>
+  </si>
+  <si>
+    <t>Vivek/Akshaya</t>
+  </si>
+  <si>
+    <t>Enter Pre-registration ID: Addendum to MOS-1204:
+1. Provide ability to scan the pre-reg ID using a QR code scanner and populate the ID on the registration page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document upload: Addendum to MOS-1214:
+1. Document Categories + Types applicable for an individual are driven by configuration per Applicant Type + Gender + Foreigner/Local.
+2. Applicable documents are always mandatory. There is no optional document.  
+</t>
+  </si>
+  <si>
+    <t>Preview page: Addendum to MOS-1214:
+1. Provide a timer (default 30 sec). User can proceed to the next step only after expiry of the timer.
+2. Preview page should display actual scanned images of fingerprints and irises.
+2. On navigating to Registration Preview &gt; Edit &gt; Modify ‘Biometric Exception’ from ‘On’ to ‘Off’ or ‘Off’ to ‘On': All biometrics previously captured (including photos) should be cleared and fresh captures will need to be made.</t>
+  </si>
+  <si>
+    <t>Acknowledgement page: Addendum to MOS-338:
+Render dummy images of left hand, right hand, thumbs, left iris and right iris. A tick or cross against each finger/Iris should indicate if the respective biometric was captured or was marked as an exception. Show fingerprint quality ranks.</t>
+  </si>
+  <si>
+    <t>UIN Update: Addendum to MOS-1299:
+1. The mandatory biometrics should be configurable. For v1 we will implement the following rules.
+1.1. UIN Update - Adult
+- Update of demographic data only: Capture at least one biometric (fingerprint or iris). More than one can be captured at the operator’s discretion.
+- Update of fingerprints: Capture all ten fingerprints minus any exceptions.
+- Update of irises: Capture both irises minus any exceptions.
+1.2. UIN Update - Child - for the first time after turning 5
+- Capture all ten fingerprints and both irises minus any exceptions.
+- Capture at least one biometric of the parent.
+1.3. UIN Update - Child - before 5 years of age
+- Only demographic data update is allowed. Capture at least one biometric of the parent.
+2. Mandatory fields to be captured and sent in the packet: UIN, List of attributes marked for update, New values of attributes, Full Name, Face photo.</t>
+  </si>
+  <si>
+    <t>Upload Packets: Addendum to MOS-559:
+1. Provide the ability for the Officer to first view packet IDs pending upload and select which ones to upload.</t>
+  </si>
+  <si>
+    <t>Device status:
+Display device status on the header.</t>
   </si>
 </sst>
 </file>
@@ -4938,7 +4986,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField dataField="1" showAll="0"/>
@@ -5287,11 +5335,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T85"/>
+  <dimension ref="A1:T93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:R1"/>
+      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -5302,7 +5350,7 @@
     <col min="4" max="4" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="71.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="17" customWidth="1"/>
     <col min="8" max="9" width="44.42578125" style="3" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" style="3" customWidth="1"/>
     <col min="11" max="11" width="20.85546875" style="3" customWidth="1"/>
@@ -9461,6 +9509,270 @@
       <c r="P85" s="35"/>
       <c r="Q85" s="5"/>
       <c r="R85" s="34"/>
+    </row>
+    <row r="86" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="5">
+        <f>1+A85</f>
+        <v>87</v>
+      </c>
+      <c r="B86" s="6">
+        <v>43489</v>
+      </c>
+      <c r="C86" s="5"/>
+      <c r="D86" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F86" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="G86" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="H86" s="34"/>
+      <c r="I86" s="34"/>
+      <c r="J86" s="34"/>
+      <c r="K86" s="34"/>
+      <c r="L86" s="34"/>
+      <c r="M86" s="34"/>
+      <c r="N86" s="33"/>
+      <c r="O86" s="5"/>
+      <c r="P86" s="35"/>
+      <c r="Q86" s="5"/>
+      <c r="R86" s="34"/>
+    </row>
+    <row r="87" spans="1:18" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="5">
+        <f t="shared" ref="A87:A93" si="1">1+A86</f>
+        <v>88</v>
+      </c>
+      <c r="B87" s="6">
+        <v>43489</v>
+      </c>
+      <c r="C87" s="5"/>
+      <c r="D87" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F87" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="G87" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="H87" s="34"/>
+      <c r="I87" s="34"/>
+      <c r="J87" s="34"/>
+      <c r="K87" s="34"/>
+      <c r="L87" s="34"/>
+      <c r="M87" s="34"/>
+      <c r="N87" s="33"/>
+      <c r="O87" s="5"/>
+      <c r="P87" s="35"/>
+      <c r="Q87" s="5"/>
+      <c r="R87" s="34"/>
+    </row>
+    <row r="88" spans="1:18" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="5">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B88" s="6">
+        <v>43489</v>
+      </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F88" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="G88" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="H88" s="34"/>
+      <c r="I88" s="34"/>
+      <c r="J88" s="34"/>
+      <c r="K88" s="34"/>
+      <c r="L88" s="34"/>
+      <c r="M88" s="34"/>
+      <c r="N88" s="33"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="35"/>
+      <c r="Q88" s="5"/>
+      <c r="R88" s="34"/>
+    </row>
+    <row r="89" spans="1:18" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A89" s="5">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B89" s="6">
+        <v>43489</v>
+      </c>
+      <c r="C89" s="5"/>
+      <c r="D89" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F89" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="G89" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="34"/>
+      <c r="K89" s="34"/>
+      <c r="L89" s="34"/>
+      <c r="M89" s="34"/>
+      <c r="N89" s="33"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="35"/>
+      <c r="Q89" s="5"/>
+      <c r="R89" s="34"/>
+    </row>
+    <row r="90" spans="1:18" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A90" s="5">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B90" s="6">
+        <v>43489</v>
+      </c>
+      <c r="C90" s="5"/>
+      <c r="D90" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F90" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="G90" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="H90" s="34"/>
+      <c r="I90" s="34"/>
+      <c r="J90" s="34"/>
+      <c r="K90" s="34"/>
+      <c r="L90" s="34"/>
+      <c r="M90" s="34"/>
+      <c r="N90" s="33"/>
+      <c r="O90" s="5"/>
+      <c r="P90" s="35"/>
+      <c r="Q90" s="5"/>
+      <c r="R90" s="34"/>
+    </row>
+    <row r="91" spans="1:18" ht="270.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="5">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B91" s="6">
+        <v>43489</v>
+      </c>
+      <c r="C91" s="5"/>
+      <c r="D91" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F91" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="G91" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="H91" s="34"/>
+      <c r="I91" s="34"/>
+      <c r="J91" s="34"/>
+      <c r="K91" s="34"/>
+      <c r="L91" s="34"/>
+      <c r="M91" s="34"/>
+      <c r="N91" s="33"/>
+      <c r="O91" s="5"/>
+      <c r="P91" s="35"/>
+      <c r="Q91" s="5"/>
+      <c r="R91" s="34"/>
+    </row>
+    <row r="92" spans="1:18" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="5">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="B92" s="6">
+        <v>43489</v>
+      </c>
+      <c r="C92" s="5"/>
+      <c r="D92" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F92" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="G92" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="H92" s="34"/>
+      <c r="I92" s="34"/>
+      <c r="J92" s="34"/>
+      <c r="K92" s="34"/>
+      <c r="L92" s="34"/>
+      <c r="M92" s="34"/>
+      <c r="N92" s="33"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="35"/>
+      <c r="Q92" s="5"/>
+      <c r="R92" s="34"/>
+    </row>
+    <row r="93" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="5">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="B93" s="6">
+        <v>43489</v>
+      </c>
+      <c r="C93" s="5"/>
+      <c r="D93" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E93" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F93" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="G93" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="H93" s="34"/>
+      <c r="I93" s="34"/>
+      <c r="J93" s="34"/>
+      <c r="K93" s="34"/>
+      <c r="L93" s="34"/>
+      <c r="M93" s="34"/>
+      <c r="N93" s="33"/>
+      <c r="O93" s="5"/>
+      <c r="P93" s="35"/>
+      <c r="Q93" s="5"/>
+      <c r="R93" s="34"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:R85" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -9700,29 +10012,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -9731,7 +10020,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D32E068FDE16E34B8075022FB1536456" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d905b7d076fda08b8ad7ac1f301e6870">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7784986bdb25cf89cb05135ef15ccb6c" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9903,23 +10192,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -9927,7 +10223,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62A013D4-4E69-4E0D-8B8F-1AA53B7A2CEA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9943,4 +10239,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
+++ b/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\git-repo\mosip\docs\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIPRequirementsGithub\docs\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C065AD6C-6BFE-4260-9930-C8E88E23283C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0D3F298A-B6B8-4D55-A754-98D8960048FE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="290">
   <si>
     <t>S.No.</t>
   </si>
@@ -3235,6 +3235,25 @@
   <si>
     <t>Device status:
 Display device status on the header.</t>
+  </si>
+  <si>
+    <t>Requirements Review of FIT2 stories</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fingerprint and IRIS Auth Composite Score Logic
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>For the Fingerprint and IRIS Composite Authentication, the composite score logic for two fingerprints/IRIS to be provided by SDK
+MOSIP to integrate with SDK provided by the country to retrieve the composite score</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3542,7 +3561,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3777,6 +3796,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4986,7 +5008,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField dataField="1" showAll="0"/>
@@ -5335,11 +5357,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T93"/>
+  <dimension ref="A1:T94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
+      <pane ySplit="2" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -9774,6 +9796,44 @@
       <c r="Q93" s="5"/>
       <c r="R93" s="34"/>
     </row>
+    <row r="94" spans="1:18" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A94" s="5">
+        <v>95</v>
+      </c>
+      <c r="B94" s="6">
+        <v>43448</v>
+      </c>
+      <c r="C94" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="D94" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E94" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F94" s="83" t="s">
+        <v>289</v>
+      </c>
+      <c r="G94" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H94" s="34"/>
+      <c r="I94" s="34"/>
+      <c r="J94" s="34"/>
+      <c r="K94" s="34"/>
+      <c r="L94" s="22"/>
+      <c r="M94" s="33">
+        <v>20</v>
+      </c>
+      <c r="N94" s="5">
+        <v>40</v>
+      </c>
+      <c r="O94" s="35"/>
+      <c r="P94" s="5"/>
+      <c r="Q94" s="34"/>
+      <c r="R94" s="11"/>
+    </row>
   </sheetData>
   <autoFilter ref="A2:R85" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
@@ -10021,6 +10081,29 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D32E068FDE16E34B8075022FB1536456" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d905b7d076fda08b8ad7ac1f301e6870">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7784986bdb25cf89cb05135ef15ccb6c" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -10192,29 +10275,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
   <ds:schemaRefs>
@@ -10224,6 +10284,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62A013D4-4E69-4E0D-8B8F-1AA53B7A2CEA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10239,20 +10315,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
+++ b/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIPRequirementsGithub\docs\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1047454\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0D3F298A-B6B8-4D55-A754-98D8960048FE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7700"/>
   </bookViews>
   <sheets>
     <sheet name="MOSIP_Feature_Roadmap" sheetId="5" r:id="rId1"/>
@@ -19,11 +18,11 @@
     <sheet name="Status Legends" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MOSIP_Feature_Roadmap!$A$2:$R$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MOSIP_Feature_Roadmap!$A$2:$R$102</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="3" r:id="rId5"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="307">
   <si>
     <t>S.No.</t>
   </si>
@@ -225,11 +224,6 @@
     <t>Shrikant</t>
   </si>
   <si>
-    <t>Need to develop for the face authentication
-Tables to maintiane the login sequence.
-Config sync should provide the which sequence order we need to display.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
@@ -312,9 +306,6 @@
   </si>
   <si>
     <t xml:space="preserve">In scope of Version 1.0 as originally planned. Next country is round the corner, FP is a important and simple biometric. </t>
-  </si>
-  <si>
-    <t>Configiuration for the FingerPrint enable/disable.</t>
   </si>
   <si>
     <r>
@@ -615,9 +606,6 @@
   </si>
   <si>
     <t>Resham</t>
-  </si>
-  <si>
-    <t>Dependent on Photo SDk</t>
   </si>
   <si>
     <t>Registration Processor</t>
@@ -989,9 +977,6 @@
       <t>:
 Include ability to configure the registration packet size</t>
     </r>
-  </si>
-  <si>
-    <t>If the packet size is greater than mentioned what we need to do with the capture data ?</t>
   </si>
   <si>
     <r>
@@ -1664,9 +1649,6 @@
     <t>This should be implemented as it reduces hardware dependency</t>
   </si>
   <si>
-    <t>Mobile has different OS. Integrate and getting infromation from IOS might become challenges.  Need to do the POC on multiple mobile platform [IOS, Android, Black berry, Simbion OS and windows]</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
@@ -3255,11 +3237,81 @@
 MOSIP to integrate with SDK provided by the country to retrieve the composite score</t>
     </r>
   </si>
+  <si>
+    <t>UI Mock required… relying on the device specific SDK… 10 PDs [IRIS, Face, QR, ]</t>
+  </si>
+  <si>
+    <t>With stubbed value.</t>
+  </si>
+  <si>
+    <t>With Stubbed value fro bio-metric.</t>
+  </si>
+  <si>
+    <t>with actual bio device implementation [ FP, IRIS and Face]</t>
+  </si>
+  <si>
+    <t>Display the bio-metric quality detail based on what captured in previous screens.</t>
+  </si>
+  <si>
+    <t>With Stub data for QR code data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to procure the QR scanner device. 
+Identify the opensource lib to communicate with QR scanner driver.
+Integrate from Reg. client application.
+</t>
+  </si>
+  <si>
+    <t>Multifactor authentication has already been implemented. If bio-metric needs to be excluded then it is already completed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Device + SDK required for actual bio- implementation.
+</t>
+  </si>
+  <si>
+    <t>Actual Device + SDK required to implement this.</t>
+  </si>
+  <si>
+    <t>Already implemented with Stubbed data for FP. Additional changes required to support the enable / disable of this feature. [capture, exception, preview, ack page changes]</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Stubbed data fp quality.</t>
+  </si>
+  <si>
+    <t>Stubbed data for ICAO flag.</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registration correction has been removed from the scope. Need confirmation. </t>
+  </si>
+  <si>
+    <t>Dependent on Photo SDk for Face biometric auth.</t>
+  </si>
+  <si>
+    <t>Stub the Face biometric auth.</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Packet changes/UI/DTO/ document caetgory changes.</t>
+  </si>
+  <si>
+    <t>configuration changes.</t>
+  </si>
+  <si>
+    <t>Mobile has different OS. Integrate and getting infromation from IOS might become challenges.  Need to do the POC on multiple mobile platform [IOS, Android, Black berry, Simbion OS and windows]. Implementation Approach to be finalized. Highlevel estimation provided.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
@@ -3624,9 +3676,6 @@
     <xf numFmtId="15" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3785,6 +3834,9 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3792,13 +3844,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3830,7 +3882,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -3847,9 +3899,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="MINDTREE" refreshedDate="43448.660082060182" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="64" xr:uid="{00000000-000A-0000-FFFF-FFFF05000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="MINDTREE" refreshedDate="43448.660082060182" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="64">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A2:R65" sheet="MOSIP_Feature_Roadmap"/>
+    <worksheetSource ref="A2:R70" sheet="MOSIP_Feature_Roadmap"/>
   </cacheSource>
   <cacheFields count="15">
     <cacheField name="S.No." numFmtId="0">
@@ -5008,7 +5060,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField dataField="1" showAll="0"/>
@@ -5356,45 +5408,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T94"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:T102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D103" sqref="D103"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N77" sqref="N77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.26953125" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="71.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" style="17" customWidth="1"/>
-    <col min="8" max="9" width="44.42578125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" style="29" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" style="11" customWidth="1"/>
-    <col min="17" max="17" width="15.85546875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="53.7109375" style="3" customWidth="1"/>
-    <col min="19" max="16384" width="20.28515625" style="11"/>
+    <col min="1" max="1" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.08984375" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.26953125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.36328125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.1796875" style="28" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="83.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="20.26953125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="79" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
       <c r="G1" s="80"/>
       <c r="H1" s="80"/>
       <c r="I1" s="80"/>
@@ -5404,11 +5458,11 @@
       <c r="M1" s="80"/>
       <c r="N1" s="80"/>
       <c r="O1" s="80"/>
-      <c r="P1" s="81"/>
+      <c r="P1" s="82"/>
       <c r="Q1" s="80"/>
-      <c r="R1" s="82"/>
-    </row>
-    <row r="2" spans="1:18" ht="57" x14ac:dyDescent="0.25">
+      <c r="R1" s="83"/>
+    </row>
+    <row r="2" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -5434,7 +5488,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J2" s="21" t="s">
         <v>8</v>
@@ -5448,23 +5502,23 @@
       <c r="M2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="26" t="s">
-        <v>172</v>
+      <c r="N2" s="25" t="s">
+        <v>167</v>
       </c>
       <c r="O2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="61" t="s">
-        <v>203</v>
+      <c r="P2" s="60" t="s">
+        <v>198</v>
       </c>
       <c r="Q2" s="21" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="R2" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="4" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="4" customFormat="1" ht="182" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -5474,51 +5528,51 @@
       <c r="C3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="33" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="J3" s="34">
+      <c r="I3" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="J3" s="33">
         <v>1</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="L3" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M3" s="22">
         <v>43419</v>
       </c>
-      <c r="N3" s="27">
+      <c r="N3" s="26">
         <v>36</v>
       </c>
-      <c r="O3" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
+      <c r="O3" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
       <c r="R3" s="22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" s="4" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="4" customFormat="1" ht="182" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="6">
         <v>43362</v>
@@ -5526,51 +5580,51 @@
       <c r="C4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="34" t="s">
-        <v>23</v>
+      <c r="F4" s="33" t="s">
+        <v>17</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>263</v>
-      </c>
-      <c r="J4" s="34">
+      <c r="H4" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="J4" s="33">
         <v>1</v>
       </c>
-      <c r="K4" s="34" t="s">
+      <c r="K4" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="L4" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M4" s="22">
         <v>43419</v>
       </c>
-      <c r="N4" s="33">
-        <v>12</v>
-      </c>
-      <c r="O4" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
+      <c r="N4" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="O4" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
       <c r="R4" s="22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" s="4" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="4" customFormat="1" ht="56" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="6">
         <v>43362</v>
@@ -5578,51 +5632,51 @@
       <c r="C5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>26</v>
+      <c r="F5" s="33" t="s">
+        <v>22</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="J5" s="34">
+      <c r="H5" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="J5" s="33">
         <v>1</v>
       </c>
-      <c r="K5" s="34" t="s">
+      <c r="K5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="34" t="s">
+      <c r="L5" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M5" s="22">
         <v>43419</v>
       </c>
-      <c r="N5" s="33">
-        <v>35</v>
-      </c>
-      <c r="O5" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
+      <c r="N5" s="32">
+        <v>12</v>
+      </c>
+      <c r="O5" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
       <c r="R5" s="22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="4" customFormat="1" ht="56" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="6">
         <v>43362</v>
@@ -5630,49 +5684,51 @@
       <c r="C6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>28</v>
+      <c r="F6" s="33" t="s">
+        <v>22</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20">
+      <c r="H6" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="J6" s="33">
         <v>1</v>
       </c>
-      <c r="K6" s="34" t="s">
+      <c r="K6" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="34" t="s">
+      <c r="L6" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="22">
         <v>43419</v>
       </c>
-      <c r="N6" s="28">
-        <v>30</v>
-      </c>
-      <c r="O6" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="N6" s="32">
+        <v>10</v>
+      </c>
+      <c r="O6" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="22" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" s="6">
         <v>43362</v>
@@ -5680,4162 +5736,4569 @@
       <c r="C7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="34" t="s">
-        <v>31</v>
+      <c r="E7" s="33" t="s">
+        <v>16</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20">
+      <c r="H7" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="J7" s="33">
         <v>1</v>
       </c>
-      <c r="K7" s="34" t="s">
+      <c r="K7" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="34" t="s">
+      <c r="L7" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M7" s="22">
         <v>43419</v>
       </c>
-      <c r="N7" s="28">
-        <v>0</v>
-      </c>
-      <c r="O7" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="22"/>
-    </row>
-    <row r="8" spans="1:18" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+      <c r="N7" s="32">
+        <v>35</v>
+      </c>
+      <c r="O7" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8" s="6">
         <v>43362</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="44" t="s">
-        <v>35</v>
+      <c r="E8" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34">
+      <c r="H8" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="J8" s="33">
         <v>1</v>
       </c>
-      <c r="K8" s="34" t="s">
+      <c r="K8" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="34" t="s">
+      <c r="L8" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M8" s="22">
         <v>43419</v>
       </c>
-      <c r="N8" s="28">
-        <v>36</v>
-      </c>
-      <c r="O8" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="22"/>
-    </row>
-    <row r="9" spans="1:18" s="1" customFormat="1" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="N8" s="32">
+        <v>2</v>
+      </c>
+      <c r="O8" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="22" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="4" customFormat="1" ht="98" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B9" s="6">
-        <v>43395</v>
+        <v>43362</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="45" t="s">
-        <v>40</v>
+        <v>14</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34">
-        <v>2</v>
-      </c>
-      <c r="K9" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20">
+        <v>1</v>
+      </c>
+      <c r="K9" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="34" t="s">
+      <c r="L9" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M9" s="22">
         <v>43419</v>
       </c>
-      <c r="N9" s="9"/>
-      <c r="O9" s="32">
-        <f t="shared" ref="O9:O55" si="0">N9*1.5</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="22"/>
-    </row>
-    <row r="10" spans="1:18" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="N9" s="27">
+        <v>30</v>
+      </c>
+      <c r="O9" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="4" customFormat="1" ht="98" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B10" s="6">
-        <v>43397</v>
+        <v>43362</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>265</v>
+      <c r="E10" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I10" s="20"/>
-      <c r="J10" s="34">
+      <c r="J10" s="20">
         <v>1</v>
       </c>
-      <c r="K10" s="34" t="s">
+      <c r="K10" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="34" t="s">
+      <c r="L10" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M10" s="22">
         <v>43419</v>
       </c>
-      <c r="N10" s="28">
+      <c r="N10" s="27">
+        <v>1</v>
+      </c>
+      <c r="O10" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>5</v>
+      </c>
+      <c r="B11" s="6">
+        <v>43362</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20">
+        <v>1</v>
+      </c>
+      <c r="K11" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="O10" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6">
-        <v>43397</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="54" t="s">
-        <v>206</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34">
-        <v>1</v>
-      </c>
-      <c r="K11" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="34" t="s">
+      <c r="L11" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M11" s="22">
         <v>43419</v>
       </c>
-      <c r="N11" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="O11" s="43">
-        <v>36</v>
-      </c>
-      <c r="P11" s="63" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q11" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="R11" s="22" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" s="1" customFormat="1" ht="126.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N11" s="27">
+        <v>0</v>
+      </c>
+      <c r="O11" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="22"/>
+    </row>
+    <row r="12" spans="1:18" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B12" s="6">
-        <v>43397</v>
+        <v>43362</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="54" t="s">
-        <v>205</v>
+        <v>32</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>33</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34">
+        <v>18</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33">
         <v>1</v>
       </c>
-      <c r="K12" s="34" t="s">
+      <c r="K12" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="34" t="s">
+      <c r="L12" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M12" s="22">
         <v>43419</v>
       </c>
-      <c r="N12" s="55">
+      <c r="N12" s="27">
         <v>36</v>
       </c>
-      <c r="O12" s="43">
-        <v>54</v>
-      </c>
-      <c r="P12" s="63" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q12" s="32" t="s">
-        <v>199</v>
-      </c>
+      <c r="O12" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
       <c r="R12" s="22" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="4" customFormat="1" ht="171" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="1" customFormat="1" ht="350" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B13" s="6">
-        <v>43397</v>
+        <v>43395</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>50</v>
+        <v>35</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>38</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20">
-        <v>1</v>
-      </c>
-      <c r="K13" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33">
+        <v>2</v>
+      </c>
+      <c r="K13" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="34" t="s">
+      <c r="L13" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M13" s="22">
         <v>43419</v>
       </c>
-      <c r="N13" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="O13" s="43">
-        <v>72</v>
-      </c>
-      <c r="P13" s="63" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q13" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="R13" s="22" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+      <c r="N13" s="9"/>
+      <c r="O13" s="31">
+        <f t="shared" ref="O13:O60" si="0">N13*1.5</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="22"/>
+    </row>
+    <row r="14" spans="1:18" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B14" s="6">
         <v>43397</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="44" t="s">
-        <v>53</v>
+        <v>41</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>260</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25">
+        <v>42</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="20"/>
+      <c r="J14" s="33">
         <v>1</v>
       </c>
-      <c r="K14" s="34" t="s">
+      <c r="K14" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="34" t="s">
+      <c r="L14" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M14" s="22">
         <v>43419</v>
       </c>
-      <c r="N14" s="43">
-        <v>0</v>
-      </c>
-      <c r="O14" s="43">
-        <v>0</v>
-      </c>
-      <c r="P14" s="64" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q14" s="32" t="s">
-        <v>182</v>
-      </c>
+      <c r="N14" s="27">
+        <v>20</v>
+      </c>
+      <c r="O14" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
       <c r="R14" s="22" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" s="4" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B15" s="6">
         <v>43397</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>56</v>
+        <v>41</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="45" t="s">
+        <v>260</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34">
+        <v>42</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="20"/>
+      <c r="J15" s="33">
         <v>1</v>
       </c>
-      <c r="K15" s="34" t="s">
+      <c r="K15" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="34" t="s">
+      <c r="L15" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M15" s="22">
         <v>43419</v>
       </c>
-      <c r="N15" s="56">
-        <v>10</v>
-      </c>
-      <c r="O15" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="P15" s="65" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q15" s="57" t="s">
-        <v>211</v>
-      </c>
-      <c r="R15" s="58" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="N15" s="27">
+        <v>6</v>
+      </c>
+      <c r="O15" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="22" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
-        <v>14</v>
-      </c>
-      <c r="B16" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="B16" s="6">
+        <v>43397</v>
+      </c>
       <c r="C16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="47" t="s">
-        <v>60</v>
+        <v>41</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="53" t="s">
+        <v>201</v>
       </c>
       <c r="G16" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34">
+      <c r="I16" s="33"/>
+      <c r="J16" s="33">
         <v>1</v>
       </c>
-      <c r="K16" s="34" t="s">
+      <c r="K16" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="34" t="s">
+      <c r="L16" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M16" s="22">
         <v>43419</v>
       </c>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="22"/>
-    </row>
-    <row r="17" spans="1:18" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="N16" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="O16" s="42">
+        <v>36</v>
+      </c>
+      <c r="P16" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q16" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="R16" s="22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="1" customFormat="1" ht="210" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
-        <v>15</v>
-      </c>
-      <c r="B17" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="6">
+        <v>43397</v>
+      </c>
       <c r="C17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="44" t="s">
-        <v>62</v>
+        <v>41</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="53" t="s">
+        <v>200</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34">
+        <v>42</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33">
         <v>1</v>
       </c>
-      <c r="K17" s="34" t="s">
+      <c r="K17" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="34" t="s">
+      <c r="L17" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M17" s="22">
         <v>43419</v>
       </c>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="22"/>
-    </row>
-    <row r="18" spans="1:18" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="N17" s="54">
+        <v>36</v>
+      </c>
+      <c r="O17" s="42">
+        <v>54</v>
+      </c>
+      <c r="P17" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q17" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="R17" s="22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="4" customFormat="1" ht="238" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B18" s="6">
-        <v>43402</v>
+        <v>43397</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>29</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34">
+        <v>42</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20">
         <v>1</v>
       </c>
-      <c r="K18" s="34" t="s">
+      <c r="K18" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="34" t="s">
+      <c r="L18" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M18" s="22">
         <v>43419</v>
       </c>
-      <c r="N18" s="28">
-        <v>10</v>
-      </c>
-      <c r="O18" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
+      <c r="N18" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="O18" s="42">
+        <v>72</v>
+      </c>
+      <c r="P18" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q18" s="31" t="s">
+        <v>202</v>
+      </c>
       <c r="R18" s="22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="99.75" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="1" customFormat="1" ht="182" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B19" s="6">
-        <v>43402</v>
+        <v>43397</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>67</v>
+        <v>41</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>50</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34">
+        <v>42</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24">
         <v>1</v>
       </c>
-      <c r="K19" s="34" t="s">
+      <c r="K19" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="34" t="s">
+      <c r="L19" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M19" s="22">
         <v>43419</v>
       </c>
-      <c r="N19" s="27">
-        <v>5</v>
-      </c>
-      <c r="O19" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
+      <c r="N19" s="42">
+        <v>0</v>
+      </c>
+      <c r="O19" s="42">
+        <v>0</v>
+      </c>
+      <c r="P19" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q19" s="31" t="s">
+        <v>177</v>
+      </c>
       <c r="R19" s="22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="99.75" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="4" customFormat="1" ht="154" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B20" s="6">
-        <v>43402</v>
+        <v>43397</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>29</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15">
+        <v>42</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33">
         <v>1</v>
       </c>
-      <c r="K20" s="34" t="s">
+      <c r="K20" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="34" t="s">
+      <c r="L20" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M20" s="22">
         <v>43419</v>
       </c>
       <c r="N20" s="55">
+        <v>10</v>
+      </c>
+      <c r="O20" s="56" t="s">
+        <v>205</v>
+      </c>
+      <c r="P20" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q20" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="R20" s="57" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>14</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33">
+        <v>1</v>
+      </c>
+      <c r="K21" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="O20" s="43">
-        <v>30</v>
-      </c>
-      <c r="P20" s="65" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q20" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="R20" s="22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>19</v>
-      </c>
-      <c r="B21" s="6">
-        <v>43402</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34">
-        <v>1</v>
-      </c>
-      <c r="K21" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" s="34" t="s">
+      <c r="L21" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M21" s="22">
         <v>43419</v>
       </c>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
       <c r="R21" s="22"/>
     </row>
-    <row r="22" spans="1:18" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" s="4" customFormat="1" ht="56" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
+        <v>15</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33">
+        <v>1</v>
+      </c>
+      <c r="K22" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="6">
-        <v>43402</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25">
-        <v>1</v>
-      </c>
-      <c r="K22" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="34" t="s">
+      <c r="L22" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M22" s="22">
         <v>43419</v>
       </c>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
       <c r="R22" s="22"/>
     </row>
-    <row r="23" spans="1:18" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="70" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B23" s="6">
         <v>43402</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="48" t="s">
-        <v>76</v>
+      <c r="E23" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34">
+        <v>42</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33">
         <v>1</v>
       </c>
-      <c r="K23" s="34" t="s">
+      <c r="K23" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="34" t="s">
+      <c r="L23" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M23" s="22">
         <v>43419</v>
       </c>
-      <c r="N23" s="31">
+      <c r="N23" s="27">
         <v>10</v>
       </c>
-      <c r="O23" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
+      <c r="O23" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
       <c r="R23" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="85.5" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="70" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B24" s="6">
-        <v>43418</v>
+        <v>43402</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="48" t="s">
-        <v>78</v>
+      <c r="E24" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>64</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="I24" s="34"/>
-      <c r="J24" s="15">
+        <v>42</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33">
         <v>1</v>
       </c>
-      <c r="K24" s="34" t="s">
+      <c r="K24" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="34" t="s">
+      <c r="L24" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M24" s="22">
         <v>43419</v>
       </c>
-      <c r="N24" s="28">
-        <v>5</v>
-      </c>
-      <c r="O24" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="N24" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="O24" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="112" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B25" s="6">
-        <v>43418</v>
+        <v>43402</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="44" t="s">
-        <v>80</v>
+        <v>61</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>65</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="I25" s="34"/>
+        <v>42</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" s="15"/>
       <c r="J25" s="15">
         <v>1</v>
       </c>
-      <c r="K25" s="34" t="s">
+      <c r="K25" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="L25" s="34" t="s">
+      <c r="L25" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M25" s="22">
         <v>43419</v>
       </c>
-      <c r="N25" s="28"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="22"/>
-    </row>
-    <row r="26" spans="1:18" ht="57" x14ac:dyDescent="0.25">
+      <c r="N25" s="54">
+        <v>20</v>
+      </c>
+      <c r="O25" s="42">
+        <v>30</v>
+      </c>
+      <c r="P25" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q25" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="R25" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="56" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B26" s="6">
-        <v>43418</v>
+        <v>43402</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" s="49" t="s">
-        <v>83</v>
+        <v>69</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>70</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H26" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="I26" s="34" t="s">
-        <v>266</v>
-      </c>
-      <c r="J26" s="15">
+        <v>42</v>
+      </c>
+      <c r="H26" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33">
         <v>1</v>
       </c>
-      <c r="K26" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="L26" s="15" t="s">
-        <v>85</v>
+      <c r="K26" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="33" t="s">
+        <v>21</v>
       </c>
       <c r="M26" s="22">
         <v>43419</v>
       </c>
-      <c r="N26" s="5">
-        <v>30</v>
-      </c>
-      <c r="O26" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="15"/>
-    </row>
-    <row r="27" spans="1:18" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="22"/>
+    </row>
+    <row r="27" spans="1:18" ht="70" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B27" s="6">
-        <v>43418</v>
+        <v>43402</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="48" t="s">
-        <v>87</v>
+        <v>61</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="47" t="s">
+        <v>71</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="15">
+        <v>42</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24">
         <v>1</v>
       </c>
-      <c r="K27" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="L27" s="15" t="s">
-        <v>85</v>
+      <c r="K27" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="33" t="s">
+        <v>21</v>
       </c>
       <c r="M27" s="22">
         <v>43419</v>
       </c>
-      <c r="N27" s="55">
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="22"/>
+    </row>
+    <row r="28" spans="1:18" ht="70" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <v>21</v>
+      </c>
+      <c r="B28" s="6">
+        <v>43402</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33">
+        <v>1</v>
+      </c>
+      <c r="K28" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="O27" s="43">
+      <c r="L28" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28" s="22">
+        <v>43419</v>
+      </c>
+      <c r="N28" s="30">
+        <v>10</v>
+      </c>
+      <c r="O28" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="56" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
+        <v>22</v>
+      </c>
+      <c r="B29" s="6">
+        <v>43418</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="I29" s="33"/>
+      <c r="J29" s="15">
+        <v>1</v>
+      </c>
+      <c r="K29" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" s="22">
+        <v>43419</v>
+      </c>
+      <c r="N29" s="27">
+        <v>5</v>
+      </c>
+      <c r="O29" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="22" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="56" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
+        <v>23</v>
+      </c>
+      <c r="B30" s="6">
+        <v>43418</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="I30" s="33"/>
+      <c r="J30" s="15">
+        <v>1</v>
+      </c>
+      <c r="K30" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" s="22">
+        <v>43419</v>
+      </c>
+      <c r="N30" s="27"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="22"/>
+    </row>
+    <row r="31" spans="1:18" ht="84" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
+        <v>24</v>
+      </c>
+      <c r="B31" s="6">
+        <v>43418</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="I31" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="J31" s="15">
+        <v>1</v>
+      </c>
+      <c r="K31" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L31" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="M31" s="22">
+        <v>43419</v>
+      </c>
+      <c r="N31" s="5">
         <v>30</v>
       </c>
-      <c r="P27" s="66" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q27" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="R27" s="15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="O31" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="15"/>
+    </row>
+    <row r="32" spans="1:18" ht="126" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
+        <v>25</v>
+      </c>
+      <c r="B32" s="6">
+        <v>43418</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="I32" s="33"/>
+      <c r="J32" s="15">
+        <v>1</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L32" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="M32" s="22">
+        <v>43419</v>
+      </c>
+      <c r="N32" s="54">
+        <v>20</v>
+      </c>
+      <c r="O32" s="42">
+        <v>30</v>
+      </c>
+      <c r="P32" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q32" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="R32" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="70" x14ac:dyDescent="0.35">
+      <c r="A33" s="5">
         <v>26</v>
-      </c>
-      <c r="B28" s="6">
-        <v>43430</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H28" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I28" s="34" t="s">
-        <v>261</v>
-      </c>
-      <c r="J28" s="34">
-        <v>1</v>
-      </c>
-      <c r="K28" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L28" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="M28" s="22">
-        <v>43440</v>
-      </c>
-      <c r="N28" s="33">
-        <v>6</v>
-      </c>
-      <c r="O28" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="34"/>
-    </row>
-    <row r="29" spans="1:18" s="8" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>27</v>
-      </c>
-      <c r="B29" s="6">
-        <v>43430</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H29" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34">
-        <v>1</v>
-      </c>
-      <c r="K29" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L29" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="M29" s="22">
-        <v>43440</v>
-      </c>
-      <c r="N29" s="31">
-        <v>10</v>
-      </c>
-      <c r="O29" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="34" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" s="8" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>28</v>
-      </c>
-      <c r="B30" s="6">
-        <v>43430</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H30" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34">
-        <v>1</v>
-      </c>
-      <c r="K30" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L30" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="M30" s="22">
-        <v>43440</v>
-      </c>
-      <c r="N30" s="31">
-        <v>15</v>
-      </c>
-      <c r="O30" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="34" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>29</v>
-      </c>
-      <c r="B31" s="6">
-        <v>43430</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H31" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34">
-        <v>1</v>
-      </c>
-      <c r="K31" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L31" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="M31" s="22">
-        <v>43440</v>
-      </c>
-      <c r="N31" s="5">
-        <v>1</v>
-      </c>
-      <c r="O31" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="15"/>
-    </row>
-    <row r="32" spans="1:18" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <v>30</v>
-      </c>
-      <c r="B32" s="6">
-        <v>43430</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H32" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="I32" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="J32" s="16">
-        <v>1</v>
-      </c>
-      <c r="K32" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L32" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="M32" s="22">
-        <v>43440</v>
-      </c>
-      <c r="N32" s="5">
-        <v>0</v>
-      </c>
-      <c r="O32" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="34" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>31</v>
       </c>
       <c r="B33" s="6">
         <v>43430</v>
       </c>
-      <c r="C33" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="D33" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="48" t="s">
-        <v>104</v>
+      <c r="C33" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>168</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H33" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="I33" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="J33" s="16">
+        <v>42</v>
+      </c>
+      <c r="H33" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="I33" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="J33" s="33">
         <v>1</v>
       </c>
-      <c r="K33" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L33" s="34" t="s">
+      <c r="K33" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L33" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M33" s="22">
         <v>43440</v>
       </c>
-      <c r="N33" s="33">
-        <v>10</v>
-      </c>
-      <c r="O33" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="34" t="s">
+      <c r="N33" s="32">
+        <v>6</v>
+      </c>
+      <c r="O33" s="31" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" ht="142.5" x14ac:dyDescent="0.25">
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="33"/>
+    </row>
+    <row r="34" spans="1:18" s="8" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B34" s="6">
         <v>43430</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H34" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="D34" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F34" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H34" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="I34" s="30" t="s">
-        <v>269</v>
-      </c>
-      <c r="J34" s="34">
+      <c r="I34" s="33"/>
+      <c r="J34" s="33">
         <v>1</v>
       </c>
-      <c r="K34" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L34" s="34" t="s">
+      <c r="K34" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L34" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M34" s="22">
         <v>43440</v>
       </c>
-      <c r="N34" s="33">
-        <v>0</v>
-      </c>
-      <c r="O34" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="34" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="N34" s="30">
+        <v>10</v>
+      </c>
+      <c r="O34" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" s="8" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B35" s="6">
         <v>43430</v>
       </c>
-      <c r="C35" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="D35" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F35" s="48" t="s">
-        <v>108</v>
+      <c r="C35" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="47" t="s">
+        <v>91</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H35" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="I35" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="J35" s="34">
+        <v>42</v>
+      </c>
+      <c r="H35" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33">
         <v>1</v>
       </c>
-      <c r="K35" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L35" s="34" t="s">
+      <c r="K35" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L35" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M35" s="22">
         <v>43440</v>
       </c>
-      <c r="N35" s="33">
-        <v>0</v>
-      </c>
-      <c r="O35" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="32"/>
-      <c r="R35" s="34" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N35" s="30">
+        <v>15</v>
+      </c>
+      <c r="O35" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="70" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B36" s="6">
         <v>43430</v>
       </c>
-      <c r="C36" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="E36" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>110</v>
+      <c r="C36" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="49" t="s">
+        <v>94</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H36" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="I36" s="34" t="s">
-        <v>261</v>
-      </c>
-      <c r="J36" s="34">
-        <v>2</v>
-      </c>
-      <c r="K36" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L36" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H36" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33">
+        <v>1</v>
+      </c>
+      <c r="K36" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L36" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M36" s="22">
         <v>43440</v>
       </c>
-      <c r="N36" s="33"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="34"/>
-    </row>
-    <row r="37" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="N36" s="5">
+        <v>1</v>
+      </c>
+      <c r="O36" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="15"/>
+    </row>
+    <row r="37" spans="1:18" ht="182" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B37" s="6">
         <v>43430</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D37" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>112</v>
+      <c r="C37" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="50" t="s">
+        <v>97</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H37" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34">
-        <v>2</v>
-      </c>
-      <c r="K37" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L37" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="I37" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="J37" s="16">
+        <v>1</v>
+      </c>
+      <c r="K37" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L37" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M37" s="22">
         <v>43440</v>
       </c>
-      <c r="N37" s="33"/>
-      <c r="O37" s="32">
+      <c r="N37" s="5">
+        <v>0</v>
+      </c>
+      <c r="O37" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="126" x14ac:dyDescent="0.35">
+      <c r="A38" s="5">
+        <v>31</v>
+      </c>
+      <c r="B38" s="6">
+        <v>43430</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H38" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="I38" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="J38" s="16">
+        <v>1</v>
+      </c>
+      <c r="K38" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L38" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M38" s="22">
+        <v>43440</v>
+      </c>
+      <c r="N38" s="32">
+        <v>10</v>
+      </c>
+      <c r="O38" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="33" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="224" x14ac:dyDescent="0.35">
+      <c r="A39" s="5">
+        <v>32</v>
+      </c>
+      <c r="B39" s="6">
+        <v>43430</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H39" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="I39" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="J39" s="33">
+        <v>1</v>
+      </c>
+      <c r="K39" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L39" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M39" s="22">
+        <v>43440</v>
+      </c>
+      <c r="N39" s="32">
+        <v>0</v>
+      </c>
+      <c r="O39" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="33" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="126" x14ac:dyDescent="0.35">
+      <c r="A40" s="5">
+        <v>33</v>
+      </c>
+      <c r="B40" s="6">
+        <v>43430</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H40" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="I40" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="J40" s="33">
+        <v>1</v>
+      </c>
+      <c r="K40" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L40" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M40" s="22">
+        <v>43440</v>
+      </c>
+      <c r="N40" s="32">
+        <v>0</v>
+      </c>
+      <c r="O40" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="33" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="5">
+        <v>34</v>
+      </c>
+      <c r="B41" s="6">
+        <v>43430</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H41" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="I41" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="J41" s="33">
+        <v>2</v>
+      </c>
+      <c r="K41" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L41" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M41" s="22">
+        <v>43440</v>
+      </c>
+      <c r="N41" s="32"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="33"/>
+    </row>
+    <row r="42" spans="1:18" ht="42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="5">
+        <v>35</v>
+      </c>
+      <c r="B42" s="6">
+        <v>43430</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H42" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33">
+        <v>2</v>
+      </c>
+      <c r="K42" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L42" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M42" s="22">
+        <v>43440</v>
+      </c>
+      <c r="N42" s="32"/>
+      <c r="O42" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="34"/>
-    </row>
-    <row r="38" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+      <c r="P42" s="31"/>
+      <c r="Q42" s="31"/>
+      <c r="R42" s="33"/>
+    </row>
+    <row r="43" spans="1:18" ht="42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="5">
         <v>36</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B43" s="6">
         <v>43427</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D38" s="34" t="s">
+      <c r="C43" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F38" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H38" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="K38" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L38" s="34" t="s">
+      <c r="E43" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H43" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="K43" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L43" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="M38" s="22">
+      <c r="M43" s="22">
         <v>43440</v>
       </c>
-      <c r="N38" s="33">
+      <c r="N43" s="32">
         <v>0</v>
       </c>
-      <c r="O38" s="32">
+      <c r="O43" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P38" s="32"/>
-      <c r="Q38" s="32"/>
-      <c r="R38" s="34"/>
-    </row>
-    <row r="39" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
+      <c r="P43" s="31"/>
+      <c r="Q43" s="31"/>
+      <c r="R43" s="33"/>
+    </row>
+    <row r="44" spans="1:18" ht="42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="5">
         <v>37</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B44" s="6">
         <v>43427</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D39" s="34" t="s">
+      <c r="C44" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F39" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H39" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34">
+      <c r="E44" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H44" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33">
         <v>2</v>
       </c>
-      <c r="K39" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L39" s="34" t="s">
+      <c r="K44" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L44" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="M39" s="22">
+      <c r="M44" s="22">
         <v>43452</v>
       </c>
-      <c r="N39" s="33"/>
-      <c r="O39" s="32">
+      <c r="N44" s="32"/>
+      <c r="O44" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="32"/>
-      <c r="R39" s="34"/>
-    </row>
-    <row r="40" spans="1:18" ht="256.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
+      <c r="P44" s="31"/>
+      <c r="Q44" s="31"/>
+      <c r="R44" s="33"/>
+    </row>
+    <row r="45" spans="1:18" ht="322" x14ac:dyDescent="0.35">
+      <c r="A45" s="5">
         <v>38</v>
-      </c>
-      <c r="B40" s="6">
-        <v>43427</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D40" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H40" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="K40" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L40" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="M40" s="22">
-        <v>43440</v>
-      </c>
-      <c r="N40" s="55">
-        <v>60</v>
-      </c>
-      <c r="O40" s="43">
-        <v>90</v>
-      </c>
-      <c r="P40" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q40" s="32"/>
-      <c r="R40" s="34" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" ht="99.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
-        <v>40</v>
-      </c>
-      <c r="B41" s="6">
-        <v>43427</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D41" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F41" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H41" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34">
-        <v>2</v>
-      </c>
-      <c r="K41" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L41" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="M41" s="22">
-        <v>43440</v>
-      </c>
-      <c r="N41" s="33">
-        <v>60</v>
-      </c>
-      <c r="O41" s="32"/>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="32"/>
-      <c r="R41" s="34" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
-        <v>41</v>
-      </c>
-      <c r="B42" s="6">
-        <v>43427</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D42" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F42" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H42" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34">
-        <v>1</v>
-      </c>
-      <c r="K42" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L42" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="M42" s="22">
-        <v>43440</v>
-      </c>
-      <c r="N42" s="33">
-        <v>18</v>
-      </c>
-      <c r="O42" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="P42" s="66" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q42" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="R42" s="34" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" ht="99.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
-        <v>42</v>
-      </c>
-      <c r="B43" s="6">
-        <v>43427</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D43" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F43" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H43" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34">
-        <v>1</v>
-      </c>
-      <c r="K43" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L43" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="M43" s="22">
-        <v>43452</v>
-      </c>
-      <c r="N43" s="42">
-        <v>20</v>
-      </c>
-      <c r="O43" s="43">
-        <v>30</v>
-      </c>
-      <c r="P43" s="64" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q43" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="R43" s="34" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" ht="57" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
-        <v>45</v>
-      </c>
-      <c r="B44" s="6">
-        <v>43427</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D44" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E44" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F44" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="G44" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H44" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34">
-        <v>2</v>
-      </c>
-      <c r="K44" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L44" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="M44" s="22">
-        <v>43452</v>
-      </c>
-      <c r="N44" s="33"/>
-      <c r="O44" s="32"/>
-      <c r="P44" s="32"/>
-      <c r="Q44" s="32"/>
-      <c r="R44" s="34"/>
-    </row>
-    <row r="45" spans="1:18" ht="57" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
-        <v>46</v>
       </c>
       <c r="B45" s="6">
         <v>43427</v>
       </c>
       <c r="C45" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="D45" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E45" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F45" s="20" t="s">
-        <v>122</v>
-      </c>
       <c r="G45" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H45" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34">
-        <v>1</v>
-      </c>
-      <c r="K45" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L45" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H45" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="K45" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L45" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M45" s="22">
         <v>43440</v>
       </c>
-      <c r="N45" s="59">
-        <v>5</v>
-      </c>
-      <c r="O45" s="60">
-        <v>8</v>
-      </c>
-      <c r="P45" s="67" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q45" s="57" t="s">
-        <v>229</v>
-      </c>
-      <c r="R45" s="20" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" ht="57" x14ac:dyDescent="0.25">
+      <c r="N45" s="54">
+        <v>60</v>
+      </c>
+      <c r="O45" s="42">
+        <v>90</v>
+      </c>
+      <c r="P45" s="61" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="33" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="140" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B46" s="6">
         <v>43427</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D46" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E46" s="34" t="s">
-        <v>31</v>
+        <v>109</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="33" t="s">
+        <v>37</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H46" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="I46" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="J46" s="34">
-        <v>1</v>
-      </c>
-      <c r="K46" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L46" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H46" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33">
+        <v>2</v>
+      </c>
+      <c r="K46" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L46" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M46" s="22">
         <v>43440</v>
       </c>
-      <c r="N46" s="33">
-        <v>0</v>
-      </c>
-      <c r="O46" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="P46" s="32"/>
-      <c r="Q46" s="32"/>
-      <c r="R46" s="34" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="N46" s="32">
+        <v>60</v>
+      </c>
+      <c r="O46" s="31"/>
+      <c r="P46" s="31"/>
+      <c r="Q46" s="31"/>
+      <c r="R46" s="33" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="28" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B47" s="6">
         <v>43427</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D47" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" s="34" t="s">
-        <v>39</v>
+        <v>109</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" s="33" t="s">
+        <v>29</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H47" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34">
-        <v>2</v>
-      </c>
-      <c r="K47" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L47" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H47" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33">
+        <v>1</v>
+      </c>
+      <c r="K47" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L47" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M47" s="22">
         <v>43440</v>
       </c>
-      <c r="N47" s="33"/>
-      <c r="O47" s="32">
+      <c r="N47" s="32">
+        <v>18</v>
+      </c>
+      <c r="O47" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="P47" s="65" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q47" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="R47" s="33" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="70" x14ac:dyDescent="0.35">
+      <c r="A48" s="5">
+        <v>42</v>
+      </c>
+      <c r="B48" s="6">
+        <v>43427</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H48" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33">
+        <v>1</v>
+      </c>
+      <c r="K48" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L48" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M48" s="22">
+        <v>43452</v>
+      </c>
+      <c r="N48" s="41">
+        <v>20</v>
+      </c>
+      <c r="O48" s="42">
+        <v>30</v>
+      </c>
+      <c r="P48" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q48" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="R48" s="33" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="84" x14ac:dyDescent="0.35">
+      <c r="A49" s="5">
+        <v>45</v>
+      </c>
+      <c r="B49" s="6">
+        <v>43427</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H49" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33">
+        <v>2</v>
+      </c>
+      <c r="K49" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L49" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="M49" s="22">
+        <v>43452</v>
+      </c>
+      <c r="N49" s="32"/>
+      <c r="O49" s="31"/>
+      <c r="P49" s="31"/>
+      <c r="Q49" s="31"/>
+      <c r="R49" s="33"/>
+    </row>
+    <row r="50" spans="1:18" ht="56" x14ac:dyDescent="0.35">
+      <c r="A50" s="5">
+        <v>46</v>
+      </c>
+      <c r="B50" s="6">
+        <v>43427</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H50" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I50" s="33"/>
+      <c r="J50" s="33">
+        <v>1</v>
+      </c>
+      <c r="K50" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L50" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M50" s="22">
+        <v>43440</v>
+      </c>
+      <c r="N50" s="58">
+        <v>5</v>
+      </c>
+      <c r="O50" s="59">
+        <v>8</v>
+      </c>
+      <c r="P50" s="66" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q50" s="56" t="s">
+        <v>224</v>
+      </c>
+      <c r="R50" s="20" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="56" x14ac:dyDescent="0.35">
+      <c r="A51" s="5">
+        <v>47</v>
+      </c>
+      <c r="B51" s="6">
+        <v>43427</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H51" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="I51" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="J51" s="33">
+        <v>1</v>
+      </c>
+      <c r="K51" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L51" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M51" s="22">
+        <v>43440</v>
+      </c>
+      <c r="N51" s="32">
+        <v>0</v>
+      </c>
+      <c r="O51" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="P51" s="31"/>
+      <c r="Q51" s="31"/>
+      <c r="R51" s="33" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="70" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="5">
+        <v>48</v>
+      </c>
+      <c r="B52" s="6">
+        <v>43427</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H52" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33">
+        <v>2</v>
+      </c>
+      <c r="K52" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L52" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M52" s="22">
+        <v>43440</v>
+      </c>
+      <c r="N52" s="32"/>
+      <c r="O52" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P47" s="32"/>
-      <c r="Q47" s="32"/>
-      <c r="R47" s="34"/>
-    </row>
-    <row r="48" spans="1:18" ht="156.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
+      <c r="P52" s="31"/>
+      <c r="Q52" s="31"/>
+      <c r="R52" s="33"/>
+    </row>
+    <row r="53" spans="1:18" ht="224" x14ac:dyDescent="0.35">
+      <c r="A53" s="5">
         <v>49</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B53" s="6">
         <v>43427</v>
       </c>
-      <c r="C48" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D48" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="E48" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F48" s="20" t="s">
+      <c r="C53" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H53" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="I53" s="33"/>
+      <c r="J53" s="33">
+        <v>1</v>
+      </c>
+      <c r="K53" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L53" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M53" s="22">
+        <v>43440</v>
+      </c>
+      <c r="N53" s="32"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="31"/>
+      <c r="Q53" s="31"/>
+      <c r="R53" s="33"/>
+    </row>
+    <row r="54" spans="1:18" ht="70" x14ac:dyDescent="0.35">
+      <c r="A54" s="5">
+        <v>50</v>
+      </c>
+      <c r="B54" s="6">
+        <v>43427</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D54" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H54" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I54" s="33"/>
+      <c r="J54" s="33">
+        <v>1</v>
+      </c>
+      <c r="K54" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L54" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M54" s="22">
+        <v>43440</v>
+      </c>
+      <c r="N54" s="32">
+        <v>12</v>
+      </c>
+      <c r="O54" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="P54" s="31"/>
+      <c r="Q54" s="31"/>
+      <c r="R54" s="33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="56" x14ac:dyDescent="0.35">
+      <c r="A55" s="5">
+        <v>51</v>
+      </c>
+      <c r="B55" s="6">
+        <v>43427</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E55" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="G48" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H48" s="34" t="s">
+      <c r="G55" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H55" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I55" s="33"/>
+      <c r="J55" s="33">
+        <v>1</v>
+      </c>
+      <c r="K55" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L55" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M55" s="22">
+        <v>43440</v>
+      </c>
+      <c r="N55" s="32"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="31"/>
+      <c r="Q55" s="31"/>
+      <c r="R55" s="33"/>
+    </row>
+    <row r="56" spans="1:18" ht="56" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="5">
+        <v>52</v>
+      </c>
+      <c r="B56" s="6">
+        <v>43427</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D56" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F56" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34">
-        <v>1</v>
-      </c>
-      <c r="K48" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L48" s="34" t="s">
+      <c r="G56" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H56" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33">
+        <v>2</v>
+      </c>
+      <c r="K56" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L56" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="M48" s="22">
-        <v>43440</v>
-      </c>
-      <c r="N48" s="33"/>
-      <c r="O48" s="32"/>
-      <c r="P48" s="32"/>
-      <c r="Q48" s="32"/>
-      <c r="R48" s="34"/>
-    </row>
-    <row r="49" spans="1:18" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
-        <v>50</v>
-      </c>
-      <c r="B49" s="6">
-        <v>43427</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D49" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F49" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H49" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34">
-        <v>1</v>
-      </c>
-      <c r="K49" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L49" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="M49" s="22">
-        <v>43440</v>
-      </c>
-      <c r="N49" s="33">
-        <v>12</v>
-      </c>
-      <c r="O49" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="P49" s="32"/>
-      <c r="Q49" s="32"/>
-      <c r="R49" s="34" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
-        <v>51</v>
-      </c>
-      <c r="B50" s="6">
-        <v>43427</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D50" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="E50" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F50" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H50" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34">
-        <v>1</v>
-      </c>
-      <c r="K50" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L50" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="M50" s="22">
-        <v>43440</v>
-      </c>
-      <c r="N50" s="33"/>
-      <c r="O50" s="32"/>
-      <c r="P50" s="32"/>
-      <c r="Q50" s="32"/>
-      <c r="R50" s="34"/>
-    </row>
-    <row r="51" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
-        <v>52</v>
-      </c>
-      <c r="B51" s="6">
-        <v>43427</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D51" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F51" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H51" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="I51" s="34"/>
-      <c r="J51" s="34">
-        <v>2</v>
-      </c>
-      <c r="K51" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L51" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="M51" s="22">
+      <c r="M56" s="22">
         <v>43452</v>
       </c>
-      <c r="N51" s="33"/>
-      <c r="O51" s="32">
+      <c r="N56" s="32"/>
+      <c r="O56" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P51" s="32"/>
-      <c r="Q51" s="32"/>
-      <c r="R51" s="34"/>
-    </row>
-    <row r="52" spans="1:18" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
+      <c r="P56" s="31"/>
+      <c r="Q56" s="31"/>
+      <c r="R56" s="33"/>
+    </row>
+    <row r="57" spans="1:18" ht="84" x14ac:dyDescent="0.35">
+      <c r="A57" s="5">
         <v>53</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B57" s="6">
         <v>43427</v>
       </c>
-      <c r="C52" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D52" s="34" t="s">
+      <c r="C57" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D57" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E52" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F52" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H52" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="I52" s="34"/>
-      <c r="J52" s="34">
+      <c r="E57" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H57" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33">
         <v>1</v>
       </c>
-      <c r="K52" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L52" s="34" t="s">
+      <c r="K57" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L57" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="M52" s="22">
+      <c r="M57" s="22">
         <v>43452</v>
       </c>
-      <c r="N52" s="33">
+      <c r="N57" s="32">
         <v>20</v>
       </c>
-      <c r="O52" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="P52" s="32"/>
-      <c r="Q52" s="32"/>
-      <c r="R52" s="34" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" ht="57" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
+      <c r="O57" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="P57" s="31"/>
+      <c r="Q57" s="31"/>
+      <c r="R57" s="33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="42" x14ac:dyDescent="0.35">
+      <c r="A58" s="5">
         <v>54</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B58" s="6">
         <v>43427</v>
       </c>
-      <c r="C53" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D53" s="34" t="s">
+      <c r="C58" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D58" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F53" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H53" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="I53" s="34"/>
-      <c r="J53" s="34">
+      <c r="E58" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H58" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33">
         <v>1</v>
       </c>
-      <c r="K53" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L53" s="34" t="s">
+      <c r="K58" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L58" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="M53" s="22">
+      <c r="M58" s="22">
         <v>43440</v>
       </c>
-      <c r="N53" s="33">
+      <c r="N58" s="32">
         <v>40</v>
       </c>
-      <c r="O53" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="P53" s="32"/>
-      <c r="Q53" s="32"/>
-      <c r="R53" s="34" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
+      <c r="O58" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="31"/>
+      <c r="R58" s="33" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="70" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="5">
         <v>55</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B59" s="6">
         <v>43427</v>
       </c>
-      <c r="C54" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D54" s="34" t="s">
+      <c r="C59" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D59" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E54" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F54" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H54" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="I54" s="34"/>
-      <c r="J54" s="34">
+      <c r="E59" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F59" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H59" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="I59" s="33"/>
+      <c r="J59" s="33">
         <v>2</v>
       </c>
-      <c r="K54" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L54" s="34" t="s">
+      <c r="K59" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L59" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="M54" s="22">
+      <c r="M59" s="22">
         <v>43440</v>
       </c>
-      <c r="N54" s="33"/>
-      <c r="O54" s="32">
+      <c r="N59" s="32"/>
+      <c r="O59" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P54" s="32"/>
-      <c r="Q54" s="32"/>
-      <c r="R54" s="34"/>
-    </row>
-    <row r="55" spans="1:18" ht="57" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
+      <c r="P59" s="31"/>
+      <c r="Q59" s="31"/>
+      <c r="R59" s="33"/>
+    </row>
+    <row r="60" spans="1:18" ht="98" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="5">
         <v>56</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B60" s="6">
         <v>43427</v>
       </c>
-      <c r="C55" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D55" s="34" t="s">
+      <c r="C60" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D60" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E55" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F55" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H55" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="I55" s="34"/>
-      <c r="J55" s="34">
+      <c r="E60" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F60" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H60" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="I60" s="33"/>
+      <c r="J60" s="33">
         <v>2</v>
       </c>
-      <c r="K55" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L55" s="34" t="s">
+      <c r="K60" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L60" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="M55" s="22">
+      <c r="M60" s="22">
         <v>43440</v>
       </c>
-      <c r="N55" s="33"/>
-      <c r="O55" s="32">
+      <c r="N60" s="32"/>
+      <c r="O60" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P55" s="32"/>
-      <c r="Q55" s="32"/>
-      <c r="R55" s="34"/>
-    </row>
-    <row r="56" spans="1:18" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
+      <c r="P60" s="31"/>
+      <c r="Q60" s="31"/>
+      <c r="R60" s="33"/>
+    </row>
+    <row r="61" spans="1:18" ht="140" x14ac:dyDescent="0.35">
+      <c r="A61" s="5">
         <v>57</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B61" s="6">
         <v>43432</v>
       </c>
-      <c r="C56" s="34" t="s">
+      <c r="C61" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="D61" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="E61" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H61" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I61" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="J61" s="33">
+        <v>1</v>
+      </c>
+      <c r="K61" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L61" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M61" s="22">
+        <v>43440</v>
+      </c>
+      <c r="N61" s="32">
+        <v>4</v>
+      </c>
+      <c r="O61" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="P61" s="31"/>
+      <c r="Q61" s="31"/>
+      <c r="R61" s="33"/>
+    </row>
+    <row r="62" spans="1:18" ht="56" x14ac:dyDescent="0.35">
+      <c r="A62" s="5">
+        <v>58</v>
+      </c>
+      <c r="B62" s="6">
+        <v>43432</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D62" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E62" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F62" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H62" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I62" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="J62" s="33">
+        <v>1</v>
+      </c>
+      <c r="K62" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L62" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M62" s="22">
+        <v>43440</v>
+      </c>
+      <c r="N62" s="32">
+        <v>0</v>
+      </c>
+      <c r="O62" s="31">
+        <v>0</v>
+      </c>
+      <c r="P62" s="31"/>
+      <c r="Q62" s="31"/>
+      <c r="R62" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="56" x14ac:dyDescent="0.35">
+      <c r="A63" s="5">
+        <v>59</v>
+      </c>
+      <c r="B63" s="6">
+        <v>43432</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D63" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E63" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="D56" s="34" t="s">
+      <c r="G63" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H63" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I63" s="33"/>
+      <c r="J63" s="33">
+        <v>1</v>
+      </c>
+      <c r="K63" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L63" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M63" s="22">
+        <v>43440</v>
+      </c>
+      <c r="N63" s="41">
+        <v>20</v>
+      </c>
+      <c r="O63" s="42">
+        <v>30</v>
+      </c>
+      <c r="P63" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q63" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="R63" s="33" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="98" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="5">
+        <v>60</v>
+      </c>
+      <c r="B64" s="6">
+        <v>43432</v>
+      </c>
+      <c r="C64" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="E56" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F56" s="20" t="s">
+      <c r="D64" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="E64" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F64" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="G56" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H56" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="I56" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="J56" s="34">
+      <c r="G64" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H64" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="I64" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="J64" s="33">
+        <v>2</v>
+      </c>
+      <c r="K64" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L64" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M64" s="22">
+        <v>43440</v>
+      </c>
+      <c r="N64" s="32"/>
+      <c r="O64" s="34"/>
+      <c r="P64" s="34"/>
+      <c r="Q64" s="34"/>
+      <c r="R64" s="33"/>
+    </row>
+    <row r="65" spans="1:20" ht="56" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="5">
+        <v>61</v>
+      </c>
+      <c r="B65" s="6">
+        <v>43432</v>
+      </c>
+      <c r="C65" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="D65" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="E65" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F65" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="G65" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H65" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="I65" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="J65" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="K65" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L65" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M65" s="22">
+        <v>43440</v>
+      </c>
+      <c r="N65" s="32"/>
+      <c r="O65" s="34"/>
+      <c r="P65" s="34"/>
+      <c r="Q65" s="34"/>
+      <c r="R65" s="33"/>
+    </row>
+    <row r="66" spans="1:20" ht="280" x14ac:dyDescent="0.35">
+      <c r="A66" s="5">
+        <v>62</v>
+      </c>
+      <c r="B66" s="6">
+        <v>43440</v>
+      </c>
+      <c r="C66" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="D66" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E66" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F66" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H66" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I66" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="J66" s="33">
         <v>1</v>
       </c>
-      <c r="K56" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L56" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="M56" s="22">
-        <v>43440</v>
-      </c>
-      <c r="N56" s="33">
-        <v>4</v>
-      </c>
-      <c r="O56" s="32" t="s">
+      <c r="K66" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L66" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="P56" s="32"/>
-      <c r="Q56" s="32"/>
-      <c r="R56" s="34"/>
-    </row>
-    <row r="57" spans="1:18" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
-        <v>58</v>
-      </c>
-      <c r="B57" s="6">
-        <v>43432</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D57" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E57" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F57" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="G57" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H57" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="I57" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="J57" s="34">
-        <v>1</v>
-      </c>
-      <c r="K57" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L57" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="M57" s="22">
-        <v>43440</v>
-      </c>
-      <c r="N57" s="33">
-        <v>0</v>
-      </c>
-      <c r="O57" s="32">
-        <v>0</v>
-      </c>
-      <c r="P57" s="32"/>
-      <c r="Q57" s="32"/>
-      <c r="R57" s="34" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
-        <v>59</v>
-      </c>
-      <c r="B58" s="6">
-        <v>43432</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D58" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E58" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F58" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H58" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="I58" s="34"/>
-      <c r="J58" s="34">
-        <v>1</v>
-      </c>
-      <c r="K58" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L58" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="M58" s="22">
-        <v>43440</v>
-      </c>
-      <c r="N58" s="42">
-        <v>20</v>
-      </c>
-      <c r="O58" s="43">
-        <v>30</v>
-      </c>
-      <c r="P58" s="66" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q58" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="R58" s="34" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" ht="99.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="5">
-        <v>60</v>
-      </c>
-      <c r="B59" s="6">
-        <v>43432</v>
-      </c>
-      <c r="C59" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="D59" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="E59" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F59" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H59" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="I59" s="34" t="s">
-        <v>261</v>
-      </c>
-      <c r="J59" s="34">
-        <v>2</v>
-      </c>
-      <c r="K59" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L59" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="M59" s="22">
-        <v>43440</v>
-      </c>
-      <c r="N59" s="33"/>
-      <c r="O59" s="35"/>
-      <c r="P59" s="35"/>
-      <c r="Q59" s="35"/>
-      <c r="R59" s="34"/>
-    </row>
-    <row r="60" spans="1:18" ht="57" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
-        <v>61</v>
-      </c>
-      <c r="B60" s="6">
-        <v>43432</v>
-      </c>
-      <c r="C60" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="D60" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="E60" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F60" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H60" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="I60" s="34" t="s">
-        <v>261</v>
-      </c>
-      <c r="J60" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="K60" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L60" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="M60" s="22">
-        <v>43440</v>
-      </c>
-      <c r="N60" s="33"/>
-      <c r="O60" s="35"/>
-      <c r="P60" s="35"/>
-      <c r="Q60" s="35"/>
-      <c r="R60" s="34"/>
-    </row>
-    <row r="61" spans="1:18" ht="171" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
-        <v>62</v>
-      </c>
-      <c r="B61" s="6">
-        <v>43440</v>
-      </c>
-      <c r="C61" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="D61" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E61" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F61" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H61" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="I61" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="J61" s="34">
-        <v>1</v>
-      </c>
-      <c r="K61" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L61" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="M61" s="22">
+      <c r="M66" s="22">
         <v>43452</v>
       </c>
-      <c r="N61" s="33">
+      <c r="N66" s="32">
         <v>15</v>
       </c>
-      <c r="O61" s="5">
+      <c r="O66" s="5">
         <v>40</v>
-      </c>
-      <c r="P61" s="5"/>
-      <c r="Q61" s="5"/>
-      <c r="R61" s="34" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" ht="99.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
-        <v>63</v>
-      </c>
-      <c r="B62" s="6">
-        <v>43440</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D62" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E62" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F62" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="G62" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H62" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="I62" s="34"/>
-      <c r="J62" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="K62" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L62" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="M62" s="22">
-        <v>43452</v>
-      </c>
-      <c r="N62" s="33">
-        <v>30</v>
-      </c>
-      <c r="O62" s="5">
-        <v>60</v>
-      </c>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="34" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" ht="99.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="5">
-        <v>64</v>
-      </c>
-      <c r="B63" s="6">
-        <v>43440</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D63" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="E63" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F63" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="G63" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H63" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="I63" s="34" t="s">
-        <v>261</v>
-      </c>
-      <c r="J63" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="K63" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L63" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="M63" s="22">
-        <v>43452</v>
-      </c>
-      <c r="N63" s="33">
-        <v>40</v>
-      </c>
-      <c r="O63" s="5">
-        <v>56</v>
-      </c>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="5"/>
-      <c r="R63" s="34" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" ht="228" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
-        <v>65</v>
-      </c>
-      <c r="B64" s="6">
-        <v>43446</v>
-      </c>
-      <c r="C64" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="D64" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E64" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F64" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="G64" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H64" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="I64" s="34"/>
-      <c r="J64" s="34">
-        <v>1</v>
-      </c>
-      <c r="K64" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L64" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="M64" s="22">
-        <v>43446</v>
-      </c>
-      <c r="N64" s="33"/>
-      <c r="O64" s="5">
-        <v>24</v>
-      </c>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="34" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="5">
-        <v>66</v>
-      </c>
-      <c r="B65" s="6">
-        <v>43446</v>
-      </c>
-      <c r="C65" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="D65" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E65" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F65" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="G65" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H65" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="I65" s="34"/>
-      <c r="J65" s="34">
-        <v>1</v>
-      </c>
-      <c r="K65" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L65" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="M65" s="22">
-        <v>43446</v>
-      </c>
-      <c r="N65" s="33"/>
-      <c r="O65" s="5">
-        <v>4</v>
-      </c>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="5"/>
-      <c r="R65" s="34"/>
-    </row>
-    <row r="66" spans="1:20" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="5">
-        <v>67</v>
-      </c>
-      <c r="B66" s="6">
-        <v>43451</v>
-      </c>
-      <c r="C66" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="D66" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E66" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F66" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="G66" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H66" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="I66" s="34"/>
-      <c r="J66" s="34">
-        <v>1</v>
-      </c>
-      <c r="K66" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L66" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="M66" s="22">
-        <v>43451</v>
-      </c>
-      <c r="N66" s="33"/>
-      <c r="O66" s="5">
-        <v>18</v>
       </c>
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
-      <c r="R66" s="34" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" ht="114" x14ac:dyDescent="0.25">
+      <c r="R66" s="33" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" ht="154" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B67" s="6">
-        <v>43451</v>
-      </c>
-      <c r="C67" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="D67" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="E67" s="34" t="s">
-        <v>31</v>
+        <v>43440</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D67" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" s="33" t="s">
+        <v>29</v>
       </c>
       <c r="F67" s="20" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H67" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="I67" s="34" t="s">
-        <v>275</v>
-      </c>
-      <c r="J67" s="34">
-        <v>1</v>
-      </c>
-      <c r="K67" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L67" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H67" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I67" s="33"/>
+      <c r="J67" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="K67" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L67" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M67" s="22">
         <v>43452</v>
       </c>
-      <c r="N67" s="33">
-        <v>10</v>
+      <c r="N67" s="32">
+        <v>30</v>
       </c>
       <c r="O67" s="5">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="P67" s="5"/>
       <c r="Q67" s="5"/>
-      <c r="R67" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="S67" s="5"/>
-      <c r="T67" s="34"/>
-    </row>
-    <row r="68" spans="1:20" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="R67" s="33" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="154" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B68" s="6">
-        <v>43451</v>
-      </c>
-      <c r="C68" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="D68" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E68" s="34" t="s">
-        <v>31</v>
+        <v>43440</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D68" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="E68" s="33" t="s">
+        <v>29</v>
       </c>
       <c r="F68" s="20" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="G68" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H68" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="I68" s="34"/>
-      <c r="J68" s="34">
-        <v>1</v>
-      </c>
-      <c r="K68" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L68" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H68" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I68" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="J68" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="K68" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L68" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M68" s="22">
         <v>43452</v>
       </c>
-      <c r="N68" s="33"/>
+      <c r="N68" s="32">
+        <v>40</v>
+      </c>
       <c r="O68" s="5">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="P68" s="5"/>
       <c r="Q68" s="5"/>
-      <c r="R68" s="5"/>
-      <c r="S68" s="41"/>
-      <c r="T68" s="30"/>
-    </row>
-    <row r="69" spans="1:20" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="R68" s="33" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" ht="350" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B69" s="6">
-        <v>43454</v>
-      </c>
-      <c r="C69" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="D69" s="30" t="s">
+        <v>43446</v>
+      </c>
+      <c r="C69" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="D69" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E69" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F69" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="G69" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H69" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="I69" s="30"/>
-      <c r="J69" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="K69" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="L69" s="30" t="s">
+      <c r="E69" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H69" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I69" s="33"/>
+      <c r="J69" s="33">
+        <v>1</v>
+      </c>
+      <c r="K69" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L69" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="M69" s="40">
-        <v>43452</v>
-      </c>
-      <c r="N69" s="5">
-        <v>0</v>
-      </c>
+      <c r="M69" s="22">
+        <v>43446</v>
+      </c>
+      <c r="N69" s="32"/>
       <c r="O69" s="5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="P69" s="5"/>
       <c r="Q69" s="5"/>
-      <c r="R69" s="5"/>
-      <c r="S69" s="5"/>
-      <c r="T69" s="34"/>
-    </row>
-    <row r="70" spans="1:20" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="R69" s="33" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" ht="42" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
-        <v>71</v>
-      </c>
-      <c r="B70" s="39">
-        <v>43454</v>
-      </c>
-      <c r="C70" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="D70" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="E70" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G70" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H70" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="I70" s="30"/>
-      <c r="J70" s="30">
+        <v>66</v>
+      </c>
+      <c r="B70" s="6">
+        <v>43446</v>
+      </c>
+      <c r="C70" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="D70" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G70" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H70" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I70" s="33"/>
+      <c r="J70" s="33">
         <v>1</v>
       </c>
-      <c r="K70" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="L70" s="30" t="s">
+      <c r="K70" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L70" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="M70" s="40">
+      <c r="M70" s="22">
+        <v>43446</v>
+      </c>
+      <c r="N70" s="32"/>
+      <c r="O70" s="5">
+        <v>4</v>
+      </c>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="33"/>
+    </row>
+    <row r="71" spans="1:20" ht="154" x14ac:dyDescent="0.35">
+      <c r="A71" s="5">
+        <v>67</v>
+      </c>
+      <c r="B71" s="6">
+        <v>43451</v>
+      </c>
+      <c r="C71" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="D71" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F71" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G71" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H71" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I71" s="33"/>
+      <c r="J71" s="33">
+        <v>1</v>
+      </c>
+      <c r="K71" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L71" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M71" s="22">
+        <v>43451</v>
+      </c>
+      <c r="N71" s="32">
+        <v>10</v>
+      </c>
+      <c r="O71" s="5">
+        <v>20</v>
+      </c>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="33" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" ht="182" x14ac:dyDescent="0.35">
+      <c r="A72" s="5">
+        <v>68</v>
+      </c>
+      <c r="B72" s="6">
+        <v>43451</v>
+      </c>
+      <c r="C72" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="D72" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="E72" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F72" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="G72" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H72" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I72" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="J72" s="33">
+        <v>1</v>
+      </c>
+      <c r="K72" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L72" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M72" s="22">
         <v>43452</v>
       </c>
-      <c r="N70" s="42">
-        <v>20</v>
-      </c>
-      <c r="O70" s="41">
-        <v>30</v>
-      </c>
-      <c r="P70" s="65" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q70" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="R70" s="68" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" ht="99.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="5">
-        <v>72</v>
-      </c>
-      <c r="B71" s="6">
-        <v>43454</v>
-      </c>
-      <c r="C71" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="D71" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E71" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F71" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="G71" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H71" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="I71" s="34"/>
-      <c r="J71" s="34">
-        <v>1</v>
-      </c>
-      <c r="K71" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L71" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="M71" s="22">
-        <v>43452</v>
-      </c>
-      <c r="N71" s="42">
-        <v>10</v>
-      </c>
-      <c r="O71" s="43">
-        <v>15</v>
-      </c>
-      <c r="P71" s="78" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q71" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="R71" s="68" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A72" s="5">
-        <v>73</v>
-      </c>
-      <c r="B72" s="6">
-        <v>43465</v>
-      </c>
-      <c r="C72" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="D72" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E72" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F72" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="G72" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H72" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="I72" s="34"/>
-      <c r="J72" s="34">
-        <v>1</v>
-      </c>
-      <c r="K72" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L72" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="M72" s="22">
-        <v>43465</v>
-      </c>
-      <c r="N72" s="52"/>
-      <c r="O72" s="5"/>
+      <c r="N72" s="32">
+        <v>6</v>
+      </c>
+      <c r="O72" s="5">
+        <v>12</v>
+      </c>
       <c r="P72" s="5"/>
       <c r="Q72" s="5"/>
-      <c r="R72" s="5"/>
+      <c r="R72" s="33" t="s">
+        <v>188</v>
+      </c>
       <c r="S72" s="5"/>
-      <c r="T72" s="34"/>
-    </row>
-    <row r="73" spans="1:20" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="T72" s="33"/>
+    </row>
+    <row r="73" spans="1:20" ht="196" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B73" s="6">
-        <v>43465</v>
-      </c>
-      <c r="C73" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="D73" s="34" t="s">
+        <v>43451</v>
+      </c>
+      <c r="C73" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="D73" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E73" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F73" s="34" t="s">
-        <v>219</v>
+      <c r="E73" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F73" s="20" t="s">
+        <v>185</v>
       </c>
       <c r="G73" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H73" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="I73" s="34"/>
-      <c r="J73" s="34">
+        <v>42</v>
+      </c>
+      <c r="H73" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I73" s="33"/>
+      <c r="J73" s="33">
         <v>1</v>
       </c>
-      <c r="K73" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L73" s="34" t="s">
-        <v>217</v>
+      <c r="K73" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L73" s="33" t="s">
+        <v>21</v>
       </c>
       <c r="M73" s="22">
-        <v>43465</v>
-      </c>
-      <c r="N73" s="52"/>
-      <c r="O73" s="5"/>
+        <v>43452</v>
+      </c>
+      <c r="N73" s="32">
+        <v>6</v>
+      </c>
+      <c r="O73" s="5">
+        <v>12</v>
+      </c>
       <c r="P73" s="5"/>
       <c r="Q73" s="5"/>
       <c r="R73" s="5"/>
-      <c r="S73" s="5"/>
-      <c r="T73" s="34"/>
-    </row>
-    <row r="74" spans="1:20" ht="57" x14ac:dyDescent="0.25">
+      <c r="S73" s="40"/>
+      <c r="T73" s="29"/>
+    </row>
+    <row r="74" spans="1:20" ht="126" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B74" s="6">
-        <v>43465</v>
-      </c>
-      <c r="C74" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="D74" s="34" t="s">
+        <v>43454</v>
+      </c>
+      <c r="C74" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="D74" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E74" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F74" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="G74" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H74" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="I74" s="34"/>
-      <c r="J74" s="34">
-        <v>1</v>
-      </c>
-      <c r="K74" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L74" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="M74" s="22">
-        <v>43465</v>
-      </c>
-      <c r="N74" s="52"/>
-      <c r="O74" s="5"/>
+      <c r="E74" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F74" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="G74" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H74" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="I74" s="29"/>
+      <c r="J74" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="K74" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="L74" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M74" s="39">
+        <v>43452</v>
+      </c>
+      <c r="N74" s="5">
+        <v>0</v>
+      </c>
+      <c r="O74" s="5">
+        <v>0</v>
+      </c>
       <c r="P74" s="5"/>
       <c r="Q74" s="5"/>
       <c r="R74" s="5"/>
       <c r="S74" s="5"/>
-      <c r="T74" s="34"/>
-    </row>
-    <row r="75" spans="1:20" ht="57" x14ac:dyDescent="0.25">
+      <c r="T74" s="33"/>
+    </row>
+    <row r="75" spans="1:20" ht="56" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
+        <v>71</v>
+      </c>
+      <c r="B75" s="38">
+        <v>43454</v>
+      </c>
+      <c r="C75" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="D75" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E75" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G75" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H75" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="I75" s="29"/>
+      <c r="J75" s="29">
+        <v>1</v>
+      </c>
+      <c r="K75" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="L75" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M75" s="39">
+        <v>43452</v>
+      </c>
+      <c r="N75" s="41">
+        <v>20</v>
+      </c>
+      <c r="O75" s="40">
+        <v>30</v>
+      </c>
+      <c r="P75" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q75" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="R75" s="67" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" ht="182" x14ac:dyDescent="0.35">
+      <c r="A76" s="5">
+        <v>72</v>
+      </c>
+      <c r="B76" s="6">
+        <v>43454</v>
+      </c>
+      <c r="C76" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="D76" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E76" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="G76" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H76" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I76" s="33"/>
+      <c r="J76" s="33">
+        <v>1</v>
+      </c>
+      <c r="K76" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L76" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M76" s="22">
+        <v>43452</v>
+      </c>
+      <c r="N76" s="41">
+        <v>10</v>
+      </c>
+      <c r="O76" s="42">
+        <v>15</v>
+      </c>
+      <c r="P76" s="77" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q76" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="R76" s="67" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" ht="196" x14ac:dyDescent="0.35">
+      <c r="A77" s="5">
+        <v>73</v>
+      </c>
+      <c r="B77" s="6">
+        <v>43465</v>
+      </c>
+      <c r="C77" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="D77" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F77" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H77" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I77" s="33"/>
+      <c r="J77" s="33">
+        <v>1</v>
+      </c>
+      <c r="K77" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L77" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="M77" s="22">
+        <v>43465</v>
+      </c>
+      <c r="N77" s="5">
+        <v>12</v>
+      </c>
+      <c r="O77" s="5">
+        <v>24</v>
+      </c>
+      <c r="P77" s="5"/>
+      <c r="Q77" s="5"/>
+      <c r="R77" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="S77" s="5"/>
+      <c r="T77" s="33"/>
+    </row>
+    <row r="78" spans="1:20" ht="154" x14ac:dyDescent="0.35">
+      <c r="A78" s="5">
+        <v>74</v>
+      </c>
+      <c r="B78" s="6">
+        <v>43465</v>
+      </c>
+      <c r="C78" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="D78" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F78" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="G78" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H78" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I78" s="33"/>
+      <c r="J78" s="33">
+        <v>1</v>
+      </c>
+      <c r="K78" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L78" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="M78" s="22">
+        <v>43465</v>
+      </c>
+      <c r="N78" s="51"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="5"/>
+      <c r="Q78" s="5"/>
+      <c r="R78" s="5"/>
+      <c r="S78" s="5"/>
+      <c r="T78" s="33"/>
+    </row>
+    <row r="79" spans="1:20" ht="70" x14ac:dyDescent="0.35">
+      <c r="A79" s="5">
+        <v>75</v>
+      </c>
+      <c r="B79" s="6">
+        <v>43465</v>
+      </c>
+      <c r="C79" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="D79" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F79" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="G79" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H79" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I79" s="33"/>
+      <c r="J79" s="33">
+        <v>1</v>
+      </c>
+      <c r="K79" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L79" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="M79" s="22">
+        <v>43465</v>
+      </c>
+      <c r="N79" s="51"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="5"/>
+      <c r="Q79" s="5"/>
+      <c r="R79" s="5"/>
+      <c r="S79" s="5"/>
+      <c r="T79" s="33"/>
+    </row>
+    <row r="80" spans="1:20" ht="84" x14ac:dyDescent="0.35">
+      <c r="A80" s="5">
         <v>76</v>
       </c>
-      <c r="B75" s="6">
+      <c r="B80" s="6">
         <v>43465</v>
       </c>
-      <c r="C75" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="D75" s="34" t="s">
+      <c r="C80" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="D80" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E75" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F75" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="G75" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H75" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="I75" s="34"/>
-      <c r="J75" s="34">
+      <c r="E80" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F80" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="G80" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H80" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I80" s="33"/>
+      <c r="J80" s="33">
         <v>1</v>
       </c>
-      <c r="K75" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L75" s="34" t="s">
+      <c r="K80" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L80" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="M80" s="22">
+        <v>43465</v>
+      </c>
+      <c r="N80" s="51"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
+      <c r="Q80" s="5"/>
+      <c r="R80" s="5"/>
+      <c r="S80" s="76"/>
+      <c r="T80" s="33"/>
+    </row>
+    <row r="81" spans="1:20" ht="224" x14ac:dyDescent="0.35">
+      <c r="A81" s="5">
+        <v>77</v>
+      </c>
+      <c r="B81" s="6">
+        <v>43465</v>
+      </c>
+      <c r="C81" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="D81" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F81" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="M75" s="22">
+      <c r="G81" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H81" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I81" s="33"/>
+      <c r="J81" s="33">
+        <v>1</v>
+      </c>
+      <c r="K81" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L81" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="M81" s="22">
         <v>43465</v>
       </c>
-      <c r="N75" s="52"/>
-      <c r="O75" s="5"/>
-      <c r="P75" s="5"/>
-      <c r="Q75" s="5"/>
-      <c r="R75" s="5"/>
-      <c r="S75" s="77"/>
-      <c r="T75" s="34"/>
-    </row>
-    <row r="76" spans="1:20" ht="142.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="5">
-        <v>77</v>
-      </c>
-      <c r="B76" s="6">
-        <v>43465</v>
-      </c>
-      <c r="C76" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="D76" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E76" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F76" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="G76" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H76" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="I76" s="34"/>
-      <c r="J76" s="34">
-        <v>1</v>
-      </c>
-      <c r="K76" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L76" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="M76" s="22">
-        <v>43465</v>
-      </c>
-      <c r="N76" s="52"/>
-      <c r="O76" s="5"/>
-      <c r="P76" s="5"/>
-      <c r="Q76" s="5"/>
-      <c r="R76" s="5"/>
-      <c r="S76" s="77"/>
-      <c r="T76" s="34"/>
-    </row>
-    <row r="77" spans="1:20" ht="114" x14ac:dyDescent="0.25">
-      <c r="A77" s="5">
+      <c r="N81" s="51"/>
+      <c r="O81" s="5"/>
+      <c r="P81" s="5"/>
+      <c r="Q81" s="5"/>
+      <c r="R81" s="5"/>
+      <c r="S81" s="76"/>
+      <c r="T81" s="33"/>
+    </row>
+    <row r="82" spans="1:20" ht="140" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="5">
         <v>78</v>
-      </c>
-      <c r="B77" s="6">
-        <v>43477</v>
-      </c>
-      <c r="C77" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="D77" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E77" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F77" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="G77" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H77" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="I77" s="34"/>
-      <c r="J77" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="K77" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L77" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="M77" s="22">
-        <v>43477</v>
-      </c>
-      <c r="N77" s="33">
-        <v>0</v>
-      </c>
-      <c r="O77" s="5">
-        <v>0</v>
-      </c>
-      <c r="P77" s="64" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q77" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="R77" s="34" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="5">
-        <v>79</v>
-      </c>
-      <c r="B78" s="6">
-        <v>43477</v>
-      </c>
-      <c r="C78" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="D78" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E78" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F78" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="G78" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H78" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="I78" s="34"/>
-      <c r="J78" s="34">
-        <v>1</v>
-      </c>
-      <c r="K78" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L78" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="M78" s="22">
-        <v>43477</v>
-      </c>
-      <c r="N78" s="33"/>
-      <c r="O78" s="5"/>
-      <c r="P78" s="35"/>
-      <c r="Q78" s="5"/>
-      <c r="R78" s="34"/>
-    </row>
-    <row r="79" spans="1:20" ht="57" x14ac:dyDescent="0.25">
-      <c r="A79" s="5">
-        <v>80</v>
-      </c>
-      <c r="B79" s="6">
-        <v>43477</v>
-      </c>
-      <c r="C79" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="D79" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E79" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F79" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="G79" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H79" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="I79" s="34"/>
-      <c r="J79" s="34">
-        <v>1</v>
-      </c>
-      <c r="K79" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L79" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="M79" s="22">
-        <v>43477</v>
-      </c>
-      <c r="N79" s="33"/>
-      <c r="O79" s="5"/>
-      <c r="P79" s="35"/>
-      <c r="Q79" s="5"/>
-      <c r="R79" s="34"/>
-    </row>
-    <row r="80" spans="1:20" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="5">
-        <v>81</v>
-      </c>
-      <c r="B80" s="6">
-        <v>43477</v>
-      </c>
-      <c r="C80" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="D80" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E80" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F80" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="G80" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H80" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="I80" s="34"/>
-      <c r="J80" s="34">
-        <v>1</v>
-      </c>
-      <c r="K80" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L80" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="M80" s="22">
-        <v>43477</v>
-      </c>
-      <c r="N80" s="33"/>
-      <c r="O80" s="5"/>
-      <c r="P80" s="35"/>
-      <c r="Q80" s="5"/>
-      <c r="R80" s="34"/>
-    </row>
-    <row r="81" spans="1:18" ht="114" x14ac:dyDescent="0.25">
-      <c r="A81" s="5">
-        <v>82</v>
-      </c>
-      <c r="B81" s="6">
-        <v>43477</v>
-      </c>
-      <c r="C81" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="D81" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E81" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F81" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="G81" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H81" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="I81" s="34" t="s">
-        <v>276</v>
-      </c>
-      <c r="J81" s="34">
-        <v>1</v>
-      </c>
-      <c r="K81" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L81" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="M81" s="22">
-        <v>43477</v>
-      </c>
-      <c r="N81" s="33"/>
-      <c r="O81" s="5"/>
-      <c r="P81" s="35"/>
-      <c r="Q81" s="5"/>
-      <c r="R81" s="34"/>
-    </row>
-    <row r="82" spans="1:18" ht="114" x14ac:dyDescent="0.25">
-      <c r="A82" s="5">
-        <v>83</v>
       </c>
       <c r="B82" s="6">
         <v>43477</v>
       </c>
-      <c r="C82" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="D82" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E82" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F82" s="34" t="s">
-        <v>257</v>
+      <c r="C82" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="D82" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E82" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F82" s="20" t="s">
+        <v>241</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H82" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="I82" s="34" t="s">
-        <v>277</v>
-      </c>
-      <c r="J82" s="34">
-        <v>1</v>
-      </c>
-      <c r="K82" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L82" s="34" t="s">
-        <v>243</v>
+        <v>42</v>
+      </c>
+      <c r="H82" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="I82" s="33"/>
+      <c r="J82" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="K82" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L82" s="33" t="s">
+        <v>238</v>
       </c>
       <c r="M82" s="22">
         <v>43477</v>
       </c>
-      <c r="N82" s="33"/>
-      <c r="O82" s="5"/>
-      <c r="P82" s="35"/>
-      <c r="Q82" s="5"/>
-      <c r="R82" s="34"/>
-    </row>
-    <row r="83" spans="1:18" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="N82" s="32">
+        <v>0</v>
+      </c>
+      <c r="O82" s="5">
+        <v>0</v>
+      </c>
+      <c r="P82" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q82" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="R82" s="33" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" ht="70" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B83" s="6">
         <v>43477</v>
       </c>
-      <c r="C83" s="34" t="s">
+      <c r="C83" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="D83" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F83" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="D83" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="E83" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F83" s="34" t="s">
-        <v>251</v>
-      </c>
       <c r="G83" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H83" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="I83" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="J83" s="34">
+        <v>42</v>
+      </c>
+      <c r="H83" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I83" s="33"/>
+      <c r="J83" s="33">
         <v>1</v>
       </c>
-      <c r="K83" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L83" s="34" t="s">
-        <v>243</v>
+      <c r="K83" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L83" s="33" t="s">
+        <v>174</v>
       </c>
       <c r="M83" s="22">
         <v>43477</v>
       </c>
-      <c r="N83" s="33"/>
+      <c r="N83" s="32"/>
       <c r="O83" s="5"/>
-      <c r="P83" s="35"/>
+      <c r="P83" s="34"/>
       <c r="Q83" s="5"/>
-      <c r="R83" s="34"/>
-    </row>
-    <row r="84" spans="1:18" ht="57" x14ac:dyDescent="0.25">
+      <c r="R83" s="33"/>
+    </row>
+    <row r="84" spans="1:20" ht="84" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B84" s="6">
         <v>43477</v>
       </c>
-      <c r="C84" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="D84" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="E84" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F84" s="34" t="s">
-        <v>252</v>
+      <c r="C84" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="D84" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F84" s="33" t="s">
+        <v>243</v>
       </c>
       <c r="G84" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H84" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="I84" s="34"/>
-      <c r="J84" s="34">
+        <v>42</v>
+      </c>
+      <c r="H84" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I84" s="33"/>
+      <c r="J84" s="33">
         <v>1</v>
       </c>
-      <c r="K84" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L84" s="34" t="s">
-        <v>243</v>
+      <c r="K84" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L84" s="33" t="s">
+        <v>174</v>
       </c>
       <c r="M84" s="22">
         <v>43477</v>
       </c>
-      <c r="N84" s="33"/>
+      <c r="N84" s="32"/>
       <c r="O84" s="5"/>
-      <c r="P84" s="35"/>
+      <c r="P84" s="34"/>
       <c r="Q84" s="5"/>
-      <c r="R84" s="34"/>
-    </row>
-    <row r="85" spans="1:18" ht="142.5" x14ac:dyDescent="0.25">
+      <c r="R84" s="33"/>
+    </row>
+    <row r="85" spans="1:20" ht="140" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
+        <v>81</v>
+      </c>
+      <c r="B85" s="6">
+        <v>43477</v>
+      </c>
+      <c r="C85" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="D85" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F85" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="G85" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H85" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I85" s="33"/>
+      <c r="J85" s="33">
+        <v>1</v>
+      </c>
+      <c r="K85" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L85" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M85" s="22">
+        <v>43477</v>
+      </c>
+      <c r="N85" s="32"/>
+      <c r="O85" s="5"/>
+      <c r="P85" s="34"/>
+      <c r="Q85" s="5"/>
+      <c r="R85" s="33"/>
+    </row>
+    <row r="86" spans="1:20" ht="168" x14ac:dyDescent="0.35">
+      <c r="A86" s="5">
+        <v>82</v>
+      </c>
+      <c r="B86" s="6">
+        <v>43477</v>
+      </c>
+      <c r="C86" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="D86" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E86" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F86" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="G86" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H86" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I86" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="J86" s="33">
+        <v>1</v>
+      </c>
+      <c r="K86" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L86" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M86" s="22">
+        <v>43477</v>
+      </c>
+      <c r="N86" s="32"/>
+      <c r="O86" s="5"/>
+      <c r="P86" s="34"/>
+      <c r="Q86" s="5"/>
+      <c r="R86" s="33"/>
+    </row>
+    <row r="87" spans="1:20" ht="210" x14ac:dyDescent="0.35">
+      <c r="A87" s="5">
+        <v>83</v>
+      </c>
+      <c r="B87" s="6">
+        <v>43477</v>
+      </c>
+      <c r="C87" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="D87" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E87" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F87" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="G87" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H87" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I87" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="J87" s="33">
+        <v>1</v>
+      </c>
+      <c r="K87" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L87" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M87" s="22">
+        <v>43477</v>
+      </c>
+      <c r="N87" s="32"/>
+      <c r="O87" s="5"/>
+      <c r="P87" s="34"/>
+      <c r="Q87" s="5"/>
+      <c r="R87" s="33"/>
+    </row>
+    <row r="88" spans="1:20" ht="98" x14ac:dyDescent="0.35">
+      <c r="A88" s="5">
+        <v>84</v>
+      </c>
+      <c r="B88" s="6">
+        <v>43477</v>
+      </c>
+      <c r="C88" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="D88" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="E88" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F88" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="G88" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H88" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I88" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="J88" s="33">
+        <v>1</v>
+      </c>
+      <c r="K88" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L88" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M88" s="22">
+        <v>43477</v>
+      </c>
+      <c r="N88" s="32"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="34"/>
+      <c r="Q88" s="5"/>
+      <c r="R88" s="33"/>
+    </row>
+    <row r="89" spans="1:20" ht="70" x14ac:dyDescent="0.35">
+      <c r="A89" s="5">
+        <v>85</v>
+      </c>
+      <c r="B89" s="6">
+        <v>43477</v>
+      </c>
+      <c r="C89" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="D89" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="E89" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F89" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="G89" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H89" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I89" s="33"/>
+      <c r="J89" s="33">
+        <v>1</v>
+      </c>
+      <c r="K89" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L89" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M89" s="22">
+        <v>43477</v>
+      </c>
+      <c r="N89" s="32"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="34"/>
+      <c r="Q89" s="5"/>
+      <c r="R89" s="33"/>
+    </row>
+    <row r="90" spans="1:20" ht="238" x14ac:dyDescent="0.35">
+      <c r="A90" s="5">
         <v>86</v>
       </c>
-      <c r="B85" s="6">
+      <c r="B90" s="6">
         <v>43486</v>
       </c>
-      <c r="C85" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="D85" s="34" t="s">
+      <c r="C90" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="D90" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E85" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F85" s="34" t="s">
-        <v>259</v>
-      </c>
-      <c r="G85" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H85" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="I85" s="34"/>
-      <c r="J85" s="34">
+      <c r="E90" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F90" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="G90" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H90" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I90" s="33"/>
+      <c r="J90" s="33">
         <v>1</v>
       </c>
-      <c r="K85" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="L85" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="M85" s="22">
+      <c r="K90" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L90" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="M90" s="22">
         <v>43486</v>
       </c>
-      <c r="N85" s="33"/>
-      <c r="O85" s="5"/>
-      <c r="P85" s="35"/>
-      <c r="Q85" s="5"/>
-      <c r="R85" s="34"/>
-    </row>
-    <row r="86" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="5">
-        <f>1+A85</f>
+      <c r="N90" s="32"/>
+      <c r="O90" s="5"/>
+      <c r="P90" s="34"/>
+      <c r="Q90" s="5"/>
+      <c r="R90" s="33"/>
+    </row>
+    <row r="91" spans="1:20" ht="28" x14ac:dyDescent="0.35">
+      <c r="A91" s="5">
+        <f>1+A90</f>
         <v>87</v>
       </c>
-      <c r="B86" s="6">
+      <c r="B91" s="6">
         <v>43489</v>
       </c>
-      <c r="C86" s="5"/>
-      <c r="D86" s="34" t="s">
+      <c r="C91" s="32"/>
+      <c r="D91" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E86" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F86" s="34" t="s">
-        <v>279</v>
-      </c>
-      <c r="G86" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="H86" s="34"/>
-      <c r="I86" s="34"/>
-      <c r="J86" s="34"/>
-      <c r="K86" s="34"/>
-      <c r="L86" s="34"/>
-      <c r="M86" s="34"/>
-      <c r="N86" s="33"/>
-      <c r="O86" s="5"/>
-      <c r="P86" s="35"/>
-      <c r="Q86" s="5"/>
-      <c r="R86" s="34"/>
-    </row>
-    <row r="87" spans="1:18" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="5">
-        <f t="shared" ref="A87:A93" si="1">1+A86</f>
+      <c r="E91" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F91" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="G91" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="H91" s="33"/>
+      <c r="I91" s="33"/>
+      <c r="J91" s="33"/>
+      <c r="K91" s="33"/>
+      <c r="L91" s="33"/>
+      <c r="M91" s="33"/>
+      <c r="N91" s="32">
+        <v>4</v>
+      </c>
+      <c r="O91" s="5"/>
+      <c r="P91" s="34"/>
+      <c r="Q91" s="5"/>
+      <c r="R91" s="33"/>
+    </row>
+    <row r="92" spans="1:20" ht="70" x14ac:dyDescent="0.35">
+      <c r="A92" s="5">
+        <f t="shared" ref="A92:A101" si="1">1+A91</f>
         <v>88</v>
       </c>
-      <c r="B87" s="6">
+      <c r="B92" s="6">
         <v>43489</v>
       </c>
-      <c r="C87" s="5"/>
-      <c r="D87" s="34" t="s">
+      <c r="C92" s="32"/>
+      <c r="D92" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E87" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F87" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="G87" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="H87" s="34"/>
-      <c r="I87" s="34"/>
-      <c r="J87" s="34"/>
-      <c r="K87" s="34"/>
-      <c r="L87" s="34"/>
-      <c r="M87" s="34"/>
-      <c r="N87" s="33"/>
-      <c r="O87" s="5"/>
-      <c r="P87" s="35"/>
-      <c r="Q87" s="5"/>
-      <c r="R87" s="34"/>
-    </row>
-    <row r="88" spans="1:18" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="5">
+      <c r="E92" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F92" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="G92" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="H92" s="33"/>
+      <c r="I92" s="33"/>
+      <c r="J92" s="33"/>
+      <c r="K92" s="33"/>
+      <c r="L92" s="33"/>
+      <c r="M92" s="33"/>
+      <c r="N92" s="32">
+        <v>30</v>
+      </c>
+      <c r="O92" s="5"/>
+      <c r="P92" s="34"/>
+      <c r="Q92" s="5"/>
+      <c r="R92" s="33" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" ht="70" x14ac:dyDescent="0.35">
+      <c r="A93" s="5">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="B88" s="6">
+      <c r="B93" s="6">
         <v>43489</v>
       </c>
-      <c r="C88" s="5"/>
-      <c r="D88" s="34" t="s">
+      <c r="C93" s="32"/>
+      <c r="D93" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E88" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F88" s="34" t="s">
-        <v>282</v>
-      </c>
-      <c r="G88" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="H88" s="34"/>
-      <c r="I88" s="34"/>
-      <c r="J88" s="34"/>
-      <c r="K88" s="34"/>
-      <c r="L88" s="34"/>
-      <c r="M88" s="34"/>
-      <c r="N88" s="33"/>
-      <c r="O88" s="5"/>
-      <c r="P88" s="35"/>
-      <c r="Q88" s="5"/>
-      <c r="R88" s="34"/>
-    </row>
-    <row r="89" spans="1:18" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A89" s="5">
+      <c r="E93" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F93" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="G93" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="H93" s="33"/>
+      <c r="I93" s="33"/>
+      <c r="J93" s="33"/>
+      <c r="K93" s="33"/>
+      <c r="L93" s="33"/>
+      <c r="M93" s="33"/>
+      <c r="N93" s="32">
+        <v>10</v>
+      </c>
+      <c r="O93" s="5"/>
+      <c r="P93" s="34"/>
+      <c r="Q93" s="5"/>
+      <c r="R93" s="33" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" ht="140" x14ac:dyDescent="0.35">
+      <c r="A94" s="5">
+        <f>1+A92</f>
+        <v>89</v>
+      </c>
+      <c r="B94" s="6">
+        <v>43489</v>
+      </c>
+      <c r="C94" s="32"/>
+      <c r="D94" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F94" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="G94" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="H94" s="33"/>
+      <c r="I94" s="33"/>
+      <c r="J94" s="33"/>
+      <c r="K94" s="33"/>
+      <c r="L94" s="33"/>
+      <c r="M94" s="33"/>
+      <c r="N94" s="32">
+        <v>12</v>
+      </c>
+      <c r="O94" s="5"/>
+      <c r="P94" s="34"/>
+      <c r="Q94" s="5"/>
+      <c r="R94" s="33"/>
+    </row>
+    <row r="95" spans="1:20" ht="182" x14ac:dyDescent="0.35">
+      <c r="A95" s="5">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="B89" s="6">
+      <c r="B95" s="6">
         <v>43489</v>
       </c>
-      <c r="C89" s="5"/>
-      <c r="D89" s="34" t="s">
+      <c r="C95" s="32"/>
+      <c r="D95" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E89" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F89" s="34" t="s">
-        <v>283</v>
-      </c>
-      <c r="G89" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="H89" s="34"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="34"/>
-      <c r="K89" s="34"/>
-      <c r="L89" s="34"/>
-      <c r="M89" s="34"/>
-      <c r="N89" s="33"/>
-      <c r="O89" s="5"/>
-      <c r="P89" s="35"/>
-      <c r="Q89" s="5"/>
-      <c r="R89" s="34"/>
-    </row>
-    <row r="90" spans="1:18" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A90" s="5">
+      <c r="E95" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F95" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="G95" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="H95" s="33"/>
+      <c r="I95" s="33"/>
+      <c r="J95" s="33"/>
+      <c r="K95" s="33"/>
+      <c r="L95" s="33"/>
+      <c r="M95" s="33"/>
+      <c r="N95" s="32">
+        <v>10</v>
+      </c>
+      <c r="O95" s="5"/>
+      <c r="P95" s="34"/>
+      <c r="Q95" s="5"/>
+      <c r="R95" s="33"/>
+    </row>
+    <row r="96" spans="1:20" ht="126" x14ac:dyDescent="0.35">
+      <c r="A96" s="5">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="B90" s="6">
+      <c r="B96" s="6">
         <v>43489</v>
       </c>
-      <c r="C90" s="5"/>
-      <c r="D90" s="34" t="s">
+      <c r="C96" s="32"/>
+      <c r="D96" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E90" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F90" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="G90" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="H90" s="34"/>
-      <c r="I90" s="34"/>
-      <c r="J90" s="34"/>
-      <c r="K90" s="34"/>
-      <c r="L90" s="34"/>
-      <c r="M90" s="34"/>
-      <c r="N90" s="33"/>
-      <c r="O90" s="5"/>
-      <c r="P90" s="35"/>
-      <c r="Q90" s="5"/>
-      <c r="R90" s="34"/>
-    </row>
-    <row r="91" spans="1:18" ht="270.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="5">
+      <c r="E96" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F96" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="G96" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="H96" s="33"/>
+      <c r="I96" s="33"/>
+      <c r="J96" s="33"/>
+      <c r="K96" s="33"/>
+      <c r="L96" s="33"/>
+      <c r="M96" s="33"/>
+      <c r="N96" s="32">
+        <v>6</v>
+      </c>
+      <c r="O96" s="5"/>
+      <c r="P96" s="34"/>
+      <c r="Q96" s="5"/>
+      <c r="R96" s="33" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" ht="406" x14ac:dyDescent="0.35">
+      <c r="A97" s="5">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="B91" s="6">
+      <c r="B97" s="6">
         <v>43489</v>
       </c>
-      <c r="C91" s="5"/>
-      <c r="D91" s="34" t="s">
+      <c r="C97" s="32"/>
+      <c r="D97" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E91" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F91" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="G91" s="15" t="s">
+      <c r="E97" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F97" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="H91" s="34"/>
-      <c r="I91" s="34"/>
-      <c r="J91" s="34"/>
-      <c r="K91" s="34"/>
-      <c r="L91" s="34"/>
-      <c r="M91" s="34"/>
-      <c r="N91" s="33"/>
-      <c r="O91" s="5"/>
-      <c r="P91" s="35"/>
-      <c r="Q91" s="5"/>
-      <c r="R91" s="34"/>
-    </row>
-    <row r="92" spans="1:18" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="5">
+      <c r="G97" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="H97" s="33"/>
+      <c r="I97" s="33"/>
+      <c r="J97" s="33"/>
+      <c r="K97" s="33"/>
+      <c r="L97" s="33"/>
+      <c r="M97" s="33"/>
+      <c r="N97" s="32">
+        <v>20</v>
+      </c>
+      <c r="O97" s="5"/>
+      <c r="P97" s="34"/>
+      <c r="Q97" s="5"/>
+      <c r="R97" s="33" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" ht="406" x14ac:dyDescent="0.35">
+      <c r="A98" s="5">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="B92" s="6">
+      <c r="B98" s="6">
         <v>43489</v>
       </c>
-      <c r="C92" s="5"/>
-      <c r="D92" s="34" t="s">
+      <c r="C98" s="32"/>
+      <c r="D98" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E92" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F92" s="34" t="s">
-        <v>286</v>
-      </c>
-      <c r="G92" s="15" t="s">
+      <c r="E98" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F98" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="H92" s="34"/>
-      <c r="I92" s="34"/>
-      <c r="J92" s="34"/>
-      <c r="K92" s="34"/>
-      <c r="L92" s="34"/>
-      <c r="M92" s="34"/>
-      <c r="N92" s="33"/>
-      <c r="O92" s="5"/>
-      <c r="P92" s="35"/>
-      <c r="Q92" s="5"/>
-      <c r="R92" s="34"/>
-    </row>
-    <row r="93" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="5">
+      <c r="G98" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="H98" s="33"/>
+      <c r="I98" s="33"/>
+      <c r="J98" s="33"/>
+      <c r="K98" s="33"/>
+      <c r="L98" s="33"/>
+      <c r="M98" s="33"/>
+      <c r="N98" s="32">
+        <v>8</v>
+      </c>
+      <c r="O98" s="5"/>
+      <c r="P98" s="34"/>
+      <c r="Q98" s="5"/>
+      <c r="R98" s="33" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" ht="56" x14ac:dyDescent="0.35">
+      <c r="A99" s="5">
+        <f>1+A97</f>
+        <v>93</v>
+      </c>
+      <c r="B99" s="6">
+        <v>43489</v>
+      </c>
+      <c r="C99" s="32"/>
+      <c r="D99" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E99" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F99" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="G99" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="H99" s="33"/>
+      <c r="I99" s="33"/>
+      <c r="J99" s="33"/>
+      <c r="K99" s="33"/>
+      <c r="L99" s="33"/>
+      <c r="M99" s="33"/>
+      <c r="N99" s="32">
+        <v>6</v>
+      </c>
+      <c r="O99" s="5"/>
+      <c r="P99" s="34"/>
+      <c r="Q99" s="5"/>
+      <c r="R99" s="33"/>
+    </row>
+    <row r="100" spans="1:18" ht="28" x14ac:dyDescent="0.35">
+      <c r="A100" s="5">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="B93" s="6">
+      <c r="B100" s="6">
         <v>43489</v>
       </c>
-      <c r="C93" s="5"/>
-      <c r="D93" s="34" t="s">
+      <c r="C100" s="32"/>
+      <c r="D100" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E93" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F93" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="G93" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="H93" s="34"/>
-      <c r="I93" s="34"/>
-      <c r="J93" s="34"/>
-      <c r="K93" s="34"/>
-      <c r="L93" s="34"/>
-      <c r="M93" s="34"/>
-      <c r="N93" s="33"/>
-      <c r="O93" s="5"/>
-      <c r="P93" s="35"/>
-      <c r="Q93" s="5"/>
-      <c r="R93" s="34"/>
-    </row>
-    <row r="94" spans="1:18" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A94" s="5">
+      <c r="E100" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F100" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="G100" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="H100" s="33"/>
+      <c r="I100" s="33"/>
+      <c r="J100" s="33"/>
+      <c r="K100" s="33"/>
+      <c r="L100" s="33"/>
+      <c r="M100" s="33"/>
+      <c r="N100" s="32">
+        <v>10</v>
+      </c>
+      <c r="O100" s="5"/>
+      <c r="P100" s="34"/>
+      <c r="Q100" s="5"/>
+      <c r="R100" s="33" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" ht="28" x14ac:dyDescent="0.35">
+      <c r="A101" s="5">
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="B94" s="6">
+      <c r="B101" s="6">
+        <v>43489</v>
+      </c>
+      <c r="C101" s="32"/>
+      <c r="D101" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F101" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="G101" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="H101" s="33"/>
+      <c r="I101" s="33"/>
+      <c r="J101" s="33"/>
+      <c r="K101" s="33"/>
+      <c r="L101" s="33"/>
+      <c r="M101" s="33"/>
+      <c r="N101" s="32">
+        <v>4</v>
+      </c>
+      <c r="O101" s="5"/>
+      <c r="P101" s="34"/>
+      <c r="Q101" s="5"/>
+      <c r="R101" s="33" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" ht="126" x14ac:dyDescent="0.35">
+      <c r="A102" s="5">
+        <v>95</v>
+      </c>
+      <c r="B102" s="6">
         <v>43448</v>
       </c>
-      <c r="C94" s="34" t="s">
-        <v>288</v>
-      </c>
-      <c r="D94" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E94" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F94" s="83" t="s">
-        <v>289</v>
-      </c>
-      <c r="G94" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H94" s="34"/>
-      <c r="I94" s="34"/>
-      <c r="J94" s="34"/>
-      <c r="K94" s="34"/>
-      <c r="L94" s="22"/>
-      <c r="M94" s="33">
+      <c r="C102" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="D102" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E102" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F102" s="78" t="s">
+        <v>284</v>
+      </c>
+      <c r="G102" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H102" s="33"/>
+      <c r="I102" s="33"/>
+      <c r="J102" s="33"/>
+      <c r="K102" s="33"/>
+      <c r="L102" s="22"/>
+      <c r="M102" s="32">
         <v>20</v>
       </c>
-      <c r="N94" s="5">
+      <c r="N102" s="5">
         <v>40</v>
       </c>
-      <c r="O94" s="35"/>
-      <c r="P94" s="5"/>
-      <c r="Q94" s="34"/>
-      <c r="R94" s="11"/>
+      <c r="O102" s="34"/>
+      <c r="P102" s="5"/>
+      <c r="Q102" s="33"/>
+      <c r="R102" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:R85" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:R102">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="New"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:R1"/>
   </mergeCells>
@@ -9845,57 +10308,57 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B6" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B7" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B8" s="10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B10" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B11" s="10"/>
     </row>
   </sheetData>
@@ -9905,114 +10368,114 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>168</v>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="35" t="s">
+        <v>163</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="38">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="37">
         <v>1</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="38">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="37">
         <v>8</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="37">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="B6" s="38">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="37">
         <v>3</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="38">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="37">
         <v>3</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="38">
+      <c r="B8" s="37">
         <v>27</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="38">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="37">
         <v>15</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="38">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="37">
         <v>7</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="B11" s="38">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="37">
         <v>64</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="37">
         <v>30</v>
       </c>
     </row>
@@ -10023,46 +10486,46 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{980565A9-FF32-4003-94A7-EC77820C1DD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="52.140625" customWidth="1"/>
+    <col min="3" max="3" width="52.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="69" t="s">
-        <v>239</v>
-      </c>
-      <c r="C1" s="70" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="71"/>
-      <c r="C2" s="72" t="s">
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="68" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" s="69" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="73"/>
-      <c r="C3" s="72" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="74"/>
-      <c r="C4" s="72" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76" t="s">
-        <v>238</v>
+    <row r="2" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="70"/>
+      <c r="C2" s="71" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="72"/>
+      <c r="C3" s="71" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="73"/>
+      <c r="C4" s="71" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="74"/>
+      <c r="C5" s="75" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -10286,15 +10749,15 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
+++ b/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
@@ -18,7 +18,7 @@
     <sheet name="Status Legends" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MOSIP_Feature_Roadmap!$A$2:$R$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MOSIP_Feature_Roadmap!$A$2:$R$104</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="314">
   <si>
     <t>S.No.</t>
   </si>
@@ -3306,6 +3306,29 @@
   </si>
   <si>
     <t>Mobile has different OS. Integrate and getting infromation from IOS might become challenges.  Need to do the POC on multiple mobile platform [IOS, Android, Black berry, Simbion OS and windows]. Implementation Approach to be finalized. Highlevel estimation provided.</t>
+  </si>
+  <si>
+    <t>Cbeff update applicable.</t>
+  </si>
+  <si>
+    <t>QR - hardware - SDK - integration. 
+[Need to identify the open source lib + drivers + hardware]</t>
+  </si>
+  <si>
+    <t>Stub for QR data retrieval. UI + Api changes.</t>
+  </si>
+  <si>
+    <t>if the Registration client software is a docker then we have to check the feasibility of the same.</t>
+  </si>
+  <si>
+    <t>Stubbed data.</t>
+  </si>
+  <si>
+    <t>Need some analysis on this area. Approximate effort provided. Based on R&amp;D this effort would vary.
+[TPM + Bitlocker + Windows + Docker]</t>
+  </si>
+  <si>
+    <t>This functionality has been removed. Need confirmation.</t>
   </si>
 </sst>
 </file>
@@ -3613,7 +3636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3752,9 +3775,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5409,18 +5429,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:T102"/>
+  <dimension ref="A1:T104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N77" sqref="N77"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.26953125" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.08984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" style="2" customWidth="1"/>
     <col min="3" max="3" width="36.08984375" style="28" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7265625" style="3" bestFit="1" customWidth="1"/>
@@ -5441,26 +5460,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="78" t="s">
         <v>236</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="83"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="82"/>
     </row>
     <row r="2" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
@@ -5508,7 +5527,7 @@
       <c r="O2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="60" t="s">
+      <c r="P2" s="59" t="s">
         <v>198</v>
       </c>
       <c r="Q2" s="21" t="s">
@@ -5572,7 +5591,7 @@
     </row>
     <row r="4" spans="1:18" s="4" customFormat="1" ht="182" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="6">
         <v>43362</v>
@@ -5622,9 +5641,9 @@
         <v>292</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="4" customFormat="1" ht="56" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" s="4" customFormat="1" ht="70" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="6">
         <v>43362</v>
@@ -5674,9 +5693,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="4" customFormat="1" ht="56" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" s="4" customFormat="1" ht="70" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" s="6">
         <v>43362</v>
@@ -5728,7 +5747,7 @@
     </row>
     <row r="7" spans="1:18" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" s="6">
         <v>43362</v>
@@ -5780,7 +5799,7 @@
     </row>
     <row r="8" spans="1:18" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8" s="6">
         <v>43362</v>
@@ -5832,7 +5851,7 @@
     </row>
     <row r="9" spans="1:18" s="4" customFormat="1" ht="98" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B9" s="6">
         <v>43362</v>
@@ -5882,7 +5901,7 @@
     </row>
     <row r="10" spans="1:18" s="4" customFormat="1" ht="98" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B10" s="6">
         <v>43362</v>
@@ -5932,7 +5951,7 @@
     </row>
     <row r="11" spans="1:18" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B11" s="6">
         <v>43362</v>
@@ -5980,7 +5999,7 @@
     </row>
     <row r="12" spans="1:18" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B12" s="6">
         <v>43362</v>
@@ -6028,9 +6047,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="1" customFormat="1" ht="350" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" s="1" customFormat="1" ht="350" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B13" s="6">
         <v>43395</v>
@@ -6077,7 +6096,7 @@
     </row>
     <row r="14" spans="1:18" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B14" s="6">
         <v>43397</v>
@@ -6127,7 +6146,7 @@
     </row>
     <row r="15" spans="1:18" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B15" s="6">
         <v>43397</v>
@@ -6177,7 +6196,7 @@
     </row>
     <row r="16" spans="1:18" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B16" s="6">
         <v>43397</v>
@@ -6191,7 +6210,7 @@
       <c r="E16" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="53" t="s">
+      <c r="F16" s="52" t="s">
         <v>201</v>
       </c>
       <c r="G16" s="15" t="s">
@@ -6213,13 +6232,13 @@
       <c r="M16" s="22">
         <v>43419</v>
       </c>
-      <c r="N16" s="52" t="s">
+      <c r="N16" s="51" t="s">
         <v>45</v>
       </c>
       <c r="O16" s="42">
         <v>36</v>
       </c>
-      <c r="P16" s="62" t="s">
+      <c r="P16" s="61" t="s">
         <v>193</v>
       </c>
       <c r="Q16" s="31" t="s">
@@ -6231,7 +6250,7 @@
     </row>
     <row r="17" spans="1:18" s="1" customFormat="1" ht="210" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B17" s="6">
         <v>43397</v>
@@ -6245,7 +6264,7 @@
       <c r="E17" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="53" t="s">
+      <c r="F17" s="52" t="s">
         <v>200</v>
       </c>
       <c r="G17" s="15" t="s">
@@ -6267,13 +6286,13 @@
       <c r="M17" s="22">
         <v>43419</v>
       </c>
-      <c r="N17" s="54">
+      <c r="N17" s="53">
         <v>36</v>
       </c>
       <c r="O17" s="42">
         <v>54</v>
       </c>
-      <c r="P17" s="62" t="s">
+      <c r="P17" s="61" t="s">
         <v>193</v>
       </c>
       <c r="Q17" s="31" t="s">
@@ -6285,7 +6304,7 @@
     </row>
     <row r="18" spans="1:18" s="4" customFormat="1" ht="238" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B18" s="6">
         <v>43397</v>
@@ -6321,13 +6340,13 @@
       <c r="M18" s="22">
         <v>43419</v>
       </c>
-      <c r="N18" s="52" t="s">
+      <c r="N18" s="51" t="s">
         <v>49</v>
       </c>
       <c r="O18" s="42">
         <v>72</v>
       </c>
-      <c r="P18" s="62" t="s">
+      <c r="P18" s="61" t="s">
         <v>193</v>
       </c>
       <c r="Q18" s="31" t="s">
@@ -6339,7 +6358,7 @@
     </row>
     <row r="19" spans="1:18" s="1" customFormat="1" ht="182" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B19" s="6">
         <v>43397</v>
@@ -6381,7 +6400,7 @@
       <c r="O19" s="42">
         <v>0</v>
       </c>
-      <c r="P19" s="63" t="s">
+      <c r="P19" s="62" t="s">
         <v>220</v>
       </c>
       <c r="Q19" s="31" t="s">
@@ -6393,7 +6412,7 @@
     </row>
     <row r="20" spans="1:18" s="4" customFormat="1" ht="154" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B20" s="6">
         <v>43397</v>
@@ -6429,25 +6448,25 @@
       <c r="M20" s="22">
         <v>43419</v>
       </c>
-      <c r="N20" s="55">
+      <c r="N20" s="54">
         <v>10</v>
       </c>
-      <c r="O20" s="56" t="s">
+      <c r="O20" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="P20" s="64" t="s">
+      <c r="P20" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="Q20" s="56" t="s">
+      <c r="Q20" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="R20" s="57" t="s">
+      <c r="R20" s="56" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:18" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="13" t="s">
@@ -6489,7 +6508,7 @@
     </row>
     <row r="22" spans="1:18" s="4" customFormat="1" ht="56" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="13" t="s">
@@ -6531,7 +6550,7 @@
     </row>
     <row r="23" spans="1:18" ht="70" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B23" s="6">
         <v>43402</v>
@@ -6581,7 +6600,7 @@
     </row>
     <row r="24" spans="1:18" ht="70" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B24" s="6">
         <v>43402</v>
@@ -6631,7 +6650,7 @@
     </row>
     <row r="25" spans="1:18" ht="112" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B25" s="6">
         <v>43402</v>
@@ -6667,13 +6686,13 @@
       <c r="M25" s="22">
         <v>43419</v>
       </c>
-      <c r="N25" s="54">
+      <c r="N25" s="53">
         <v>20</v>
       </c>
       <c r="O25" s="42">
         <v>30</v>
       </c>
-      <c r="P25" s="64" t="s">
+      <c r="P25" s="63" t="s">
         <v>193</v>
       </c>
       <c r="Q25" s="31" t="s">
@@ -6685,7 +6704,7 @@
     </row>
     <row r="26" spans="1:18" ht="56" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B26" s="6">
         <v>43402</v>
@@ -6729,7 +6748,7 @@
     </row>
     <row r="27" spans="1:18" ht="70" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B27" s="6">
         <v>43402</v>
@@ -6773,7 +6792,7 @@
     </row>
     <row r="28" spans="1:18" ht="70" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B28" s="6">
         <v>43402</v>
@@ -6823,7 +6842,7 @@
     </row>
     <row r="29" spans="1:18" ht="56" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B29" s="6">
         <v>43418</v>
@@ -6873,7 +6892,7 @@
     </row>
     <row r="30" spans="1:18" ht="56" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B30" s="6">
         <v>43418</v>
@@ -6917,7 +6936,7 @@
     </row>
     <row r="31" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B31" s="6">
         <v>43418</v>
@@ -6967,7 +6986,7 @@
     </row>
     <row r="32" spans="1:18" ht="126" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B32" s="6">
         <v>43418</v>
@@ -7003,13 +7022,13 @@
       <c r="M32" s="22">
         <v>43419</v>
       </c>
-      <c r="N32" s="54">
+      <c r="N32" s="53">
         <v>20</v>
       </c>
       <c r="O32" s="42">
         <v>30</v>
       </c>
-      <c r="P32" s="65" t="s">
+      <c r="P32" s="64" t="s">
         <v>207</v>
       </c>
       <c r="Q32" s="31" t="s">
@@ -7021,7 +7040,7 @@
     </row>
     <row r="33" spans="1:18" ht="70" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B33" s="6">
         <v>43430</v>
@@ -7071,7 +7090,7 @@
     </row>
     <row r="34" spans="1:18" s="8" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B34" s="6">
         <v>43430</v>
@@ -7121,7 +7140,7 @@
     </row>
     <row r="35" spans="1:18" s="8" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B35" s="6">
         <v>43430</v>
@@ -7171,7 +7190,7 @@
     </row>
     <row r="36" spans="1:18" ht="70" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B36" s="6">
         <v>43430</v>
@@ -7219,7 +7238,7 @@
     </row>
     <row r="37" spans="1:18" ht="182" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B37" s="6">
         <v>43430</v>
@@ -7271,7 +7290,7 @@
     </row>
     <row r="38" spans="1:18" ht="126" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B38" s="6">
         <v>43430</v>
@@ -7323,7 +7342,7 @@
     </row>
     <row r="39" spans="1:18" ht="224" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B39" s="6">
         <v>43430</v>
@@ -7375,7 +7394,7 @@
     </row>
     <row r="40" spans="1:18" ht="126" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B40" s="6">
         <v>43430</v>
@@ -7425,9 +7444,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B41" s="6">
         <v>43430</v>
@@ -7471,9 +7490,9 @@
       <c r="Q41" s="31"/>
       <c r="R41" s="33"/>
     </row>
-    <row r="42" spans="1:18" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B42" s="6">
         <v>43430</v>
@@ -7518,9 +7537,9 @@
       <c r="Q42" s="31"/>
       <c r="R42" s="33"/>
     </row>
-    <row r="43" spans="1:18" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B43" s="6">
         <v>43427</v>
@@ -7567,9 +7586,9 @@
       <c r="Q43" s="31"/>
       <c r="R43" s="33"/>
     </row>
-    <row r="44" spans="1:18" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B44" s="6">
         <v>43427</v>
@@ -7616,7 +7635,7 @@
     </row>
     <row r="45" spans="1:18" ht="322" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B45" s="6">
         <v>43427</v>
@@ -7652,13 +7671,13 @@
       <c r="M45" s="22">
         <v>43440</v>
       </c>
-      <c r="N45" s="54">
+      <c r="N45" s="53">
         <v>60</v>
       </c>
       <c r="O45" s="42">
         <v>90</v>
       </c>
-      <c r="P45" s="61" t="s">
+      <c r="P45" s="60" t="s">
         <v>193</v>
       </c>
       <c r="Q45" s="31"/>
@@ -7666,9 +7685,9 @@
         <v>248</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" ht="140" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B46" s="6">
         <v>43427</v>
@@ -7716,7 +7735,7 @@
     </row>
     <row r="47" spans="1:18" ht="28" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B47" s="6">
         <v>43427</v>
@@ -7758,7 +7777,7 @@
       <c r="O47" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="P47" s="65" t="s">
+      <c r="P47" s="64" t="s">
         <v>210</v>
       </c>
       <c r="Q47" s="31" t="s">
@@ -7770,7 +7789,7 @@
     </row>
     <row r="48" spans="1:18" ht="70" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B48" s="6">
         <v>43427</v>
@@ -7812,7 +7831,7 @@
       <c r="O48" s="42">
         <v>30</v>
       </c>
-      <c r="P48" s="63" t="s">
+      <c r="P48" s="62" t="s">
         <v>222</v>
       </c>
       <c r="Q48" s="31" t="s">
@@ -7824,7 +7843,7 @@
     </row>
     <row r="49" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B49" s="6">
         <v>43427</v>
@@ -7868,7 +7887,7 @@
     </row>
     <row r="50" spans="1:18" ht="56" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B50" s="6">
         <v>43427</v>
@@ -7904,16 +7923,16 @@
       <c r="M50" s="22">
         <v>43440</v>
       </c>
-      <c r="N50" s="58">
+      <c r="N50" s="57">
         <v>5</v>
       </c>
-      <c r="O50" s="59">
+      <c r="O50" s="58">
         <v>8</v>
       </c>
-      <c r="P50" s="66" t="s">
+      <c r="P50" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="Q50" s="56" t="s">
+      <c r="Q50" s="55" t="s">
         <v>224</v>
       </c>
       <c r="R50" s="20" t="s">
@@ -7922,7 +7941,7 @@
     </row>
     <row r="51" spans="1:18" ht="56" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B51" s="6">
         <v>43427</v>
@@ -7972,9 +7991,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" ht="70" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B52" s="6">
         <v>43427</v>
@@ -8021,7 +8040,7 @@
     </row>
     <row r="53" spans="1:18" ht="224" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B53" s="6">
         <v>43427</v>
@@ -8065,7 +8084,7 @@
     </row>
     <row r="54" spans="1:18" ht="70" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B54" s="6">
         <v>43427</v>
@@ -8115,7 +8134,7 @@
     </row>
     <row r="55" spans="1:18" ht="56" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B55" s="6">
         <v>43427</v>
@@ -8157,9 +8176,9 @@
       <c r="Q55" s="31"/>
       <c r="R55" s="33"/>
     </row>
-    <row r="56" spans="1:18" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" ht="56" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B56" s="6">
         <v>43427</v>
@@ -8206,7 +8225,7 @@
     </row>
     <row r="57" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B57" s="6">
         <v>43427</v>
@@ -8256,7 +8275,7 @@
     </row>
     <row r="58" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B58" s="6">
         <v>43427</v>
@@ -8304,9 +8323,9 @@
         <v>306</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" ht="70" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B59" s="6">
         <v>43427</v>
@@ -8351,9 +8370,9 @@
       <c r="Q59" s="31"/>
       <c r="R59" s="33"/>
     </row>
-    <row r="60" spans="1:18" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" ht="98" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B60" s="6">
         <v>43427</v>
@@ -8400,7 +8419,7 @@
     </row>
     <row r="61" spans="1:18" ht="140" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B61" s="6">
         <v>43432</v>
@@ -8450,7 +8469,7 @@
     </row>
     <row r="62" spans="1:18" ht="56" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B62" s="6">
         <v>43432</v>
@@ -8502,7 +8521,7 @@
     </row>
     <row r="63" spans="1:18" ht="56" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B63" s="6">
         <v>43432</v>
@@ -8544,7 +8563,7 @@
       <c r="O63" s="42">
         <v>30</v>
       </c>
-      <c r="P63" s="65" t="s">
+      <c r="P63" s="64" t="s">
         <v>207</v>
       </c>
       <c r="Q63" s="31" t="s">
@@ -8554,9 +8573,9 @@
         <v>227</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" ht="98" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B64" s="6">
         <v>43432</v>
@@ -8600,9 +8619,9 @@
       <c r="Q64" s="34"/>
       <c r="R64" s="33"/>
     </row>
-    <row r="65" spans="1:20" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:20" ht="56" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B65" s="6">
         <v>43432</v>
@@ -8648,7 +8667,7 @@
     </row>
     <row r="66" spans="1:20" ht="280" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B66" s="6">
         <v>43440</v>
@@ -8700,7 +8719,7 @@
     </row>
     <row r="67" spans="1:20" ht="154" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B67" s="6">
         <v>43440</v>
@@ -8750,7 +8769,7 @@
     </row>
     <row r="68" spans="1:20" ht="154" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B68" s="6">
         <v>43440</v>
@@ -8802,7 +8821,7 @@
     </row>
     <row r="69" spans="1:20" ht="350" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B69" s="6">
         <v>43446</v>
@@ -8838,7 +8857,9 @@
       <c r="M69" s="22">
         <v>43446</v>
       </c>
-      <c r="N69" s="32"/>
+      <c r="N69" s="32">
+        <v>12</v>
+      </c>
       <c r="O69" s="5">
         <v>24</v>
       </c>
@@ -8850,7 +8871,7 @@
     </row>
     <row r="70" spans="1:20" ht="42" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B70" s="6">
         <v>43446</v>
@@ -8886,9 +8907,11 @@
       <c r="M70" s="22">
         <v>43446</v>
       </c>
-      <c r="N70" s="32"/>
+      <c r="N70" s="32">
+        <v>4</v>
+      </c>
       <c r="O70" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P70" s="5"/>
       <c r="Q70" s="5"/>
@@ -8896,7 +8919,7 @@
     </row>
     <row r="71" spans="1:20" ht="154" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B71" s="6">
         <v>43451</v>
@@ -8946,7 +8969,7 @@
     </row>
     <row r="72" spans="1:20" ht="182" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B72" s="6">
         <v>43451</v>
@@ -9000,7 +9023,7 @@
     </row>
     <row r="73" spans="1:20" ht="196" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B73" s="6">
         <v>43451</v>
@@ -9048,9 +9071,9 @@
       <c r="S73" s="40"/>
       <c r="T73" s="29"/>
     </row>
-    <row r="74" spans="1:20" ht="126" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:20" ht="126" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B74" s="6">
         <v>43454</v>
@@ -9100,7 +9123,7 @@
     </row>
     <row r="75" spans="1:20" ht="56" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B75" s="38">
         <v>43454</v>
@@ -9142,19 +9165,19 @@
       <c r="O75" s="40">
         <v>30</v>
       </c>
-      <c r="P75" s="64" t="s">
+      <c r="P75" s="63" t="s">
         <v>193</v>
       </c>
       <c r="Q75" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="R75" s="67" t="s">
+      <c r="R75" s="66" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="76" spans="1:20" ht="182" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B76" s="6">
         <v>43454</v>
@@ -9196,19 +9219,19 @@
       <c r="O76" s="42">
         <v>15</v>
       </c>
-      <c r="P76" s="77" t="s">
+      <c r="P76" s="76" t="s">
         <v>251</v>
       </c>
       <c r="Q76" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="R76" s="67" t="s">
+      <c r="R76" s="66" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="77" spans="1:20" ht="196" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B77" s="6">
         <v>43465</v>
@@ -9260,7 +9283,7 @@
     </row>
     <row r="78" spans="1:20" ht="154" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B78" s="6">
         <v>43465</v>
@@ -9296,8 +9319,12 @@
       <c r="M78" s="22">
         <v>43465</v>
       </c>
-      <c r="N78" s="51"/>
-      <c r="O78" s="5"/>
+      <c r="N78" s="5">
+        <v>30</v>
+      </c>
+      <c r="O78" s="5">
+        <v>60</v>
+      </c>
       <c r="P78" s="5"/>
       <c r="Q78" s="5"/>
       <c r="R78" s="5"/>
@@ -9306,7 +9333,7 @@
     </row>
     <row r="79" spans="1:20" ht="70" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B79" s="6">
         <v>43465</v>
@@ -9342,17 +9369,23 @@
       <c r="M79" s="22">
         <v>43465</v>
       </c>
-      <c r="N79" s="51"/>
-      <c r="O79" s="5"/>
+      <c r="N79" s="31">
+        <v>20</v>
+      </c>
+      <c r="O79" s="5">
+        <v>40</v>
+      </c>
       <c r="P79" s="5"/>
       <c r="Q79" s="5"/>
-      <c r="R79" s="5"/>
+      <c r="R79" s="5" t="s">
+        <v>307</v>
+      </c>
       <c r="S79" s="5"/>
       <c r="T79" s="33"/>
     </row>
     <row r="80" spans="1:20" ht="84" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B80" s="6">
         <v>43465</v>
@@ -9388,17 +9421,21 @@
       <c r="M80" s="22">
         <v>43465</v>
       </c>
-      <c r="N80" s="51"/>
-      <c r="O80" s="5"/>
+      <c r="N80" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="O80" s="5">
+        <v>12</v>
+      </c>
       <c r="P80" s="5"/>
       <c r="Q80" s="5"/>
       <c r="R80" s="5"/>
-      <c r="S80" s="76"/>
+      <c r="S80" s="75"/>
       <c r="T80" s="33"/>
     </row>
     <row r="81" spans="1:20" ht="224" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B81" s="6">
         <v>43465</v>
@@ -9434,17 +9471,23 @@
       <c r="M81" s="22">
         <v>43465</v>
       </c>
-      <c r="N81" s="51"/>
-      <c r="O81" s="5"/>
+      <c r="N81" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="O81" s="5">
+        <v>40</v>
+      </c>
       <c r="P81" s="5"/>
       <c r="Q81" s="5"/>
-      <c r="R81" s="5"/>
-      <c r="S81" s="76"/>
+      <c r="R81" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="S81" s="75"/>
       <c r="T81" s="33"/>
     </row>
-    <row r="82" spans="1:20" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:20" ht="140" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B82" s="6">
         <v>43477</v>
@@ -9486,7 +9529,7 @@
       <c r="O82" s="5">
         <v>0</v>
       </c>
-      <c r="P82" s="63" t="s">
+      <c r="P82" s="62" t="s">
         <v>222</v>
       </c>
       <c r="Q82" s="5" t="s">
@@ -9496,15 +9539,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="70" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:20" ht="224" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B83" s="6">
-        <v>43477</v>
+        <v>43465</v>
       </c>
       <c r="C83" s="33" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="D83" s="33" t="s">
         <v>15</v>
@@ -9512,8 +9555,8 @@
       <c r="E83" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="F83" s="20" t="s">
-        <v>242</v>
+      <c r="F83" s="33" t="s">
+        <v>217</v>
       </c>
       <c r="G83" s="15" t="s">
         <v>42</v>
@@ -9529,20 +9572,28 @@
         <v>80</v>
       </c>
       <c r="L83" s="33" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="M83" s="22">
-        <v>43477</v>
-      </c>
-      <c r="N83" s="32"/>
-      <c r="O83" s="5"/>
-      <c r="P83" s="34"/>
+        <v>43465</v>
+      </c>
+      <c r="N83" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="O83" s="5">
+        <v>20</v>
+      </c>
+      <c r="P83" s="5"/>
       <c r="Q83" s="5"/>
-      <c r="R83" s="33"/>
-    </row>
-    <row r="84" spans="1:20" ht="84" x14ac:dyDescent="0.35">
+      <c r="R83" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="S83" s="75"/>
+      <c r="T83" s="33"/>
+    </row>
+    <row r="84" spans="1:20" ht="70" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B84" s="6">
         <v>43477</v>
@@ -9556,8 +9607,8 @@
       <c r="E84" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="F84" s="33" t="s">
-        <v>243</v>
+      <c r="F84" s="20" t="s">
+        <v>242</v>
       </c>
       <c r="G84" s="15" t="s">
         <v>42</v>
@@ -9578,15 +9629,21 @@
       <c r="M84" s="22">
         <v>43477</v>
       </c>
-      <c r="N84" s="32"/>
-      <c r="O84" s="5"/>
+      <c r="N84" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="O84" s="5">
+        <v>40</v>
+      </c>
       <c r="P84" s="34"/>
       <c r="Q84" s="5"/>
-      <c r="R84" s="33"/>
-    </row>
-    <row r="85" spans="1:20" ht="140" x14ac:dyDescent="0.35">
+      <c r="R84" s="33" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" ht="84" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B85" s="6">
         <v>43477</v>
@@ -9601,7 +9658,7 @@
         <v>29</v>
       </c>
       <c r="F85" s="33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G85" s="15" t="s">
         <v>42</v>
@@ -9617,20 +9674,24 @@
         <v>80</v>
       </c>
       <c r="L85" s="33" t="s">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="M85" s="22">
         <v>43477</v>
       </c>
-      <c r="N85" s="32"/>
-      <c r="O85" s="5"/>
+      <c r="N85" s="32">
+        <v>6</v>
+      </c>
+      <c r="O85" s="5">
+        <v>12</v>
+      </c>
       <c r="P85" s="34"/>
       <c r="Q85" s="5"/>
       <c r="R85" s="33"/>
     </row>
-    <row r="86" spans="1:20" ht="168" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:20" ht="140" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B86" s="6">
         <v>43477</v>
@@ -9639,13 +9700,13 @@
         <v>237</v>
       </c>
       <c r="D86" s="33" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E86" s="33" t="s">
         <v>29</v>
       </c>
       <c r="F86" s="33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G86" s="15" t="s">
         <v>42</v>
@@ -9653,9 +9714,7 @@
       <c r="H86" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="I86" s="33" t="s">
-        <v>271</v>
-      </c>
+      <c r="I86" s="33"/>
       <c r="J86" s="33">
         <v>1</v>
       </c>
@@ -9668,15 +9727,21 @@
       <c r="M86" s="22">
         <v>43477</v>
       </c>
-      <c r="N86" s="32"/>
-      <c r="O86" s="5"/>
+      <c r="N86" s="32">
+        <v>0</v>
+      </c>
+      <c r="O86" s="5">
+        <v>0</v>
+      </c>
       <c r="P86" s="34"/>
       <c r="Q86" s="5"/>
-      <c r="R86" s="33"/>
-    </row>
-    <row r="87" spans="1:20" ht="210" x14ac:dyDescent="0.35">
+      <c r="R86" s="33" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" ht="168" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B87" s="6">
         <v>43477</v>
@@ -9691,7 +9756,7 @@
         <v>29</v>
       </c>
       <c r="F87" s="33" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="G87" s="15" t="s">
         <v>42</v>
@@ -9700,7 +9765,7 @@
         <v>92</v>
       </c>
       <c r="I87" s="33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J87" s="33">
         <v>1</v>
@@ -9720,9 +9785,9 @@
       <c r="Q87" s="5"/>
       <c r="R87" s="33"/>
     </row>
-    <row r="88" spans="1:20" ht="98" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:20" ht="210" x14ac:dyDescent="0.35">
       <c r="A88" s="5">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B88" s="6">
         <v>43477</v>
@@ -9731,13 +9796,13 @@
         <v>237</v>
       </c>
       <c r="D88" s="33" t="s">
-        <v>239</v>
+        <v>36</v>
       </c>
       <c r="E88" s="33" t="s">
         <v>29</v>
       </c>
       <c r="F88" s="33" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G88" s="15" t="s">
         <v>42</v>
@@ -9746,7 +9811,7 @@
         <v>92</v>
       </c>
       <c r="I88" s="33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J88" s="33">
         <v>1</v>
@@ -9766,9 +9831,9 @@
       <c r="Q88" s="5"/>
       <c r="R88" s="33"/>
     </row>
-    <row r="89" spans="1:20" ht="70" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:20" ht="98" x14ac:dyDescent="0.35">
       <c r="A89" s="5">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B89" s="6">
         <v>43477</v>
@@ -9777,13 +9842,13 @@
         <v>237</v>
       </c>
       <c r="D89" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E89" s="33" t="s">
         <v>29</v>
       </c>
       <c r="F89" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G89" s="15" t="s">
         <v>42</v>
@@ -9791,7 +9856,9 @@
       <c r="H89" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="I89" s="33"/>
+      <c r="I89" s="33" t="s">
+        <v>273</v>
+      </c>
       <c r="J89" s="33">
         <v>1</v>
       </c>
@@ -9810,24 +9877,24 @@
       <c r="Q89" s="5"/>
       <c r="R89" s="33"/>
     </row>
-    <row r="90" spans="1:20" ht="238" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:20" ht="70" x14ac:dyDescent="0.35">
       <c r="A90" s="5">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B90" s="6">
-        <v>43486</v>
+        <v>43477</v>
       </c>
       <c r="C90" s="33" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="D90" s="33" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="E90" s="33" t="s">
         <v>29</v>
       </c>
       <c r="F90" s="33" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="G90" s="15" t="s">
         <v>42</v>
@@ -9843,10 +9910,10 @@
         <v>80</v>
       </c>
       <c r="L90" s="33" t="s">
-        <v>174</v>
+        <v>238</v>
       </c>
       <c r="M90" s="22">
-        <v>43486</v>
+        <v>43477</v>
       </c>
       <c r="N90" s="32"/>
       <c r="O90" s="5"/>
@@ -9854,15 +9921,16 @@
       <c r="Q90" s="5"/>
       <c r="R90" s="33"/>
     </row>
-    <row r="91" spans="1:20" ht="28" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:20" ht="238" x14ac:dyDescent="0.35">
       <c r="A91" s="5">
-        <f>1+A90</f>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B91" s="6">
-        <v>43489</v>
-      </c>
-      <c r="C91" s="32"/>
+        <v>43486</v>
+      </c>
+      <c r="C91" s="33" t="s">
+        <v>253</v>
+      </c>
       <c r="D91" s="33" t="s">
         <v>15</v>
       </c>
@@ -9870,29 +9938,42 @@
         <v>29</v>
       </c>
       <c r="F91" s="33" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="G91" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="H91" s="33"/>
+        <v>42</v>
+      </c>
+      <c r="H91" s="33" t="s">
+        <v>92</v>
+      </c>
       <c r="I91" s="33"/>
-      <c r="J91" s="33"/>
-      <c r="K91" s="33"/>
-      <c r="L91" s="33"/>
-      <c r="M91" s="33"/>
+      <c r="J91" s="33">
+        <v>1</v>
+      </c>
+      <c r="K91" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L91" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="M91" s="22">
+        <v>43486</v>
+      </c>
       <c r="N91" s="32">
-        <v>4</v>
-      </c>
-      <c r="O91" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="O91" s="5">
+        <v>60</v>
+      </c>
       <c r="P91" s="34"/>
       <c r="Q91" s="5"/>
-      <c r="R91" s="33"/>
-    </row>
-    <row r="92" spans="1:20" ht="70" x14ac:dyDescent="0.35">
+      <c r="R91" s="29" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" ht="28" x14ac:dyDescent="0.35">
       <c r="A92" s="5">
-        <f t="shared" ref="A92:A101" si="1">1+A91</f>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B92" s="6">
         <v>43489</v>
@@ -9905,7 +9986,7 @@
         <v>29</v>
       </c>
       <c r="F92" s="33" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G92" s="15" t="s">
         <v>275</v>
@@ -9917,19 +9998,18 @@
       <c r="L92" s="33"/>
       <c r="M92" s="33"/>
       <c r="N92" s="32">
-        <v>30</v>
-      </c>
-      <c r="O92" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="O92" s="5">
+        <v>8</v>
+      </c>
       <c r="P92" s="34"/>
       <c r="Q92" s="5"/>
-      <c r="R92" s="33" t="s">
-        <v>291</v>
-      </c>
+      <c r="R92" s="33"/>
     </row>
     <row r="93" spans="1:20" ht="70" x14ac:dyDescent="0.35">
       <c r="A93" s="5">
-        <f t="shared" si="1"/>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B93" s="6">
         <v>43489</v>
@@ -9954,19 +10034,20 @@
       <c r="L93" s="33"/>
       <c r="M93" s="33"/>
       <c r="N93" s="32">
-        <v>10</v>
-      </c>
-      <c r="O93" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="O93" s="5">
+        <v>50</v>
+      </c>
       <c r="P93" s="34"/>
       <c r="Q93" s="5"/>
       <c r="R93" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" ht="140" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" ht="70" x14ac:dyDescent="0.35">
       <c r="A94" s="5">
-        <f>1+A92</f>
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B94" s="6">
         <v>43489</v>
@@ -9979,7 +10060,7 @@
         <v>29</v>
       </c>
       <c r="F94" s="33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G94" s="15" t="s">
         <v>275</v>
@@ -9991,17 +10072,20 @@
       <c r="L94" s="33"/>
       <c r="M94" s="33"/>
       <c r="N94" s="32">
+        <v>6</v>
+      </c>
+      <c r="O94" s="5">
         <v>12</v>
       </c>
-      <c r="O94" s="5"/>
       <c r="P94" s="34"/>
       <c r="Q94" s="5"/>
-      <c r="R94" s="33"/>
-    </row>
-    <row r="95" spans="1:20" ht="182" x14ac:dyDescent="0.35">
+      <c r="R94" s="33" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" ht="70" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
-        <f t="shared" si="1"/>
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B95" s="6">
         <v>43489</v>
@@ -10014,7 +10098,7 @@
         <v>29</v>
       </c>
       <c r="F95" s="33" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G95" s="15" t="s">
         <v>275</v>
@@ -10028,15 +10112,18 @@
       <c r="N95" s="32">
         <v>10</v>
       </c>
-      <c r="O95" s="5"/>
+      <c r="O95" s="5">
+        <v>20</v>
+      </c>
       <c r="P95" s="34"/>
       <c r="Q95" s="5"/>
-      <c r="R95" s="33"/>
-    </row>
-    <row r="96" spans="1:20" ht="126" x14ac:dyDescent="0.35">
+      <c r="R95" s="33" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" ht="140" x14ac:dyDescent="0.35">
       <c r="A96" s="5">
-        <f t="shared" si="1"/>
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B96" s="6">
         <v>43489</v>
@@ -10049,7 +10136,7 @@
         <v>29</v>
       </c>
       <c r="F96" s="33" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G96" s="15" t="s">
         <v>275</v>
@@ -10061,19 +10148,18 @@
       <c r="L96" s="33"/>
       <c r="M96" s="33"/>
       <c r="N96" s="32">
-        <v>6</v>
-      </c>
-      <c r="O96" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="O96" s="5">
+        <v>24</v>
+      </c>
       <c r="P96" s="34"/>
       <c r="Q96" s="5"/>
-      <c r="R96" s="33" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" ht="406" x14ac:dyDescent="0.35">
+      <c r="R96" s="33"/>
+    </row>
+    <row r="97" spans="1:18" ht="182" x14ac:dyDescent="0.35">
       <c r="A97" s="5">
-        <f t="shared" si="1"/>
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B97" s="6">
         <v>43489</v>
@@ -10086,7 +10172,7 @@
         <v>29</v>
       </c>
       <c r="F97" s="33" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G97" s="15" t="s">
         <v>275</v>
@@ -10098,19 +10184,18 @@
       <c r="L97" s="33"/>
       <c r="M97" s="33"/>
       <c r="N97" s="32">
+        <v>10</v>
+      </c>
+      <c r="O97" s="5">
         <v>20</v>
       </c>
-      <c r="O97" s="5"/>
       <c r="P97" s="34"/>
       <c r="Q97" s="5"/>
-      <c r="R97" s="33" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" ht="406" x14ac:dyDescent="0.35">
+      <c r="R97" s="33"/>
+    </row>
+    <row r="98" spans="1:18" ht="126" x14ac:dyDescent="0.35">
       <c r="A98" s="5">
-        <f t="shared" si="1"/>
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B98" s="6">
         <v>43489</v>
@@ -10123,7 +10208,7 @@
         <v>29</v>
       </c>
       <c r="F98" s="33" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G98" s="15" t="s">
         <v>275</v>
@@ -10135,19 +10220,20 @@
       <c r="L98" s="33"/>
       <c r="M98" s="33"/>
       <c r="N98" s="32">
-        <v>8</v>
-      </c>
-      <c r="O98" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="O98" s="5">
+        <v>12</v>
+      </c>
       <c r="P98" s="34"/>
       <c r="Q98" s="5"/>
       <c r="R98" s="33" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" ht="56" x14ac:dyDescent="0.35">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" ht="406" x14ac:dyDescent="0.35">
       <c r="A99" s="5">
-        <f>1+A97</f>
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B99" s="6">
         <v>43489</v>
@@ -10160,7 +10246,7 @@
         <v>29</v>
       </c>
       <c r="F99" s="33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G99" s="15" t="s">
         <v>275</v>
@@ -10172,17 +10258,20 @@
       <c r="L99" s="33"/>
       <c r="M99" s="33"/>
       <c r="N99" s="32">
-        <v>6</v>
-      </c>
-      <c r="O99" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="O99" s="5">
+        <v>40</v>
+      </c>
       <c r="P99" s="34"/>
       <c r="Q99" s="5"/>
-      <c r="R99" s="33"/>
-    </row>
-    <row r="100" spans="1:18" ht="28" x14ac:dyDescent="0.35">
+      <c r="R99" s="33" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" ht="406" x14ac:dyDescent="0.35">
       <c r="A100" s="5">
-        <f t="shared" si="1"/>
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B100" s="6">
         <v>43489</v>
@@ -10195,7 +10284,7 @@
         <v>29</v>
       </c>
       <c r="F100" s="33" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G100" s="15" t="s">
         <v>275</v>
@@ -10207,19 +10296,20 @@
       <c r="L100" s="33"/>
       <c r="M100" s="33"/>
       <c r="N100" s="32">
-        <v>10</v>
-      </c>
-      <c r="O100" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="O100" s="5">
+        <v>16</v>
+      </c>
       <c r="P100" s="34"/>
       <c r="Q100" s="5"/>
       <c r="R100" s="33" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" ht="28" x14ac:dyDescent="0.35">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" ht="56" x14ac:dyDescent="0.35">
       <c r="A101" s="5">
-        <f t="shared" si="1"/>
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B101" s="6">
         <v>43489</v>
@@ -10232,7 +10322,7 @@
         <v>29</v>
       </c>
       <c r="F101" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G101" s="15" t="s">
         <v>275</v>
@@ -10244,61 +10334,131 @@
       <c r="L101" s="33"/>
       <c r="M101" s="33"/>
       <c r="N101" s="32">
-        <v>4</v>
-      </c>
-      <c r="O101" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="O101" s="5">
+        <v>12</v>
+      </c>
       <c r="P101" s="34"/>
       <c r="Q101" s="5"/>
-      <c r="R101" s="33" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" ht="126" x14ac:dyDescent="0.35">
+      <c r="R101" s="33"/>
+    </row>
+    <row r="102" spans="1:18" ht="28" x14ac:dyDescent="0.35">
       <c r="A102" s="5">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B102" s="6">
-        <v>43448</v>
-      </c>
-      <c r="C102" s="33" t="s">
-        <v>283</v>
-      </c>
+        <v>43489</v>
+      </c>
+      <c r="C102" s="32"/>
       <c r="D102" s="33" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E102" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="F102" s="78" t="s">
-        <v>284</v>
+      <c r="F102" s="33" t="s">
+        <v>282</v>
       </c>
       <c r="G102" s="15" t="s">
-        <v>39</v>
+        <v>275</v>
       </c>
       <c r="H102" s="33"/>
       <c r="I102" s="33"/>
       <c r="J102" s="33"/>
       <c r="K102" s="33"/>
-      <c r="L102" s="22"/>
-      <c r="M102" s="32">
+      <c r="L102" s="33"/>
+      <c r="M102" s="33"/>
+      <c r="N102" s="32">
+        <v>10</v>
+      </c>
+      <c r="O102" s="5">
         <v>20</v>
       </c>
-      <c r="N102" s="5">
+      <c r="P102" s="34"/>
+      <c r="Q102" s="5"/>
+      <c r="R102" s="33" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" ht="28" x14ac:dyDescent="0.35">
+      <c r="A103" s="5">
+        <v>101</v>
+      </c>
+      <c r="B103" s="6">
+        <v>43489</v>
+      </c>
+      <c r="C103" s="32"/>
+      <c r="D103" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E103" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F103" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="G103" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="H103" s="33"/>
+      <c r="I103" s="33"/>
+      <c r="J103" s="33"/>
+      <c r="K103" s="33"/>
+      <c r="L103" s="33"/>
+      <c r="M103" s="33"/>
+      <c r="N103" s="32">
+        <v>4</v>
+      </c>
+      <c r="O103" s="5">
+        <v>8</v>
+      </c>
+      <c r="P103" s="34"/>
+      <c r="Q103" s="5"/>
+      <c r="R103" s="33" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" ht="126" x14ac:dyDescent="0.35">
+      <c r="A104" s="5">
+        <v>102</v>
+      </c>
+      <c r="B104" s="6">
+        <v>43448</v>
+      </c>
+      <c r="C104" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="D104" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E104" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F104" s="77" t="s">
+        <v>284</v>
+      </c>
+      <c r="G104" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H104" s="33"/>
+      <c r="I104" s="33"/>
+      <c r="J104" s="33"/>
+      <c r="K104" s="33"/>
+      <c r="L104" s="22"/>
+      <c r="M104" s="32">
+        <v>20</v>
+      </c>
+      <c r="N104" s="5">
         <v>40</v>
       </c>
-      <c r="O102" s="34"/>
-      <c r="P102" s="5"/>
-      <c r="Q102" s="33"/>
-      <c r="R102" s="11"/>
+      <c r="O104" s="34"/>
+      <c r="P104" s="5"/>
+      <c r="Q104" s="33"/>
+      <c r="R104" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:R102">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="New"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:R104"/>
   <mergeCells count="1">
     <mergeCell ref="A1:R1"/>
   </mergeCells>
@@ -10497,34 +10657,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="67" t="s">
         <v>234</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="68" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="70"/>
-      <c r="C2" s="71" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="70" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="72"/>
-      <c r="C3" s="71" t="s">
+      <c r="B3" s="71"/>
+      <c r="C3" s="70" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="73"/>
-      <c r="C4" s="71" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="70" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="74"/>
-      <c r="C5" s="75" t="s">
+      <c r="B5" s="73"/>
+      <c r="C5" s="74" t="s">
         <v>233</v>
       </c>
     </row>

--- a/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
+++ b/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="315">
   <si>
     <t>S.No.</t>
   </si>
@@ -3329,6 +3329,12 @@
   </si>
   <si>
     <t>This functionality has been removed. Need confirmation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;22Jan19&gt;
+Prioritize GoM req with stubbed config/modularity in v1. Config perspective, the parameter will not be marked and only GoM required modes of login should be the primary focus. If the config is marked, then MOSIP should respond with "Feature not available".
+Scope the other peices (Other modes) in v1+.
+</t>
   </si>
 </sst>
 </file>
@@ -5433,7 +5439,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P4" sqref="P4"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.26953125" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -5615,7 +5621,7 @@
         <v>19</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>257</v>
+        <v>314</v>
       </c>
       <c r="J4" s="33">
         <v>1</v>

--- a/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
+++ b/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="5" r:id="rId5"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="316">
   <si>
     <t>S.No.</t>
   </si>
@@ -3334,6 +3334,10 @@
     <t xml:space="preserve">&lt;22Jan19&gt;
 Prioritize GoM req with stubbed config/modularity in v1. Config perspective, the parameter will not be marked and only GoM required modes of login should be the primary focus. If the config is marked, then MOSIP should respond with "Feature not available".
 Scope the other peices (Other modes) in v1+.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Build as per Backlog, Morocco will remove what it does not want, as part of its configuration. 
 </t>
   </si>
 </sst>
@@ -5086,7 +5090,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField dataField="1" showAll="0"/>
@@ -5439,7 +5443,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.26953125" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -5618,7 +5622,7 @@
         <v>18</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>19</v>
+        <v>315</v>
       </c>
       <c r="I4" s="33" t="s">
         <v>314</v>
@@ -10701,15 +10705,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -10730,6 +10725,15 @@
     </RatedBy>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10905,14 +10909,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -10924,6 +10920,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
+++ b/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1047454\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIPRequirementsGithub\docs\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E00C5490-B487-40B5-A383-BD97CA3FF874}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MOSIP_Feature_Roadmap" sheetId="5" r:id="rId1"/>
@@ -20,9 +21,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MOSIP_Feature_Roadmap!$A$2:$R$104</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId5"/>
+    <pivotCache cacheId="3" r:id="rId5"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="317">
   <si>
     <t>S.No.</t>
   </si>
@@ -3340,11 +3341,14 @@
     <t xml:space="preserve">Build as per Backlog, Morocco will remove what it does not want, as part of its configuration. 
 </t>
   </si>
+  <si>
+    <t>Design Changes based on technical Review</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
@@ -3912,7 +3916,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -3929,7 +3933,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="MINDTREE" refreshedDate="43448.660082060182" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="64">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="MINDTREE" refreshedDate="43448.660082060182" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="64" xr:uid="{00000000-000A-0000-FFFF-FFFF05000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A2:R70" sheet="MOSIP_Feature_Roadmap"/>
   </cacheSource>
@@ -5090,7 +5094,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField dataField="1" showAll="0"/>
@@ -5438,38 +5442,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.26953125" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.08984375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.6328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="36.08984375" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.26953125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.36328125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.1796875" style="28" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="83.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="20.26953125" style="11"/>
+    <col min="1" max="1" width="8.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="83.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="20.28515625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="78" t="s">
         <v>236</v>
       </c>
@@ -5491,7 +5495,7 @@
       <c r="Q1" s="79"/>
       <c r="R1" s="82"/>
     </row>
-    <row r="2" spans="1:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -5547,7 +5551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="4" customFormat="1" ht="182" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" s="4" customFormat="1" ht="228" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -5599,7 +5603,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="4" customFormat="1" ht="182" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" s="4" customFormat="1" ht="228" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -5651,7 +5655,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="4" customFormat="1" ht="70" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" s="4" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -5703,7 +5707,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="4" customFormat="1" ht="70" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" s="4" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -5755,7 +5759,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" s="4" customFormat="1" ht="114" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -5807,7 +5811,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" s="4" customFormat="1" ht="114" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -5859,7 +5863,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="4" customFormat="1" ht="98" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" s="4" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -5909,7 +5913,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="4" customFormat="1" ht="98" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" s="4" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -5959,7 +5963,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -6007,7 +6011,7 @@
       <c r="Q11" s="31"/>
       <c r="R11" s="22"/>
     </row>
-    <row r="12" spans="1:18" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" s="1" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -6057,7 +6061,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="1" customFormat="1" ht="350" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" s="1" customFormat="1" ht="384.75" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -6104,7 +6108,7 @@
       <c r="Q13" s="31"/>
       <c r="R13" s="22"/>
     </row>
-    <row r="14" spans="1:18" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -6154,7 +6158,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -6204,7 +6208,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" s="1" customFormat="1" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -6258,7 +6262,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="1" customFormat="1" ht="210" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" s="1" customFormat="1" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -6312,7 +6316,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="4" customFormat="1" ht="238" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" s="4" customFormat="1" ht="270.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -6366,7 +6370,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="1" customFormat="1" ht="182" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" s="1" customFormat="1" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -6420,7 +6424,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="4" customFormat="1" ht="154" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" s="4" customFormat="1" ht="171" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -6474,7 +6478,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -6516,7 +6520,7 @@
       <c r="Q21" s="31"/>
       <c r="R21" s="22"/>
     </row>
-    <row r="22" spans="1:18" s="4" customFormat="1" ht="56" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -6558,7 +6562,7 @@
       <c r="Q22" s="31"/>
       <c r="R22" s="22"/>
     </row>
-    <row r="23" spans="1:18" ht="70" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -6608,7 +6612,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="70" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -6658,7 +6662,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="112" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>23</v>
       </c>
@@ -6712,7 +6716,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="56" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -6756,7 +6760,7 @@
       <c r="Q26" s="31"/>
       <c r="R26" s="22"/>
     </row>
-    <row r="27" spans="1:18" ht="70" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>25</v>
       </c>
@@ -6800,7 +6804,7 @@
       <c r="Q27" s="31"/>
       <c r="R27" s="22"/>
     </row>
-    <row r="28" spans="1:18" ht="70" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -6850,7 +6854,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="56" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>27</v>
       </c>
@@ -6900,7 +6904,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="56" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -6944,7 +6948,7 @@
       <c r="Q30" s="31"/>
       <c r="R30" s="22"/>
     </row>
-    <row r="31" spans="1:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>29</v>
       </c>
@@ -6994,7 +6998,7 @@
       <c r="Q31" s="31"/>
       <c r="R31" s="15"/>
     </row>
-    <row r="32" spans="1:18" ht="126" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -7048,7 +7052,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="70" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>31</v>
       </c>
@@ -7098,7 +7102,7 @@
       <c r="Q33" s="31"/>
       <c r="R33" s="33"/>
     </row>
-    <row r="34" spans="1:18" s="8" customFormat="1" ht="126" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" s="8" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>32</v>
       </c>
@@ -7148,7 +7152,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:18" s="8" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" s="8" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>33</v>
       </c>
@@ -7198,7 +7202,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="70" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>34</v>
       </c>
@@ -7246,7 +7250,7 @@
       <c r="Q36" s="31"/>
       <c r="R36" s="15"/>
     </row>
-    <row r="37" spans="1:18" ht="182" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" ht="199.5" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>35</v>
       </c>
@@ -7298,7 +7302,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="126" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>36</v>
       </c>
@@ -7350,7 +7354,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="224" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" ht="242.25" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>37</v>
       </c>
@@ -7402,7 +7406,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="126" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>38</v>
       </c>
@@ -7454,7 +7458,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>39</v>
       </c>
@@ -7500,7 +7504,7 @@
       <c r="Q41" s="31"/>
       <c r="R41" s="33"/>
     </row>
-    <row r="42" spans="1:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" ht="57" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>40</v>
       </c>
@@ -7547,7 +7551,7 @@
       <c r="Q42" s="31"/>
       <c r="R42" s="33"/>
     </row>
-    <row r="43" spans="1:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>41</v>
       </c>
@@ -7596,7 +7600,7 @@
       <c r="Q43" s="31"/>
       <c r="R43" s="33"/>
     </row>
-    <row r="44" spans="1:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>42</v>
       </c>
@@ -7643,7 +7647,7 @@
       <c r="Q44" s="31"/>
       <c r="R44" s="33"/>
     </row>
-    <row r="45" spans="1:18" ht="322" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" ht="327.75" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>43</v>
       </c>
@@ -7695,7 +7699,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="140" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>44</v>
       </c>
@@ -7743,7 +7747,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="28" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>45</v>
       </c>
@@ -7797,7 +7801,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="70" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>46</v>
       </c>
@@ -7851,7 +7855,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>47</v>
       </c>
@@ -7895,7 +7899,7 @@
       <c r="Q49" s="31"/>
       <c r="R49" s="33"/>
     </row>
-    <row r="50" spans="1:18" ht="56" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" ht="57" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>48</v>
       </c>
@@ -7949,7 +7953,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="56" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" ht="57" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>49</v>
       </c>
@@ -8001,7 +8005,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="70" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>50</v>
       </c>
@@ -8048,7 +8052,7 @@
       <c r="Q52" s="31"/>
       <c r="R52" s="33"/>
     </row>
-    <row r="53" spans="1:18" ht="224" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" ht="256.5" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>51</v>
       </c>
@@ -8092,7 +8096,7 @@
       <c r="Q53" s="31"/>
       <c r="R53" s="33"/>
     </row>
-    <row r="54" spans="1:18" ht="70" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>52</v>
       </c>
@@ -8142,7 +8146,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="56" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" ht="57" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>53</v>
       </c>
@@ -8186,7 +8190,7 @@
       <c r="Q55" s="31"/>
       <c r="R55" s="33"/>
     </row>
-    <row r="56" spans="1:18" ht="56" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" ht="57" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>54</v>
       </c>
@@ -8233,7 +8237,7 @@
       <c r="Q56" s="31"/>
       <c r="R56" s="33"/>
     </row>
-    <row r="57" spans="1:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>55</v>
       </c>
@@ -8283,7 +8287,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" ht="57" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>56</v>
       </c>
@@ -8333,7 +8337,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="70" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>57</v>
       </c>
@@ -8380,7 +8384,7 @@
       <c r="Q59" s="31"/>
       <c r="R59" s="33"/>
     </row>
-    <row r="60" spans="1:18" ht="98" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>58</v>
       </c>
@@ -8427,7 +8431,7 @@
       <c r="Q60" s="31"/>
       <c r="R60" s="33"/>
     </row>
-    <row r="61" spans="1:18" ht="140" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>59</v>
       </c>
@@ -8477,7 +8481,7 @@
       <c r="Q61" s="31"/>
       <c r="R61" s="33"/>
     </row>
-    <row r="62" spans="1:18" ht="56" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" ht="57" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>60</v>
       </c>
@@ -8529,7 +8533,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="56" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" ht="57" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>61</v>
       </c>
@@ -8583,7 +8587,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="98" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" ht="114" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>62</v>
       </c>
@@ -8629,7 +8633,7 @@
       <c r="Q64" s="34"/>
       <c r="R64" s="33"/>
     </row>
-    <row r="65" spans="1:20" ht="56" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:20" ht="57" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>63</v>
       </c>
@@ -8675,7 +8679,7 @@
       <c r="Q65" s="34"/>
       <c r="R65" s="33"/>
     </row>
-    <row r="66" spans="1:20" ht="280" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:20" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>64</v>
       </c>
@@ -8727,7 +8731,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="154" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:20" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>65</v>
       </c>
@@ -8777,7 +8781,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="154" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:20" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>66</v>
       </c>
@@ -8829,7 +8833,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="350" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:20" ht="370.5" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>67</v>
       </c>
@@ -8879,7 +8883,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="42" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:20" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>68</v>
       </c>
@@ -8927,7 +8931,7 @@
       <c r="Q70" s="5"/>
       <c r="R70" s="33"/>
     </row>
-    <row r="71" spans="1:20" ht="154" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:20" ht="171" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>69</v>
       </c>
@@ -8977,7 +8981,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="182" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:20" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>70</v>
       </c>
@@ -9031,7 +9035,7 @@
       <c r="S72" s="5"/>
       <c r="T72" s="33"/>
     </row>
-    <row r="73" spans="1:20" ht="196" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:20" ht="199.5" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>71</v>
       </c>
@@ -9081,7 +9085,7 @@
       <c r="S73" s="40"/>
       <c r="T73" s="29"/>
     </row>
-    <row r="74" spans="1:20" ht="126" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:20" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>72</v>
       </c>
@@ -9131,7 +9135,7 @@
       <c r="S74" s="5"/>
       <c r="T74" s="33"/>
     </row>
-    <row r="75" spans="1:20" ht="56" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:20" ht="57" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>73</v>
       </c>
@@ -9185,7 +9189,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="182" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:20" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>74</v>
       </c>
@@ -9239,7 +9243,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="196" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:20" ht="213.75" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>75</v>
       </c>
@@ -9291,7 +9295,7 @@
       <c r="S77" s="5"/>
       <c r="T77" s="33"/>
     </row>
-    <row r="78" spans="1:20" ht="154" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:20" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>76</v>
       </c>
@@ -9341,7 +9345,7 @@
       <c r="S78" s="5"/>
       <c r="T78" s="33"/>
     </row>
-    <row r="79" spans="1:20" ht="70" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:20" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>77</v>
       </c>
@@ -9393,7 +9397,7 @@
       <c r="S79" s="5"/>
       <c r="T79" s="33"/>
     </row>
-    <row r="80" spans="1:20" ht="84" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:20" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>78</v>
       </c>
@@ -9443,7 +9447,7 @@
       <c r="S80" s="75"/>
       <c r="T80" s="33"/>
     </row>
-    <row r="81" spans="1:20" ht="224" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:20" ht="228" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>79</v>
       </c>
@@ -9495,7 +9499,7 @@
       <c r="S81" s="75"/>
       <c r="T81" s="33"/>
     </row>
-    <row r="82" spans="1:20" ht="140" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:20" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>80</v>
       </c>
@@ -9549,7 +9553,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="224" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:20" ht="228" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>81</v>
       </c>
@@ -9601,7 +9605,7 @@
       <c r="S83" s="75"/>
       <c r="T83" s="33"/>
     </row>
-    <row r="84" spans="1:20" ht="70" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:20" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>82</v>
       </c>
@@ -9651,7 +9655,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="84" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:20" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>83</v>
       </c>
@@ -9699,7 +9703,7 @@
       <c r="Q85" s="5"/>
       <c r="R85" s="33"/>
     </row>
-    <row r="86" spans="1:20" ht="140" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:20" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>84</v>
       </c>
@@ -9749,7 +9753,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="168" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:20" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>85</v>
       </c>
@@ -9795,7 +9799,7 @@
       <c r="Q87" s="5"/>
       <c r="R87" s="33"/>
     </row>
-    <row r="88" spans="1:20" ht="210" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:20" ht="228" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>86</v>
       </c>
@@ -9841,7 +9845,7 @@
       <c r="Q88" s="5"/>
       <c r="R88" s="33"/>
     </row>
-    <row r="89" spans="1:20" ht="98" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:20" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>87</v>
       </c>
@@ -9887,7 +9891,7 @@
       <c r="Q89" s="5"/>
       <c r="R89" s="33"/>
     </row>
-    <row r="90" spans="1:20" ht="70" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:20" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>88</v>
       </c>
@@ -9931,7 +9935,7 @@
       <c r="Q90" s="5"/>
       <c r="R90" s="33"/>
     </row>
-    <row r="91" spans="1:20" ht="238" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:20" ht="256.5" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>89</v>
       </c>
@@ -9981,7 +9985,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="28" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:20" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>90</v>
       </c>
@@ -10017,7 +10021,7 @@
       <c r="Q92" s="5"/>
       <c r="R92" s="33"/>
     </row>
-    <row r="93" spans="1:20" ht="70" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:20" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>91</v>
       </c>
@@ -10055,7 +10059,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="70" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:20" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>92</v>
       </c>
@@ -10093,7 +10097,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="70" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:20" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>93</v>
       </c>
@@ -10131,7 +10135,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="140" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:20" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>94</v>
       </c>
@@ -10167,7 +10171,7 @@
       <c r="Q96" s="5"/>
       <c r="R96" s="33"/>
     </row>
-    <row r="97" spans="1:18" ht="182" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:18" ht="213.75" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>95</v>
       </c>
@@ -10203,7 +10207,7 @@
       <c r="Q97" s="5"/>
       <c r="R97" s="33"/>
     </row>
-    <row r="98" spans="1:18" ht="126" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:18" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>96</v>
       </c>
@@ -10241,7 +10245,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="406" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>97</v>
       </c>
@@ -10279,7 +10283,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="100" spans="1:18" ht="406" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>98</v>
       </c>
@@ -10317,7 +10321,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="101" spans="1:18" ht="56" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:18" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>99</v>
       </c>
@@ -10353,7 +10357,7 @@
       <c r="Q101" s="5"/>
       <c r="R101" s="33"/>
     </row>
-    <row r="102" spans="1:18" ht="28" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>100</v>
       </c>
@@ -10391,7 +10395,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="103" spans="1:18" ht="28" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>101</v>
       </c>
@@ -10429,7 +10433,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="104" spans="1:18" ht="126" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:18" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>102</v>
       </c>
@@ -10467,8 +10471,42 @@
       <c r="Q104" s="33"/>
       <c r="R104" s="11"/>
     </row>
+    <row r="105" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A105" s="5">
+        <v>103</v>
+      </c>
+      <c r="B105" s="6">
+        <v>43447</v>
+      </c>
+      <c r="C105" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="D105" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E105" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F105" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="G105" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H105" s="33"/>
+      <c r="I105" s="33"/>
+      <c r="J105" s="33"/>
+      <c r="K105" s="33"/>
+      <c r="L105" s="22"/>
+      <c r="M105" s="32"/>
+      <c r="N105" s="5"/>
+      <c r="O105" s="34"/>
+      <c r="P105" s="5"/>
+      <c r="Q105" s="33"/>
+      <c r="R105" s="11"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:R104"/>
+  <autoFilter ref="A2:R104" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:R1"/>
   </mergeCells>
@@ -10478,57 +10516,57 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="10"/>
     </row>
   </sheetData>
@@ -10538,19 +10576,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>163</v>
       </c>
@@ -10561,7 +10599,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
         <v>78</v>
       </c>
@@ -10572,7 +10610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>36</v>
       </c>
@@ -10583,7 +10621,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
         <v>136</v>
       </c>
@@ -10594,7 +10632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>86</v>
       </c>
@@ -10605,7 +10643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
         <v>15</v>
       </c>
@@ -10616,7 +10654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>43</v>
       </c>
@@ -10627,7 +10665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
         <v>56</v>
       </c>
@@ -10638,7 +10676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
         <v>164</v>
       </c>
@@ -10656,17 +10694,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="52.1796875" customWidth="1"/>
+    <col min="3" max="3" width="52.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="67" t="s">
         <v>234</v>
       </c>
@@ -10674,25 +10712,25 @@
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="69"/>
       <c r="C2" s="70" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="71"/>
       <c r="C3" s="70" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="72"/>
       <c r="C4" s="70" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="73"/>
       <c r="C5" s="74" t="s">
         <v>233</v>
@@ -10705,6 +10743,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -10725,15 +10772,6 @@
     </RatedBy>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10909,6 +10947,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -10920,14 +10966,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
+++ b/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIPRequirementsGithub\docs\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\git-repo\mosip\docs\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E00C5490-B487-40B5-A383-BD97CA3FF874}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{56F2E489-27C1-490B-A070-22D155AF6197}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,11 +19,11 @@
     <sheet name="Status Legends" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MOSIP_Feature_Roadmap!$A$2:$R$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MOSIP_Feature_Roadmap!$A$2:$S$105</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="320">
   <si>
     <t>S.No.</t>
   </si>
@@ -3343,6 +3343,15 @@
   </si>
   <si>
     <t>Design Changes based on technical Review</t>
+  </si>
+  <si>
+    <t>Estimated</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>90</t>
   </si>
 </sst>
 </file>
@@ -3650,7 +3659,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3671,9 +3680,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3886,6 +3892,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3935,7 +3947,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="MINDTREE" refreshedDate="43448.660082060182" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="64" xr:uid="{00000000-000A-0000-FFFF-FFFF05000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A2:R70" sheet="MOSIP_Feature_Roadmap"/>
+    <worksheetSource ref="A2:S70" sheet="MOSIP_Feature_Roadmap"/>
   </cacheSource>
   <cacheFields count="15">
     <cacheField name="S.No." numFmtId="0">
@@ -5094,7 +5106,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField dataField="1" showAll="0"/>
@@ -5443,3684 +5455,3896 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T105"/>
+  <dimension ref="A1:U105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="52.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="38.42578125" style="3" customWidth="1"/>
     <col min="10" max="10" width="11.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="83.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="20.28515625" style="11"/>
+    <col min="16" max="16" width="17.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="22.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="83.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="20.28515625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="77" t="s">
         <v>236</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="82"/>
-    </row>
-    <row r="2" spans="1:18" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="81"/>
+    </row>
+    <row r="2" spans="1:19" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="O2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="59" t="s">
+      <c r="P2" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q2" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="R2" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="R2" s="21" t="s">
+      <c r="S2" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="4" customFormat="1" ht="228" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="4" customFormat="1" ht="228" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="6">
         <v>43362</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="32">
         <v>1</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="33" t="s">
+      <c r="L3" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="22">
+      <c r="M3" s="21">
         <v>43419</v>
       </c>
-      <c r="N3" s="26">
+      <c r="N3" s="25">
         <v>36</v>
       </c>
-      <c r="O3" s="31" t="s">
+      <c r="O3" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="22" t="s">
+      <c r="P3" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="21" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="4" customFormat="1" ht="228" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="4" customFormat="1" ht="228" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="6">
         <v>43362</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="32" t="s">
         <v>315</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="32" t="s">
         <v>314</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="32">
         <v>1</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="33" t="s">
+      <c r="L4" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="22">
+      <c r="M4" s="21">
         <v>43419</v>
       </c>
-      <c r="N4" s="26" t="s">
+      <c r="N4" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="O4" s="31" t="s">
+      <c r="O4" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="22" t="s">
+      <c r="P4" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="21" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="4" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" s="4" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" s="6">
         <v>43362</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="32" t="s">
         <v>258</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="32">
         <v>1</v>
       </c>
-      <c r="K5" s="33" t="s">
+      <c r="K5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="L5" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="22">
+      <c r="M5" s="21">
         <v>43419</v>
       </c>
-      <c r="N5" s="32">
+      <c r="N5" s="31">
         <v>12</v>
       </c>
-      <c r="O5" s="31" t="s">
+      <c r="O5" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="22" t="s">
+      <c r="P5" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="21" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="4" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" s="4" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" s="6">
         <v>43362</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="32" t="s">
         <v>258</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="32">
         <v>1</v>
       </c>
-      <c r="K6" s="33" t="s">
+      <c r="K6" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="33" t="s">
+      <c r="L6" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="22">
+      <c r="M6" s="21">
         <v>43419</v>
       </c>
-      <c r="N6" s="32">
+      <c r="N6" s="31">
         <v>10</v>
       </c>
-      <c r="O6" s="31" t="s">
+      <c r="O6" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="22" t="s">
+      <c r="P6" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="21" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="4" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" s="4" customFormat="1" ht="114" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>5</v>
       </c>
       <c r="B7" s="6">
         <v>43362</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="32">
         <v>1</v>
       </c>
-      <c r="K7" s="33" t="s">
+      <c r="K7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="33" t="s">
+      <c r="L7" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="22">
+      <c r="M7" s="21">
         <v>43419</v>
       </c>
-      <c r="N7" s="32">
+      <c r="N7" s="31">
         <v>35</v>
       </c>
-      <c r="O7" s="31" t="s">
+      <c r="O7" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="22" t="s">
+      <c r="P7" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="4" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="4" customFormat="1" ht="114" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
       <c r="B8" s="6">
         <v>43362</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="J8" s="33">
+      <c r="J8" s="32">
         <v>1</v>
       </c>
-      <c r="K8" s="33" t="s">
+      <c r="K8" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="33" t="s">
+      <c r="L8" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="22">
+      <c r="M8" s="21">
         <v>43419</v>
       </c>
-      <c r="N8" s="32">
+      <c r="N8" s="31">
         <v>2</v>
       </c>
-      <c r="O8" s="31" t="s">
+      <c r="O8" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="22" t="s">
+      <c r="P8" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="21" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="4" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" s="4" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9" s="6">
         <v>43362</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20">
+      <c r="I9" s="19"/>
+      <c r="J9" s="19">
         <v>1</v>
       </c>
-      <c r="K9" s="33" t="s">
+      <c r="K9" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="33" t="s">
+      <c r="L9" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="22">
+      <c r="M9" s="21">
         <v>43419</v>
       </c>
-      <c r="N9" s="27">
+      <c r="N9" s="26">
         <v>30</v>
       </c>
-      <c r="O9" s="31" t="s">
+      <c r="O9" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="23" t="s">
+      <c r="P9" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="4" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" s="4" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
       <c r="B10" s="6">
         <v>43362</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20">
+      <c r="I10" s="19"/>
+      <c r="J10" s="19">
         <v>1</v>
       </c>
-      <c r="K10" s="33" t="s">
+      <c r="K10" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="33" t="s">
+      <c r="L10" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="22">
+      <c r="M10" s="21">
         <v>43419</v>
       </c>
-      <c r="N10" s="27">
+      <c r="N10" s="26">
         <v>1</v>
       </c>
-      <c r="O10" s="31" t="s">
+      <c r="O10" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="23" t="s">
+      <c r="P10" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="22" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
       <c r="B11" s="6">
         <v>43362</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20">
+      <c r="I11" s="19"/>
+      <c r="J11" s="19">
         <v>1</v>
       </c>
-      <c r="K11" s="33" t="s">
+      <c r="K11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="33" t="s">
+      <c r="L11" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="22">
+      <c r="M11" s="21">
         <v>43419</v>
       </c>
-      <c r="N11" s="27">
+      <c r="N11" s="26">
         <v>0</v>
       </c>
-      <c r="O11" s="31" t="s">
+      <c r="O11" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="22"/>
-    </row>
-    <row r="12" spans="1:18" s="1" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="P11" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="21"/>
+    </row>
+    <row r="12" spans="1:19" s="1" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>10</v>
       </c>
       <c r="B12" s="6">
         <v>43362</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="F12" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="33" t="s">
+      <c r="H12" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33">
+      <c r="I12" s="32"/>
+      <c r="J12" s="32">
         <v>1</v>
       </c>
-      <c r="K12" s="33" t="s">
+      <c r="K12" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="33" t="s">
+      <c r="L12" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="22">
+      <c r="M12" s="21">
         <v>43419</v>
       </c>
-      <c r="N12" s="27">
+      <c r="N12" s="26">
         <v>36</v>
       </c>
-      <c r="O12" s="31" t="s">
+      <c r="O12" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="22" t="s">
+      <c r="P12" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="21" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="1" customFormat="1" ht="384.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" s="1" customFormat="1" ht="384.75" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>11</v>
       </c>
       <c r="B13" s="6">
         <v>43395</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33">
+      <c r="I13" s="32"/>
+      <c r="J13" s="32">
         <v>2</v>
       </c>
-      <c r="K13" s="33" t="s">
+      <c r="K13" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="33" t="s">
+      <c r="L13" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M13" s="22">
+      <c r="M13" s="21">
         <v>43419</v>
       </c>
-      <c r="N13" s="9"/>
-      <c r="O13" s="31">
-        <f t="shared" ref="O13:O60" si="0">N13*1.5</f>
+      <c r="N13" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="O13" s="30">
+        <f t="shared" ref="N13:O60" si="0">N13*1.5</f>
         <v>0</v>
       </c>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="22"/>
-    </row>
-    <row r="14" spans="1:18" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="P13" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="21"/>
+    </row>
+    <row r="14" spans="1:19" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>12</v>
       </c>
       <c r="B14" s="6">
         <v>43397</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="45" t="s">
+      <c r="F14" s="44" t="s">
         <v>260</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="33">
+      <c r="I14" s="19"/>
+      <c r="J14" s="32">
         <v>1</v>
       </c>
-      <c r="K14" s="33" t="s">
+      <c r="K14" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="33" t="s">
+      <c r="L14" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M14" s="22">
+      <c r="M14" s="21">
         <v>43419</v>
       </c>
-      <c r="N14" s="27">
+      <c r="N14" s="26">
         <v>20</v>
       </c>
-      <c r="O14" s="31" t="s">
+      <c r="O14" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="22" t="s">
+      <c r="P14" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="21" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>13</v>
       </c>
       <c r="B15" s="6">
         <v>43397</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="44" t="s">
         <v>260</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="33">
+      <c r="I15" s="19"/>
+      <c r="J15" s="32">
         <v>1</v>
       </c>
-      <c r="K15" s="33" t="s">
+      <c r="K15" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="33" t="s">
+      <c r="L15" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M15" s="22">
+      <c r="M15" s="21">
         <v>43419</v>
       </c>
-      <c r="N15" s="27">
+      <c r="N15" s="26">
         <v>6</v>
       </c>
-      <c r="O15" s="31" t="s">
+      <c r="O15" s="30" t="s">
         <v>303</v>
       </c>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="22" t="s">
+      <c r="P15" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="21" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="1" customFormat="1" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" s="1" customFormat="1" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>14</v>
       </c>
       <c r="B16" s="6">
         <v>43397</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="52" t="s">
+      <c r="F16" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="33" t="s">
+      <c r="H16" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33">
+      <c r="I16" s="32"/>
+      <c r="J16" s="32">
         <v>1</v>
       </c>
-      <c r="K16" s="33" t="s">
+      <c r="K16" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="33" t="s">
+      <c r="L16" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M16" s="22">
+      <c r="M16" s="21">
         <v>43419</v>
       </c>
-      <c r="N16" s="51" t="s">
+      <c r="N16" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="O16" s="42">
+      <c r="O16" s="41">
         <v>36</v>
       </c>
-      <c r="P16" s="61" t="s">
+      <c r="P16" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q16" s="60" t="s">
         <v>193</v>
       </c>
-      <c r="Q16" s="31" t="s">
+      <c r="R16" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="R16" s="22" t="s">
+      <c r="S16" s="21" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="1" customFormat="1" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" s="1" customFormat="1" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>15</v>
       </c>
       <c r="B17" s="6">
         <v>43397</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="52" t="s">
+      <c r="F17" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="33" t="s">
+      <c r="H17" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33">
+      <c r="I17" s="32"/>
+      <c r="J17" s="32">
         <v>1</v>
       </c>
-      <c r="K17" s="33" t="s">
+      <c r="K17" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="33" t="s">
+      <c r="L17" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M17" s="22">
+      <c r="M17" s="21">
         <v>43419</v>
       </c>
-      <c r="N17" s="53">
+      <c r="N17" s="52">
         <v>36</v>
       </c>
-      <c r="O17" s="42">
+      <c r="O17" s="41">
         <v>54</v>
       </c>
-      <c r="P17" s="61" t="s">
+      <c r="P17" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q17" s="60" t="s">
         <v>193</v>
       </c>
-      <c r="Q17" s="31" t="s">
+      <c r="R17" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="R17" s="22" t="s">
+      <c r="S17" s="21" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="4" customFormat="1" ht="270.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" s="4" customFormat="1" ht="270.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
       <c r="B18" s="6">
         <v>43397</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="H18" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20">
+      <c r="I18" s="19"/>
+      <c r="J18" s="19">
         <v>1</v>
       </c>
-      <c r="K18" s="33" t="s">
+      <c r="K18" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="33" t="s">
+      <c r="L18" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M18" s="22">
+      <c r="M18" s="21">
         <v>43419</v>
       </c>
-      <c r="N18" s="51" t="s">
+      <c r="N18" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="O18" s="42">
+      <c r="O18" s="41">
         <v>72</v>
       </c>
-      <c r="P18" s="61" t="s">
+      <c r="P18" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q18" s="60" t="s">
         <v>193</v>
       </c>
-      <c r="Q18" s="31" t="s">
+      <c r="R18" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="R18" s="22" t="s">
+      <c r="S18" s="21" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="1" customFormat="1" ht="199.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" s="1" customFormat="1" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>17</v>
       </c>
       <c r="B19" s="6">
         <v>43397</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="43" t="s">
+      <c r="F19" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="24" t="s">
+      <c r="H19" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24">
+      <c r="I19" s="23"/>
+      <c r="J19" s="23">
         <v>1</v>
       </c>
-      <c r="K19" s="33" t="s">
+      <c r="K19" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="33" t="s">
+      <c r="L19" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M19" s="22">
+      <c r="M19" s="21">
         <v>43419</v>
       </c>
-      <c r="N19" s="42">
+      <c r="N19" s="41">
         <v>0</v>
       </c>
-      <c r="O19" s="42">
+      <c r="O19" s="41">
         <v>0</v>
       </c>
-      <c r="P19" s="62" t="s">
+      <c r="P19" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q19" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="Q19" s="31" t="s">
+      <c r="R19" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="R19" s="22" t="s">
+      <c r="S19" s="21" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="4" customFormat="1" ht="171" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" s="4" customFormat="1" ht="171" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>18</v>
       </c>
       <c r="B20" s="6">
         <v>43397</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="33" t="s">
+      <c r="H20" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33">
+      <c r="I20" s="32"/>
+      <c r="J20" s="32">
         <v>1</v>
       </c>
-      <c r="K20" s="33" t="s">
+      <c r="K20" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="33" t="s">
+      <c r="L20" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M20" s="22">
+      <c r="M20" s="21">
         <v>43419</v>
       </c>
-      <c r="N20" s="54">
+      <c r="N20" s="53">
         <v>10</v>
       </c>
-      <c r="O20" s="55" t="s">
+      <c r="O20" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="P20" s="63" t="s">
+      <c r="P20" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q20" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="Q20" s="55" t="s">
+      <c r="R20" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="R20" s="56" t="s">
+      <c r="S20" s="55" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>19</v>
       </c>
       <c r="B21" s="6"/>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="33" t="s">
+      <c r="H21" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33">
+      <c r="I21" s="32"/>
+      <c r="J21" s="32">
         <v>1</v>
       </c>
-      <c r="K21" s="33" t="s">
+      <c r="K21" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="33" t="s">
+      <c r="L21" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M21" s="22">
+      <c r="M21" s="21">
         <v>43419</v>
       </c>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="22"/>
-    </row>
-    <row r="22" spans="1:18" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="21"/>
+    </row>
+    <row r="22" spans="1:19" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>20</v>
       </c>
       <c r="B22" s="6"/>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="43" t="s">
+      <c r="F22" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H22" s="33" t="s">
+      <c r="H22" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33">
+      <c r="I22" s="32"/>
+      <c r="J22" s="32">
         <v>1</v>
       </c>
-      <c r="K22" s="33" t="s">
+      <c r="K22" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="33" t="s">
+      <c r="L22" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M22" s="22">
+      <c r="M22" s="21">
         <v>43419</v>
       </c>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="22"/>
-    </row>
-    <row r="23" spans="1:18" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="21"/>
+    </row>
+    <row r="23" spans="1:19" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>21</v>
       </c>
       <c r="B23" s="6">
         <v>43402</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H23" s="33" t="s">
+      <c r="H23" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33">
+      <c r="I23" s="32"/>
+      <c r="J23" s="32">
         <v>1</v>
       </c>
-      <c r="K23" s="33" t="s">
+      <c r="K23" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="33" t="s">
+      <c r="L23" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M23" s="22">
+      <c r="M23" s="21">
         <v>43419</v>
       </c>
-      <c r="N23" s="27">
+      <c r="N23" s="26">
         <v>10</v>
       </c>
-      <c r="O23" s="31" t="s">
+      <c r="O23" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="22" t="s">
+      <c r="P23" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="21" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>22</v>
       </c>
       <c r="B24" s="6">
         <v>43402</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H24" s="33" t="s">
+      <c r="H24" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33">
+      <c r="I24" s="32"/>
+      <c r="J24" s="32">
         <v>1</v>
       </c>
-      <c r="K24" s="33" t="s">
+      <c r="K24" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="33" t="s">
+      <c r="L24" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M24" s="22">
+      <c r="M24" s="21">
         <v>43419</v>
       </c>
-      <c r="N24" s="26" t="s">
+      <c r="N24" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="O24" s="31" t="s">
+      <c r="O24" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="22" t="s">
+      <c r="P24" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="21" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>23</v>
       </c>
       <c r="B25" s="6">
         <v>43402</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="33" t="s">
+      <c r="E25" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H25" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15">
+      <c r="I25" s="14"/>
+      <c r="J25" s="14">
         <v>1</v>
       </c>
-      <c r="K25" s="33" t="s">
+      <c r="K25" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L25" s="33" t="s">
+      <c r="L25" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M25" s="22">
+      <c r="M25" s="21">
         <v>43419</v>
       </c>
-      <c r="N25" s="53">
+      <c r="N25" s="52">
         <v>20</v>
       </c>
-      <c r="O25" s="42">
+      <c r="O25" s="41">
         <v>30</v>
       </c>
-      <c r="P25" s="63" t="s">
+      <c r="P25" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q25" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="Q25" s="31" t="s">
+      <c r="R25" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="R25" s="22" t="s">
+      <c r="S25" s="21" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>24</v>
       </c>
       <c r="B26" s="6">
         <v>43402</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="47" t="s">
+      <c r="F26" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="33" t="s">
+      <c r="H26" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33">
+      <c r="I26" s="32"/>
+      <c r="J26" s="32">
         <v>1</v>
       </c>
-      <c r="K26" s="33" t="s">
+      <c r="K26" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="33" t="s">
+      <c r="L26" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M26" s="22">
+      <c r="M26" s="21">
         <v>43419</v>
       </c>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="22"/>
-    </row>
-    <row r="27" spans="1:18" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="21"/>
+    </row>
+    <row r="27" spans="1:19" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>25</v>
       </c>
       <c r="B27" s="6">
         <v>43402</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="33" t="s">
+      <c r="E27" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F27" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="24" t="s">
+      <c r="H27" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24">
+      <c r="I27" s="23"/>
+      <c r="J27" s="23">
         <v>1</v>
       </c>
-      <c r="K27" s="33" t="s">
+      <c r="K27" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L27" s="33" t="s">
+      <c r="L27" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M27" s="22">
+      <c r="M27" s="21">
         <v>43419</v>
       </c>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="22"/>
-    </row>
-    <row r="28" spans="1:18" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="21"/>
+    </row>
+    <row r="28" spans="1:19" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>26</v>
       </c>
       <c r="B28" s="6">
         <v>43402</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="33" t="s">
+      <c r="E28" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="47" t="s">
+      <c r="F28" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="33" t="s">
+      <c r="H28" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33">
+      <c r="I28" s="32"/>
+      <c r="J28" s="32">
         <v>1</v>
       </c>
-      <c r="K28" s="33" t="s">
+      <c r="K28" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="33" t="s">
+      <c r="L28" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M28" s="22">
+      <c r="M28" s="21">
         <v>43419</v>
       </c>
-      <c r="N28" s="30">
+      <c r="N28" s="29">
         <v>10</v>
       </c>
-      <c r="O28" s="31" t="s">
+      <c r="O28" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="22" t="s">
+      <c r="P28" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="21" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>27</v>
       </c>
       <c r="B29" s="6">
         <v>43418</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="47" t="s">
+      <c r="F29" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H29" s="33" t="s">
+      <c r="H29" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="I29" s="33"/>
-      <c r="J29" s="15">
+      <c r="I29" s="32"/>
+      <c r="J29" s="14">
         <v>1</v>
       </c>
-      <c r="K29" s="33" t="s">
+      <c r="K29" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="33" t="s">
+      <c r="L29" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M29" s="22">
+      <c r="M29" s="21">
         <v>43419</v>
       </c>
-      <c r="N29" s="27">
+      <c r="N29" s="26">
         <v>5</v>
       </c>
-      <c r="O29" s="31" t="s">
+      <c r="O29" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="22" t="s">
+      <c r="P29" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="21" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>28</v>
       </c>
       <c r="B30" s="6">
         <v>43418</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="D30" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="33" t="s">
+      <c r="E30" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="43" t="s">
+      <c r="F30" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="G30" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H30" s="33" t="s">
+      <c r="H30" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="I30" s="33"/>
-      <c r="J30" s="15">
+      <c r="I30" s="32"/>
+      <c r="J30" s="14">
         <v>1</v>
       </c>
-      <c r="K30" s="33" t="s">
+      <c r="K30" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="33" t="s">
+      <c r="L30" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M30" s="22">
+      <c r="M30" s="21">
         <v>43419</v>
       </c>
-      <c r="N30" s="27"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="22"/>
-    </row>
-    <row r="31" spans="1:18" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="N30" s="26"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="21"/>
+    </row>
+    <row r="31" spans="1:19" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>29</v>
       </c>
       <c r="B31" s="6">
         <v>43418</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="33" t="s">
+      <c r="E31" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="48" t="s">
+      <c r="F31" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="G31" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H31" s="33" t="s">
+      <c r="H31" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="I31" s="33" t="s">
+      <c r="I31" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="J31" s="15">
+      <c r="J31" s="14">
         <v>1</v>
       </c>
-      <c r="K31" s="15" t="s">
+      <c r="K31" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="L31" s="15" t="s">
+      <c r="L31" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="M31" s="22">
+      <c r="M31" s="21">
         <v>43419</v>
       </c>
       <c r="N31" s="5">
         <v>30</v>
       </c>
-      <c r="O31" s="31" t="s">
+      <c r="O31" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="15"/>
-    </row>
-    <row r="32" spans="1:18" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="P31" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="14"/>
+    </row>
+    <row r="32" spans="1:19" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>30</v>
       </c>
       <c r="B32" s="6">
         <v>43418</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D32" s="33" t="s">
+      <c r="D32" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="33" t="s">
+      <c r="E32" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="47" t="s">
+      <c r="F32" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="G32" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="33" t="s">
+      <c r="H32" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="I32" s="33"/>
-      <c r="J32" s="15">
+      <c r="I32" s="32"/>
+      <c r="J32" s="14">
         <v>1</v>
       </c>
-      <c r="K32" s="15" t="s">
+      <c r="K32" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="L32" s="15" t="s">
+      <c r="L32" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="M32" s="22">
+      <c r="M32" s="21">
         <v>43419</v>
       </c>
-      <c r="N32" s="53">
+      <c r="N32" s="52">
         <v>20</v>
       </c>
-      <c r="O32" s="42">
+      <c r="O32" s="41">
         <v>30</v>
       </c>
-      <c r="P32" s="64" t="s">
+      <c r="P32" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q32" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="Q32" s="31" t="s">
+      <c r="R32" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="R32" s="15" t="s">
+      <c r="S32" s="14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>31</v>
       </c>
       <c r="B33" s="6">
         <v>43430</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="E33" s="33" t="s">
+      <c r="E33" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F33" s="20" t="s">
+      <c r="F33" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G33" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H33" s="33" t="s">
+      <c r="H33" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="I33" s="33" t="s">
+      <c r="I33" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="J33" s="33">
+      <c r="J33" s="32">
         <v>1</v>
       </c>
-      <c r="K33" s="33" t="s">
+      <c r="K33" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L33" s="33" t="s">
+      <c r="L33" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M33" s="22">
+      <c r="M33" s="21">
         <v>43440</v>
       </c>
-      <c r="N33" s="32">
+      <c r="N33" s="31">
         <v>6</v>
       </c>
-      <c r="O33" s="31" t="s">
+      <c r="O33" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="33"/>
-    </row>
-    <row r="34" spans="1:18" s="8" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="P33" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="32"/>
+    </row>
+    <row r="34" spans="1:19" s="8" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>32</v>
       </c>
       <c r="B34" s="6">
         <v>43430</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="D34" s="33" t="s">
+      <c r="D34" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="33" t="s">
+      <c r="E34" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="47" t="s">
+      <c r="F34" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="G34" s="15" t="s">
+      <c r="G34" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="33" t="s">
+      <c r="H34" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33">
+      <c r="I34" s="32"/>
+      <c r="J34" s="32">
         <v>1</v>
       </c>
-      <c r="K34" s="33" t="s">
+      <c r="K34" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L34" s="33" t="s">
+      <c r="L34" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M34" s="22">
+      <c r="M34" s="21">
         <v>43440</v>
       </c>
-      <c r="N34" s="30">
+      <c r="N34" s="29">
         <v>10</v>
       </c>
-      <c r="O34" s="31" t="s">
+      <c r="O34" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="33" t="s">
+      <c r="P34" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="32" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:18" s="8" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" s="8" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>33</v>
       </c>
       <c r="B35" s="6">
         <v>43430</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="33" t="s">
+      <c r="D35" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="33" t="s">
+      <c r="E35" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="47" t="s">
+      <c r="F35" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="G35" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H35" s="33" t="s">
+      <c r="H35" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33">
+      <c r="I35" s="32"/>
+      <c r="J35" s="32">
         <v>1</v>
       </c>
-      <c r="K35" s="33" t="s">
+      <c r="K35" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L35" s="33" t="s">
+      <c r="L35" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M35" s="22">
+      <c r="M35" s="21">
         <v>43440</v>
       </c>
-      <c r="N35" s="30">
+      <c r="N35" s="29">
         <v>15</v>
       </c>
-      <c r="O35" s="31" t="s">
+      <c r="O35" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="33" t="s">
+      <c r="P35" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="30"/>
+      <c r="S35" s="32" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>34</v>
       </c>
       <c r="B36" s="6">
         <v>43430</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="33" t="s">
+      <c r="D36" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="33" t="s">
+      <c r="E36" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F36" s="49" t="s">
+      <c r="F36" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="G36" s="15" t="s">
+      <c r="G36" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H36" s="33" t="s">
+      <c r="H36" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33">
+      <c r="I36" s="32"/>
+      <c r="J36" s="32">
         <v>1</v>
       </c>
-      <c r="K36" s="33" t="s">
+      <c r="K36" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L36" s="33" t="s">
+      <c r="L36" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M36" s="22">
+      <c r="M36" s="21">
         <v>43440</v>
       </c>
       <c r="N36" s="5">
         <v>1</v>
       </c>
-      <c r="O36" s="31" t="s">
+      <c r="O36" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="15"/>
-    </row>
-    <row r="37" spans="1:18" ht="199.5" x14ac:dyDescent="0.25">
+      <c r="P36" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30"/>
+      <c r="S36" s="14"/>
+    </row>
+    <row r="37" spans="1:19" ht="199.5" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>35</v>
       </c>
       <c r="B37" s="6">
         <v>43430</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="D37" s="33" t="s">
+      <c r="D37" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="24" t="s">
+      <c r="E37" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F37" s="50" t="s">
+      <c r="F37" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="G37" s="15" t="s">
+      <c r="G37" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H37" s="29" t="s">
+      <c r="H37" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="I37" s="29" t="s">
+      <c r="I37" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="J37" s="16">
+      <c r="J37" s="15">
         <v>1</v>
       </c>
-      <c r="K37" s="33" t="s">
+      <c r="K37" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L37" s="33" t="s">
+      <c r="L37" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M37" s="22">
+      <c r="M37" s="21">
         <v>43440</v>
       </c>
       <c r="N37" s="5">
         <v>0</v>
       </c>
-      <c r="O37" s="31" t="s">
+      <c r="O37" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="33" t="s">
+      <c r="P37" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="30"/>
+      <c r="S37" s="32" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>36</v>
       </c>
       <c r="B38" s="6">
         <v>43430</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="33" t="s">
+      <c r="D38" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="24" t="s">
+      <c r="E38" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F38" s="47" t="s">
+      <c r="F38" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="G38" s="15" t="s">
+      <c r="G38" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H38" s="33" t="s">
+      <c r="H38" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="I38" s="29" t="s">
+      <c r="I38" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="J38" s="16">
+      <c r="J38" s="15">
         <v>1</v>
       </c>
-      <c r="K38" s="33" t="s">
+      <c r="K38" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L38" s="33" t="s">
+      <c r="L38" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M38" s="22">
+      <c r="M38" s="21">
         <v>43440</v>
       </c>
-      <c r="N38" s="32">
+      <c r="N38" s="31">
         <v>10</v>
       </c>
-      <c r="O38" s="31" t="s">
+      <c r="O38" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="33" t="s">
+      <c r="P38" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="32" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="242.25" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>37</v>
       </c>
       <c r="B39" s="6">
         <v>43430</v>
       </c>
-      <c r="C39" s="33" t="s">
+      <c r="C39" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="D39" s="33" t="s">
+      <c r="D39" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E39" s="33" t="s">
+      <c r="E39" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F39" s="47" t="s">
+      <c r="F39" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="G39" s="15" t="s">
+      <c r="G39" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H39" s="33" t="s">
+      <c r="H39" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="I39" s="29" t="s">
+      <c r="I39" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="J39" s="33">
+      <c r="J39" s="32">
         <v>1</v>
       </c>
-      <c r="K39" s="33" t="s">
+      <c r="K39" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L39" s="33" t="s">
+      <c r="L39" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M39" s="22">
+      <c r="M39" s="21">
         <v>43440</v>
       </c>
-      <c r="N39" s="32">
+      <c r="N39" s="31">
         <v>0</v>
       </c>
-      <c r="O39" s="31" t="s">
+      <c r="O39" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="31"/>
-      <c r="R39" s="33" t="s">
+      <c r="P39" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="30"/>
+      <c r="S39" s="32" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>38</v>
       </c>
       <c r="B40" s="6">
         <v>43430</v>
       </c>
-      <c r="C40" s="33" t="s">
+      <c r="C40" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="D40" s="33" t="s">
+      <c r="D40" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E40" s="33" t="s">
+      <c r="E40" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F40" s="47" t="s">
+      <c r="F40" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="G40" s="15" t="s">
+      <c r="G40" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H40" s="33" t="s">
+      <c r="H40" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="I40" s="29" t="s">
+      <c r="I40" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="J40" s="33">
+      <c r="J40" s="32">
         <v>1</v>
       </c>
-      <c r="K40" s="33" t="s">
+      <c r="K40" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L40" s="33" t="s">
+      <c r="L40" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M40" s="22">
+      <c r="M40" s="21">
         <v>43440</v>
       </c>
-      <c r="N40" s="32">
+      <c r="N40" s="31">
         <v>0</v>
       </c>
-      <c r="O40" s="31" t="s">
+      <c r="O40" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="P40" s="31"/>
-      <c r="Q40" s="31"/>
-      <c r="R40" s="33" t="s">
+      <c r="P40" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q40" s="30"/>
+      <c r="R40" s="30"/>
+      <c r="S40" s="32" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>39</v>
       </c>
       <c r="B41" s="6">
         <v>43430</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D41" s="33" t="s">
+      <c r="D41" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="33" t="s">
+      <c r="E41" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F41" s="20" t="s">
+      <c r="F41" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="G41" s="15" t="s">
+      <c r="G41" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H41" s="33" t="s">
+      <c r="H41" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="I41" s="33" t="s">
+      <c r="I41" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="J41" s="33">
+      <c r="J41" s="32">
         <v>2</v>
       </c>
-      <c r="K41" s="33" t="s">
+      <c r="K41" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L41" s="33" t="s">
+      <c r="L41" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M41" s="22">
+      <c r="M41" s="21">
         <v>43440</v>
       </c>
-      <c r="N41" s="32"/>
-      <c r="O41" s="31"/>
-      <c r="P41" s="31"/>
-      <c r="Q41" s="31"/>
-      <c r="R41" s="33"/>
-    </row>
-    <row r="42" spans="1:18" ht="57" x14ac:dyDescent="0.25">
+      <c r="N41" s="31"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="30"/>
+      <c r="S41" s="32"/>
+    </row>
+    <row r="42" spans="1:19" ht="57" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>40</v>
       </c>
       <c r="B42" s="6">
         <v>43430</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D42" s="33" t="s">
+      <c r="D42" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="33" t="s">
+      <c r="E42" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F42" s="20" t="s">
+      <c r="F42" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="G42" s="15" t="s">
+      <c r="G42" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H42" s="33" t="s">
+      <c r="H42" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33">
+      <c r="I42" s="32"/>
+      <c r="J42" s="32">
         <v>2</v>
       </c>
-      <c r="K42" s="33" t="s">
+      <c r="K42" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L42" s="33" t="s">
+      <c r="L42" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M42" s="22">
+      <c r="M42" s="21">
         <v>43440</v>
       </c>
-      <c r="N42" s="32"/>
-      <c r="O42" s="31">
+      <c r="N42" s="83" t="s">
+        <v>156</v>
+      </c>
+      <c r="O42" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P42" s="31"/>
-      <c r="Q42" s="31"/>
-      <c r="R42" s="33"/>
-    </row>
-    <row r="43" spans="1:18" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="P42" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q42" s="30"/>
+      <c r="R42" s="30"/>
+      <c r="S42" s="32"/>
+    </row>
+    <row r="43" spans="1:19" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>41</v>
       </c>
       <c r="B43" s="6">
         <v>43427</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D43" s="33" t="s">
+      <c r="D43" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="33" t="s">
+      <c r="E43" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F43" s="20" t="s">
+      <c r="F43" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="G43" s="15" t="s">
+      <c r="G43" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H43" s="33" t="s">
+      <c r="H43" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33" t="s">
+      <c r="I43" s="32"/>
+      <c r="J43" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="K43" s="33" t="s">
+      <c r="K43" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L43" s="33" t="s">
+      <c r="L43" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M43" s="22">
+      <c r="M43" s="21">
         <v>43440</v>
       </c>
-      <c r="N43" s="32">
+      <c r="N43" s="31">
         <v>0</v>
       </c>
-      <c r="O43" s="31">
+      <c r="O43" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P43" s="31"/>
-      <c r="Q43" s="31"/>
-      <c r="R43" s="33"/>
-    </row>
-    <row r="44" spans="1:18" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="P43" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q43" s="30"/>
+      <c r="R43" s="30"/>
+      <c r="S43" s="32"/>
+    </row>
+    <row r="44" spans="1:19" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>42</v>
       </c>
       <c r="B44" s="6">
         <v>43427</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D44" s="33" t="s">
+      <c r="D44" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="33" t="s">
+      <c r="E44" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F44" s="20" t="s">
+      <c r="F44" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="G44" s="15" t="s">
+      <c r="G44" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H44" s="33" t="s">
+      <c r="H44" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="I44" s="33"/>
-      <c r="J44" s="33">
+      <c r="I44" s="32"/>
+      <c r="J44" s="32">
         <v>2</v>
       </c>
-      <c r="K44" s="33" t="s">
+      <c r="K44" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L44" s="33" t="s">
+      <c r="L44" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M44" s="22">
+      <c r="M44" s="21">
         <v>43452</v>
       </c>
-      <c r="N44" s="32"/>
-      <c r="O44" s="31">
+      <c r="N44" s="83" t="s">
+        <v>156</v>
+      </c>
+      <c r="O44" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P44" s="31"/>
-      <c r="Q44" s="31"/>
-      <c r="R44" s="33"/>
-    </row>
-    <row r="45" spans="1:18" ht="327.75" x14ac:dyDescent="0.25">
+      <c r="P44" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q44" s="30"/>
+      <c r="R44" s="30"/>
+      <c r="S44" s="32"/>
+    </row>
+    <row r="45" spans="1:19" ht="327.75" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>43</v>
       </c>
       <c r="B45" s="6">
         <v>43427</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D45" s="33" t="s">
+      <c r="D45" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E45" s="33" t="s">
+      <c r="E45" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F45" s="20" t="s">
+      <c r="F45" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="G45" s="15" t="s">
+      <c r="G45" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H45" s="33" t="s">
+      <c r="H45" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33" t="s">
+      <c r="I45" s="32"/>
+      <c r="J45" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="K45" s="33" t="s">
+      <c r="K45" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L45" s="33" t="s">
+      <c r="L45" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M45" s="22">
+      <c r="M45" s="21">
         <v>43440</v>
       </c>
-      <c r="N45" s="53">
+      <c r="N45" s="52">
         <v>60</v>
       </c>
-      <c r="O45" s="42">
+      <c r="O45" s="41">
         <v>90</v>
       </c>
-      <c r="P45" s="60" t="s">
+      <c r="P45" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q45" s="59" t="s">
         <v>193</v>
       </c>
-      <c r="Q45" s="31"/>
-      <c r="R45" s="33" t="s">
+      <c r="R45" s="30"/>
+      <c r="S45" s="32" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>44</v>
       </c>
       <c r="B46" s="6">
         <v>43427</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D46" s="33" t="s">
+      <c r="D46" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E46" s="33" t="s">
+      <c r="E46" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F46" s="20" t="s">
+      <c r="F46" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="G46" s="15" t="s">
+      <c r="G46" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H46" s="33" t="s">
+      <c r="H46" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33">
+      <c r="I46" s="32"/>
+      <c r="J46" s="32">
         <v>2</v>
       </c>
-      <c r="K46" s="33" t="s">
+      <c r="K46" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L46" s="33" t="s">
+      <c r="L46" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M46" s="22">
+      <c r="M46" s="21">
         <v>43440</v>
       </c>
-      <c r="N46" s="32">
+      <c r="N46" s="31">
         <v>60</v>
       </c>
-      <c r="O46" s="31"/>
-      <c r="P46" s="31"/>
-      <c r="Q46" s="31"/>
-      <c r="R46" s="33" t="s">
+      <c r="O46" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="P46" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q46" s="30"/>
+      <c r="R46" s="30"/>
+      <c r="S46" s="32" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>45</v>
       </c>
       <c r="B47" s="6">
         <v>43427</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="33" t="s">
+      <c r="D47" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E47" s="33" t="s">
+      <c r="E47" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F47" s="20" t="s">
+      <c r="F47" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="G47" s="15" t="s">
+      <c r="G47" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H47" s="33" t="s">
+      <c r="H47" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="I47" s="33"/>
-      <c r="J47" s="33">
+      <c r="I47" s="32"/>
+      <c r="J47" s="32">
         <v>1</v>
       </c>
-      <c r="K47" s="33" t="s">
+      <c r="K47" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L47" s="33" t="s">
+      <c r="L47" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M47" s="22">
+      <c r="M47" s="21">
         <v>43440</v>
       </c>
-      <c r="N47" s="32">
+      <c r="N47" s="31">
         <v>18</v>
       </c>
-      <c r="O47" s="31" t="s">
+      <c r="O47" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="P47" s="64" t="s">
+      <c r="P47" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q47" s="63" t="s">
         <v>210</v>
       </c>
-      <c r="Q47" s="31" t="s">
+      <c r="R47" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="R47" s="33" t="s">
+      <c r="S47" s="32" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>46</v>
       </c>
       <c r="B48" s="6">
         <v>43427</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D48" s="33" t="s">
+      <c r="D48" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E48" s="33" t="s">
+      <c r="E48" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F48" s="20" t="s">
+      <c r="F48" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="G48" s="15" t="s">
+      <c r="G48" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H48" s="33" t="s">
+      <c r="H48" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="I48" s="33"/>
-      <c r="J48" s="33">
+      <c r="I48" s="32"/>
+      <c r="J48" s="32">
         <v>1</v>
       </c>
-      <c r="K48" s="33" t="s">
+      <c r="K48" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L48" s="33" t="s">
+      <c r="L48" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M48" s="22">
+      <c r="M48" s="21">
         <v>43452</v>
       </c>
-      <c r="N48" s="41">
+      <c r="N48" s="40">
         <v>20</v>
       </c>
-      <c r="O48" s="42">
+      <c r="O48" s="41">
         <v>30</v>
       </c>
-      <c r="P48" s="62" t="s">
+      <c r="P48" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q48" s="61" t="s">
         <v>222</v>
       </c>
-      <c r="Q48" s="31" t="s">
+      <c r="R48" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="R48" s="33" t="s">
+      <c r="S48" s="32" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>47</v>
       </c>
       <c r="B49" s="6">
         <v>43427</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D49" s="33" t="s">
+      <c r="D49" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E49" s="33" t="s">
+      <c r="E49" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F49" s="20" t="s">
+      <c r="F49" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="G49" s="15" t="s">
+      <c r="G49" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H49" s="33" t="s">
+      <c r="H49" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="I49" s="33"/>
-      <c r="J49" s="33">
+      <c r="I49" s="32"/>
+      <c r="J49" s="32">
         <v>2</v>
       </c>
-      <c r="K49" s="33" t="s">
+      <c r="K49" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L49" s="33" t="s">
+      <c r="L49" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="M49" s="22">
+      <c r="M49" s="21">
         <v>43452</v>
       </c>
-      <c r="N49" s="32"/>
-      <c r="O49" s="31"/>
-      <c r="P49" s="31"/>
-      <c r="Q49" s="31"/>
-      <c r="R49" s="33"/>
-    </row>
-    <row r="50" spans="1:18" ht="57" x14ac:dyDescent="0.25">
+      <c r="N49" s="31"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="30"/>
+      <c r="Q49" s="30"/>
+      <c r="R49" s="30"/>
+      <c r="S49" s="32"/>
+    </row>
+    <row r="50" spans="1:19" ht="57" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>48</v>
       </c>
       <c r="B50" s="6">
         <v>43427</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D50" s="33" t="s">
+      <c r="D50" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E50" s="33" t="s">
+      <c r="E50" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F50" s="20" t="s">
+      <c r="F50" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="G50" s="15" t="s">
+      <c r="G50" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H50" s="33" t="s">
+      <c r="H50" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="I50" s="33"/>
-      <c r="J50" s="33">
+      <c r="I50" s="32"/>
+      <c r="J50" s="32">
         <v>1</v>
       </c>
-      <c r="K50" s="33" t="s">
+      <c r="K50" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L50" s="33" t="s">
+      <c r="L50" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M50" s="22">
+      <c r="M50" s="21">
         <v>43440</v>
       </c>
-      <c r="N50" s="57">
+      <c r="N50" s="56">
         <v>5</v>
       </c>
-      <c r="O50" s="58">
+      <c r="O50" s="57">
         <v>8</v>
       </c>
-      <c r="P50" s="65" t="s">
+      <c r="P50" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q50" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="Q50" s="55" t="s">
+      <c r="R50" s="54" t="s">
         <v>224</v>
       </c>
-      <c r="R50" s="20" t="s">
+      <c r="S50" s="19" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="57" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="57" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>49</v>
       </c>
       <c r="B51" s="6">
         <v>43427</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D51" s="33" t="s">
+      <c r="D51" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E51" s="33" t="s">
+      <c r="E51" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F51" s="20" t="s">
+      <c r="F51" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="G51" s="15" t="s">
+      <c r="G51" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H51" s="20" t="s">
+      <c r="H51" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="I51" s="29" t="s">
+      <c r="I51" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="J51" s="33">
+      <c r="J51" s="32">
         <v>1</v>
       </c>
-      <c r="K51" s="33" t="s">
+      <c r="K51" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L51" s="33" t="s">
+      <c r="L51" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M51" s="22">
+      <c r="M51" s="21">
         <v>43440</v>
       </c>
-      <c r="N51" s="32">
+      <c r="N51" s="31">
         <v>0</v>
       </c>
-      <c r="O51" s="31" t="s">
+      <c r="O51" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="P51" s="31"/>
-      <c r="Q51" s="31"/>
-      <c r="R51" s="33" t="s">
+      <c r="P51" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q51" s="30"/>
+      <c r="R51" s="30"/>
+      <c r="S51" s="32" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>50</v>
       </c>
       <c r="B52" s="6">
         <v>43427</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D52" s="33" t="s">
+      <c r="D52" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E52" s="33" t="s">
+      <c r="E52" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F52" s="20" t="s">
+      <c r="F52" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="G52" s="15" t="s">
+      <c r="G52" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H52" s="33" t="s">
+      <c r="H52" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="I52" s="33"/>
-      <c r="J52" s="33">
+      <c r="I52" s="32"/>
+      <c r="J52" s="32">
         <v>2</v>
       </c>
-      <c r="K52" s="33" t="s">
+      <c r="K52" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L52" s="33" t="s">
+      <c r="L52" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M52" s="22">
+      <c r="M52" s="21">
         <v>43440</v>
       </c>
-      <c r="N52" s="32"/>
-      <c r="O52" s="31">
+      <c r="N52" s="83" t="s">
+        <v>156</v>
+      </c>
+      <c r="O52" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P52" s="31"/>
-      <c r="Q52" s="31"/>
-      <c r="R52" s="33"/>
-    </row>
-    <row r="53" spans="1:18" ht="256.5" x14ac:dyDescent="0.25">
+      <c r="P52" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q52" s="30"/>
+      <c r="R52" s="30"/>
+      <c r="S52" s="32"/>
+    </row>
+    <row r="53" spans="1:19" ht="256.5" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>51</v>
       </c>
       <c r="B53" s="6">
         <v>43427</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="33" t="s">
+      <c r="D53" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="E53" s="33" t="s">
+      <c r="E53" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F53" s="20" t="s">
+      <c r="F53" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="G53" s="15" t="s">
+      <c r="G53" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H53" s="33" t="s">
+      <c r="H53" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="I53" s="33"/>
-      <c r="J53" s="33">
+      <c r="I53" s="32"/>
+      <c r="J53" s="32">
         <v>1</v>
       </c>
-      <c r="K53" s="33" t="s">
+      <c r="K53" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L53" s="33" t="s">
+      <c r="L53" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M53" s="22">
+      <c r="M53" s="21">
         <v>43440</v>
       </c>
-      <c r="N53" s="32"/>
-      <c r="O53" s="31"/>
-      <c r="P53" s="31"/>
-      <c r="Q53" s="31"/>
-      <c r="R53" s="33"/>
-    </row>
-    <row r="54" spans="1:18" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="N53" s="31"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="30"/>
+      <c r="R53" s="30"/>
+      <c r="S53" s="32"/>
+    </row>
+    <row r="54" spans="1:19" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>52</v>
       </c>
       <c r="B54" s="6">
         <v>43427</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D54" s="33" t="s">
+      <c r="D54" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E54" s="33" t="s">
+      <c r="E54" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F54" s="20" t="s">
+      <c r="F54" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="G54" s="15" t="s">
+      <c r="G54" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H54" s="33" t="s">
+      <c r="H54" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="I54" s="33"/>
-      <c r="J54" s="33">
+      <c r="I54" s="32"/>
+      <c r="J54" s="32">
         <v>1</v>
       </c>
-      <c r="K54" s="33" t="s">
+      <c r="K54" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L54" s="33" t="s">
+      <c r="L54" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M54" s="22">
+      <c r="M54" s="21">
         <v>43440</v>
       </c>
-      <c r="N54" s="32">
+      <c r="N54" s="31">
         <v>12</v>
       </c>
-      <c r="O54" s="31" t="s">
+      <c r="O54" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="P54" s="31"/>
-      <c r="Q54" s="31"/>
-      <c r="R54" s="33" t="s">
+      <c r="P54" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q54" s="30"/>
+      <c r="R54" s="30"/>
+      <c r="S54" s="32" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="57" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="57" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>53</v>
       </c>
       <c r="B55" s="6">
         <v>43427</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D55" s="33" t="s">
+      <c r="D55" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="E55" s="33" t="s">
+      <c r="E55" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F55" s="20" t="s">
+      <c r="F55" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="G55" s="15" t="s">
+      <c r="G55" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H55" s="33" t="s">
+      <c r="H55" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="I55" s="33"/>
-      <c r="J55" s="33">
+      <c r="I55" s="32"/>
+      <c r="J55" s="32">
         <v>1</v>
       </c>
-      <c r="K55" s="33" t="s">
+      <c r="K55" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L55" s="33" t="s">
+      <c r="L55" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M55" s="22">
+      <c r="M55" s="21">
         <v>43440</v>
       </c>
-      <c r="N55" s="32"/>
-      <c r="O55" s="31"/>
-      <c r="P55" s="31"/>
-      <c r="Q55" s="31"/>
-      <c r="R55" s="33"/>
-    </row>
-    <row r="56" spans="1:18" ht="57" x14ac:dyDescent="0.25">
+      <c r="N55" s="31"/>
+      <c r="O55" s="30"/>
+      <c r="P55" s="30"/>
+      <c r="Q55" s="30"/>
+      <c r="R55" s="30"/>
+      <c r="S55" s="32"/>
+    </row>
+    <row r="56" spans="1:19" ht="57" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>54</v>
       </c>
       <c r="B56" s="6">
         <v>43427</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D56" s="33" t="s">
+      <c r="D56" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E56" s="33" t="s">
+      <c r="E56" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F56" s="20" t="s">
+      <c r="F56" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="G56" s="15" t="s">
+      <c r="G56" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H56" s="33" t="s">
+      <c r="H56" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="I56" s="33"/>
-      <c r="J56" s="33">
+      <c r="I56" s="32"/>
+      <c r="J56" s="32">
         <v>2</v>
       </c>
-      <c r="K56" s="33" t="s">
+      <c r="K56" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L56" s="33" t="s">
+      <c r="L56" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M56" s="22">
+      <c r="M56" s="21">
         <v>43452</v>
       </c>
-      <c r="N56" s="32"/>
-      <c r="O56" s="31">
+      <c r="N56" s="83" t="s">
+        <v>156</v>
+      </c>
+      <c r="O56" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P56" s="31"/>
-      <c r="Q56" s="31"/>
-      <c r="R56" s="33"/>
-    </row>
-    <row r="57" spans="1:18" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="P56" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q56" s="30"/>
+      <c r="R56" s="30"/>
+      <c r="S56" s="32"/>
+    </row>
+    <row r="57" spans="1:19" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>55</v>
       </c>
       <c r="B57" s="6">
         <v>43427</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="33" t="s">
+      <c r="D57" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="33" t="s">
+      <c r="E57" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F57" s="20" t="s">
+      <c r="F57" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="G57" s="15" t="s">
+      <c r="G57" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H57" s="33" t="s">
+      <c r="H57" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33">
+      <c r="I57" s="32"/>
+      <c r="J57" s="32">
         <v>1</v>
       </c>
-      <c r="K57" s="33" t="s">
+      <c r="K57" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L57" s="33" t="s">
+      <c r="L57" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M57" s="22">
+      <c r="M57" s="21">
         <v>43452</v>
       </c>
-      <c r="N57" s="32">
+      <c r="N57" s="31">
         <v>20</v>
       </c>
-      <c r="O57" s="31" t="s">
+      <c r="O57" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="P57" s="31"/>
-      <c r="Q57" s="31"/>
-      <c r="R57" s="33" t="s">
+      <c r="P57" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q57" s="30"/>
+      <c r="R57" s="30"/>
+      <c r="S57" s="32" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="57" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="57" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>56</v>
       </c>
       <c r="B58" s="6">
         <v>43427</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D58" s="33" t="s">
+      <c r="D58" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E58" s="33" t="s">
+      <c r="E58" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F58" s="20" t="s">
+      <c r="F58" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="G58" s="15" t="s">
+      <c r="G58" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H58" s="33" t="s">
+      <c r="H58" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33">
+      <c r="I58" s="32"/>
+      <c r="J58" s="32">
         <v>1</v>
       </c>
-      <c r="K58" s="33" t="s">
+      <c r="K58" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L58" s="33" t="s">
+      <c r="L58" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M58" s="22">
+      <c r="M58" s="21">
         <v>43440</v>
       </c>
-      <c r="N58" s="32">
+      <c r="N58" s="31">
         <v>40</v>
       </c>
-      <c r="O58" s="31" t="s">
+      <c r="O58" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="P58" s="31"/>
-      <c r="Q58" s="31"/>
-      <c r="R58" s="33" t="s">
+      <c r="P58" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q58" s="30"/>
+      <c r="R58" s="30"/>
+      <c r="S58" s="32" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>57</v>
       </c>
       <c r="B59" s="6">
         <v>43427</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D59" s="33" t="s">
+      <c r="D59" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E59" s="33" t="s">
+      <c r="E59" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F59" s="20" t="s">
+      <c r="F59" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="G59" s="15" t="s">
+      <c r="G59" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H59" s="33" t="s">
+      <c r="H59" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="I59" s="33"/>
-      <c r="J59" s="33">
+      <c r="I59" s="32"/>
+      <c r="J59" s="32">
         <v>2</v>
       </c>
-      <c r="K59" s="33" t="s">
+      <c r="K59" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L59" s="33" t="s">
+      <c r="L59" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M59" s="22">
+      <c r="M59" s="21">
         <v>43440</v>
       </c>
-      <c r="N59" s="32"/>
-      <c r="O59" s="31">
+      <c r="N59" s="83" t="s">
+        <v>156</v>
+      </c>
+      <c r="O59" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P59" s="31"/>
-      <c r="Q59" s="31"/>
-      <c r="R59" s="33"/>
-    </row>
-    <row r="60" spans="1:18" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="P59" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q59" s="30"/>
+      <c r="R59" s="30"/>
+      <c r="S59" s="32"/>
+    </row>
+    <row r="60" spans="1:19" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>58</v>
       </c>
       <c r="B60" s="6">
         <v>43427</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D60" s="33" t="s">
+      <c r="D60" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E60" s="33" t="s">
+      <c r="E60" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F60" s="20" t="s">
+      <c r="F60" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="G60" s="15" t="s">
+      <c r="G60" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H60" s="33" t="s">
+      <c r="H60" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="I60" s="33"/>
-      <c r="J60" s="33">
+      <c r="I60" s="32"/>
+      <c r="J60" s="32">
         <v>2</v>
       </c>
-      <c r="K60" s="33" t="s">
+      <c r="K60" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L60" s="33" t="s">
+      <c r="L60" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M60" s="22">
+      <c r="M60" s="21">
         <v>43440</v>
       </c>
-      <c r="N60" s="32"/>
-      <c r="O60" s="31">
+      <c r="N60" s="83" t="s">
+        <v>156</v>
+      </c>
+      <c r="O60" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P60" s="31"/>
-      <c r="Q60" s="31"/>
-      <c r="R60" s="33"/>
-    </row>
-    <row r="61" spans="1:18" ht="142.5" x14ac:dyDescent="0.25">
+      <c r="P60" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q60" s="30"/>
+      <c r="R60" s="30"/>
+      <c r="S60" s="32"/>
+    </row>
+    <row r="61" spans="1:19" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>59</v>
       </c>
       <c r="B61" s="6">
         <v>43432</v>
       </c>
-      <c r="C61" s="33" t="s">
+      <c r="C61" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="D61" s="33" t="s">
+      <c r="D61" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="E61" s="33" t="s">
+      <c r="E61" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F61" s="20" t="s">
+      <c r="F61" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="G61" s="15" t="s">
+      <c r="G61" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H61" s="33" t="s">
+      <c r="H61" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="I61" s="33" t="s">
+      <c r="I61" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="J61" s="33">
+      <c r="J61" s="32">
         <v>1</v>
       </c>
-      <c r="K61" s="33" t="s">
+      <c r="K61" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L61" s="33" t="s">
+      <c r="L61" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M61" s="22">
+      <c r="M61" s="21">
         <v>43440</v>
       </c>
-      <c r="N61" s="32">
+      <c r="N61" s="31">
         <v>4</v>
       </c>
-      <c r="O61" s="31" t="s">
+      <c r="O61" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="P61" s="31"/>
-      <c r="Q61" s="31"/>
-      <c r="R61" s="33"/>
-    </row>
-    <row r="62" spans="1:18" ht="57" x14ac:dyDescent="0.25">
+      <c r="P61" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q61" s="30"/>
+      <c r="R61" s="30"/>
+      <c r="S61" s="32"/>
+    </row>
+    <row r="62" spans="1:19" ht="57" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>60</v>
       </c>
       <c r="B62" s="6">
         <v>43432</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C62" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D62" s="33" t="s">
+      <c r="D62" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E62" s="33" t="s">
+      <c r="E62" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F62" s="20" t="s">
+      <c r="F62" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="G62" s="15" t="s">
+      <c r="G62" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H62" s="33" t="s">
+      <c r="H62" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="I62" s="29" t="s">
+      <c r="I62" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="J62" s="33">
+      <c r="J62" s="32">
         <v>1</v>
       </c>
-      <c r="K62" s="33" t="s">
+      <c r="K62" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L62" s="33" t="s">
+      <c r="L62" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M62" s="22">
+      <c r="M62" s="21">
         <v>43440</v>
       </c>
-      <c r="N62" s="32">
+      <c r="N62" s="31">
         <v>0</v>
       </c>
-      <c r="O62" s="31">
+      <c r="O62" s="30">
         <v>0</v>
       </c>
-      <c r="P62" s="31"/>
-      <c r="Q62" s="31"/>
-      <c r="R62" s="33" t="s">
+      <c r="P62" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q62" s="30"/>
+      <c r="R62" s="30"/>
+      <c r="S62" s="32" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="57" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="57" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>61</v>
       </c>
       <c r="B63" s="6">
         <v>43432</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C63" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D63" s="33" t="s">
+      <c r="D63" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E63" s="33" t="s">
+      <c r="E63" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F63" s="20" t="s">
+      <c r="F63" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="G63" s="15" t="s">
+      <c r="G63" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H63" s="33" t="s">
+      <c r="H63" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="I63" s="33"/>
-      <c r="J63" s="33">
+      <c r="I63" s="32"/>
+      <c r="J63" s="32">
         <v>1</v>
       </c>
-      <c r="K63" s="33" t="s">
+      <c r="K63" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L63" s="33" t="s">
+      <c r="L63" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M63" s="22">
+      <c r="M63" s="21">
         <v>43440</v>
       </c>
-      <c r="N63" s="41">
+      <c r="N63" s="40">
         <v>20</v>
       </c>
-      <c r="O63" s="42">
+      <c r="O63" s="41">
         <v>30</v>
       </c>
-      <c r="P63" s="64" t="s">
+      <c r="P63" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q63" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="Q63" s="31" t="s">
+      <c r="R63" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="R63" s="33" t="s">
+      <c r="S63" s="32" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="114" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="114" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>62</v>
       </c>
       <c r="B64" s="6">
         <v>43432</v>
       </c>
-      <c r="C64" s="33" t="s">
+      <c r="C64" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="D64" s="33" t="s">
+      <c r="D64" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="E64" s="33" t="s">
+      <c r="E64" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F64" s="20" t="s">
+      <c r="F64" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="G64" s="15" t="s">
+      <c r="G64" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H64" s="33" t="s">
+      <c r="H64" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="I64" s="33" t="s">
+      <c r="I64" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="J64" s="33">
+      <c r="J64" s="32">
         <v>2</v>
       </c>
-      <c r="K64" s="33" t="s">
+      <c r="K64" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L64" s="33" t="s">
+      <c r="L64" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M64" s="22">
+      <c r="M64" s="21">
         <v>43440</v>
       </c>
-      <c r="N64" s="32"/>
-      <c r="O64" s="34"/>
-      <c r="P64" s="34"/>
-      <c r="Q64" s="34"/>
+      <c r="N64" s="31"/>
+      <c r="O64" s="33"/>
+      <c r="P64" s="33"/>
+      <c r="Q64" s="33"/>
       <c r="R64" s="33"/>
-    </row>
-    <row r="65" spans="1:20" ht="57" x14ac:dyDescent="0.25">
+      <c r="S64" s="32"/>
+    </row>
+    <row r="65" spans="1:21" ht="57" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>63</v>
       </c>
       <c r="B65" s="6">
         <v>43432</v>
       </c>
-      <c r="C65" s="33" t="s">
+      <c r="C65" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="D65" s="33" t="s">
+      <c r="D65" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="E65" s="33" t="s">
+      <c r="E65" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F65" s="20" t="s">
+      <c r="F65" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="G65" s="15" t="s">
+      <c r="G65" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H65" s="33" t="s">
+      <c r="H65" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="I65" s="33" t="s">
+      <c r="I65" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="J65" s="33" t="s">
+      <c r="J65" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="K65" s="33" t="s">
+      <c r="K65" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L65" s="33" t="s">
+      <c r="L65" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M65" s="22">
+      <c r="M65" s="21">
         <v>43440</v>
       </c>
-      <c r="N65" s="32"/>
-      <c r="O65" s="34"/>
-      <c r="P65" s="34"/>
-      <c r="Q65" s="34"/>
+      <c r="N65" s="31"/>
+      <c r="O65" s="33"/>
+      <c r="P65" s="33"/>
+      <c r="Q65" s="33"/>
       <c r="R65" s="33"/>
-    </row>
-    <row r="66" spans="1:20" ht="299.25" x14ac:dyDescent="0.25">
+      <c r="S65" s="32"/>
+    </row>
+    <row r="66" spans="1:21" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>64</v>
       </c>
       <c r="B66" s="6">
         <v>43440</v>
       </c>
-      <c r="C66" s="33" t="s">
+      <c r="C66" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="D66" s="33" t="s">
+      <c r="D66" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E66" s="33" t="s">
+      <c r="E66" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F66" s="20" t="s">
+      <c r="F66" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="G66" s="15" t="s">
+      <c r="G66" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H66" s="33" t="s">
+      <c r="H66" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="I66" s="33" t="s">
+      <c r="I66" s="32" t="s">
         <v>269</v>
       </c>
-      <c r="J66" s="33">
+      <c r="J66" s="32">
         <v>1</v>
       </c>
-      <c r="K66" s="33" t="s">
+      <c r="K66" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L66" s="33" t="s">
+      <c r="L66" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="M66" s="22">
+      <c r="M66" s="21">
         <v>43452</v>
       </c>
-      <c r="N66" s="32">
+      <c r="N66" s="31">
         <v>15</v>
       </c>
       <c r="O66" s="5">
         <v>40</v>
       </c>
-      <c r="P66" s="5"/>
+      <c r="P66" s="5" t="s">
+        <v>318</v>
+      </c>
       <c r="Q66" s="5"/>
-      <c r="R66" s="33" t="s">
+      <c r="R66" s="5"/>
+      <c r="S66" s="32" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>65</v>
       </c>
       <c r="B67" s="6">
         <v>43440</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="D67" s="33" t="s">
+      <c r="D67" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E67" s="33" t="s">
+      <c r="E67" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F67" s="20" t="s">
+      <c r="F67" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="G67" s="15" t="s">
+      <c r="G67" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H67" s="33" t="s">
+      <c r="H67" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="I67" s="33"/>
-      <c r="J67" s="33" t="s">
+      <c r="I67" s="32"/>
+      <c r="J67" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="K67" s="33" t="s">
+      <c r="K67" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L67" s="33" t="s">
+      <c r="L67" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M67" s="22">
+      <c r="M67" s="21">
         <v>43452</v>
       </c>
-      <c r="N67" s="32">
+      <c r="N67" s="31">
         <v>30</v>
       </c>
       <c r="O67" s="5">
         <v>60</v>
       </c>
-      <c r="P67" s="5"/>
+      <c r="P67" s="5" t="s">
+        <v>318</v>
+      </c>
       <c r="Q67" s="5"/>
-      <c r="R67" s="33" t="s">
+      <c r="R67" s="5"/>
+      <c r="S67" s="32" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>66</v>
       </c>
       <c r="B68" s="6">
         <v>43440</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C68" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="D68" s="33" t="s">
+      <c r="D68" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="E68" s="33" t="s">
+      <c r="E68" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F68" s="20" t="s">
+      <c r="F68" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="G68" s="15" t="s">
+      <c r="G68" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H68" s="33" t="s">
+      <c r="H68" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="I68" s="33" t="s">
+      <c r="I68" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="J68" s="33" t="s">
+      <c r="J68" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="K68" s="33" t="s">
+      <c r="K68" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L68" s="33" t="s">
+      <c r="L68" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M68" s="22">
+      <c r="M68" s="21">
         <v>43452</v>
       </c>
-      <c r="N68" s="32">
+      <c r="N68" s="31">
         <v>40</v>
       </c>
       <c r="O68" s="5">
         <v>56</v>
       </c>
-      <c r="P68" s="5"/>
+      <c r="P68" s="5" t="s">
+        <v>318</v>
+      </c>
       <c r="Q68" s="5"/>
-      <c r="R68" s="33" t="s">
+      <c r="R68" s="5"/>
+      <c r="S68" s="32" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="370.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" ht="370.5" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>67</v>
       </c>
       <c r="B69" s="6">
         <v>43446</v>
       </c>
-      <c r="C69" s="33" t="s">
+      <c r="C69" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="D69" s="33" t="s">
+      <c r="D69" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E69" s="33" t="s">
+      <c r="E69" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F69" s="20" t="s">
+      <c r="F69" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="G69" s="15" t="s">
+      <c r="G69" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H69" s="33" t="s">
+      <c r="H69" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="I69" s="33"/>
-      <c r="J69" s="33">
+      <c r="I69" s="32"/>
+      <c r="J69" s="32">
         <v>1</v>
       </c>
-      <c r="K69" s="33" t="s">
+      <c r="K69" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L69" s="33" t="s">
+      <c r="L69" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M69" s="22">
+      <c r="M69" s="21">
         <v>43446</v>
       </c>
-      <c r="N69" s="32">
+      <c r="N69" s="31">
         <v>12</v>
       </c>
       <c r="O69" s="5">
         <v>24</v>
       </c>
-      <c r="P69" s="5"/>
+      <c r="P69" s="5" t="s">
+        <v>318</v>
+      </c>
       <c r="Q69" s="5"/>
-      <c r="R69" s="33" t="s">
+      <c r="R69" s="5"/>
+      <c r="S69" s="32" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>68</v>
       </c>
       <c r="B70" s="6">
         <v>43446</v>
       </c>
-      <c r="C70" s="33" t="s">
+      <c r="C70" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="D70" s="33" t="s">
+      <c r="D70" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E70" s="33" t="s">
+      <c r="E70" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F70" s="20" t="s">
+      <c r="F70" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="G70" s="15" t="s">
+      <c r="G70" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H70" s="33" t="s">
+      <c r="H70" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="I70" s="33"/>
-      <c r="J70" s="33">
+      <c r="I70" s="32"/>
+      <c r="J70" s="32">
         <v>1</v>
       </c>
-      <c r="K70" s="33" t="s">
+      <c r="K70" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L70" s="33" t="s">
+      <c r="L70" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M70" s="22">
+      <c r="M70" s="21">
         <v>43446</v>
       </c>
-      <c r="N70" s="32">
+      <c r="N70" s="31">
         <v>4</v>
       </c>
       <c r="O70" s="5">
         <v>6</v>
       </c>
-      <c r="P70" s="5"/>
+      <c r="P70" s="5" t="s">
+        <v>318</v>
+      </c>
       <c r="Q70" s="5"/>
-      <c r="R70" s="33"/>
-    </row>
-    <row r="71" spans="1:20" ht="171" x14ac:dyDescent="0.25">
+      <c r="R70" s="5"/>
+      <c r="S70" s="32"/>
+    </row>
+    <row r="71" spans="1:21" ht="171" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>69</v>
       </c>
       <c r="B71" s="6">
         <v>43451</v>
       </c>
-      <c r="C71" s="33" t="s">
+      <c r="C71" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="D71" s="33" t="s">
+      <c r="D71" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E71" s="33" t="s">
+      <c r="E71" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F71" s="20" t="s">
+      <c r="F71" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="G71" s="15" t="s">
+      <c r="G71" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H71" s="33" t="s">
+      <c r="H71" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="I71" s="33"/>
-      <c r="J71" s="33">
+      <c r="I71" s="32"/>
+      <c r="J71" s="32">
         <v>1</v>
       </c>
-      <c r="K71" s="33" t="s">
+      <c r="K71" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L71" s="33" t="s">
+      <c r="L71" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M71" s="22">
+      <c r="M71" s="21">
         <v>43451</v>
       </c>
-      <c r="N71" s="32">
+      <c r="N71" s="31">
         <v>10</v>
       </c>
       <c r="O71" s="5">
         <v>20</v>
       </c>
-      <c r="P71" s="5"/>
+      <c r="P71" s="5" t="s">
+        <v>318</v>
+      </c>
       <c r="Q71" s="5"/>
-      <c r="R71" s="33" t="s">
+      <c r="R71" s="5"/>
+      <c r="S71" s="32" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>70</v>
       </c>
       <c r="B72" s="6">
         <v>43451</v>
       </c>
-      <c r="C72" s="33" t="s">
+      <c r="C72" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="D72" s="33" t="s">
+      <c r="D72" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="E72" s="33" t="s">
+      <c r="E72" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F72" s="20" t="s">
+      <c r="F72" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="G72" s="15" t="s">
+      <c r="G72" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H72" s="33" t="s">
+      <c r="H72" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="I72" s="33" t="s">
+      <c r="I72" s="32" t="s">
         <v>270</v>
       </c>
-      <c r="J72" s="33">
+      <c r="J72" s="32">
         <v>1</v>
       </c>
-      <c r="K72" s="33" t="s">
+      <c r="K72" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L72" s="33" t="s">
+      <c r="L72" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M72" s="22">
+      <c r="M72" s="21">
         <v>43452</v>
       </c>
-      <c r="N72" s="32">
+      <c r="N72" s="31">
         <v>6</v>
       </c>
       <c r="O72" s="5">
         <v>12</v>
       </c>
-      <c r="P72" s="5"/>
+      <c r="P72" s="5" t="s">
+        <v>318</v>
+      </c>
       <c r="Q72" s="5"/>
-      <c r="R72" s="33" t="s">
+      <c r="R72" s="5"/>
+      <c r="S72" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="S72" s="5"/>
-      <c r="T72" s="33"/>
-    </row>
-    <row r="73" spans="1:20" ht="199.5" x14ac:dyDescent="0.25">
+      <c r="T72" s="5"/>
+      <c r="U72" s="32"/>
+    </row>
+    <row r="73" spans="1:21" ht="199.5" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>71</v>
       </c>
       <c r="B73" s="6">
         <v>43451</v>
       </c>
-      <c r="C73" s="33" t="s">
+      <c r="C73" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="D73" s="33" t="s">
+      <c r="D73" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E73" s="33" t="s">
+      <c r="E73" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F73" s="20" t="s">
+      <c r="F73" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="G73" s="15" t="s">
+      <c r="G73" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H73" s="33" t="s">
+      <c r="H73" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="I73" s="33"/>
-      <c r="J73" s="33">
+      <c r="I73" s="32"/>
+      <c r="J73" s="32">
         <v>1</v>
       </c>
-      <c r="K73" s="33" t="s">
+      <c r="K73" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L73" s="33" t="s">
+      <c r="L73" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M73" s="22">
+      <c r="M73" s="21">
         <v>43452</v>
       </c>
-      <c r="N73" s="32">
+      <c r="N73" s="31">
         <v>6</v>
       </c>
       <c r="O73" s="5">
         <v>12</v>
       </c>
-      <c r="P73" s="5"/>
+      <c r="P73" s="5" t="s">
+        <v>318</v>
+      </c>
       <c r="Q73" s="5"/>
       <c r="R73" s="5"/>
-      <c r="S73" s="40"/>
-      <c r="T73" s="29"/>
-    </row>
-    <row r="74" spans="1:20" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="S73" s="5"/>
+      <c r="T73" s="39"/>
+      <c r="U73" s="28"/>
+    </row>
+    <row r="74" spans="1:21" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>72</v>
       </c>
       <c r="B74" s="6">
         <v>43454</v>
       </c>
-      <c r="C74" s="33" t="s">
+      <c r="C74" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="D74" s="29" t="s">
+      <c r="D74" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E74" s="33" t="s">
+      <c r="E74" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F74" s="33" t="s">
+      <c r="F74" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="G74" s="16" t="s">
+      <c r="G74" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="H74" s="29" t="s">
+      <c r="H74" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="I74" s="29"/>
-      <c r="J74" s="29" t="s">
+      <c r="I74" s="28"/>
+      <c r="J74" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="K74" s="29" t="s">
+      <c r="K74" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="L74" s="29" t="s">
+      <c r="L74" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="M74" s="39">
+      <c r="M74" s="38">
         <v>43452</v>
       </c>
       <c r="N74" s="5">
@@ -9129,156 +9353,165 @@
       <c r="O74" s="5">
         <v>0</v>
       </c>
-      <c r="P74" s="5"/>
+      <c r="P74" s="5" t="s">
+        <v>177</v>
+      </c>
       <c r="Q74" s="5"/>
       <c r="R74" s="5"/>
       <c r="S74" s="5"/>
-      <c r="T74" s="33"/>
-    </row>
-    <row r="75" spans="1:20" ht="57" x14ac:dyDescent="0.25">
+      <c r="T74" s="5"/>
+      <c r="U74" s="32"/>
+    </row>
+    <row r="75" spans="1:21" ht="57" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>73</v>
       </c>
-      <c r="B75" s="38">
+      <c r="B75" s="37">
         <v>43454</v>
       </c>
-      <c r="C75" s="29" t="s">
+      <c r="C75" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="D75" s="29" t="s">
+      <c r="D75" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="E75" s="29" t="s">
+      <c r="E75" s="28" t="s">
         <v>29</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="G75" s="16" t="s">
+      <c r="G75" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="H75" s="29" t="s">
+      <c r="H75" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="I75" s="29"/>
-      <c r="J75" s="29">
+      <c r="I75" s="28"/>
+      <c r="J75" s="28">
         <v>1</v>
       </c>
-      <c r="K75" s="29" t="s">
+      <c r="K75" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="L75" s="29" t="s">
+      <c r="L75" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="M75" s="39">
+      <c r="M75" s="38">
         <v>43452</v>
       </c>
-      <c r="N75" s="41">
+      <c r="N75" s="40">
         <v>20</v>
       </c>
-      <c r="O75" s="40">
+      <c r="O75" s="39">
         <v>30</v>
       </c>
-      <c r="P75" s="63" t="s">
+      <c r="P75" s="39" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q75" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="Q75" s="40" t="s">
+      <c r="R75" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="R75" s="66" t="s">
+      <c r="S75" s="65" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>74</v>
       </c>
       <c r="B76" s="6">
         <v>43454</v>
       </c>
-      <c r="C76" s="33" t="s">
+      <c r="C76" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="D76" s="33" t="s">
+      <c r="D76" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E76" s="33" t="s">
+      <c r="E76" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F76" s="33" t="s">
+      <c r="F76" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="G76" s="15" t="s">
+      <c r="G76" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H76" s="33" t="s">
+      <c r="H76" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="I76" s="33"/>
-      <c r="J76" s="33">
+      <c r="I76" s="32"/>
+      <c r="J76" s="32">
         <v>1</v>
       </c>
-      <c r="K76" s="33" t="s">
+      <c r="K76" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L76" s="33" t="s">
+      <c r="L76" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M76" s="22">
+      <c r="M76" s="21">
         <v>43452</v>
       </c>
-      <c r="N76" s="41">
+      <c r="N76" s="40">
         <v>10</v>
       </c>
-      <c r="O76" s="42">
+      <c r="O76" s="41">
         <v>15</v>
       </c>
-      <c r="P76" s="76" t="s">
+      <c r="P76" s="39" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q76" s="75" t="s">
         <v>251</v>
       </c>
-      <c r="Q76" s="5" t="s">
+      <c r="R76" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="R76" s="66" t="s">
+      <c r="S76" s="65" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" ht="213.75" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>75</v>
       </c>
       <c r="B77" s="6">
         <v>43465</v>
       </c>
-      <c r="C77" s="33" t="s">
+      <c r="C77" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="D77" s="33" t="s">
+      <c r="D77" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E77" s="33" t="s">
+      <c r="E77" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F77" s="33" t="s">
+      <c r="F77" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="G77" s="15" t="s">
+      <c r="G77" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H77" s="33" t="s">
+      <c r="H77" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="I77" s="33"/>
-      <c r="J77" s="33">
+      <c r="I77" s="32"/>
+      <c r="J77" s="32">
         <v>1</v>
       </c>
-      <c r="K77" s="33" t="s">
+      <c r="K77" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L77" s="33" t="s">
+      <c r="L77" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="M77" s="22">
+      <c r="M77" s="21">
         <v>43465</v>
       </c>
       <c r="N77" s="5">
@@ -9287,50 +9520,53 @@
       <c r="O77" s="5">
         <v>24</v>
       </c>
-      <c r="P77" s="5"/>
+      <c r="P77" s="39" t="s">
+        <v>318</v>
+      </c>
       <c r="Q77" s="5"/>
-      <c r="R77" s="32" t="s">
+      <c r="R77" s="5"/>
+      <c r="S77" s="31" t="s">
         <v>293</v>
       </c>
-      <c r="S77" s="5"/>
-      <c r="T77" s="33"/>
-    </row>
-    <row r="78" spans="1:20" ht="156.75" x14ac:dyDescent="0.25">
+      <c r="T77" s="5"/>
+      <c r="U77" s="32"/>
+    </row>
+    <row r="78" spans="1:21" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>76</v>
       </c>
       <c r="B78" s="6">
         <v>43465</v>
       </c>
-      <c r="C78" s="33" t="s">
+      <c r="C78" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="D78" s="33" t="s">
+      <c r="D78" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E78" s="33" t="s">
+      <c r="E78" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F78" s="33" t="s">
+      <c r="F78" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="G78" s="15" t="s">
+      <c r="G78" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H78" s="33" t="s">
+      <c r="H78" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="I78" s="33"/>
-      <c r="J78" s="33">
+      <c r="I78" s="32"/>
+      <c r="J78" s="32">
         <v>1</v>
       </c>
-      <c r="K78" s="33" t="s">
+      <c r="K78" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L78" s="33" t="s">
+      <c r="L78" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="M78" s="22">
+      <c r="M78" s="21">
         <v>43465</v>
       </c>
       <c r="N78" s="5">
@@ -9339,1176 +9575,1250 @@
       <c r="O78" s="5">
         <v>60</v>
       </c>
-      <c r="P78" s="5"/>
+      <c r="P78" s="39" t="s">
+        <v>318</v>
+      </c>
       <c r="Q78" s="5"/>
       <c r="R78" s="5"/>
       <c r="S78" s="5"/>
-      <c r="T78" s="33"/>
-    </row>
-    <row r="79" spans="1:20" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="T78" s="5"/>
+      <c r="U78" s="32"/>
+    </row>
+    <row r="79" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>77</v>
       </c>
       <c r="B79" s="6">
         <v>43465</v>
       </c>
-      <c r="C79" s="33" t="s">
+      <c r="C79" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="D79" s="33" t="s">
+      <c r="D79" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E79" s="33" t="s">
+      <c r="E79" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F79" s="33" t="s">
+      <c r="F79" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="G79" s="15" t="s">
+      <c r="G79" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H79" s="33" t="s">
+      <c r="H79" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="I79" s="33"/>
-      <c r="J79" s="33">
+      <c r="I79" s="32"/>
+      <c r="J79" s="32">
         <v>1</v>
       </c>
-      <c r="K79" s="33" t="s">
+      <c r="K79" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L79" s="33" t="s">
+      <c r="L79" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="M79" s="22">
+      <c r="M79" s="21">
         <v>43465</v>
       </c>
-      <c r="N79" s="31">
+      <c r="N79" s="30">
         <v>20</v>
       </c>
       <c r="O79" s="5">
         <v>40</v>
       </c>
-      <c r="P79" s="5"/>
+      <c r="P79" s="39" t="s">
+        <v>318</v>
+      </c>
       <c r="Q79" s="5"/>
-      <c r="R79" s="5" t="s">
+      <c r="R79" s="5"/>
+      <c r="S79" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="S79" s="5"/>
-      <c r="T79" s="33"/>
-    </row>
-    <row r="80" spans="1:20" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="T79" s="5"/>
+      <c r="U79" s="32"/>
+    </row>
+    <row r="80" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>78</v>
       </c>
       <c r="B80" s="6">
         <v>43465</v>
       </c>
-      <c r="C80" s="33" t="s">
+      <c r="C80" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="D80" s="33" t="s">
+      <c r="D80" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E80" s="33" t="s">
+      <c r="E80" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F80" s="33" t="s">
+      <c r="F80" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="G80" s="15" t="s">
+      <c r="G80" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H80" s="33" t="s">
+      <c r="H80" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="I80" s="33"/>
-      <c r="J80" s="33">
+      <c r="I80" s="32"/>
+      <c r="J80" s="32">
         <v>1</v>
       </c>
-      <c r="K80" s="33" t="s">
+      <c r="K80" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L80" s="33" t="s">
+      <c r="L80" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="M80" s="22">
+      <c r="M80" s="21">
         <v>43465</v>
       </c>
-      <c r="N80" s="31" t="s">
+      <c r="N80" s="30" t="s">
         <v>186</v>
       </c>
       <c r="O80" s="5">
         <v>12</v>
       </c>
-      <c r="P80" s="5"/>
+      <c r="P80" s="39" t="s">
+        <v>318</v>
+      </c>
       <c r="Q80" s="5"/>
       <c r="R80" s="5"/>
-      <c r="S80" s="75"/>
-      <c r="T80" s="33"/>
-    </row>
-    <row r="81" spans="1:20" ht="228" x14ac:dyDescent="0.25">
+      <c r="S80" s="5"/>
+      <c r="T80" s="74"/>
+      <c r="U80" s="32"/>
+    </row>
+    <row r="81" spans="1:21" ht="228" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>79</v>
       </c>
       <c r="B81" s="6">
         <v>43465</v>
       </c>
-      <c r="C81" s="33" t="s">
+      <c r="C81" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="D81" s="33" t="s">
+      <c r="D81" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E81" s="33" t="s">
+      <c r="E81" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F81" s="33" t="s">
+      <c r="F81" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="G81" s="15" t="s">
+      <c r="G81" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H81" s="33" t="s">
+      <c r="H81" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="I81" s="33"/>
-      <c r="J81" s="33">
+      <c r="I81" s="32"/>
+      <c r="J81" s="32">
         <v>1</v>
       </c>
-      <c r="K81" s="33" t="s">
+      <c r="K81" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L81" s="33" t="s">
+      <c r="L81" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="M81" s="22">
+      <c r="M81" s="21">
         <v>43465</v>
       </c>
-      <c r="N81" s="31" t="s">
+      <c r="N81" s="30" t="s">
         <v>52</v>
       </c>
       <c r="O81" s="5">
         <v>40</v>
       </c>
-      <c r="P81" s="5"/>
+      <c r="P81" s="39" t="s">
+        <v>318</v>
+      </c>
       <c r="Q81" s="5"/>
-      <c r="R81" s="33" t="s">
+      <c r="R81" s="5"/>
+      <c r="S81" s="32" t="s">
         <v>308</v>
       </c>
-      <c r="S81" s="75"/>
-      <c r="T81" s="33"/>
-    </row>
-    <row r="82" spans="1:20" ht="142.5" x14ac:dyDescent="0.25">
+      <c r="T81" s="74"/>
+      <c r="U81" s="32"/>
+    </row>
+    <row r="82" spans="1:21" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>80</v>
       </c>
       <c r="B82" s="6">
         <v>43477</v>
       </c>
-      <c r="C82" s="33" t="s">
+      <c r="C82" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="D82" s="33" t="s">
+      <c r="D82" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E82" s="33" t="s">
+      <c r="E82" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F82" s="20" t="s">
+      <c r="F82" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="G82" s="15" t="s">
+      <c r="G82" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H82" s="33" t="s">
+      <c r="H82" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="I82" s="33"/>
-      <c r="J82" s="33" t="s">
+      <c r="I82" s="32"/>
+      <c r="J82" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="K82" s="33" t="s">
+      <c r="K82" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L82" s="33" t="s">
+      <c r="L82" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="M82" s="22">
+      <c r="M82" s="21">
         <v>43477</v>
       </c>
-      <c r="N82" s="32">
+      <c r="N82" s="31">
         <v>0</v>
       </c>
       <c r="O82" s="5">
         <v>0</v>
       </c>
-      <c r="P82" s="62" t="s">
+      <c r="P82" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q82" s="61" t="s">
         <v>222</v>
       </c>
-      <c r="Q82" s="5" t="s">
+      <c r="R82" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="R82" s="33" t="s">
+      <c r="S82" s="32" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="228" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" ht="228" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>81</v>
       </c>
       <c r="B83" s="6">
         <v>43465</v>
       </c>
-      <c r="C83" s="33" t="s">
+      <c r="C83" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="D83" s="33" t="s">
+      <c r="D83" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E83" s="33" t="s">
+      <c r="E83" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F83" s="33" t="s">
+      <c r="F83" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="G83" s="15" t="s">
+      <c r="G83" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H83" s="33" t="s">
+      <c r="H83" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="I83" s="33"/>
-      <c r="J83" s="33">
+      <c r="I83" s="32"/>
+      <c r="J83" s="32">
         <v>1</v>
       </c>
-      <c r="K83" s="33" t="s">
+      <c r="K83" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L83" s="33" t="s">
+      <c r="L83" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="M83" s="22">
+      <c r="M83" s="21">
         <v>43465</v>
       </c>
-      <c r="N83" s="31" t="s">
+      <c r="N83" s="30" t="s">
         <v>157</v>
       </c>
       <c r="O83" s="5">
         <v>20</v>
       </c>
-      <c r="P83" s="5"/>
+      <c r="P83" s="5" t="s">
+        <v>318</v>
+      </c>
       <c r="Q83" s="5"/>
-      <c r="R83" s="33" t="s">
+      <c r="R83" s="5"/>
+      <c r="S83" s="32" t="s">
         <v>309</v>
       </c>
-      <c r="S83" s="75"/>
-      <c r="T83" s="33"/>
-    </row>
-    <row r="84" spans="1:20" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="T83" s="74"/>
+      <c r="U83" s="32"/>
+    </row>
+    <row r="84" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>82</v>
       </c>
       <c r="B84" s="6">
         <v>43477</v>
       </c>
-      <c r="C84" s="33" t="s">
+      <c r="C84" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="D84" s="33" t="s">
+      <c r="D84" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E84" s="33" t="s">
+      <c r="E84" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F84" s="20" t="s">
+      <c r="F84" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="G84" s="15" t="s">
+      <c r="G84" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H84" s="33" t="s">
+      <c r="H84" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="I84" s="33"/>
-      <c r="J84" s="33">
+      <c r="I84" s="32"/>
+      <c r="J84" s="32">
         <v>1</v>
       </c>
-      <c r="K84" s="33" t="s">
+      <c r="K84" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L84" s="33" t="s">
+      <c r="L84" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="M84" s="22">
+      <c r="M84" s="21">
         <v>43477</v>
       </c>
-      <c r="N84" s="31" t="s">
+      <c r="N84" s="30" t="s">
         <v>67</v>
       </c>
       <c r="O84" s="5">
         <v>40</v>
       </c>
-      <c r="P84" s="34"/>
-      <c r="Q84" s="5"/>
-      <c r="R84" s="33" t="s">
+      <c r="P84" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q84" s="33"/>
+      <c r="R84" s="5"/>
+      <c r="S84" s="32" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>83</v>
       </c>
       <c r="B85" s="6">
         <v>43477</v>
       </c>
-      <c r="C85" s="33" t="s">
+      <c r="C85" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="D85" s="33" t="s">
+      <c r="D85" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E85" s="33" t="s">
+      <c r="E85" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F85" s="33" t="s">
+      <c r="F85" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="G85" s="15" t="s">
+      <c r="G85" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H85" s="33" t="s">
+      <c r="H85" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="I85" s="33"/>
-      <c r="J85" s="33">
+      <c r="I85" s="32"/>
+      <c r="J85" s="32">
         <v>1</v>
       </c>
-      <c r="K85" s="33" t="s">
+      <c r="K85" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L85" s="33" t="s">
+      <c r="L85" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="M85" s="22">
+      <c r="M85" s="21">
         <v>43477</v>
       </c>
-      <c r="N85" s="32">
+      <c r="N85" s="31">
         <v>6</v>
       </c>
       <c r="O85" s="5">
         <v>12</v>
       </c>
-      <c r="P85" s="34"/>
-      <c r="Q85" s="5"/>
-      <c r="R85" s="33"/>
-    </row>
-    <row r="86" spans="1:20" ht="142.5" x14ac:dyDescent="0.25">
+      <c r="P85" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q85" s="33"/>
+      <c r="R85" s="5"/>
+      <c r="S85" s="32"/>
+    </row>
+    <row r="86" spans="1:21" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>84</v>
       </c>
       <c r="B86" s="6">
         <v>43477</v>
       </c>
-      <c r="C86" s="33" t="s">
+      <c r="C86" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="D86" s="33" t="s">
+      <c r="D86" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E86" s="33" t="s">
+      <c r="E86" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F86" s="33" t="s">
+      <c r="F86" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="G86" s="15" t="s">
+      <c r="G86" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H86" s="33" t="s">
+      <c r="H86" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="I86" s="33"/>
-      <c r="J86" s="33">
+      <c r="I86" s="32"/>
+      <c r="J86" s="32">
         <v>1</v>
       </c>
-      <c r="K86" s="33" t="s">
+      <c r="K86" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L86" s="33" t="s">
+      <c r="L86" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="M86" s="22">
+      <c r="M86" s="21">
         <v>43477</v>
       </c>
-      <c r="N86" s="32">
+      <c r="N86" s="31">
         <v>0</v>
       </c>
       <c r="O86" s="5">
         <v>0</v>
       </c>
-      <c r="P86" s="34"/>
-      <c r="Q86" s="5"/>
-      <c r="R86" s="33" t="s">
+      <c r="P86" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q86" s="33"/>
+      <c r="R86" s="5"/>
+      <c r="S86" s="32" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>85</v>
       </c>
       <c r="B87" s="6">
         <v>43477</v>
       </c>
-      <c r="C87" s="33" t="s">
+      <c r="C87" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="D87" s="33" t="s">
+      <c r="D87" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E87" s="33" t="s">
+      <c r="E87" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F87" s="33" t="s">
+      <c r="F87" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="G87" s="15" t="s">
+      <c r="G87" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H87" s="33" t="s">
+      <c r="H87" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="I87" s="33" t="s">
+      <c r="I87" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="J87" s="33">
+      <c r="J87" s="32">
         <v>1</v>
       </c>
-      <c r="K87" s="33" t="s">
+      <c r="K87" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L87" s="33" t="s">
+      <c r="L87" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="M87" s="22">
+      <c r="M87" s="21">
         <v>43477</v>
       </c>
-      <c r="N87" s="32"/>
+      <c r="N87" s="31"/>
       <c r="O87" s="5"/>
-      <c r="P87" s="34"/>
-      <c r="Q87" s="5"/>
-      <c r="R87" s="33"/>
-    </row>
-    <row r="88" spans="1:20" ht="228" x14ac:dyDescent="0.25">
+      <c r="P87" s="5"/>
+      <c r="Q87" s="33"/>
+      <c r="R87" s="5"/>
+      <c r="S87" s="32"/>
+    </row>
+    <row r="88" spans="1:21" ht="228" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>86</v>
       </c>
       <c r="B88" s="6">
         <v>43477</v>
       </c>
-      <c r="C88" s="33" t="s">
+      <c r="C88" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="D88" s="33" t="s">
+      <c r="D88" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E88" s="33" t="s">
+      <c r="E88" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F88" s="33" t="s">
+      <c r="F88" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="G88" s="15" t="s">
+      <c r="G88" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H88" s="33" t="s">
+      <c r="H88" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="I88" s="33" t="s">
+      <c r="I88" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="J88" s="33">
+      <c r="J88" s="32">
         <v>1</v>
       </c>
-      <c r="K88" s="33" t="s">
+      <c r="K88" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L88" s="33" t="s">
+      <c r="L88" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="M88" s="22">
+      <c r="M88" s="21">
         <v>43477</v>
       </c>
-      <c r="N88" s="32"/>
+      <c r="N88" s="31"/>
       <c r="O88" s="5"/>
-      <c r="P88" s="34"/>
-      <c r="Q88" s="5"/>
-      <c r="R88" s="33"/>
-    </row>
-    <row r="89" spans="1:20" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="P88" s="5"/>
+      <c r="Q88" s="33"/>
+      <c r="R88" s="5"/>
+      <c r="S88" s="32"/>
+    </row>
+    <row r="89" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>87</v>
       </c>
       <c r="B89" s="6">
         <v>43477</v>
       </c>
-      <c r="C89" s="33" t="s">
+      <c r="C89" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="D89" s="33" t="s">
+      <c r="D89" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="E89" s="33" t="s">
+      <c r="E89" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F89" s="33" t="s">
+      <c r="F89" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="G89" s="15" t="s">
+      <c r="G89" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H89" s="33" t="s">
+      <c r="H89" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="I89" s="33" t="s">
+      <c r="I89" s="32" t="s">
         <v>273</v>
       </c>
-      <c r="J89" s="33">
+      <c r="J89" s="32">
         <v>1</v>
       </c>
-      <c r="K89" s="33" t="s">
+      <c r="K89" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L89" s="33" t="s">
+      <c r="L89" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="M89" s="22">
+      <c r="M89" s="21">
         <v>43477</v>
       </c>
-      <c r="N89" s="32"/>
+      <c r="N89" s="31"/>
       <c r="O89" s="5"/>
-      <c r="P89" s="34"/>
-      <c r="Q89" s="5"/>
-      <c r="R89" s="33"/>
-    </row>
-    <row r="90" spans="1:20" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="P89" s="5"/>
+      <c r="Q89" s="33"/>
+      <c r="R89" s="5"/>
+      <c r="S89" s="32"/>
+    </row>
+    <row r="90" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>88</v>
       </c>
       <c r="B90" s="6">
         <v>43477</v>
       </c>
-      <c r="C90" s="33" t="s">
+      <c r="C90" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="D90" s="33" t="s">
+      <c r="D90" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="E90" s="33" t="s">
+      <c r="E90" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F90" s="33" t="s">
+      <c r="F90" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="G90" s="15" t="s">
+      <c r="G90" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H90" s="33" t="s">
+      <c r="H90" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="I90" s="33"/>
-      <c r="J90" s="33">
+      <c r="I90" s="32"/>
+      <c r="J90" s="32">
         <v>1</v>
       </c>
-      <c r="K90" s="33" t="s">
+      <c r="K90" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L90" s="33" t="s">
+      <c r="L90" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="M90" s="22">
+      <c r="M90" s="21">
         <v>43477</v>
       </c>
-      <c r="N90" s="32"/>
+      <c r="N90" s="31"/>
       <c r="O90" s="5"/>
-      <c r="P90" s="34"/>
-      <c r="Q90" s="5"/>
-      <c r="R90" s="33"/>
-    </row>
-    <row r="91" spans="1:20" ht="256.5" x14ac:dyDescent="0.25">
+      <c r="P90" s="5"/>
+      <c r="Q90" s="33"/>
+      <c r="R90" s="5"/>
+      <c r="S90" s="32"/>
+    </row>
+    <row r="91" spans="1:21" ht="256.5" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>89</v>
       </c>
       <c r="B91" s="6">
         <v>43486</v>
       </c>
-      <c r="C91" s="33" t="s">
+      <c r="C91" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="D91" s="33" t="s">
+      <c r="D91" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E91" s="33" t="s">
+      <c r="E91" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F91" s="33" t="s">
+      <c r="F91" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="G91" s="15" t="s">
+      <c r="G91" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H91" s="33" t="s">
+      <c r="H91" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="I91" s="33"/>
-      <c r="J91" s="33">
+      <c r="I91" s="32"/>
+      <c r="J91" s="32">
         <v>1</v>
       </c>
-      <c r="K91" s="33" t="s">
+      <c r="K91" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L91" s="33" t="s">
+      <c r="L91" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="M91" s="22">
+      <c r="M91" s="21">
         <v>43486</v>
       </c>
-      <c r="N91" s="32">
+      <c r="N91" s="31">
         <v>40</v>
       </c>
       <c r="O91" s="5">
         <v>60</v>
       </c>
-      <c r="P91" s="34"/>
-      <c r="Q91" s="5"/>
-      <c r="R91" s="29" t="s">
+      <c r="P91" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q91" s="33"/>
+      <c r="R91" s="5"/>
+      <c r="S91" s="28" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>90</v>
       </c>
       <c r="B92" s="6">
         <v>43489</v>
       </c>
-      <c r="C92" s="32"/>
-      <c r="D92" s="33" t="s">
+      <c r="C92" s="31"/>
+      <c r="D92" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E92" s="33" t="s">
+      <c r="E92" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F92" s="33" t="s">
+      <c r="F92" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="G92" s="15" t="s">
+      <c r="G92" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="H92" s="33"/>
-      <c r="I92" s="33"/>
-      <c r="J92" s="33"/>
-      <c r="K92" s="33"/>
-      <c r="L92" s="33"/>
-      <c r="M92" s="33"/>
-      <c r="N92" s="32">
+      <c r="H92" s="32"/>
+      <c r="I92" s="32"/>
+      <c r="J92" s="32"/>
+      <c r="K92" s="32"/>
+      <c r="L92" s="32"/>
+      <c r="M92" s="32"/>
+      <c r="N92" s="31">
         <v>4</v>
       </c>
       <c r="O92" s="5">
         <v>8</v>
       </c>
-      <c r="P92" s="34"/>
-      <c r="Q92" s="5"/>
-      <c r="R92" s="33"/>
-    </row>
-    <row r="93" spans="1:20" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="P92" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q92" s="33"/>
+      <c r="R92" s="5"/>
+      <c r="S92" s="32"/>
+    </row>
+    <row r="93" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>91</v>
       </c>
       <c r="B93" s="6">
         <v>43489</v>
       </c>
-      <c r="C93" s="32"/>
-      <c r="D93" s="33" t="s">
+      <c r="C93" s="31"/>
+      <c r="D93" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E93" s="33" t="s">
+      <c r="E93" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F93" s="33" t="s">
+      <c r="F93" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="G93" s="15" t="s">
+      <c r="G93" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="H93" s="33"/>
-      <c r="I93" s="33"/>
-      <c r="J93" s="33"/>
-      <c r="K93" s="33"/>
-      <c r="L93" s="33"/>
-      <c r="M93" s="33"/>
-      <c r="N93" s="32">
+      <c r="H93" s="32"/>
+      <c r="I93" s="32"/>
+      <c r="J93" s="32"/>
+      <c r="K93" s="32"/>
+      <c r="L93" s="32"/>
+      <c r="M93" s="32"/>
+      <c r="N93" s="31">
         <v>30</v>
       </c>
       <c r="O93" s="5">
         <v>50</v>
       </c>
-      <c r="P93" s="34"/>
-      <c r="Q93" s="5"/>
-      <c r="R93" s="33" t="s">
+      <c r="P93" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q93" s="33"/>
+      <c r="R93" s="5"/>
+      <c r="S93" s="32" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>92</v>
       </c>
       <c r="B94" s="6">
         <v>43489</v>
       </c>
-      <c r="C94" s="32"/>
-      <c r="D94" s="33" t="s">
+      <c r="C94" s="31"/>
+      <c r="D94" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E94" s="33" t="s">
+      <c r="E94" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F94" s="33" t="s">
+      <c r="F94" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="G94" s="15" t="s">
+      <c r="G94" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="H94" s="33"/>
-      <c r="I94" s="33"/>
-      <c r="J94" s="33"/>
-      <c r="K94" s="33"/>
-      <c r="L94" s="33"/>
-      <c r="M94" s="33"/>
-      <c r="N94" s="32">
+      <c r="H94" s="32"/>
+      <c r="I94" s="32"/>
+      <c r="J94" s="32"/>
+      <c r="K94" s="32"/>
+      <c r="L94" s="32"/>
+      <c r="M94" s="32"/>
+      <c r="N94" s="31">
         <v>6</v>
       </c>
       <c r="O94" s="5">
         <v>12</v>
       </c>
-      <c r="P94" s="34"/>
-      <c r="Q94" s="5"/>
-      <c r="R94" s="33" t="s">
+      <c r="P94" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q94" s="33"/>
+      <c r="R94" s="5"/>
+      <c r="S94" s="32" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>93</v>
       </c>
       <c r="B95" s="6">
         <v>43489</v>
       </c>
-      <c r="C95" s="32"/>
-      <c r="D95" s="33" t="s">
+      <c r="C95" s="31"/>
+      <c r="D95" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E95" s="33" t="s">
+      <c r="E95" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F95" s="33" t="s">
+      <c r="F95" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="G95" s="15" t="s">
+      <c r="G95" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="H95" s="33"/>
-      <c r="I95" s="33"/>
-      <c r="J95" s="33"/>
-      <c r="K95" s="33"/>
-      <c r="L95" s="33"/>
-      <c r="M95" s="33"/>
-      <c r="N95" s="32">
+      <c r="H95" s="32"/>
+      <c r="I95" s="32"/>
+      <c r="J95" s="32"/>
+      <c r="K95" s="32"/>
+      <c r="L95" s="32"/>
+      <c r="M95" s="32"/>
+      <c r="N95" s="31">
         <v>10</v>
       </c>
       <c r="O95" s="5">
         <v>20</v>
       </c>
-      <c r="P95" s="34"/>
-      <c r="Q95" s="5"/>
-      <c r="R95" s="33" t="s">
+      <c r="P95" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q95" s="33"/>
+      <c r="R95" s="5"/>
+      <c r="S95" s="32" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>94</v>
       </c>
       <c r="B96" s="6">
         <v>43489</v>
       </c>
-      <c r="C96" s="32"/>
-      <c r="D96" s="33" t="s">
+      <c r="C96" s="31"/>
+      <c r="D96" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E96" s="33" t="s">
+      <c r="E96" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F96" s="33" t="s">
+      <c r="F96" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="G96" s="15" t="s">
+      <c r="G96" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="H96" s="33"/>
-      <c r="I96" s="33"/>
-      <c r="J96" s="33"/>
-      <c r="K96" s="33"/>
-      <c r="L96" s="33"/>
-      <c r="M96" s="33"/>
-      <c r="N96" s="32">
+      <c r="H96" s="32"/>
+      <c r="I96" s="32"/>
+      <c r="J96" s="32"/>
+      <c r="K96" s="32"/>
+      <c r="L96" s="32"/>
+      <c r="M96" s="32"/>
+      <c r="N96" s="31">
         <v>12</v>
       </c>
       <c r="O96" s="5">
         <v>24</v>
       </c>
-      <c r="P96" s="34"/>
-      <c r="Q96" s="5"/>
-      <c r="R96" s="33"/>
-    </row>
-    <row r="97" spans="1:18" ht="213.75" x14ac:dyDescent="0.25">
+      <c r="P96" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q96" s="33"/>
+      <c r="R96" s="5"/>
+      <c r="S96" s="32"/>
+    </row>
+    <row r="97" spans="1:19" ht="213.75" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>95</v>
       </c>
       <c r="B97" s="6">
         <v>43489</v>
       </c>
-      <c r="C97" s="32"/>
-      <c r="D97" s="33" t="s">
+      <c r="C97" s="31"/>
+      <c r="D97" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E97" s="33" t="s">
+      <c r="E97" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F97" s="33" t="s">
+      <c r="F97" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="G97" s="15" t="s">
+      <c r="G97" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="H97" s="33"/>
-      <c r="I97" s="33"/>
-      <c r="J97" s="33"/>
-      <c r="K97" s="33"/>
-      <c r="L97" s="33"/>
-      <c r="M97" s="33"/>
-      <c r="N97" s="32">
+      <c r="H97" s="32"/>
+      <c r="I97" s="32"/>
+      <c r="J97" s="32"/>
+      <c r="K97" s="32"/>
+      <c r="L97" s="32"/>
+      <c r="M97" s="32"/>
+      <c r="N97" s="31">
         <v>10</v>
       </c>
       <c r="O97" s="5">
         <v>20</v>
       </c>
-      <c r="P97" s="34"/>
-      <c r="Q97" s="5"/>
-      <c r="R97" s="33"/>
-    </row>
-    <row r="98" spans="1:18" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="P97" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q97" s="33"/>
+      <c r="R97" s="5"/>
+      <c r="S97" s="32"/>
+    </row>
+    <row r="98" spans="1:19" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>96</v>
       </c>
       <c r="B98" s="6">
         <v>43489</v>
       </c>
-      <c r="C98" s="32"/>
-      <c r="D98" s="33" t="s">
+      <c r="C98" s="31"/>
+      <c r="D98" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E98" s="33" t="s">
+      <c r="E98" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F98" s="33" t="s">
+      <c r="F98" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="G98" s="15" t="s">
+      <c r="G98" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="H98" s="33"/>
-      <c r="I98" s="33"/>
-      <c r="J98" s="33"/>
-      <c r="K98" s="33"/>
-      <c r="L98" s="33"/>
-      <c r="M98" s="33"/>
-      <c r="N98" s="32">
+      <c r="H98" s="32"/>
+      <c r="I98" s="32"/>
+      <c r="J98" s="32"/>
+      <c r="K98" s="32"/>
+      <c r="L98" s="32"/>
+      <c r="M98" s="32"/>
+      <c r="N98" s="31">
         <v>6</v>
       </c>
       <c r="O98" s="5">
         <v>12</v>
       </c>
-      <c r="P98" s="34"/>
-      <c r="Q98" s="5"/>
-      <c r="R98" s="33" t="s">
+      <c r="P98" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q98" s="33"/>
+      <c r="R98" s="5"/>
+      <c r="S98" s="32" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>97</v>
       </c>
       <c r="B99" s="6">
         <v>43489</v>
       </c>
-      <c r="C99" s="32"/>
-      <c r="D99" s="33" t="s">
+      <c r="C99" s="31"/>
+      <c r="D99" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E99" s="33" t="s">
+      <c r="E99" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F99" s="33" t="s">
+      <c r="F99" s="32" t="s">
         <v>280</v>
       </c>
-      <c r="G99" s="15" t="s">
+      <c r="G99" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="H99" s="33"/>
-      <c r="I99" s="33"/>
-      <c r="J99" s="33"/>
-      <c r="K99" s="33"/>
-      <c r="L99" s="33"/>
-      <c r="M99" s="33"/>
-      <c r="N99" s="32">
+      <c r="H99" s="32"/>
+      <c r="I99" s="32"/>
+      <c r="J99" s="32"/>
+      <c r="K99" s="32"/>
+      <c r="L99" s="32"/>
+      <c r="M99" s="32"/>
+      <c r="N99" s="31">
         <v>20</v>
       </c>
       <c r="O99" s="5">
         <v>40</v>
       </c>
-      <c r="P99" s="34"/>
-      <c r="Q99" s="5"/>
-      <c r="R99" s="33" t="s">
+      <c r="P99" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q99" s="33"/>
+      <c r="R99" s="5"/>
+      <c r="S99" s="32" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="100" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>98</v>
       </c>
       <c r="B100" s="6">
         <v>43489</v>
       </c>
-      <c r="C100" s="32"/>
-      <c r="D100" s="33" t="s">
+      <c r="C100" s="31"/>
+      <c r="D100" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E100" s="33" t="s">
+      <c r="E100" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F100" s="33" t="s">
+      <c r="F100" s="32" t="s">
         <v>280</v>
       </c>
-      <c r="G100" s="15" t="s">
+      <c r="G100" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="H100" s="33"/>
-      <c r="I100" s="33"/>
-      <c r="J100" s="33"/>
-      <c r="K100" s="33"/>
-      <c r="L100" s="33"/>
-      <c r="M100" s="33"/>
-      <c r="N100" s="32">
+      <c r="H100" s="32"/>
+      <c r="I100" s="32"/>
+      <c r="J100" s="32"/>
+      <c r="K100" s="32"/>
+      <c r="L100" s="32"/>
+      <c r="M100" s="32"/>
+      <c r="N100" s="31">
         <v>8</v>
       </c>
       <c r="O100" s="5">
         <v>16</v>
       </c>
-      <c r="P100" s="34"/>
-      <c r="Q100" s="5"/>
-      <c r="R100" s="33" t="s">
+      <c r="P100" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q100" s="33"/>
+      <c r="R100" s="5"/>
+      <c r="S100" s="32" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="101" spans="1:18" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>99</v>
       </c>
       <c r="B101" s="6">
         <v>43489</v>
       </c>
-      <c r="C101" s="32"/>
-      <c r="D101" s="33" t="s">
+      <c r="C101" s="31"/>
+      <c r="D101" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E101" s="33" t="s">
+      <c r="E101" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F101" s="33" t="s">
+      <c r="F101" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="G101" s="15" t="s">
+      <c r="G101" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="H101" s="33"/>
-      <c r="I101" s="33"/>
-      <c r="J101" s="33"/>
-      <c r="K101" s="33"/>
-      <c r="L101" s="33"/>
-      <c r="M101" s="33"/>
-      <c r="N101" s="32">
+      <c r="H101" s="32"/>
+      <c r="I101" s="32"/>
+      <c r="J101" s="32"/>
+      <c r="K101" s="32"/>
+      <c r="L101" s="32"/>
+      <c r="M101" s="32"/>
+      <c r="N101" s="31">
         <v>6</v>
       </c>
       <c r="O101" s="5">
         <v>12</v>
       </c>
-      <c r="P101" s="34"/>
-      <c r="Q101" s="5"/>
-      <c r="R101" s="33"/>
-    </row>
-    <row r="102" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="P101" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q101" s="33"/>
+      <c r="R101" s="5"/>
+      <c r="S101" s="32"/>
+    </row>
+    <row r="102" spans="1:19" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>100</v>
       </c>
       <c r="B102" s="6">
         <v>43489</v>
       </c>
-      <c r="C102" s="32"/>
-      <c r="D102" s="33" t="s">
+      <c r="C102" s="31"/>
+      <c r="D102" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E102" s="33" t="s">
+      <c r="E102" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F102" s="33" t="s">
+      <c r="F102" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="G102" s="15" t="s">
+      <c r="G102" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="H102" s="33"/>
-      <c r="I102" s="33"/>
-      <c r="J102" s="33"/>
-      <c r="K102" s="33"/>
-      <c r="L102" s="33"/>
-      <c r="M102" s="33"/>
-      <c r="N102" s="32">
+      <c r="H102" s="32"/>
+      <c r="I102" s="32"/>
+      <c r="J102" s="32"/>
+      <c r="K102" s="32"/>
+      <c r="L102" s="32"/>
+      <c r="M102" s="32"/>
+      <c r="N102" s="31">
         <v>10</v>
       </c>
       <c r="O102" s="5">
         <v>20</v>
       </c>
-      <c r="P102" s="34"/>
-      <c r="Q102" s="5"/>
-      <c r="R102" s="33" t="s">
+      <c r="P102" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q102" s="33"/>
+      <c r="R102" s="5"/>
+      <c r="S102" s="32" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="103" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>101</v>
       </c>
       <c r="B103" s="6">
         <v>43489</v>
       </c>
-      <c r="C103" s="32"/>
-      <c r="D103" s="33" t="s">
+      <c r="C103" s="31"/>
+      <c r="D103" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E103" s="33" t="s">
+      <c r="E103" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F103" s="33" t="s">
+      <c r="F103" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="G103" s="15" t="s">
+      <c r="G103" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="H103" s="33"/>
-      <c r="I103" s="33"/>
-      <c r="J103" s="33"/>
-      <c r="K103" s="33"/>
-      <c r="L103" s="33"/>
-      <c r="M103" s="33"/>
-      <c r="N103" s="32">
+      <c r="H103" s="32"/>
+      <c r="I103" s="32"/>
+      <c r="J103" s="32"/>
+      <c r="K103" s="32"/>
+      <c r="L103" s="32"/>
+      <c r="M103" s="32"/>
+      <c r="N103" s="31">
         <v>4</v>
       </c>
       <c r="O103" s="5">
         <v>8</v>
       </c>
-      <c r="P103" s="34"/>
-      <c r="Q103" s="5"/>
-      <c r="R103" s="33" t="s">
+      <c r="P103" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q103" s="33"/>
+      <c r="R103" s="5"/>
+      <c r="S103" s="32" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="104" spans="1:18" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>102</v>
       </c>
       <c r="B104" s="6">
         <v>43448</v>
       </c>
-      <c r="C104" s="33" t="s">
+      <c r="C104" s="32" t="s">
         <v>283</v>
       </c>
-      <c r="D104" s="33" t="s">
+      <c r="D104" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E104" s="33" t="s">
+      <c r="E104" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F104" s="77" t="s">
+      <c r="F104" s="76" t="s">
         <v>284</v>
       </c>
-      <c r="G104" s="15" t="s">
+      <c r="G104" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H104" s="33"/>
-      <c r="I104" s="33"/>
-      <c r="J104" s="33"/>
-      <c r="K104" s="33"/>
-      <c r="L104" s="22"/>
-      <c r="M104" s="32">
+      <c r="H104" s="32"/>
+      <c r="I104" s="32"/>
+      <c r="J104" s="32"/>
+      <c r="K104" s="32"/>
+      <c r="L104" s="21"/>
+      <c r="M104" s="31"/>
+      <c r="N104" s="31">
         <v>20</v>
       </c>
-      <c r="N104" s="5">
+      <c r="O104" s="5">
         <v>40</v>
       </c>
-      <c r="O104" s="34"/>
-      <c r="P104" s="5"/>
-      <c r="Q104" s="33"/>
-      <c r="R104" s="11"/>
-    </row>
-    <row r="105" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="P104" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q104" s="5"/>
+      <c r="R104" s="32"/>
+      <c r="S104" s="10"/>
+    </row>
+    <row r="105" spans="1:19" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>103</v>
       </c>
       <c r="B105" s="6">
         <v>43447</v>
       </c>
-      <c r="C105" s="33" t="s">
+      <c r="C105" s="32" t="s">
         <v>316</v>
       </c>
-      <c r="D105" s="33" t="s">
+      <c r="D105" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E105" s="33" t="s">
+      <c r="E105" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F105" s="33" t="s">
+      <c r="F105" s="32" t="s">
         <v>316</v>
       </c>
-      <c r="G105" s="15" t="s">
+      <c r="G105" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H105" s="33"/>
-      <c r="I105" s="33"/>
-      <c r="J105" s="33"/>
-      <c r="K105" s="33"/>
-      <c r="L105" s="22"/>
-      <c r="M105" s="32"/>
+      <c r="H105" s="32"/>
+      <c r="I105" s="32"/>
+      <c r="J105" s="32"/>
+      <c r="K105" s="32"/>
+      <c r="L105" s="21"/>
+      <c r="M105" s="31"/>
       <c r="N105" s="5"/>
-      <c r="O105" s="34"/>
-      <c r="P105" s="5"/>
-      <c r="Q105" s="33"/>
-      <c r="R105" s="11"/>
+      <c r="O105" s="33"/>
+      <c r="P105" s="33"/>
+      <c r="Q105" s="5"/>
+      <c r="R105" s="32"/>
+      <c r="S105" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:R104" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:S105" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10527,7 +10837,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -10552,22 +10862,22 @@
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
+      <c r="B11" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10589,7 +10899,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="34" t="s">
         <v>163</v>
       </c>
       <c r="B3" t="s">
@@ -10600,90 +10910,90 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="36">
         <v>1</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="36">
         <v>8</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="36">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="36">
         <v>3</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="36">
         <v>3</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="36">
         <v>27</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="36">
         <v>15</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="36">
         <v>7</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11" s="36">
         <v>64</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="36">
         <v>30</v>
       </c>
     </row>
@@ -10705,34 +11015,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="66" t="s">
         <v>234</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="67" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="69"/>
-      <c r="C2" s="70" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="69" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="71"/>
-      <c r="C3" s="70" t="s">
+      <c r="B3" s="70"/>
+      <c r="C3" s="69" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="72"/>
-      <c r="C4" s="70" t="s">
+      <c r="B4" s="71"/>
+      <c r="C4" s="69" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="73"/>
-      <c r="C5" s="74" t="s">
+      <c r="B5" s="72"/>
+      <c r="C5" s="73" t="s">
         <v>233</v>
       </c>
     </row>
@@ -10743,15 +11053,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -10772,6 +11073,15 @@
     </RatedBy>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10947,14 +11257,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -10966,6 +11268,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
+++ b/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\git-repo\mosip\docs\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mindtree\Projects\MOSIP\IDA\Code\git-repo\0.8.0-branch1\mosip\docs\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{56F2E489-27C1-490B-A070-22D155AF6197}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7700"/>
   </bookViews>
   <sheets>
     <sheet name="MOSIP_Feature_Roadmap" sheetId="5" r:id="rId1"/>
@@ -21,9 +20,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MOSIP_Feature_Roadmap!$A$2:$S$105</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="15" r:id="rId5"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="324">
   <si>
     <t>S.No.</t>
   </si>
@@ -3353,11 +3352,23 @@
   <si>
     <t>90</t>
   </si>
+  <si>
+    <t>Awaiting requirement clarification from Anadi for CR estimation</t>
+  </si>
+  <si>
+    <t>Awating requirement clarification from GoM for CR estimation</t>
+  </si>
+  <si>
+    <t>Auth API spec changes based on technical Review</t>
+  </si>
+  <si>
+    <t>Awaiting clarifications for CR #85 and #86</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
@@ -3877,6 +3888,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3890,12 +3907,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3928,7 +3939,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -3945,7 +3956,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="MINDTREE" refreshedDate="43448.660082060182" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="64" xr:uid="{00000000-000A-0000-FFFF-FFFF05000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="MINDTREE" refreshedDate="43448.660082060182" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="64">
   <cacheSource type="worksheet">
     <worksheetSource ref="A2:S70" sheet="MOSIP_Feature_Roadmap"/>
   </cacheSource>
@@ -5106,7 +5117,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField dataField="1" showAll="0"/>
@@ -5454,62 +5465,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:U105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R104" sqref="R104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.26953125" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.42578125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="22.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="83.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="20.28515625" style="10"/>
+    <col min="1" max="1" width="8.1796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="36.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.26953125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.453125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.81640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="22.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="83.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="20.26953125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="79" t="s">
         <v>236</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="81"/>
-    </row>
-    <row r="2" spans="1:19" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="80"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="83"/>
+    </row>
+    <row r="2" spans="1:19" ht="42" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
@@ -5568,7 +5580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="4" customFormat="1" ht="228" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="4" customFormat="1" ht="182" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -5623,7 +5635,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="4" customFormat="1" ht="228" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="4" customFormat="1" ht="182" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -5678,7 +5690,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="4" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" s="4" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -5733,7 +5745,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="4" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" s="4" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -5788,7 +5800,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="4" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" s="4" customFormat="1" ht="112" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -5843,7 +5855,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="4" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="4" customFormat="1" ht="112" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -5898,7 +5910,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="4" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" s="4" customFormat="1" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -5951,7 +5963,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="4" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" s="4" customFormat="1" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -6004,7 +6016,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" s="1" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -6055,7 +6067,7 @@
       <c r="R11" s="30"/>
       <c r="S11" s="21"/>
     </row>
-    <row r="12" spans="1:19" s="1" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" s="1" customFormat="1" ht="98" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -6108,7 +6120,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="1" customFormat="1" ht="384.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" s="1" customFormat="1" ht="350" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -6146,12 +6158,11 @@
       <c r="M13" s="21">
         <v>43419</v>
       </c>
-      <c r="N13" s="82" t="s">
-        <v>156</v>
-      </c>
-      <c r="O13" s="30">
-        <f t="shared" ref="N13:O60" si="0">N13*1.5</f>
-        <v>0</v>
+      <c r="N13" s="77" t="s">
+        <v>177</v>
+      </c>
+      <c r="O13" s="30" t="s">
+        <v>177</v>
       </c>
       <c r="P13" s="30" t="s">
         <v>177</v>
@@ -6160,7 +6171,7 @@
       <c r="R13" s="30"/>
       <c r="S13" s="21"/>
     </row>
-    <row r="14" spans="1:19" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" s="1" customFormat="1" ht="126" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -6213,7 +6224,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" s="1" customFormat="1" ht="126" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -6266,7 +6277,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="1" customFormat="1" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" s="1" customFormat="1" ht="126" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -6323,7 +6334,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="1" customFormat="1" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" s="1" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -6380,7 +6391,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="4" customFormat="1" ht="270.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" s="4" customFormat="1" ht="238" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -6437,7 +6448,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="1" customFormat="1" ht="199.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" s="1" customFormat="1" ht="182" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -6494,7 +6505,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:19" s="4" customFormat="1" ht="171" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" s="4" customFormat="1" ht="154" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -6551,7 +6562,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" s="1" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -6594,7 +6605,7 @@
       <c r="R21" s="30"/>
       <c r="S21" s="21"/>
     </row>
-    <row r="22" spans="1:19" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" s="4" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -6637,7 +6648,7 @@
       <c r="R22" s="30"/>
       <c r="S22" s="21"/>
     </row>
-    <row r="23" spans="1:19" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -6690,7 +6701,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -6743,7 +6754,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="112" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>23</v>
       </c>
@@ -6800,7 +6811,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -6845,7 +6856,7 @@
       <c r="R26" s="30"/>
       <c r="S26" s="21"/>
     </row>
-    <row r="27" spans="1:19" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>25</v>
       </c>
@@ -6890,7 +6901,7 @@
       <c r="R27" s="30"/>
       <c r="S27" s="21"/>
     </row>
-    <row r="28" spans="1:19" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -6943,7 +6954,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>27</v>
       </c>
@@ -6996,7 +7007,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -7041,7 +7052,7 @@
       <c r="R30" s="30"/>
       <c r="S30" s="21"/>
     </row>
-    <row r="31" spans="1:19" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>29</v>
       </c>
@@ -7094,7 +7105,7 @@
       <c r="R31" s="30"/>
       <c r="S31" s="14"/>
     </row>
-    <row r="32" spans="1:19" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="126" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -7151,7 +7162,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>31</v>
       </c>
@@ -7204,7 +7215,7 @@
       <c r="R33" s="30"/>
       <c r="S33" s="32"/>
     </row>
-    <row r="34" spans="1:19" s="8" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" s="8" customFormat="1" ht="126" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>32</v>
       </c>
@@ -7257,7 +7268,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:19" s="8" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" s="8" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>33</v>
       </c>
@@ -7310,7 +7321,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>34</v>
       </c>
@@ -7361,7 +7372,7 @@
       <c r="R36" s="30"/>
       <c r="S36" s="14"/>
     </row>
-    <row r="37" spans="1:19" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="182" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>35</v>
       </c>
@@ -7416,7 +7427,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="126" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>36</v>
       </c>
@@ -7471,7 +7482,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="224" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>37</v>
       </c>
@@ -7526,7 +7537,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="126" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>38</v>
       </c>
@@ -7581,7 +7592,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>39</v>
       </c>
@@ -7628,7 +7639,7 @@
       <c r="R41" s="30"/>
       <c r="S41" s="32"/>
     </row>
-    <row r="42" spans="1:19" ht="57" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>40</v>
       </c>
@@ -7666,11 +7677,11 @@
       <c r="M42" s="21">
         <v>43440</v>
       </c>
-      <c r="N42" s="83" t="s">
+      <c r="N42" s="78" t="s">
         <v>156</v>
       </c>
       <c r="O42" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="O13:O60" si="0">N42*1.5</f>
         <v>0</v>
       </c>
       <c r="P42" s="30" t="s">
@@ -7680,7 +7691,7 @@
       <c r="R42" s="30"/>
       <c r="S42" s="32"/>
     </row>
-    <row r="43" spans="1:19" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>41</v>
       </c>
@@ -7732,7 +7743,7 @@
       <c r="R43" s="30"/>
       <c r="S43" s="32"/>
     </row>
-    <row r="44" spans="1:19" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>42</v>
       </c>
@@ -7770,7 +7781,7 @@
       <c r="M44" s="21">
         <v>43452</v>
       </c>
-      <c r="N44" s="83" t="s">
+      <c r="N44" s="78" t="s">
         <v>156</v>
       </c>
       <c r="O44" s="30">
@@ -7784,7 +7795,7 @@
       <c r="R44" s="30"/>
       <c r="S44" s="32"/>
     </row>
-    <row r="45" spans="1:19" ht="327.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="322" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>43</v>
       </c>
@@ -7839,7 +7850,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="140" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>44</v>
       </c>
@@ -7892,7 +7903,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>45</v>
       </c>
@@ -7949,7 +7960,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>46</v>
       </c>
@@ -8006,7 +8017,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>47</v>
       </c>
@@ -8051,7 +8062,7 @@
       <c r="R49" s="30"/>
       <c r="S49" s="32"/>
     </row>
-    <row r="50" spans="1:19" ht="57" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>48</v>
       </c>
@@ -8108,7 +8119,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="57" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="56" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>49</v>
       </c>
@@ -8163,7 +8174,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>50</v>
       </c>
@@ -8201,7 +8212,7 @@
       <c r="M52" s="21">
         <v>43440</v>
       </c>
-      <c r="N52" s="83" t="s">
+      <c r="N52" s="78" t="s">
         <v>156</v>
       </c>
       <c r="O52" s="30">
@@ -8215,7 +8226,7 @@
       <c r="R52" s="30"/>
       <c r="S52" s="32"/>
     </row>
-    <row r="53" spans="1:19" ht="256.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="224" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>51</v>
       </c>
@@ -8260,7 +8271,7 @@
       <c r="R53" s="30"/>
       <c r="S53" s="32"/>
     </row>
-    <row r="54" spans="1:19" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>52</v>
       </c>
@@ -8313,7 +8324,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="57" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>53</v>
       </c>
@@ -8358,7 +8369,7 @@
       <c r="R55" s="30"/>
       <c r="S55" s="32"/>
     </row>
-    <row r="56" spans="1:19" ht="57" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>54</v>
       </c>
@@ -8396,7 +8407,7 @@
       <c r="M56" s="21">
         <v>43452</v>
       </c>
-      <c r="N56" s="83" t="s">
+      <c r="N56" s="78" t="s">
         <v>156</v>
       </c>
       <c r="O56" s="30">
@@ -8410,7 +8421,7 @@
       <c r="R56" s="30"/>
       <c r="S56" s="32"/>
     </row>
-    <row r="57" spans="1:19" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>55</v>
       </c>
@@ -8463,7 +8474,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="57" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>56</v>
       </c>
@@ -8516,7 +8527,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>57</v>
       </c>
@@ -8554,7 +8565,7 @@
       <c r="M59" s="21">
         <v>43440</v>
       </c>
-      <c r="N59" s="83" t="s">
+      <c r="N59" s="78" t="s">
         <v>156</v>
       </c>
       <c r="O59" s="30">
@@ -8568,7 +8579,7 @@
       <c r="R59" s="30"/>
       <c r="S59" s="32"/>
     </row>
-    <row r="60" spans="1:19" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>58</v>
       </c>
@@ -8606,7 +8617,7 @@
       <c r="M60" s="21">
         <v>43440</v>
       </c>
-      <c r="N60" s="83" t="s">
+      <c r="N60" s="78" t="s">
         <v>156</v>
       </c>
       <c r="O60" s="30">
@@ -8620,7 +8631,7 @@
       <c r="R60" s="30"/>
       <c r="S60" s="32"/>
     </row>
-    <row r="61" spans="1:19" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="140" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>59</v>
       </c>
@@ -8673,7 +8684,7 @@
       <c r="R61" s="30"/>
       <c r="S61" s="32"/>
     </row>
-    <row r="62" spans="1:19" ht="57" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="56" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <v>60</v>
       </c>
@@ -8728,7 +8739,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="57" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>61</v>
       </c>
@@ -8785,7 +8796,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="114" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>62</v>
       </c>
@@ -8832,7 +8843,7 @@
       <c r="R64" s="33"/>
       <c r="S64" s="32"/>
     </row>
-    <row r="65" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>63</v>
       </c>
@@ -8879,7 +8890,7 @@
       <c r="R65" s="33"/>
       <c r="S65" s="32"/>
     </row>
-    <row r="66" spans="1:21" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" ht="280" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>64</v>
       </c>
@@ -8920,7 +8931,7 @@
         <v>43452</v>
       </c>
       <c r="N66" s="31">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O66" s="5">
         <v>40</v>
@@ -8934,7 +8945,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="67" spans="1:21" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" ht="154" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>65</v>
       </c>
@@ -8987,7 +8998,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" ht="154" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <v>66</v>
       </c>
@@ -9042,7 +9053,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="370.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" ht="350" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>67</v>
       </c>
@@ -9095,7 +9106,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <v>68</v>
       </c>
@@ -9146,7 +9157,7 @@
       <c r="R70" s="5"/>
       <c r="S70" s="32"/>
     </row>
-    <row r="71" spans="1:21" ht="171" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" ht="154" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>69</v>
       </c>
@@ -9199,7 +9210,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" ht="182" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
         <v>70</v>
       </c>
@@ -9256,7 +9267,7 @@
       <c r="T72" s="5"/>
       <c r="U72" s="32"/>
     </row>
-    <row r="73" spans="1:21" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" ht="196" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
         <v>71</v>
       </c>
@@ -9309,7 +9320,7 @@
       <c r="T73" s="39"/>
       <c r="U73" s="28"/>
     </row>
-    <row r="74" spans="1:21" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" ht="126" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
         <v>72</v>
       </c>
@@ -9362,7 +9373,7 @@
       <c r="T74" s="5"/>
       <c r="U74" s="32"/>
     </row>
-    <row r="75" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
         <v>73</v>
       </c>
@@ -9419,7 +9430,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="76" spans="1:21" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" ht="182" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
         <v>74</v>
       </c>
@@ -9476,7 +9487,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="77" spans="1:21" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" ht="196" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
         <v>75</v>
       </c>
@@ -9531,7 +9542,7 @@
       <c r="T77" s="5"/>
       <c r="U77" s="32"/>
     </row>
-    <row r="78" spans="1:21" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" ht="154" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
         <v>76</v>
       </c>
@@ -9584,7 +9595,7 @@
       <c r="T78" s="5"/>
       <c r="U78" s="32"/>
     </row>
-    <row r="79" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
         <v>77</v>
       </c>
@@ -9639,7 +9650,7 @@
       <c r="T79" s="5"/>
       <c r="U79" s="32"/>
     </row>
-    <row r="80" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
         <v>78</v>
       </c>
@@ -9692,7 +9703,7 @@
       <c r="T80" s="74"/>
       <c r="U80" s="32"/>
     </row>
-    <row r="81" spans="1:21" ht="228" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" ht="224" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
         <v>79</v>
       </c>
@@ -9747,7 +9758,7 @@
       <c r="T81" s="74"/>
       <c r="U81" s="32"/>
     </row>
-    <row r="82" spans="1:21" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" ht="140" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
         <v>80</v>
       </c>
@@ -9804,7 +9815,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="228" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" ht="224" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
         <v>81</v>
       </c>
@@ -9859,7 +9870,7 @@
       <c r="T83" s="74"/>
       <c r="U83" s="32"/>
     </row>
-    <row r="84" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
         <v>82</v>
       </c>
@@ -9912,7 +9923,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
         <v>83</v>
       </c>
@@ -9963,7 +9974,7 @@
       <c r="R85" s="5"/>
       <c r="S85" s="32"/>
     </row>
-    <row r="86" spans="1:21" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" ht="140" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
         <v>84</v>
       </c>
@@ -10016,7 +10027,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="87" spans="1:21" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" ht="168" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
         <v>85</v>
       </c>
@@ -10061,9 +10072,11 @@
       <c r="P87" s="5"/>
       <c r="Q87" s="33"/>
       <c r="R87" s="5"/>
-      <c r="S87" s="32"/>
-    </row>
-    <row r="88" spans="1:21" ht="228" x14ac:dyDescent="0.25">
+      <c r="S87" s="32" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" ht="210" x14ac:dyDescent="0.35">
       <c r="A88" s="5">
         <v>86</v>
       </c>
@@ -10108,9 +10121,11 @@
       <c r="P88" s="5"/>
       <c r="Q88" s="33"/>
       <c r="R88" s="5"/>
-      <c r="S88" s="32"/>
-    </row>
-    <row r="89" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="S88" s="32" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="5">
         <v>87</v>
       </c>
@@ -10157,7 +10172,7 @@
       <c r="R89" s="5"/>
       <c r="S89" s="32"/>
     </row>
-    <row r="90" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="5">
         <v>88</v>
       </c>
@@ -10202,7 +10217,7 @@
       <c r="R90" s="5"/>
       <c r="S90" s="32"/>
     </row>
-    <row r="91" spans="1:21" ht="256.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" ht="238" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="5">
         <v>89</v>
       </c>
@@ -10255,7 +10270,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="92" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="5">
         <v>90</v>
       </c>
@@ -10294,7 +10309,7 @@
       <c r="R92" s="5"/>
       <c r="S92" s="32"/>
     </row>
-    <row r="93" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="5">
         <v>91</v>
       </c>
@@ -10335,7 +10350,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="94" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="5">
         <v>92</v>
       </c>
@@ -10376,7 +10391,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="95" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
         <v>93</v>
       </c>
@@ -10417,7 +10432,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="96" spans="1:21" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" ht="140" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="5">
         <v>94</v>
       </c>
@@ -10456,7 +10471,7 @@
       <c r="R96" s="5"/>
       <c r="S96" s="32"/>
     </row>
-    <row r="97" spans="1:19" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" ht="182" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="5">
         <v>95</v>
       </c>
@@ -10495,7 +10510,7 @@
       <c r="R97" s="5"/>
       <c r="S97" s="32"/>
     </row>
-    <row r="98" spans="1:19" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" ht="126" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="5">
         <v>96</v>
       </c>
@@ -10536,7 +10551,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" ht="406" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="5">
         <v>97</v>
       </c>
@@ -10577,7 +10592,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" ht="406" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="5">
         <v>98</v>
       </c>
@@ -10618,7 +10633,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="5">
         <v>99</v>
       </c>
@@ -10657,7 +10672,7 @@
       <c r="R101" s="5"/>
       <c r="S101" s="32"/>
     </row>
-    <row r="102" spans="1:19" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="5">
         <v>100</v>
       </c>
@@ -10698,7 +10713,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="5">
         <v>101</v>
       </c>
@@ -10739,7 +10754,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" ht="126" x14ac:dyDescent="0.35">
       <c r="A104" s="5">
         <v>102</v>
       </c>
@@ -10763,10 +10778,18 @@
       </c>
       <c r="H104" s="32"/>
       <c r="I104" s="32"/>
-      <c r="J104" s="32"/>
-      <c r="K104" s="32"/>
-      <c r="L104" s="21"/>
-      <c r="M104" s="31"/>
+      <c r="J104" s="32">
+        <v>1</v>
+      </c>
+      <c r="K104" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="L104" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="M104" s="6">
+        <v>43448</v>
+      </c>
       <c r="N104" s="31">
         <v>20</v>
       </c>
@@ -10778,9 +10801,9 @@
       </c>
       <c r="Q104" s="5"/>
       <c r="R104" s="32"/>
-      <c r="S104" s="10"/>
-    </row>
-    <row r="105" spans="1:19" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="S104" s="33"/>
+    </row>
+    <row r="105" spans="1:19" ht="28" x14ac:dyDescent="0.35">
       <c r="A105" s="5">
         <v>103</v>
       </c>
@@ -10788,7 +10811,7 @@
         <v>43447</v>
       </c>
       <c r="C105" s="32" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D105" s="32" t="s">
         <v>36</v>
@@ -10804,19 +10827,35 @@
       </c>
       <c r="H105" s="32"/>
       <c r="I105" s="32"/>
-      <c r="J105" s="32"/>
-      <c r="K105" s="32"/>
-      <c r="L105" s="21"/>
-      <c r="M105" s="31"/>
+      <c r="J105" s="32">
+        <v>1</v>
+      </c>
+      <c r="K105" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="L105" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="M105" s="6">
+        <v>43447</v>
+      </c>
       <c r="N105" s="5"/>
       <c r="O105" s="33"/>
       <c r="P105" s="33"/>
       <c r="Q105" s="5"/>
       <c r="R105" s="32"/>
-      <c r="S105" s="10"/>
+      <c r="S105" s="33" t="s">
+        <v>323</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:S105" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:S105">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="ID Authentication"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:S1"/>
   </mergeCells>
@@ -10826,57 +10865,57 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B6" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B7" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B8" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B9" s="9" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B10" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B11" s="9"/>
     </row>
   </sheetData>
@@ -10886,19 +10925,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="s">
         <v>163</v>
       </c>
@@ -10909,7 +10948,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
         <v>78</v>
       </c>
@@ -10920,7 +10959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="35" t="s">
         <v>36</v>
       </c>
@@ -10931,7 +10970,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="35" t="s">
         <v>136</v>
       </c>
@@ -10942,7 +10981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="35" t="s">
         <v>86</v>
       </c>
@@ -10953,7 +10992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="35" t="s">
         <v>15</v>
       </c>
@@ -10964,7 +11003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
         <v>43</v>
       </c>
@@ -10975,7 +11014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="35" t="s">
         <v>56</v>
       </c>
@@ -10986,7 +11025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="35" t="s">
         <v>164</v>
       </c>
@@ -11004,17 +11043,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="52.140625" customWidth="1"/>
+    <col min="3" max="3" width="52.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="66" t="s">
         <v>234</v>
       </c>
@@ -11022,25 +11061,25 @@
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="68"/>
       <c r="C2" s="69" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="70"/>
       <c r="C3" s="69" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="71"/>
       <c r="C4" s="69" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="72"/>
       <c r="C5" s="73" t="s">
         <v>233</v>
@@ -11053,6 +11092,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -11073,15 +11121,6 @@
     </RatedBy>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11257,6 +11296,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -11268,14 +11315,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
+++ b/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mindtree\Projects\MOSIP\IDA\Code\git-repo\0.8.0-branch1\mosip\docs\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\git-repo\mosip\docs\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A8749267-CAA7-47A6-805B-16DE444A6E39}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MOSIP_Feature_Roadmap" sheetId="5" r:id="rId1"/>
@@ -20,9 +21,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MOSIP_Feature_Roadmap!$A$2:$S$105</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="328">
   <si>
     <t>S.No.</t>
   </si>
@@ -3364,11 +3365,61 @@
   <si>
     <t>Awaiting clarifications for CR #85 and #86</t>
   </si>
+  <si>
+    <t>This should be implemented as per the change description.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Individual's Consent on Data Sharing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>:
+On initiating a new application, before entering the demographic data, MOSIP should provide an explicit option (Recommend a pop-up with check-box to give consent) to the individual to give his/her consent for storing/utilizing the data as appropriate. This consent should be sought for every applicant.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Individual's Consent on Data Sharing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>:
+For every registration, MOSIP should provide an option for the RO to mark an individual's consent. This should be provided on the "Preview" page. The options provided should be: Yes/No. If the RO marks "No" for a specific registration, this should not inhibit issuance of UIN for that individual. Whether the consent is marked as Yes/No should not have any impact on issuance of UIN for that individual and MOSIP should not execute any validations in this regard during packet processing.</t>
+    </r>
+  </si>
+  <si>
+    <t>Query log clarification: Refer email dated 30Jan'19</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
@@ -3939,7 +3990,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -3956,7 +4007,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="MINDTREE" refreshedDate="43448.660082060182" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="64">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="MINDTREE" refreshedDate="43448.660082060182" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="64" xr:uid="{00000000-000A-0000-FFFF-FFFF0F000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A2:S70" sheet="MOSIP_Feature_Roadmap"/>
   </cacheSource>
@@ -5117,7 +5168,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField dataField="1" showAll="0"/>
@@ -5465,40 +5516,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:U105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R104" sqref="R104"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.26953125" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="36.1796875" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.26953125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.453125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.1796875" style="27" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.81640625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="22.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="83.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="20.26953125" style="10"/>
+    <col min="1" max="1" width="8.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="22.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="83.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="20.28515625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="79" t="s">
         <v>236</v>
       </c>
@@ -5521,7 +5571,7 @@
       <c r="R1" s="80"/>
       <c r="S1" s="83"/>
     </row>
-    <row r="2" spans="1:19" ht="42" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
@@ -5580,7 +5630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="4" customFormat="1" ht="182" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" s="4" customFormat="1" ht="228" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -5635,7 +5685,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="4" customFormat="1" ht="182" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" s="4" customFormat="1" ht="228" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -5690,7 +5740,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="4" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" s="4" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -5745,7 +5795,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="4" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" s="4" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -5800,7 +5850,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="4" customFormat="1" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" s="4" customFormat="1" ht="114" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -5855,7 +5905,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="4" customFormat="1" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" s="4" customFormat="1" ht="114" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -5910,7 +5960,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="4" customFormat="1" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" s="4" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -5963,7 +6013,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="4" customFormat="1" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" s="4" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -6016,7 +6066,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="1" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -6067,7 +6117,7 @@
       <c r="R11" s="30"/>
       <c r="S11" s="21"/>
     </row>
-    <row r="12" spans="1:19" s="1" customFormat="1" ht="98" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" s="1" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -6120,7 +6170,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="1" customFormat="1" ht="350" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" s="1" customFormat="1" ht="384.75" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -6171,7 +6221,7 @@
       <c r="R13" s="30"/>
       <c r="S13" s="21"/>
     </row>
-    <row r="14" spans="1:19" s="1" customFormat="1" ht="126" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -6224,7 +6274,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="1" customFormat="1" ht="126" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -6277,7 +6327,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="1" customFormat="1" ht="126" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" s="1" customFormat="1" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -6334,7 +6384,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="1" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" s="1" customFormat="1" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -6391,7 +6441,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="4" customFormat="1" ht="238" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" s="4" customFormat="1" ht="270.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -6448,7 +6498,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="1" customFormat="1" ht="182" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" s="1" customFormat="1" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -6505,7 +6555,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:19" s="4" customFormat="1" ht="154" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" s="4" customFormat="1" ht="171" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -6562,7 +6612,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="1" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -6605,7 +6655,7 @@
       <c r="R21" s="30"/>
       <c r="S21" s="21"/>
     </row>
-    <row r="22" spans="1:19" s="4" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -6648,7 +6698,7 @@
       <c r="R22" s="30"/>
       <c r="S22" s="21"/>
     </row>
-    <row r="23" spans="1:19" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -6701,7 +6751,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -6754,7 +6804,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>23</v>
       </c>
@@ -6811,7 +6861,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -6856,7 +6906,7 @@
       <c r="R26" s="30"/>
       <c r="S26" s="21"/>
     </row>
-    <row r="27" spans="1:19" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>25</v>
       </c>
@@ -6901,7 +6951,7 @@
       <c r="R27" s="30"/>
       <c r="S27" s="21"/>
     </row>
-    <row r="28" spans="1:19" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -6954,7 +7004,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>27</v>
       </c>
@@ -7007,7 +7057,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -7052,7 +7102,7 @@
       <c r="R30" s="30"/>
       <c r="S30" s="21"/>
     </row>
-    <row r="31" spans="1:19" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>29</v>
       </c>
@@ -7105,7 +7155,7 @@
       <c r="R31" s="30"/>
       <c r="S31" s="14"/>
     </row>
-    <row r="32" spans="1:19" ht="126" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -7162,7 +7212,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>31</v>
       </c>
@@ -7215,7 +7265,7 @@
       <c r="R33" s="30"/>
       <c r="S33" s="32"/>
     </row>
-    <row r="34" spans="1:19" s="8" customFormat="1" ht="126" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" s="8" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>32</v>
       </c>
@@ -7268,7 +7318,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:19" s="8" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" s="8" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>33</v>
       </c>
@@ -7321,7 +7371,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>34</v>
       </c>
@@ -7372,7 +7422,7 @@
       <c r="R36" s="30"/>
       <c r="S36" s="14"/>
     </row>
-    <row r="37" spans="1:19" ht="182" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" ht="199.5" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>35</v>
       </c>
@@ -7427,7 +7477,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="126" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>36</v>
       </c>
@@ -7482,7 +7532,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="224" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" ht="242.25" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>37</v>
       </c>
@@ -7537,7 +7587,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="126" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>38</v>
       </c>
@@ -7592,7 +7642,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>39</v>
       </c>
@@ -7639,7 +7689,7 @@
       <c r="R41" s="30"/>
       <c r="S41" s="32"/>
     </row>
-    <row r="42" spans="1:19" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" ht="57" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>40</v>
       </c>
@@ -7681,7 +7731,7 @@
         <v>156</v>
       </c>
       <c r="O42" s="30">
-        <f t="shared" ref="O13:O60" si="0">N42*1.5</f>
+        <f t="shared" ref="O42:O60" si="0">N42*1.5</f>
         <v>0</v>
       </c>
       <c r="P42" s="30" t="s">
@@ -7691,7 +7741,7 @@
       <c r="R42" s="30"/>
       <c r="S42" s="32"/>
     </row>
-    <row r="43" spans="1:19" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>41</v>
       </c>
@@ -7743,7 +7793,7 @@
       <c r="R43" s="30"/>
       <c r="S43" s="32"/>
     </row>
-    <row r="44" spans="1:19" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>42</v>
       </c>
@@ -7795,7 +7845,7 @@
       <c r="R44" s="30"/>
       <c r="S44" s="32"/>
     </row>
-    <row r="45" spans="1:19" ht="322" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" ht="327.75" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>43</v>
       </c>
@@ -7850,7 +7900,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>44</v>
       </c>
@@ -7903,7 +7953,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>45</v>
       </c>
@@ -7960,7 +8010,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>46</v>
       </c>
@@ -8017,7 +8067,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>47</v>
       </c>
@@ -8062,7 +8112,7 @@
       <c r="R49" s="30"/>
       <c r="S49" s="32"/>
     </row>
-    <row r="50" spans="1:19" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" ht="57" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>48</v>
       </c>
@@ -8119,7 +8169,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="56" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" ht="57" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>49</v>
       </c>
@@ -8174,7 +8224,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>50</v>
       </c>
@@ -8226,7 +8276,7 @@
       <c r="R52" s="30"/>
       <c r="S52" s="32"/>
     </row>
-    <row r="53" spans="1:19" ht="224" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" ht="256.5" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>51</v>
       </c>
@@ -8271,7 +8321,7 @@
       <c r="R53" s="30"/>
       <c r="S53" s="32"/>
     </row>
-    <row r="54" spans="1:19" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>52</v>
       </c>
@@ -8324,7 +8374,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" ht="57" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>53</v>
       </c>
@@ -8369,7 +8419,7 @@
       <c r="R55" s="30"/>
       <c r="S55" s="32"/>
     </row>
-    <row r="56" spans="1:19" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" ht="57" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>54</v>
       </c>
@@ -8421,7 +8471,7 @@
       <c r="R56" s="30"/>
       <c r="S56" s="32"/>
     </row>
-    <row r="57" spans="1:19" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>55</v>
       </c>
@@ -8474,7 +8524,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" ht="57" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>56</v>
       </c>
@@ -8527,7 +8577,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>57</v>
       </c>
@@ -8579,7 +8629,7 @@
       <c r="R59" s="30"/>
       <c r="S59" s="32"/>
     </row>
-    <row r="60" spans="1:19" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>58</v>
       </c>
@@ -8631,7 +8681,7 @@
       <c r="R60" s="30"/>
       <c r="S60" s="32"/>
     </row>
-    <row r="61" spans="1:19" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:19" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>59</v>
       </c>
@@ -8684,7 +8734,7 @@
       <c r="R61" s="30"/>
       <c r="S61" s="32"/>
     </row>
-    <row r="62" spans="1:19" ht="56" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:19" ht="57" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>60</v>
       </c>
@@ -8739,7 +8789,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:19" ht="57" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>61</v>
       </c>
@@ -8796,7 +8846,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" ht="114" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>62</v>
       </c>
@@ -8843,7 +8893,7 @@
       <c r="R64" s="33"/>
       <c r="S64" s="32"/>
     </row>
-    <row r="65" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:21" ht="57" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>63</v>
       </c>
@@ -8890,7 +8940,7 @@
       <c r="R65" s="33"/>
       <c r="S65" s="32"/>
     </row>
-    <row r="66" spans="1:21" ht="280" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:21" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>64</v>
       </c>
@@ -8945,7 +8995,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="67" spans="1:21" ht="154" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:21" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>65</v>
       </c>
@@ -8998,7 +9048,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="154" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:21" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>66</v>
       </c>
@@ -9053,7 +9103,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="350" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:21" ht="370.5" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>67</v>
       </c>
@@ -9106,7 +9156,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>68</v>
       </c>
@@ -9157,7 +9207,7 @@
       <c r="R70" s="5"/>
       <c r="S70" s="32"/>
     </row>
-    <row r="71" spans="1:21" ht="154" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:21" ht="171" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>69</v>
       </c>
@@ -9210,7 +9260,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="182" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:21" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>70</v>
       </c>
@@ -9267,7 +9317,7 @@
       <c r="T72" s="5"/>
       <c r="U72" s="32"/>
     </row>
-    <row r="73" spans="1:21" ht="196" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:21" ht="199.5" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>71</v>
       </c>
@@ -9320,7 +9370,7 @@
       <c r="T73" s="39"/>
       <c r="U73" s="28"/>
     </row>
-    <row r="74" spans="1:21" ht="126" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:21" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>72</v>
       </c>
@@ -9373,7 +9423,7 @@
       <c r="T74" s="5"/>
       <c r="U74" s="32"/>
     </row>
-    <row r="75" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:21" ht="57" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>73</v>
       </c>
@@ -9430,7 +9480,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="76" spans="1:21" ht="182" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:21" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>74</v>
       </c>
@@ -9487,7 +9537,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="77" spans="1:21" ht="196" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:21" ht="213.75" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>75</v>
       </c>
@@ -9542,7 +9592,7 @@
       <c r="T77" s="5"/>
       <c r="U77" s="32"/>
     </row>
-    <row r="78" spans="1:21" ht="154" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:21" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>76</v>
       </c>
@@ -9595,7 +9645,7 @@
       <c r="T78" s="5"/>
       <c r="U78" s="32"/>
     </row>
-    <row r="79" spans="1:21" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>77</v>
       </c>
@@ -9650,7 +9700,7 @@
       <c r="T79" s="5"/>
       <c r="U79" s="32"/>
     </row>
-    <row r="80" spans="1:21" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>78</v>
       </c>
@@ -9703,7 +9753,7 @@
       <c r="T80" s="74"/>
       <c r="U80" s="32"/>
     </row>
-    <row r="81" spans="1:21" ht="224" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:21" ht="228" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>79</v>
       </c>
@@ -9758,7 +9808,7 @@
       <c r="T81" s="74"/>
       <c r="U81" s="32"/>
     </row>
-    <row r="82" spans="1:21" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:21" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>80</v>
       </c>
@@ -9815,7 +9865,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="224" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:21" ht="228" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>81</v>
       </c>
@@ -9870,7 +9920,7 @@
       <c r="T83" s="74"/>
       <c r="U83" s="32"/>
     </row>
-    <row r="84" spans="1:21" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>82</v>
       </c>
@@ -9923,7 +9973,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>83</v>
       </c>
@@ -9974,7 +10024,7 @@
       <c r="R85" s="5"/>
       <c r="S85" s="32"/>
     </row>
-    <row r="86" spans="1:21" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:21" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>84</v>
       </c>
@@ -10027,7 +10077,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="87" spans="1:21" ht="168" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:21" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>85</v>
       </c>
@@ -10076,7 +10126,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="210" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:21" ht="228" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>86</v>
       </c>
@@ -10125,7 +10175,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>87</v>
       </c>
@@ -10172,7 +10222,7 @@
       <c r="R89" s="5"/>
       <c r="S89" s="32"/>
     </row>
-    <row r="90" spans="1:21" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>88</v>
       </c>
@@ -10217,7 +10267,7 @@
       <c r="R90" s="5"/>
       <c r="S90" s="32"/>
     </row>
-    <row r="91" spans="1:21" ht="238" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:21" ht="256.5" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>89</v>
       </c>
@@ -10270,7 +10320,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="92" spans="1:21" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>90</v>
       </c>
@@ -10309,7 +10359,7 @@
       <c r="R92" s="5"/>
       <c r="S92" s="32"/>
     </row>
-    <row r="93" spans="1:21" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>91</v>
       </c>
@@ -10350,7 +10400,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="94" spans="1:21" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>92</v>
       </c>
@@ -10391,7 +10441,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="95" spans="1:21" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>93</v>
       </c>
@@ -10432,7 +10482,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="96" spans="1:21" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:21" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>94</v>
       </c>
@@ -10471,7 +10521,7 @@
       <c r="R96" s="5"/>
       <c r="S96" s="32"/>
     </row>
-    <row r="97" spans="1:19" ht="182" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:19" ht="213.75" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>95</v>
       </c>
@@ -10510,7 +10560,7 @@
       <c r="R97" s="5"/>
       <c r="S97" s="32"/>
     </row>
-    <row r="98" spans="1:19" ht="126" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:19" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>96</v>
       </c>
@@ -10551,7 +10601,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="406" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>97</v>
       </c>
@@ -10592,7 +10642,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="406" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>98</v>
       </c>
@@ -10633,7 +10683,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:19" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>99</v>
       </c>
@@ -10672,7 +10722,7 @@
       <c r="R101" s="5"/>
       <c r="S101" s="32"/>
     </row>
-    <row r="102" spans="1:19" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:19" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>100</v>
       </c>
@@ -10713,7 +10763,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:19" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>101</v>
       </c>
@@ -10754,7 +10804,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="126" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:19" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>102</v>
       </c>
@@ -10803,7 +10853,7 @@
       <c r="R104" s="32"/>
       <c r="S104" s="33"/>
     </row>
-    <row r="105" spans="1:19" ht="28" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:19" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>103</v>
       </c>
@@ -10848,14 +10898,98 @@
         <v>323</v>
       </c>
     </row>
+    <row r="106" spans="1:19" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="5">
+        <v>104</v>
+      </c>
+      <c r="B106" s="6">
+        <v>43495</v>
+      </c>
+      <c r="C106" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="D106" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="E106" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F106" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="G106" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H106" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="I106" s="32"/>
+      <c r="J106" s="32">
+        <v>1</v>
+      </c>
+      <c r="K106" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="L106" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="M106" s="21">
+        <v>43495</v>
+      </c>
+      <c r="N106" s="31"/>
+      <c r="O106" s="5"/>
+      <c r="P106" s="5"/>
+      <c r="Q106" s="33"/>
+      <c r="R106" s="5"/>
+      <c r="S106" s="32"/>
+    </row>
+    <row r="107" spans="1:19" ht="156.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="5">
+        <v>105</v>
+      </c>
+      <c r="B107" s="6">
+        <v>43495</v>
+      </c>
+      <c r="C107" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="D107" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F107" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="G107" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H107" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="I107" s="32"/>
+      <c r="J107" s="32">
+        <v>1</v>
+      </c>
+      <c r="K107" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="L107" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="M107" s="21">
+        <v>43495</v>
+      </c>
+      <c r="N107" s="31"/>
+      <c r="O107" s="5"/>
+      <c r="P107" s="5"/>
+      <c r="Q107" s="33"/>
+      <c r="R107" s="5"/>
+      <c r="S107" s="32"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:S105">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="ID Authentication"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:S105" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:S1"/>
   </mergeCells>
@@ -10865,57 +10999,57 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
     </row>
   </sheetData>
@@ -10925,19 +11059,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>163</v>
       </c>
@@ -10948,7 +11082,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>78</v>
       </c>
@@ -10959,7 +11093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>36</v>
       </c>
@@ -10970,7 +11104,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>136</v>
       </c>
@@ -10981,7 +11115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>86</v>
       </c>
@@ -10992,7 +11126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>15</v>
       </c>
@@ -11003,7 +11137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>43</v>
       </c>
@@ -11014,7 +11148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>56</v>
       </c>
@@ -11025,7 +11159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>164</v>
       </c>
@@ -11043,17 +11177,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="52.1796875" customWidth="1"/>
+    <col min="3" max="3" width="52.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="66" t="s">
         <v>234</v>
       </c>
@@ -11061,25 +11195,25 @@
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="68"/>
       <c r="C2" s="69" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="70"/>
       <c r="C3" s="69" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="71"/>
       <c r="C4" s="69" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="72"/>
       <c r="C5" s="73" t="s">
         <v>233</v>
@@ -11092,15 +11226,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -11121,6 +11246,15 @@
     </RatedBy>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11296,14 +11430,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -11315,6 +11441,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
+++ b/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\Desktop\PROJECTS\MOSIP\UX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1002694\Documents\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BE170024-1E19-447F-AD03-721BCA697AE6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFB5E03-DD4E-4948-B3E2-2CAD726D1BF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2655" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MOSIP_Feature_Roadmap" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MOSIP_Feature_Roadmap!$A$2:$U$120</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
@@ -30,12 +30,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="468">
   <si>
     <t>S.No.</t>
   </si>
@@ -4736,10 +4741,6 @@
 </t>
   </si>
   <si>
-    <t>Via Registration Client software, Collection of Persons Demographic &amp; Biometric Data, performing a Dedupe and identify the Duplicate and proceed to issue of letter. 
-• At the back end - as first step use the demographic data as filter and then perform a biometric dedupe with the limited set of records, in case of unsuccessful match ignore the demographic data and perform a complete biometric dedupe to identify the duplicate.</t>
-  </si>
-  <si>
     <t>Discussion with Shrikant, Ramesh and Sasi - 04-Mar-19</t>
   </si>
   <si>
@@ -4749,6 +4750,32 @@
   </si>
   <si>
     <t>E-mail from Shrikant dated 05-Mar-19</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lost UIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>:
+Via Registration Client software, Collection of Persons Demographic &amp; Biometric Data, performing a Dedupe and identify the Duplicate and proceed to issue of letter. 
+• At the back end - as first step use the demographic data as filter and then perform a biometric dedupe with the limited set of records, in case of unsuccessful match ignore the demographic data and perform a complete biometric dedupe to identify the duplicate.</t>
+    </r>
+  </si>
+  <si>
+    <t>MOS-17830</t>
   </si>
 </sst>
 </file>
@@ -6917,37 +6944,37 @@
   <dimension ref="A1:W125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A126" sqref="A126"/>
+      <pane ySplit="2" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.44140625" defaultRowHeight="13.8" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="3" customWidth="1"/>
     <col min="7" max="7" width="49" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="16" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="28.42578125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="38.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="16" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="28.44140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="38.44140625" style="3" customWidth="1"/>
     <col min="11" max="11" width="24" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="11.140625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="22.85546875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.140625" style="27" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.85546875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="22.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="83.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="20.42578125" style="10"/>
+    <col min="12" max="12" width="11.109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="22.88671875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.109375" style="27" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.88671875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="22.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="83.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="20.44140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="90" t="s">
         <v>210</v>
       </c>
@@ -6972,7 +6999,7 @@
       <c r="T1" s="92"/>
       <c r="U1" s="94"/>
     </row>
-    <row r="2" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
@@ -7037,7 +7064,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" s="4" customFormat="1" ht="138" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -7099,7 +7126,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="4" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" s="4" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -7160,7 +7187,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="4" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -7222,7 +7249,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="4" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" s="4" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -7284,7 +7311,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="4" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" s="4" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -7346,7 +7373,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="4" customFormat="1" ht="171" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" s="4" customFormat="1" ht="138" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -7408,7 +7435,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="4" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" s="4" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -7468,7 +7495,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="4" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -7528,7 +7555,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -7582,7 +7609,7 @@
       <c r="T11" s="30"/>
       <c r="U11" s="21"/>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -7639,7 +7666,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1" ht="285" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" s="1" customFormat="1" ht="276" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -7690,7 +7717,7 @@
       <c r="T13" s="30"/>
       <c r="U13" s="21"/>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -7750,7 +7777,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -7812,7 +7839,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" s="1" customFormat="1" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -7874,7 +7901,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="4" customFormat="1" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" s="4" customFormat="1" ht="207" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -7936,7 +7963,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" s="1" customFormat="1" ht="138" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -7996,7 +8023,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="4" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -8058,7 +8085,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -8106,7 +8133,7 @@
       <c r="T20" s="30"/>
       <c r="U20" s="21"/>
     </row>
-    <row r="21" spans="1:21" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" s="4" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -8154,7 +8181,7 @@
       <c r="T21" s="30"/>
       <c r="U21" s="21"/>
     </row>
-    <row r="22" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -8214,7 +8241,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -8272,7 +8299,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="114" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -8334,7 +8361,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="69" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -8384,7 +8411,7 @@
       <c r="T25" s="30"/>
       <c r="U25" s="21"/>
     </row>
-    <row r="26" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -8434,7 +8461,7 @@
       <c r="T26" s="30"/>
       <c r="U26" s="21"/>
     </row>
-    <row r="27" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -8492,7 +8519,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="69" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -8552,7 +8579,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="69" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -8602,7 +8629,7 @@
       <c r="T29" s="30"/>
       <c r="U29" s="21"/>
     </row>
-    <row r="30" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="69" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -8658,7 +8685,7 @@
       <c r="T30" s="30"/>
       <c r="U30" s="14"/>
     </row>
-    <row r="31" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -8720,7 +8747,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -8778,7 +8805,7 @@
       <c r="T32" s="30"/>
       <c r="U32" s="32"/>
     </row>
-    <row r="33" spans="1:21" s="8" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" s="8" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -8836,7 +8863,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="8" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" s="8" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -8898,7 +8925,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -8953,7 +8980,7 @@
       <c r="T35" s="30"/>
       <c r="U35" s="14"/>
     </row>
-    <row r="36" spans="1:21" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -9017,7 +9044,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="114" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -9081,7 +9108,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="171" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -9145,7 +9172,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -9209,7 +9236,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -9263,7 +9290,7 @@
       <c r="T40" s="30"/>
       <c r="U40" s="32"/>
     </row>
-    <row r="41" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="69" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -9319,7 +9346,7 @@
       <c r="T41" s="30"/>
       <c r="U41" s="32"/>
     </row>
-    <row r="42" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -9373,7 +9400,7 @@
       <c r="T42" s="30"/>
       <c r="U42" s="32"/>
     </row>
-    <row r="43" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -9429,7 +9456,7 @@
       <c r="T43" s="30"/>
       <c r="U43" s="32"/>
     </row>
-    <row r="44" spans="1:21" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="262.2" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -9489,7 +9516,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -9547,7 +9574,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -9609,7 +9636,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="69" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -9671,7 +9698,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="69" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -9721,7 +9748,7 @@
       <c r="T48" s="30"/>
       <c r="U48" s="32"/>
     </row>
-    <row r="49" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -9783,7 +9810,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -9846,7 +9873,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -9900,7 +9927,7 @@
       <c r="T51" s="30"/>
       <c r="U51" s="32"/>
     </row>
-    <row r="52" spans="1:21" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" ht="193.2" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -9950,7 +9977,7 @@
       <c r="T52" s="30"/>
       <c r="U52" s="32"/>
     </row>
-    <row r="53" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -10010,7 +10037,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -10060,7 +10087,7 @@
       <c r="T54" s="30"/>
       <c r="U54" s="32"/>
     </row>
-    <row r="55" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -10114,7 +10141,7 @@
       <c r="T55" s="30"/>
       <c r="U55" s="32"/>
     </row>
-    <row r="56" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -10171,7 +10198,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="69" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>55</v>
       </c>
@@ -10228,7 +10255,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>56</v>
       </c>
@@ -10286,7 +10313,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>57</v>
       </c>
@@ -10340,7 +10367,7 @@
       <c r="T59" s="30"/>
       <c r="U59" s="32"/>
     </row>
-    <row r="60" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>58</v>
       </c>
@@ -10394,7 +10421,7 @@
       <c r="T60" s="30"/>
       <c r="U60" s="32"/>
     </row>
-    <row r="61" spans="1:21" ht="114" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>59</v>
       </c>
@@ -10449,7 +10476,7 @@
       <c r="T61" s="30"/>
       <c r="U61" s="32"/>
     </row>
-    <row r="62" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>60</v>
       </c>
@@ -10512,7 +10539,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>61</v>
       </c>
@@ -10573,7 +10600,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>62</v>
       </c>
@@ -10622,7 +10649,7 @@
       <c r="T64" s="33"/>
       <c r="U64" s="32"/>
     </row>
-    <row r="65" spans="1:23" ht="57" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>63</v>
       </c>
@@ -10671,7 +10698,7 @@
       <c r="T65" s="33"/>
       <c r="U65" s="32"/>
     </row>
-    <row r="66" spans="1:23" ht="228" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" ht="207" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>64</v>
       </c>
@@ -10734,7 +10761,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="114" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>65</v>
       </c>
@@ -10794,7 +10821,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="114" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>66</v>
       </c>
@@ -10853,7 +10880,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="285" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" ht="276" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>67</v>
       </c>
@@ -10911,7 +10938,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="57" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>68</v>
       </c>
@@ -10967,7 +10994,7 @@
       <c r="T70" s="5"/>
       <c r="U70" s="32"/>
     </row>
-    <row r="71" spans="1:23" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>69</v>
       </c>
@@ -11025,7 +11052,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="171" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>70</v>
       </c>
@@ -11086,7 +11113,7 @@
       <c r="V72" s="5"/>
       <c r="W72" s="32"/>
     </row>
-    <row r="73" spans="1:23" ht="171" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>71</v>
       </c>
@@ -11146,7 +11173,7 @@
       <c r="V73" s="39"/>
       <c r="W73" s="28"/>
     </row>
-    <row r="74" spans="1:23" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
         <v>72</v>
       </c>
@@ -11201,7 +11228,7 @@
       <c r="V74" s="5"/>
       <c r="W74" s="32"/>
     </row>
-    <row r="75" spans="1:23" ht="57" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>73</v>
       </c>
@@ -11262,7 +11289,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>74</v>
       </c>
@@ -11323,7 +11350,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" ht="193.2" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>75</v>
       </c>
@@ -11383,7 +11410,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="171" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>75</v>
       </c>
@@ -11445,7 +11472,7 @@
       <c r="V78" s="5"/>
       <c r="W78" s="32"/>
     </row>
-    <row r="79" spans="1:23" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>76</v>
       </c>
@@ -11505,7 +11532,7 @@
       <c r="V79" s="5"/>
       <c r="W79" s="32"/>
     </row>
-    <row r="80" spans="1:23" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>77</v>
       </c>
@@ -11567,7 +11594,7 @@
       <c r="V80" s="5"/>
       <c r="W80" s="32"/>
     </row>
-    <row r="81" spans="1:23" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>78</v>
       </c>
@@ -11627,7 +11654,7 @@
       <c r="V81" s="74"/>
       <c r="W81" s="32"/>
     </row>
-    <row r="82" spans="1:23" ht="171" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
         <v>79</v>
       </c>
@@ -11689,7 +11716,7 @@
       <c r="V82" s="74"/>
       <c r="W82" s="32"/>
     </row>
-    <row r="83" spans="1:23" ht="114" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
         <v>80</v>
       </c>
@@ -11748,7 +11775,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="270.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" ht="248.4" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
         <v>81</v>
       </c>
@@ -11810,7 +11837,7 @@
       <c r="V84" s="74"/>
       <c r="W84" s="32"/>
     </row>
-    <row r="85" spans="1:23" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" ht="69" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
         <v>82</v>
       </c>
@@ -11870,7 +11897,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" ht="69" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>83</v>
       </c>
@@ -11930,7 +11957,7 @@
       <c r="T86" s="5"/>
       <c r="U86" s="32"/>
     </row>
-    <row r="87" spans="1:23" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <v>84</v>
       </c>
@@ -11989,7 +12016,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
         <v>85</v>
       </c>
@@ -12050,7 +12077,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
         <v>86</v>
       </c>
@@ -12105,7 +12132,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
         <v>87</v>
       </c>
@@ -12154,7 +12181,7 @@
       <c r="T90" s="5"/>
       <c r="U90" s="32"/>
     </row>
-    <row r="91" spans="1:23" ht="57" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
         <v>88</v>
       </c>
@@ -12201,7 +12228,7 @@
       <c r="T91" s="5"/>
       <c r="U91" s="32"/>
     </row>
-    <row r="92" spans="1:23" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" ht="193.2" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
         <v>89</v>
       </c>
@@ -12261,7 +12288,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="93" spans="1:23" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
         <v>90</v>
       </c>
@@ -12317,7 +12344,7 @@
       <c r="T93" s="5"/>
       <c r="U93" s="32"/>
     </row>
-    <row r="94" spans="1:23" ht="57" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
         <v>91</v>
       </c>
@@ -12377,7 +12404,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="95" spans="1:23" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" ht="69" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
         <v>92</v>
       </c>
@@ -12437,7 +12464,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="96" spans="1:23" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" ht="69" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
         <v>93</v>
       </c>
@@ -12497,7 +12524,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
         <v>94</v>
       </c>
@@ -12555,7 +12582,7 @@
       <c r="T97" s="5"/>
       <c r="U97" s="32"/>
     </row>
-    <row r="98" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
         <v>95</v>
       </c>
@@ -12604,7 +12631,7 @@
       <c r="T98" s="5"/>
       <c r="U98" s="32"/>
     </row>
-    <row r="99" spans="1:21" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" ht="138" x14ac:dyDescent="0.3">
       <c r="A99" s="5">
         <v>96</v>
       </c>
@@ -12660,7 +12687,7 @@
       <c r="T99" s="5"/>
       <c r="U99" s="32"/>
     </row>
-    <row r="100" spans="1:21" ht="114" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A100" s="5">
         <v>97</v>
       </c>
@@ -12720,7 +12747,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="342" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" ht="317.39999999999998" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
         <v>98</v>
       </c>
@@ -12780,7 +12807,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A102" s="5">
         <v>99</v>
       </c>
@@ -12838,7 +12865,7 @@
       <c r="T102" s="5"/>
       <c r="U102" s="32"/>
     </row>
-    <row r="103" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A103" s="5">
         <v>100</v>
       </c>
@@ -12898,7 +12925,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="104" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A104" s="5">
         <v>101</v>
       </c>
@@ -12958,7 +12985,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A105" s="5">
         <v>102</v>
       </c>
@@ -13017,7 +13044,7 @@
       </c>
       <c r="U105" s="33"/>
     </row>
-    <row r="106" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
         <v>103</v>
       </c>
@@ -13076,7 +13103,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="107" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A107" s="5">
         <v>104</v>
       </c>
@@ -13125,7 +13152,7 @@
       <c r="T107" s="5"/>
       <c r="U107" s="32"/>
     </row>
-    <row r="108" spans="1:21" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A108" s="5">
         <v>105</v>
       </c>
@@ -13184,7 +13211,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="109" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A109" s="5">
         <v>111</v>
       </c>
@@ -13239,7 +13266,7 @@
       </c>
       <c r="U109" s="32"/>
     </row>
-    <row r="110" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A110" s="5">
         <v>112</v>
       </c>
@@ -13294,7 +13321,7 @@
       <c r="T110" s="5"/>
       <c r="U110" s="32"/>
     </row>
-    <row r="111" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A111" s="5">
         <v>113</v>
       </c>
@@ -13351,7 +13378,7 @@
       </c>
       <c r="U111" s="32"/>
     </row>
-    <row r="112" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" ht="69" x14ac:dyDescent="0.3">
       <c r="A112" s="5">
         <v>114</v>
       </c>
@@ -13408,7 +13435,7 @@
       </c>
       <c r="U112" s="32"/>
     </row>
-    <row r="113" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" ht="69" x14ac:dyDescent="0.3">
       <c r="A113" s="5">
         <v>115</v>
       </c>
@@ -13465,7 +13492,7 @@
       </c>
       <c r="U113" s="32"/>
     </row>
-    <row r="114" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A114" s="5">
         <v>116</v>
       </c>
@@ -13522,7 +13549,7 @@
       </c>
       <c r="U114" s="32"/>
     </row>
-    <row r="115" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A115" s="5">
         <v>117</v>
       </c>
@@ -13577,7 +13604,7 @@
       </c>
       <c r="U115" s="32"/>
     </row>
-    <row r="116" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A116" s="5">
         <v>118</v>
       </c>
@@ -13623,7 +13650,7 @@
       </c>
       <c r="U116" s="32"/>
     </row>
-    <row r="117" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A117" s="39">
         <v>119</v>
       </c>
@@ -13671,7 +13698,7 @@
       </c>
       <c r="U117" s="28"/>
     </row>
-    <row r="118" spans="1:21" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" ht="180.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="5">
         <v>120</v>
       </c>
@@ -13716,7 +13743,7 @@
       <c r="T118" s="5"/>
       <c r="U118" s="32"/>
     </row>
-    <row r="119" spans="1:21" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" ht="180.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="5">
         <v>121</v>
       </c>
@@ -13763,7 +13790,7 @@
       <c r="T119" s="5"/>
       <c r="U119" s="32"/>
     </row>
-    <row r="120" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A120" s="5">
         <f>1+A119</f>
         <v>122</v>
@@ -13809,7 +13836,7 @@
       <c r="T120" s="5"/>
       <c r="U120" s="32"/>
     </row>
-    <row r="121" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A121" s="5">
         <v>123</v>
       </c>
@@ -13852,7 +13879,7 @@
       <c r="T121" s="5"/>
       <c r="U121" s="32"/>
     </row>
-    <row r="122" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" ht="69" x14ac:dyDescent="0.3">
       <c r="A122" s="5">
         <v>124</v>
       </c>
@@ -13895,16 +13922,18 @@
       <c r="T122" s="5"/>
       <c r="U122" s="32"/>
     </row>
-    <row r="123" spans="1:21" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" ht="138" x14ac:dyDescent="0.3">
       <c r="A123" s="5">
         <v>125</v>
       </c>
-      <c r="B123" s="31"/>
+      <c r="B123" s="31" t="s">
+        <v>467</v>
+      </c>
       <c r="C123" s="6">
         <v>43528</v>
       </c>
       <c r="D123" s="32" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E123" s="32" t="s">
         <v>15</v>
@@ -13913,7 +13942,7 @@
         <v>26</v>
       </c>
       <c r="G123" s="32" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="H123" s="14"/>
       <c r="I123" s="32"/>
@@ -13938,7 +13967,7 @@
       <c r="T123" s="5"/>
       <c r="U123" s="32"/>
     </row>
-    <row r="124" spans="1:21" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" ht="138" x14ac:dyDescent="0.3">
       <c r="A124" s="5">
         <v>126</v>
       </c>
@@ -13947,7 +13976,7 @@
         <v>43528</v>
       </c>
       <c r="D124" s="32" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E124" s="32" t="s">
         <v>39</v>
@@ -13956,7 +13985,7 @@
         <v>26</v>
       </c>
       <c r="G124" s="32" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="H124" s="14"/>
       <c r="I124" s="32"/>
@@ -13981,7 +14010,7 @@
       <c r="T124" s="5"/>
       <c r="U124" s="32"/>
     </row>
-    <row r="125" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A125" s="5">
         <v>127</v>
       </c>
@@ -13990,7 +14019,7 @@
         <v>43529</v>
       </c>
       <c r="D125" s="32" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E125" s="32" t="s">
         <v>80</v>
@@ -13999,7 +14028,7 @@
         <v>26</v>
       </c>
       <c r="G125" s="32" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I125" s="32"/>
       <c r="J125" s="32"/>
@@ -14038,52 +14067,52 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" s="9"/>
     </row>
   </sheetData>
@@ -14098,14 +14127,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
         <v>145</v>
       </c>
@@ -14116,7 +14145,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>72</v>
       </c>
@@ -14127,7 +14156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
         <v>32</v>
       </c>
@@ -14138,7 +14167,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="35" t="s">
         <v>125</v>
       </c>
@@ -14149,7 +14178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
         <v>80</v>
       </c>
@@ -14160,7 +14189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
         <v>15</v>
       </c>
@@ -14171,7 +14200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
         <v>39</v>
       </c>
@@ -14182,7 +14211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
         <v>52</v>
       </c>
@@ -14193,7 +14222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
         <v>146</v>
       </c>
@@ -14216,12 +14245,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="52.140625" customWidth="1"/>
+    <col min="3" max="3" width="52.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="66" t="s">
         <v>208</v>
       </c>
@@ -14229,25 +14258,25 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" ht="30.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="68"/>
       <c r="C2" s="69" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" ht="30.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="70"/>
       <c r="C3" s="69" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" ht="30.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="71"/>
       <c r="C4" s="69" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" ht="30.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="72"/>
       <c r="C5" s="73" t="s">
         <v>207</v>
@@ -14260,6 +14289,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -14280,15 +14318,6 @@
     </RatedBy>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14464,6 +14493,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -14475,14 +14512,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
+++ b/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\Desktop\PROJECTS\MOSIP\UX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Documents\GitHub\mosip\docs\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{071F47CA-10F4-44D3-82C1-29CA5DB0E887}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680"/>
   </bookViews>
   <sheets>
     <sheet name="MOSIP_Feature_Roadmap" sheetId="5" r:id="rId1"/>
@@ -19,9 +18,9 @@
     <sheet name="Status Legends" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MOSIP_Feature_Roadmap!$A$2:$U$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MOSIP_Feature_Roadmap!$A$2:$U$126</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="472">
   <si>
     <t>S.No.</t>
   </si>
@@ -4818,11 +4817,14 @@
 a. Ability to capture Proof of Consent</t>
     </r>
   </si>
+  <si>
+    <t>MOS-9712</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
@@ -5410,6 +5412,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5424,9 +5429,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5458,7 +5460,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -5475,7 +5477,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="MINDTREE" refreshedDate="43448.660082060182" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="64" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="MINDTREE" refreshedDate="43448.660082060182" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="64">
   <cacheSource type="worksheet">
     <worksheetSource ref="A2:U70" sheet="MOSIP_Feature_Roadmap"/>
   </cacheSource>
@@ -6636,7 +6638,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField dataField="1" showAll="0"/>
@@ -6984,66 +6986,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A127" sqref="A127"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.1796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="25.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="3" customWidth="1"/>
     <col min="7" max="7" width="49" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="16" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="28.42578125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="38.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" style="16" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="28.453125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="38.453125" style="3" customWidth="1"/>
     <col min="11" max="11" width="24" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="11.140625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="22.85546875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.140625" style="27" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.85546875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="22.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="83.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="20.42578125" style="10"/>
+    <col min="12" max="12" width="11.1796875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="22.81640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="12.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.1796875" style="27" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="17.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.81640625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="22.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="83.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="20.453125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="91" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="94"/>
-    </row>
-    <row r="2" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="92"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="95"/>
+    </row>
+    <row r="2" spans="1:21" ht="42" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
@@ -7108,7 +7110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" s="4" customFormat="1" ht="140" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -7170,7 +7172,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="4" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" s="4" customFormat="1" ht="154" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -7231,7 +7233,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="4" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -7293,7 +7295,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="4" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" s="4" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -7355,7 +7357,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="4" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" s="4" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -7417,7 +7419,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="4" customFormat="1" ht="171" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" s="4" customFormat="1" ht="140" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -7479,7 +7481,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="4" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" s="4" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -7539,7 +7541,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="4" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" s="4" customFormat="1" ht="98" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -7599,7 +7601,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -7653,7 +7655,7 @@
       <c r="T11" s="30"/>
       <c r="U11" s="21"/>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -7710,7 +7712,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1" ht="285" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" s="1" customFormat="1" ht="280" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -7761,7 +7763,7 @@
       <c r="T13" s="30"/>
       <c r="U13" s="21"/>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -7821,7 +7823,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -7883,7 +7885,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" s="1" customFormat="1" ht="182" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -7945,7 +7947,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="4" customFormat="1" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" s="4" customFormat="1" ht="210" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -8007,7 +8009,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" s="1" customFormat="1" ht="140" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -8067,7 +8069,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="4" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -8129,7 +8131,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -8177,7 +8179,7 @@
       <c r="T20" s="30"/>
       <c r="U20" s="21"/>
     </row>
-    <row r="21" spans="1:21" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -8225,7 +8227,7 @@
       <c r="T21" s="30"/>
       <c r="U21" s="21"/>
     </row>
-    <row r="22" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="84" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -8285,7 +8287,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="84" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -8343,7 +8345,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="114" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="112" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -8405,7 +8407,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="70" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -8455,7 +8457,7 @@
       <c r="T25" s="30"/>
       <c r="U25" s="21"/>
     </row>
-    <row r="26" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="84" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -8505,7 +8507,7 @@
       <c r="T26" s="30"/>
       <c r="U26" s="21"/>
     </row>
-    <row r="27" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="84" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -8563,7 +8565,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="70" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -8623,7 +8625,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="70" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -8673,7 +8675,7 @@
       <c r="T29" s="30"/>
       <c r="U29" s="21"/>
     </row>
-    <row r="30" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="70" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -8729,7 +8731,7 @@
       <c r="T30" s="30"/>
       <c r="U30" s="14"/>
     </row>
-    <row r="31" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="98" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -8791,7 +8793,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="56" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -8849,7 +8851,7 @@
       <c r="T32" s="30"/>
       <c r="U32" s="32"/>
     </row>
-    <row r="33" spans="1:21" s="8" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" s="8" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -8907,7 +8909,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="8" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" s="8" customFormat="1" ht="112" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -8969,7 +8971,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="84" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -9024,7 +9026,7 @@
       <c r="T35" s="30"/>
       <c r="U35" s="14"/>
     </row>
-    <row r="36" spans="1:21" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="182" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -9088,7 +9090,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="114" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="112" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -9152,7 +9154,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="171" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="168" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -9216,7 +9218,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="98" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -9280,7 +9282,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="42" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -9334,7 +9336,7 @@
       <c r="T40" s="30"/>
       <c r="U40" s="32"/>
     </row>
-    <row r="41" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="70" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -9390,7 +9392,7 @@
       <c r="T41" s="30"/>
       <c r="U41" s="32"/>
     </row>
-    <row r="42" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="42" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -9444,7 +9446,7 @@
       <c r="T42" s="30"/>
       <c r="U42" s="32"/>
     </row>
-    <row r="43" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="56" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -9500,7 +9502,7 @@
       <c r="T43" s="30"/>
       <c r="U43" s="32"/>
     </row>
-    <row r="44" spans="1:21" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="280" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -9560,7 +9562,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="112" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -9618,7 +9620,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="42" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -9680,7 +9682,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="70" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -9742,7 +9744,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="70" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -9792,7 +9794,7 @@
       <c r="T48" s="30"/>
       <c r="U48" s="32"/>
     </row>
-    <row r="49" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="42" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -9854,7 +9856,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="84" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -9917,7 +9919,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" ht="56" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -9971,7 +9973,7 @@
       <c r="T51" s="30"/>
       <c r="U51" s="32"/>
     </row>
-    <row r="52" spans="1:21" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" ht="196" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -10021,7 +10023,7 @@
       <c r="T52" s="30"/>
       <c r="U52" s="32"/>
     </row>
-    <row r="53" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" ht="56" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -10081,7 +10083,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="42" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -10131,7 +10133,7 @@
       <c r="T54" s="30"/>
       <c r="U54" s="32"/>
     </row>
-    <row r="55" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" ht="56" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -10185,7 +10187,7 @@
       <c r="T55" s="30"/>
       <c r="U55" s="32"/>
     </row>
-    <row r="56" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" ht="84" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -10242,7 +10244,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="70" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>55</v>
       </c>
@@ -10299,7 +10301,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" ht="42" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>56</v>
       </c>
@@ -10357,7 +10359,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" ht="56" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>57</v>
       </c>
@@ -10411,7 +10413,7 @@
       <c r="T59" s="30"/>
       <c r="U59" s="32"/>
     </row>
-    <row r="60" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" ht="84" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>58</v>
       </c>
@@ -10465,11 +10467,13 @@
       <c r="T60" s="30"/>
       <c r="U60" s="32"/>
     </row>
-    <row r="61" spans="1:21" ht="114" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" ht="98" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>59</v>
       </c>
-      <c r="B61" s="5"/>
+      <c r="B61" s="14" t="s">
+        <v>471</v>
+      </c>
       <c r="C61" s="6">
         <v>43432</v>
       </c>
@@ -10520,7 +10524,7 @@
       <c r="T61" s="30"/>
       <c r="U61" s="32"/>
     </row>
-    <row r="62" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" ht="42" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <v>60</v>
       </c>
@@ -10583,7 +10587,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" ht="56" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>61</v>
       </c>
@@ -10644,11 +10648,13 @@
         <v>201</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" ht="98" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>62</v>
       </c>
-      <c r="B64" s="5"/>
+      <c r="B64" s="5" t="s">
+        <v>157</v>
+      </c>
       <c r="C64" s="6">
         <v>43432</v>
       </c>
@@ -10693,11 +10699,13 @@
       <c r="T64" s="33"/>
       <c r="U64" s="32"/>
     </row>
-    <row r="65" spans="1:23" ht="57" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" ht="42" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>63</v>
       </c>
-      <c r="B65" s="5"/>
+      <c r="B65" s="5" t="s">
+        <v>157</v>
+      </c>
       <c r="C65" s="6">
         <v>43432</v>
       </c>
@@ -10742,7 +10750,7 @@
       <c r="T65" s="33"/>
       <c r="U65" s="32"/>
     </row>
-    <row r="66" spans="1:23" ht="228" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" ht="210" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>64</v>
       </c>
@@ -10805,7 +10813,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="114" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" ht="112" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>65</v>
       </c>
@@ -10865,7 +10873,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="114" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" ht="112" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <v>66</v>
       </c>
@@ -10924,7 +10932,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="285" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" ht="280" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>67</v>
       </c>
@@ -10982,7 +10990,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="57" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" ht="56" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <v>68</v>
       </c>
@@ -11038,7 +11046,7 @@
       <c r="T70" s="5"/>
       <c r="U70" s="32"/>
     </row>
-    <row r="71" spans="1:23" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" ht="126" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>69</v>
       </c>
@@ -11096,7 +11104,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="171" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" ht="168" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
         <v>70</v>
       </c>
@@ -11157,7 +11165,7 @@
       <c r="V72" s="5"/>
       <c r="W72" s="32"/>
     </row>
-    <row r="73" spans="1:23" ht="171" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" ht="168" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
         <v>71</v>
       </c>
@@ -11217,7 +11225,7 @@
       <c r="V73" s="39"/>
       <c r="W73" s="28"/>
     </row>
-    <row r="74" spans="1:23" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" ht="98" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
         <v>72</v>
       </c>
@@ -11272,7 +11280,7 @@
       <c r="V74" s="5"/>
       <c r="W74" s="32"/>
     </row>
-    <row r="75" spans="1:23" ht="57" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" ht="56" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
         <v>73</v>
       </c>
@@ -11333,7 +11341,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" ht="154" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
         <v>74</v>
       </c>
@@ -11394,7 +11402,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" ht="196" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
         <v>75</v>
       </c>
@@ -11454,7 +11462,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" ht="168" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
         <v>75</v>
       </c>
@@ -11516,7 +11524,7 @@
       <c r="V78" s="5"/>
       <c r="W78" s="32"/>
     </row>
-    <row r="79" spans="1:23" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" ht="126" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
         <v>76</v>
       </c>
@@ -11576,7 +11584,7 @@
       <c r="V79" s="5"/>
       <c r="W79" s="32"/>
     </row>
-    <row r="80" spans="1:23" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" ht="126" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
         <v>77</v>
       </c>
@@ -11638,7 +11646,7 @@
       <c r="V80" s="5"/>
       <c r="W80" s="32"/>
     </row>
-    <row r="81" spans="1:23" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" ht="84" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
         <v>78</v>
       </c>
@@ -11698,7 +11706,7 @@
       <c r="V81" s="74"/>
       <c r="W81" s="32"/>
     </row>
-    <row r="82" spans="1:23" ht="171" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" ht="168" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
         <v>79</v>
       </c>
@@ -11760,7 +11768,7 @@
       <c r="V82" s="74"/>
       <c r="W82" s="32"/>
     </row>
-    <row r="83" spans="1:23" ht="114" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" ht="112" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
         <v>80</v>
       </c>
@@ -11819,7 +11827,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="270.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" ht="252" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
         <v>81</v>
       </c>
@@ -11881,7 +11889,7 @@
       <c r="V84" s="74"/>
       <c r="W84" s="32"/>
     </row>
-    <row r="85" spans="1:23" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" ht="70" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
         <v>82</v>
       </c>
@@ -11941,7 +11949,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" ht="70" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
         <v>83</v>
       </c>
@@ -12001,7 +12009,7 @@
       <c r="T86" s="5"/>
       <c r="U86" s="32"/>
     </row>
-    <row r="87" spans="1:23" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" ht="126" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
         <v>84</v>
       </c>
@@ -12060,7 +12068,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" ht="126" x14ac:dyDescent="0.35">
       <c r="A88" s="5">
         <v>85</v>
       </c>
@@ -12121,7 +12129,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" ht="168" x14ac:dyDescent="0.35">
       <c r="A89" s="5">
         <v>86</v>
       </c>
@@ -12176,7 +12184,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" ht="84" x14ac:dyDescent="0.35">
       <c r="A90" s="5">
         <v>87</v>
       </c>
@@ -12225,7 +12233,7 @@
       <c r="T90" s="5"/>
       <c r="U90" s="32"/>
     </row>
-    <row r="91" spans="1:23" ht="57" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" ht="56" x14ac:dyDescent="0.35">
       <c r="A91" s="5">
         <v>88</v>
       </c>
@@ -12272,7 +12280,7 @@
       <c r="T91" s="5"/>
       <c r="U91" s="32"/>
     </row>
-    <row r="92" spans="1:23" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" ht="196" x14ac:dyDescent="0.35">
       <c r="A92" s="5">
         <v>89</v>
       </c>
@@ -12332,7 +12340,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="93" spans="1:23" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" ht="42" x14ac:dyDescent="0.35">
       <c r="A93" s="5">
         <v>90</v>
       </c>
@@ -12388,7 +12396,7 @@
       <c r="T93" s="5"/>
       <c r="U93" s="32"/>
     </row>
-    <row r="94" spans="1:23" ht="57" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" ht="56" x14ac:dyDescent="0.35">
       <c r="A94" s="5">
         <v>91</v>
       </c>
@@ -12448,7 +12456,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="95" spans="1:23" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" ht="70" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
         <v>92</v>
       </c>
@@ -12508,7 +12516,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="96" spans="1:23" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" ht="70" x14ac:dyDescent="0.35">
       <c r="A96" s="5">
         <v>93</v>
       </c>
@@ -12568,7 +12576,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="171" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" ht="182" x14ac:dyDescent="0.35">
       <c r="A97" s="5">
         <v>94</v>
       </c>
@@ -12626,7 +12634,7 @@
       <c r="T97" s="5"/>
       <c r="U97" s="32"/>
     </row>
-    <row r="98" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" ht="98" x14ac:dyDescent="0.35">
       <c r="A98" s="5">
         <v>95</v>
       </c>
@@ -12675,7 +12683,7 @@
       <c r="T98" s="5"/>
       <c r="U98" s="32"/>
     </row>
-    <row r="99" spans="1:21" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" ht="140" x14ac:dyDescent="0.35">
       <c r="A99" s="5">
         <v>96</v>
       </c>
@@ -12731,7 +12739,7 @@
       <c r="T99" s="5"/>
       <c r="U99" s="32"/>
     </row>
-    <row r="100" spans="1:21" ht="114" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" ht="112" x14ac:dyDescent="0.35">
       <c r="A100" s="5">
         <v>97</v>
       </c>
@@ -12791,7 +12799,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="342" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" ht="322" x14ac:dyDescent="0.35">
       <c r="A101" s="5">
         <v>98</v>
       </c>
@@ -12851,7 +12859,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" ht="56" x14ac:dyDescent="0.35">
       <c r="A102" s="5">
         <v>99</v>
       </c>
@@ -12909,7 +12917,7 @@
       <c r="T102" s="5"/>
       <c r="U102" s="32"/>
     </row>
-    <row r="103" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" ht="28" x14ac:dyDescent="0.35">
       <c r="A103" s="5">
         <v>100</v>
       </c>
@@ -12969,7 +12977,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="104" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" ht="28" x14ac:dyDescent="0.35">
       <c r="A104" s="5">
         <v>101</v>
       </c>
@@ -13029,7 +13037,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" ht="84" x14ac:dyDescent="0.35">
       <c r="A105" s="5">
         <v>102</v>
       </c>
@@ -13088,7 +13096,7 @@
       </c>
       <c r="U105" s="33"/>
     </row>
-    <row r="106" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" ht="28" x14ac:dyDescent="0.35">
       <c r="A106" s="5">
         <v>103</v>
       </c>
@@ -13147,7 +13155,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="107" spans="1:21" ht="114" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" ht="98" x14ac:dyDescent="0.35">
       <c r="A107" s="5">
         <v>104</v>
       </c>
@@ -13196,7 +13204,7 @@
       <c r="T107" s="5"/>
       <c r="U107" s="32"/>
     </row>
-    <row r="108" spans="1:21" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" ht="154" x14ac:dyDescent="0.35">
       <c r="A108" s="5">
         <v>105</v>
       </c>
@@ -13255,7 +13263,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="109" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" ht="98" x14ac:dyDescent="0.35">
       <c r="A109" s="5">
         <v>111</v>
       </c>
@@ -13310,7 +13318,7 @@
       </c>
       <c r="U109" s="32"/>
     </row>
-    <row r="110" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" ht="56" x14ac:dyDescent="0.35">
       <c r="A110" s="5">
         <v>112</v>
       </c>
@@ -13365,7 +13373,7 @@
       <c r="T110" s="5"/>
       <c r="U110" s="32"/>
     </row>
-    <row r="111" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" ht="84" x14ac:dyDescent="0.35">
       <c r="A111" s="5">
         <v>113</v>
       </c>
@@ -13422,7 +13430,7 @@
       </c>
       <c r="U111" s="32"/>
     </row>
-    <row r="112" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" ht="70" x14ac:dyDescent="0.35">
       <c r="A112" s="5">
         <v>114</v>
       </c>
@@ -13479,7 +13487,7 @@
       </c>
       <c r="U112" s="32"/>
     </row>
-    <row r="113" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" ht="70" x14ac:dyDescent="0.35">
       <c r="A113" s="5">
         <v>115</v>
       </c>
@@ -13536,7 +13544,7 @@
       </c>
       <c r="U113" s="32"/>
     </row>
-    <row r="114" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" ht="56" x14ac:dyDescent="0.35">
       <c r="A114" s="5">
         <v>116</v>
       </c>
@@ -13593,7 +13601,7 @@
       </c>
       <c r="U114" s="32"/>
     </row>
-    <row r="115" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" ht="56" x14ac:dyDescent="0.35">
       <c r="A115" s="5">
         <v>117</v>
       </c>
@@ -13648,7 +13656,7 @@
       </c>
       <c r="U115" s="32"/>
     </row>
-    <row r="116" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" ht="42" x14ac:dyDescent="0.35">
       <c r="A116" s="5">
         <v>118</v>
       </c>
@@ -13694,7 +13702,7 @@
       </c>
       <c r="U116" s="32"/>
     </row>
-    <row r="117" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" ht="84" x14ac:dyDescent="0.35">
       <c r="A117" s="39">
         <v>119</v>
       </c>
@@ -13742,7 +13750,7 @@
       </c>
       <c r="U117" s="28"/>
     </row>
-    <row r="118" spans="1:21" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" ht="180.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="5">
         <v>120</v>
       </c>
@@ -13787,7 +13795,7 @@
       <c r="T118" s="5"/>
       <c r="U118" s="32"/>
     </row>
-    <row r="119" spans="1:21" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" ht="180.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="5">
         <v>121</v>
       </c>
@@ -13834,7 +13842,7 @@
       <c r="T119" s="5"/>
       <c r="U119" s="32"/>
     </row>
-    <row r="120" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" ht="28" x14ac:dyDescent="0.35">
       <c r="A120" s="5">
         <f>1+A119</f>
         <v>122</v>
@@ -13880,7 +13888,7 @@
       <c r="T120" s="5"/>
       <c r="U120" s="32"/>
     </row>
-    <row r="121" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" ht="84" x14ac:dyDescent="0.35">
       <c r="A121" s="5">
         <v>123</v>
       </c>
@@ -13923,7 +13931,7 @@
       <c r="T121" s="5"/>
       <c r="U121" s="32"/>
     </row>
-    <row r="122" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" ht="70" x14ac:dyDescent="0.35">
       <c r="A122" s="5">
         <v>124</v>
       </c>
@@ -13966,7 +13974,7 @@
       <c r="T122" s="5"/>
       <c r="U122" s="32"/>
     </row>
-    <row r="123" spans="1:21" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" ht="140" x14ac:dyDescent="0.35">
       <c r="A123" s="5">
         <v>125</v>
       </c>
@@ -14011,7 +14019,7 @@
       <c r="T123" s="5"/>
       <c r="U123" s="32"/>
     </row>
-    <row r="124" spans="1:21" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" ht="140" x14ac:dyDescent="0.35">
       <c r="A124" s="5">
         <v>126</v>
       </c>
@@ -14054,7 +14062,7 @@
       <c r="T124" s="5"/>
       <c r="U124" s="32"/>
     </row>
-    <row r="125" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" ht="84" x14ac:dyDescent="0.35">
       <c r="A125" s="5">
         <v>127</v>
       </c>
@@ -14095,11 +14103,11 @@
       <c r="T125" s="5"/>
       <c r="U125" s="32"/>
     </row>
-    <row r="126" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" ht="28" x14ac:dyDescent="0.35">
       <c r="A126" s="5">
         <v>128</v>
       </c>
-      <c r="B126" s="95" t="s">
+      <c r="B126" s="90" t="s">
         <v>469</v>
       </c>
       <c r="C126" s="6">
@@ -14139,12 +14147,12 @@
       <c r="U126" s="32"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:U120" xr:uid="{0DBFC021-F697-4DC4-A38D-9BBCFD373B08}"/>
+  <autoFilter ref="A2:U126"/>
   <mergeCells count="1">
     <mergeCell ref="A1:U1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B126" r:id="rId1" display="https://mosipid.atlassian.net/browse/MOS-18100" xr:uid="{CF03356E-CD2B-4660-855A-059CFC9E73A2}"/>
+    <hyperlink ref="B126" r:id="rId1" display="https://mosipid.atlassian.net/browse/MOS-18100"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -14152,57 +14160,57 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B6" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B7" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B8" s="9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B9" s="9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B10" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B11" s="9"/>
     </row>
   </sheetData>
@@ -14212,19 +14220,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="s">
         <v>145</v>
       </c>
@@ -14235,7 +14243,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
         <v>72</v>
       </c>
@@ -14246,7 +14254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="35" t="s">
         <v>32</v>
       </c>
@@ -14257,7 +14265,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="35" t="s">
         <v>125</v>
       </c>
@@ -14268,7 +14276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="35" t="s">
         <v>80</v>
       </c>
@@ -14279,7 +14287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="35" t="s">
         <v>15</v>
       </c>
@@ -14290,7 +14298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
         <v>39</v>
       </c>
@@ -14301,7 +14309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="35" t="s">
         <v>52</v>
       </c>
@@ -14312,7 +14320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="35" t="s">
         <v>146</v>
       </c>
@@ -14330,17 +14338,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="52.140625" customWidth="1"/>
+    <col min="3" max="3" width="52.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="66" t="s">
         <v>208</v>
       </c>
@@ -14348,25 +14356,25 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="68"/>
       <c r="C2" s="69" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="70"/>
       <c r="C3" s="69" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="71"/>
       <c r="C4" s="69" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="72"/>
       <c r="C5" s="73" t="s">
         <v>207</v>
@@ -14379,6 +14387,38 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D32E068FDE16E34B8075022FB1536456" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d905b7d076fda08b8ad7ac1f301e6870">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7784986bdb25cf89cb05135ef15ccb6c" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -14550,52 +14590,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62A013D4-4E69-4E0D-8B8F-1AA53B7A2CEA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14617,9 +14615,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62A013D4-4E69-4E0D-8B8F-1AA53B7A2CEA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
+++ b/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -1671,9 +1671,6 @@
     </r>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>Sprint 6 Demo Feedback from Ramesh/Shrikant/Krishnan</t>
   </si>
   <si>
@@ -4819,6 +4816,9 @@
   </si>
   <si>
     <t>MOS-9712</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -6638,7 +6638,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField dataField="1" showAll="0"/>
@@ -6991,7 +6991,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B64" sqref="B64"/>
+      <selection pane="bottomLeft" activeCell="O64" sqref="O64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
@@ -7022,7 +7022,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="91" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B1" s="92"/>
       <c r="C1" s="93"/>
@@ -7050,7 +7050,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>1</v>
@@ -7074,10 +7074,10 @@
         <v>7</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L2" s="20" t="s">
         <v>8</v>
@@ -7098,13 +7098,13 @@
         <v>12</v>
       </c>
       <c r="R2" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S2" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="T2" s="20" t="s">
         <v>177</v>
-      </c>
-      <c r="T2" s="20" t="s">
-        <v>178</v>
       </c>
       <c r="U2" s="20" t="s">
         <v>13</v>
@@ -7115,7 +7115,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="84" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C3" s="6">
         <v>43362</v>
@@ -7130,7 +7130,7 @@
         <v>16</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>17</v>
@@ -7139,13 +7139,13 @@
         <v>18</v>
       </c>
       <c r="J3" s="32" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K3" s="32" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L3" s="85" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M3" s="32" t="s">
         <v>19</v>
@@ -7164,12 +7164,12 @@
         <v>54</v>
       </c>
       <c r="R3" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S3" s="30"/>
       <c r="T3" s="30"/>
       <c r="U3" s="21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="4" customFormat="1" ht="154" x14ac:dyDescent="0.35">
@@ -7177,7 +7177,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="84" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C4" s="6">
         <v>43362</v>
@@ -7192,19 +7192,19 @@
         <v>16</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J4" s="32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K4" s="32" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L4" s="32">
         <v>1</v>
@@ -7219,18 +7219,18 @@
         <v>43419</v>
       </c>
       <c r="P4" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q4" s="82" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R4" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S4" s="30"/>
       <c r="T4" s="30"/>
       <c r="U4" s="21" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="5" spans="1:21" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
@@ -7238,7 +7238,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C5" s="6">
         <v>43362</v>
@@ -7262,13 +7262,13 @@
         <v>22</v>
       </c>
       <c r="J5" s="32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K5" s="32" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L5" s="85" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M5" s="32" t="s">
         <v>19</v>
@@ -7287,12 +7287,12 @@
         <v>18</v>
       </c>
       <c r="R5" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S5" s="30"/>
       <c r="T5" s="30"/>
       <c r="U5" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="4" customFormat="1" ht="84" x14ac:dyDescent="0.35">
@@ -7300,7 +7300,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C6" s="6">
         <v>43362</v>
@@ -7315,7 +7315,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H6" s="14" t="s">
         <v>17</v>
@@ -7324,13 +7324,13 @@
         <v>22</v>
       </c>
       <c r="J6" s="32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K6" s="32" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L6" s="85" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M6" s="32" t="s">
         <v>19</v>
@@ -7349,12 +7349,12 @@
         <v>15</v>
       </c>
       <c r="R6" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S6" s="30"/>
       <c r="T6" s="30"/>
       <c r="U6" s="21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="4" customFormat="1" ht="84" x14ac:dyDescent="0.35">
@@ -7362,7 +7362,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="84" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C7" s="6">
         <v>43362</v>
@@ -7386,13 +7386,13 @@
         <v>22</v>
       </c>
       <c r="J7" s="32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K7" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L7" s="85" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M7" s="32" t="s">
         <v>19</v>
@@ -7411,12 +7411,12 @@
         <v>52.5</v>
       </c>
       <c r="R7" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S7" s="30"/>
       <c r="T7" s="30"/>
       <c r="U7" s="21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="4" customFormat="1" ht="140" x14ac:dyDescent="0.35">
@@ -7424,7 +7424,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="84" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C8" s="6">
         <v>43362</v>
@@ -7439,7 +7439,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H8" s="14" t="s">
         <v>17</v>
@@ -7448,13 +7448,13 @@
         <v>22</v>
       </c>
       <c r="J8" s="32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K8" s="32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L8" s="85" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M8" s="32" t="s">
         <v>19</v>
@@ -7473,12 +7473,12 @@
         <v>3</v>
       </c>
       <c r="R8" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S8" s="30"/>
       <c r="T8" s="30"/>
       <c r="U8" s="21" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="4" customFormat="1" ht="84" x14ac:dyDescent="0.35">
@@ -7486,7 +7486,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="84" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C9" s="6">
         <v>43362</v>
@@ -7511,10 +7511,10 @@
       </c>
       <c r="J9" s="19"/>
       <c r="K9" s="32" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L9" s="85" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M9" s="32" t="s">
         <v>19</v>
@@ -7533,12 +7533,12 @@
         <v>45</v>
       </c>
       <c r="R9" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S9" s="30"/>
       <c r="T9" s="30"/>
       <c r="U9" s="22" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="4" customFormat="1" ht="98" x14ac:dyDescent="0.35">
@@ -7546,7 +7546,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="84" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C10" s="6">
         <v>43362</v>
@@ -7561,7 +7561,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>17</v>
@@ -7571,7 +7571,7 @@
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="19" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L10" s="19">
         <v>1</v>
@@ -7593,12 +7593,12 @@
         <v>1.5</v>
       </c>
       <c r="R10" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S10" s="30"/>
       <c r="T10" s="30"/>
       <c r="U10" s="22" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
@@ -7649,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S11" s="30"/>
       <c r="T11" s="30"/>
@@ -7673,7 +7673,7 @@
         <v>26</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>17</v>
@@ -7683,7 +7683,7 @@
       </c>
       <c r="J12" s="32"/>
       <c r="K12" s="32" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L12" s="32">
         <v>1</v>
@@ -7704,12 +7704,12 @@
         <v>141</v>
       </c>
       <c r="R12" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S12" s="30"/>
       <c r="T12" s="30"/>
       <c r="U12" s="21" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:21" s="1" customFormat="1" ht="280" x14ac:dyDescent="0.35">
@@ -7717,7 +7717,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C13" s="6">
         <v>43395</v>
@@ -7755,7 +7755,7 @@
         <v>43419</v>
       </c>
       <c r="P13" s="77" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q13" s="79"/>
       <c r="R13" s="30"/>
@@ -7768,7 +7768,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C14" s="6">
         <v>43397</v>
@@ -7783,7 +7783,7 @@
         <v>26</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H14" s="14" t="s">
         <v>38</v>
@@ -7793,7 +7793,7 @@
       </c>
       <c r="J14" s="19"/>
       <c r="K14" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L14" s="32">
         <v>1</v>
@@ -7815,12 +7815,12 @@
         <v>30</v>
       </c>
       <c r="R14" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S14" s="30"/>
       <c r="T14" s="30"/>
       <c r="U14" s="21" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:21" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.35">
@@ -7828,7 +7828,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C15" s="6">
         <v>43397</v>
@@ -7843,7 +7843,7 @@
         <v>26</v>
       </c>
       <c r="G15" s="51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>38</v>
@@ -7873,16 +7873,16 @@
         <v>36</v>
       </c>
       <c r="R15" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S15" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="T15" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="T15" s="30" t="s">
-        <v>173</v>
-      </c>
       <c r="U15" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:21" s="1" customFormat="1" ht="182" x14ac:dyDescent="0.35">
@@ -7890,7 +7890,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C16" s="6">
         <v>43397</v>
@@ -7905,7 +7905,7 @@
         <v>26</v>
       </c>
       <c r="G16" s="51" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H16" s="14" t="s">
         <v>38</v>
@@ -7935,16 +7935,16 @@
         <v>54</v>
       </c>
       <c r="R16" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S16" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="T16" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="T16" s="30" t="s">
-        <v>173</v>
-      </c>
       <c r="U16" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:21" s="4" customFormat="1" ht="210" x14ac:dyDescent="0.35">
@@ -7952,7 +7952,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C17" s="6">
         <v>43397</v>
@@ -7997,19 +7997,19 @@
         <v>72</v>
       </c>
       <c r="R17" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S17" s="60" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T17" s="30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U17" s="21" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" s="1" customFormat="1" ht="140" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -8057,16 +8057,16 @@
         <v>0</v>
       </c>
       <c r="R18" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S18" s="61" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="T18" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U18" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:21" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
@@ -8074,7 +8074,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C19" s="6">
         <v>43397</v>
@@ -8119,16 +8119,16 @@
         <v>15</v>
       </c>
       <c r="R19" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S19" s="62" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T19" s="54" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U19" s="55" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:21" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.35">
@@ -8232,7 +8232,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="83" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C22" s="6">
         <v>43402</v>
@@ -8257,7 +8257,7 @@
       </c>
       <c r="J22" s="32"/>
       <c r="K22" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L22" s="32">
         <v>1</v>
@@ -8279,12 +8279,12 @@
         <v>15</v>
       </c>
       <c r="R22" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S22" s="30"/>
       <c r="T22" s="30"/>
       <c r="U22" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="84" x14ac:dyDescent="0.35">
@@ -8305,7 +8305,7 @@
         <v>26</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H23" s="14" t="s">
         <v>38</v>
@@ -8315,7 +8315,7 @@
       </c>
       <c r="J23" s="32"/>
       <c r="K23" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L23" s="32" t="s">
         <v>140</v>
@@ -8330,19 +8330,19 @@
         <v>43419</v>
       </c>
       <c r="P23" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q23" s="82">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="R23" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S23" s="30"/>
       <c r="T23" s="30"/>
       <c r="U23" s="21" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="112" x14ac:dyDescent="0.35">
@@ -8350,7 +8350,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C24" s="6">
         <v>43402</v>
@@ -8395,13 +8395,13 @@
         <v>30</v>
       </c>
       <c r="R24" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S24" s="62" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T24" s="30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U24" s="21" t="s">
         <v>62</v>
@@ -8535,7 +8535,7 @@
       </c>
       <c r="J27" s="32"/>
       <c r="K27" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L27" s="32">
         <v>1</v>
@@ -8557,7 +8557,7 @@
         <v>15</v>
       </c>
       <c r="R27" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S27" s="30"/>
       <c r="T27" s="30"/>
@@ -8592,10 +8592,10 @@
         <v>54</v>
       </c>
       <c r="J28" s="32" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L28" s="14">
         <v>1</v>
@@ -8617,12 +8617,12 @@
         <v>7.5</v>
       </c>
       <c r="R28" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S28" s="30"/>
       <c r="T28" s="30"/>
       <c r="U28" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="70" x14ac:dyDescent="0.35">
@@ -8675,7 +8675,7 @@
       <c r="T29" s="30"/>
       <c r="U29" s="21"/>
     </row>
-    <row r="30" spans="1:21" ht="70" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" ht="56" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -8702,7 +8702,7 @@
         <v>54</v>
       </c>
       <c r="J30" s="32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K30" s="32"/>
       <c r="L30" s="14">
@@ -8725,7 +8725,7 @@
         <v>45</v>
       </c>
       <c r="R30" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S30" s="30"/>
       <c r="T30" s="30"/>
@@ -8781,13 +8781,13 @@
         <v>30</v>
       </c>
       <c r="R31" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S31" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="T31" s="30" t="s">
         <v>185</v>
-      </c>
-      <c r="T31" s="30" t="s">
-        <v>186</v>
       </c>
       <c r="U31" s="14" t="s">
         <v>78</v>
@@ -8798,7 +8798,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C32" s="6">
         <v>43430</v>
@@ -8822,7 +8822,7 @@
         <v>81</v>
       </c>
       <c r="J32" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K32" s="32"/>
       <c r="L32" s="32">
@@ -8845,7 +8845,7 @@
         <v>9</v>
       </c>
       <c r="R32" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S32" s="30"/>
       <c r="T32" s="30"/>
@@ -8869,7 +8869,7 @@
         <v>33</v>
       </c>
       <c r="G33" s="46" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H33" s="14" t="s">
         <v>38</v>
@@ -8878,7 +8878,7 @@
         <v>82</v>
       </c>
       <c r="J33" s="32" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K33" s="32"/>
       <c r="L33" s="32">
@@ -8901,7 +8901,7 @@
         <v>15</v>
       </c>
       <c r="R33" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S33" s="30"/>
       <c r="T33" s="30"/>
@@ -8909,12 +8909,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="8" customFormat="1" ht="112" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" s="8" customFormat="1" ht="98" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>33</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C34" s="6">
         <v>43430</v>
@@ -8938,13 +8938,13 @@
         <v>85</v>
       </c>
       <c r="J34" s="32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K34" s="32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L34" s="85" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M34" s="32" t="s">
         <v>74</v>
@@ -8963,7 +8963,7 @@
         <v>22.5</v>
       </c>
       <c r="R34" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S34" s="30"/>
       <c r="T34" s="30"/>
@@ -8989,7 +8989,7 @@
         <v>26</v>
       </c>
       <c r="G35" s="48" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H35" s="14" t="s">
         <v>38</v>
@@ -8999,7 +8999,7 @@
       </c>
       <c r="J35" s="32"/>
       <c r="K35" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L35" s="32">
         <v>1</v>
@@ -9020,7 +9020,7 @@
         <v>141</v>
       </c>
       <c r="R35" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S35" s="30"/>
       <c r="T35" s="30"/>
@@ -9031,7 +9031,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C36" s="6">
         <v>43430</v>
@@ -9055,7 +9055,7 @@
         <v>90</v>
       </c>
       <c r="J36" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K36" s="28"/>
       <c r="L36" s="15">
@@ -9078,24 +9078,24 @@
         <v>0</v>
       </c>
       <c r="R36" s="41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S36" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T36" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U36" s="32" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="112" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" ht="98" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C37" s="6">
         <v>43430</v>
@@ -9119,7 +9119,7 @@
         <v>93</v>
       </c>
       <c r="J37" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K37" s="28"/>
       <c r="L37" s="15">
@@ -9142,16 +9142,16 @@
         <v>15</v>
       </c>
       <c r="R37" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S37" s="30" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="T37" s="30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="U37" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="168" x14ac:dyDescent="0.35">
@@ -9159,7 +9159,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C38" s="6">
         <v>43430</v>
@@ -9183,7 +9183,7 @@
         <v>95</v>
       </c>
       <c r="J38" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K38" s="28"/>
       <c r="L38" s="32">
@@ -9206,16 +9206,16 @@
         <v>0</v>
       </c>
       <c r="R38" s="41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S38" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T38" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U38" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="98" x14ac:dyDescent="0.35">
@@ -9223,7 +9223,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C39" s="6">
         <v>43430</v>
@@ -9247,7 +9247,7 @@
         <v>95</v>
       </c>
       <c r="J39" s="28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K39" s="28"/>
       <c r="L39" s="32">
@@ -9270,16 +9270,16 @@
         <v>0</v>
       </c>
       <c r="R39" s="41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S39" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T39" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U39" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="42" x14ac:dyDescent="0.35">
@@ -9287,7 +9287,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C40" s="6">
         <v>43430</v>
@@ -9311,7 +9311,7 @@
         <v>99</v>
       </c>
       <c r="J40" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K40" s="32"/>
       <c r="L40" s="32">
@@ -9354,7 +9354,7 @@
         <v>26</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H41" s="14" t="s">
         <v>38</v>
@@ -9364,10 +9364,10 @@
       </c>
       <c r="J41" s="32"/>
       <c r="K41" s="32" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L41" s="85" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M41" s="32" t="s">
         <v>74</v>
@@ -9386,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="R41" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S41" s="30"/>
       <c r="T41" s="30"/>
@@ -9421,7 +9421,7 @@
       <c r="J42" s="32"/>
       <c r="K42" s="32"/>
       <c r="L42" s="32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M42" s="32" t="s">
         <v>74</v>
@@ -9440,7 +9440,7 @@
         <v>0</v>
       </c>
       <c r="R42" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S42" s="30"/>
       <c r="T42" s="30"/>
@@ -9464,7 +9464,7 @@
         <v>26</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H43" s="14" t="s">
         <v>38</v>
@@ -9474,7 +9474,7 @@
       </c>
       <c r="J43" s="32"/>
       <c r="K43" s="32" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L43" s="32">
         <v>2</v>
@@ -9496,18 +9496,18 @@
         <v>0</v>
       </c>
       <c r="R43" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S43" s="30"/>
       <c r="T43" s="30"/>
       <c r="U43" s="32"/>
     </row>
-    <row r="44" spans="1:21" ht="280" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21" ht="252" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>43</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C44" s="6">
         <v>43427</v>
@@ -9552,14 +9552,14 @@
         <v>90</v>
       </c>
       <c r="R44" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S44" s="59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T44" s="30"/>
       <c r="U44" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="1:21" ht="112" x14ac:dyDescent="0.35">
@@ -9567,7 +9567,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C45" s="6">
         <v>43427</v>
@@ -9612,12 +9612,12 @@
         <v>90</v>
       </c>
       <c r="R45" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S45" s="30"/>
       <c r="T45" s="30"/>
       <c r="U45" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="42" x14ac:dyDescent="0.35">
@@ -9625,7 +9625,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C46" s="6">
         <v>43427</v>
@@ -9670,16 +9670,16 @@
         <v>27</v>
       </c>
       <c r="R46" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S46" s="63" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="T46" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U46" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47" spans="1:21" ht="70" x14ac:dyDescent="0.35">
@@ -9687,7 +9687,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C47" s="6">
         <v>43427</v>
@@ -9702,7 +9702,7 @@
         <v>26</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H47" s="14" t="s">
         <v>38</v>
@@ -9732,16 +9732,16 @@
         <v>30</v>
       </c>
       <c r="R47" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S47" s="75" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="T47" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U47" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="70" x14ac:dyDescent="0.35">
@@ -9762,13 +9762,13 @@
         <v>26</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H48" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I48" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J48" s="32"/>
       <c r="K48" s="32"/>
@@ -9779,7 +9779,7 @@
         <v>74</v>
       </c>
       <c r="N48" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O48" s="21">
         <v>43452</v>
@@ -9799,7 +9799,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C49" s="6">
         <v>43427</v>
@@ -9844,16 +9844,16 @@
         <v>7.5</v>
       </c>
       <c r="R49" s="57" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S49" s="64" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="T49" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="U49" s="19" t="s">
         <v>198</v>
-      </c>
-      <c r="U49" s="19" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:21" ht="84" x14ac:dyDescent="0.35">
@@ -9861,7 +9861,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C50" s="6">
         <v>43427</v>
@@ -9885,7 +9885,7 @@
         <v>110</v>
       </c>
       <c r="J50" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K50" s="28"/>
       <c r="L50" s="32">
@@ -9907,16 +9907,16 @@
         <v>141</v>
       </c>
       <c r="R50" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S50" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T50" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U50" s="32" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="51" spans="1:21" ht="56" x14ac:dyDescent="0.35">
@@ -9967,7 +9967,7 @@
         <v>0</v>
       </c>
       <c r="R51" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S51" s="30"/>
       <c r="T51" s="30"/>
@@ -10028,7 +10028,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="83" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C53" s="6">
         <v>43427</v>
@@ -10053,7 +10053,7 @@
       </c>
       <c r="J53" s="32"/>
       <c r="K53" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L53" s="32">
         <v>1</v>
@@ -10075,7 +10075,7 @@
         <v>18</v>
       </c>
       <c r="R53" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S53" s="30"/>
       <c r="T53" s="30"/>
@@ -10181,13 +10181,13 @@
         <v>0</v>
       </c>
       <c r="R55" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S55" s="30"/>
       <c r="T55" s="30"/>
       <c r="U55" s="32"/>
     </row>
-    <row r="56" spans="1:21" ht="84" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:21" ht="70" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -10205,7 +10205,7 @@
         <v>26</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H56" s="14" t="s">
         <v>38</v>
@@ -10215,7 +10215,7 @@
       </c>
       <c r="J56" s="32"/>
       <c r="K56" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L56" s="32">
         <v>1</v>
@@ -10236,15 +10236,15 @@
         <v>141</v>
       </c>
       <c r="R56" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S56" s="30"/>
       <c r="T56" s="30"/>
       <c r="U56" s="32" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" ht="70" x14ac:dyDescent="0.35">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" ht="56" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>55</v>
       </c>
@@ -10262,7 +10262,7 @@
         <v>26</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H57" s="14" t="s">
         <v>38</v>
@@ -10272,7 +10272,7 @@
       </c>
       <c r="J57" s="32"/>
       <c r="K57" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L57" s="32" t="s">
         <v>140</v>
@@ -10293,7 +10293,7 @@
         <v>48</v>
       </c>
       <c r="R57" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S57" s="30"/>
       <c r="T57" s="30"/>
@@ -10329,10 +10329,10 @@
       </c>
       <c r="J58" s="32"/>
       <c r="K58" s="32" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L58" s="85" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M58" s="32" t="s">
         <v>74</v>
@@ -10351,12 +10351,12 @@
         <v>60</v>
       </c>
       <c r="R58" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S58" s="30"/>
       <c r="T58" s="30"/>
       <c r="U58" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="59" spans="1:21" ht="56" x14ac:dyDescent="0.35">
@@ -10407,7 +10407,7 @@
         <v>0</v>
       </c>
       <c r="R59" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S59" s="30"/>
       <c r="T59" s="30"/>
@@ -10461,7 +10461,7 @@
         <v>0</v>
       </c>
       <c r="R60" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S60" s="30"/>
       <c r="T60" s="30"/>
@@ -10472,7 +10472,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C61" s="6">
         <v>43432</v>
@@ -10496,7 +10496,7 @@
         <v>85</v>
       </c>
       <c r="J61" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K61" s="32"/>
       <c r="L61" s="32">
@@ -10515,10 +10515,10 @@
         <v>4</v>
       </c>
       <c r="Q61" s="81" t="s">
-        <v>151</v>
+        <v>471</v>
       </c>
       <c r="R61" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S61" s="30"/>
       <c r="T61" s="30"/>
@@ -10529,7 +10529,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C62" s="6">
         <v>43432</v>
@@ -10553,7 +10553,7 @@
         <v>85</v>
       </c>
       <c r="J62" s="28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K62" s="28"/>
       <c r="L62" s="32">
@@ -10575,13 +10575,13 @@
         <v>0</v>
       </c>
       <c r="R62" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S62" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T62" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U62" s="32" t="s">
         <v>128</v>
@@ -10592,7 +10592,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C63" s="6">
         <v>43432</v>
@@ -10636,16 +10636,16 @@
         <v>30</v>
       </c>
       <c r="R63" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S63" s="63" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T63" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="U63" s="32" t="s">
         <v>200</v>
-      </c>
-      <c r="U63" s="32" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="64" spans="1:21" ht="98" x14ac:dyDescent="0.35">
@@ -10653,7 +10653,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C64" s="6">
         <v>43432</v>
@@ -10677,7 +10677,7 @@
         <v>132</v>
       </c>
       <c r="J64" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K64" s="32"/>
       <c r="L64" s="32">
@@ -10704,7 +10704,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C65" s="6">
         <v>43432</v>
@@ -10719,7 +10719,7 @@
         <v>33</v>
       </c>
       <c r="G65" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H65" s="14" t="s">
         <v>38</v>
@@ -10728,11 +10728,11 @@
         <v>134</v>
       </c>
       <c r="J65" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K65" s="32"/>
       <c r="L65" s="32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M65" s="32" t="s">
         <v>74</v>
@@ -10755,7 +10755,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C66" s="6">
         <v>43440</v>
@@ -10770,7 +10770,7 @@
         <v>26</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H66" s="14" t="s">
         <v>38</v>
@@ -10779,7 +10779,7 @@
         <v>85</v>
       </c>
       <c r="J66" s="32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K66" s="32"/>
       <c r="L66" s="32">
@@ -10789,7 +10789,7 @@
         <v>74</v>
       </c>
       <c r="N66" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O66" s="21">
         <v>43452</v>
@@ -10801,16 +10801,16 @@
         <v>20</v>
       </c>
       <c r="R66" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S66" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="T66" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U66" s="32" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="67" spans="1:23" ht="112" x14ac:dyDescent="0.35">
@@ -10818,7 +10818,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="84" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C67" s="6">
         <v>43440</v>
@@ -10843,7 +10843,7 @@
       </c>
       <c r="J67" s="32"/>
       <c r="K67" s="32" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L67" s="32" t="s">
         <v>140</v>
@@ -10865,7 +10865,7 @@
         <v>45</v>
       </c>
       <c r="R67" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S67" s="5"/>
       <c r="T67" s="5"/>
@@ -10878,7 +10878,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C68" s="6">
         <v>43440</v>
@@ -10902,7 +10902,7 @@
         <v>85</v>
       </c>
       <c r="J68" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K68" s="32"/>
       <c r="L68" s="32" t="s">
@@ -10924,15 +10924,15 @@
         <v>56</v>
       </c>
       <c r="R68" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S68" s="5"/>
       <c r="T68" s="5"/>
       <c r="U68" s="32" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" ht="280" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" ht="266" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>67</v>
       </c>
@@ -10960,7 +10960,7 @@
       </c>
       <c r="J69" s="32"/>
       <c r="K69" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L69" s="32">
         <v>1</v>
@@ -10982,12 +10982,12 @@
         <v>18</v>
       </c>
       <c r="R69" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S69" s="5"/>
       <c r="T69" s="5"/>
       <c r="U69" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:23" ht="56" x14ac:dyDescent="0.35">
@@ -11008,7 +11008,7 @@
         <v>26</v>
       </c>
       <c r="G70" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H70" s="14" t="s">
         <v>38</v>
@@ -11018,7 +11018,7 @@
       </c>
       <c r="J70" s="32"/>
       <c r="K70" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L70" s="32">
         <v>1</v>
@@ -11040,7 +11040,7 @@
         <v>6</v>
       </c>
       <c r="R70" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S70" s="5"/>
       <c r="T70" s="5"/>
@@ -11055,7 +11055,7 @@
         <v>43451</v>
       </c>
       <c r="D71" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E71" s="32" t="s">
         <v>15</v>
@@ -11064,7 +11064,7 @@
         <v>26</v>
       </c>
       <c r="G71" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H71" s="14" t="s">
         <v>38</v>
@@ -11074,7 +11074,7 @@
       </c>
       <c r="J71" s="32"/>
       <c r="K71" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L71" s="32">
         <v>1</v>
@@ -11096,12 +11096,12 @@
         <v>15</v>
       </c>
       <c r="R71" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S71" s="5"/>
       <c r="T71" s="5"/>
       <c r="U71" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="168" x14ac:dyDescent="0.35">
@@ -11109,13 +11109,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C72" s="6">
         <v>43451</v>
       </c>
       <c r="D72" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E72" s="32" t="s">
         <v>80</v>
@@ -11124,7 +11124,7 @@
         <v>26</v>
       </c>
       <c r="G72" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H72" s="14" t="s">
         <v>38</v>
@@ -11133,7 +11133,7 @@
         <v>85</v>
       </c>
       <c r="J72" s="32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K72" s="32"/>
       <c r="L72" s="32">
@@ -11155,12 +11155,12 @@
         <v>12</v>
       </c>
       <c r="R72" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S72" s="5"/>
       <c r="T72" s="5"/>
       <c r="U72" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V72" s="5"/>
       <c r="W72" s="32"/>
@@ -11170,13 +11170,13 @@
         <v>71</v>
       </c>
       <c r="B73" s="83" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C73" s="6">
         <v>43451</v>
       </c>
       <c r="D73" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E73" s="32" t="s">
         <v>15</v>
@@ -11185,7 +11185,7 @@
         <v>26</v>
       </c>
       <c r="G73" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H73" s="14" t="s">
         <v>38</v>
@@ -11195,7 +11195,7 @@
       </c>
       <c r="J73" s="32"/>
       <c r="K73" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L73" s="32">
         <v>1</v>
@@ -11217,7 +11217,7 @@
         <v>9</v>
       </c>
       <c r="R73" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S73" s="5"/>
       <c r="T73" s="5"/>
@@ -11234,7 +11234,7 @@
         <v>43454</v>
       </c>
       <c r="D74" s="32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E74" s="28" t="s">
         <v>15</v>
@@ -11243,18 +11243,18 @@
         <v>33</v>
       </c>
       <c r="G74" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H74" s="15" t="s">
         <v>38</v>
       </c>
       <c r="I74" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J74" s="28"/>
       <c r="K74" s="28"/>
       <c r="L74" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M74" s="28" t="s">
         <v>74</v>
@@ -11272,7 +11272,7 @@
         <v>0</v>
       </c>
       <c r="R74" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S74" s="5"/>
       <c r="T74" s="5"/>
@@ -11285,13 +11285,13 @@
         <v>73</v>
       </c>
       <c r="B75" s="39" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C75" s="37">
         <v>43454</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E75" s="32" t="s">
         <v>39</v>
@@ -11300,7 +11300,7 @@
         <v>26</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H75" s="15" t="s">
         <v>38</v>
@@ -11329,16 +11329,16 @@
         <v>30</v>
       </c>
       <c r="R75" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S75" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="T75" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="T75" s="39" t="s">
-        <v>173</v>
-      </c>
       <c r="U75" s="65" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76" spans="1:23" ht="154" x14ac:dyDescent="0.35">
@@ -11346,13 +11346,13 @@
         <v>74</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C76" s="6">
         <v>43454</v>
       </c>
       <c r="D76" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E76" s="32" t="s">
         <v>39</v>
@@ -11361,7 +11361,7 @@
         <v>26</v>
       </c>
       <c r="G76" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H76" s="14" t="s">
         <v>38</v>
@@ -11390,16 +11390,16 @@
         <v>15</v>
       </c>
       <c r="R76" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S76" s="75" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="T76" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U76" s="65" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77" spans="1:23" ht="196" x14ac:dyDescent="0.35">
@@ -11407,13 +11407,13 @@
         <v>75</v>
       </c>
       <c r="B77" s="87" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C77" s="6">
         <v>43465</v>
       </c>
       <c r="D77" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E77" s="32" t="s">
         <v>15</v>
@@ -11422,7 +11422,7 @@
         <v>26</v>
       </c>
       <c r="G77" s="32" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H77" s="14" t="s">
         <v>38</v>
@@ -11432,16 +11432,16 @@
       </c>
       <c r="J77" s="32"/>
       <c r="K77" s="32" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L77" s="85" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M77" s="32" t="s">
         <v>74</v>
       </c>
       <c r="N77" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O77" s="21">
         <v>43465</v>
@@ -11454,12 +11454,12 @@
         <v>18</v>
       </c>
       <c r="R77" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S77" s="5"/>
       <c r="T77" s="5"/>
       <c r="U77" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="78" spans="1:23" ht="168" x14ac:dyDescent="0.35">
@@ -11467,13 +11467,13 @@
         <v>75</v>
       </c>
       <c r="B78" s="31" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C78" s="6">
         <v>43465</v>
       </c>
       <c r="D78" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E78" s="32" t="s">
         <v>15</v>
@@ -11482,7 +11482,7 @@
         <v>26</v>
       </c>
       <c r="G78" s="32" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H78" s="14" t="s">
         <v>38</v>
@@ -11492,16 +11492,16 @@
       </c>
       <c r="J78" s="32"/>
       <c r="K78" s="32" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L78" s="85" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M78" s="32" t="s">
         <v>74</v>
       </c>
       <c r="N78" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O78" s="21">
         <v>43465</v>
@@ -11514,12 +11514,12 @@
         <v>6</v>
       </c>
       <c r="R78" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S78" s="5"/>
       <c r="T78" s="5"/>
       <c r="U78" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="V78" s="5"/>
       <c r="W78" s="32"/>
@@ -11529,13 +11529,13 @@
         <v>76</v>
       </c>
       <c r="B79" s="84" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C79" s="6">
         <v>43465</v>
       </c>
       <c r="D79" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E79" s="32" t="s">
         <v>15</v>
@@ -11544,7 +11544,7 @@
         <v>26</v>
       </c>
       <c r="G79" s="32" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H79" s="14" t="s">
         <v>38</v>
@@ -11554,16 +11554,16 @@
       </c>
       <c r="J79" s="32"/>
       <c r="K79" s="32" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L79" s="85" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M79" s="32" t="s">
         <v>74</v>
       </c>
       <c r="N79" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O79" s="21">
         <v>43465</v>
@@ -11576,7 +11576,7 @@
         <v>45</v>
       </c>
       <c r="R79" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S79" s="5"/>
       <c r="T79" s="5"/>
@@ -11589,13 +11589,13 @@
         <v>77</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C80" s="6">
         <v>43465</v>
       </c>
       <c r="D80" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E80" s="32" t="s">
         <v>15</v>
@@ -11604,7 +11604,7 @@
         <v>26</v>
       </c>
       <c r="G80" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H80" s="14" t="s">
         <v>38</v>
@@ -11614,16 +11614,16 @@
       </c>
       <c r="J80" s="32"/>
       <c r="K80" s="32" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L80" s="85" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M80" s="32" t="s">
         <v>74</v>
       </c>
       <c r="N80" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O80" s="21">
         <v>43465</v>
@@ -11636,12 +11636,12 @@
         <v>30</v>
       </c>
       <c r="R80" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S80" s="5"/>
       <c r="T80" s="5"/>
       <c r="U80" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="V80" s="5"/>
       <c r="W80" s="32"/>
@@ -11651,13 +11651,13 @@
         <v>78</v>
       </c>
       <c r="B81" s="31" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C81" s="6">
         <v>43465</v>
       </c>
       <c r="D81" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E81" s="32" t="s">
         <v>15</v>
@@ -11666,7 +11666,7 @@
         <v>26</v>
       </c>
       <c r="G81" s="32" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H81" s="14" t="s">
         <v>38</v>
@@ -11676,29 +11676,29 @@
       </c>
       <c r="J81" s="32"/>
       <c r="K81" s="32" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L81" s="85" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M81" s="32" t="s">
         <v>74</v>
       </c>
       <c r="N81" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O81" s="21">
         <v>43465</v>
       </c>
       <c r="P81" s="30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q81" s="82">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="R81" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S81" s="5"/>
       <c r="T81" s="5"/>
@@ -11711,13 +11711,13 @@
         <v>79</v>
       </c>
       <c r="B82" s="84" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C82" s="6">
         <v>43465</v>
       </c>
       <c r="D82" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E82" s="32" t="s">
         <v>15</v>
@@ -11726,7 +11726,7 @@
         <v>26</v>
       </c>
       <c r="G82" s="32" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H82" s="14" t="s">
         <v>38</v>
@@ -11736,7 +11736,7 @@
       </c>
       <c r="J82" s="32"/>
       <c r="K82" s="32" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L82" s="32">
         <v>1</v>
@@ -11745,7 +11745,7 @@
         <v>74</v>
       </c>
       <c r="N82" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O82" s="21">
         <v>43465</v>
@@ -11758,12 +11758,12 @@
         <v>45</v>
       </c>
       <c r="R82" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S82" s="5"/>
       <c r="T82" s="5"/>
       <c r="U82" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V82" s="74"/>
       <c r="W82" s="32"/>
@@ -11777,7 +11777,7 @@
         <v>43477</v>
       </c>
       <c r="D83" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E83" s="32" t="s">
         <v>39</v>
@@ -11786,7 +11786,7 @@
         <v>33</v>
       </c>
       <c r="G83" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H83" s="14" t="s">
         <v>38</v>
@@ -11797,13 +11797,13 @@
       <c r="J83" s="32"/>
       <c r="K83" s="32"/>
       <c r="L83" s="32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M83" s="32" t="s">
         <v>74</v>
       </c>
       <c r="N83" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O83" s="21">
         <v>43477</v>
@@ -11815,16 +11815,16 @@
         <v>0</v>
       </c>
       <c r="R83" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S83" s="61" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="T83" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U83" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="84" spans="1:23" ht="252" x14ac:dyDescent="0.35">
@@ -11832,13 +11832,13 @@
         <v>81</v>
       </c>
       <c r="B84" s="84" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C84" s="6">
         <v>43465</v>
       </c>
       <c r="D84" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E84" s="32" t="s">
         <v>15</v>
@@ -11847,7 +11847,7 @@
         <v>26</v>
       </c>
       <c r="G84" s="32" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H84" s="14" t="s">
         <v>38</v>
@@ -11857,7 +11857,7 @@
       </c>
       <c r="J84" s="32"/>
       <c r="K84" s="32" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L84" s="32">
         <v>1</v>
@@ -11866,7 +11866,7 @@
         <v>74</v>
       </c>
       <c r="N84" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O84" s="21">
         <v>43465</v>
@@ -11879,12 +11879,12 @@
         <v>15</v>
       </c>
       <c r="R84" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S84" s="5"/>
       <c r="T84" s="5"/>
       <c r="U84" s="32" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="V84" s="74"/>
       <c r="W84" s="32"/>
@@ -11898,7 +11898,7 @@
         <v>43477</v>
       </c>
       <c r="D85" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E85" s="32" t="s">
         <v>15</v>
@@ -11907,7 +11907,7 @@
         <v>26</v>
       </c>
       <c r="G85" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H85" s="14" t="s">
         <v>38</v>
@@ -11916,10 +11916,10 @@
         <v>85</v>
       </c>
       <c r="J85" s="32" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K85" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L85" s="32">
         <v>1</v>
@@ -11928,7 +11928,7 @@
         <v>74</v>
       </c>
       <c r="N85" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O85" s="21">
         <v>43477</v>
@@ -11941,12 +11941,12 @@
         <v>30</v>
       </c>
       <c r="R85" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S85" s="33"/>
       <c r="T85" s="5"/>
       <c r="U85" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="86" spans="1:23" ht="70" x14ac:dyDescent="0.35">
@@ -11954,13 +11954,13 @@
         <v>83</v>
       </c>
       <c r="B86" s="83" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C86" s="6">
         <v>43477</v>
       </c>
       <c r="D86" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E86" s="32" t="s">
         <v>15</v>
@@ -11969,7 +11969,7 @@
         <v>26</v>
       </c>
       <c r="G86" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H86" s="14" t="s">
         <v>38</v>
@@ -11978,10 +11978,10 @@
         <v>85</v>
       </c>
       <c r="J86" s="32" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K86" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L86" s="32">
         <v>1</v>
@@ -11990,7 +11990,7 @@
         <v>74</v>
       </c>
       <c r="N86" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O86" s="21">
         <v>43477</v>
@@ -12003,33 +12003,33 @@
         <v>9</v>
       </c>
       <c r="R86" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S86" s="33"/>
       <c r="T86" s="5"/>
       <c r="U86" s="32"/>
     </row>
-    <row r="87" spans="1:23" ht="126" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:23" ht="112" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
         <v>84</v>
       </c>
       <c r="B87" s="31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C87" s="6">
         <v>43477</v>
       </c>
       <c r="D87" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E87" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F87" s="32" t="s">
         <v>26</v>
       </c>
       <c r="G87" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H87" s="14" t="s">
         <v>38</v>
@@ -12038,7 +12038,7 @@
         <v>85</v>
       </c>
       <c r="J87" s="32" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K87" s="32"/>
       <c r="L87" s="32">
@@ -12048,7 +12048,7 @@
         <v>74</v>
       </c>
       <c r="N87" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O87" s="21">
         <v>43477</v>
@@ -12060,12 +12060,12 @@
         <v>0</v>
       </c>
       <c r="R87" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S87" s="33"/>
       <c r="T87" s="5"/>
       <c r="U87" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="88" spans="1:23" ht="126" x14ac:dyDescent="0.35">
@@ -12073,13 +12073,13 @@
         <v>85</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C88" s="6">
         <v>43477</v>
       </c>
       <c r="D88" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E88" s="32" t="s">
         <v>32</v>
@@ -12088,7 +12088,7 @@
         <v>26</v>
       </c>
       <c r="G88" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H88" s="14" t="s">
         <v>38</v>
@@ -12097,7 +12097,7 @@
         <v>85</v>
       </c>
       <c r="J88" s="32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K88" s="32"/>
       <c r="L88" s="32">
@@ -12107,7 +12107,7 @@
         <v>74</v>
       </c>
       <c r="N88" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O88" s="21">
         <v>43477</v>
@@ -12117,16 +12117,16 @@
         <v>50</v>
       </c>
       <c r="R88" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S88" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="T88" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U88" s="32" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="89" spans="1:23" ht="168" x14ac:dyDescent="0.35">
@@ -12134,13 +12134,13 @@
         <v>86</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C89" s="6">
         <v>43477</v>
       </c>
       <c r="D89" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E89" s="32" t="s">
         <v>32</v>
@@ -12149,7 +12149,7 @@
         <v>26</v>
       </c>
       <c r="G89" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H89" s="14" t="s">
         <v>38</v>
@@ -12158,7 +12158,7 @@
         <v>85</v>
       </c>
       <c r="J89" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K89" s="32"/>
       <c r="L89" s="32">
@@ -12168,7 +12168,7 @@
         <v>74</v>
       </c>
       <c r="N89" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O89" s="21">
         <v>43477</v>
@@ -12178,10 +12178,10 @@
       <c r="R89" s="5"/>
       <c r="S89" s="33"/>
       <c r="T89" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U89" s="32" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="90" spans="1:23" ht="84" x14ac:dyDescent="0.35">
@@ -12193,16 +12193,16 @@
         <v>43477</v>
       </c>
       <c r="D90" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E90" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F90" s="32" t="s">
         <v>26</v>
       </c>
       <c r="G90" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H90" s="14" t="s">
         <v>38</v>
@@ -12211,7 +12211,7 @@
         <v>85</v>
       </c>
       <c r="J90" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K90" s="32"/>
       <c r="L90" s="32">
@@ -12221,7 +12221,7 @@
         <v>74</v>
       </c>
       <c r="N90" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O90" s="21">
         <v>43477</v>
@@ -12242,16 +12242,16 @@
         <v>43477</v>
       </c>
       <c r="D91" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E91" s="32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F91" s="32" t="s">
         <v>26</v>
       </c>
       <c r="G91" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H91" s="14" t="s">
         <v>38</v>
@@ -12268,7 +12268,7 @@
         <v>74</v>
       </c>
       <c r="N91" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O91" s="21">
         <v>43477</v>
@@ -12285,13 +12285,13 @@
         <v>89</v>
       </c>
       <c r="B92" s="84" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C92" s="6">
         <v>43486</v>
       </c>
       <c r="D92" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E92" s="32" t="s">
         <v>15</v>
@@ -12300,7 +12300,7 @@
         <v>26</v>
       </c>
       <c r="G92" s="32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H92" s="14" t="s">
         <v>38</v>
@@ -12319,7 +12319,7 @@
         <v>74</v>
       </c>
       <c r="N92" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O92" s="21">
         <v>43486</v>
@@ -12332,12 +12332,12 @@
         <v>60</v>
       </c>
       <c r="R92" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S92" s="33"/>
       <c r="T92" s="5"/>
       <c r="U92" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="93" spans="1:23" ht="42" x14ac:dyDescent="0.35">
@@ -12349,7 +12349,7 @@
         <v>43489</v>
       </c>
       <c r="D93" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E93" s="32" t="s">
         <v>15</v>
@@ -12358,17 +12358,17 @@
         <v>26</v>
       </c>
       <c r="G93" s="32" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H93" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I93" s="32" t="s">
         <v>85</v>
       </c>
       <c r="J93" s="32"/>
       <c r="K93" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L93" s="32">
         <v>1</v>
@@ -12390,7 +12390,7 @@
         <v>6</v>
       </c>
       <c r="R93" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S93" s="33"/>
       <c r="T93" s="5"/>
@@ -12401,7 +12401,7 @@
         <v>91</v>
       </c>
       <c r="B94" s="84" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C94" s="6">
         <v>43489</v>
@@ -12416,17 +12416,17 @@
         <v>26</v>
       </c>
       <c r="G94" s="32" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H94" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I94" s="32" t="s">
         <v>85</v>
       </c>
       <c r="J94" s="32"/>
       <c r="K94" s="32" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L94" s="85" t="s">
         <v>140</v>
@@ -12448,12 +12448,12 @@
         <v>45</v>
       </c>
       <c r="R94" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S94" s="33"/>
       <c r="T94" s="5"/>
       <c r="U94" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="95" spans="1:23" ht="70" x14ac:dyDescent="0.35">
@@ -12461,7 +12461,7 @@
         <v>92</v>
       </c>
       <c r="B95" s="84" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C95" s="6">
         <v>43489</v>
@@ -12476,17 +12476,17 @@
         <v>26</v>
       </c>
       <c r="G95" s="32" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H95" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I95" s="32" t="s">
         <v>85</v>
       </c>
       <c r="J95" s="32"/>
       <c r="K95" s="32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L95" s="85" t="s">
         <v>140</v>
@@ -12508,12 +12508,12 @@
         <v>9</v>
       </c>
       <c r="R95" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S95" s="33"/>
       <c r="T95" s="5"/>
       <c r="U95" s="32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="96" spans="1:23" ht="70" x14ac:dyDescent="0.35">
@@ -12521,7 +12521,7 @@
         <v>93</v>
       </c>
       <c r="B96" s="84" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C96" s="6">
         <v>43489</v>
@@ -12536,17 +12536,17 @@
         <v>26</v>
       </c>
       <c r="G96" s="32" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H96" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I96" s="32" t="s">
         <v>85</v>
       </c>
       <c r="J96" s="32"/>
       <c r="K96" s="32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L96" s="85" t="s">
         <v>140</v>
@@ -12568,12 +12568,12 @@
         <v>15</v>
       </c>
       <c r="R96" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S96" s="33"/>
       <c r="T96" s="5"/>
       <c r="U96" s="32" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="97" spans="1:21" ht="182" x14ac:dyDescent="0.35">
@@ -12581,13 +12581,13 @@
         <v>94</v>
       </c>
       <c r="B97" s="83" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C97" s="6">
         <v>43473</v>
       </c>
       <c r="D97" s="32" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E97" s="32" t="s">
         <v>15</v>
@@ -12596,17 +12596,17 @@
         <v>26</v>
       </c>
       <c r="G97" s="32" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H97" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I97" s="32" t="s">
         <v>85</v>
       </c>
       <c r="J97" s="32"/>
       <c r="K97" s="32" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L97" s="85">
         <v>1</v>
@@ -12628,7 +12628,7 @@
         <v>18</v>
       </c>
       <c r="R97" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S97" s="33"/>
       <c r="T97" s="5"/>
@@ -12639,13 +12639,13 @@
         <v>95</v>
       </c>
       <c r="B98" s="31" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C98" s="6">
         <v>43473</v>
       </c>
       <c r="D98" s="32" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E98" s="32" t="s">
         <v>80</v>
@@ -12654,7 +12654,7 @@
         <v>26</v>
       </c>
       <c r="G98" s="32" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H98" s="14" t="s">
         <v>38</v>
@@ -12692,7 +12692,7 @@
         <v>43489</v>
       </c>
       <c r="D99" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E99" s="32" t="s">
         <v>15</v>
@@ -12701,17 +12701,17 @@
         <v>26</v>
       </c>
       <c r="G99" s="32" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H99" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I99" s="32" t="s">
         <v>85</v>
       </c>
       <c r="J99" s="32"/>
       <c r="K99" s="32" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L99" s="85">
         <v>1</v>
@@ -12733,7 +12733,7 @@
         <v>15</v>
       </c>
       <c r="R99" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S99" s="33"/>
       <c r="T99" s="5"/>
@@ -12744,13 +12744,13 @@
         <v>97</v>
       </c>
       <c r="B100" s="31" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C100" s="6">
         <v>43489</v>
       </c>
       <c r="D100" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E100" s="32" t="s">
         <v>15</v>
@@ -12759,17 +12759,17 @@
         <v>26</v>
       </c>
       <c r="G100" s="32" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H100" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I100" s="32" t="s">
         <v>85</v>
       </c>
       <c r="J100" s="32"/>
       <c r="K100" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L100" s="85">
         <v>1</v>
@@ -12791,12 +12791,12 @@
         <v>9</v>
       </c>
       <c r="R100" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S100" s="33"/>
       <c r="T100" s="5"/>
       <c r="U100" s="32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="101" spans="1:21" ht="322" x14ac:dyDescent="0.35">
@@ -12804,13 +12804,13 @@
         <v>98</v>
       </c>
       <c r="B101" s="31" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C101" s="6">
         <v>43489</v>
       </c>
       <c r="D101" s="32" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E101" s="32" t="s">
         <v>15</v>
@@ -12819,17 +12819,17 @@
         <v>26</v>
       </c>
       <c r="G101" s="32" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H101" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I101" s="32" t="s">
         <v>85</v>
       </c>
       <c r="J101" s="32"/>
       <c r="K101" s="32" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L101" s="85">
         <v>1</v>
@@ -12851,26 +12851,26 @@
         <v>15</v>
       </c>
       <c r="R101" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S101" s="33"/>
       <c r="T101" s="5"/>
       <c r="U101" s="32" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21" ht="56" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" ht="42" x14ac:dyDescent="0.35">
       <c r="A102" s="5">
         <v>99</v>
       </c>
       <c r="B102" s="31" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C102" s="6">
         <v>43489</v>
       </c>
       <c r="D102" s="32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E102" s="32" t="s">
         <v>15</v>
@@ -12879,17 +12879,17 @@
         <v>26</v>
       </c>
       <c r="G102" s="32" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H102" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I102" s="32" t="s">
         <v>85</v>
       </c>
       <c r="J102" s="32"/>
       <c r="K102" s="32" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L102" s="85">
         <v>1</v>
@@ -12898,7 +12898,7 @@
         <v>74</v>
       </c>
       <c r="N102" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O102" s="21">
         <v>43489</v>
@@ -12911,7 +12911,7 @@
         <v>9</v>
       </c>
       <c r="R102" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S102" s="33"/>
       <c r="T102" s="5"/>
@@ -12922,13 +12922,13 @@
         <v>100</v>
       </c>
       <c r="B103" s="31" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C103" s="6">
         <v>43489</v>
       </c>
       <c r="D103" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E103" s="32" t="s">
         <v>15</v>
@@ -12937,17 +12937,17 @@
         <v>26</v>
       </c>
       <c r="G103" s="32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H103" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I103" s="32" t="s">
         <v>85</v>
       </c>
       <c r="J103" s="32"/>
       <c r="K103" s="32" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L103" s="85">
         <v>1</v>
@@ -12956,7 +12956,7 @@
         <v>74</v>
       </c>
       <c r="N103" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O103" s="21">
         <v>43489</v>
@@ -12969,12 +12969,12 @@
         <v>15</v>
       </c>
       <c r="R103" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S103" s="33"/>
       <c r="T103" s="5"/>
       <c r="U103" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="104" spans="1:21" ht="28" x14ac:dyDescent="0.35">
@@ -12982,13 +12982,13 @@
         <v>101</v>
       </c>
       <c r="B104" s="31" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C104" s="6">
         <v>43489</v>
       </c>
       <c r="D104" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E104" s="32" t="s">
         <v>15</v>
@@ -12997,17 +12997,17 @@
         <v>26</v>
       </c>
       <c r="G104" s="32" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H104" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I104" s="32" t="s">
         <v>85</v>
       </c>
       <c r="J104" s="32"/>
       <c r="K104" s="32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L104" s="85">
         <v>1</v>
@@ -13016,7 +13016,7 @@
         <v>74</v>
       </c>
       <c r="N104" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O104" s="21">
         <v>43489</v>
@@ -13029,12 +13029,12 @@
         <v>6</v>
       </c>
       <c r="R104" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S104" s="33"/>
       <c r="T104" s="5"/>
       <c r="U104" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="105" spans="1:21" ht="84" x14ac:dyDescent="0.35">
@@ -13042,13 +13042,13 @@
         <v>102</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C105" s="6">
         <v>43448</v>
       </c>
       <c r="D105" s="32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E105" s="32" t="s">
         <v>32</v>
@@ -13057,7 +13057,7 @@
         <v>26</v>
       </c>
       <c r="G105" s="76" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H105" s="14" t="s">
         <v>35</v>
@@ -13074,7 +13074,7 @@
         <v>74</v>
       </c>
       <c r="N105" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O105" s="6">
         <v>43448</v>
@@ -13086,13 +13086,13 @@
         <v>40</v>
       </c>
       <c r="R105" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S105" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="T105" s="32" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="U105" s="33"/>
     </row>
@@ -13101,13 +13101,13 @@
         <v>103</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C106" s="6">
         <v>43447</v>
       </c>
       <c r="D106" s="32" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E106" s="32" t="s">
         <v>32</v>
@@ -13116,7 +13116,7 @@
         <v>26</v>
       </c>
       <c r="G106" s="32" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H106" s="14" t="s">
         <v>35</v>
@@ -13133,7 +13133,7 @@
         <v>74</v>
       </c>
       <c r="N106" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O106" s="6">
         <v>43447</v>
@@ -13143,16 +13143,16 @@
         <v>30</v>
       </c>
       <c r="R106" s="33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S106" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="T106" s="32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U106" s="88" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="107" spans="1:21" ht="98" x14ac:dyDescent="0.35">
@@ -13160,13 +13160,13 @@
         <v>104</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C107" s="6">
         <v>43495</v>
       </c>
       <c r="D107" s="32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E107" s="32" t="s">
         <v>80</v>
@@ -13175,13 +13175,13 @@
         <v>26</v>
       </c>
       <c r="G107" s="32" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H107" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I107" s="32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J107" s="32"/>
       <c r="K107" s="32"/>
@@ -13204,18 +13204,18 @@
       <c r="T107" s="5"/>
       <c r="U107" s="32"/>
     </row>
-    <row r="108" spans="1:21" ht="154" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:21" ht="140" x14ac:dyDescent="0.35">
       <c r="A108" s="5">
         <v>105</v>
       </c>
       <c r="B108" s="31" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C108" s="6">
         <v>43495</v>
       </c>
       <c r="D108" s="32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E108" s="32" t="s">
         <v>15</v>
@@ -13224,17 +13224,17 @@
         <v>26</v>
       </c>
       <c r="G108" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H108" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I108" s="32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J108" s="32"/>
       <c r="K108" s="32" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L108" s="32">
         <v>1</v>
@@ -13255,12 +13255,12 @@
         <v>6</v>
       </c>
       <c r="R108" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S108" s="33"/>
       <c r="T108" s="5"/>
       <c r="U108" s="85" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="109" spans="1:21" ht="98" x14ac:dyDescent="0.35">
@@ -13268,13 +13268,13 @@
         <v>111</v>
       </c>
       <c r="B109" s="32" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C109" s="6">
         <v>43108</v>
       </c>
       <c r="D109" s="32" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E109" s="32" t="s">
         <v>125</v>
@@ -13283,10 +13283,10 @@
         <v>26</v>
       </c>
       <c r="G109" s="32" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H109" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I109" s="32" t="s">
         <v>85</v>
@@ -13300,7 +13300,7 @@
         <v>74</v>
       </c>
       <c r="N109" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O109" s="21">
         <v>43473</v>
@@ -13310,11 +13310,11 @@
         <v>30</v>
       </c>
       <c r="R109" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S109" s="33"/>
       <c r="T109" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U109" s="32"/>
     </row>
@@ -13323,13 +13323,13 @@
         <v>112</v>
       </c>
       <c r="B110" s="31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C110" s="6">
         <v>43108</v>
       </c>
       <c r="D110" s="32" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E110" s="32" t="s">
         <v>39</v>
@@ -13338,10 +13338,10 @@
         <v>26</v>
       </c>
       <c r="G110" s="32" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H110" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I110" s="32" t="s">
         <v>85</v>
@@ -13355,7 +13355,7 @@
         <v>74</v>
       </c>
       <c r="N110" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O110" s="21">
         <v>43473</v>
@@ -13367,7 +13367,7 @@
         <v>15</v>
       </c>
       <c r="R110" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S110" s="33"/>
       <c r="T110" s="5"/>
@@ -13378,13 +13378,13 @@
         <v>113</v>
       </c>
       <c r="B111" s="32" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C111" s="6">
         <v>43436</v>
       </c>
       <c r="D111" s="32" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E111" s="32" t="s">
         <v>125</v>
@@ -13393,10 +13393,10 @@
         <v>26</v>
       </c>
       <c r="G111" s="32" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H111" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I111" s="32" t="s">
         <v>85</v>
@@ -13422,11 +13422,11 @@
         <v>3</v>
       </c>
       <c r="R111" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S111" s="33"/>
       <c r="T111" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="U111" s="32"/>
     </row>
@@ -13435,13 +13435,13 @@
         <v>114</v>
       </c>
       <c r="B112" s="32" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C112" s="6">
         <v>43436</v>
       </c>
       <c r="D112" s="32" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E112" s="32" t="s">
         <v>125</v>
@@ -13450,10 +13450,10 @@
         <v>26</v>
       </c>
       <c r="G112" s="32" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H112" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I112" s="32" t="s">
         <v>85</v>
@@ -13479,26 +13479,26 @@
         <v>3</v>
       </c>
       <c r="R112" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S112" s="33"/>
       <c r="T112" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="U112" s="32"/>
     </row>
-    <row r="113" spans="1:21" ht="70" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:21" ht="56" x14ac:dyDescent="0.35">
       <c r="A113" s="5">
         <v>115</v>
       </c>
       <c r="B113" s="32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C113" s="6">
         <v>43496</v>
       </c>
       <c r="D113" s="32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E113" s="32" t="s">
         <v>125</v>
@@ -13507,10 +13507,10 @@
         <v>26</v>
       </c>
       <c r="G113" s="32" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H113" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I113" s="32" t="s">
         <v>85</v>
@@ -13524,7 +13524,7 @@
         <v>74</v>
       </c>
       <c r="N113" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O113" s="21">
         <v>43496</v>
@@ -13536,11 +13536,11 @@
         <v>3</v>
       </c>
       <c r="R113" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S113" s="33"/>
       <c r="T113" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="U113" s="32"/>
     </row>
@@ -13549,13 +13549,13 @@
         <v>116</v>
       </c>
       <c r="B114" s="32" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C114" s="6">
         <v>43496</v>
       </c>
       <c r="D114" s="32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E114" s="32" t="s">
         <v>125</v>
@@ -13564,10 +13564,10 @@
         <v>26</v>
       </c>
       <c r="G114" s="32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H114" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I114" s="32" t="s">
         <v>85</v>
@@ -13581,7 +13581,7 @@
         <v>74</v>
       </c>
       <c r="N114" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O114" s="21">
         <v>43496</v>
@@ -13590,29 +13590,29 @@
         <v>4</v>
       </c>
       <c r="Q114" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R114" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S114" s="33"/>
       <c r="T114" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="U114" s="32"/>
     </row>
-    <row r="115" spans="1:21" ht="56" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:21" ht="42" x14ac:dyDescent="0.35">
       <c r="A115" s="5">
         <v>117</v>
       </c>
       <c r="B115" s="32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C115" s="6">
         <v>43496</v>
       </c>
       <c r="D115" s="32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E115" s="32" t="s">
         <v>125</v>
@@ -13621,10 +13621,10 @@
         <v>26</v>
       </c>
       <c r="G115" s="32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H115" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I115" s="32" t="s">
         <v>85</v>
@@ -13638,7 +13638,7 @@
         <v>74</v>
       </c>
       <c r="N115" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O115" s="21">
         <v>43496</v>
@@ -13648,11 +13648,11 @@
         <v>11</v>
       </c>
       <c r="R115" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S115" s="33"/>
       <c r="T115" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U115" s="32"/>
     </row>
@@ -13661,13 +13661,13 @@
         <v>118</v>
       </c>
       <c r="B116" s="32" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C116" s="6">
         <v>43496</v>
       </c>
       <c r="D116" s="32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E116" s="32" t="s">
         <v>125</v>
@@ -13676,7 +13676,7 @@
         <v>26</v>
       </c>
       <c r="G116" s="32" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I116" s="32"/>
       <c r="J116" s="32"/>
@@ -13687,18 +13687,18 @@
         <v>74</v>
       </c>
       <c r="N116" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O116" s="32"/>
       <c r="Q116" s="5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="R116" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S116" s="33"/>
       <c r="T116" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U116" s="32"/>
     </row>
@@ -13707,13 +13707,13 @@
         <v>119</v>
       </c>
       <c r="B117" s="28" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C117" s="37">
         <v>43497</v>
       </c>
       <c r="D117" s="28" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E117" s="28" t="s">
         <v>125</v>
@@ -13722,10 +13722,10 @@
         <v>26</v>
       </c>
       <c r="G117" s="28" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I117" s="28" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J117" s="28"/>
       <c r="L117" s="28">
@@ -13735,18 +13735,18 @@
         <v>74</v>
       </c>
       <c r="N117" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O117" s="28"/>
       <c r="Q117" s="39">
         <v>5</v>
       </c>
       <c r="R117" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S117" s="89"/>
       <c r="T117" s="39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U117" s="28"/>
     </row>
@@ -13759,7 +13759,7 @@
         <v>43517</v>
       </c>
       <c r="D118" s="32" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E118" s="32" t="s">
         <v>80</v>
@@ -13768,11 +13768,11 @@
         <v>26</v>
       </c>
       <c r="G118" s="32" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H118" s="14"/>
       <c r="I118" s="32" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J118" s="32"/>
       <c r="K118" s="32"/>
@@ -13800,13 +13800,13 @@
         <v>121</v>
       </c>
       <c r="B119" s="31" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C119" s="6">
         <v>43517</v>
       </c>
       <c r="D119" s="32" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E119" s="32" t="s">
         <v>15</v>
@@ -13815,11 +13815,11 @@
         <v>26</v>
       </c>
       <c r="G119" s="32" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H119" s="14"/>
       <c r="I119" s="32" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J119" s="32"/>
       <c r="K119" s="32"/>
@@ -13848,7 +13848,7 @@
         <v>122</v>
       </c>
       <c r="B120" s="31" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C120" s="6">
         <v>43517</v>
@@ -13861,11 +13861,11 @@
         <v>26</v>
       </c>
       <c r="G120" s="32" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H120" s="14"/>
       <c r="I120" s="32" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J120" s="32"/>
       <c r="K120" s="32"/>
@@ -13897,7 +13897,7 @@
         <v>43525</v>
       </c>
       <c r="D121" s="32" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E121" s="32" t="s">
         <v>32</v>
@@ -13906,7 +13906,7 @@
         <v>26</v>
       </c>
       <c r="G121" s="32" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H121" s="14"/>
       <c r="I121" s="32"/>
@@ -13919,7 +13919,7 @@
         <v>74</v>
       </c>
       <c r="N121" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O121" s="21">
         <v>43525</v>
@@ -13940,7 +13940,7 @@
         <v>43525</v>
       </c>
       <c r="D122" s="32" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E122" s="32" t="s">
         <v>32</v>
@@ -13949,7 +13949,7 @@
         <v>26</v>
       </c>
       <c r="G122" s="32" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H122" s="14"/>
       <c r="I122" s="32"/>
@@ -13962,7 +13962,7 @@
         <v>74</v>
       </c>
       <c r="N122" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O122" s="21">
         <v>43525</v>
@@ -13979,13 +13979,13 @@
         <v>125</v>
       </c>
       <c r="B123" s="31" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C123" s="6">
         <v>43528</v>
       </c>
       <c r="D123" s="32" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E123" s="32" t="s">
         <v>15</v>
@@ -13994,7 +13994,7 @@
         <v>26</v>
       </c>
       <c r="G123" s="32" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H123" s="14"/>
       <c r="I123" s="32"/>
@@ -14028,7 +14028,7 @@
         <v>43528</v>
       </c>
       <c r="D124" s="32" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E124" s="32" t="s">
         <v>39</v>
@@ -14037,7 +14037,7 @@
         <v>26</v>
       </c>
       <c r="G124" s="32" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H124" s="14"/>
       <c r="I124" s="32"/>
@@ -14071,7 +14071,7 @@
         <v>43529</v>
       </c>
       <c r="D125" s="32" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E125" s="32" t="s">
         <v>80</v>
@@ -14080,7 +14080,7 @@
         <v>26</v>
       </c>
       <c r="G125" s="32" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I125" s="32"/>
       <c r="J125" s="32"/>
@@ -14108,13 +14108,13 @@
         <v>128</v>
       </c>
       <c r="B126" s="90" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C126" s="6">
         <v>43531</v>
       </c>
       <c r="D126" s="32" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E126" s="32" t="s">
         <v>15</v>
@@ -14123,7 +14123,7 @@
         <v>26</v>
       </c>
       <c r="G126" s="32" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I126" s="32"/>
       <c r="J126" s="32"/>
@@ -14135,7 +14135,7 @@
         <v>74</v>
       </c>
       <c r="N126" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O126" s="21">
         <v>43531</v>
@@ -14350,34 +14350,34 @@
   <sheetData>
     <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="66" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="67" t="s">
         <v>208</v>
-      </c>
-      <c r="C1" s="67" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="68"/>
       <c r="C2" s="69" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="70"/>
       <c r="C3" s="69" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="71"/>
       <c r="C4" s="69" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="72"/>
       <c r="C5" s="73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -14396,29 +14396,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D32E068FDE16E34B8075022FB1536456" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d905b7d076fda08b8ad7ac1f301e6870">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7784986bdb25cf89cb05135ef15ccb6c" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -14590,6 +14567,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
   <ds:schemaRefs>
@@ -14599,22 +14599,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62A013D4-4E69-4E0D-8B8F-1AA53B7A2CEA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14630,4 +14614,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
+++ b/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Documents\GitHub\mosip\docs\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1037145\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MOSIP_Feature_Roadmap!$A$2:$U$126</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
     <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="486">
   <si>
     <t>S.No.</t>
   </si>
@@ -4819,6 +4819,48 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>MOS-14566</t>
+  </si>
+  <si>
+    <t>MOS-8641</t>
+  </si>
+  <si>
+    <t>MOS-12112</t>
+  </si>
+  <si>
+    <t>MOS-5482</t>
+  </si>
+  <si>
+    <t>MOS-18117</t>
+  </si>
+  <si>
+    <t>MOS 9090</t>
+  </si>
+  <si>
+    <t>MOS 1226</t>
+  </si>
+  <si>
+    <t>MOS 16545</t>
+  </si>
+  <si>
+    <t>MOS-13661</t>
+  </si>
+  <si>
+    <t>MOS-12961</t>
+  </si>
+  <si>
+    <t>MOS-12874</t>
+  </si>
+  <si>
+    <t>MOS 1204</t>
+  </si>
+  <si>
+    <t>MOS-8942</t>
+  </si>
+  <si>
+    <t>MOS-1316</t>
   </si>
 </sst>
 </file>
@@ -6987,11 +7029,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:W126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O64" sqref="O64"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
@@ -7601,7 +7644,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" s="1" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -7712,7 +7755,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1" ht="280" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" s="1" customFormat="1" ht="280" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -7823,7 +7866,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" s="1" customFormat="1" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -7885,7 +7928,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1" ht="182" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" s="1" customFormat="1" ht="182" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -7947,7 +7990,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="4" customFormat="1" ht="210" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" s="4" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -8009,7 +8052,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" s="1" customFormat="1" ht="140" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -8069,7 +8112,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" s="4" customFormat="1" ht="126" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -8131,7 +8174,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" s="1" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -8179,7 +8222,7 @@
       <c r="T20" s="30"/>
       <c r="U20" s="21"/>
     </row>
-    <row r="21" spans="1:21" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" s="4" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -8291,7 +8334,9 @@
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="31"/>
+      <c r="B23" s="31" t="s">
+        <v>472</v>
+      </c>
       <c r="C23" s="6">
         <v>43402</v>
       </c>
@@ -8345,7 +8390,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="112" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" ht="112" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -8407,7 +8452,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="70" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -8457,7 +8502,7 @@
       <c r="T25" s="30"/>
       <c r="U25" s="21"/>
     </row>
-    <row r="26" spans="1:21" ht="84" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -8511,7 +8556,9 @@
       <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="83"/>
+      <c r="B27" s="83" t="s">
+        <v>473</v>
+      </c>
       <c r="C27" s="6">
         <v>43402</v>
       </c>
@@ -8569,7 +8616,9 @@
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="83"/>
+      <c r="B28" s="83" t="s">
+        <v>474</v>
+      </c>
       <c r="C28" s="6">
         <v>43418</v>
       </c>
@@ -8625,7 +8674,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="70" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -8675,7 +8724,7 @@
       <c r="T29" s="30"/>
       <c r="U29" s="21"/>
     </row>
-    <row r="30" spans="1:21" ht="56" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -8731,7 +8780,7 @@
       <c r="T30" s="30"/>
       <c r="U30" s="14"/>
     </row>
-    <row r="31" spans="1:21" ht="98" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -8793,7 +8842,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="56" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -8851,7 +8900,7 @@
       <c r="T32" s="30"/>
       <c r="U32" s="32"/>
     </row>
-    <row r="33" spans="1:21" s="8" customFormat="1" ht="126" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" s="8" customFormat="1" ht="126" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -8975,7 +9024,9 @@
       <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="83"/>
+      <c r="B35" s="83" t="s">
+        <v>477</v>
+      </c>
       <c r="C35" s="6">
         <v>43430</v>
       </c>
@@ -9026,7 +9077,7 @@
       <c r="T35" s="30"/>
       <c r="U35" s="14"/>
     </row>
-    <row r="36" spans="1:21" ht="182" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" ht="182" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -9090,7 +9141,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="98" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" ht="112" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -9154,7 +9205,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="168" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" ht="168" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -9218,7 +9269,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="98" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -9282,7 +9333,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="42" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -9340,7 +9391,9 @@
       <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="31"/>
+      <c r="B41" s="31" t="s">
+        <v>475</v>
+      </c>
       <c r="C41" s="6">
         <v>43430</v>
       </c>
@@ -9392,7 +9445,7 @@
       <c r="T41" s="30"/>
       <c r="U41" s="32"/>
     </row>
-    <row r="42" spans="1:21" ht="42" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -9450,7 +9503,9 @@
       <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="87"/>
+      <c r="B43" s="87" t="s">
+        <v>476</v>
+      </c>
       <c r="C43" s="6">
         <v>43427</v>
       </c>
@@ -9502,7 +9557,7 @@
       <c r="T43" s="30"/>
       <c r="U43" s="32"/>
     </row>
-    <row r="44" spans="1:21" ht="252" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21" ht="252" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -9562,7 +9617,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="112" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21" ht="112" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -9620,7 +9675,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="42" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -9682,7 +9737,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="70" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -9744,7 +9799,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="70" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:21" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -9794,7 +9849,7 @@
       <c r="T48" s="30"/>
       <c r="U48" s="32"/>
     </row>
-    <row r="49" spans="1:21" ht="42" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:21" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -9856,7 +9911,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="84" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:21" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -9919,7 +9974,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="56" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -9973,7 +10028,7 @@
       <c r="T51" s="30"/>
       <c r="U51" s="32"/>
     </row>
-    <row r="52" spans="1:21" ht="196" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:21" ht="196" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -10083,7 +10138,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="42" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:21" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -10133,7 +10188,7 @@
       <c r="T54" s="30"/>
       <c r="U54" s="32"/>
     </row>
-    <row r="55" spans="1:21" ht="56" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -10191,7 +10246,9 @@
       <c r="A56" s="5">
         <v>55</v>
       </c>
-      <c r="B56" s="83"/>
+      <c r="B56" s="83" t="s">
+        <v>478</v>
+      </c>
       <c r="C56" s="6">
         <v>43427</v>
       </c>
@@ -10248,7 +10305,9 @@
       <c r="A57" s="5">
         <v>55</v>
       </c>
-      <c r="B57" s="83"/>
+      <c r="B57" s="83" t="s">
+        <v>479</v>
+      </c>
       <c r="C57" s="6">
         <v>43427</v>
       </c>
@@ -10305,7 +10364,9 @@
       <c r="A58" s="5">
         <v>56</v>
       </c>
-      <c r="B58" s="84"/>
+      <c r="B58" s="84" t="s">
+        <v>480</v>
+      </c>
       <c r="C58" s="6">
         <v>43427</v>
       </c>
@@ -10359,7 +10420,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="56" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>57</v>
       </c>
@@ -10413,7 +10474,7 @@
       <c r="T59" s="30"/>
       <c r="U59" s="32"/>
     </row>
-    <row r="60" spans="1:21" ht="84" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:21" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>58</v>
       </c>
@@ -10467,7 +10528,7 @@
       <c r="T60" s="30"/>
       <c r="U60" s="32"/>
     </row>
-    <row r="61" spans="1:21" ht="98" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:21" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>59</v>
       </c>
@@ -10524,7 +10585,7 @@
       <c r="T61" s="30"/>
       <c r="U61" s="32"/>
     </row>
-    <row r="62" spans="1:21" ht="42" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:21" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <v>60</v>
       </c>
@@ -10587,7 +10648,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="56" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>61</v>
       </c>
@@ -10648,7 +10709,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="98" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:21" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>62</v>
       </c>
@@ -10699,7 +10760,7 @@
       <c r="T64" s="33"/>
       <c r="U64" s="32"/>
     </row>
-    <row r="65" spans="1:23" ht="42" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:23" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>63</v>
       </c>
@@ -10750,7 +10811,7 @@
       <c r="T65" s="33"/>
       <c r="U65" s="32"/>
     </row>
-    <row r="66" spans="1:23" ht="210" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:23" ht="210" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>64</v>
       </c>
@@ -10873,7 +10934,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="112" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:23" ht="112" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <v>66</v>
       </c>
@@ -10936,7 +10997,9 @@
       <c r="A69" s="5">
         <v>67</v>
       </c>
-      <c r="B69" s="83"/>
+      <c r="B69" s="83" t="s">
+        <v>481</v>
+      </c>
       <c r="C69" s="6">
         <v>43446</v>
       </c>
@@ -10994,7 +11057,9 @@
       <c r="A70" s="5">
         <v>68</v>
       </c>
-      <c r="B70" s="83"/>
+      <c r="B70" s="83" t="s">
+        <v>482</v>
+      </c>
       <c r="C70" s="6">
         <v>43446</v>
       </c>
@@ -11050,7 +11115,9 @@
       <c r="A71" s="5">
         <v>69</v>
       </c>
-      <c r="B71" s="83"/>
+      <c r="B71" s="83" t="s">
+        <v>483</v>
+      </c>
       <c r="C71" s="6">
         <v>43451</v>
       </c>
@@ -11104,7 +11171,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="168" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:23" ht="168" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
         <v>70</v>
       </c>
@@ -11225,7 +11292,7 @@
       <c r="V73" s="39"/>
       <c r="W73" s="28"/>
     </row>
-    <row r="74" spans="1:23" ht="98" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:23" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
         <v>72</v>
       </c>
@@ -11280,7 +11347,7 @@
       <c r="V74" s="5"/>
       <c r="W74" s="32"/>
     </row>
-    <row r="75" spans="1:23" ht="56" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:23" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
         <v>73</v>
       </c>
@@ -11341,7 +11408,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="154" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:23" ht="154" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
         <v>74</v>
       </c>
@@ -11768,7 +11835,7 @@
       <c r="V82" s="74"/>
       <c r="W82" s="32"/>
     </row>
-    <row r="83" spans="1:23" ht="112" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:23" ht="112" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
         <v>80</v>
       </c>
@@ -11893,7 +11960,9 @@
       <c r="A85" s="5">
         <v>82</v>
       </c>
-      <c r="B85" s="31"/>
+      <c r="B85" s="83" t="s">
+        <v>295</v>
+      </c>
       <c r="C85" s="6">
         <v>43477</v>
       </c>
@@ -12009,7 +12078,7 @@
       <c r="T86" s="5"/>
       <c r="U86" s="32"/>
     </row>
-    <row r="87" spans="1:23" ht="112" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:23" ht="112" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
         <v>84</v>
       </c>
@@ -12068,7 +12137,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="126" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:23" ht="126" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="5">
         <v>85</v>
       </c>
@@ -12129,7 +12198,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="168" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:23" ht="168" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="5">
         <v>86</v>
       </c>
@@ -12184,7 +12253,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="84" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:23" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="5">
         <v>87</v>
       </c>
@@ -12233,7 +12302,7 @@
       <c r="T90" s="5"/>
       <c r="U90" s="32"/>
     </row>
-    <row r="91" spans="1:23" ht="56" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:23" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="5">
         <v>88</v>
       </c>
@@ -12344,7 +12413,9 @@
       <c r="A93" s="5">
         <v>90</v>
       </c>
-      <c r="B93" s="83"/>
+      <c r="B93" s="83" t="s">
+        <v>484</v>
+      </c>
       <c r="C93" s="6">
         <v>43489</v>
       </c>
@@ -12634,7 +12705,7 @@
       <c r="T97" s="5"/>
       <c r="U97" s="32"/>
     </row>
-    <row r="98" spans="1:21" ht="98" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:21" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="5">
         <v>95</v>
       </c>
@@ -12687,7 +12758,9 @@
       <c r="A99" s="5">
         <v>96</v>
       </c>
-      <c r="B99" s="31"/>
+      <c r="B99" s="31" t="s">
+        <v>485</v>
+      </c>
       <c r="C99" s="6">
         <v>43489</v>
       </c>
@@ -13037,7 +13110,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="84" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:21" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="5">
         <v>102</v>
       </c>
@@ -13096,7 +13169,7 @@
       </c>
       <c r="U105" s="33"/>
     </row>
-    <row r="106" spans="1:21" ht="28" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:21" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="5">
         <v>103</v>
       </c>
@@ -13155,7 +13228,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="107" spans="1:21" ht="98" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:21" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="5">
         <v>104</v>
       </c>
@@ -13263,7 +13336,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="109" spans="1:21" ht="98" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:21" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="5">
         <v>111</v>
       </c>
@@ -13318,7 +13391,7 @@
       </c>
       <c r="U109" s="32"/>
     </row>
-    <row r="110" spans="1:21" ht="56" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="5">
         <v>112</v>
       </c>
@@ -13373,7 +13446,7 @@
       <c r="T110" s="5"/>
       <c r="U110" s="32"/>
     </row>
-    <row r="111" spans="1:21" ht="84" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:21" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="5">
         <v>113</v>
       </c>
@@ -13430,7 +13503,7 @@
       </c>
       <c r="U111" s="32"/>
     </row>
-    <row r="112" spans="1:21" ht="70" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:21" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="5">
         <v>114</v>
       </c>
@@ -13487,7 +13560,7 @@
       </c>
       <c r="U112" s="32"/>
     </row>
-    <row r="113" spans="1:21" ht="56" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:21" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="5">
         <v>115</v>
       </c>
@@ -13544,7 +13617,7 @@
       </c>
       <c r="U113" s="32"/>
     </row>
-    <row r="114" spans="1:21" ht="56" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="5">
         <v>116</v>
       </c>
@@ -13601,7 +13674,7 @@
       </c>
       <c r="U114" s="32"/>
     </row>
-    <row r="115" spans="1:21" ht="42" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="5">
         <v>117</v>
       </c>
@@ -13656,7 +13729,7 @@
       </c>
       <c r="U115" s="32"/>
     </row>
-    <row r="116" spans="1:21" ht="42" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:21" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="5">
         <v>118</v>
       </c>
@@ -13702,7 +13775,7 @@
       </c>
       <c r="U116" s="32"/>
     </row>
-    <row r="117" spans="1:21" ht="84" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:21" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="39">
         <v>119</v>
       </c>
@@ -13750,7 +13823,7 @@
       </c>
       <c r="U117" s="28"/>
     </row>
-    <row r="118" spans="1:21" ht="180.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:21" ht="180.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="5">
         <v>120</v>
       </c>
@@ -13888,7 +13961,7 @@
       <c r="T120" s="5"/>
       <c r="U120" s="32"/>
     </row>
-    <row r="121" spans="1:21" ht="84" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:21" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="5">
         <v>123</v>
       </c>
@@ -13931,7 +14004,7 @@
       <c r="T121" s="5"/>
       <c r="U121" s="32"/>
     </row>
-    <row r="122" spans="1:21" ht="70" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:21" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="5">
         <v>124</v>
       </c>
@@ -14019,7 +14092,7 @@
       <c r="T123" s="5"/>
       <c r="U123" s="32"/>
     </row>
-    <row r="124" spans="1:21" ht="140" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:21" ht="140" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="5">
         <v>126</v>
       </c>
@@ -14062,7 +14135,7 @@
       <c r="T124" s="5"/>
       <c r="U124" s="32"/>
     </row>
-    <row r="125" spans="1:21" ht="84" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:21" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="5">
         <v>127</v>
       </c>
@@ -14147,7 +14220,18 @@
       <c r="U126" s="32"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:U126"/>
+  <autoFilter ref="A2:U126">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Registration Client"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="New"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:U1"/>
   </mergeCells>
@@ -14387,12 +14471,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14568,32 +14666,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14617,17 +14709,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
+++ b/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1037145\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1036862\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DDC57A6-131F-4F71-A6E9-EC25002996F1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MOSIP_Feature_Roadmap" sheetId="5" r:id="rId1"/>
@@ -20,9 +21,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MOSIP_Feature_Roadmap!$A$2:$U$126</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="488">
   <si>
     <t>S.No.</t>
   </si>
@@ -4862,11 +4863,17 @@
   <si>
     <t>MOS-1316</t>
   </si>
+  <si>
+    <t>MOS-14511</t>
+  </si>
+  <si>
+    <t>MOS-17869</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
@@ -5502,7 +5509,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -5519,7 +5526,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="MINDTREE" refreshedDate="43448.660082060182" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="64">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="MINDTREE" refreshedDate="43448.660082060182" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="64" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A2:U70" sheet="MOSIP_Feature_Roadmap"/>
   </cacheSource>
@@ -6680,7 +6687,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField dataField="1" showAll="0"/>
@@ -7028,13 +7035,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B99" sqref="B99"/>
+      <pane ySplit="2" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
@@ -7153,7 +7160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1" ht="140" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" s="4" customFormat="1" ht="140" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -7215,7 +7222,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="4" customFormat="1" ht="154" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" s="4" customFormat="1" ht="154" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -7276,7 +7283,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" s="4" customFormat="1" ht="126" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -7338,7 +7345,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="4" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" s="4" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -7400,7 +7407,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="4" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" s="4" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -7462,7 +7469,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="4" customFormat="1" ht="140" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" s="4" customFormat="1" ht="140" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -7524,7 +7531,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="4" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" s="4" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -7584,7 +7591,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="4" customFormat="1" ht="98" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" s="4" customFormat="1" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -7698,7 +7705,7 @@
       <c r="T11" s="30"/>
       <c r="U11" s="21"/>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" s="1" customFormat="1" ht="126" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -7806,7 +7813,7 @@
       <c r="T13" s="30"/>
       <c r="U13" s="21"/>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="1" customFormat="1" ht="98" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -8270,7 +8277,7 @@
       <c r="T21" s="30"/>
       <c r="U21" s="21"/>
     </row>
-    <row r="22" spans="1:21" ht="84" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -8330,7 +8337,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="84" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -8552,7 +8559,7 @@
       <c r="T26" s="30"/>
       <c r="U26" s="21"/>
     </row>
-    <row r="27" spans="1:21" ht="84" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -8612,7 +8619,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="70" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -8842,7 +8849,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" ht="56" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -8958,7 +8965,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="8" customFormat="1" ht="98" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" s="8" customFormat="1" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -9020,7 +9027,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="84" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -9387,7 +9394,7 @@
       <c r="T40" s="30"/>
       <c r="U40" s="32"/>
     </row>
-    <row r="41" spans="1:21" ht="70" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -9499,7 +9506,7 @@
       <c r="T42" s="30"/>
       <c r="U42" s="32"/>
     </row>
-    <row r="43" spans="1:21" ht="56" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -10078,7 +10085,7 @@
       <c r="T52" s="30"/>
       <c r="U52" s="32"/>
     </row>
-    <row r="53" spans="1:21" ht="56" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -10242,7 +10249,7 @@
       <c r="T55" s="30"/>
       <c r="U55" s="32"/>
     </row>
-    <row r="56" spans="1:21" ht="70" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:21" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -10301,7 +10308,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="56" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>55</v>
       </c>
@@ -10360,7 +10367,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="42" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:21" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>56</v>
       </c>
@@ -10874,7 +10881,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="112" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:23" ht="112" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>65</v>
       </c>
@@ -10934,7 +10941,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:23" ht="112" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <v>66</v>
       </c>
@@ -10993,7 +11000,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="266" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:23" ht="266" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>67</v>
       </c>
@@ -11053,7 +11060,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="56" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:23" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <v>68</v>
       </c>
@@ -11111,7 +11118,7 @@
       <c r="T70" s="5"/>
       <c r="U70" s="32"/>
     </row>
-    <row r="71" spans="1:23" ht="126" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:23" ht="126" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>69</v>
       </c>
@@ -11171,7 +11178,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="168" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:23" ht="168" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
         <v>70</v>
       </c>
@@ -11232,7 +11239,7 @@
       <c r="V72" s="5"/>
       <c r="W72" s="32"/>
     </row>
-    <row r="73" spans="1:23" ht="168" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:23" ht="168" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
         <v>71</v>
       </c>
@@ -11469,7 +11476,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="196" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:23" ht="196" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
         <v>75</v>
       </c>
@@ -11529,7 +11536,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="168" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:23" ht="168" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
         <v>75</v>
       </c>
@@ -11591,7 +11598,7 @@
       <c r="V78" s="5"/>
       <c r="W78" s="32"/>
     </row>
-    <row r="79" spans="1:23" ht="126" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:23" ht="126" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
         <v>76</v>
       </c>
@@ -11651,7 +11658,7 @@
       <c r="V79" s="5"/>
       <c r="W79" s="32"/>
     </row>
-    <row r="80" spans="1:23" ht="126" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:23" ht="126" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
         <v>77</v>
       </c>
@@ -11713,7 +11720,7 @@
       <c r="V80" s="5"/>
       <c r="W80" s="32"/>
     </row>
-    <row r="81" spans="1:23" ht="84" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:23" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
         <v>78</v>
       </c>
@@ -11773,7 +11780,7 @@
       <c r="V81" s="74"/>
       <c r="W81" s="32"/>
     </row>
-    <row r="82" spans="1:23" ht="168" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:23" ht="168" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
         <v>79</v>
       </c>
@@ -11894,7 +11901,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="252" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:23" ht="252" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
         <v>81</v>
       </c>
@@ -11956,7 +11963,7 @@
       <c r="V84" s="74"/>
       <c r="W84" s="32"/>
     </row>
-    <row r="85" spans="1:23" ht="70" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:23" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
         <v>82</v>
       </c>
@@ -12018,7 +12025,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="70" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:23" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
         <v>83</v>
       </c>
@@ -12349,7 +12356,7 @@
       <c r="T91" s="5"/>
       <c r="U91" s="32"/>
     </row>
-    <row r="92" spans="1:23" ht="196" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:23" ht="196" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="5">
         <v>89</v>
       </c>
@@ -12409,7 +12416,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="93" spans="1:23" ht="42" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:23" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="5">
         <v>90</v>
       </c>
@@ -12467,7 +12474,7 @@
       <c r="T93" s="5"/>
       <c r="U93" s="32"/>
     </row>
-    <row r="94" spans="1:23" ht="56" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:23" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="5">
         <v>91</v>
       </c>
@@ -12527,7 +12534,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="95" spans="1:23" ht="70" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:23" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
         <v>92</v>
       </c>
@@ -12587,7 +12594,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="96" spans="1:23" ht="70" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:23" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="5">
         <v>93</v>
       </c>
@@ -12647,7 +12654,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="182" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:21" ht="182" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="5">
         <v>94</v>
       </c>
@@ -12705,7 +12712,7 @@
       <c r="T97" s="5"/>
       <c r="U97" s="32"/>
     </row>
-    <row r="98" spans="1:21" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:21" ht="98" x14ac:dyDescent="0.35">
       <c r="A98" s="5">
         <v>95</v>
       </c>
@@ -12754,7 +12761,7 @@
       <c r="T98" s="5"/>
       <c r="U98" s="32"/>
     </row>
-    <row r="99" spans="1:21" ht="140" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:21" ht="140" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="5">
         <v>96</v>
       </c>
@@ -12812,7 +12819,7 @@
       <c r="T99" s="5"/>
       <c r="U99" s="32"/>
     </row>
-    <row r="100" spans="1:21" ht="112" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:21" ht="112" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="5">
         <v>97</v>
       </c>
@@ -12872,7 +12879,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="322" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:21" ht="322" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="5">
         <v>98</v>
       </c>
@@ -12932,7 +12939,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="42" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:21" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="5">
         <v>99</v>
       </c>
@@ -12990,7 +12997,7 @@
       <c r="T102" s="5"/>
       <c r="U102" s="32"/>
     </row>
-    <row r="103" spans="1:21" ht="28" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:21" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="5">
         <v>100</v>
       </c>
@@ -13050,7 +13057,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="104" spans="1:21" ht="28" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:21" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="5">
         <v>101</v>
       </c>
@@ -13228,7 +13235,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="107" spans="1:21" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:21" ht="98" x14ac:dyDescent="0.35">
       <c r="A107" s="5">
         <v>104</v>
       </c>
@@ -13277,7 +13284,7 @@
       <c r="T107" s="5"/>
       <c r="U107" s="32"/>
     </row>
-    <row r="108" spans="1:21" ht="140" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:21" ht="140" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="5">
         <v>105</v>
       </c>
@@ -13823,11 +13830,13 @@
       </c>
       <c r="U117" s="28"/>
     </row>
-    <row r="118" spans="1:21" ht="180.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:21" ht="180.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="5">
         <v>120</v>
       </c>
-      <c r="B118" s="31"/>
+      <c r="B118" s="31" t="s">
+        <v>486</v>
+      </c>
       <c r="C118" s="6">
         <v>43517</v>
       </c>
@@ -13868,7 +13877,7 @@
       <c r="T118" s="5"/>
       <c r="U118" s="32"/>
     </row>
-    <row r="119" spans="1:21" ht="180.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:21" ht="180.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="5">
         <v>121</v>
       </c>
@@ -13915,7 +13924,7 @@
       <c r="T119" s="5"/>
       <c r="U119" s="32"/>
     </row>
-    <row r="120" spans="1:21" ht="28" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:21" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="5">
         <f>1+A119</f>
         <v>122</v>
@@ -14047,7 +14056,7 @@
       <c r="T122" s="5"/>
       <c r="U122" s="32"/>
     </row>
-    <row r="123" spans="1:21" ht="140" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:21" ht="140" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="5">
         <v>125</v>
       </c>
@@ -14135,11 +14144,13 @@
       <c r="T124" s="5"/>
       <c r="U124" s="32"/>
     </row>
-    <row r="125" spans="1:21" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:21" ht="84" x14ac:dyDescent="0.35">
       <c r="A125" s="5">
         <v>127</v>
       </c>
-      <c r="B125" s="31"/>
+      <c r="B125" s="31" t="s">
+        <v>487</v>
+      </c>
       <c r="C125" s="6">
         <v>43529</v>
       </c>
@@ -14176,7 +14187,7 @@
       <c r="T125" s="5"/>
       <c r="U125" s="32"/>
     </row>
-    <row r="126" spans="1:21" ht="28" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:21" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="5">
         <v>128</v>
       </c>
@@ -14220,10 +14231,10 @@
       <c r="U126" s="32"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:U126">
+  <autoFilter ref="A2:U126" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="4">
       <filters>
-        <filter val="Registration Client"/>
+        <filter val="Pre-registration"/>
       </filters>
     </filterColumn>
     <filterColumn colId="5">
@@ -14236,7 +14247,7 @@
     <mergeCell ref="A1:U1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B126" r:id="rId1" display="https://mosipid.atlassian.net/browse/MOS-18100"/>
+    <hyperlink ref="B126" r:id="rId1" display="https://mosipid.atlassian.net/browse/MOS-18100" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -14244,7 +14255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14304,7 +14315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14422,7 +14433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14471,26 +14482,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14666,26 +14663,32 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14709,9 +14712,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
+++ b/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1036862\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1012602\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DDC57A6-131F-4F71-A6E9-EC25002996F1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{26626B09-0D32-4C66-9225-F99C54493136}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="7575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MOSIP_Feature_Roadmap" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="3" r:id="rId5"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="490">
   <si>
     <t>S.No.</t>
   </si>
@@ -4868,6 +4868,12 @@
   </si>
   <si>
     <t>MOS-17869</t>
+  </si>
+  <si>
+    <t>MOS-18214</t>
+  </si>
+  <si>
+    <t>MOS-18215</t>
   </si>
 </sst>
 </file>
@@ -6687,7 +6693,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField dataField="1" showAll="0"/>
@@ -7040,37 +7046,37 @@
   <dimension ref="A1:W126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D133" sqref="D133"/>
+      <pane ySplit="2" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B121" sqref="B121:B122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" style="27" customWidth="1"/>
-    <col min="3" max="3" width="25.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="3" customWidth="1"/>
     <col min="7" max="7" width="49" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" style="16" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="28.453125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="38.453125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="16" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="28.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="38.42578125" style="3" customWidth="1"/>
     <col min="11" max="11" width="24" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="11.1796875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="22.81640625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="12.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.1796875" style="27" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="17.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.81640625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="22.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="83.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="20.453125" style="10"/>
+    <col min="12" max="12" width="11.140625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="22.85546875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.140625" style="27" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.85546875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="22.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="83.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="20.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
         <v>209</v>
       </c>
@@ -7095,7 +7101,7 @@
       <c r="T1" s="93"/>
       <c r="U1" s="95"/>
     </row>
-    <row r="2" spans="1:21" ht="42" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
@@ -7160,7 +7166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" s="4" customFormat="1" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -7222,7 +7228,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="4" customFormat="1" ht="154" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" s="4" customFormat="1" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -7283,7 +7289,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="4" customFormat="1" ht="126" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" s="4" customFormat="1" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -7345,7 +7351,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="4" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" s="4" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -7407,7 +7413,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="4" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" s="4" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -7469,7 +7475,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="4" customFormat="1" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" s="4" customFormat="1" ht="171" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -7531,7 +7537,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="4" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" s="4" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -7591,7 +7597,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="4" customFormat="1" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" s="4" customFormat="1" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -7651,7 +7657,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" s="1" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -7705,7 +7711,7 @@
       <c r="T11" s="30"/>
       <c r="U11" s="21"/>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1" ht="126" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" s="1" customFormat="1" ht="142.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -7762,7 +7768,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1" ht="280" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" s="1" customFormat="1" ht="285" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -7813,7 +7819,7 @@
       <c r="T13" s="30"/>
       <c r="U13" s="21"/>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1" ht="98" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="1" customFormat="1" ht="114" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -7873,7 +7879,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" s="1" customFormat="1" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -7935,7 +7941,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1" ht="182" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" s="1" customFormat="1" ht="199.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -7997,7 +8003,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="4" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" s="4" customFormat="1" ht="213.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -8059,7 +8065,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" s="1" customFormat="1" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -8119,7 +8125,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="4" customFormat="1" ht="126" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" s="4" customFormat="1" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -8181,7 +8187,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" s="1" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -8229,7 +8235,7 @@
       <c r="T20" s="30"/>
       <c r="U20" s="21"/>
     </row>
-    <row r="21" spans="1:21" s="4" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" s="4" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -8277,7 +8283,7 @@
       <c r="T21" s="30"/>
       <c r="U21" s="21"/>
     </row>
-    <row r="22" spans="1:21" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -8337,7 +8343,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -8397,7 +8403,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -8459,7 +8465,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -8509,7 +8515,7 @@
       <c r="T25" s="30"/>
       <c r="U25" s="21"/>
     </row>
-    <row r="26" spans="1:21" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -8559,7 +8565,7 @@
       <c r="T26" s="30"/>
       <c r="U26" s="21"/>
     </row>
-    <row r="27" spans="1:21" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -8619,7 +8625,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -8681,7 +8687,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -8731,7 +8737,7 @@
       <c r="T29" s="30"/>
       <c r="U29" s="21"/>
     </row>
-    <row r="30" spans="1:21" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -8787,7 +8793,7 @@
       <c r="T30" s="30"/>
       <c r="U30" s="14"/>
     </row>
-    <row r="31" spans="1:21" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -8849,7 +8855,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="56" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -8907,7 +8913,7 @@
       <c r="T32" s="30"/>
       <c r="U32" s="32"/>
     </row>
-    <row r="33" spans="1:21" s="8" customFormat="1" ht="126" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" s="8" customFormat="1" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -8965,7 +8971,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="8" customFormat="1" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" s="8" customFormat="1" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -9027,7 +9033,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -9084,7 +9090,7 @@
       <c r="T35" s="30"/>
       <c r="U35" s="14"/>
     </row>
-    <row r="36" spans="1:21" ht="182" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -9148,7 +9154,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" ht="114" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -9212,7 +9218,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="168" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" ht="171" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -9276,7 +9282,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -9340,7 +9346,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -9394,7 +9400,7 @@
       <c r="T40" s="30"/>
       <c r="U40" s="32"/>
     </row>
-    <row r="41" spans="1:21" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -9452,7 +9458,7 @@
       <c r="T41" s="30"/>
       <c r="U41" s="32"/>
     </row>
-    <row r="42" spans="1:21" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -9506,7 +9512,7 @@
       <c r="T42" s="30"/>
       <c r="U42" s="32"/>
     </row>
-    <row r="43" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -9564,7 +9570,7 @@
       <c r="T43" s="30"/>
       <c r="U43" s="32"/>
     </row>
-    <row r="44" spans="1:21" ht="252" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21" ht="299.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -9624,7 +9630,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -9682,7 +9688,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -9744,7 +9750,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -9806,7 +9812,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:21" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -9856,7 +9862,7 @@
       <c r="T48" s="30"/>
       <c r="U48" s="32"/>
     </row>
-    <row r="49" spans="1:21" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -9918,7 +9924,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -9981,7 +9987,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -10035,7 +10041,7 @@
       <c r="T51" s="30"/>
       <c r="U51" s="32"/>
     </row>
-    <row r="52" spans="1:21" ht="196" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:21" ht="199.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -10085,7 +10091,7 @@
       <c r="T52" s="30"/>
       <c r="U52" s="32"/>
     </row>
-    <row r="53" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -10145,7 +10151,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -10195,7 +10201,7 @@
       <c r="T54" s="30"/>
       <c r="U54" s="32"/>
     </row>
-    <row r="55" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -10249,7 +10255,7 @@
       <c r="T55" s="30"/>
       <c r="U55" s="32"/>
     </row>
-    <row r="56" spans="1:21" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -10308,7 +10314,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:21" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>55</v>
       </c>
@@ -10367,7 +10373,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>56</v>
       </c>
@@ -10427,7 +10433,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>57</v>
       </c>
@@ -10481,7 +10487,7 @@
       <c r="T59" s="30"/>
       <c r="U59" s="32"/>
     </row>
-    <row r="60" spans="1:21" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:21" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>58</v>
       </c>
@@ -10535,7 +10541,7 @@
       <c r="T60" s="30"/>
       <c r="U60" s="32"/>
     </row>
-    <row r="61" spans="1:21" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:21" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>59</v>
       </c>
@@ -10592,7 +10598,7 @@
       <c r="T61" s="30"/>
       <c r="U61" s="32"/>
     </row>
-    <row r="62" spans="1:21" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>60</v>
       </c>
@@ -10655,7 +10661,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>61</v>
       </c>
@@ -10716,7 +10722,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:21" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>62</v>
       </c>
@@ -10767,7 +10773,7 @@
       <c r="T64" s="33"/>
       <c r="U64" s="32"/>
     </row>
-    <row r="65" spans="1:23" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:23" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>63</v>
       </c>
@@ -10818,7 +10824,7 @@
       <c r="T65" s="33"/>
       <c r="U65" s="32"/>
     </row>
-    <row r="66" spans="1:23" ht="210" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:23" ht="228" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>64</v>
       </c>
@@ -10881,7 +10887,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:23" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>65</v>
       </c>
@@ -10941,7 +10947,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="112" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:23" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>66</v>
       </c>
@@ -11000,7 +11006,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="266" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:23" ht="285" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>67</v>
       </c>
@@ -11060,7 +11066,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:23" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>68</v>
       </c>
@@ -11118,7 +11124,7 @@
       <c r="T70" s="5"/>
       <c r="U70" s="32"/>
     </row>
-    <row r="71" spans="1:23" ht="126" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:23" ht="142.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>69</v>
       </c>
@@ -11178,7 +11184,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="168" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:23" ht="171" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>70</v>
       </c>
@@ -11239,7 +11245,7 @@
       <c r="V72" s="5"/>
       <c r="W72" s="32"/>
     </row>
-    <row r="73" spans="1:23" ht="168" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:23" ht="171" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>71</v>
       </c>
@@ -11299,7 +11305,7 @@
       <c r="V73" s="39"/>
       <c r="W73" s="28"/>
     </row>
-    <row r="74" spans="1:23" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:23" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>72</v>
       </c>
@@ -11354,7 +11360,7 @@
       <c r="V74" s="5"/>
       <c r="W74" s="32"/>
     </row>
-    <row r="75" spans="1:23" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:23" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>73</v>
       </c>
@@ -11415,7 +11421,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="154" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:23" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>74</v>
       </c>
@@ -11476,7 +11482,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="196" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:23" ht="213.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>75</v>
       </c>
@@ -11536,7 +11542,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="168" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:23" ht="185.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>75</v>
       </c>
@@ -11598,7 +11604,7 @@
       <c r="V78" s="5"/>
       <c r="W78" s="32"/>
     </row>
-    <row r="79" spans="1:23" ht="126" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:23" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>76</v>
       </c>
@@ -11658,7 +11664,7 @@
       <c r="V79" s="5"/>
       <c r="W79" s="32"/>
     </row>
-    <row r="80" spans="1:23" ht="126" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:23" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>77</v>
       </c>
@@ -11720,7 +11726,7 @@
       <c r="V80" s="5"/>
       <c r="W80" s="32"/>
     </row>
-    <row r="81" spans="1:23" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:23" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>78</v>
       </c>
@@ -11780,7 +11786,7 @@
       <c r="V81" s="74"/>
       <c r="W81" s="32"/>
     </row>
-    <row r="82" spans="1:23" ht="168" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:23" ht="171" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>79</v>
       </c>
@@ -11842,7 +11848,7 @@
       <c r="V82" s="74"/>
       <c r="W82" s="32"/>
     </row>
-    <row r="83" spans="1:23" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:23" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>80</v>
       </c>
@@ -11901,7 +11907,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="252" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:23" ht="270.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>81</v>
       </c>
@@ -11963,7 +11969,7 @@
       <c r="V84" s="74"/>
       <c r="W84" s="32"/>
     </row>
-    <row r="85" spans="1:23" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:23" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>82</v>
       </c>
@@ -12025,7 +12031,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:23" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>83</v>
       </c>
@@ -12085,7 +12091,7 @@
       <c r="T86" s="5"/>
       <c r="U86" s="32"/>
     </row>
-    <row r="87" spans="1:23" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:23" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>84</v>
       </c>
@@ -12144,7 +12150,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="126" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:23" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>85</v>
       </c>
@@ -12205,7 +12211,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="168" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:23" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>86</v>
       </c>
@@ -12260,7 +12266,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:23" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>87</v>
       </c>
@@ -12309,7 +12315,7 @@
       <c r="T90" s="5"/>
       <c r="U90" s="32"/>
     </row>
-    <row r="91" spans="1:23" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:23" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>88</v>
       </c>
@@ -12356,7 +12362,7 @@
       <c r="T91" s="5"/>
       <c r="U91" s="32"/>
     </row>
-    <row r="92" spans="1:23" ht="196" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:23" ht="199.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>89</v>
       </c>
@@ -12416,7 +12422,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="93" spans="1:23" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:23" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>90</v>
       </c>
@@ -12474,7 +12480,7 @@
       <c r="T93" s="5"/>
       <c r="U93" s="32"/>
     </row>
-    <row r="94" spans="1:23" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:23" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>91</v>
       </c>
@@ -12534,7 +12540,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="95" spans="1:23" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:23" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>92</v>
       </c>
@@ -12594,7 +12600,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="96" spans="1:23" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:23" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>93</v>
       </c>
@@ -12654,7 +12660,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="182" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:21" ht="171" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>94</v>
       </c>
@@ -12712,7 +12718,7 @@
       <c r="T97" s="5"/>
       <c r="U97" s="32"/>
     </row>
-    <row r="98" spans="1:21" ht="98" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>95</v>
       </c>
@@ -12761,7 +12767,7 @@
       <c r="T98" s="5"/>
       <c r="U98" s="32"/>
     </row>
-    <row r="99" spans="1:21" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:21" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>96</v>
       </c>
@@ -12819,7 +12825,7 @@
       <c r="T99" s="5"/>
       <c r="U99" s="32"/>
     </row>
-    <row r="100" spans="1:21" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:21" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>97</v>
       </c>
@@ -12879,7 +12885,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="322" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:21" ht="342" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>98</v>
       </c>
@@ -12939,7 +12945,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>99</v>
       </c>
@@ -12997,7 +13003,7 @@
       <c r="T102" s="5"/>
       <c r="U102" s="32"/>
     </row>
-    <row r="103" spans="1:21" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:21" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>100</v>
       </c>
@@ -13057,7 +13063,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="104" spans="1:21" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:21" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>101</v>
       </c>
@@ -13117,7 +13123,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>102</v>
       </c>
@@ -13176,7 +13182,7 @@
       </c>
       <c r="U105" s="33"/>
     </row>
-    <row r="106" spans="1:21" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>103</v>
       </c>
@@ -13235,7 +13241,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="107" spans="1:21" ht="98" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:21" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>104</v>
       </c>
@@ -13284,7 +13290,7 @@
       <c r="T107" s="5"/>
       <c r="U107" s="32"/>
     </row>
-    <row r="108" spans="1:21" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:21" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>105</v>
       </c>
@@ -13343,7 +13349,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="109" spans="1:21" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:21" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>111</v>
       </c>
@@ -13398,7 +13404,7 @@
       </c>
       <c r="U109" s="32"/>
     </row>
-    <row r="110" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>112</v>
       </c>
@@ -13453,7 +13459,7 @@
       <c r="T110" s="5"/>
       <c r="U110" s="32"/>
     </row>
-    <row r="111" spans="1:21" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>113</v>
       </c>
@@ -13510,7 +13516,7 @@
       </c>
       <c r="U111" s="32"/>
     </row>
-    <row r="112" spans="1:21" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
         <v>114</v>
       </c>
@@ -13567,7 +13573,7 @@
       </c>
       <c r="U112" s="32"/>
     </row>
-    <row r="113" spans="1:21" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:21" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
         <v>115</v>
       </c>
@@ -13624,7 +13630,7 @@
       </c>
       <c r="U113" s="32"/>
     </row>
-    <row r="114" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <v>116</v>
       </c>
@@ -13681,7 +13687,7 @@
       </c>
       <c r="U114" s="32"/>
     </row>
-    <row r="115" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
         <v>117</v>
       </c>
@@ -13736,7 +13742,7 @@
       </c>
       <c r="U115" s="32"/>
     </row>
-    <row r="116" spans="1:21" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <v>118</v>
       </c>
@@ -13782,7 +13788,7 @@
       </c>
       <c r="U116" s="32"/>
     </row>
-    <row r="117" spans="1:21" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="39">
         <v>119</v>
       </c>
@@ -13830,7 +13836,7 @@
       </c>
       <c r="U117" s="28"/>
     </row>
-    <row r="118" spans="1:21" ht="180.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:21" ht="180.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
         <v>120</v>
       </c>
@@ -13877,7 +13883,7 @@
       <c r="T118" s="5"/>
       <c r="U118" s="32"/>
     </row>
-    <row r="119" spans="1:21" ht="180.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:21" ht="180.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
         <v>121</v>
       </c>
@@ -13924,7 +13930,7 @@
       <c r="T119" s="5"/>
       <c r="U119" s="32"/>
     </row>
-    <row r="120" spans="1:21" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:21" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <f>1+A119</f>
         <v>122</v>
@@ -13970,11 +13976,13 @@
       <c r="T120" s="5"/>
       <c r="U120" s="32"/>
     </row>
-    <row r="121" spans="1:21" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
         <v>123</v>
       </c>
-      <c r="B121" s="31"/>
+      <c r="B121" s="31" t="s">
+        <v>488</v>
+      </c>
       <c r="C121" s="6">
         <v>43525</v>
       </c>
@@ -14013,11 +14021,13 @@
       <c r="T121" s="5"/>
       <c r="U121" s="32"/>
     </row>
-    <row r="122" spans="1:21" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
         <v>124</v>
       </c>
-      <c r="B122" s="31"/>
+      <c r="B122" s="31" t="s">
+        <v>489</v>
+      </c>
       <c r="C122" s="6">
         <v>43525</v>
       </c>
@@ -14056,7 +14066,7 @@
       <c r="T122" s="5"/>
       <c r="U122" s="32"/>
     </row>
-    <row r="123" spans="1:21" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:21" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
         <v>125</v>
       </c>
@@ -14101,7 +14111,7 @@
       <c r="T123" s="5"/>
       <c r="U123" s="32"/>
     </row>
-    <row r="124" spans="1:21" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:21" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
         <v>126</v>
       </c>
@@ -14144,7 +14154,7 @@
       <c r="T124" s="5"/>
       <c r="U124" s="32"/>
     </row>
-    <row r="125" spans="1:21" ht="84" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:21" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
         <v>127</v>
       </c>
@@ -14187,7 +14197,7 @@
       <c r="T125" s="5"/>
       <c r="U125" s="32"/>
     </row>
-    <row r="126" spans="1:21" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:21" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
         <v>128</v>
       </c>
@@ -14234,7 +14244,7 @@
   <autoFilter ref="A2:U126" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="4">
       <filters>
-        <filter val="Pre-registration"/>
+        <filter val="ID Authentication"/>
       </filters>
     </filterColumn>
     <filterColumn colId="5">
@@ -14260,52 +14270,52 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
     </row>
   </sheetData>
@@ -14320,14 +14330,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>145</v>
       </c>
@@ -14338,7 +14348,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>72</v>
       </c>
@@ -14349,7 +14359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>32</v>
       </c>
@@ -14360,7 +14370,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>125</v>
       </c>
@@ -14371,7 +14381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>80</v>
       </c>
@@ -14382,7 +14392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>15</v>
       </c>
@@ -14393,7 +14403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>39</v>
       </c>
@@ -14404,7 +14414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>52</v>
       </c>
@@ -14415,7 +14425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>146</v>
       </c>
@@ -14438,12 +14448,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="52.1796875" customWidth="1"/>
+    <col min="3" max="3" width="52.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="66" t="s">
         <v>207</v>
       </c>
@@ -14451,25 +14461,25 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="68"/>
       <c r="C2" s="69" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="70"/>
       <c r="C3" s="69" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="71"/>
       <c r="C4" s="69" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="72"/>
       <c r="C5" s="73" t="s">
         <v>206</v>
@@ -14482,15 +14492,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D32E068FDE16E34B8075022FB1536456" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d905b7d076fda08b8ad7ac1f301e6870">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7784986bdb25cf89cb05135ef15ccb6c" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -14662,6 +14663,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -14686,14 +14696,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62A013D4-4E69-4E0D-8B8F-1AA53B7A2CEA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14707,6 +14709,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
+++ b/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1012602\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip_new_master\mosip\docs\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{26626B09-0D32-4C66-9225-F99C54493136}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01CCFC6-BCAB-47F6-ADEF-867B59F1E775}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="7575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="7580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MOSIP_Feature_Roadmap" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MOSIP_Feature_Roadmap!$A$2:$U$126</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <pivotCaches>
     <pivotCache cacheId="3" r:id="rId5"/>
   </pivotCaches>
@@ -30,12 +30,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="495">
   <si>
     <t>S.No.</t>
   </si>
@@ -4874,6 +4879,21 @@
   </si>
   <si>
     <t>MOS-18215</t>
+  </si>
+  <si>
+    <t>MOS-17678</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Creating ABIS Middle-ware for Registration Processor (ABIS Middle ware is inclusive of Face De-Dupe, Iris De-Dupe and Finger Print De-Dupe Combined)</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>MOS-13140</t>
   </si>
 </sst>
 </file>
@@ -5212,7 +5232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5484,6 +5504,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7046,37 +7069,37 @@
   <dimension ref="A1:W126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B121" sqref="B121:B122"/>
+      <pane ySplit="2" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.1796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="25.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="3" customWidth="1"/>
     <col min="7" max="7" width="49" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="16" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="28.42578125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="38.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" style="16" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="28.453125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="38.453125" style="3" customWidth="1"/>
     <col min="11" max="11" width="24" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="11.140625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="22.85546875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.140625" style="27" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.85546875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="22.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="83.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="20.42578125" style="10"/>
+    <col min="12" max="12" width="11.1796875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="22.81640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="12.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.1796875" style="27" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="17.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.81640625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="22.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="83.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="20.453125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="91" t="s">
         <v>209</v>
       </c>
@@ -7101,7 +7124,7 @@
       <c r="T1" s="93"/>
       <c r="U1" s="95"/>
     </row>
-    <row r="2" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="42" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
@@ -7166,7 +7189,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" s="4" customFormat="1" ht="140" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -7228,7 +7251,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="4" customFormat="1" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" s="4" customFormat="1" ht="154" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -7289,7 +7312,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="4" customFormat="1" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -7351,7 +7374,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="4" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" s="4" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -7413,7 +7436,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="4" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" s="4" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -7475,7 +7498,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="4" customFormat="1" ht="171" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" s="4" customFormat="1" ht="140" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -7537,7 +7560,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="4" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" s="4" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -7597,7 +7620,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="4" customFormat="1" ht="114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" s="4" customFormat="1" ht="98" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -7657,7 +7680,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" s="1" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -7711,7 +7734,7 @@
       <c r="T11" s="30"/>
       <c r="U11" s="21"/>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1" ht="142.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -7768,7 +7791,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1" ht="285" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" s="1" customFormat="1" ht="280" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -7819,7 +7842,7 @@
       <c r="T13" s="30"/>
       <c r="U13" s="21"/>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1" ht="114" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -7879,7 +7902,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -7924,7 +7947,7 @@
       <c r="P15" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="Q15" s="79">
+      <c r="Q15" s="96">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -7941,7 +7964,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1" ht="199.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" s="1" customFormat="1" ht="182" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -7986,7 +8009,7 @@
       <c r="P16" s="52">
         <v>36</v>
       </c>
-      <c r="Q16" s="79">
+      <c r="Q16" s="96">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
@@ -8003,7 +8026,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="4" customFormat="1" ht="213.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" s="4" customFormat="1" ht="210" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -8048,7 +8071,7 @@
       <c r="P17" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="Q17" s="79">
+      <c r="Q17" s="96">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
@@ -8065,11 +8088,13 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="C18" s="6">
         <v>43397</v>
       </c>
@@ -8108,7 +8133,7 @@
       <c r="P18" s="41">
         <v>0</v>
       </c>
-      <c r="Q18" s="79">
+      <c r="Q18" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8125,7 +8150,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="4" customFormat="1" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -8170,7 +8195,7 @@
       <c r="P19" s="53">
         <v>10</v>
       </c>
-      <c r="Q19" s="79">
+      <c r="Q19" s="96">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -8187,7 +8212,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -8235,7 +8260,7 @@
       <c r="T20" s="30"/>
       <c r="U20" s="21"/>
     </row>
-    <row r="21" spans="1:21" s="4" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -8283,7 +8308,7 @@
       <c r="T21" s="30"/>
       <c r="U21" s="21"/>
     </row>
-    <row r="22" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="84" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -8343,7 +8368,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="84" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -8403,7 +8428,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="112" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -8448,7 +8473,7 @@
       <c r="P24" s="52">
         <v>20</v>
       </c>
-      <c r="Q24" s="79">
+      <c r="Q24" s="96">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -8465,7 +8490,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="70" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -8515,7 +8540,7 @@
       <c r="T25" s="30"/>
       <c r="U25" s="21"/>
     </row>
-    <row r="26" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="84" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -8565,7 +8590,7 @@
       <c r="T26" s="30"/>
       <c r="U26" s="21"/>
     </row>
-    <row r="27" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="84" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -8625,7 +8650,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="70" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -8687,7 +8712,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="70" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -8737,7 +8762,7 @@
       <c r="T29" s="30"/>
       <c r="U29" s="21"/>
     </row>
-    <row r="30" spans="1:21" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="56" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -8793,7 +8818,7 @@
       <c r="T30" s="30"/>
       <c r="U30" s="14"/>
     </row>
-    <row r="31" spans="1:21" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="98" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -8838,7 +8863,7 @@
       <c r="P31" s="52">
         <v>20</v>
       </c>
-      <c r="Q31" s="79">
+      <c r="Q31" s="96">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -8855,7 +8880,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="56" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -8913,7 +8938,7 @@
       <c r="T32" s="30"/>
       <c r="U32" s="32"/>
     </row>
-    <row r="33" spans="1:21" s="8" customFormat="1" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" s="8" customFormat="1" ht="126" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -8971,7 +8996,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="8" customFormat="1" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" s="8" customFormat="1" ht="98" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -9033,7 +9058,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="84" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -9090,7 +9115,7 @@
       <c r="T35" s="30"/>
       <c r="U35" s="14"/>
     </row>
-    <row r="36" spans="1:21" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="182" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -9154,7 +9179,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="114" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="98" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -9218,7 +9243,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="171" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="168" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -9282,7 +9307,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="98" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -9346,7 +9371,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -9400,7 +9425,7 @@
       <c r="T40" s="30"/>
       <c r="U40" s="32"/>
     </row>
-    <row r="41" spans="1:21" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="70" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -9458,7 +9483,7 @@
       <c r="T41" s="30"/>
       <c r="U41" s="32"/>
     </row>
-    <row r="42" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -9512,7 +9537,7 @@
       <c r="T42" s="30"/>
       <c r="U42" s="32"/>
     </row>
-    <row r="43" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="56" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -9570,7 +9595,7 @@
       <c r="T43" s="30"/>
       <c r="U43" s="32"/>
     </row>
-    <row r="44" spans="1:21" ht="299.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="252" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -9615,7 +9640,7 @@
       <c r="P44" s="52">
         <v>60</v>
       </c>
-      <c r="Q44" s="79">
+      <c r="Q44" s="96">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
@@ -9630,7 +9655,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="112" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -9688,7 +9713,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="42" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -9733,7 +9758,7 @@
       <c r="P46" s="31">
         <v>18</v>
       </c>
-      <c r="Q46" s="79">
+      <c r="Q46" s="96">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -9750,7 +9775,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="70" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -9795,7 +9820,7 @@
       <c r="P47" s="40">
         <v>20</v>
       </c>
-      <c r="Q47" s="79">
+      <c r="Q47" s="96">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -9812,11 +9837,13 @@
         <v>196</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="70" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="5"/>
+      <c r="B48" s="5" t="s">
+        <v>494</v>
+      </c>
       <c r="C48" s="6">
         <v>43427</v>
       </c>
@@ -9853,16 +9880,23 @@
         <v>43452</v>
       </c>
       <c r="P48" s="31"/>
-      <c r="Q48" s="79">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R48" s="30"/>
-      <c r="S48" s="30"/>
-      <c r="T48" s="30"/>
-      <c r="U48" s="32"/>
-    </row>
-    <row r="49" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q48" s="82" t="s">
+        <v>493</v>
+      </c>
+      <c r="R48" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="S48" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="T48" s="30" t="s">
+        <v>408</v>
+      </c>
+      <c r="U48" s="32" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" ht="42" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -9907,7 +9941,7 @@
       <c r="P49" s="56">
         <v>5</v>
       </c>
-      <c r="Q49" s="79">
+      <c r="Q49" s="96">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
@@ -9924,7 +9958,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="84" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -9987,7 +10021,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -10041,7 +10075,7 @@
       <c r="T51" s="30"/>
       <c r="U51" s="32"/>
     </row>
-    <row r="52" spans="1:21" ht="199.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" ht="196" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -10091,7 +10125,7 @@
       <c r="T52" s="30"/>
       <c r="U52" s="32"/>
     </row>
-    <row r="53" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" ht="56" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -10151,7 +10185,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="42" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -10201,7 +10235,7 @@
       <c r="T54" s="30"/>
       <c r="U54" s="32"/>
     </row>
-    <row r="55" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -10255,7 +10289,7 @@
       <c r="T55" s="30"/>
       <c r="U55" s="32"/>
     </row>
-    <row r="56" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" ht="70" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -10314,7 +10348,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="56" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>55</v>
       </c>
@@ -10373,7 +10407,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" ht="42" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>56</v>
       </c>
@@ -10433,7 +10467,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>57</v>
       </c>
@@ -10487,7 +10521,7 @@
       <c r="T59" s="30"/>
       <c r="U59" s="32"/>
     </row>
-    <row r="60" spans="1:21" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>58</v>
       </c>
@@ -10541,7 +10575,7 @@
       <c r="T60" s="30"/>
       <c r="U60" s="32"/>
     </row>
-    <row r="61" spans="1:21" ht="114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" ht="98" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>59</v>
       </c>
@@ -10598,7 +10632,7 @@
       <c r="T61" s="30"/>
       <c r="U61" s="32"/>
     </row>
-    <row r="62" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" ht="42" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <v>60</v>
       </c>
@@ -10661,7 +10695,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" ht="56" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>61</v>
       </c>
@@ -10722,7 +10756,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>62</v>
       </c>
@@ -10773,7 +10807,7 @@
       <c r="T64" s="33"/>
       <c r="U64" s="32"/>
     </row>
-    <row r="65" spans="1:23" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>63</v>
       </c>
@@ -10824,7 +10858,7 @@
       <c r="T65" s="33"/>
       <c r="U65" s="32"/>
     </row>
-    <row r="66" spans="1:23" ht="228" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" ht="210" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>64</v>
       </c>
@@ -10887,7 +10921,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" ht="112" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>65</v>
       </c>
@@ -10947,7 +10981,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" ht="112" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <v>66</v>
       </c>
@@ -11006,7 +11040,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="285" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" ht="266" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>67</v>
       </c>
@@ -11066,7 +11100,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" ht="56" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <v>68</v>
       </c>
@@ -11124,7 +11158,7 @@
       <c r="T70" s="5"/>
       <c r="U70" s="32"/>
     </row>
-    <row r="71" spans="1:23" ht="142.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" ht="126" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>69</v>
       </c>
@@ -11184,7 +11218,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="171" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" ht="168" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
         <v>70</v>
       </c>
@@ -11245,7 +11279,7 @@
       <c r="V72" s="5"/>
       <c r="W72" s="32"/>
     </row>
-    <row r="73" spans="1:23" ht="171" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" ht="168" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
         <v>71</v>
       </c>
@@ -11305,7 +11339,7 @@
       <c r="V73" s="39"/>
       <c r="W73" s="28"/>
     </row>
-    <row r="74" spans="1:23" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
         <v>72</v>
       </c>
@@ -11360,7 +11394,7 @@
       <c r="V74" s="5"/>
       <c r="W74" s="32"/>
     </row>
-    <row r="75" spans="1:23" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" ht="56" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
         <v>73</v>
       </c>
@@ -11421,7 +11455,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" ht="154" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
         <v>74</v>
       </c>
@@ -11482,7 +11516,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="213.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" ht="196" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
         <v>75</v>
       </c>
@@ -11542,7 +11576,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="185.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" ht="168" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
         <v>75</v>
       </c>
@@ -11604,7 +11638,7 @@
       <c r="V78" s="5"/>
       <c r="W78" s="32"/>
     </row>
-    <row r="79" spans="1:23" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" ht="126" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
         <v>76</v>
       </c>
@@ -11664,7 +11698,7 @@
       <c r="V79" s="5"/>
       <c r="W79" s="32"/>
     </row>
-    <row r="80" spans="1:23" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" ht="126" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
         <v>77</v>
       </c>
@@ -11726,7 +11760,7 @@
       <c r="V80" s="5"/>
       <c r="W80" s="32"/>
     </row>
-    <row r="81" spans="1:23" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" ht="84" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
         <v>78</v>
       </c>
@@ -11786,7 +11820,7 @@
       <c r="V81" s="74"/>
       <c r="W81" s="32"/>
     </row>
-    <row r="82" spans="1:23" ht="171" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" ht="168" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
         <v>79</v>
       </c>
@@ -11848,7 +11882,7 @@
       <c r="V82" s="74"/>
       <c r="W82" s="32"/>
     </row>
-    <row r="83" spans="1:23" ht="114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" ht="112" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
         <v>80</v>
       </c>
@@ -11907,7 +11941,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="270.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" ht="252" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
         <v>81</v>
       </c>
@@ -11969,7 +12003,7 @@
       <c r="V84" s="74"/>
       <c r="W84" s="32"/>
     </row>
-    <row r="85" spans="1:23" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" ht="70" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
         <v>82</v>
       </c>
@@ -12031,7 +12065,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" ht="70" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
         <v>83</v>
       </c>
@@ -12091,7 +12125,7 @@
       <c r="T86" s="5"/>
       <c r="U86" s="32"/>
     </row>
-    <row r="87" spans="1:23" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" ht="112" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
         <v>84</v>
       </c>
@@ -12150,7 +12184,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" ht="126" x14ac:dyDescent="0.35">
       <c r="A88" s="5">
         <v>85</v>
       </c>
@@ -12211,7 +12245,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" ht="168" x14ac:dyDescent="0.35">
       <c r="A89" s="5">
         <v>86</v>
       </c>
@@ -12266,7 +12300,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" ht="84" x14ac:dyDescent="0.35">
       <c r="A90" s="5">
         <v>87</v>
       </c>
@@ -12315,7 +12349,7 @@
       <c r="T90" s="5"/>
       <c r="U90" s="32"/>
     </row>
-    <row r="91" spans="1:23" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" ht="56" x14ac:dyDescent="0.35">
       <c r="A91" s="5">
         <v>88</v>
       </c>
@@ -12362,7 +12396,7 @@
       <c r="T91" s="5"/>
       <c r="U91" s="32"/>
     </row>
-    <row r="92" spans="1:23" ht="199.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" ht="196" x14ac:dyDescent="0.35">
       <c r="A92" s="5">
         <v>89</v>
       </c>
@@ -12422,7 +12456,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="93" spans="1:23" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" ht="42" x14ac:dyDescent="0.35">
       <c r="A93" s="5">
         <v>90</v>
       </c>
@@ -12480,7 +12514,7 @@
       <c r="T93" s="5"/>
       <c r="U93" s="32"/>
     </row>
-    <row r="94" spans="1:23" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" ht="56" x14ac:dyDescent="0.35">
       <c r="A94" s="5">
         <v>91</v>
       </c>
@@ -12540,7 +12574,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="95" spans="1:23" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" ht="70" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
         <v>92</v>
       </c>
@@ -12600,7 +12634,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="96" spans="1:23" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" ht="70" x14ac:dyDescent="0.35">
       <c r="A96" s="5">
         <v>93</v>
       </c>
@@ -12660,7 +12694,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="171" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" ht="182" x14ac:dyDescent="0.35">
       <c r="A97" s="5">
         <v>94</v>
       </c>
@@ -12718,7 +12752,7 @@
       <c r="T97" s="5"/>
       <c r="U97" s="32"/>
     </row>
-    <row r="98" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" ht="98" x14ac:dyDescent="0.35">
       <c r="A98" s="5">
         <v>95</v>
       </c>
@@ -12767,7 +12801,7 @@
       <c r="T98" s="5"/>
       <c r="U98" s="32"/>
     </row>
-    <row r="99" spans="1:21" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" ht="140" x14ac:dyDescent="0.35">
       <c r="A99" s="5">
         <v>96</v>
       </c>
@@ -12825,7 +12859,7 @@
       <c r="T99" s="5"/>
       <c r="U99" s="32"/>
     </row>
-    <row r="100" spans="1:21" ht="114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" ht="112" x14ac:dyDescent="0.35">
       <c r="A100" s="5">
         <v>97</v>
       </c>
@@ -12885,7 +12919,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="342" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" ht="322" x14ac:dyDescent="0.35">
       <c r="A101" s="5">
         <v>98</v>
       </c>
@@ -12945,7 +12979,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" ht="42" x14ac:dyDescent="0.35">
       <c r="A102" s="5">
         <v>99</v>
       </c>
@@ -13003,7 +13037,7 @@
       <c r="T102" s="5"/>
       <c r="U102" s="32"/>
     </row>
-    <row r="103" spans="1:21" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" ht="28" x14ac:dyDescent="0.35">
       <c r="A103" s="5">
         <v>100</v>
       </c>
@@ -13063,7 +13097,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="104" spans="1:21" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" ht="28" x14ac:dyDescent="0.35">
       <c r="A104" s="5">
         <v>101</v>
       </c>
@@ -13123,7 +13157,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" ht="84" x14ac:dyDescent="0.35">
       <c r="A105" s="5">
         <v>102</v>
       </c>
@@ -13182,7 +13216,7 @@
       </c>
       <c r="U105" s="33"/>
     </row>
-    <row r="106" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" ht="28" x14ac:dyDescent="0.35">
       <c r="A106" s="5">
         <v>103</v>
       </c>
@@ -13241,7 +13275,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="107" spans="1:21" ht="114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" ht="98" x14ac:dyDescent="0.35">
       <c r="A107" s="5">
         <v>104</v>
       </c>
@@ -13290,7 +13324,7 @@
       <c r="T107" s="5"/>
       <c r="U107" s="32"/>
     </row>
-    <row r="108" spans="1:21" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" ht="140" x14ac:dyDescent="0.35">
       <c r="A108" s="5">
         <v>105</v>
       </c>
@@ -13349,7 +13383,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="109" spans="1:21" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" ht="98" x14ac:dyDescent="0.35">
       <c r="A109" s="5">
         <v>111</v>
       </c>
@@ -13404,7 +13438,7 @@
       </c>
       <c r="U109" s="32"/>
     </row>
-    <row r="110" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" ht="56" x14ac:dyDescent="0.35">
       <c r="A110" s="5">
         <v>112</v>
       </c>
@@ -13459,7 +13493,7 @@
       <c r="T110" s="5"/>
       <c r="U110" s="32"/>
     </row>
-    <row r="111" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" ht="84" x14ac:dyDescent="0.35">
       <c r="A111" s="5">
         <v>113</v>
       </c>
@@ -13516,7 +13550,7 @@
       </c>
       <c r="U111" s="32"/>
     </row>
-    <row r="112" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" ht="70" x14ac:dyDescent="0.35">
       <c r="A112" s="5">
         <v>114</v>
       </c>
@@ -13573,7 +13607,7 @@
       </c>
       <c r="U112" s="32"/>
     </row>
-    <row r="113" spans="1:21" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" ht="56" x14ac:dyDescent="0.35">
       <c r="A113" s="5">
         <v>115</v>
       </c>
@@ -13630,7 +13664,7 @@
       </c>
       <c r="U113" s="32"/>
     </row>
-    <row r="114" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" ht="56" x14ac:dyDescent="0.35">
       <c r="A114" s="5">
         <v>116</v>
       </c>
@@ -13687,7 +13721,7 @@
       </c>
       <c r="U114" s="32"/>
     </row>
-    <row r="115" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" ht="42" x14ac:dyDescent="0.35">
       <c r="A115" s="5">
         <v>117</v>
       </c>
@@ -13742,7 +13776,7 @@
       </c>
       <c r="U115" s="32"/>
     </row>
-    <row r="116" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" ht="42" x14ac:dyDescent="0.35">
       <c r="A116" s="5">
         <v>118</v>
       </c>
@@ -13788,7 +13822,7 @@
       </c>
       <c r="U116" s="32"/>
     </row>
-    <row r="117" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" ht="84" x14ac:dyDescent="0.35">
       <c r="A117" s="39">
         <v>119</v>
       </c>
@@ -13836,7 +13870,7 @@
       </c>
       <c r="U117" s="28"/>
     </row>
-    <row r="118" spans="1:21" ht="180.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" ht="180.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="5">
         <v>120</v>
       </c>
@@ -13883,7 +13917,7 @@
       <c r="T118" s="5"/>
       <c r="U118" s="32"/>
     </row>
-    <row r="119" spans="1:21" ht="180.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" ht="180.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="5">
         <v>121</v>
       </c>
@@ -13930,7 +13964,7 @@
       <c r="T119" s="5"/>
       <c r="U119" s="32"/>
     </row>
-    <row r="120" spans="1:21" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" ht="28" x14ac:dyDescent="0.35">
       <c r="A120" s="5">
         <f>1+A119</f>
         <v>122</v>
@@ -13976,7 +14010,7 @@
       <c r="T120" s="5"/>
       <c r="U120" s="32"/>
     </row>
-    <row r="121" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" ht="84" x14ac:dyDescent="0.35">
       <c r="A121" s="5">
         <v>123</v>
       </c>
@@ -14021,7 +14055,7 @@
       <c r="T121" s="5"/>
       <c r="U121" s="32"/>
     </row>
-    <row r="122" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" ht="70" x14ac:dyDescent="0.35">
       <c r="A122" s="5">
         <v>124</v>
       </c>
@@ -14066,7 +14100,7 @@
       <c r="T122" s="5"/>
       <c r="U122" s="32"/>
     </row>
-    <row r="123" spans="1:21" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" ht="140" x14ac:dyDescent="0.35">
       <c r="A123" s="5">
         <v>125</v>
       </c>
@@ -14111,11 +14145,13 @@
       <c r="T123" s="5"/>
       <c r="U123" s="32"/>
     </row>
-    <row r="124" spans="1:21" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" ht="140" x14ac:dyDescent="0.35">
       <c r="A124" s="5">
         <v>126</v>
       </c>
-      <c r="B124" s="31"/>
+      <c r="B124" s="31" t="s">
+        <v>490</v>
+      </c>
       <c r="C124" s="6">
         <v>43528</v>
       </c>
@@ -14149,12 +14185,14 @@
       </c>
       <c r="P124" s="31"/>
       <c r="Q124" s="5"/>
-      <c r="R124" s="5"/>
+      <c r="R124" s="5" t="s">
+        <v>491</v>
+      </c>
       <c r="S124" s="33"/>
       <c r="T124" s="5"/>
       <c r="U124" s="32"/>
     </row>
-    <row r="125" spans="1:21" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" ht="84" x14ac:dyDescent="0.35">
       <c r="A125" s="5">
         <v>127</v>
       </c>
@@ -14197,7 +14235,7 @@
       <c r="T125" s="5"/>
       <c r="U125" s="32"/>
     </row>
-    <row r="126" spans="1:21" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" ht="28" x14ac:dyDescent="0.35">
       <c r="A126" s="5">
         <v>128</v>
       </c>
@@ -14242,11 +14280,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:U126" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="ID Authentication"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="5">
       <filters>
         <filter val="New"/>
@@ -14270,52 +14303,52 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B6" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B7" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B8" s="9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B9" s="9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B10" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B11" s="9"/>
     </row>
   </sheetData>
@@ -14330,14 +14363,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="s">
         <v>145</v>
       </c>
@@ -14348,7 +14381,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
         <v>72</v>
       </c>
@@ -14359,7 +14392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="35" t="s">
         <v>32</v>
       </c>
@@ -14370,7 +14403,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="35" t="s">
         <v>125</v>
       </c>
@@ -14381,7 +14414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="35" t="s">
         <v>80</v>
       </c>
@@ -14392,7 +14425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="35" t="s">
         <v>15</v>
       </c>
@@ -14403,7 +14436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
         <v>39</v>
       </c>
@@ -14414,7 +14447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="35" t="s">
         <v>52</v>
       </c>
@@ -14425,7 +14458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="35" t="s">
         <v>146</v>
       </c>
@@ -14448,12 +14481,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="52.140625" customWidth="1"/>
+    <col min="3" max="3" width="52.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="66" t="s">
         <v>207</v>
       </c>
@@ -14461,25 +14494,25 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="68"/>
       <c r="C2" s="69" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="70"/>
       <c r="C3" s="69" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="71"/>
       <c r="C4" s="69" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="72"/>
       <c r="C5" s="73" t="s">
         <v>206</v>
@@ -14492,6 +14525,38 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D32E068FDE16E34B8075022FB1536456" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d905b7d076fda08b8ad7ac1f301e6870">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7784986bdb25cf89cb05135ef15ccb6c" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -14663,39 +14728,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62A013D4-4E69-4E0D-8B8F-1AA53B7A2CEA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14711,28 +14768,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
+++ b/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip_new_master\mosip\docs\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01CCFC6-BCAB-47F6-ADEF-867B59F1E775}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C058286-5D59-472C-B790-449CE6759AE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="7580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="179021"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="498">
   <si>
     <t>S.No.</t>
   </si>
@@ -4894,6 +4894,17 @@
   </si>
   <si>
     <t>MOS-13140</t>
+  </si>
+  <si>
+    <t>Disucssion with Srikant
+Dated 13-Mar-19
+Queries on Pre-registration and Reg. Client - UIN Update | Lost UIN | Auto-Logout</t>
+  </si>
+  <si>
+    <t>UIN Update: Support entry of VIN (also called VID) instead of the UIN</t>
+  </si>
+  <si>
+    <t>[Shrikant] This is a good thought. Analyze the impact to understand the effort involved from Reg. Client and Reg. Processor perspective, so that a decision could be made on whether it should be part of v1 or v1.5</t>
   </si>
 </sst>
 </file>
@@ -5232,7 +5243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5490,6 +5501,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5505,8 +5519,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6716,7 +6730,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField dataField="1" showAll="0"/>
@@ -7065,12 +7079,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:W126"/>
+  <dimension ref="A1:W127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B124" sqref="B124"/>
+      <pane ySplit="2" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
@@ -7100,29 +7113,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="92" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="95"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="96"/>
     </row>
     <row r="2" spans="1:21" ht="42" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
@@ -7680,7 +7693,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -7791,7 +7804,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1" ht="280" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" s="1" customFormat="1" ht="280" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -7947,7 +7960,7 @@
       <c r="P15" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="Q15" s="96">
+      <c r="Q15" s="91">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -8009,7 +8022,7 @@
       <c r="P16" s="52">
         <v>36</v>
       </c>
-      <c r="Q16" s="96">
+      <c r="Q16" s="91">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
@@ -8071,7 +8084,7 @@
       <c r="P17" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="Q17" s="96">
+      <c r="Q17" s="91">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
@@ -8133,7 +8146,7 @@
       <c r="P18" s="41">
         <v>0</v>
       </c>
-      <c r="Q18" s="96">
+      <c r="Q18" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8195,7 +8208,7 @@
       <c r="P19" s="53">
         <v>10</v>
       </c>
-      <c r="Q19" s="96">
+      <c r="Q19" s="91">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -8473,7 +8486,7 @@
       <c r="P24" s="52">
         <v>20</v>
       </c>
-      <c r="Q24" s="96">
+      <c r="Q24" s="91">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -8863,7 +8876,7 @@
       <c r="P31" s="52">
         <v>20</v>
       </c>
-      <c r="Q31" s="96">
+      <c r="Q31" s="91">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -8938,7 +8951,7 @@
       <c r="T32" s="30"/>
       <c r="U32" s="32"/>
     </row>
-    <row r="33" spans="1:21" s="8" customFormat="1" ht="126" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" s="8" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -9371,7 +9384,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" ht="42" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -9483,7 +9496,7 @@
       <c r="T41" s="30"/>
       <c r="U41" s="32"/>
     </row>
-    <row r="42" spans="1:21" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" ht="42" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -9640,7 +9653,7 @@
       <c r="P44" s="52">
         <v>60</v>
       </c>
-      <c r="Q44" s="96">
+      <c r="Q44" s="91">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
@@ -9655,7 +9668,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21" ht="112" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -9758,7 +9771,7 @@
       <c r="P46" s="31">
         <v>18</v>
       </c>
-      <c r="Q46" s="96">
+      <c r="Q46" s="91">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -9820,7 +9833,7 @@
       <c r="P47" s="40">
         <v>20</v>
       </c>
-      <c r="Q47" s="96">
+      <c r="Q47" s="91">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -9941,7 +9954,7 @@
       <c r="P49" s="56">
         <v>5</v>
       </c>
-      <c r="Q49" s="96">
+      <c r="Q49" s="91">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
@@ -10021,7 +10034,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:21" ht="56" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -10235,7 +10248,7 @@
       <c r="T54" s="30"/>
       <c r="U54" s="32"/>
     </row>
-    <row r="55" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:21" ht="56" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -10467,7 +10480,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:21" ht="56" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>57</v>
       </c>
@@ -10521,7 +10534,7 @@
       <c r="T59" s="30"/>
       <c r="U59" s="32"/>
     </row>
-    <row r="60" spans="1:21" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:21" ht="84" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>58</v>
       </c>
@@ -10756,7 +10769,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:21" ht="98" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>62</v>
       </c>
@@ -10807,7 +10820,7 @@
       <c r="T64" s="33"/>
       <c r="U64" s="32"/>
     </row>
-    <row r="65" spans="1:23" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:23" ht="42" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>63</v>
       </c>
@@ -11339,7 +11352,7 @@
       <c r="V73" s="39"/>
       <c r="W73" s="28"/>
     </row>
-    <row r="74" spans="1:23" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:23" ht="98" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
         <v>72</v>
       </c>
@@ -11882,7 +11895,7 @@
       <c r="V82" s="74"/>
       <c r="W82" s="32"/>
     </row>
-    <row r="83" spans="1:23" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:23" ht="112" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
         <v>80</v>
       </c>
@@ -13387,7 +13400,7 @@
       <c r="A109" s="5">
         <v>111</v>
       </c>
-      <c r="B109" s="32" t="s">
+      <c r="B109" s="31" t="s">
         <v>421</v>
       </c>
       <c r="C109" s="6">
@@ -13497,7 +13510,7 @@
       <c r="A111" s="5">
         <v>113</v>
       </c>
-      <c r="B111" s="32" t="s">
+      <c r="B111" s="31" t="s">
         <v>312</v>
       </c>
       <c r="C111" s="6">
@@ -13554,7 +13567,7 @@
       <c r="A112" s="5">
         <v>114</v>
       </c>
-      <c r="B112" s="32" t="s">
+      <c r="B112" s="31" t="s">
         <v>313</v>
       </c>
       <c r="C112" s="6">
@@ -13611,7 +13624,7 @@
       <c r="A113" s="5">
         <v>115</v>
       </c>
-      <c r="B113" s="32" t="s">
+      <c r="B113" s="31" t="s">
         <v>315</v>
       </c>
       <c r="C113" s="6">
@@ -13668,7 +13681,7 @@
       <c r="A114" s="5">
         <v>116</v>
       </c>
-      <c r="B114" s="32" t="s">
+      <c r="B114" s="31" t="s">
         <v>316</v>
       </c>
       <c r="C114" s="6">
@@ -13725,7 +13738,7 @@
       <c r="A115" s="5">
         <v>117</v>
       </c>
-      <c r="B115" s="32" t="s">
+      <c r="B115" s="31" t="s">
         <v>420</v>
       </c>
       <c r="C115" s="6">
@@ -13780,7 +13793,7 @@
       <c r="A116" s="5">
         <v>118</v>
       </c>
-      <c r="B116" s="32" t="s">
+      <c r="B116" s="31" t="s">
         <v>422</v>
       </c>
       <c r="C116" s="6">
@@ -13826,7 +13839,7 @@
       <c r="A117" s="39">
         <v>119</v>
       </c>
-      <c r="B117" s="28" t="s">
+      <c r="B117" s="97" t="s">
         <v>425</v>
       </c>
       <c r="C117" s="37">
@@ -14278,14 +14291,51 @@
       <c r="T126" s="5"/>
       <c r="U126" s="32"/>
     </row>
+    <row r="127" spans="1:21" ht="112" x14ac:dyDescent="0.35">
+      <c r="A127" s="5">
+        <v>129</v>
+      </c>
+      <c r="B127" s="31"/>
+      <c r="C127" s="6">
+        <v>43537</v>
+      </c>
+      <c r="D127" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="E127" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="F127" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G127" s="32" t="s">
+        <v>496</v>
+      </c>
+      <c r="I127" s="32" t="s">
+        <v>497</v>
+      </c>
+      <c r="J127" s="32"/>
+      <c r="K127" s="32"/>
+      <c r="L127" s="32"/>
+      <c r="M127" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="N127" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="O127" s="21">
+        <v>43537</v>
+      </c>
+      <c r="Q127" s="5"/>
+      <c r="R127" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="S127" s="33"/>
+      <c r="T127" s="5"/>
+      <c r="U127" s="32"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:U126" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="New"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:U126" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:U1"/>
   </mergeCells>
@@ -14525,38 +14575,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D32E068FDE16E34B8075022FB1536456" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d905b7d076fda08b8ad7ac1f301e6870">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7784986bdb25cf89cb05135ef15ccb6c" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -14728,31 +14746,39 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62A013D4-4E69-4E0D-8B8F-1AA53B7A2CEA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14768,4 +14794,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
+++ b/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip_new_master\mosip\docs\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1002694\Documents\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C058286-5D59-472C-B790-449CE6759AE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33C4F30-B4AF-40AB-A852-3C0AA775C827}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="7580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MOSIP_Feature_Roadmap" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="497">
   <si>
     <t>S.No.</t>
   </si>
@@ -4896,15 +4896,29 @@
     <t>MOS-13140</t>
   </si>
   <si>
-    <t>Disucssion with Srikant
-Dated 13-Mar-19
-Queries on Pre-registration and Reg. Client - UIN Update | Lost UIN | Auto-Logout</t>
-  </si>
-  <si>
-    <t>UIN Update: Support entry of VIN (also called VID) instead of the UIN</t>
-  </si>
-  <si>
-    <t>[Shrikant] This is a good thought. Analyze the impact to understand the effort involved from Reg. Client and Reg. Processor perspective, so that a decision could be made on whether it should be part of v1 or v1.5</t>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>UIN Update</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>:
+Ability to capture the VID instead of UIN.</t>
+    </r>
+  </si>
+  <si>
+    <t>MOS-18319</t>
   </si>
 </sst>
 </file>
@@ -5243,7 +5257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5517,9 +5531,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7079,40 +7090,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:W127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B129" sqref="B129"/>
+      <pane ySplit="2" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="20.44140625" defaultRowHeight="13.8" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" style="27" customWidth="1"/>
-    <col min="3" max="3" width="25.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="3" customWidth="1"/>
     <col min="7" max="7" width="49" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" style="16" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="28.453125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="38.453125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="16" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="28.44140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="38.44140625" style="3" customWidth="1"/>
     <col min="11" max="11" width="24" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="11.1796875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="22.81640625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="12.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.1796875" style="27" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="17.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.81640625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="22.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="83.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="20.453125" style="10"/>
+    <col min="12" max="12" width="11.21875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="22.77734375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="12.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.21875" style="27" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="17.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.77734375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="22.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="83.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="20.44140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="92" t="s">
         <v>209</v>
       </c>
@@ -7137,7 +7149,7 @@
       <c r="T1" s="94"/>
       <c r="U1" s="96"/>
     </row>
-    <row r="2" spans="1:21" ht="42" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
@@ -7202,7 +7214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1" ht="140" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" s="4" customFormat="1" ht="138" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -7264,7 +7276,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="4" customFormat="1" ht="154" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" s="4" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -7325,7 +7337,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -7387,7 +7399,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="4" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" s="4" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -7449,7 +7461,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="4" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" s="4" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -7511,7 +7523,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="4" customFormat="1" ht="140" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" s="4" customFormat="1" ht="138" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -7573,7 +7585,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="4" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" s="4" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -7633,7 +7645,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="4" customFormat="1" ht="98" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -7693,7 +7705,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" s="1" customFormat="1" ht="41.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -7747,7 +7759,7 @@
       <c r="T11" s="30"/>
       <c r="U11" s="21"/>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -7804,7 +7816,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1" ht="280" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" s="1" customFormat="1" ht="276" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -7855,7 +7867,7 @@
       <c r="T13" s="30"/>
       <c r="U13" s="21"/>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -7915,7 +7927,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -7977,7 +7989,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1" ht="182" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" s="1" customFormat="1" ht="179.4" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -8039,7 +8051,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="4" customFormat="1" ht="210" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" s="4" customFormat="1" ht="207" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -8101,7 +8113,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" s="1" customFormat="1" ht="138" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -8163,7 +8175,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -8225,7 +8237,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -8273,7 +8285,7 @@
       <c r="T20" s="30"/>
       <c r="U20" s="21"/>
     </row>
-    <row r="21" spans="1:21" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" s="4" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -8321,7 +8333,7 @@
       <c r="T21" s="30"/>
       <c r="U21" s="21"/>
     </row>
-    <row r="22" spans="1:21" ht="84" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -8381,7 +8393,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="84" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -8441,7 +8453,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="112" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -8503,7 +8515,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="70" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" ht="69" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -8553,7 +8565,7 @@
       <c r="T25" s="30"/>
       <c r="U25" s="21"/>
     </row>
-    <row r="26" spans="1:21" ht="84" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -8603,7 +8615,7 @@
       <c r="T26" s="30"/>
       <c r="U26" s="21"/>
     </row>
-    <row r="27" spans="1:21" ht="84" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -8663,7 +8675,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="70" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" ht="69" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -8725,7 +8737,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="70" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" ht="69" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -8775,7 +8787,7 @@
       <c r="T29" s="30"/>
       <c r="U29" s="21"/>
     </row>
-    <row r="30" spans="1:21" ht="56" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" ht="69" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -8831,7 +8843,7 @@
       <c r="T30" s="30"/>
       <c r="U30" s="14"/>
     </row>
-    <row r="31" spans="1:21" ht="98" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -8893,7 +8905,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="56" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -8951,7 +8963,7 @@
       <c r="T32" s="30"/>
       <c r="U32" s="32"/>
     </row>
-    <row r="33" spans="1:21" s="8" customFormat="1" ht="126" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" s="8" customFormat="1" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -9009,7 +9021,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="8" customFormat="1" ht="98" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" s="8" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -9071,7 +9083,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="84" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -9128,7 +9140,7 @@
       <c r="T35" s="30"/>
       <c r="U35" s="14"/>
     </row>
-    <row r="36" spans="1:21" ht="182" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -9192,7 +9204,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="98" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -9256,7 +9268,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="168" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -9320,7 +9332,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="98" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -9384,7 +9396,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="42" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" ht="41.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -9438,7 +9450,7 @@
       <c r="T40" s="30"/>
       <c r="U40" s="32"/>
     </row>
-    <row r="41" spans="1:21" ht="70" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" ht="69" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -9496,7 +9508,7 @@
       <c r="T41" s="30"/>
       <c r="U41" s="32"/>
     </row>
-    <row r="42" spans="1:21" ht="42" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" ht="41.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -9550,7 +9562,7 @@
       <c r="T42" s="30"/>
       <c r="U42" s="32"/>
     </row>
-    <row r="43" spans="1:21" ht="56" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -9608,7 +9620,7 @@
       <c r="T43" s="30"/>
       <c r="U43" s="32"/>
     </row>
-    <row r="44" spans="1:21" ht="252" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21" ht="262.2" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -9668,7 +9680,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="112" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -9726,7 +9738,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="42" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -9788,7 +9800,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="70" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21" ht="69" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -9850,7 +9862,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="70" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:21" ht="69" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -9909,7 +9921,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="42" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -9971,7 +9983,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="84" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -10034,7 +10046,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="56" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:21" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -10088,7 +10100,7 @@
       <c r="T51" s="30"/>
       <c r="U51" s="32"/>
     </row>
-    <row r="52" spans="1:21" ht="196" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:21" ht="193.2" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -10138,7 +10150,7 @@
       <c r="T52" s="30"/>
       <c r="U52" s="32"/>
     </row>
-    <row r="53" spans="1:21" ht="56" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:21" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -10198,7 +10210,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="42" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -10248,7 +10260,7 @@
       <c r="T54" s="30"/>
       <c r="U54" s="32"/>
     </row>
-    <row r="55" spans="1:21" ht="56" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:21" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -10302,7 +10314,7 @@
       <c r="T55" s="30"/>
       <c r="U55" s="32"/>
     </row>
-    <row r="56" spans="1:21" ht="70" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -10361,7 +10373,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="56" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:21" ht="69" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>55</v>
       </c>
@@ -10420,7 +10432,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="42" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>56</v>
       </c>
@@ -10480,7 +10492,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="56" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:21" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>57</v>
       </c>
@@ -10534,7 +10546,7 @@
       <c r="T59" s="30"/>
       <c r="U59" s="32"/>
     </row>
-    <row r="60" spans="1:21" ht="84" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:21" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>58</v>
       </c>
@@ -10588,7 +10600,7 @@
       <c r="T60" s="30"/>
       <c r="U60" s="32"/>
     </row>
-    <row r="61" spans="1:21" ht="98" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:21" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>59</v>
       </c>
@@ -10645,7 +10657,7 @@
       <c r="T61" s="30"/>
       <c r="U61" s="32"/>
     </row>
-    <row r="62" spans="1:21" ht="42" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>60</v>
       </c>
@@ -10708,7 +10720,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="56" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:21" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>61</v>
       </c>
@@ -10769,7 +10781,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="98" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:21" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>62</v>
       </c>
@@ -10820,7 +10832,7 @@
       <c r="T64" s="33"/>
       <c r="U64" s="32"/>
     </row>
-    <row r="65" spans="1:23" ht="42" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:23" ht="41.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>63</v>
       </c>
@@ -10871,7 +10883,7 @@
       <c r="T65" s="33"/>
       <c r="U65" s="32"/>
     </row>
-    <row r="66" spans="1:23" ht="210" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:23" ht="207" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>64</v>
       </c>
@@ -10934,7 +10946,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="112" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:23" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>65</v>
       </c>
@@ -10994,7 +11006,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="112" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:23" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>66</v>
       </c>
@@ -11053,7 +11065,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="266" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:23" ht="276" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>67</v>
       </c>
@@ -11113,7 +11125,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="56" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:23" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>68</v>
       </c>
@@ -11171,7 +11183,7 @@
       <c r="T70" s="5"/>
       <c r="U70" s="32"/>
     </row>
-    <row r="71" spans="1:23" ht="126" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:23" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>69</v>
       </c>
@@ -11231,7 +11243,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="168" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:23" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>70</v>
       </c>
@@ -11292,7 +11304,7 @@
       <c r="V72" s="5"/>
       <c r="W72" s="32"/>
     </row>
-    <row r="73" spans="1:23" ht="168" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:23" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>71</v>
       </c>
@@ -11352,7 +11364,7 @@
       <c r="V73" s="39"/>
       <c r="W73" s="28"/>
     </row>
-    <row r="74" spans="1:23" ht="98" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:23" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
         <v>72</v>
       </c>
@@ -11407,7 +11419,7 @@
       <c r="V74" s="5"/>
       <c r="W74" s="32"/>
     </row>
-    <row r="75" spans="1:23" ht="56" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:23" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>73</v>
       </c>
@@ -11468,7 +11480,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="154" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:23" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>74</v>
       </c>
@@ -11529,7 +11541,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="196" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:23" ht="193.2" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>75</v>
       </c>
@@ -11589,7 +11601,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="168" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:23" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>75</v>
       </c>
@@ -11651,7 +11663,7 @@
       <c r="V78" s="5"/>
       <c r="W78" s="32"/>
     </row>
-    <row r="79" spans="1:23" ht="126" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:23" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>76</v>
       </c>
@@ -11711,7 +11723,7 @@
       <c r="V79" s="5"/>
       <c r="W79" s="32"/>
     </row>
-    <row r="80" spans="1:23" ht="126" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:23" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>77</v>
       </c>
@@ -11773,7 +11785,7 @@
       <c r="V80" s="5"/>
       <c r="W80" s="32"/>
     </row>
-    <row r="81" spans="1:23" ht="84" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:23" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>78</v>
       </c>
@@ -11833,7 +11845,7 @@
       <c r="V81" s="74"/>
       <c r="W81" s="32"/>
     </row>
-    <row r="82" spans="1:23" ht="168" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:23" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
         <v>79</v>
       </c>
@@ -11895,7 +11907,7 @@
       <c r="V82" s="74"/>
       <c r="W82" s="32"/>
     </row>
-    <row r="83" spans="1:23" ht="112" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:23" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
         <v>80</v>
       </c>
@@ -11954,7 +11966,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="252" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:23" ht="248.4" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
         <v>81</v>
       </c>
@@ -12016,7 +12028,7 @@
       <c r="V84" s="74"/>
       <c r="W84" s="32"/>
     </row>
-    <row r="85" spans="1:23" ht="70" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:23" ht="69" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
         <v>82</v>
       </c>
@@ -12078,7 +12090,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="70" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:23" ht="69" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>83</v>
       </c>
@@ -12138,7 +12150,7 @@
       <c r="T86" s="5"/>
       <c r="U86" s="32"/>
     </row>
-    <row r="87" spans="1:23" ht="112" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:23" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <v>84</v>
       </c>
@@ -12197,7 +12209,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="126" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:23" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
         <v>85</v>
       </c>
@@ -12258,7 +12270,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="168" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:23" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
         <v>86</v>
       </c>
@@ -12313,7 +12325,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="84" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:23" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
         <v>87</v>
       </c>
@@ -12362,7 +12374,7 @@
       <c r="T90" s="5"/>
       <c r="U90" s="32"/>
     </row>
-    <row r="91" spans="1:23" ht="56" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:23" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
         <v>88</v>
       </c>
@@ -12409,7 +12421,7 @@
       <c r="T91" s="5"/>
       <c r="U91" s="32"/>
     </row>
-    <row r="92" spans="1:23" ht="196" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:23" ht="193.2" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
         <v>89</v>
       </c>
@@ -12469,7 +12481,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="93" spans="1:23" ht="42" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:23" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
         <v>90</v>
       </c>
@@ -12527,7 +12539,7 @@
       <c r="T93" s="5"/>
       <c r="U93" s="32"/>
     </row>
-    <row r="94" spans="1:23" ht="56" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:23" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
         <v>91</v>
       </c>
@@ -12587,7 +12599,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="95" spans="1:23" ht="70" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:23" ht="69" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
         <v>92</v>
       </c>
@@ -12647,7 +12659,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="96" spans="1:23" ht="70" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:23" ht="69" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
         <v>93</v>
       </c>
@@ -12707,7 +12719,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="182" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:21" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
         <v>94</v>
       </c>
@@ -12765,7 +12777,7 @@
       <c r="T97" s="5"/>
       <c r="U97" s="32"/>
     </row>
-    <row r="98" spans="1:21" ht="98" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:21" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
         <v>95</v>
       </c>
@@ -12814,7 +12826,7 @@
       <c r="T98" s="5"/>
       <c r="U98" s="32"/>
     </row>
-    <row r="99" spans="1:21" ht="140" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:21" ht="138" x14ac:dyDescent="0.3">
       <c r="A99" s="5">
         <v>96</v>
       </c>
@@ -12872,7 +12884,7 @@
       <c r="T99" s="5"/>
       <c r="U99" s="32"/>
     </row>
-    <row r="100" spans="1:21" ht="112" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:21" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A100" s="5">
         <v>97</v>
       </c>
@@ -12932,7 +12944,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="322" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:21" ht="317.39999999999998" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
         <v>98</v>
       </c>
@@ -12992,7 +13004,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="42" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A102" s="5">
         <v>99</v>
       </c>
@@ -13050,7 +13062,7 @@
       <c r="T102" s="5"/>
       <c r="U102" s="32"/>
     </row>
-    <row r="103" spans="1:21" ht="28" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A103" s="5">
         <v>100</v>
       </c>
@@ -13110,7 +13122,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="104" spans="1:21" ht="28" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A104" s="5">
         <v>101</v>
       </c>
@@ -13170,7 +13182,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="84" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A105" s="5">
         <v>102</v>
       </c>
@@ -13229,7 +13241,7 @@
       </c>
       <c r="U105" s="33"/>
     </row>
-    <row r="106" spans="1:21" ht="28" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
         <v>103</v>
       </c>
@@ -13288,7 +13300,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="107" spans="1:21" ht="98" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:21" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A107" s="5">
         <v>104</v>
       </c>
@@ -13337,7 +13349,7 @@
       <c r="T107" s="5"/>
       <c r="U107" s="32"/>
     </row>
-    <row r="108" spans="1:21" ht="140" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:21" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A108" s="5">
         <v>105</v>
       </c>
@@ -13396,11 +13408,11 @@
         <v>360</v>
       </c>
     </row>
-    <row r="109" spans="1:21" ht="98" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:21" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A109" s="5">
         <v>111</v>
       </c>
-      <c r="B109" s="31" t="s">
+      <c r="B109" s="32" t="s">
         <v>421</v>
       </c>
       <c r="C109" s="6">
@@ -13451,7 +13463,7 @@
       </c>
       <c r="U109" s="32"/>
     </row>
-    <row r="110" spans="1:21" ht="56" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:21" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A110" s="5">
         <v>112</v>
       </c>
@@ -13506,11 +13518,11 @@
       <c r="T110" s="5"/>
       <c r="U110" s="32"/>
     </row>
-    <row r="111" spans="1:21" ht="84" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A111" s="5">
         <v>113</v>
       </c>
-      <c r="B111" s="31" t="s">
+      <c r="B111" s="32" t="s">
         <v>312</v>
       </c>
       <c r="C111" s="6">
@@ -13563,11 +13575,11 @@
       </c>
       <c r="U111" s="32"/>
     </row>
-    <row r="112" spans="1:21" ht="70" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:21" ht="69" x14ac:dyDescent="0.3">
       <c r="A112" s="5">
         <v>114</v>
       </c>
-      <c r="B112" s="31" t="s">
+      <c r="B112" s="32" t="s">
         <v>313</v>
       </c>
       <c r="C112" s="6">
@@ -13620,11 +13632,11 @@
       </c>
       <c r="U112" s="32"/>
     </row>
-    <row r="113" spans="1:21" ht="56" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:21" ht="69" x14ac:dyDescent="0.3">
       <c r="A113" s="5">
         <v>115</v>
       </c>
-      <c r="B113" s="31" t="s">
+      <c r="B113" s="32" t="s">
         <v>315</v>
       </c>
       <c r="C113" s="6">
@@ -13677,11 +13689,11 @@
       </c>
       <c r="U113" s="32"/>
     </row>
-    <row r="114" spans="1:21" ht="56" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:21" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A114" s="5">
         <v>116</v>
       </c>
-      <c r="B114" s="31" t="s">
+      <c r="B114" s="32" t="s">
         <v>316</v>
       </c>
       <c r="C114" s="6">
@@ -13734,11 +13746,11 @@
       </c>
       <c r="U114" s="32"/>
     </row>
-    <row r="115" spans="1:21" ht="42" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:21" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A115" s="5">
         <v>117</v>
       </c>
-      <c r="B115" s="31" t="s">
+      <c r="B115" s="32" t="s">
         <v>420</v>
       </c>
       <c r="C115" s="6">
@@ -13789,11 +13801,11 @@
       </c>
       <c r="U115" s="32"/>
     </row>
-    <row r="116" spans="1:21" ht="42" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A116" s="5">
         <v>118</v>
       </c>
-      <c r="B116" s="31" t="s">
+      <c r="B116" s="32" t="s">
         <v>422</v>
       </c>
       <c r="C116" s="6">
@@ -13835,11 +13847,11 @@
       </c>
       <c r="U116" s="32"/>
     </row>
-    <row r="117" spans="1:21" ht="84" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A117" s="39">
         <v>119</v>
       </c>
-      <c r="B117" s="97" t="s">
+      <c r="B117" s="28" t="s">
         <v>425</v>
       </c>
       <c r="C117" s="37">
@@ -13883,7 +13895,7 @@
       </c>
       <c r="U117" s="28"/>
     </row>
-    <row r="118" spans="1:21" ht="180.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:21" ht="180.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="5">
         <v>120</v>
       </c>
@@ -13930,7 +13942,7 @@
       <c r="T118" s="5"/>
       <c r="U118" s="32"/>
     </row>
-    <row r="119" spans="1:21" ht="180.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:21" ht="180.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="5">
         <v>121</v>
       </c>
@@ -13977,7 +13989,7 @@
       <c r="T119" s="5"/>
       <c r="U119" s="32"/>
     </row>
-    <row r="120" spans="1:21" ht="28" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A120" s="5">
         <f>1+A119</f>
         <v>122</v>
@@ -14023,7 +14035,7 @@
       <c r="T120" s="5"/>
       <c r="U120" s="32"/>
     </row>
-    <row r="121" spans="1:21" ht="84" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A121" s="5">
         <v>123</v>
       </c>
@@ -14068,7 +14080,7 @@
       <c r="T121" s="5"/>
       <c r="U121" s="32"/>
     </row>
-    <row r="122" spans="1:21" ht="70" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:21" ht="69" x14ac:dyDescent="0.3">
       <c r="A122" s="5">
         <v>124</v>
       </c>
@@ -14113,7 +14125,7 @@
       <c r="T122" s="5"/>
       <c r="U122" s="32"/>
     </row>
-    <row r="123" spans="1:21" ht="140" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:21" ht="138" x14ac:dyDescent="0.3">
       <c r="A123" s="5">
         <v>125</v>
       </c>
@@ -14158,7 +14170,7 @@
       <c r="T123" s="5"/>
       <c r="U123" s="32"/>
     </row>
-    <row r="124" spans="1:21" ht="140" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:21" ht="138" x14ac:dyDescent="0.3">
       <c r="A124" s="5">
         <v>126</v>
       </c>
@@ -14205,7 +14217,7 @@
       <c r="T124" s="5"/>
       <c r="U124" s="32"/>
     </row>
-    <row r="125" spans="1:21" ht="84" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A125" s="5">
         <v>127</v>
       </c>
@@ -14248,7 +14260,7 @@
       <c r="T125" s="5"/>
       <c r="U125" s="32"/>
     </row>
-    <row r="126" spans="1:21" ht="28" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A126" s="5">
         <v>128</v>
       </c>
@@ -14291,51 +14303,55 @@
       <c r="T126" s="5"/>
       <c r="U126" s="32"/>
     </row>
-    <row r="127" spans="1:21" ht="112" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A127" s="5">
         <v>129</v>
       </c>
-      <c r="B127" s="31"/>
+      <c r="B127" s="31" t="s">
+        <v>496</v>
+      </c>
       <c r="C127" s="6">
         <v>43537</v>
       </c>
       <c r="D127" s="32" t="s">
-        <v>495</v>
+        <v>130</v>
       </c>
       <c r="E127" s="32" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F127" s="32" t="s">
         <v>26</v>
       </c>
       <c r="G127" s="32" t="s">
-        <v>496</v>
-      </c>
-      <c r="I127" s="32" t="s">
-        <v>497</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="H127" s="32"/>
+      <c r="I127" s="32"/>
       <c r="J127" s="32"/>
       <c r="K127" s="32"/>
       <c r="L127" s="32"/>
       <c r="M127" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="N127" s="32" t="s">
+      <c r="N127" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="O127" s="21">
+      <c r="O127" s="6">
         <v>43537</v>
       </c>
-      <c r="Q127" s="5"/>
-      <c r="R127" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="S127" s="33"/>
-      <c r="T127" s="5"/>
-      <c r="U127" s="32"/>
+      <c r="P127" s="5"/>
+      <c r="Q127" s="33"/>
+      <c r="R127" s="5"/>
+      <c r="S127" s="32"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:U126" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:U126" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="New"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:U1"/>
   </mergeCells>
@@ -14353,52 +14369,52 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" s="9"/>
     </row>
   </sheetData>
@@ -14413,14 +14429,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
         <v>145</v>
       </c>
@@ -14431,7 +14447,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>72</v>
       </c>
@@ -14442,7 +14458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
         <v>32</v>
       </c>
@@ -14453,7 +14469,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="35" t="s">
         <v>125</v>
       </c>
@@ -14464,7 +14480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
         <v>80</v>
       </c>
@@ -14475,7 +14491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
         <v>15</v>
       </c>
@@ -14486,7 +14502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
         <v>39</v>
       </c>
@@ -14497,7 +14513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
         <v>52</v>
       </c>
@@ -14508,7 +14524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
         <v>146</v>
       </c>
@@ -14531,12 +14547,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="52.1796875" customWidth="1"/>
+    <col min="3" max="3" width="52.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="66" t="s">
         <v>207</v>
       </c>
@@ -14544,25 +14560,25 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="68"/>
       <c r="C2" s="69" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:3" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="70"/>
       <c r="C3" s="69" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:3" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="71"/>
       <c r="C4" s="69" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:3" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="72"/>
       <c r="C5" s="73" t="s">
         <v>206</v>

--- a/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
+++ b/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1002694\Documents\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIPRequirementsGithub\docs\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33C4F30-B4AF-40AB-A852-3C0AA775C827}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{47EF2CD7-D492-4498-B964-2976E0432E73}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MOSIP_Feature_Roadmap" sheetId="5" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="Status Legends" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MOSIP_Feature_Roadmap!$A$2:$U$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MOSIP_Feature_Roadmap!$A$2:$U$128</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179017"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
@@ -30,17 +30,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="500">
   <si>
     <t>S.No.</t>
   </si>
@@ -4919,6 +4914,15 @@
   </si>
   <si>
     <t>MOS-18319</t>
+  </si>
+  <si>
+    <t>MOS-18511</t>
+  </si>
+  <si>
+    <t>DOB Type Authentication Implementation to be revalidated in v1+</t>
+  </si>
+  <si>
+    <t>Auth API specs Review</t>
   </si>
 </sst>
 </file>
@@ -7091,40 +7095,40 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:W127"/>
+  <dimension ref="A1:W128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C134" sqref="C134"/>
+      <pane ySplit="2" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.44140625" defaultRowHeight="13.8" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.21875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="27" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="3" customWidth="1"/>
     <col min="7" max="7" width="49" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="16" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="28.44140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="38.44140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="16" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="28.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="38.42578125" style="3" customWidth="1"/>
     <col min="11" max="11" width="24" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="11.21875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="22.77734375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="12.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.21875" style="27" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="17.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.77734375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="22.77734375" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="83.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="20.44140625" style="10"/>
+    <col min="12" max="12" width="11.28515625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.28515625" style="27" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.7109375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="22.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="83.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="20.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="92" t="s">
         <v>209</v>
       </c>
@@ -7149,7 +7153,7 @@
       <c r="T1" s="94"/>
       <c r="U1" s="96"/>
     </row>
-    <row r="2" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
@@ -7214,7 +7218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1" ht="138" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" s="4" customFormat="1" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -7276,7 +7280,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="4" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" s="4" customFormat="1" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -7337,7 +7341,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" s="4" customFormat="1" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -7399,7 +7403,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="4" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" s="4" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -7461,7 +7465,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="4" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" s="4" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -7523,7 +7527,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="4" customFormat="1" ht="138" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" s="4" customFormat="1" ht="171" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -7585,7 +7589,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="4" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" s="4" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -7645,7 +7649,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" s="4" customFormat="1" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -7705,7 +7709,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1" ht="41.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" s="1" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -7759,7 +7763,7 @@
       <c r="T11" s="30"/>
       <c r="U11" s="21"/>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" s="1" customFormat="1" ht="142.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -7816,7 +7820,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1" ht="276" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" s="1" customFormat="1" ht="285" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -7867,7 +7871,7 @@
       <c r="T13" s="30"/>
       <c r="U13" s="21"/>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" s="1" customFormat="1" ht="114" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -7927,7 +7931,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" s="1" customFormat="1" ht="99.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -7989,7 +7993,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1" ht="179.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" s="1" customFormat="1" ht="199.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -8051,7 +8055,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="4" customFormat="1" ht="207" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" s="4" customFormat="1" ht="213.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -8113,7 +8117,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1" ht="138" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" s="1" customFormat="1" ht="156.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -8175,7 +8179,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" s="4" customFormat="1" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -8237,7 +8241,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" s="1" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -8285,7 +8289,7 @@
       <c r="T20" s="30"/>
       <c r="U20" s="21"/>
     </row>
-    <row r="21" spans="1:21" s="4" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" s="4" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -8333,7 +8337,7 @@
       <c r="T21" s="30"/>
       <c r="U21" s="21"/>
     </row>
-    <row r="22" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -8393,7 +8397,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -8453,7 +8457,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -8515,7 +8519,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="69" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -8565,7 +8569,7 @@
       <c r="T25" s="30"/>
       <c r="U25" s="21"/>
     </row>
-    <row r="26" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -8615,7 +8619,7 @@
       <c r="T26" s="30"/>
       <c r="U26" s="21"/>
     </row>
-    <row r="27" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -8675,7 +8679,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="69" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -8737,7 +8741,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="69" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -8787,7 +8791,7 @@
       <c r="T29" s="30"/>
       <c r="U29" s="21"/>
     </row>
-    <row r="30" spans="1:21" ht="69" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -8843,7 +8847,7 @@
       <c r="T30" s="30"/>
       <c r="U30" s="14"/>
     </row>
-    <row r="31" spans="1:21" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -8905,7 +8909,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -8963,7 +8967,7 @@
       <c r="T32" s="30"/>
       <c r="U32" s="32"/>
     </row>
-    <row r="33" spans="1:21" s="8" customFormat="1" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" s="8" customFormat="1" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -9021,7 +9025,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="8" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" s="8" customFormat="1" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -9083,7 +9087,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -9140,7 +9144,7 @@
       <c r="T35" s="30"/>
       <c r="U35" s="14"/>
     </row>
-    <row r="36" spans="1:21" ht="179.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -9204,7 +9208,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" ht="114" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -9268,7 +9272,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" ht="171" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -9332,7 +9336,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -9396,7 +9400,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="41.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -9450,7 +9454,7 @@
       <c r="T40" s="30"/>
       <c r="U40" s="32"/>
     </row>
-    <row r="41" spans="1:21" ht="69" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -9508,7 +9512,7 @@
       <c r="T41" s="30"/>
       <c r="U41" s="32"/>
     </row>
-    <row r="42" spans="1:21" ht="41.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -9562,7 +9566,7 @@
       <c r="T42" s="30"/>
       <c r="U42" s="32"/>
     </row>
-    <row r="43" spans="1:21" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -9620,7 +9624,7 @@
       <c r="T43" s="30"/>
       <c r="U43" s="32"/>
     </row>
-    <row r="44" spans="1:21" ht="262.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" ht="299.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -9680,7 +9684,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -9738,7 +9742,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -9800,7 +9804,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="69" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -9862,7 +9866,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="69" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -9921,7 +9925,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -9983,7 +9987,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -10046,7 +10050,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -10100,7 +10104,7 @@
       <c r="T51" s="30"/>
       <c r="U51" s="32"/>
     </row>
-    <row r="52" spans="1:21" ht="193.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" ht="199.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -10150,7 +10154,7 @@
       <c r="T52" s="30"/>
       <c r="U52" s="32"/>
     </row>
-    <row r="53" spans="1:21" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -10210,7 +10214,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -10260,7 +10264,7 @@
       <c r="T54" s="30"/>
       <c r="U54" s="32"/>
     </row>
-    <row r="55" spans="1:21" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -10314,7 +10318,7 @@
       <c r="T55" s="30"/>
       <c r="U55" s="32"/>
     </row>
-    <row r="56" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -10373,7 +10377,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="69" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>55</v>
       </c>
@@ -10432,7 +10436,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>56</v>
       </c>
@@ -10492,7 +10496,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>57</v>
       </c>
@@ -10546,7 +10550,7 @@
       <c r="T59" s="30"/>
       <c r="U59" s="32"/>
     </row>
-    <row r="60" spans="1:21" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>58</v>
       </c>
@@ -10600,7 +10604,7 @@
       <c r="T60" s="30"/>
       <c r="U60" s="32"/>
     </row>
-    <row r="61" spans="1:21" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>59</v>
       </c>
@@ -10657,7 +10661,7 @@
       <c r="T61" s="30"/>
       <c r="U61" s="32"/>
     </row>
-    <row r="62" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>60</v>
       </c>
@@ -10720,7 +10724,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>61</v>
       </c>
@@ -10781,7 +10785,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>62</v>
       </c>
@@ -10832,7 +10836,7 @@
       <c r="T64" s="33"/>
       <c r="U64" s="32"/>
     </row>
-    <row r="65" spans="1:23" ht="41.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>63</v>
       </c>
@@ -10883,7 +10887,7 @@
       <c r="T65" s="33"/>
       <c r="U65" s="32"/>
     </row>
-    <row r="66" spans="1:23" ht="207" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" ht="228" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>64</v>
       </c>
@@ -10946,7 +10950,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>65</v>
       </c>
@@ -11006,7 +11010,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>66</v>
       </c>
@@ -11065,7 +11069,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="276" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" ht="285" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>67</v>
       </c>
@@ -11125,7 +11129,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>68</v>
       </c>
@@ -11183,7 +11187,7 @@
       <c r="T70" s="5"/>
       <c r="U70" s="32"/>
     </row>
-    <row r="71" spans="1:23" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" ht="142.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>69</v>
       </c>
@@ -11243,7 +11247,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" ht="171" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>70</v>
       </c>
@@ -11304,7 +11308,7 @@
       <c r="V72" s="5"/>
       <c r="W72" s="32"/>
     </row>
-    <row r="73" spans="1:23" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" ht="171" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>71</v>
       </c>
@@ -11364,7 +11368,7 @@
       <c r="V73" s="39"/>
       <c r="W73" s="28"/>
     </row>
-    <row r="74" spans="1:23" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>72</v>
       </c>
@@ -11419,7 +11423,7 @@
       <c r="V74" s="5"/>
       <c r="W74" s="32"/>
     </row>
-    <row r="75" spans="1:23" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>73</v>
       </c>
@@ -11480,7 +11484,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>74</v>
       </c>
@@ -11541,7 +11545,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="193.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" ht="213.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>75</v>
       </c>
@@ -11601,7 +11605,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" ht="185.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>75</v>
       </c>
@@ -11663,7 +11667,7 @@
       <c r="V78" s="5"/>
       <c r="W78" s="32"/>
     </row>
-    <row r="79" spans="1:23" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>76</v>
       </c>
@@ -11723,7 +11727,7 @@
       <c r="V79" s="5"/>
       <c r="W79" s="32"/>
     </row>
-    <row r="80" spans="1:23" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>77</v>
       </c>
@@ -11785,7 +11789,7 @@
       <c r="V80" s="5"/>
       <c r="W80" s="32"/>
     </row>
-    <row r="81" spans="1:23" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>78</v>
       </c>
@@ -11845,7 +11849,7 @@
       <c r="V81" s="74"/>
       <c r="W81" s="32"/>
     </row>
-    <row r="82" spans="1:23" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" ht="171" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>79</v>
       </c>
@@ -11907,7 +11911,7 @@
       <c r="V82" s="74"/>
       <c r="W82" s="32"/>
     </row>
-    <row r="83" spans="1:23" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>80</v>
       </c>
@@ -11966,7 +11970,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="248.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23" ht="270.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>81</v>
       </c>
@@ -12028,7 +12032,7 @@
       <c r="V84" s="74"/>
       <c r="W84" s="32"/>
     </row>
-    <row r="85" spans="1:23" ht="69" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:23" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>82</v>
       </c>
@@ -12090,7 +12094,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="69" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>83</v>
       </c>
@@ -12150,7 +12154,7 @@
       <c r="T86" s="5"/>
       <c r="U86" s="32"/>
     </row>
-    <row r="87" spans="1:23" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>84</v>
       </c>
@@ -12209,7 +12213,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>85</v>
       </c>
@@ -12270,7 +12274,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>86</v>
       </c>
@@ -12325,7 +12329,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:23" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>87</v>
       </c>
@@ -12374,7 +12378,7 @@
       <c r="T90" s="5"/>
       <c r="U90" s="32"/>
     </row>
-    <row r="91" spans="1:23" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:23" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>88</v>
       </c>
@@ -12421,7 +12425,7 @@
       <c r="T91" s="5"/>
       <c r="U91" s="32"/>
     </row>
-    <row r="92" spans="1:23" ht="193.2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:23" ht="199.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>89</v>
       </c>
@@ -12481,7 +12485,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="93" spans="1:23" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:23" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>90</v>
       </c>
@@ -12539,7 +12543,7 @@
       <c r="T93" s="5"/>
       <c r="U93" s="32"/>
     </row>
-    <row r="94" spans="1:23" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:23" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>91</v>
       </c>
@@ -12599,7 +12603,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="95" spans="1:23" ht="69" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:23" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>92</v>
       </c>
@@ -12659,7 +12663,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="96" spans="1:23" ht="69" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:23" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>93</v>
       </c>
@@ -12719,7 +12723,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="179.4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21" ht="171" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>94</v>
       </c>
@@ -12777,7 +12781,7 @@
       <c r="T97" s="5"/>
       <c r="U97" s="32"/>
     </row>
-    <row r="98" spans="1:21" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>95</v>
       </c>
@@ -12826,7 +12830,7 @@
       <c r="T98" s="5"/>
       <c r="U98" s="32"/>
     </row>
-    <row r="99" spans="1:21" ht="138" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>96</v>
       </c>
@@ -12884,7 +12888,7 @@
       <c r="T99" s="5"/>
       <c r="U99" s="32"/>
     </row>
-    <row r="100" spans="1:21" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>97</v>
       </c>
@@ -12944,7 +12948,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="317.39999999999998" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21" ht="342" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>98</v>
       </c>
@@ -13004,7 +13008,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>99</v>
       </c>
@@ -13062,7 +13066,7 @@
       <c r="T102" s="5"/>
       <c r="U102" s="32"/>
     </row>
-    <row r="103" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>100</v>
       </c>
@@ -13122,7 +13126,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="104" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>101</v>
       </c>
@@ -13182,7 +13186,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>102</v>
       </c>
@@ -13241,7 +13245,7 @@
       </c>
       <c r="U105" s="33"/>
     </row>
-    <row r="106" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>103</v>
       </c>
@@ -13300,7 +13304,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="107" spans="1:21" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>104</v>
       </c>
@@ -13349,7 +13353,7 @@
       <c r="T107" s="5"/>
       <c r="U107" s="32"/>
     </row>
-    <row r="108" spans="1:21" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>105</v>
       </c>
@@ -13408,7 +13412,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="109" spans="1:21" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>111</v>
       </c>
@@ -13463,7 +13467,7 @@
       </c>
       <c r="U109" s="32"/>
     </row>
-    <row r="110" spans="1:21" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>112</v>
       </c>
@@ -13518,7 +13522,7 @@
       <c r="T110" s="5"/>
       <c r="U110" s="32"/>
     </row>
-    <row r="111" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>113</v>
       </c>
@@ -13575,7 +13579,7 @@
       </c>
       <c r="U111" s="32"/>
     </row>
-    <row r="112" spans="1:21" ht="69" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
         <v>114</v>
       </c>
@@ -13632,7 +13636,7 @@
       </c>
       <c r="U112" s="32"/>
     </row>
-    <row r="113" spans="1:21" ht="69" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:21" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
         <v>115</v>
       </c>
@@ -13689,7 +13693,7 @@
       </c>
       <c r="U113" s="32"/>
     </row>
-    <row r="114" spans="1:21" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <v>116</v>
       </c>
@@ -13746,7 +13750,7 @@
       </c>
       <c r="U114" s="32"/>
     </row>
-    <row r="115" spans="1:21" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
         <v>117</v>
       </c>
@@ -13801,7 +13805,7 @@
       </c>
       <c r="U115" s="32"/>
     </row>
-    <row r="116" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <v>118</v>
       </c>
@@ -13847,7 +13851,7 @@
       </c>
       <c r="U116" s="32"/>
     </row>
-    <row r="117" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="39">
         <v>119</v>
       </c>
@@ -13895,7 +13899,7 @@
       </c>
       <c r="U117" s="28"/>
     </row>
-    <row r="118" spans="1:21" ht="180.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21" ht="180.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
         <v>120</v>
       </c>
@@ -13942,7 +13946,7 @@
       <c r="T118" s="5"/>
       <c r="U118" s="32"/>
     </row>
-    <row r="119" spans="1:21" ht="180.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21" ht="180.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
         <v>121</v>
       </c>
@@ -13989,7 +13993,7 @@
       <c r="T119" s="5"/>
       <c r="U119" s="32"/>
     </row>
-    <row r="120" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <f>1+A119</f>
         <v>122</v>
@@ -14035,7 +14039,7 @@
       <c r="T120" s="5"/>
       <c r="U120" s="32"/>
     </row>
-    <row r="121" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
         <v>123</v>
       </c>
@@ -14080,7 +14084,7 @@
       <c r="T121" s="5"/>
       <c r="U121" s="32"/>
     </row>
-    <row r="122" spans="1:21" ht="69" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
         <v>124</v>
       </c>
@@ -14125,7 +14129,7 @@
       <c r="T122" s="5"/>
       <c r="U122" s="32"/>
     </row>
-    <row r="123" spans="1:21" ht="138" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
         <v>125</v>
       </c>
@@ -14170,7 +14174,7 @@
       <c r="T123" s="5"/>
       <c r="U123" s="32"/>
     </row>
-    <row r="124" spans="1:21" ht="138" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
         <v>126</v>
       </c>
@@ -14217,7 +14221,7 @@
       <c r="T124" s="5"/>
       <c r="U124" s="32"/>
     </row>
-    <row r="125" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
         <v>127</v>
       </c>
@@ -14260,7 +14264,7 @@
       <c r="T125" s="5"/>
       <c r="U125" s="32"/>
     </row>
-    <row r="126" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
         <v>128</v>
       </c>
@@ -14303,7 +14307,7 @@
       <c r="T126" s="5"/>
       <c r="U126" s="32"/>
     </row>
-    <row r="127" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
         <v>129</v>
       </c>
@@ -14344,8 +14348,49 @@
       <c r="R127" s="5"/>
       <c r="S127" s="32"/>
     </row>
+    <row r="128" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="5">
+        <v>130</v>
+      </c>
+      <c r="B128" s="31" t="s">
+        <v>497</v>
+      </c>
+      <c r="C128" s="6">
+        <v>43539</v>
+      </c>
+      <c r="D128" s="32" t="s">
+        <v>499</v>
+      </c>
+      <c r="E128" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F128" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G128" s="32" t="s">
+        <v>498</v>
+      </c>
+      <c r="H128" s="32"/>
+      <c r="I128" s="32"/>
+      <c r="J128" s="32"/>
+      <c r="K128" s="32"/>
+      <c r="L128" s="32"/>
+      <c r="M128" s="21"/>
+      <c r="N128" s="6"/>
+      <c r="O128" s="33"/>
+      <c r="P128" s="5"/>
+      <c r="Q128" s="32"/>
+      <c r="S128" s="3"/>
+      <c r="T128" s="10"/>
+      <c r="U128" s="10"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:U126" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A2:U128" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="ID Authentication"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="5">
       <filters>
         <filter val="New"/>
@@ -14369,52 +14414,52 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
     </row>
   </sheetData>
@@ -14429,14 +14474,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>145</v>
       </c>
@@ -14447,7 +14492,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>72</v>
       </c>
@@ -14458,7 +14503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>32</v>
       </c>
@@ -14469,7 +14514,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>125</v>
       </c>
@@ -14480,7 +14525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>80</v>
       </c>
@@ -14491,7 +14536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>15</v>
       </c>
@@ -14502,7 +14547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>39</v>
       </c>
@@ -14513,7 +14558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>52</v>
       </c>
@@ -14524,7 +14569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>146</v>
       </c>
@@ -14547,12 +14592,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="52.21875" customWidth="1"/>
+    <col min="3" max="3" width="52.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="66" t="s">
         <v>207</v>
       </c>
@@ -14560,25 +14605,25 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:3" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="68"/>
       <c r="C2" s="69" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:3" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="70"/>
       <c r="C3" s="69" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="71"/>
       <c r="C4" s="69" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="72"/>
       <c r="C5" s="73" t="s">
         <v>206</v>
@@ -14763,15 +14808,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -14794,6 +14830,15 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62A013D4-4E69-4E0D-8B8F-1AA53B7A2CEA}">
   <ds:schemaRefs>
@@ -14813,14 +14858,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -14834,4 +14871,12 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
+++ b/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\git-repo\mosip\docs\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1012602\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FE12AAAA-B6D9-4457-993F-45CA7CD6B580}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{26626B09-0D32-4C66-9225-F99C54493136}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19155" windowHeight="6435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="7575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MOSIP_Feature_Roadmap" sheetId="5" r:id="rId1"/>
@@ -19,11 +19,11 @@
     <sheet name="Status Legends" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MOSIP_Feature_Roadmap!$A$2:$U$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MOSIP_Feature_Roadmap!$A$2:$U$126</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="3" r:id="rId5"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="490">
   <si>
     <t>S.No.</t>
   </si>
@@ -1672,9 +1672,6 @@
     </r>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>Sprint 6 Demo Feedback from Ramesh/Shrikant/Krishnan</t>
   </si>
   <si>
@@ -4736,11 +4733,147 @@
 </t>
   </si>
   <si>
-    <t>Via Registration Client software, Collection of Persons Demographic &amp; Biometric Data, performing a Dedupe and identify the Duplicate and proceed to issue of letter. 
+    <t>Discussion with Shrikant, Ramesh and Sasi - 04-Mar-19</t>
+  </si>
+  <si>
+    <t>E-mail from Shrikant dated 05-Mar-19</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lost UIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>:
+Via Registration Client software, Collection of Persons Demographic &amp; Biometric Data, performing a Dedupe and identify the Duplicate and proceed to issue of letter. 
 • At the back end - as first step use the demographic data as filter and then perform a biometric dedupe with the limited set of records, in case of unsuccessful match ignore the demographic data and perform a complete biometric dedupe to identify the duplicate.</t>
-  </si>
-  <si>
-    <t>Discussion with Shrikant, Ramesh and Sasi - 04-Mar-19</t>
+    </r>
+  </si>
+  <si>
+    <t>MOS-17830</t>
+  </si>
+  <si>
+    <t>Sprint FIT-3 Demo feedback from Ramesh</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Auto-logout based on Configuration Parameter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>:
+a. Due to in-activity for x mins (as configured), the user should be auto-logged out. Prior to logout, the user should be alerted
+b. If no action is taken by user, the user will be logged out and data entered should not be auto-saved</t>
+    </r>
+  </si>
+  <si>
+    <t>MOS-18100</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Proof of Consent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>:
+a. Ability to capture Proof of Consent</t>
+    </r>
+  </si>
+  <si>
+    <t>MOS-9712</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>MOS-14566</t>
+  </si>
+  <si>
+    <t>MOS-8641</t>
+  </si>
+  <si>
+    <t>MOS-12112</t>
+  </si>
+  <si>
+    <t>MOS-5482</t>
+  </si>
+  <si>
+    <t>MOS-18117</t>
+  </si>
+  <si>
+    <t>MOS 9090</t>
+  </si>
+  <si>
+    <t>MOS 1226</t>
+  </si>
+  <si>
+    <t>MOS 16545</t>
+  </si>
+  <si>
+    <t>MOS-13661</t>
+  </si>
+  <si>
+    <t>MOS-12961</t>
+  </si>
+  <si>
+    <t>MOS-12874</t>
+  </si>
+  <si>
+    <t>MOS 1204</t>
+  </si>
+  <si>
+    <t>MOS-8942</t>
+  </si>
+  <si>
+    <t>MOS-1316</t>
+  </si>
+  <si>
+    <t>MOS-14511</t>
+  </si>
+  <si>
+    <t>MOS-17869</t>
+  </si>
+  <si>
+    <t>MOS-18214</t>
+  </si>
+  <si>
+    <t>MOS-18215</t>
   </si>
 </sst>
 </file>
@@ -5079,7 +5212,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5334,6 +5467,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5396,7 +5532,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="MINDTREE" refreshedDate="43448.660082060182" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="64" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="MINDTREE" refreshedDate="43448.660082060182" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="64" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A2:U70" sheet="MOSIP_Feature_Roadmap"/>
   </cacheSource>
@@ -6557,7 +6693,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField dataField="1" showAll="0"/>
@@ -6906,11 +7042,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W124"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:W126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A121" sqref="A121"/>
+      <pane ySplit="2" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B121" sqref="B121:B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -6940,36 +7077,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
-        <v>210</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="94"/>
+      <c r="A1" s="91" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="95"/>
     </row>
     <row r="2" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>1</v>
@@ -6993,10 +7130,10 @@
         <v>7</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L2" s="20" t="s">
         <v>8</v>
@@ -7017,24 +7154,24 @@
         <v>12</v>
       </c>
       <c r="R2" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S2" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="T2" s="20" t="s">
         <v>177</v>
-      </c>
-      <c r="T2" s="20" t="s">
-        <v>178</v>
       </c>
       <c r="U2" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" s="4" customFormat="1" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="84" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C3" s="6">
         <v>43362</v>
@@ -7049,7 +7186,7 @@
         <v>16</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>17</v>
@@ -7058,13 +7195,13 @@
         <v>18</v>
       </c>
       <c r="J3" s="32" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K3" s="32" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L3" s="85" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M3" s="32" t="s">
         <v>19</v>
@@ -7083,20 +7220,20 @@
         <v>54</v>
       </c>
       <c r="R3" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S3" s="30"/>
       <c r="T3" s="30"/>
       <c r="U3" s="21" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" s="4" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="4" customFormat="1" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="84" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C4" s="6">
         <v>43362</v>
@@ -7111,19 +7248,19 @@
         <v>16</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J4" s="32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K4" s="32" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L4" s="32">
         <v>1</v>
@@ -7138,26 +7275,26 @@
         <v>43419</v>
       </c>
       <c r="P4" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q4" s="82" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R4" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S4" s="30"/>
       <c r="T4" s="30"/>
       <c r="U4" s="21" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" s="4" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="4" customFormat="1" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C5" s="6">
         <v>43362</v>
@@ -7181,13 +7318,13 @@
         <v>22</v>
       </c>
       <c r="J5" s="32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K5" s="32" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L5" s="85" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M5" s="32" t="s">
         <v>19</v>
@@ -7206,20 +7343,20 @@
         <v>18</v>
       </c>
       <c r="R5" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S5" s="30"/>
       <c r="T5" s="30"/>
       <c r="U5" s="21" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" s="4" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="4" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C6" s="6">
         <v>43362</v>
@@ -7234,7 +7371,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H6" s="14" t="s">
         <v>17</v>
@@ -7243,13 +7380,13 @@
         <v>22</v>
       </c>
       <c r="J6" s="32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K6" s="32" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L6" s="85" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M6" s="32" t="s">
         <v>19</v>
@@ -7268,20 +7405,20 @@
         <v>15</v>
       </c>
       <c r="R6" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S6" s="30"/>
       <c r="T6" s="30"/>
       <c r="U6" s="21" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" s="4" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="4" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>5</v>
       </c>
       <c r="B7" s="84" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C7" s="6">
         <v>43362</v>
@@ -7305,13 +7442,13 @@
         <v>22</v>
       </c>
       <c r="J7" s="32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K7" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L7" s="85" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M7" s="32" t="s">
         <v>19</v>
@@ -7330,20 +7467,20 @@
         <v>52.5</v>
       </c>
       <c r="R7" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S7" s="30"/>
       <c r="T7" s="30"/>
       <c r="U7" s="21" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" s="4" customFormat="1" ht="171" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="4" customFormat="1" ht="171" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
       <c r="B8" s="84" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C8" s="6">
         <v>43362</v>
@@ -7358,7 +7495,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H8" s="14" t="s">
         <v>17</v>
@@ -7367,13 +7504,13 @@
         <v>22</v>
       </c>
       <c r="J8" s="32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K8" s="32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L8" s="85" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M8" s="32" t="s">
         <v>19</v>
@@ -7392,20 +7529,20 @@
         <v>3</v>
       </c>
       <c r="R8" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S8" s="30"/>
       <c r="T8" s="30"/>
       <c r="U8" s="21" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" s="4" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="4" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9" s="84" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C9" s="6">
         <v>43362</v>
@@ -7430,10 +7567,10 @@
       </c>
       <c r="J9" s="19"/>
       <c r="K9" s="32" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L9" s="85" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M9" s="32" t="s">
         <v>19</v>
@@ -7452,20 +7589,20 @@
         <v>45</v>
       </c>
       <c r="R9" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S9" s="30"/>
       <c r="T9" s="30"/>
       <c r="U9" s="22" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" s="4" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="4" customFormat="1" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
       <c r="B10" s="84" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C10" s="6">
         <v>43362</v>
@@ -7480,7 +7617,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>17</v>
@@ -7490,7 +7627,7 @@
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="19" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L10" s="19">
         <v>1</v>
@@ -7512,15 +7649,15 @@
         <v>1.5</v>
       </c>
       <c r="R10" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S10" s="30"/>
       <c r="T10" s="30"/>
       <c r="U10" s="22" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="1" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -7568,13 +7705,13 @@
         <v>0</v>
       </c>
       <c r="R11" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S11" s="30"/>
       <c r="T11" s="30"/>
       <c r="U11" s="21"/>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" s="1" customFormat="1" ht="142.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -7592,7 +7729,7 @@
         <v>26</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>17</v>
@@ -7602,7 +7739,7 @@
       </c>
       <c r="J12" s="32"/>
       <c r="K12" s="32" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L12" s="32">
         <v>1</v>
@@ -7623,20 +7760,20 @@
         <v>141</v>
       </c>
       <c r="R12" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S12" s="30"/>
       <c r="T12" s="30"/>
       <c r="U12" s="21" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" s="1" customFormat="1" ht="285" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" s="1" customFormat="1" ht="285" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C13" s="6">
         <v>43395</v>
@@ -7674,7 +7811,7 @@
         <v>43419</v>
       </c>
       <c r="P13" s="77" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q13" s="79"/>
       <c r="R13" s="30"/>
@@ -7682,12 +7819,12 @@
       <c r="T13" s="30"/>
       <c r="U13" s="21"/>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" s="1" customFormat="1" ht="114" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>12</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C14" s="6">
         <v>43397</v>
@@ -7702,7 +7839,7 @@
         <v>26</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H14" s="14" t="s">
         <v>38</v>
@@ -7712,7 +7849,7 @@
       </c>
       <c r="J14" s="19"/>
       <c r="K14" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L14" s="32">
         <v>1</v>
@@ -7734,20 +7871,20 @@
         <v>30</v>
       </c>
       <c r="R14" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S14" s="30"/>
       <c r="T14" s="30"/>
       <c r="U14" s="21" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" s="1" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" s="1" customFormat="1" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C15" s="6">
         <v>43397</v>
@@ -7762,7 +7899,7 @@
         <v>26</v>
       </c>
       <c r="G15" s="51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>38</v>
@@ -7792,24 +7929,24 @@
         <v>36</v>
       </c>
       <c r="R15" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S15" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="T15" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="T15" s="30" t="s">
-        <v>173</v>
-      </c>
       <c r="U15" s="21" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" s="1" customFormat="1" ht="199.5" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" s="1" customFormat="1" ht="199.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C16" s="6">
         <v>43397</v>
@@ -7824,7 +7961,7 @@
         <v>26</v>
       </c>
       <c r="G16" s="51" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H16" s="14" t="s">
         <v>38</v>
@@ -7854,24 +7991,24 @@
         <v>54</v>
       </c>
       <c r="R16" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S16" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="T16" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="T16" s="30" t="s">
-        <v>173</v>
-      </c>
       <c r="U16" s="21" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" s="4" customFormat="1" ht="213.75" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" s="4" customFormat="1" ht="213.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C17" s="6">
         <v>43397</v>
@@ -7916,19 +8053,19 @@
         <v>72</v>
       </c>
       <c r="R17" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S17" s="60" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T17" s="30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U17" s="21" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" s="1" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" s="1" customFormat="1" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -7976,24 +8113,24 @@
         <v>0</v>
       </c>
       <c r="R18" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S18" s="61" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="T18" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U18" s="21" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" s="4" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" s="4" customFormat="1" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C19" s="6">
         <v>43397</v>
@@ -8038,19 +8175,19 @@
         <v>15</v>
       </c>
       <c r="R19" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S19" s="62" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T19" s="54" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U19" s="55" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" s="1" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -8098,7 +8235,7 @@
       <c r="T20" s="30"/>
       <c r="U20" s="21"/>
     </row>
-    <row r="21" spans="1:21" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" s="4" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -8146,12 +8283,12 @@
       <c r="T21" s="30"/>
       <c r="U21" s="21"/>
     </row>
-    <row r="22" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="83" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C22" s="6">
         <v>43402</v>
@@ -8176,7 +8313,7 @@
       </c>
       <c r="J22" s="32"/>
       <c r="K22" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L22" s="32">
         <v>1</v>
@@ -8198,19 +8335,21 @@
         <v>15</v>
       </c>
       <c r="R22" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S22" s="30"/>
       <c r="T22" s="30"/>
       <c r="U22" s="21" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="31"/>
+      <c r="B23" s="31" t="s">
+        <v>472</v>
+      </c>
       <c r="C23" s="6">
         <v>43402</v>
       </c>
@@ -8224,7 +8363,7 @@
         <v>26</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H23" s="14" t="s">
         <v>38</v>
@@ -8234,7 +8373,7 @@
       </c>
       <c r="J23" s="32"/>
       <c r="K23" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L23" s="32" t="s">
         <v>140</v>
@@ -8249,27 +8388,27 @@
         <v>43419</v>
       </c>
       <c r="P23" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q23" s="82">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="R23" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S23" s="30"/>
       <c r="T23" s="30"/>
       <c r="U23" s="21" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="114" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C24" s="6">
         <v>43402</v>
@@ -8314,19 +8453,19 @@
         <v>30</v>
       </c>
       <c r="R24" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S24" s="62" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T24" s="30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U24" s="21" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -8376,7 +8515,7 @@
       <c r="T25" s="30"/>
       <c r="U25" s="21"/>
     </row>
-    <row r="26" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -8426,11 +8565,13 @@
       <c r="T26" s="30"/>
       <c r="U26" s="21"/>
     </row>
-    <row r="27" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="83"/>
+      <c r="B27" s="83" t="s">
+        <v>473</v>
+      </c>
       <c r="C27" s="6">
         <v>43402</v>
       </c>
@@ -8454,7 +8595,7 @@
       </c>
       <c r="J27" s="32"/>
       <c r="K27" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L27" s="32">
         <v>1</v>
@@ -8476,7 +8617,7 @@
         <v>15</v>
       </c>
       <c r="R27" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S27" s="30"/>
       <c r="T27" s="30"/>
@@ -8484,11 +8625,13 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="83"/>
+      <c r="B28" s="83" t="s">
+        <v>474</v>
+      </c>
       <c r="C28" s="6">
         <v>43418</v>
       </c>
@@ -8511,10 +8654,10 @@
         <v>54</v>
       </c>
       <c r="J28" s="32" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L28" s="14">
         <v>1</v>
@@ -8536,15 +8679,15 @@
         <v>7.5</v>
       </c>
       <c r="R28" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S28" s="30"/>
       <c r="T28" s="30"/>
       <c r="U28" s="21" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -8594,7 +8737,7 @@
       <c r="T29" s="30"/>
       <c r="U29" s="21"/>
     </row>
-    <row r="30" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -8621,7 +8764,7 @@
         <v>54</v>
       </c>
       <c r="J30" s="32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K30" s="32"/>
       <c r="L30" s="14">
@@ -8644,13 +8787,13 @@
         <v>45</v>
       </c>
       <c r="R30" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S30" s="30"/>
       <c r="T30" s="30"/>
       <c r="U30" s="14"/>
     </row>
-    <row r="31" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -8700,24 +8843,24 @@
         <v>30</v>
       </c>
       <c r="R31" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S31" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="T31" s="30" t="s">
         <v>185</v>
-      </c>
-      <c r="T31" s="30" t="s">
-        <v>186</v>
       </c>
       <c r="U31" s="14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C32" s="6">
         <v>43430</v>
@@ -8741,7 +8884,7 @@
         <v>81</v>
       </c>
       <c r="J32" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K32" s="32"/>
       <c r="L32" s="32">
@@ -8764,13 +8907,13 @@
         <v>9</v>
       </c>
       <c r="R32" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S32" s="30"/>
       <c r="T32" s="30"/>
       <c r="U32" s="32"/>
     </row>
-    <row r="33" spans="1:21" s="8" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" s="8" customFormat="1" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -8788,7 +8931,7 @@
         <v>33</v>
       </c>
       <c r="G33" s="46" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H33" s="14" t="s">
         <v>38</v>
@@ -8797,7 +8940,7 @@
         <v>82</v>
       </c>
       <c r="J33" s="32" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K33" s="32"/>
       <c r="L33" s="32">
@@ -8820,7 +8963,7 @@
         <v>15</v>
       </c>
       <c r="R33" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S33" s="30"/>
       <c r="T33" s="30"/>
@@ -8828,12 +8971,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="8" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" s="8" customFormat="1" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>33</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C34" s="6">
         <v>43430</v>
@@ -8857,13 +9000,13 @@
         <v>85</v>
       </c>
       <c r="J34" s="32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K34" s="32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L34" s="85" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M34" s="32" t="s">
         <v>74</v>
@@ -8882,7 +9025,7 @@
         <v>22.5</v>
       </c>
       <c r="R34" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S34" s="30"/>
       <c r="T34" s="30"/>
@@ -8890,11 +9033,13 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="83"/>
+      <c r="B35" s="83" t="s">
+        <v>477</v>
+      </c>
       <c r="C35" s="6">
         <v>43430</v>
       </c>
@@ -8908,7 +9053,7 @@
         <v>26</v>
       </c>
       <c r="G35" s="48" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H35" s="14" t="s">
         <v>38</v>
@@ -8918,7 +9063,7 @@
       </c>
       <c r="J35" s="32"/>
       <c r="K35" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L35" s="32">
         <v>1</v>
@@ -8939,7 +9084,7 @@
         <v>141</v>
       </c>
       <c r="R35" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S35" s="30"/>
       <c r="T35" s="30"/>
@@ -8950,7 +9095,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C36" s="6">
         <v>43430</v>
@@ -8974,7 +9119,7 @@
         <v>90</v>
       </c>
       <c r="J36" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K36" s="28"/>
       <c r="L36" s="15">
@@ -8997,13 +9142,13 @@
         <v>0</v>
       </c>
       <c r="R36" s="41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S36" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T36" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U36" s="32" t="s">
         <v>91</v>
@@ -9014,7 +9159,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C37" s="6">
         <v>43430</v>
@@ -9038,7 +9183,7 @@
         <v>93</v>
       </c>
       <c r="J37" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K37" s="28"/>
       <c r="L37" s="15">
@@ -9061,16 +9206,16 @@
         <v>15</v>
       </c>
       <c r="R37" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S37" s="30" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="T37" s="30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="U37" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="171" x14ac:dyDescent="0.25">
@@ -9078,7 +9223,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C38" s="6">
         <v>43430</v>
@@ -9102,7 +9247,7 @@
         <v>95</v>
       </c>
       <c r="J38" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K38" s="28"/>
       <c r="L38" s="32">
@@ -9125,16 +9270,16 @@
         <v>0</v>
       </c>
       <c r="R38" s="41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S38" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T38" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U38" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
@@ -9142,7 +9287,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C39" s="6">
         <v>43430</v>
@@ -9166,7 +9311,7 @@
         <v>95</v>
       </c>
       <c r="J39" s="28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K39" s="28"/>
       <c r="L39" s="32">
@@ -9189,24 +9334,24 @@
         <v>0</v>
       </c>
       <c r="R39" s="41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S39" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T39" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U39" s="32" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C40" s="6">
         <v>43430</v>
@@ -9230,7 +9375,7 @@
         <v>99</v>
       </c>
       <c r="J40" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K40" s="32"/>
       <c r="L40" s="32">
@@ -9255,11 +9400,13 @@
       <c r="T40" s="30"/>
       <c r="U40" s="32"/>
     </row>
-    <row r="41" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="31"/>
+      <c r="B41" s="31" t="s">
+        <v>475</v>
+      </c>
       <c r="C41" s="6">
         <v>43430</v>
       </c>
@@ -9273,7 +9420,7 @@
         <v>26</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H41" s="14" t="s">
         <v>38</v>
@@ -9283,10 +9430,10 @@
       </c>
       <c r="J41" s="32"/>
       <c r="K41" s="32" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L41" s="85" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M41" s="32" t="s">
         <v>74</v>
@@ -9305,13 +9452,13 @@
         <v>0</v>
       </c>
       <c r="R41" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S41" s="30"/>
       <c r="T41" s="30"/>
       <c r="U41" s="32"/>
     </row>
-    <row r="42" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -9340,7 +9487,7 @@
       <c r="J42" s="32"/>
       <c r="K42" s="32"/>
       <c r="L42" s="32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M42" s="32" t="s">
         <v>74</v>
@@ -9359,17 +9506,19 @@
         <v>0</v>
       </c>
       <c r="R42" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S42" s="30"/>
       <c r="T42" s="30"/>
       <c r="U42" s="32"/>
     </row>
-    <row r="43" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="87"/>
+      <c r="B43" s="87" t="s">
+        <v>476</v>
+      </c>
       <c r="C43" s="6">
         <v>43427</v>
       </c>
@@ -9383,7 +9532,7 @@
         <v>26</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H43" s="14" t="s">
         <v>38</v>
@@ -9393,7 +9542,7 @@
       </c>
       <c r="J43" s="32"/>
       <c r="K43" s="32" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L43" s="32">
         <v>2</v>
@@ -9415,18 +9564,18 @@
         <v>0</v>
       </c>
       <c r="R43" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S43" s="30"/>
       <c r="T43" s="30"/>
       <c r="U43" s="32"/>
     </row>
-    <row r="44" spans="1:21" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="299.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C44" s="6">
         <v>43427</v>
@@ -9471,22 +9620,22 @@
         <v>90</v>
       </c>
       <c r="R44" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S44" s="59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T44" s="30"/>
       <c r="U44" s="32" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" ht="128.25" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C45" s="6">
         <v>43427</v>
@@ -9531,20 +9680,20 @@
         <v>90</v>
       </c>
       <c r="R45" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S45" s="30"/>
       <c r="T45" s="30"/>
       <c r="U45" s="32" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C46" s="6">
         <v>43427</v>
@@ -9589,24 +9738,24 @@
         <v>27</v>
       </c>
       <c r="R46" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S46" s="63" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="T46" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U46" s="32" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C47" s="6">
         <v>43427</v>
@@ -9621,7 +9770,7 @@
         <v>26</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H47" s="14" t="s">
         <v>38</v>
@@ -9651,19 +9800,19 @@
         <v>30</v>
       </c>
       <c r="R47" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S47" s="75" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="T47" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U47" s="32" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -9681,13 +9830,13 @@
         <v>26</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H48" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I48" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J48" s="32"/>
       <c r="K48" s="32"/>
@@ -9698,7 +9847,7 @@
         <v>74</v>
       </c>
       <c r="N48" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O48" s="21">
         <v>43452</v>
@@ -9713,12 +9862,12 @@
       <c r="T48" s="30"/>
       <c r="U48" s="32"/>
     </row>
-    <row r="49" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C49" s="6">
         <v>43427</v>
@@ -9763,16 +9912,16 @@
         <v>7.5</v>
       </c>
       <c r="R49" s="57" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S49" s="64" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="T49" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="U49" s="19" t="s">
         <v>198</v>
-      </c>
-      <c r="U49" s="19" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
@@ -9780,7 +9929,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C50" s="6">
         <v>43427</v>
@@ -9804,7 +9953,7 @@
         <v>110</v>
       </c>
       <c r="J50" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K50" s="28"/>
       <c r="L50" s="32">
@@ -9826,19 +9975,19 @@
         <v>141</v>
       </c>
       <c r="R50" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S50" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T50" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U50" s="32" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -9886,13 +10035,13 @@
         <v>0</v>
       </c>
       <c r="R51" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S51" s="30"/>
       <c r="T51" s="30"/>
       <c r="U51" s="32"/>
     </row>
-    <row r="52" spans="1:21" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" ht="199.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -9942,12 +10091,12 @@
       <c r="T52" s="30"/>
       <c r="U52" s="32"/>
     </row>
-    <row r="53" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>52</v>
       </c>
       <c r="B53" s="83" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C53" s="6">
         <v>43427</v>
@@ -9972,7 +10121,7 @@
       </c>
       <c r="J53" s="32"/>
       <c r="K53" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L53" s="32">
         <v>1</v>
@@ -9994,7 +10143,7 @@
         <v>18</v>
       </c>
       <c r="R53" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S53" s="30"/>
       <c r="T53" s="30"/>
@@ -10002,7 +10151,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -10052,7 +10201,7 @@
       <c r="T54" s="30"/>
       <c r="U54" s="32"/>
     </row>
-    <row r="55" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -10100,17 +10249,19 @@
         <v>0</v>
       </c>
       <c r="R55" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S55" s="30"/>
       <c r="T55" s="30"/>
       <c r="U55" s="32"/>
     </row>
-    <row r="56" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>55</v>
       </c>
-      <c r="B56" s="83"/>
+      <c r="B56" s="83" t="s">
+        <v>478</v>
+      </c>
       <c r="C56" s="6">
         <v>43427</v>
       </c>
@@ -10124,7 +10275,7 @@
         <v>26</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H56" s="14" t="s">
         <v>38</v>
@@ -10134,7 +10285,7 @@
       </c>
       <c r="J56" s="32"/>
       <c r="K56" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L56" s="32">
         <v>1</v>
@@ -10155,19 +10306,21 @@
         <v>141</v>
       </c>
       <c r="R56" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S56" s="30"/>
       <c r="T56" s="30"/>
       <c r="U56" s="32" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>55</v>
       </c>
-      <c r="B57" s="83"/>
+      <c r="B57" s="83" t="s">
+        <v>479</v>
+      </c>
       <c r="C57" s="6">
         <v>43427</v>
       </c>
@@ -10181,7 +10334,7 @@
         <v>26</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H57" s="14" t="s">
         <v>38</v>
@@ -10191,7 +10344,7 @@
       </c>
       <c r="J57" s="32"/>
       <c r="K57" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L57" s="32" t="s">
         <v>140</v>
@@ -10212,7 +10365,7 @@
         <v>48</v>
       </c>
       <c r="R57" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S57" s="30"/>
       <c r="T57" s="30"/>
@@ -10220,11 +10373,13 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>56</v>
       </c>
-      <c r="B58" s="84"/>
+      <c r="B58" s="84" t="s">
+        <v>480</v>
+      </c>
       <c r="C58" s="6">
         <v>43427</v>
       </c>
@@ -10248,10 +10403,10 @@
       </c>
       <c r="J58" s="32"/>
       <c r="K58" s="32" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L58" s="85" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M58" s="32" t="s">
         <v>74</v>
@@ -10270,15 +10425,15 @@
         <v>60</v>
       </c>
       <c r="R58" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S58" s="30"/>
       <c r="T58" s="30"/>
       <c r="U58" s="32" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>57</v>
       </c>
@@ -10326,13 +10481,13 @@
         <v>0</v>
       </c>
       <c r="R59" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S59" s="30"/>
       <c r="T59" s="30"/>
       <c r="U59" s="32"/>
     </row>
-    <row r="60" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>58</v>
       </c>
@@ -10380,17 +10535,19 @@
         <v>0</v>
       </c>
       <c r="R60" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S60" s="30"/>
       <c r="T60" s="30"/>
       <c r="U60" s="32"/>
     </row>
-    <row r="61" spans="1:21" ht="114" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>59</v>
       </c>
-      <c r="B61" s="5"/>
+      <c r="B61" s="14" t="s">
+        <v>470</v>
+      </c>
       <c r="C61" s="6">
         <v>43432</v>
       </c>
@@ -10413,7 +10570,7 @@
         <v>85</v>
       </c>
       <c r="J61" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K61" s="32"/>
       <c r="L61" s="32">
@@ -10432,10 +10589,10 @@
         <v>4</v>
       </c>
       <c r="Q61" s="81" t="s">
-        <v>151</v>
+        <v>471</v>
       </c>
       <c r="R61" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S61" s="30"/>
       <c r="T61" s="30"/>
@@ -10446,7 +10603,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C62" s="6">
         <v>43432</v>
@@ -10470,7 +10627,7 @@
         <v>85</v>
       </c>
       <c r="J62" s="28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K62" s="28"/>
       <c r="L62" s="32">
@@ -10492,24 +10649,24 @@
         <v>0</v>
       </c>
       <c r="R62" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S62" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T62" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U62" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>61</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C63" s="6">
         <v>43432</v>
@@ -10553,23 +10710,25 @@
         <v>30</v>
       </c>
       <c r="R63" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S63" s="63" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T63" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="U63" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="U63" s="32" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:21" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>62</v>
       </c>
-      <c r="B64" s="5"/>
+      <c r="B64" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="C64" s="6">
         <v>43432</v>
       </c>
@@ -10592,7 +10751,7 @@
         <v>132</v>
       </c>
       <c r="J64" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K64" s="32"/>
       <c r="L64" s="32">
@@ -10614,11 +10773,13 @@
       <c r="T64" s="33"/>
       <c r="U64" s="32"/>
     </row>
-    <row r="65" spans="1:23" ht="57" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>63</v>
       </c>
-      <c r="B65" s="5"/>
+      <c r="B65" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="C65" s="6">
         <v>43432</v>
       </c>
@@ -10632,7 +10793,7 @@
         <v>33</v>
       </c>
       <c r="G65" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H65" s="14" t="s">
         <v>38</v>
@@ -10641,11 +10802,11 @@
         <v>134</v>
       </c>
       <c r="J65" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K65" s="32"/>
       <c r="L65" s="32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M65" s="32" t="s">
         <v>74</v>
@@ -10668,7 +10829,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C66" s="6">
         <v>43440</v>
@@ -10683,7 +10844,7 @@
         <v>26</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H66" s="14" t="s">
         <v>38</v>
@@ -10692,7 +10853,7 @@
         <v>85</v>
       </c>
       <c r="J66" s="32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K66" s="32"/>
       <c r="L66" s="32">
@@ -10702,7 +10863,7 @@
         <v>74</v>
       </c>
       <c r="N66" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O66" s="21">
         <v>43452</v>
@@ -10714,24 +10875,24 @@
         <v>20</v>
       </c>
       <c r="R66" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S66" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="T66" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U66" s="32" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" ht="114" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>65</v>
       </c>
       <c r="B67" s="84" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C67" s="6">
         <v>43440</v>
@@ -10756,7 +10917,7 @@
       </c>
       <c r="J67" s="32"/>
       <c r="K67" s="32" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L67" s="32" t="s">
         <v>140</v>
@@ -10778,7 +10939,7 @@
         <v>45</v>
       </c>
       <c r="R67" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S67" s="5"/>
       <c r="T67" s="5"/>
@@ -10786,12 +10947,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="114" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>66</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C68" s="6">
         <v>43440</v>
@@ -10815,7 +10976,7 @@
         <v>85</v>
       </c>
       <c r="J68" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K68" s="32"/>
       <c r="L68" s="32" t="s">
@@ -10837,19 +10998,21 @@
         <v>56</v>
       </c>
       <c r="R68" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S68" s="5"/>
       <c r="T68" s="5"/>
       <c r="U68" s="32" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" ht="285" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" ht="285" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>67</v>
       </c>
-      <c r="B69" s="83"/>
+      <c r="B69" s="83" t="s">
+        <v>481</v>
+      </c>
       <c r="C69" s="6">
         <v>43446</v>
       </c>
@@ -10873,7 +11036,7 @@
       </c>
       <c r="J69" s="32"/>
       <c r="K69" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L69" s="32">
         <v>1</v>
@@ -10895,19 +11058,21 @@
         <v>18</v>
       </c>
       <c r="R69" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S69" s="5"/>
       <c r="T69" s="5"/>
       <c r="U69" s="32" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23" ht="57" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>68</v>
       </c>
-      <c r="B70" s="83"/>
+      <c r="B70" s="83" t="s">
+        <v>482</v>
+      </c>
       <c r="C70" s="6">
         <v>43446</v>
       </c>
@@ -10921,7 +11086,7 @@
         <v>26</v>
       </c>
       <c r="G70" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H70" s="14" t="s">
         <v>38</v>
@@ -10931,7 +11096,7 @@
       </c>
       <c r="J70" s="32"/>
       <c r="K70" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L70" s="32">
         <v>1</v>
@@ -10953,22 +11118,24 @@
         <v>6</v>
       </c>
       <c r="R70" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S70" s="5"/>
       <c r="T70" s="5"/>
       <c r="U70" s="32"/>
     </row>
-    <row r="71" spans="1:23" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" ht="142.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>69</v>
       </c>
-      <c r="B71" s="83"/>
+      <c r="B71" s="83" t="s">
+        <v>483</v>
+      </c>
       <c r="C71" s="6">
         <v>43451</v>
       </c>
       <c r="D71" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E71" s="32" t="s">
         <v>15</v>
@@ -10977,7 +11144,7 @@
         <v>26</v>
       </c>
       <c r="G71" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H71" s="14" t="s">
         <v>38</v>
@@ -10987,7 +11154,7 @@
       </c>
       <c r="J71" s="32"/>
       <c r="K71" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L71" s="32">
         <v>1</v>
@@ -11009,26 +11176,26 @@
         <v>15</v>
       </c>
       <c r="R71" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S71" s="5"/>
       <c r="T71" s="5"/>
       <c r="U71" s="32" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" ht="171" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" ht="171" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>70</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C72" s="6">
         <v>43451</v>
       </c>
       <c r="D72" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E72" s="32" t="s">
         <v>80</v>
@@ -11037,7 +11204,7 @@
         <v>26</v>
       </c>
       <c r="G72" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H72" s="14" t="s">
         <v>38</v>
@@ -11046,7 +11213,7 @@
         <v>85</v>
       </c>
       <c r="J72" s="32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K72" s="32"/>
       <c r="L72" s="32">
@@ -11068,28 +11235,28 @@
         <v>12</v>
       </c>
       <c r="R72" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S72" s="5"/>
       <c r="T72" s="5"/>
       <c r="U72" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V72" s="5"/>
       <c r="W72" s="32"/>
     </row>
-    <row r="73" spans="1:23" ht="171" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" ht="171" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>71</v>
       </c>
       <c r="B73" s="83" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C73" s="6">
         <v>43451</v>
       </c>
       <c r="D73" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E73" s="32" t="s">
         <v>15</v>
@@ -11098,7 +11265,7 @@
         <v>26</v>
       </c>
       <c r="G73" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H73" s="14" t="s">
         <v>38</v>
@@ -11108,7 +11275,7 @@
       </c>
       <c r="J73" s="32"/>
       <c r="K73" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L73" s="32">
         <v>1</v>
@@ -11130,7 +11297,7 @@
         <v>9</v>
       </c>
       <c r="R73" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S73" s="5"/>
       <c r="T73" s="5"/>
@@ -11138,7 +11305,7 @@
       <c r="V73" s="39"/>
       <c r="W73" s="28"/>
     </row>
-    <row r="74" spans="1:23" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>72</v>
       </c>
@@ -11147,7 +11314,7 @@
         <v>43454</v>
       </c>
       <c r="D74" s="32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E74" s="28" t="s">
         <v>15</v>
@@ -11156,18 +11323,18 @@
         <v>33</v>
       </c>
       <c r="G74" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H74" s="15" t="s">
         <v>38</v>
       </c>
       <c r="I74" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J74" s="28"/>
       <c r="K74" s="28"/>
       <c r="L74" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M74" s="28" t="s">
         <v>74</v>
@@ -11185,7 +11352,7 @@
         <v>0</v>
       </c>
       <c r="R74" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S74" s="5"/>
       <c r="T74" s="5"/>
@@ -11193,18 +11360,18 @@
       <c r="V74" s="5"/>
       <c r="W74" s="32"/>
     </row>
-    <row r="75" spans="1:23" ht="57" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>73</v>
       </c>
       <c r="B75" s="39" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C75" s="37">
         <v>43454</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E75" s="32" t="s">
         <v>39</v>
@@ -11213,7 +11380,7 @@
         <v>26</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H75" s="15" t="s">
         <v>38</v>
@@ -11242,30 +11409,30 @@
         <v>30</v>
       </c>
       <c r="R75" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S75" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="T75" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="T75" s="39" t="s">
-        <v>173</v>
-      </c>
       <c r="U75" s="65" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23" ht="156.75" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>74</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C76" s="6">
         <v>43454</v>
       </c>
       <c r="D76" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E76" s="32" t="s">
         <v>39</v>
@@ -11274,7 +11441,7 @@
         <v>26</v>
       </c>
       <c r="G76" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H76" s="14" t="s">
         <v>38</v>
@@ -11303,30 +11470,30 @@
         <v>15</v>
       </c>
       <c r="R76" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S76" s="75" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="T76" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U76" s="65" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23" ht="199.5" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" ht="213.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>75</v>
       </c>
       <c r="B77" s="87" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C77" s="6">
         <v>43465</v>
       </c>
       <c r="D77" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E77" s="32" t="s">
         <v>15</v>
@@ -11335,7 +11502,7 @@
         <v>26</v>
       </c>
       <c r="G77" s="32" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H77" s="14" t="s">
         <v>38</v>
@@ -11345,16 +11512,16 @@
       </c>
       <c r="J77" s="32"/>
       <c r="K77" s="32" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L77" s="85" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M77" s="32" t="s">
         <v>74</v>
       </c>
       <c r="N77" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O77" s="21">
         <v>43465</v>
@@ -11367,26 +11534,26 @@
         <v>18</v>
       </c>
       <c r="R77" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S77" s="5"/>
       <c r="T77" s="5"/>
       <c r="U77" s="31" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23" ht="171" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" ht="185.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>75</v>
       </c>
       <c r="B78" s="31" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C78" s="6">
         <v>43465</v>
       </c>
       <c r="D78" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E78" s="32" t="s">
         <v>15</v>
@@ -11395,7 +11562,7 @@
         <v>26</v>
       </c>
       <c r="G78" s="32" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H78" s="14" t="s">
         <v>38</v>
@@ -11405,16 +11572,16 @@
       </c>
       <c r="J78" s="32"/>
       <c r="K78" s="32" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L78" s="85" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M78" s="32" t="s">
         <v>74</v>
       </c>
       <c r="N78" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O78" s="21">
         <v>43465</v>
@@ -11427,28 +11594,28 @@
         <v>6</v>
       </c>
       <c r="R78" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S78" s="5"/>
       <c r="T78" s="5"/>
       <c r="U78" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="V78" s="5"/>
       <c r="W78" s="32"/>
     </row>
-    <row r="79" spans="1:23" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>76</v>
       </c>
       <c r="B79" s="84" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C79" s="6">
         <v>43465</v>
       </c>
       <c r="D79" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E79" s="32" t="s">
         <v>15</v>
@@ -11457,7 +11624,7 @@
         <v>26</v>
       </c>
       <c r="G79" s="32" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H79" s="14" t="s">
         <v>38</v>
@@ -11467,16 +11634,16 @@
       </c>
       <c r="J79" s="32"/>
       <c r="K79" s="32" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L79" s="85" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M79" s="32" t="s">
         <v>74</v>
       </c>
       <c r="N79" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O79" s="21">
         <v>43465</v>
@@ -11489,7 +11656,7 @@
         <v>45</v>
       </c>
       <c r="R79" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S79" s="5"/>
       <c r="T79" s="5"/>
@@ -11497,18 +11664,18 @@
       <c r="V79" s="5"/>
       <c r="W79" s="32"/>
     </row>
-    <row r="80" spans="1:23" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>77</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C80" s="6">
         <v>43465</v>
       </c>
       <c r="D80" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E80" s="32" t="s">
         <v>15</v>
@@ -11517,7 +11684,7 @@
         <v>26</v>
       </c>
       <c r="G80" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H80" s="14" t="s">
         <v>38</v>
@@ -11527,16 +11694,16 @@
       </c>
       <c r="J80" s="32"/>
       <c r="K80" s="32" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L80" s="85" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M80" s="32" t="s">
         <v>74</v>
       </c>
       <c r="N80" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O80" s="21">
         <v>43465</v>
@@ -11549,28 +11716,28 @@
         <v>30</v>
       </c>
       <c r="R80" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S80" s="5"/>
       <c r="T80" s="5"/>
       <c r="U80" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="V80" s="5"/>
       <c r="W80" s="32"/>
     </row>
-    <row r="81" spans="1:23" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>78</v>
       </c>
       <c r="B81" s="31" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C81" s="6">
         <v>43465</v>
       </c>
       <c r="D81" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E81" s="32" t="s">
         <v>15</v>
@@ -11579,7 +11746,7 @@
         <v>26</v>
       </c>
       <c r="G81" s="32" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H81" s="14" t="s">
         <v>38</v>
@@ -11589,29 +11756,29 @@
       </c>
       <c r="J81" s="32"/>
       <c r="K81" s="32" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L81" s="85" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M81" s="32" t="s">
         <v>74</v>
       </c>
       <c r="N81" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O81" s="21">
         <v>43465</v>
       </c>
       <c r="P81" s="30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q81" s="82">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="R81" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S81" s="5"/>
       <c r="T81" s="5"/>
@@ -11619,18 +11786,18 @@
       <c r="V81" s="74"/>
       <c r="W81" s="32"/>
     </row>
-    <row r="82" spans="1:23" ht="171" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" ht="171" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>79</v>
       </c>
       <c r="B82" s="84" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C82" s="6">
         <v>43465</v>
       </c>
       <c r="D82" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E82" s="32" t="s">
         <v>15</v>
@@ -11639,7 +11806,7 @@
         <v>26</v>
       </c>
       <c r="G82" s="32" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H82" s="14" t="s">
         <v>38</v>
@@ -11649,7 +11816,7 @@
       </c>
       <c r="J82" s="32"/>
       <c r="K82" s="32" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L82" s="32">
         <v>1</v>
@@ -11658,7 +11825,7 @@
         <v>74</v>
       </c>
       <c r="N82" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O82" s="21">
         <v>43465</v>
@@ -11671,17 +11838,17 @@
         <v>45</v>
       </c>
       <c r="R82" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S82" s="5"/>
       <c r="T82" s="5"/>
       <c r="U82" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V82" s="74"/>
       <c r="W82" s="32"/>
     </row>
-    <row r="83" spans="1:23" ht="114" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>80</v>
       </c>
@@ -11690,7 +11857,7 @@
         <v>43477</v>
       </c>
       <c r="D83" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E83" s="32" t="s">
         <v>39</v>
@@ -11699,7 +11866,7 @@
         <v>33</v>
       </c>
       <c r="G83" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H83" s="14" t="s">
         <v>38</v>
@@ -11710,13 +11877,13 @@
       <c r="J83" s="32"/>
       <c r="K83" s="32"/>
       <c r="L83" s="32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M83" s="32" t="s">
         <v>74</v>
       </c>
       <c r="N83" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O83" s="21">
         <v>43477</v>
@@ -11728,30 +11895,30 @@
         <v>0</v>
       </c>
       <c r="R83" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S83" s="61" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="T83" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U83" s="32" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23" ht="270.75" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" ht="270.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>81</v>
       </c>
       <c r="B84" s="84" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C84" s="6">
         <v>43465</v>
       </c>
       <c r="D84" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E84" s="32" t="s">
         <v>15</v>
@@ -11760,7 +11927,7 @@
         <v>26</v>
       </c>
       <c r="G84" s="32" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H84" s="14" t="s">
         <v>38</v>
@@ -11770,7 +11937,7 @@
       </c>
       <c r="J84" s="32"/>
       <c r="K84" s="32" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L84" s="32">
         <v>1</v>
@@ -11779,7 +11946,7 @@
         <v>74</v>
       </c>
       <c r="N84" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O84" s="21">
         <v>43465</v>
@@ -11792,26 +11959,28 @@
         <v>15</v>
       </c>
       <c r="R84" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S84" s="5"/>
       <c r="T84" s="5"/>
       <c r="U84" s="32" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="V84" s="74"/>
       <c r="W84" s="32"/>
     </row>
-    <row r="85" spans="1:23" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>82</v>
       </c>
-      <c r="B85" s="31"/>
+      <c r="B85" s="83" t="s">
+        <v>295</v>
+      </c>
       <c r="C85" s="6">
         <v>43477</v>
       </c>
       <c r="D85" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E85" s="32" t="s">
         <v>15</v>
@@ -11820,7 +11989,7 @@
         <v>26</v>
       </c>
       <c r="G85" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H85" s="14" t="s">
         <v>38</v>
@@ -11829,10 +11998,10 @@
         <v>85</v>
       </c>
       <c r="J85" s="32" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K85" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L85" s="32">
         <v>1</v>
@@ -11841,7 +12010,7 @@
         <v>74</v>
       </c>
       <c r="N85" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O85" s="21">
         <v>43477</v>
@@ -11854,26 +12023,26 @@
         <v>30</v>
       </c>
       <c r="R85" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S85" s="33"/>
       <c r="T85" s="5"/>
       <c r="U85" s="32" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23" ht="71.25" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>83</v>
       </c>
       <c r="B86" s="83" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C86" s="6">
         <v>43477</v>
       </c>
       <c r="D86" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E86" s="32" t="s">
         <v>15</v>
@@ -11882,7 +12051,7 @@
         <v>26</v>
       </c>
       <c r="G86" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H86" s="14" t="s">
         <v>38</v>
@@ -11891,10 +12060,10 @@
         <v>85</v>
       </c>
       <c r="J86" s="32" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K86" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L86" s="32">
         <v>1</v>
@@ -11903,7 +12072,7 @@
         <v>74</v>
       </c>
       <c r="N86" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O86" s="21">
         <v>43477</v>
@@ -11916,33 +12085,33 @@
         <v>9</v>
       </c>
       <c r="R86" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S86" s="33"/>
       <c r="T86" s="5"/>
       <c r="U86" s="32"/>
     </row>
-    <row r="87" spans="1:23" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>84</v>
       </c>
       <c r="B87" s="31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C87" s="6">
         <v>43477</v>
       </c>
       <c r="D87" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E87" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F87" s="32" t="s">
         <v>26</v>
       </c>
       <c r="G87" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H87" s="14" t="s">
         <v>38</v>
@@ -11951,7 +12120,7 @@
         <v>85</v>
       </c>
       <c r="J87" s="32" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K87" s="32"/>
       <c r="L87" s="32">
@@ -11961,7 +12130,7 @@
         <v>74</v>
       </c>
       <c r="N87" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O87" s="21">
         <v>43477</v>
@@ -11973,12 +12142,12 @@
         <v>0</v>
       </c>
       <c r="R87" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S87" s="33"/>
       <c r="T87" s="5"/>
       <c r="U87" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="88" spans="1:23" ht="128.25" x14ac:dyDescent="0.25">
@@ -11986,13 +12155,13 @@
         <v>85</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C88" s="6">
         <v>43477</v>
       </c>
       <c r="D88" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E88" s="32" t="s">
         <v>32</v>
@@ -12001,7 +12170,7 @@
         <v>26</v>
       </c>
       <c r="G88" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H88" s="14" t="s">
         <v>38</v>
@@ -12010,7 +12179,7 @@
         <v>85</v>
       </c>
       <c r="J88" s="32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K88" s="32"/>
       <c r="L88" s="32">
@@ -12020,7 +12189,7 @@
         <v>74</v>
       </c>
       <c r="N88" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O88" s="21">
         <v>43477</v>
@@ -12030,16 +12199,16 @@
         <v>50</v>
       </c>
       <c r="R88" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S88" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="T88" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U88" s="32" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="89" spans="1:23" ht="185.25" x14ac:dyDescent="0.25">
@@ -12047,13 +12216,13 @@
         <v>86</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C89" s="6">
         <v>43477</v>
       </c>
       <c r="D89" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E89" s="32" t="s">
         <v>32</v>
@@ -12062,7 +12231,7 @@
         <v>26</v>
       </c>
       <c r="G89" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H89" s="14" t="s">
         <v>38</v>
@@ -12071,7 +12240,7 @@
         <v>85</v>
       </c>
       <c r="J89" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K89" s="32"/>
       <c r="L89" s="32">
@@ -12081,7 +12250,7 @@
         <v>74</v>
       </c>
       <c r="N89" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O89" s="21">
         <v>43477</v>
@@ -12091,13 +12260,13 @@
       <c r="R89" s="5"/>
       <c r="S89" s="33"/>
       <c r="T89" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U89" s="32" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23" ht="85.5" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>87</v>
       </c>
@@ -12106,16 +12275,16 @@
         <v>43477</v>
       </c>
       <c r="D90" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E90" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F90" s="32" t="s">
         <v>26</v>
       </c>
       <c r="G90" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H90" s="14" t="s">
         <v>38</v>
@@ -12124,7 +12293,7 @@
         <v>85</v>
       </c>
       <c r="J90" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K90" s="32"/>
       <c r="L90" s="32">
@@ -12134,7 +12303,7 @@
         <v>74</v>
       </c>
       <c r="N90" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O90" s="21">
         <v>43477</v>
@@ -12146,7 +12315,7 @@
       <c r="T90" s="5"/>
       <c r="U90" s="32"/>
     </row>
-    <row r="91" spans="1:23" ht="57" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>88</v>
       </c>
@@ -12155,16 +12324,16 @@
         <v>43477</v>
       </c>
       <c r="D91" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E91" s="32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F91" s="32" t="s">
         <v>26</v>
       </c>
       <c r="G91" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H91" s="14" t="s">
         <v>38</v>
@@ -12181,7 +12350,7 @@
         <v>74</v>
       </c>
       <c r="N91" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O91" s="21">
         <v>43477</v>
@@ -12193,18 +12362,18 @@
       <c r="T91" s="5"/>
       <c r="U91" s="32"/>
     </row>
-    <row r="92" spans="1:23" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" ht="199.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>89</v>
       </c>
       <c r="B92" s="84" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C92" s="6">
         <v>43486</v>
       </c>
       <c r="D92" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E92" s="32" t="s">
         <v>15</v>
@@ -12213,7 +12382,7 @@
         <v>26</v>
       </c>
       <c r="G92" s="32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H92" s="14" t="s">
         <v>38</v>
@@ -12232,7 +12401,7 @@
         <v>74</v>
       </c>
       <c r="N92" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O92" s="21">
         <v>43486</v>
@@ -12245,24 +12414,26 @@
         <v>60</v>
       </c>
       <c r="R92" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S92" s="33"/>
       <c r="T92" s="5"/>
       <c r="U92" s="32" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23" ht="42.75" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>90</v>
       </c>
-      <c r="B93" s="83"/>
+      <c r="B93" s="83" t="s">
+        <v>484</v>
+      </c>
       <c r="C93" s="6">
         <v>43489</v>
       </c>
       <c r="D93" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E93" s="32" t="s">
         <v>15</v>
@@ -12271,17 +12442,17 @@
         <v>26</v>
       </c>
       <c r="G93" s="32" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H93" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I93" s="32" t="s">
         <v>85</v>
       </c>
       <c r="J93" s="32"/>
       <c r="K93" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L93" s="32">
         <v>1</v>
@@ -12303,18 +12474,18 @@
         <v>6</v>
       </c>
       <c r="R93" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S93" s="33"/>
       <c r="T93" s="5"/>
       <c r="U93" s="32"/>
     </row>
-    <row r="94" spans="1:23" ht="57" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>91</v>
       </c>
       <c r="B94" s="84" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C94" s="6">
         <v>43489</v>
@@ -12329,17 +12500,17 @@
         <v>26</v>
       </c>
       <c r="G94" s="32" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H94" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I94" s="32" t="s">
         <v>85</v>
       </c>
       <c r="J94" s="32"/>
       <c r="K94" s="32" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L94" s="85" t="s">
         <v>140</v>
@@ -12361,20 +12532,20 @@
         <v>45</v>
       </c>
       <c r="R94" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S94" s="33"/>
       <c r="T94" s="5"/>
       <c r="U94" s="32" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23" ht="71.25" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>92</v>
       </c>
       <c r="B95" s="84" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C95" s="6">
         <v>43489</v>
@@ -12389,17 +12560,17 @@
         <v>26</v>
       </c>
       <c r="G95" s="32" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H95" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I95" s="32" t="s">
         <v>85</v>
       </c>
       <c r="J95" s="32"/>
       <c r="K95" s="32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L95" s="85" t="s">
         <v>140</v>
@@ -12421,20 +12592,20 @@
         <v>9</v>
       </c>
       <c r="R95" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S95" s="33"/>
       <c r="T95" s="5"/>
       <c r="U95" s="32" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23" ht="71.25" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>93</v>
       </c>
       <c r="B96" s="84" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C96" s="6">
         <v>43489</v>
@@ -12449,17 +12620,17 @@
         <v>26</v>
       </c>
       <c r="G96" s="32" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H96" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I96" s="32" t="s">
         <v>85</v>
       </c>
       <c r="J96" s="32"/>
       <c r="K96" s="32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L96" s="85" t="s">
         <v>140</v>
@@ -12481,26 +12652,26 @@
         <v>15</v>
       </c>
       <c r="R96" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S96" s="33"/>
       <c r="T96" s="5"/>
       <c r="U96" s="32" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" ht="185.25" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" ht="171" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>94</v>
       </c>
       <c r="B97" s="83" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C97" s="6">
         <v>43473</v>
       </c>
       <c r="D97" s="32" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E97" s="32" t="s">
         <v>15</v>
@@ -12509,17 +12680,17 @@
         <v>26</v>
       </c>
       <c r="G97" s="32" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H97" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I97" s="32" t="s">
         <v>85</v>
       </c>
       <c r="J97" s="32"/>
       <c r="K97" s="32" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L97" s="85">
         <v>1</v>
@@ -12541,24 +12712,24 @@
         <v>18</v>
       </c>
       <c r="R97" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S97" s="33"/>
       <c r="T97" s="5"/>
       <c r="U97" s="32"/>
     </row>
-    <row r="98" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>95</v>
       </c>
       <c r="B98" s="31" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C98" s="6">
         <v>43473</v>
       </c>
       <c r="D98" s="32" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E98" s="32" t="s">
         <v>80</v>
@@ -12567,7 +12738,7 @@
         <v>26</v>
       </c>
       <c r="G98" s="32" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H98" s="14" t="s">
         <v>38</v>
@@ -12596,16 +12767,18 @@
       <c r="T98" s="5"/>
       <c r="U98" s="32"/>
     </row>
-    <row r="99" spans="1:21" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>96</v>
       </c>
-      <c r="B99" s="31"/>
+      <c r="B99" s="31" t="s">
+        <v>485</v>
+      </c>
       <c r="C99" s="6">
         <v>43489</v>
       </c>
       <c r="D99" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E99" s="32" t="s">
         <v>15</v>
@@ -12614,17 +12787,17 @@
         <v>26</v>
       </c>
       <c r="G99" s="32" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H99" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I99" s="32" t="s">
         <v>85</v>
       </c>
       <c r="J99" s="32"/>
       <c r="K99" s="32" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L99" s="85">
         <v>1</v>
@@ -12646,24 +12819,24 @@
         <v>15</v>
       </c>
       <c r="R99" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S99" s="33"/>
       <c r="T99" s="5"/>
       <c r="U99" s="32"/>
     </row>
-    <row r="100" spans="1:21" ht="114" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>97</v>
       </c>
       <c r="B100" s="31" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C100" s="6">
         <v>43489</v>
       </c>
       <c r="D100" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E100" s="32" t="s">
         <v>15</v>
@@ -12672,17 +12845,17 @@
         <v>26</v>
       </c>
       <c r="G100" s="32" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H100" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I100" s="32" t="s">
         <v>85</v>
       </c>
       <c r="J100" s="32"/>
       <c r="K100" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L100" s="85">
         <v>1</v>
@@ -12704,26 +12877,26 @@
         <v>9</v>
       </c>
       <c r="R100" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S100" s="33"/>
       <c r="T100" s="5"/>
       <c r="U100" s="32" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21" ht="342" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" ht="342" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>98</v>
       </c>
       <c r="B101" s="31" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C101" s="6">
         <v>43489</v>
       </c>
       <c r="D101" s="32" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E101" s="32" t="s">
         <v>15</v>
@@ -12732,17 +12905,17 @@
         <v>26</v>
       </c>
       <c r="G101" s="32" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H101" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I101" s="32" t="s">
         <v>85</v>
       </c>
       <c r="J101" s="32"/>
       <c r="K101" s="32" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L101" s="85">
         <v>1</v>
@@ -12764,26 +12937,26 @@
         <v>15</v>
       </c>
       <c r="R101" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S101" s="33"/>
       <c r="T101" s="5"/>
       <c r="U101" s="32" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>99</v>
       </c>
       <c r="B102" s="31" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C102" s="6">
         <v>43489</v>
       </c>
       <c r="D102" s="32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E102" s="32" t="s">
         <v>15</v>
@@ -12792,17 +12965,17 @@
         <v>26</v>
       </c>
       <c r="G102" s="32" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H102" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I102" s="32" t="s">
         <v>85</v>
       </c>
       <c r="J102" s="32"/>
       <c r="K102" s="32" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L102" s="85">
         <v>1</v>
@@ -12811,7 +12984,7 @@
         <v>74</v>
       </c>
       <c r="N102" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O102" s="21">
         <v>43489</v>
@@ -12824,24 +12997,24 @@
         <v>9</v>
       </c>
       <c r="R102" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S102" s="33"/>
       <c r="T102" s="5"/>
       <c r="U102" s="32"/>
     </row>
-    <row r="103" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>100</v>
       </c>
       <c r="B103" s="31" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C103" s="6">
         <v>43489</v>
       </c>
       <c r="D103" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E103" s="32" t="s">
         <v>15</v>
@@ -12850,17 +13023,17 @@
         <v>26</v>
       </c>
       <c r="G103" s="32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H103" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I103" s="32" t="s">
         <v>85</v>
       </c>
       <c r="J103" s="32"/>
       <c r="K103" s="32" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L103" s="85">
         <v>1</v>
@@ -12869,7 +13042,7 @@
         <v>74</v>
       </c>
       <c r="N103" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O103" s="21">
         <v>43489</v>
@@ -12882,26 +13055,26 @@
         <v>15</v>
       </c>
       <c r="R103" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S103" s="33"/>
       <c r="T103" s="5"/>
       <c r="U103" s="32" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>101</v>
       </c>
       <c r="B104" s="31" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C104" s="6">
         <v>43489</v>
       </c>
       <c r="D104" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E104" s="32" t="s">
         <v>15</v>
@@ -12910,17 +13083,17 @@
         <v>26</v>
       </c>
       <c r="G104" s="32" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H104" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I104" s="32" t="s">
         <v>85</v>
       </c>
       <c r="J104" s="32"/>
       <c r="K104" s="32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L104" s="85">
         <v>1</v>
@@ -12929,7 +13102,7 @@
         <v>74</v>
       </c>
       <c r="N104" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O104" s="21">
         <v>43489</v>
@@ -12942,12 +13115,12 @@
         <v>6</v>
       </c>
       <c r="R104" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S104" s="33"/>
       <c r="T104" s="5"/>
       <c r="U104" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="105" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
@@ -12955,13 +13128,13 @@
         <v>102</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C105" s="6">
         <v>43448</v>
       </c>
       <c r="D105" s="32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E105" s="32" t="s">
         <v>32</v>
@@ -12970,7 +13143,7 @@
         <v>26</v>
       </c>
       <c r="G105" s="76" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H105" s="14" t="s">
         <v>35</v>
@@ -12987,7 +13160,7 @@
         <v>74</v>
       </c>
       <c r="N105" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O105" s="6">
         <v>43448</v>
@@ -12999,13 +13172,13 @@
         <v>40</v>
       </c>
       <c r="R105" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S105" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="T105" s="32" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="U105" s="33"/>
     </row>
@@ -13014,13 +13187,13 @@
         <v>103</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C106" s="6">
         <v>43447</v>
       </c>
       <c r="D106" s="32" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E106" s="32" t="s">
         <v>32</v>
@@ -13029,7 +13202,7 @@
         <v>26</v>
       </c>
       <c r="G106" s="32" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H106" s="14" t="s">
         <v>35</v>
@@ -13046,7 +13219,7 @@
         <v>74</v>
       </c>
       <c r="N106" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O106" s="6">
         <v>43447</v>
@@ -13056,30 +13229,30 @@
         <v>30</v>
       </c>
       <c r="R106" s="33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S106" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="T106" s="32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U106" s="88" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>104</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C107" s="6">
         <v>43495</v>
       </c>
       <c r="D107" s="32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E107" s="32" t="s">
         <v>80</v>
@@ -13088,13 +13261,13 @@
         <v>26</v>
       </c>
       <c r="G107" s="32" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H107" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I107" s="32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J107" s="32"/>
       <c r="K107" s="32"/>
@@ -13117,18 +13290,18 @@
       <c r="T107" s="5"/>
       <c r="U107" s="32"/>
     </row>
-    <row r="108" spans="1:21" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>105</v>
       </c>
       <c r="B108" s="31" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C108" s="6">
         <v>43495</v>
       </c>
       <c r="D108" s="32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E108" s="32" t="s">
         <v>15</v>
@@ -13137,17 +13310,17 @@
         <v>26</v>
       </c>
       <c r="G108" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H108" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I108" s="32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J108" s="32"/>
       <c r="K108" s="32" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L108" s="32">
         <v>1</v>
@@ -13168,26 +13341,26 @@
         <v>6</v>
       </c>
       <c r="R108" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S108" s="33"/>
       <c r="T108" s="5"/>
       <c r="U108" s="85" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>111</v>
       </c>
       <c r="B109" s="32" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C109" s="6">
         <v>43108</v>
       </c>
       <c r="D109" s="32" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E109" s="32" t="s">
         <v>125</v>
@@ -13196,10 +13369,10 @@
         <v>26</v>
       </c>
       <c r="G109" s="32" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H109" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I109" s="32" t="s">
         <v>85</v>
@@ -13213,7 +13386,7 @@
         <v>74</v>
       </c>
       <c r="N109" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O109" s="21">
         <v>43473</v>
@@ -13223,26 +13396,26 @@
         <v>30</v>
       </c>
       <c r="R109" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S109" s="33"/>
       <c r="T109" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U109" s="32"/>
     </row>
-    <row r="110" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>112</v>
       </c>
       <c r="B110" s="31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C110" s="6">
         <v>43108</v>
       </c>
       <c r="D110" s="32" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E110" s="32" t="s">
         <v>39</v>
@@ -13251,10 +13424,10 @@
         <v>26</v>
       </c>
       <c r="G110" s="32" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H110" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I110" s="32" t="s">
         <v>85</v>
@@ -13268,7 +13441,7 @@
         <v>74</v>
       </c>
       <c r="N110" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O110" s="21">
         <v>43473</v>
@@ -13280,24 +13453,24 @@
         <v>15</v>
       </c>
       <c r="R110" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S110" s="33"/>
       <c r="T110" s="5"/>
       <c r="U110" s="32"/>
     </row>
-    <row r="111" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>113</v>
       </c>
       <c r="B111" s="32" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C111" s="6">
         <v>43436</v>
       </c>
       <c r="D111" s="32" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E111" s="32" t="s">
         <v>125</v>
@@ -13306,10 +13479,10 @@
         <v>26</v>
       </c>
       <c r="G111" s="32" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H111" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I111" s="32" t="s">
         <v>85</v>
@@ -13335,26 +13508,26 @@
         <v>3</v>
       </c>
       <c r="R111" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S111" s="33"/>
       <c r="T111" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="U111" s="32"/>
     </row>
-    <row r="112" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
         <v>114</v>
       </c>
       <c r="B112" s="32" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C112" s="6">
         <v>43436</v>
       </c>
       <c r="D112" s="32" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E112" s="32" t="s">
         <v>125</v>
@@ -13363,10 +13536,10 @@
         <v>26</v>
       </c>
       <c r="G112" s="32" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H112" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I112" s="32" t="s">
         <v>85</v>
@@ -13392,26 +13565,26 @@
         <v>3</v>
       </c>
       <c r="R112" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S112" s="33"/>
       <c r="T112" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="U112" s="32"/>
     </row>
-    <row r="113" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
         <v>115</v>
       </c>
       <c r="B113" s="32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C113" s="6">
         <v>43496</v>
       </c>
       <c r="D113" s="32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E113" s="32" t="s">
         <v>125</v>
@@ -13420,10 +13593,10 @@
         <v>26</v>
       </c>
       <c r="G113" s="32" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H113" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I113" s="32" t="s">
         <v>85</v>
@@ -13437,7 +13610,7 @@
         <v>74</v>
       </c>
       <c r="N113" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O113" s="21">
         <v>43496</v>
@@ -13449,26 +13622,26 @@
         <v>3</v>
       </c>
       <c r="R113" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S113" s="33"/>
       <c r="T113" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="U113" s="32"/>
     </row>
-    <row r="114" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <v>116</v>
       </c>
       <c r="B114" s="32" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C114" s="6">
         <v>43496</v>
       </c>
       <c r="D114" s="32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E114" s="32" t="s">
         <v>125</v>
@@ -13477,10 +13650,10 @@
         <v>26</v>
       </c>
       <c r="G114" s="32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H114" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I114" s="32" t="s">
         <v>85</v>
@@ -13494,7 +13667,7 @@
         <v>74</v>
       </c>
       <c r="N114" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O114" s="21">
         <v>43496</v>
@@ -13503,29 +13676,29 @@
         <v>4</v>
       </c>
       <c r="Q114" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R114" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S114" s="33"/>
       <c r="T114" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="U114" s="32"/>
     </row>
-    <row r="115" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
         <v>117</v>
       </c>
       <c r="B115" s="32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C115" s="6">
         <v>43496</v>
       </c>
       <c r="D115" s="32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E115" s="32" t="s">
         <v>125</v>
@@ -13534,10 +13707,10 @@
         <v>26</v>
       </c>
       <c r="G115" s="32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H115" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I115" s="32" t="s">
         <v>85</v>
@@ -13551,7 +13724,7 @@
         <v>74</v>
       </c>
       <c r="N115" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O115" s="21">
         <v>43496</v>
@@ -13561,26 +13734,26 @@
         <v>11</v>
       </c>
       <c r="R115" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S115" s="33"/>
       <c r="T115" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U115" s="32"/>
     </row>
-    <row r="116" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <v>118</v>
       </c>
       <c r="B116" s="32" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C116" s="6">
         <v>43496</v>
       </c>
       <c r="D116" s="32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E116" s="32" t="s">
         <v>125</v>
@@ -13589,7 +13762,7 @@
         <v>26</v>
       </c>
       <c r="G116" s="32" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I116" s="32"/>
       <c r="J116" s="32"/>
@@ -13600,33 +13773,33 @@
         <v>74</v>
       </c>
       <c r="N116" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O116" s="32"/>
       <c r="Q116" s="5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="R116" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S116" s="33"/>
       <c r="T116" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U116" s="32"/>
     </row>
-    <row r="117" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="39">
         <v>119</v>
       </c>
       <c r="B117" s="28" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C117" s="37">
         <v>43497</v>
       </c>
       <c r="D117" s="28" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E117" s="28" t="s">
         <v>125</v>
@@ -13635,10 +13808,10 @@
         <v>26</v>
       </c>
       <c r="G117" s="28" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I117" s="28" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J117" s="28"/>
       <c r="L117" s="28">
@@ -13648,31 +13821,33 @@
         <v>74</v>
       </c>
       <c r="N117" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O117" s="28"/>
       <c r="Q117" s="39">
         <v>5</v>
       </c>
       <c r="R117" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S117" s="89"/>
       <c r="T117" s="39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U117" s="28"/>
     </row>
-    <row r="118" spans="1:21" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" ht="180.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
         <v>120</v>
       </c>
-      <c r="B118" s="31"/>
+      <c r="B118" s="31" t="s">
+        <v>486</v>
+      </c>
       <c r="C118" s="6">
         <v>43517</v>
       </c>
       <c r="D118" s="32" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E118" s="32" t="s">
         <v>80</v>
@@ -13681,11 +13856,11 @@
         <v>26</v>
       </c>
       <c r="G118" s="32" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H118" s="14"/>
       <c r="I118" s="32" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J118" s="32"/>
       <c r="K118" s="32"/>
@@ -13708,18 +13883,18 @@
       <c r="T118" s="5"/>
       <c r="U118" s="32"/>
     </row>
-    <row r="119" spans="1:21" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" ht="180.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
         <v>121</v>
       </c>
       <c r="B119" s="31" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C119" s="6">
         <v>43517</v>
       </c>
       <c r="D119" s="32" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E119" s="32" t="s">
         <v>15</v>
@@ -13728,11 +13903,11 @@
         <v>26</v>
       </c>
       <c r="G119" s="32" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H119" s="14"/>
       <c r="I119" s="32" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J119" s="32"/>
       <c r="K119" s="32"/>
@@ -13755,13 +13930,13 @@
       <c r="T119" s="5"/>
       <c r="U119" s="32"/>
     </row>
-    <row r="120" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <f>1+A119</f>
         <v>122</v>
       </c>
       <c r="B120" s="31" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C120" s="6">
         <v>43517</v>
@@ -13774,11 +13949,11 @@
         <v>26</v>
       </c>
       <c r="G120" s="32" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H120" s="14"/>
       <c r="I120" s="32" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J120" s="32"/>
       <c r="K120" s="32"/>
@@ -13805,12 +13980,14 @@
       <c r="A121" s="5">
         <v>123</v>
       </c>
-      <c r="B121" s="31"/>
+      <c r="B121" s="31" t="s">
+        <v>488</v>
+      </c>
       <c r="C121" s="6">
         <v>43525</v>
       </c>
       <c r="D121" s="32" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E121" s="32" t="s">
         <v>32</v>
@@ -13819,7 +13996,7 @@
         <v>26</v>
       </c>
       <c r="G121" s="32" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H121" s="14"/>
       <c r="I121" s="32"/>
@@ -13832,7 +14009,7 @@
         <v>74</v>
       </c>
       <c r="N121" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O121" s="21">
         <v>43525</v>
@@ -13848,12 +14025,14 @@
       <c r="A122" s="5">
         <v>124</v>
       </c>
-      <c r="B122" s="31"/>
+      <c r="B122" s="31" t="s">
+        <v>489</v>
+      </c>
       <c r="C122" s="6">
         <v>43525</v>
       </c>
       <c r="D122" s="32" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E122" s="32" t="s">
         <v>32</v>
@@ -13862,7 +14041,7 @@
         <v>26</v>
       </c>
       <c r="G122" s="32" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H122" s="14"/>
       <c r="I122" s="32"/>
@@ -13875,7 +14054,7 @@
         <v>74</v>
       </c>
       <c r="N122" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O122" s="21">
         <v>43525</v>
@@ -13887,16 +14066,18 @@
       <c r="T122" s="5"/>
       <c r="U122" s="32"/>
     </row>
-    <row r="123" spans="1:21" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
         <v>125</v>
       </c>
-      <c r="B123" s="31"/>
+      <c r="B123" s="31" t="s">
+        <v>465</v>
+      </c>
       <c r="C123" s="6">
         <v>43528</v>
       </c>
       <c r="D123" s="32" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E123" s="32" t="s">
         <v>15</v>
@@ -13905,7 +14086,7 @@
         <v>26</v>
       </c>
       <c r="G123" s="32" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H123" s="14"/>
       <c r="I123" s="32"/>
@@ -13930,7 +14111,7 @@
       <c r="T123" s="5"/>
       <c r="U123" s="32"/>
     </row>
-    <row r="124" spans="1:21" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
         <v>126</v>
       </c>
@@ -13939,7 +14120,7 @@
         <v>43528</v>
       </c>
       <c r="D124" s="32" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E124" s="32" t="s">
         <v>39</v>
@@ -13948,7 +14129,7 @@
         <v>26</v>
       </c>
       <c r="G124" s="32" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H124" s="14"/>
       <c r="I124" s="32"/>
@@ -13973,13 +14154,113 @@
       <c r="T124" s="5"/>
       <c r="U124" s="32"/>
     </row>
+    <row r="125" spans="1:21" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="5">
+        <v>127</v>
+      </c>
+      <c r="B125" s="31" t="s">
+        <v>487</v>
+      </c>
+      <c r="C125" s="6">
+        <v>43529</v>
+      </c>
+      <c r="D125" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="E125" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F125" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G125" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="I125" s="32"/>
+      <c r="J125" s="32"/>
+      <c r="K125" s="32"/>
+      <c r="L125" s="32">
+        <v>1</v>
+      </c>
+      <c r="M125" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="N125" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="O125" s="21">
+        <v>43529</v>
+      </c>
+      <c r="Q125" s="5"/>
+      <c r="R125" s="5"/>
+      <c r="S125" s="33"/>
+      <c r="T125" s="5"/>
+      <c r="U125" s="32"/>
+    </row>
+    <row r="126" spans="1:21" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="5">
+        <v>128</v>
+      </c>
+      <c r="B126" s="90" t="s">
+        <v>468</v>
+      </c>
+      <c r="C126" s="6">
+        <v>43531</v>
+      </c>
+      <c r="D126" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="E126" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F126" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G126" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="I126" s="32"/>
+      <c r="J126" s="32"/>
+      <c r="K126" s="32"/>
+      <c r="L126" s="32">
+        <v>2</v>
+      </c>
+      <c r="M126" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="N126" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="O126" s="21">
+        <v>43531</v>
+      </c>
+      <c r="Q126" s="5"/>
+      <c r="R126" s="5"/>
+      <c r="S126" s="33"/>
+      <c r="T126" s="5"/>
+      <c r="U126" s="32"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:U120" xr:uid="{0DBFC021-F697-4DC4-A38D-9BBCFD373B08}"/>
+  <autoFilter ref="A2:U126" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="ID Authentication"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="New"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:U1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B126" r:id="rId1" display="https://mosipid.atlassian.net/browse/MOS-18100" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -14174,34 +14455,34 @@
   <sheetData>
     <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="66" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="67" t="s">
         <v>208</v>
-      </c>
-      <c r="C1" s="67" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="68"/>
       <c r="C2" s="69" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="70"/>
       <c r="C3" s="69" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="71"/>
       <c r="C4" s="69" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="72"/>
       <c r="C5" s="73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -14443,15 +14724,15 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
+++ b/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1012602\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\git-repo\mosip\docs\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{26626B09-0D32-4C66-9225-F99C54493136}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FE12AAAA-B6D9-4457-993F-45CA7CD6B580}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="7575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19155" windowHeight="6435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MOSIP_Feature_Roadmap" sheetId="5" r:id="rId1"/>
@@ -19,11 +19,11 @@
     <sheet name="Status Legends" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MOSIP_Feature_Roadmap!$A$2:$U$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MOSIP_Feature_Roadmap!$A$2:$U$120</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="465">
   <si>
     <t>S.No.</t>
   </si>
@@ -1672,6 +1672,9 @@
     </r>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>Sprint 6 Demo Feedback from Ramesh/Shrikant/Krishnan</t>
   </si>
   <si>
@@ -4733,147 +4736,11 @@
 </t>
   </si>
   <si>
+    <t>Via Registration Client software, Collection of Persons Demographic &amp; Biometric Data, performing a Dedupe and identify the Duplicate and proceed to issue of letter. 
+• At the back end - as first step use the demographic data as filter and then perform a biometric dedupe with the limited set of records, in case of unsuccessful match ignore the demographic data and perform a complete biometric dedupe to identify the duplicate.</t>
+  </si>
+  <si>
     <t>Discussion with Shrikant, Ramesh and Sasi - 04-Mar-19</t>
-  </si>
-  <si>
-    <t>E-mail from Shrikant dated 05-Mar-19</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Lost UIN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>:
-Via Registration Client software, Collection of Persons Demographic &amp; Biometric Data, performing a Dedupe and identify the Duplicate and proceed to issue of letter. 
-• At the back end - as first step use the demographic data as filter and then perform a biometric dedupe with the limited set of records, in case of unsuccessful match ignore the demographic data and perform a complete biometric dedupe to identify the duplicate.</t>
-    </r>
-  </si>
-  <si>
-    <t>MOS-17830</t>
-  </si>
-  <si>
-    <t>Sprint FIT-3 Demo feedback from Ramesh</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Auto-logout based on Configuration Parameter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>:
-a. Due to in-activity for x mins (as configured), the user should be auto-logged out. Prior to logout, the user should be alerted
-b. If no action is taken by user, the user will be logged out and data entered should not be auto-saved</t>
-    </r>
-  </si>
-  <si>
-    <t>MOS-18100</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Proof of Consent</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>:
-a. Ability to capture Proof of Consent</t>
-    </r>
-  </si>
-  <si>
-    <t>MOS-9712</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>MOS-14566</t>
-  </si>
-  <si>
-    <t>MOS-8641</t>
-  </si>
-  <si>
-    <t>MOS-12112</t>
-  </si>
-  <si>
-    <t>MOS-5482</t>
-  </si>
-  <si>
-    <t>MOS-18117</t>
-  </si>
-  <si>
-    <t>MOS 9090</t>
-  </si>
-  <si>
-    <t>MOS 1226</t>
-  </si>
-  <si>
-    <t>MOS 16545</t>
-  </si>
-  <si>
-    <t>MOS-13661</t>
-  </si>
-  <si>
-    <t>MOS-12961</t>
-  </si>
-  <si>
-    <t>MOS-12874</t>
-  </si>
-  <si>
-    <t>MOS 1204</t>
-  </si>
-  <si>
-    <t>MOS-8942</t>
-  </si>
-  <si>
-    <t>MOS-1316</t>
-  </si>
-  <si>
-    <t>MOS-14511</t>
-  </si>
-  <si>
-    <t>MOS-17869</t>
-  </si>
-  <si>
-    <t>MOS-18214</t>
-  </si>
-  <si>
-    <t>MOS-18215</t>
   </si>
 </sst>
 </file>
@@ -5212,7 +5079,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5467,9 +5334,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5532,7 +5396,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="MINDTREE" refreshedDate="43448.660082060182" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="64" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="MINDTREE" refreshedDate="43448.660082060182" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="64" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A2:U70" sheet="MOSIP_Feature_Roadmap"/>
   </cacheSource>
@@ -6693,7 +6557,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField dataField="1" showAll="0"/>
@@ -7042,12 +6906,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:W126"/>
+  <dimension ref="A1:W124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B121" sqref="B121:B122"/>
+      <pane ySplit="2" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A121" sqref="A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -7077,36 +6940,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
-        <v>209</v>
-      </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="95"/>
+      <c r="A1" s="90" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="94"/>
     </row>
     <row r="2" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>1</v>
@@ -7130,10 +6993,10 @@
         <v>7</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L2" s="20" t="s">
         <v>8</v>
@@ -7154,24 +7017,24 @@
         <v>12</v>
       </c>
       <c r="R2" s="20" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="S2" s="58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="T2" s="20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="U2" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" s="4" customFormat="1" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="84" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C3" s="6">
         <v>43362</v>
@@ -7186,7 +7049,7 @@
         <v>16</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>17</v>
@@ -7195,13 +7058,13 @@
         <v>18</v>
       </c>
       <c r="J3" s="32" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K3" s="32" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L3" s="85" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M3" s="32" t="s">
         <v>19</v>
@@ -7220,20 +7083,20 @@
         <v>54</v>
       </c>
       <c r="R3" s="30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S3" s="30"/>
       <c r="T3" s="30"/>
       <c r="U3" s="21" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" s="4" customFormat="1" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="4" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="84" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C4" s="6">
         <v>43362</v>
@@ -7248,19 +7111,19 @@
         <v>16</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="J4" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="J4" s="32" t="s">
-        <v>265</v>
-      </c>
       <c r="K4" s="32" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L4" s="32">
         <v>1</v>
@@ -7275,26 +7138,26 @@
         <v>43419</v>
       </c>
       <c r="P4" s="25" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q4" s="82" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="R4" s="30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="S4" s="30"/>
       <c r="T4" s="30"/>
       <c r="U4" s="21" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" s="4" customFormat="1" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="4" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C5" s="6">
         <v>43362</v>
@@ -7318,13 +7181,13 @@
         <v>22</v>
       </c>
       <c r="J5" s="32" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K5" s="32" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L5" s="85" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M5" s="32" t="s">
         <v>19</v>
@@ -7343,20 +7206,20 @@
         <v>18</v>
       </c>
       <c r="R5" s="30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S5" s="30"/>
       <c r="T5" s="30"/>
       <c r="U5" s="21" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" s="4" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="4" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C6" s="6">
         <v>43362</v>
@@ -7371,7 +7234,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H6" s="14" t="s">
         <v>17</v>
@@ -7380,13 +7243,13 @@
         <v>22</v>
       </c>
       <c r="J6" s="32" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K6" s="32" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L6" s="85" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M6" s="32" t="s">
         <v>19</v>
@@ -7405,20 +7268,20 @@
         <v>15</v>
       </c>
       <c r="R6" s="30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="S6" s="30"/>
       <c r="T6" s="30"/>
       <c r="U6" s="21" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" s="4" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="4" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>5</v>
       </c>
       <c r="B7" s="84" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C7" s="6">
         <v>43362</v>
@@ -7442,13 +7305,13 @@
         <v>22</v>
       </c>
       <c r="J7" s="32" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K7" s="32" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L7" s="85" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M7" s="32" t="s">
         <v>19</v>
@@ -7467,20 +7330,20 @@
         <v>52.5</v>
       </c>
       <c r="R7" s="30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S7" s="30"/>
       <c r="T7" s="30"/>
       <c r="U7" s="21" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" s="4" customFormat="1" ht="171" hidden="1" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="4" customFormat="1" ht="171" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
       <c r="B8" s="84" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C8" s="6">
         <v>43362</v>
@@ -7495,7 +7358,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H8" s="14" t="s">
         <v>17</v>
@@ -7504,13 +7367,13 @@
         <v>22</v>
       </c>
       <c r="J8" s="32" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K8" s="32" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L8" s="85" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M8" s="32" t="s">
         <v>19</v>
@@ -7529,20 +7392,20 @@
         <v>3</v>
       </c>
       <c r="R8" s="30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S8" s="30"/>
       <c r="T8" s="30"/>
       <c r="U8" s="21" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" s="4" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="4" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9" s="84" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C9" s="6">
         <v>43362</v>
@@ -7567,10 +7430,10 @@
       </c>
       <c r="J9" s="19"/>
       <c r="K9" s="32" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L9" s="85" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M9" s="32" t="s">
         <v>19</v>
@@ -7589,20 +7452,20 @@
         <v>45</v>
       </c>
       <c r="R9" s="30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S9" s="30"/>
       <c r="T9" s="30"/>
       <c r="U9" s="22" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" s="4" customFormat="1" ht="114" hidden="1" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="4" customFormat="1" ht="114" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
       <c r="B10" s="84" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C10" s="6">
         <v>43362</v>
@@ -7617,7 +7480,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>17</v>
@@ -7627,7 +7490,7 @@
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="19" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L10" s="19">
         <v>1</v>
@@ -7649,15 +7512,15 @@
         <v>1.5</v>
       </c>
       <c r="R10" s="30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S10" s="30"/>
       <c r="T10" s="30"/>
       <c r="U10" s="22" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" s="1" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -7705,13 +7568,13 @@
         <v>0</v>
       </c>
       <c r="R11" s="30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="S11" s="30"/>
       <c r="T11" s="30"/>
       <c r="U11" s="21"/>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1" ht="142.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" s="1" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -7729,7 +7592,7 @@
         <v>26</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>17</v>
@@ -7739,7 +7602,7 @@
       </c>
       <c r="J12" s="32"/>
       <c r="K12" s="32" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L12" s="32">
         <v>1</v>
@@ -7760,20 +7623,20 @@
         <v>141</v>
       </c>
       <c r="R12" s="30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S12" s="30"/>
       <c r="T12" s="30"/>
       <c r="U12" s="21" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" s="1" customFormat="1" ht="285" hidden="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" s="1" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C13" s="6">
         <v>43395</v>
@@ -7811,7 +7674,7 @@
         <v>43419</v>
       </c>
       <c r="P13" s="77" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q13" s="79"/>
       <c r="R13" s="30"/>
@@ -7819,12 +7682,12 @@
       <c r="T13" s="30"/>
       <c r="U13" s="21"/>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1" ht="114" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>12</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C14" s="6">
         <v>43397</v>
@@ -7839,7 +7702,7 @@
         <v>26</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H14" s="14" t="s">
         <v>38</v>
@@ -7849,7 +7712,7 @@
       </c>
       <c r="J14" s="19"/>
       <c r="K14" s="19" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L14" s="32">
         <v>1</v>
@@ -7871,20 +7734,20 @@
         <v>30</v>
       </c>
       <c r="R14" s="30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S14" s="30"/>
       <c r="T14" s="30"/>
       <c r="U14" s="21" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" s="1" customFormat="1" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" s="1" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C15" s="6">
         <v>43397</v>
@@ -7899,7 +7762,7 @@
         <v>26</v>
       </c>
       <c r="G15" s="51" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>38</v>
@@ -7929,24 +7792,24 @@
         <v>36</v>
       </c>
       <c r="R15" s="30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S15" s="60" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="T15" s="30" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="U15" s="21" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" s="1" customFormat="1" ht="199.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" s="1" customFormat="1" ht="199.5" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C16" s="6">
         <v>43397</v>
@@ -7961,7 +7824,7 @@
         <v>26</v>
       </c>
       <c r="G16" s="51" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H16" s="14" t="s">
         <v>38</v>
@@ -7991,24 +7854,24 @@
         <v>54</v>
       </c>
       <c r="R16" s="30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S16" s="60" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="T16" s="30" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="U16" s="21" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" s="4" customFormat="1" ht="213.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" s="4" customFormat="1" ht="213.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C17" s="6">
         <v>43397</v>
@@ -8053,19 +7916,19 @@
         <v>72</v>
       </c>
       <c r="R17" s="30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S17" s="60" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="T17" s="30" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U17" s="21" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" s="1" customFormat="1" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" s="1" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -8113,24 +7976,24 @@
         <v>0</v>
       </c>
       <c r="R18" s="30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="S18" s="61" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T18" s="30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="U18" s="21" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" s="4" customFormat="1" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" s="4" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C19" s="6">
         <v>43397</v>
@@ -8175,19 +8038,19 @@
         <v>15</v>
       </c>
       <c r="R19" s="30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S19" s="62" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="T19" s="54" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="U19" s="55" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" s="1" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -8235,7 +8098,7 @@
       <c r="T20" s="30"/>
       <c r="U20" s="21"/>
     </row>
-    <row r="21" spans="1:21" s="4" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -8283,12 +8146,12 @@
       <c r="T21" s="30"/>
       <c r="U21" s="21"/>
     </row>
-    <row r="22" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="83" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C22" s="6">
         <v>43402</v>
@@ -8313,7 +8176,7 @@
       </c>
       <c r="J22" s="32"/>
       <c r="K22" s="19" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L22" s="32">
         <v>1</v>
@@ -8335,21 +8198,19 @@
         <v>15</v>
       </c>
       <c r="R22" s="30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S22" s="30"/>
       <c r="T22" s="30"/>
       <c r="U22" s="21" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="31" t="s">
-        <v>472</v>
-      </c>
+      <c r="B23" s="31"/>
       <c r="C23" s="6">
         <v>43402</v>
       </c>
@@ -8363,7 +8224,7 @@
         <v>26</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H23" s="14" t="s">
         <v>38</v>
@@ -8373,7 +8234,7 @@
       </c>
       <c r="J23" s="32"/>
       <c r="K23" s="32" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L23" s="32" t="s">
         <v>140</v>
@@ -8388,27 +8249,27 @@
         <v>43419</v>
       </c>
       <c r="P23" s="25" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q23" s="82">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="R23" s="30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S23" s="30"/>
       <c r="T23" s="30"/>
       <c r="U23" s="21" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="114" hidden="1" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="114" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C24" s="6">
         <v>43402</v>
@@ -8453,19 +8314,19 @@
         <v>30</v>
       </c>
       <c r="R24" s="30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S24" s="62" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="T24" s="30" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="U24" s="21" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -8515,7 +8376,7 @@
       <c r="T25" s="30"/>
       <c r="U25" s="21"/>
     </row>
-    <row r="26" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -8565,13 +8426,11 @@
       <c r="T26" s="30"/>
       <c r="U26" s="21"/>
     </row>
-    <row r="27" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="83" t="s">
-        <v>473</v>
-      </c>
+      <c r="B27" s="83"/>
       <c r="C27" s="6">
         <v>43402</v>
       </c>
@@ -8595,7 +8454,7 @@
       </c>
       <c r="J27" s="32"/>
       <c r="K27" s="19" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L27" s="32">
         <v>1</v>
@@ -8617,7 +8476,7 @@
         <v>15</v>
       </c>
       <c r="R27" s="30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S27" s="30"/>
       <c r="T27" s="30"/>
@@ -8625,13 +8484,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="83" t="s">
-        <v>474</v>
-      </c>
+      <c r="B28" s="83"/>
       <c r="C28" s="6">
         <v>43418</v>
       </c>
@@ -8654,10 +8511,10 @@
         <v>54</v>
       </c>
       <c r="J28" s="32" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L28" s="14">
         <v>1</v>
@@ -8679,15 +8536,15 @@
         <v>7.5</v>
       </c>
       <c r="R28" s="30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S28" s="30"/>
       <c r="T28" s="30"/>
       <c r="U28" s="21" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -8737,7 +8594,7 @@
       <c r="T29" s="30"/>
       <c r="U29" s="21"/>
     </row>
-    <row r="30" spans="1:21" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -8764,7 +8621,7 @@
         <v>54</v>
       </c>
       <c r="J30" s="32" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K30" s="32"/>
       <c r="L30" s="14">
@@ -8787,13 +8644,13 @@
         <v>45</v>
       </c>
       <c r="R30" s="30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S30" s="30"/>
       <c r="T30" s="30"/>
       <c r="U30" s="14"/>
     </row>
-    <row r="31" spans="1:21" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -8843,24 +8700,24 @@
         <v>30</v>
       </c>
       <c r="R31" s="41" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S31" s="63" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="T31" s="30" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="U31" s="14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="57" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C32" s="6">
         <v>43430</v>
@@ -8884,7 +8741,7 @@
         <v>81</v>
       </c>
       <c r="J32" s="32" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K32" s="32"/>
       <c r="L32" s="32">
@@ -8907,13 +8764,13 @@
         <v>9</v>
       </c>
       <c r="R32" s="41" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S32" s="30"/>
       <c r="T32" s="30"/>
       <c r="U32" s="32"/>
     </row>
-    <row r="33" spans="1:21" s="8" customFormat="1" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" s="8" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -8931,7 +8788,7 @@
         <v>33</v>
       </c>
       <c r="G33" s="46" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H33" s="14" t="s">
         <v>38</v>
@@ -8940,7 +8797,7 @@
         <v>82</v>
       </c>
       <c r="J33" s="32" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K33" s="32"/>
       <c r="L33" s="32">
@@ -8963,7 +8820,7 @@
         <v>15</v>
       </c>
       <c r="R33" s="41" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S33" s="30"/>
       <c r="T33" s="30"/>
@@ -8971,12 +8828,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="8" customFormat="1" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" s="8" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>33</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C34" s="6">
         <v>43430</v>
@@ -9000,13 +8857,13 @@
         <v>85</v>
       </c>
       <c r="J34" s="32" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K34" s="32" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L34" s="85" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M34" s="32" t="s">
         <v>74</v>
@@ -9025,7 +8882,7 @@
         <v>22.5</v>
       </c>
       <c r="R34" s="41" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S34" s="30"/>
       <c r="T34" s="30"/>
@@ -9033,13 +8890,11 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="83" t="s">
-        <v>477</v>
-      </c>
+      <c r="B35" s="83"/>
       <c r="C35" s="6">
         <v>43430</v>
       </c>
@@ -9053,7 +8908,7 @@
         <v>26</v>
       </c>
       <c r="G35" s="48" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H35" s="14" t="s">
         <v>38</v>
@@ -9063,7 +8918,7 @@
       </c>
       <c r="J35" s="32"/>
       <c r="K35" s="19" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L35" s="32">
         <v>1</v>
@@ -9084,7 +8939,7 @@
         <v>141</v>
       </c>
       <c r="R35" s="41" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S35" s="30"/>
       <c r="T35" s="30"/>
@@ -9095,7 +8950,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C36" s="6">
         <v>43430</v>
@@ -9119,7 +8974,7 @@
         <v>90</v>
       </c>
       <c r="J36" s="28" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K36" s="28"/>
       <c r="L36" s="15">
@@ -9142,13 +8997,13 @@
         <v>0</v>
       </c>
       <c r="R36" s="41" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="S36" s="30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="T36" s="30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="U36" s="32" t="s">
         <v>91</v>
@@ -9159,7 +9014,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C37" s="6">
         <v>43430</v>
@@ -9183,7 +9038,7 @@
         <v>93</v>
       </c>
       <c r="J37" s="28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K37" s="28"/>
       <c r="L37" s="15">
@@ -9206,16 +9061,16 @@
         <v>15</v>
       </c>
       <c r="R37" s="41" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S37" s="30" t="s">
+        <v>407</v>
+      </c>
+      <c r="T37" s="30" t="s">
         <v>406</v>
       </c>
-      <c r="T37" s="30" t="s">
-        <v>405</v>
-      </c>
       <c r="U37" s="32" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="171" x14ac:dyDescent="0.25">
@@ -9223,7 +9078,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C38" s="6">
         <v>43430</v>
@@ -9247,7 +9102,7 @@
         <v>95</v>
       </c>
       <c r="J38" s="28" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K38" s="28"/>
       <c r="L38" s="32">
@@ -9270,16 +9125,16 @@
         <v>0</v>
       </c>
       <c r="R38" s="41" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="S38" s="30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="T38" s="30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="U38" s="32" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
@@ -9287,7 +9142,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C39" s="6">
         <v>43430</v>
@@ -9311,7 +9166,7 @@
         <v>95</v>
       </c>
       <c r="J39" s="28" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K39" s="28"/>
       <c r="L39" s="32">
@@ -9334,24 +9189,24 @@
         <v>0</v>
       </c>
       <c r="R39" s="41" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="S39" s="30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="T39" s="30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="U39" s="32" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C40" s="6">
         <v>43430</v>
@@ -9375,7 +9230,7 @@
         <v>99</v>
       </c>
       <c r="J40" s="32" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K40" s="32"/>
       <c r="L40" s="32">
@@ -9400,13 +9255,11 @@
       <c r="T40" s="30"/>
       <c r="U40" s="32"/>
     </row>
-    <row r="41" spans="1:21" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="31" t="s">
-        <v>475</v>
-      </c>
+      <c r="B41" s="31"/>
       <c r="C41" s="6">
         <v>43430</v>
       </c>
@@ -9420,7 +9273,7 @@
         <v>26</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H41" s="14" t="s">
         <v>38</v>
@@ -9430,10 +9283,10 @@
       </c>
       <c r="J41" s="32"/>
       <c r="K41" s="32" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L41" s="85" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M41" s="32" t="s">
         <v>74</v>
@@ -9452,13 +9305,13 @@
         <v>0</v>
       </c>
       <c r="R41" s="30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="S41" s="30"/>
       <c r="T41" s="30"/>
       <c r="U41" s="32"/>
     </row>
-    <row r="42" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -9487,7 +9340,7 @@
       <c r="J42" s="32"/>
       <c r="K42" s="32"/>
       <c r="L42" s="32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M42" s="32" t="s">
         <v>74</v>
@@ -9506,19 +9359,17 @@
         <v>0</v>
       </c>
       <c r="R42" s="30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="S42" s="30"/>
       <c r="T42" s="30"/>
       <c r="U42" s="32"/>
     </row>
-    <row r="43" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="57" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="87" t="s">
-        <v>476</v>
-      </c>
+      <c r="B43" s="87"/>
       <c r="C43" s="6">
         <v>43427</v>
       </c>
@@ -9532,7 +9383,7 @@
         <v>26</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H43" s="14" t="s">
         <v>38</v>
@@ -9542,7 +9393,7 @@
       </c>
       <c r="J43" s="32"/>
       <c r="K43" s="32" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L43" s="32">
         <v>2</v>
@@ -9564,18 +9415,18 @@
         <v>0</v>
       </c>
       <c r="R43" s="30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="S43" s="30"/>
       <c r="T43" s="30"/>
       <c r="U43" s="32"/>
     </row>
-    <row r="44" spans="1:21" ht="299.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C44" s="6">
         <v>43427</v>
@@ -9620,22 +9471,22 @@
         <v>90</v>
       </c>
       <c r="R44" s="41" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S44" s="59" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="T44" s="30"/>
       <c r="U44" s="32" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C45" s="6">
         <v>43427</v>
@@ -9680,20 +9531,20 @@
         <v>90</v>
       </c>
       <c r="R45" s="30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S45" s="30"/>
       <c r="T45" s="30"/>
       <c r="U45" s="32" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C46" s="6">
         <v>43427</v>
@@ -9738,24 +9589,24 @@
         <v>27</v>
       </c>
       <c r="R46" s="30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S46" s="63" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="T46" s="30" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="U46" s="32" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C47" s="6">
         <v>43427</v>
@@ -9770,7 +9621,7 @@
         <v>26</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H47" s="14" t="s">
         <v>38</v>
@@ -9800,19 +9651,19 @@
         <v>30</v>
       </c>
       <c r="R47" s="41" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S47" s="75" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="T47" s="30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="U47" s="32" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -9830,13 +9681,13 @@
         <v>26</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H48" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I48" s="32" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J48" s="32"/>
       <c r="K48" s="32"/>
@@ -9847,7 +9698,7 @@
         <v>74</v>
       </c>
       <c r="N48" s="32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O48" s="21">
         <v>43452</v>
@@ -9862,12 +9713,12 @@
       <c r="T48" s="30"/>
       <c r="U48" s="32"/>
     </row>
-    <row r="49" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C49" s="6">
         <v>43427</v>
@@ -9912,16 +9763,16 @@
         <v>7.5</v>
       </c>
       <c r="R49" s="57" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S49" s="64" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="T49" s="54" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="U49" s="19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
@@ -9929,7 +9780,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C50" s="6">
         <v>43427</v>
@@ -9953,7 +9804,7 @@
         <v>110</v>
       </c>
       <c r="J50" s="28" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K50" s="28"/>
       <c r="L50" s="32">
@@ -9975,19 +9826,19 @@
         <v>141</v>
       </c>
       <c r="R50" s="30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="S50" s="30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="T50" s="30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="U50" s="32" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" ht="57" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -10035,13 +9886,13 @@
         <v>0</v>
       </c>
       <c r="R51" s="30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="S51" s="30"/>
       <c r="T51" s="30"/>
       <c r="U51" s="32"/>
     </row>
-    <row r="52" spans="1:21" ht="199.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" ht="199.5" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -10091,12 +9942,12 @@
       <c r="T52" s="30"/>
       <c r="U52" s="32"/>
     </row>
-    <row r="53" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" ht="57" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>52</v>
       </c>
       <c r="B53" s="83" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C53" s="6">
         <v>43427</v>
@@ -10121,7 +9972,7 @@
       </c>
       <c r="J53" s="32"/>
       <c r="K53" s="19" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L53" s="32">
         <v>1</v>
@@ -10143,7 +9994,7 @@
         <v>18</v>
       </c>
       <c r="R53" s="30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S53" s="30"/>
       <c r="T53" s="30"/>
@@ -10151,7 +10002,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -10201,7 +10052,7 @@
       <c r="T54" s="30"/>
       <c r="U54" s="32"/>
     </row>
-    <row r="55" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" ht="57" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -10249,19 +10100,17 @@
         <v>0</v>
       </c>
       <c r="R55" s="30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="S55" s="30"/>
       <c r="T55" s="30"/>
       <c r="U55" s="32"/>
     </row>
-    <row r="56" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>55</v>
       </c>
-      <c r="B56" s="83" t="s">
-        <v>478</v>
-      </c>
+      <c r="B56" s="83"/>
       <c r="C56" s="6">
         <v>43427</v>
       </c>
@@ -10275,7 +10124,7 @@
         <v>26</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H56" s="14" t="s">
         <v>38</v>
@@ -10285,7 +10134,7 @@
       </c>
       <c r="J56" s="32"/>
       <c r="K56" s="19" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L56" s="32">
         <v>1</v>
@@ -10306,21 +10155,19 @@
         <v>141</v>
       </c>
       <c r="R56" s="30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S56" s="30"/>
       <c r="T56" s="30"/>
       <c r="U56" s="32" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>55</v>
       </c>
-      <c r="B57" s="83" t="s">
-        <v>479</v>
-      </c>
+      <c r="B57" s="83"/>
       <c r="C57" s="6">
         <v>43427</v>
       </c>
@@ -10334,7 +10181,7 @@
         <v>26</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H57" s="14" t="s">
         <v>38</v>
@@ -10344,7 +10191,7 @@
       </c>
       <c r="J57" s="32"/>
       <c r="K57" s="19" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L57" s="32" t="s">
         <v>140</v>
@@ -10365,7 +10212,7 @@
         <v>48</v>
       </c>
       <c r="R57" s="30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S57" s="30"/>
       <c r="T57" s="30"/>
@@ -10373,13 +10220,11 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" ht="57" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>56</v>
       </c>
-      <c r="B58" s="84" t="s">
-        <v>480</v>
-      </c>
+      <c r="B58" s="84"/>
       <c r="C58" s="6">
         <v>43427</v>
       </c>
@@ -10403,10 +10248,10 @@
       </c>
       <c r="J58" s="32"/>
       <c r="K58" s="32" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L58" s="85" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M58" s="32" t="s">
         <v>74</v>
@@ -10425,15 +10270,15 @@
         <v>60</v>
       </c>
       <c r="R58" s="30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S58" s="30"/>
       <c r="T58" s="30"/>
       <c r="U58" s="32" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" ht="57" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>57</v>
       </c>
@@ -10481,13 +10326,13 @@
         <v>0</v>
       </c>
       <c r="R59" s="30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="S59" s="30"/>
       <c r="T59" s="30"/>
       <c r="U59" s="32"/>
     </row>
-    <row r="60" spans="1:21" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>58</v>
       </c>
@@ -10535,19 +10380,17 @@
         <v>0</v>
       </c>
       <c r="R60" s="30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="S60" s="30"/>
       <c r="T60" s="30"/>
       <c r="U60" s="32"/>
     </row>
-    <row r="61" spans="1:21" ht="114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" ht="114" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>59</v>
       </c>
-      <c r="B61" s="14" t="s">
-        <v>470</v>
-      </c>
+      <c r="B61" s="5"/>
       <c r="C61" s="6">
         <v>43432</v>
       </c>
@@ -10570,7 +10413,7 @@
         <v>85</v>
       </c>
       <c r="J61" s="32" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K61" s="32"/>
       <c r="L61" s="32">
@@ -10589,10 +10432,10 @@
         <v>4</v>
       </c>
       <c r="Q61" s="81" t="s">
-        <v>471</v>
+        <v>151</v>
       </c>
       <c r="R61" s="30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S61" s="30"/>
       <c r="T61" s="30"/>
@@ -10603,7 +10446,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C62" s="6">
         <v>43432</v>
@@ -10627,7 +10470,7 @@
         <v>85</v>
       </c>
       <c r="J62" s="28" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K62" s="28"/>
       <c r="L62" s="32">
@@ -10649,24 +10492,24 @@
         <v>0</v>
       </c>
       <c r="R62" s="30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="S62" s="30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="T62" s="30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="U62" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" ht="57" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>61</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C63" s="6">
         <v>43432</v>
@@ -10710,25 +10553,23 @@
         <v>30</v>
       </c>
       <c r="R63" s="41" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S63" s="63" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="T63" s="30" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="U63" s="32" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>62</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>156</v>
-      </c>
+      <c r="B64" s="5"/>
       <c r="C64" s="6">
         <v>43432</v>
       </c>
@@ -10751,7 +10592,7 @@
         <v>132</v>
       </c>
       <c r="J64" s="32" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K64" s="32"/>
       <c r="L64" s="32">
@@ -10773,13 +10614,11 @@
       <c r="T64" s="33"/>
       <c r="U64" s="32"/>
     </row>
-    <row r="65" spans="1:23" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" ht="57" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>63</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>156</v>
-      </c>
+      <c r="B65" s="5"/>
       <c r="C65" s="6">
         <v>43432</v>
       </c>
@@ -10793,7 +10632,7 @@
         <v>33</v>
       </c>
       <c r="G65" s="19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H65" s="14" t="s">
         <v>38</v>
@@ -10802,11 +10641,11 @@
         <v>134</v>
       </c>
       <c r="J65" s="32" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K65" s="32"/>
       <c r="L65" s="32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M65" s="32" t="s">
         <v>74</v>
@@ -10829,7 +10668,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C66" s="6">
         <v>43440</v>
@@ -10844,7 +10683,7 @@
         <v>26</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H66" s="14" t="s">
         <v>38</v>
@@ -10853,7 +10692,7 @@
         <v>85</v>
       </c>
       <c r="J66" s="32" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K66" s="32"/>
       <c r="L66" s="32">
@@ -10863,7 +10702,7 @@
         <v>74</v>
       </c>
       <c r="N66" s="32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O66" s="21">
         <v>43452</v>
@@ -10875,24 +10714,24 @@
         <v>20</v>
       </c>
       <c r="R66" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S66" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="T66" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="U66" s="32" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" ht="114" hidden="1" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" ht="114" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>65</v>
       </c>
       <c r="B67" s="84" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C67" s="6">
         <v>43440</v>
@@ -10917,7 +10756,7 @@
       </c>
       <c r="J67" s="32"/>
       <c r="K67" s="32" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L67" s="32" t="s">
         <v>140</v>
@@ -10939,7 +10778,7 @@
         <v>45</v>
       </c>
       <c r="R67" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S67" s="5"/>
       <c r="T67" s="5"/>
@@ -10947,12 +10786,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" ht="114" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>66</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C68" s="6">
         <v>43440</v>
@@ -10976,7 +10815,7 @@
         <v>85</v>
       </c>
       <c r="J68" s="32" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K68" s="32"/>
       <c r="L68" s="32" t="s">
@@ -10998,21 +10837,19 @@
         <v>56</v>
       </c>
       <c r="R68" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S68" s="5"/>
       <c r="T68" s="5"/>
       <c r="U68" s="32" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" ht="285" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" ht="285" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>67</v>
       </c>
-      <c r="B69" s="83" t="s">
-        <v>481</v>
-      </c>
+      <c r="B69" s="83"/>
       <c r="C69" s="6">
         <v>43446</v>
       </c>
@@ -11036,7 +10873,7 @@
       </c>
       <c r="J69" s="32"/>
       <c r="K69" s="19" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L69" s="32">
         <v>1</v>
@@ -11058,21 +10895,19 @@
         <v>18</v>
       </c>
       <c r="R69" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S69" s="5"/>
       <c r="T69" s="5"/>
       <c r="U69" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23" ht="57" hidden="1" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" ht="57" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>68</v>
       </c>
-      <c r="B70" s="83" t="s">
-        <v>482</v>
-      </c>
+      <c r="B70" s="83"/>
       <c r="C70" s="6">
         <v>43446</v>
       </c>
@@ -11086,7 +10921,7 @@
         <v>26</v>
       </c>
       <c r="G70" s="19" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H70" s="14" t="s">
         <v>38</v>
@@ -11096,7 +10931,7 @@
       </c>
       <c r="J70" s="32"/>
       <c r="K70" s="19" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L70" s="32">
         <v>1</v>
@@ -11118,24 +10953,22 @@
         <v>6</v>
       </c>
       <c r="R70" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S70" s="5"/>
       <c r="T70" s="5"/>
       <c r="U70" s="32"/>
     </row>
-    <row r="71" spans="1:23" ht="142.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>69</v>
       </c>
-      <c r="B71" s="83" t="s">
-        <v>483</v>
-      </c>
+      <c r="B71" s="83"/>
       <c r="C71" s="6">
         <v>43451</v>
       </c>
       <c r="D71" s="32" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E71" s="32" t="s">
         <v>15</v>
@@ -11144,7 +10977,7 @@
         <v>26</v>
       </c>
       <c r="G71" s="19" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H71" s="14" t="s">
         <v>38</v>
@@ -11154,7 +10987,7 @@
       </c>
       <c r="J71" s="32"/>
       <c r="K71" s="19" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L71" s="32">
         <v>1</v>
@@ -11176,26 +11009,26 @@
         <v>15</v>
       </c>
       <c r="R71" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S71" s="5"/>
       <c r="T71" s="5"/>
       <c r="U71" s="32" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" ht="171" hidden="1" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" ht="171" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>70</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C72" s="6">
         <v>43451</v>
       </c>
       <c r="D72" s="32" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E72" s="32" t="s">
         <v>80</v>
@@ -11204,7 +11037,7 @@
         <v>26</v>
       </c>
       <c r="G72" s="19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H72" s="14" t="s">
         <v>38</v>
@@ -11213,7 +11046,7 @@
         <v>85</v>
       </c>
       <c r="J72" s="32" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K72" s="32"/>
       <c r="L72" s="32">
@@ -11235,28 +11068,28 @@
         <v>12</v>
       </c>
       <c r="R72" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S72" s="5"/>
       <c r="T72" s="5"/>
       <c r="U72" s="32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V72" s="5"/>
       <c r="W72" s="32"/>
     </row>
-    <row r="73" spans="1:23" ht="171" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" ht="171" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>71</v>
       </c>
       <c r="B73" s="83" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C73" s="6">
         <v>43451</v>
       </c>
       <c r="D73" s="32" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E73" s="32" t="s">
         <v>15</v>
@@ -11265,7 +11098,7 @@
         <v>26</v>
       </c>
       <c r="G73" s="19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H73" s="14" t="s">
         <v>38</v>
@@ -11275,7 +11108,7 @@
       </c>
       <c r="J73" s="32"/>
       <c r="K73" s="19" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L73" s="32">
         <v>1</v>
@@ -11297,7 +11130,7 @@
         <v>9</v>
       </c>
       <c r="R73" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S73" s="5"/>
       <c r="T73" s="5"/>
@@ -11305,7 +11138,7 @@
       <c r="V73" s="39"/>
       <c r="W73" s="28"/>
     </row>
-    <row r="74" spans="1:23" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>72</v>
       </c>
@@ -11314,7 +11147,7 @@
         <v>43454</v>
       </c>
       <c r="D74" s="32" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E74" s="28" t="s">
         <v>15</v>
@@ -11323,18 +11156,18 @@
         <v>33</v>
       </c>
       <c r="G74" s="32" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H74" s="15" t="s">
         <v>38</v>
       </c>
       <c r="I74" s="28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J74" s="28"/>
       <c r="K74" s="28"/>
       <c r="L74" s="28" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M74" s="28" t="s">
         <v>74</v>
@@ -11352,7 +11185,7 @@
         <v>0</v>
       </c>
       <c r="R74" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="S74" s="5"/>
       <c r="T74" s="5"/>
@@ -11360,18 +11193,18 @@
       <c r="V74" s="5"/>
       <c r="W74" s="32"/>
     </row>
-    <row r="75" spans="1:23" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" ht="57" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>73</v>
       </c>
       <c r="B75" s="39" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C75" s="37">
         <v>43454</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E75" s="32" t="s">
         <v>39</v>
@@ -11380,7 +11213,7 @@
         <v>26</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H75" s="15" t="s">
         <v>38</v>
@@ -11409,30 +11242,30 @@
         <v>30</v>
       </c>
       <c r="R75" s="39" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S75" s="62" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="T75" s="39" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="U75" s="65" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>74</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C76" s="6">
         <v>43454</v>
       </c>
       <c r="D76" s="32" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E76" s="32" t="s">
         <v>39</v>
@@ -11441,7 +11274,7 @@
         <v>26</v>
       </c>
       <c r="G76" s="32" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H76" s="14" t="s">
         <v>38</v>
@@ -11470,30 +11303,30 @@
         <v>15</v>
       </c>
       <c r="R76" s="39" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S76" s="75" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="T76" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="U76" s="65" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23" ht="213.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" ht="199.5" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>75</v>
       </c>
       <c r="B77" s="87" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C77" s="6">
         <v>43465</v>
       </c>
       <c r="D77" s="32" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E77" s="32" t="s">
         <v>15</v>
@@ -11502,7 +11335,7 @@
         <v>26</v>
       </c>
       <c r="G77" s="32" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H77" s="14" t="s">
         <v>38</v>
@@ -11512,16 +11345,16 @@
       </c>
       <c r="J77" s="32"/>
       <c r="K77" s="32" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L77" s="85" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M77" s="32" t="s">
         <v>74</v>
       </c>
       <c r="N77" s="32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O77" s="21">
         <v>43465</v>
@@ -11534,26 +11367,26 @@
         <v>18</v>
       </c>
       <c r="R77" s="39" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S77" s="5"/>
       <c r="T77" s="5"/>
       <c r="U77" s="31" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23" ht="185.25" hidden="1" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" ht="171" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>75</v>
       </c>
       <c r="B78" s="31" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C78" s="6">
         <v>43465</v>
       </c>
       <c r="D78" s="32" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E78" s="32" t="s">
         <v>15</v>
@@ -11562,7 +11395,7 @@
         <v>26</v>
       </c>
       <c r="G78" s="32" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H78" s="14" t="s">
         <v>38</v>
@@ -11572,16 +11405,16 @@
       </c>
       <c r="J78" s="32"/>
       <c r="K78" s="32" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L78" s="85" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M78" s="32" t="s">
         <v>74</v>
       </c>
       <c r="N78" s="32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O78" s="21">
         <v>43465</v>
@@ -11594,28 +11427,28 @@
         <v>6</v>
       </c>
       <c r="R78" s="39" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S78" s="5"/>
       <c r="T78" s="5"/>
       <c r="U78" s="31" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V78" s="5"/>
       <c r="W78" s="32"/>
     </row>
-    <row r="79" spans="1:23" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>76</v>
       </c>
       <c r="B79" s="84" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C79" s="6">
         <v>43465</v>
       </c>
       <c r="D79" s="32" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E79" s="32" t="s">
         <v>15</v>
@@ -11624,7 +11457,7 @@
         <v>26</v>
       </c>
       <c r="G79" s="32" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H79" s="14" t="s">
         <v>38</v>
@@ -11634,16 +11467,16 @@
       </c>
       <c r="J79" s="32"/>
       <c r="K79" s="32" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L79" s="85" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M79" s="32" t="s">
         <v>74</v>
       </c>
       <c r="N79" s="32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O79" s="21">
         <v>43465</v>
@@ -11656,7 +11489,7 @@
         <v>45</v>
       </c>
       <c r="R79" s="39" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S79" s="5"/>
       <c r="T79" s="5"/>
@@ -11664,18 +11497,18 @@
       <c r="V79" s="5"/>
       <c r="W79" s="32"/>
     </row>
-    <row r="80" spans="1:23" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>77</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C80" s="6">
         <v>43465</v>
       </c>
       <c r="D80" s="32" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E80" s="32" t="s">
         <v>15</v>
@@ -11684,7 +11517,7 @@
         <v>26</v>
       </c>
       <c r="G80" s="32" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H80" s="14" t="s">
         <v>38</v>
@@ -11694,16 +11527,16 @@
       </c>
       <c r="J80" s="32"/>
       <c r="K80" s="32" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L80" s="85" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M80" s="32" t="s">
         <v>74</v>
       </c>
       <c r="N80" s="32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O80" s="21">
         <v>43465</v>
@@ -11716,28 +11549,28 @@
         <v>30</v>
       </c>
       <c r="R80" s="39" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S80" s="5"/>
       <c r="T80" s="5"/>
       <c r="U80" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="V80" s="5"/>
       <c r="W80" s="32"/>
     </row>
-    <row r="81" spans="1:23" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>78</v>
       </c>
       <c r="B81" s="31" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C81" s="6">
         <v>43465</v>
       </c>
       <c r="D81" s="32" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E81" s="32" t="s">
         <v>15</v>
@@ -11746,7 +11579,7 @@
         <v>26</v>
       </c>
       <c r="G81" s="32" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H81" s="14" t="s">
         <v>38</v>
@@ -11756,29 +11589,29 @@
       </c>
       <c r="J81" s="32"/>
       <c r="K81" s="32" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L81" s="85" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M81" s="32" t="s">
         <v>74</v>
       </c>
       <c r="N81" s="32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O81" s="21">
         <v>43465</v>
       </c>
       <c r="P81" s="30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q81" s="82">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="R81" s="39" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S81" s="5"/>
       <c r="T81" s="5"/>
@@ -11786,18 +11619,18 @@
       <c r="V81" s="74"/>
       <c r="W81" s="32"/>
     </row>
-    <row r="82" spans="1:23" ht="171" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" ht="171" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>79</v>
       </c>
       <c r="B82" s="84" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C82" s="6">
         <v>43465</v>
       </c>
       <c r="D82" s="32" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E82" s="32" t="s">
         <v>15</v>
@@ -11806,7 +11639,7 @@
         <v>26</v>
       </c>
       <c r="G82" s="32" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H82" s="14" t="s">
         <v>38</v>
@@ -11816,7 +11649,7 @@
       </c>
       <c r="J82" s="32"/>
       <c r="K82" s="32" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L82" s="32">
         <v>1</v>
@@ -11825,7 +11658,7 @@
         <v>74</v>
       </c>
       <c r="N82" s="32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O82" s="21">
         <v>43465</v>
@@ -11838,17 +11671,17 @@
         <v>45</v>
       </c>
       <c r="R82" s="39" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S82" s="5"/>
       <c r="T82" s="5"/>
       <c r="U82" s="32" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="V82" s="74"/>
       <c r="W82" s="32"/>
     </row>
-    <row r="83" spans="1:23" ht="114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" ht="114" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>80</v>
       </c>
@@ -11857,7 +11690,7 @@
         <v>43477</v>
       </c>
       <c r="D83" s="32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E83" s="32" t="s">
         <v>39</v>
@@ -11866,7 +11699,7 @@
         <v>33</v>
       </c>
       <c r="G83" s="19" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H83" s="14" t="s">
         <v>38</v>
@@ -11877,13 +11710,13 @@
       <c r="J83" s="32"/>
       <c r="K83" s="32"/>
       <c r="L83" s="32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M83" s="32" t="s">
         <v>74</v>
       </c>
       <c r="N83" s="32" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O83" s="21">
         <v>43477</v>
@@ -11895,30 +11728,30 @@
         <v>0</v>
       </c>
       <c r="R83" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="S83" s="61" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="T83" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="U83" s="32" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23" ht="270.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" ht="270.75" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>81</v>
       </c>
       <c r="B84" s="84" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C84" s="6">
         <v>43465</v>
       </c>
       <c r="D84" s="32" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E84" s="32" t="s">
         <v>15</v>
@@ -11927,7 +11760,7 @@
         <v>26</v>
       </c>
       <c r="G84" s="32" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H84" s="14" t="s">
         <v>38</v>
@@ -11937,7 +11770,7 @@
       </c>
       <c r="J84" s="32"/>
       <c r="K84" s="32" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L84" s="32">
         <v>1</v>
@@ -11946,7 +11779,7 @@
         <v>74</v>
       </c>
       <c r="N84" s="32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O84" s="21">
         <v>43465</v>
@@ -11959,28 +11792,26 @@
         <v>15</v>
       </c>
       <c r="R84" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S84" s="5"/>
       <c r="T84" s="5"/>
       <c r="U84" s="32" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="V84" s="74"/>
       <c r="W84" s="32"/>
     </row>
-    <row r="85" spans="1:23" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>82</v>
       </c>
-      <c r="B85" s="83" t="s">
-        <v>295</v>
-      </c>
+      <c r="B85" s="31"/>
       <c r="C85" s="6">
         <v>43477</v>
       </c>
       <c r="D85" s="32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E85" s="32" t="s">
         <v>15</v>
@@ -11989,7 +11820,7 @@
         <v>26</v>
       </c>
       <c r="G85" s="19" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H85" s="14" t="s">
         <v>38</v>
@@ -11998,10 +11829,10 @@
         <v>85</v>
       </c>
       <c r="J85" s="32" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K85" s="19" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L85" s="32">
         <v>1</v>
@@ -12010,7 +11841,7 @@
         <v>74</v>
       </c>
       <c r="N85" s="32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O85" s="21">
         <v>43477</v>
@@ -12023,26 +11854,26 @@
         <v>30</v>
       </c>
       <c r="R85" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S85" s="33"/>
       <c r="T85" s="5"/>
       <c r="U85" s="32" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>83</v>
       </c>
       <c r="B86" s="83" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C86" s="6">
         <v>43477</v>
       </c>
       <c r="D86" s="32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E86" s="32" t="s">
         <v>15</v>
@@ -12051,7 +11882,7 @@
         <v>26</v>
       </c>
       <c r="G86" s="32" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H86" s="14" t="s">
         <v>38</v>
@@ -12060,10 +11891,10 @@
         <v>85</v>
       </c>
       <c r="J86" s="32" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K86" s="19" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L86" s="32">
         <v>1</v>
@@ -12072,7 +11903,7 @@
         <v>74</v>
       </c>
       <c r="N86" s="32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O86" s="21">
         <v>43477</v>
@@ -12085,33 +11916,33 @@
         <v>9</v>
       </c>
       <c r="R86" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S86" s="33"/>
       <c r="T86" s="5"/>
       <c r="U86" s="32"/>
     </row>
-    <row r="87" spans="1:23" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>84</v>
       </c>
       <c r="B87" s="31" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C87" s="6">
         <v>43477</v>
       </c>
       <c r="D87" s="32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E87" s="32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F87" s="32" t="s">
         <v>26</v>
       </c>
       <c r="G87" s="32" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H87" s="14" t="s">
         <v>38</v>
@@ -12120,7 +11951,7 @@
         <v>85</v>
       </c>
       <c r="J87" s="32" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K87" s="32"/>
       <c r="L87" s="32">
@@ -12130,7 +11961,7 @@
         <v>74</v>
       </c>
       <c r="N87" s="32" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O87" s="21">
         <v>43477</v>
@@ -12142,12 +11973,12 @@
         <v>0</v>
       </c>
       <c r="R87" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="S87" s="33"/>
       <c r="T87" s="5"/>
       <c r="U87" s="32" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="88" spans="1:23" ht="128.25" x14ac:dyDescent="0.25">
@@ -12155,13 +11986,13 @@
         <v>85</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C88" s="6">
         <v>43477</v>
       </c>
       <c r="D88" s="32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E88" s="32" t="s">
         <v>32</v>
@@ -12170,7 +12001,7 @@
         <v>26</v>
       </c>
       <c r="G88" s="32" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H88" s="14" t="s">
         <v>38</v>
@@ -12179,7 +12010,7 @@
         <v>85</v>
       </c>
       <c r="J88" s="32" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K88" s="32"/>
       <c r="L88" s="32">
@@ -12189,7 +12020,7 @@
         <v>74</v>
       </c>
       <c r="N88" s="32" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O88" s="21">
         <v>43477</v>
@@ -12199,16 +12030,16 @@
         <v>50</v>
       </c>
       <c r="R88" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S88" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="T88" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="U88" s="32" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="89" spans="1:23" ht="185.25" x14ac:dyDescent="0.25">
@@ -12216,13 +12047,13 @@
         <v>86</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C89" s="6">
         <v>43477</v>
       </c>
       <c r="D89" s="32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E89" s="32" t="s">
         <v>32</v>
@@ -12231,7 +12062,7 @@
         <v>26</v>
       </c>
       <c r="G89" s="32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H89" s="14" t="s">
         <v>38</v>
@@ -12240,7 +12071,7 @@
         <v>85</v>
       </c>
       <c r="J89" s="32" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K89" s="32"/>
       <c r="L89" s="32">
@@ -12250,7 +12081,7 @@
         <v>74</v>
       </c>
       <c r="N89" s="32" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O89" s="21">
         <v>43477</v>
@@ -12260,13 +12091,13 @@
       <c r="R89" s="5"/>
       <c r="S89" s="33"/>
       <c r="T89" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="U89" s="32" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>87</v>
       </c>
@@ -12275,16 +12106,16 @@
         <v>43477</v>
       </c>
       <c r="D90" s="32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E90" s="32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F90" s="32" t="s">
         <v>26</v>
       </c>
       <c r="G90" s="32" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H90" s="14" t="s">
         <v>38</v>
@@ -12293,7 +12124,7 @@
         <v>85</v>
       </c>
       <c r="J90" s="32" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K90" s="32"/>
       <c r="L90" s="32">
@@ -12303,7 +12134,7 @@
         <v>74</v>
       </c>
       <c r="N90" s="32" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O90" s="21">
         <v>43477</v>
@@ -12315,7 +12146,7 @@
       <c r="T90" s="5"/>
       <c r="U90" s="32"/>
     </row>
-    <row r="91" spans="1:23" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" ht="57" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>88</v>
       </c>
@@ -12324,16 +12155,16 @@
         <v>43477</v>
       </c>
       <c r="D91" s="32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E91" s="32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F91" s="32" t="s">
         <v>26</v>
       </c>
       <c r="G91" s="32" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H91" s="14" t="s">
         <v>38</v>
@@ -12350,7 +12181,7 @@
         <v>74</v>
       </c>
       <c r="N91" s="32" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O91" s="21">
         <v>43477</v>
@@ -12362,18 +12193,18 @@
       <c r="T91" s="5"/>
       <c r="U91" s="32"/>
     </row>
-    <row r="92" spans="1:23" ht="199.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" ht="199.5" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>89</v>
       </c>
       <c r="B92" s="84" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C92" s="6">
         <v>43486</v>
       </c>
       <c r="D92" s="32" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E92" s="32" t="s">
         <v>15</v>
@@ -12382,7 +12213,7 @@
         <v>26</v>
       </c>
       <c r="G92" s="32" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H92" s="14" t="s">
         <v>38</v>
@@ -12401,7 +12232,7 @@
         <v>74</v>
       </c>
       <c r="N92" s="32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O92" s="21">
         <v>43486</v>
@@ -12414,26 +12245,24 @@
         <v>60</v>
       </c>
       <c r="R92" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S92" s="33"/>
       <c r="T92" s="5"/>
       <c r="U92" s="32" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>90</v>
       </c>
-      <c r="B93" s="83" t="s">
-        <v>484</v>
-      </c>
+      <c r="B93" s="83"/>
       <c r="C93" s="6">
         <v>43489</v>
       </c>
       <c r="D93" s="32" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E93" s="32" t="s">
         <v>15</v>
@@ -12442,17 +12271,17 @@
         <v>26</v>
       </c>
       <c r="G93" s="32" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H93" s="14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I93" s="32" t="s">
         <v>85</v>
       </c>
       <c r="J93" s="32"/>
       <c r="K93" s="19" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L93" s="32">
         <v>1</v>
@@ -12474,18 +12303,18 @@
         <v>6</v>
       </c>
       <c r="R93" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S93" s="33"/>
       <c r="T93" s="5"/>
       <c r="U93" s="32"/>
     </row>
-    <row r="94" spans="1:23" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" ht="57" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>91</v>
       </c>
       <c r="B94" s="84" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C94" s="6">
         <v>43489</v>
@@ -12500,17 +12329,17 @@
         <v>26</v>
       </c>
       <c r="G94" s="32" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H94" s="14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I94" s="32" t="s">
         <v>85</v>
       </c>
       <c r="J94" s="32"/>
       <c r="K94" s="32" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L94" s="85" t="s">
         <v>140</v>
@@ -12532,20 +12361,20 @@
         <v>45</v>
       </c>
       <c r="R94" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S94" s="33"/>
       <c r="T94" s="5"/>
       <c r="U94" s="32" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>92</v>
       </c>
       <c r="B95" s="84" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C95" s="6">
         <v>43489</v>
@@ -12560,17 +12389,17 @@
         <v>26</v>
       </c>
       <c r="G95" s="32" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H95" s="14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I95" s="32" t="s">
         <v>85</v>
       </c>
       <c r="J95" s="32"/>
       <c r="K95" s="32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L95" s="85" t="s">
         <v>140</v>
@@ -12592,20 +12421,20 @@
         <v>9</v>
       </c>
       <c r="R95" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S95" s="33"/>
       <c r="T95" s="5"/>
       <c r="U95" s="32" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>93</v>
       </c>
       <c r="B96" s="84" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C96" s="6">
         <v>43489</v>
@@ -12620,17 +12449,17 @@
         <v>26</v>
       </c>
       <c r="G96" s="32" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H96" s="14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I96" s="32" t="s">
         <v>85</v>
       </c>
       <c r="J96" s="32"/>
       <c r="K96" s="32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L96" s="85" t="s">
         <v>140</v>
@@ -12652,26 +12481,26 @@
         <v>15</v>
       </c>
       <c r="R96" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S96" s="33"/>
       <c r="T96" s="5"/>
       <c r="U96" s="32" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" ht="171" hidden="1" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>94</v>
       </c>
       <c r="B97" s="83" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C97" s="6">
         <v>43473</v>
       </c>
       <c r="D97" s="32" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E97" s="32" t="s">
         <v>15</v>
@@ -12680,17 +12509,17 @@
         <v>26</v>
       </c>
       <c r="G97" s="32" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H97" s="14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I97" s="32" t="s">
         <v>85</v>
       </c>
       <c r="J97" s="32"/>
       <c r="K97" s="32" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L97" s="85">
         <v>1</v>
@@ -12712,24 +12541,24 @@
         <v>18</v>
       </c>
       <c r="R97" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S97" s="33"/>
       <c r="T97" s="5"/>
       <c r="U97" s="32"/>
     </row>
-    <row r="98" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>95</v>
       </c>
       <c r="B98" s="31" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C98" s="6">
         <v>43473</v>
       </c>
       <c r="D98" s="32" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E98" s="32" t="s">
         <v>80</v>
@@ -12738,7 +12567,7 @@
         <v>26</v>
       </c>
       <c r="G98" s="32" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H98" s="14" t="s">
         <v>38</v>
@@ -12767,18 +12596,16 @@
       <c r="T98" s="5"/>
       <c r="U98" s="32"/>
     </row>
-    <row r="99" spans="1:21" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>96</v>
       </c>
-      <c r="B99" s="31" t="s">
-        <v>485</v>
-      </c>
+      <c r="B99" s="31"/>
       <c r="C99" s="6">
         <v>43489</v>
       </c>
       <c r="D99" s="32" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E99" s="32" t="s">
         <v>15</v>
@@ -12787,17 +12614,17 @@
         <v>26</v>
       </c>
       <c r="G99" s="32" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H99" s="14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I99" s="32" t="s">
         <v>85</v>
       </c>
       <c r="J99" s="32"/>
       <c r="K99" s="32" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L99" s="85">
         <v>1</v>
@@ -12819,24 +12646,24 @@
         <v>15</v>
       </c>
       <c r="R99" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S99" s="33"/>
       <c r="T99" s="5"/>
       <c r="U99" s="32"/>
     </row>
-    <row r="100" spans="1:21" ht="114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" ht="114" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>97</v>
       </c>
       <c r="B100" s="31" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C100" s="6">
         <v>43489</v>
       </c>
       <c r="D100" s="32" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E100" s="32" t="s">
         <v>15</v>
@@ -12845,17 +12672,17 @@
         <v>26</v>
       </c>
       <c r="G100" s="32" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H100" s="14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I100" s="32" t="s">
         <v>85</v>
       </c>
       <c r="J100" s="32"/>
       <c r="K100" s="32" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L100" s="85">
         <v>1</v>
@@ -12877,26 +12704,26 @@
         <v>9</v>
       </c>
       <c r="R100" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S100" s="33"/>
       <c r="T100" s="5"/>
       <c r="U100" s="32" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21" ht="342" hidden="1" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" ht="342" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>98</v>
       </c>
       <c r="B101" s="31" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C101" s="6">
         <v>43489</v>
       </c>
       <c r="D101" s="32" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E101" s="32" t="s">
         <v>15</v>
@@ -12905,17 +12732,17 @@
         <v>26</v>
       </c>
       <c r="G101" s="32" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H101" s="14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I101" s="32" t="s">
         <v>85</v>
       </c>
       <c r="J101" s="32"/>
       <c r="K101" s="32" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L101" s="85">
         <v>1</v>
@@ -12937,26 +12764,26 @@
         <v>15</v>
       </c>
       <c r="R101" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S101" s="33"/>
       <c r="T101" s="5"/>
       <c r="U101" s="32" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" ht="57" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>99</v>
       </c>
       <c r="B102" s="31" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C102" s="6">
         <v>43489</v>
       </c>
       <c r="D102" s="32" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E102" s="32" t="s">
         <v>15</v>
@@ -12965,17 +12792,17 @@
         <v>26</v>
       </c>
       <c r="G102" s="32" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H102" s="14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I102" s="32" t="s">
         <v>85</v>
       </c>
       <c r="J102" s="32"/>
       <c r="K102" s="32" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L102" s="85">
         <v>1</v>
@@ -12984,7 +12811,7 @@
         <v>74</v>
       </c>
       <c r="N102" s="32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O102" s="21">
         <v>43489</v>
@@ -12997,24 +12824,24 @@
         <v>9</v>
       </c>
       <c r="R102" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S102" s="33"/>
       <c r="T102" s="5"/>
       <c r="U102" s="32"/>
     </row>
-    <row r="103" spans="1:21" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>100</v>
       </c>
       <c r="B103" s="31" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C103" s="6">
         <v>43489</v>
       </c>
       <c r="D103" s="32" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E103" s="32" t="s">
         <v>15</v>
@@ -13023,17 +12850,17 @@
         <v>26</v>
       </c>
       <c r="G103" s="32" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H103" s="14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I103" s="32" t="s">
         <v>85</v>
       </c>
       <c r="J103" s="32"/>
       <c r="K103" s="32" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L103" s="85">
         <v>1</v>
@@ -13042,7 +12869,7 @@
         <v>74</v>
       </c>
       <c r="N103" s="32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O103" s="21">
         <v>43489</v>
@@ -13055,26 +12882,26 @@
         <v>15</v>
       </c>
       <c r="R103" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S103" s="33"/>
       <c r="T103" s="5"/>
       <c r="U103" s="32" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>101</v>
       </c>
       <c r="B104" s="31" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C104" s="6">
         <v>43489</v>
       </c>
       <c r="D104" s="32" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E104" s="32" t="s">
         <v>15</v>
@@ -13083,17 +12910,17 @@
         <v>26</v>
       </c>
       <c r="G104" s="32" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H104" s="14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I104" s="32" t="s">
         <v>85</v>
       </c>
       <c r="J104" s="32"/>
       <c r="K104" s="32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L104" s="85">
         <v>1</v>
@@ -13102,7 +12929,7 @@
         <v>74</v>
       </c>
       <c r="N104" s="32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O104" s="21">
         <v>43489</v>
@@ -13115,12 +12942,12 @@
         <v>6</v>
       </c>
       <c r="R104" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S104" s="33"/>
       <c r="T104" s="5"/>
       <c r="U104" s="32" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="105" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
@@ -13128,13 +12955,13 @@
         <v>102</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C105" s="6">
         <v>43448</v>
       </c>
       <c r="D105" s="32" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E105" s="32" t="s">
         <v>32</v>
@@ -13143,7 +12970,7 @@
         <v>26</v>
       </c>
       <c r="G105" s="76" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H105" s="14" t="s">
         <v>35</v>
@@ -13160,7 +12987,7 @@
         <v>74</v>
       </c>
       <c r="N105" s="21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O105" s="6">
         <v>43448</v>
@@ -13172,13 +12999,13 @@
         <v>40</v>
       </c>
       <c r="R105" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S105" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="T105" s="32" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="U105" s="33"/>
     </row>
@@ -13187,13 +13014,13 @@
         <v>103</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C106" s="6">
         <v>43447</v>
       </c>
       <c r="D106" s="32" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E106" s="32" t="s">
         <v>32</v>
@@ -13202,7 +13029,7 @@
         <v>26</v>
       </c>
       <c r="G106" s="32" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H106" s="14" t="s">
         <v>35</v>
@@ -13219,7 +13046,7 @@
         <v>74</v>
       </c>
       <c r="N106" s="21" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O106" s="6">
         <v>43447</v>
@@ -13229,30 +13056,30 @@
         <v>30</v>
       </c>
       <c r="R106" s="33" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S106" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="T106" s="32" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U106" s="88" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21" ht="114" hidden="1" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>104</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C107" s="6">
         <v>43495</v>
       </c>
       <c r="D107" s="32" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E107" s="32" t="s">
         <v>80</v>
@@ -13261,13 +13088,13 @@
         <v>26</v>
       </c>
       <c r="G107" s="32" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H107" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I107" s="32" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="J107" s="32"/>
       <c r="K107" s="32"/>
@@ -13290,18 +13117,18 @@
       <c r="T107" s="5"/>
       <c r="U107" s="32"/>
     </row>
-    <row r="108" spans="1:21" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>105</v>
       </c>
       <c r="B108" s="31" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C108" s="6">
         <v>43495</v>
       </c>
       <c r="D108" s="32" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E108" s="32" t="s">
         <v>15</v>
@@ -13310,17 +13137,17 @@
         <v>26</v>
       </c>
       <c r="G108" s="32" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H108" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I108" s="32" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="J108" s="32"/>
       <c r="K108" s="32" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L108" s="32">
         <v>1</v>
@@ -13341,26 +13168,26 @@
         <v>6</v>
       </c>
       <c r="R108" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S108" s="33"/>
       <c r="T108" s="5"/>
       <c r="U108" s="85" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>111</v>
       </c>
       <c r="B109" s="32" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C109" s="6">
         <v>43108</v>
       </c>
       <c r="D109" s="32" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E109" s="32" t="s">
         <v>125</v>
@@ -13369,10 +13196,10 @@
         <v>26</v>
       </c>
       <c r="G109" s="32" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H109" s="14" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I109" s="32" t="s">
         <v>85</v>
@@ -13386,7 +13213,7 @@
         <v>74</v>
       </c>
       <c r="N109" s="21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O109" s="21">
         <v>43473</v>
@@ -13396,26 +13223,26 @@
         <v>30</v>
       </c>
       <c r="R109" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S109" s="33"/>
       <c r="T109" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="U109" s="32"/>
     </row>
-    <row r="110" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" ht="57" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>112</v>
       </c>
       <c r="B110" s="31" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C110" s="6">
         <v>43108</v>
       </c>
       <c r="D110" s="32" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E110" s="32" t="s">
         <v>39</v>
@@ -13424,10 +13251,10 @@
         <v>26</v>
       </c>
       <c r="G110" s="32" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H110" s="14" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I110" s="32" t="s">
         <v>85</v>
@@ -13441,7 +13268,7 @@
         <v>74</v>
       </c>
       <c r="N110" s="21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O110" s="21">
         <v>43473</v>
@@ -13453,24 +13280,24 @@
         <v>15</v>
       </c>
       <c r="R110" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S110" s="33"/>
       <c r="T110" s="5"/>
       <c r="U110" s="32"/>
     </row>
-    <row r="111" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>113</v>
       </c>
       <c r="B111" s="32" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C111" s="6">
         <v>43436</v>
       </c>
       <c r="D111" s="32" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E111" s="32" t="s">
         <v>125</v>
@@ -13479,10 +13306,10 @@
         <v>26</v>
       </c>
       <c r="G111" s="32" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H111" s="14" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I111" s="32" t="s">
         <v>85</v>
@@ -13508,26 +13335,26 @@
         <v>3</v>
       </c>
       <c r="R111" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S111" s="33"/>
       <c r="T111" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="U111" s="32"/>
     </row>
-    <row r="112" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
         <v>114</v>
       </c>
       <c r="B112" s="32" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C112" s="6">
         <v>43436</v>
       </c>
       <c r="D112" s="32" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E112" s="32" t="s">
         <v>125</v>
@@ -13536,10 +13363,10 @@
         <v>26</v>
       </c>
       <c r="G112" s="32" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H112" s="14" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I112" s="32" t="s">
         <v>85</v>
@@ -13565,26 +13392,26 @@
         <v>3</v>
       </c>
       <c r="R112" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S112" s="33"/>
       <c r="T112" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="U112" s="32"/>
     </row>
-    <row r="113" spans="1:21" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
         <v>115</v>
       </c>
       <c r="B113" s="32" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C113" s="6">
         <v>43496</v>
       </c>
       <c r="D113" s="32" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E113" s="32" t="s">
         <v>125</v>
@@ -13593,10 +13420,10 @@
         <v>26</v>
       </c>
       <c r="G113" s="32" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H113" s="14" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I113" s="32" t="s">
         <v>85</v>
@@ -13610,7 +13437,7 @@
         <v>74</v>
       </c>
       <c r="N113" s="32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O113" s="21">
         <v>43496</v>
@@ -13622,26 +13449,26 @@
         <v>3</v>
       </c>
       <c r="R113" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S113" s="33"/>
       <c r="T113" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="U113" s="32"/>
     </row>
-    <row r="114" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" ht="57" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <v>116</v>
       </c>
       <c r="B114" s="32" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C114" s="6">
         <v>43496</v>
       </c>
       <c r="D114" s="32" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E114" s="32" t="s">
         <v>125</v>
@@ -13650,10 +13477,10 @@
         <v>26</v>
       </c>
       <c r="G114" s="32" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H114" s="14" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I114" s="32" t="s">
         <v>85</v>
@@ -13667,7 +13494,7 @@
         <v>74</v>
       </c>
       <c r="N114" s="32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O114" s="21">
         <v>43496</v>
@@ -13676,29 +13503,29 @@
         <v>4</v>
       </c>
       <c r="Q114" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R114" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S114" s="33"/>
       <c r="T114" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="U114" s="32"/>
     </row>
-    <row r="115" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" ht="57" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
         <v>117</v>
       </c>
       <c r="B115" s="32" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C115" s="6">
         <v>43496</v>
       </c>
       <c r="D115" s="32" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E115" s="32" t="s">
         <v>125</v>
@@ -13707,10 +13534,10 @@
         <v>26</v>
       </c>
       <c r="G115" s="32" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H115" s="14" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I115" s="32" t="s">
         <v>85</v>
@@ -13724,7 +13551,7 @@
         <v>74</v>
       </c>
       <c r="N115" s="32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O115" s="21">
         <v>43496</v>
@@ -13734,26 +13561,26 @@
         <v>11</v>
       </c>
       <c r="R115" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S115" s="33"/>
       <c r="T115" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="U115" s="32"/>
     </row>
-    <row r="116" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <v>118</v>
       </c>
       <c r="B116" s="32" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C116" s="6">
         <v>43496</v>
       </c>
       <c r="D116" s="32" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E116" s="32" t="s">
         <v>125</v>
@@ -13762,7 +13589,7 @@
         <v>26</v>
       </c>
       <c r="G116" s="32" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="I116" s="32"/>
       <c r="J116" s="32"/>
@@ -13773,33 +13600,33 @@
         <v>74</v>
       </c>
       <c r="N116" s="32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O116" s="32"/>
       <c r="Q116" s="5">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="R116" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S116" s="33"/>
       <c r="T116" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="U116" s="32"/>
     </row>
-    <row r="117" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A117" s="39">
         <v>119</v>
       </c>
       <c r="B117" s="28" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C117" s="37">
         <v>43497</v>
       </c>
       <c r="D117" s="28" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E117" s="28" t="s">
         <v>125</v>
@@ -13808,10 +13635,10 @@
         <v>26</v>
       </c>
       <c r="G117" s="28" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I117" s="28" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="J117" s="28"/>
       <c r="L117" s="28">
@@ -13821,33 +13648,31 @@
         <v>74</v>
       </c>
       <c r="N117" s="28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O117" s="28"/>
       <c r="Q117" s="39">
         <v>5</v>
       </c>
       <c r="R117" s="39" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S117" s="89"/>
       <c r="T117" s="39" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="U117" s="28"/>
     </row>
-    <row r="118" spans="1:21" ht="180.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
         <v>120</v>
       </c>
-      <c r="B118" s="31" t="s">
-        <v>486</v>
-      </c>
+      <c r="B118" s="31"/>
       <c r="C118" s="6">
         <v>43517</v>
       </c>
       <c r="D118" s="32" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E118" s="32" t="s">
         <v>80</v>
@@ -13856,11 +13681,11 @@
         <v>26</v>
       </c>
       <c r="G118" s="32" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H118" s="14"/>
       <c r="I118" s="32" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="J118" s="32"/>
       <c r="K118" s="32"/>
@@ -13883,18 +13708,18 @@
       <c r="T118" s="5"/>
       <c r="U118" s="32"/>
     </row>
-    <row r="119" spans="1:21" ht="180.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
         <v>121</v>
       </c>
       <c r="B119" s="31" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C119" s="6">
         <v>43517</v>
       </c>
       <c r="D119" s="32" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E119" s="32" t="s">
         <v>15</v>
@@ -13903,11 +13728,11 @@
         <v>26</v>
       </c>
       <c r="G119" s="32" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H119" s="14"/>
       <c r="I119" s="32" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="J119" s="32"/>
       <c r="K119" s="32"/>
@@ -13930,13 +13755,13 @@
       <c r="T119" s="5"/>
       <c r="U119" s="32"/>
     </row>
-    <row r="120" spans="1:21" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <f>1+A119</f>
         <v>122</v>
       </c>
       <c r="B120" s="31" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C120" s="6">
         <v>43517</v>
@@ -13949,11 +13774,11 @@
         <v>26</v>
       </c>
       <c r="G120" s="32" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H120" s="14"/>
       <c r="I120" s="32" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="J120" s="32"/>
       <c r="K120" s="32"/>
@@ -13980,14 +13805,12 @@
       <c r="A121" s="5">
         <v>123</v>
       </c>
-      <c r="B121" s="31" t="s">
-        <v>488</v>
-      </c>
+      <c r="B121" s="31"/>
       <c r="C121" s="6">
         <v>43525</v>
       </c>
       <c r="D121" s="32" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E121" s="32" t="s">
         <v>32</v>
@@ -13996,7 +13819,7 @@
         <v>26</v>
       </c>
       <c r="G121" s="32" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H121" s="14"/>
       <c r="I121" s="32"/>
@@ -14009,7 +13832,7 @@
         <v>74</v>
       </c>
       <c r="N121" s="32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O121" s="21">
         <v>43525</v>
@@ -14025,14 +13848,12 @@
       <c r="A122" s="5">
         <v>124</v>
       </c>
-      <c r="B122" s="31" t="s">
-        <v>489</v>
-      </c>
+      <c r="B122" s="31"/>
       <c r="C122" s="6">
         <v>43525</v>
       </c>
       <c r="D122" s="32" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E122" s="32" t="s">
         <v>32</v>
@@ -14041,7 +13862,7 @@
         <v>26</v>
       </c>
       <c r="G122" s="32" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H122" s="14"/>
       <c r="I122" s="32"/>
@@ -14054,7 +13875,7 @@
         <v>74</v>
       </c>
       <c r="N122" s="32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O122" s="21">
         <v>43525</v>
@@ -14066,18 +13887,16 @@
       <c r="T122" s="5"/>
       <c r="U122" s="32"/>
     </row>
-    <row r="123" spans="1:21" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
         <v>125</v>
       </c>
-      <c r="B123" s="31" t="s">
-        <v>465</v>
-      </c>
+      <c r="B123" s="31"/>
       <c r="C123" s="6">
         <v>43528</v>
       </c>
       <c r="D123" s="32" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E123" s="32" t="s">
         <v>15</v>
@@ -14086,7 +13905,7 @@
         <v>26</v>
       </c>
       <c r="G123" s="32" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H123" s="14"/>
       <c r="I123" s="32"/>
@@ -14111,7 +13930,7 @@
       <c r="T123" s="5"/>
       <c r="U123" s="32"/>
     </row>
-    <row r="124" spans="1:21" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
         <v>126</v>
       </c>
@@ -14120,7 +13939,7 @@
         <v>43528</v>
       </c>
       <c r="D124" s="32" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E124" s="32" t="s">
         <v>39</v>
@@ -14129,7 +13948,7 @@
         <v>26</v>
       </c>
       <c r="G124" s="32" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H124" s="14"/>
       <c r="I124" s="32"/>
@@ -14154,113 +13973,13 @@
       <c r="T124" s="5"/>
       <c r="U124" s="32"/>
     </row>
-    <row r="125" spans="1:21" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="5">
-        <v>127</v>
-      </c>
-      <c r="B125" s="31" t="s">
-        <v>487</v>
-      </c>
-      <c r="C125" s="6">
-        <v>43529</v>
-      </c>
-      <c r="D125" s="32" t="s">
-        <v>463</v>
-      </c>
-      <c r="E125" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="F125" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G125" s="32" t="s">
-        <v>467</v>
-      </c>
-      <c r="I125" s="32"/>
-      <c r="J125" s="32"/>
-      <c r="K125" s="32"/>
-      <c r="L125" s="32">
-        <v>1</v>
-      </c>
-      <c r="M125" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="N125" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="O125" s="21">
-        <v>43529</v>
-      </c>
-      <c r="Q125" s="5"/>
-      <c r="R125" s="5"/>
-      <c r="S125" s="33"/>
-      <c r="T125" s="5"/>
-      <c r="U125" s="32"/>
-    </row>
-    <row r="126" spans="1:21" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="5">
-        <v>128</v>
-      </c>
-      <c r="B126" s="90" t="s">
-        <v>468</v>
-      </c>
-      <c r="C126" s="6">
-        <v>43531</v>
-      </c>
-      <c r="D126" s="32" t="s">
-        <v>466</v>
-      </c>
-      <c r="E126" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F126" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G126" s="32" t="s">
-        <v>469</v>
-      </c>
-      <c r="I126" s="32"/>
-      <c r="J126" s="32"/>
-      <c r="K126" s="32"/>
-      <c r="L126" s="32">
-        <v>2</v>
-      </c>
-      <c r="M126" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="N126" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="O126" s="21">
-        <v>43531</v>
-      </c>
-      <c r="Q126" s="5"/>
-      <c r="R126" s="5"/>
-      <c r="S126" s="33"/>
-      <c r="T126" s="5"/>
-      <c r="U126" s="32"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:U126" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="ID Authentication"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="New"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:U120" xr:uid="{0DBFC021-F697-4DC4-A38D-9BBCFD373B08}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:U1"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B126" r:id="rId1" display="https://mosipid.atlassian.net/browse/MOS-18100" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14455,34 +14174,34 @@
   <sheetData>
     <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="66" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C1" s="67" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="68"/>
       <c r="C2" s="69" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="70"/>
       <c r="C3" s="69" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="71"/>
       <c r="C4" s="69" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="72"/>
       <c r="C5" s="73" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -14724,15 +14443,15 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
+++ b/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIPRequirementsGithub\docs\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1037145\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{47EF2CD7-D492-4498-B964-2976E0432E73}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8540"/>
   </bookViews>
   <sheets>
     <sheet name="MOSIP_Feature_Roadmap" sheetId="5" r:id="rId1"/>
@@ -19,9 +18,9 @@
     <sheet name="Status Legends" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MOSIP_Feature_Roadmap!$A$2:$U$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MOSIP_Feature_Roadmap!$A$2:$U$127</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="496">
   <si>
     <t>S.No.</t>
   </si>
@@ -2728,12 +2727,6 @@
     <t>MOS-12187</t>
   </si>
   <si>
-    <t>MOS-12188</t>
-  </si>
-  <si>
-    <t>MOS-12192</t>
-  </si>
-  <si>
     <t>MOS-12193</t>
   </si>
   <si>
@@ -2747,12 +2740,6 @@
   </si>
   <si>
     <t>MOS-12989</t>
-  </si>
-  <si>
-    <t>MOS-13518</t>
-  </si>
-  <si>
-    <t>MOS-13519</t>
   </si>
   <si>
     <t>MOS-13522</t>
@@ -3365,29 +3352,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Completed already in MOS 1206 and MOS 1330
-User Onboarding - Remote mapping of user to Machine</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>:
-1. Admin registers the users. Tfurther the RO should be able to onboard himself without the requirement of a SPVR/Admin as an entry point</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Done as MOS 12874</t>
     </r>
     <r>
@@ -3750,67 +3714,6 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>Biometrics Data Capture Screen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">:
-1. Post maximum retry attempts (3) have been reached, system to identify the best quality captured
-2. Further to crossing the 3 attempts &gt; If the quality is not met - MOSIP to provide an option to mark the iris, finger as exception and proceed further – Biometrics in this case should be re-captured </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>- New requirement</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-3. Provide an option to mark a reason for Biometrics Exception &gt; Missing finger or Missing iris or Low quality - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>New requirement</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
       <t>Mode of login to client</t>
     </r>
     <r>
@@ -3958,9 +3861,6 @@
   </si>
   <si>
     <t xml:space="preserve">This can be moved to 1+ with plug-in of SDK </t>
-  </si>
-  <si>
-    <t>As part of v1, MOSIP should provide an interface to pass the photo and receive response. SDK can be plugged in when made available. Estimates to be re-visited.</t>
   </si>
   <si>
     <t>To be provided in v1</t>
@@ -4323,9 +4223,6 @@
     <t>MOS-15999</t>
   </si>
   <si>
-    <t>MOS-15998</t>
-  </si>
-  <si>
     <t>MOS-15996</t>
   </si>
   <si>
@@ -4520,109 +4417,6 @@
     <t>Stubbed data fp quality.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Face photograph validation during registration</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">: With Stubbed data for ICAO flag
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Backlog: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Build validation for ICAO standards.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Morocco FRS: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Not in scope
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Query log review: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Build</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">for ICAO plus one other standard. </t>
-    </r>
-  </si>
-  <si>
-    <t>Stubbed data for ICAO flag.</t>
-  </si>
-  <si>
     <t>Stub for QR data retrieval. UI + Api changes.</t>
   </si>
   <si>
@@ -4822,31 +4616,16 @@
     <t>5</t>
   </si>
   <si>
-    <t>MOS-14566</t>
-  </si>
-  <si>
     <t>MOS-8641</t>
   </si>
   <si>
     <t>MOS-12112</t>
   </si>
   <si>
-    <t>MOS-5482</t>
-  </si>
-  <si>
     <t>MOS-18117</t>
   </si>
   <si>
     <t>MOS 9090</t>
-  </si>
-  <si>
-    <t>MOS 1226</t>
-  </si>
-  <si>
-    <t>MOS 16545</t>
-  </si>
-  <si>
-    <t>MOS-13661</t>
   </si>
   <si>
     <t>MOS-12961</t>
@@ -4923,12 +4702,129 @@
   </si>
   <si>
     <t>Auth API specs Review</t>
+  </si>
+  <si>
+    <t>MOS-14566
+MOS-14565</t>
+  </si>
+  <si>
+    <t>MOS-10555
+MOS-1334</t>
+  </si>
+  <si>
+    <t>MOS-5482
+MOS-1175 
+MOS-1320</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Completed already in MOS 1206 and MOS 1330
+User Onboarding - Remote mapping of user to Machine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>:
+1. Admin registers the users. further the RO should be able to onboard himself without the requirement of a SPVR/Admin as an entry point</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MOS 1206
+MOS 1330</t>
+  </si>
+  <si>
+    <t>MOS 19001</t>
+  </si>
+  <si>
+    <t>MOS-19006</t>
+  </si>
+  <si>
+    <t>MOS-16109</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Stub Biometrics Data Capture Screen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">:
+1. Post maximum retry attempts (3) have been reached, system to identify the best quality captured
+2. Further to crossing the 3 attempts &gt; If the quality is not met - MOSIP to provide an option to mark the iris, finger as exception and proceed further – Biometrics in this case should be re-captured </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>- New requirement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Provide an option to mark a reason for Biometrics Exception &gt; Missing finger or Missing iris or Low quality - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>New requirement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>MOS-19011</t>
+  </si>
+  <si>
+    <t>MOS-19014</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
@@ -5567,7 +5463,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -5584,9 +5480,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="MINDTREE" refreshedDate="43448.660082060182" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="64" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="MINDTREE" refreshedDate="43448.660082060182" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="64">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A2:U70" sheet="MOSIP_Feature_Roadmap"/>
+    <worksheetSource ref="A2:U69" sheet="MOSIP_Feature_Roadmap"/>
   </cacheSource>
   <cacheFields count="15">
     <cacheField name="S.No." numFmtId="0">
@@ -6745,7 +6641,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField dataField="1" showAll="0"/>
@@ -7093,42 +6989,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:W128"/>
+  <dimension ref="A1:W127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D129" sqref="D129"/>
+      <pane ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.26953125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="25.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="3" customWidth="1"/>
     <col min="7" max="7" width="49" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="16" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="28.42578125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="38.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" style="16" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="28.453125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="38.453125" style="3" customWidth="1"/>
     <col min="11" max="11" width="24" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="11.28515625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="22.7109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.28515625" style="27" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.7109375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="22.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="83.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="20.42578125" style="10"/>
+    <col min="12" max="12" width="11.26953125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="22.7265625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.26953125" style="27" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="17.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.7265625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="22.7265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="83.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="20.453125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="92" t="s">
         <v>209</v>
       </c>
@@ -7153,7 +7049,7 @@
       <c r="T1" s="94"/>
       <c r="U1" s="96"/>
     </row>
-    <row r="2" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="42" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
@@ -7185,7 +7081,7 @@
         <v>228</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="L2" s="20" t="s">
         <v>8</v>
@@ -7218,7 +7114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" s="4" customFormat="1" ht="140" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -7238,7 +7134,7 @@
         <v>16</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>17</v>
@@ -7247,13 +7143,13 @@
         <v>18</v>
       </c>
       <c r="J3" s="32" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="K3" s="32" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="L3" s="85" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="M3" s="32" t="s">
         <v>19</v>
@@ -7277,15 +7173,15 @@
       <c r="S3" s="30"/>
       <c r="T3" s="30"/>
       <c r="U3" s="21" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" s="4" customFormat="1" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="4" customFormat="1" ht="154" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="84" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="C4" s="6">
         <v>43362</v>
@@ -7300,7 +7196,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>17</v>
@@ -7312,7 +7208,7 @@
         <v>265</v>
       </c>
       <c r="K4" s="32" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="L4" s="32">
         <v>1</v>
@@ -7338,10 +7234,10 @@
       <c r="S4" s="30"/>
       <c r="T4" s="30"/>
       <c r="U4" s="21" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" s="4" customFormat="1" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -7373,10 +7269,10 @@
         <v>230</v>
       </c>
       <c r="K5" s="32" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="L5" s="85" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="M5" s="32" t="s">
         <v>19</v>
@@ -7391,7 +7287,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="82">
-        <f t="shared" ref="Q5:Q60" si="0">P5*1.5</f>
+        <f t="shared" ref="Q5:Q59" si="0">P5*1.5</f>
         <v>18</v>
       </c>
       <c r="R5" s="30" t="s">
@@ -7403,12 +7299,12 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="4" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" s="4" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C6" s="6">
         <v>43362</v>
@@ -7423,7 +7319,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="H6" s="14" t="s">
         <v>17</v>
@@ -7435,10 +7331,10 @@
         <v>230</v>
       </c>
       <c r="K6" s="32" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="L6" s="85" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="M6" s="32" t="s">
         <v>19</v>
@@ -7462,10 +7358,10 @@
       <c r="S6" s="30"/>
       <c r="T6" s="30"/>
       <c r="U6" s="21" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" s="4" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="4" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -7497,10 +7393,10 @@
         <v>231</v>
       </c>
       <c r="K7" s="32" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="L7" s="85" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="M7" s="32" t="s">
         <v>19</v>
@@ -7524,15 +7420,15 @@
       <c r="S7" s="30"/>
       <c r="T7" s="30"/>
       <c r="U7" s="21" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" s="4" customFormat="1" ht="171" hidden="1" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="4" customFormat="1" ht="140" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>6</v>
       </c>
       <c r="B8" s="84" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="C8" s="6">
         <v>43362</v>
@@ -7547,7 +7443,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H8" s="14" t="s">
         <v>17</v>
@@ -7559,10 +7455,10 @@
         <v>231</v>
       </c>
       <c r="K8" s="32" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="L8" s="85" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="M8" s="32" t="s">
         <v>19</v>
@@ -7586,15 +7482,15 @@
       <c r="S8" s="30"/>
       <c r="T8" s="30"/>
       <c r="U8" s="21" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" s="4" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="4" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9" s="84" t="s">
-        <v>284</v>
+        <v>433</v>
       </c>
       <c r="C9" s="6">
         <v>43362</v>
@@ -7619,10 +7515,10 @@
       </c>
       <c r="J9" s="19"/>
       <c r="K9" s="32" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="L9" s="85" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="M9" s="32" t="s">
         <v>19</v>
@@ -7646,16 +7542,14 @@
       <c r="S9" s="30"/>
       <c r="T9" s="30"/>
       <c r="U9" s="22" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" s="4" customFormat="1" ht="114" hidden="1" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="1" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
-        <v>8</v>
-      </c>
-      <c r="B10" s="84" t="s">
-        <v>440</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B10" s="31"/>
       <c r="C10" s="6">
         <v>43362</v>
       </c>
@@ -7666,21 +7560,19 @@
         <v>15</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>453</v>
+        <v>27</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>17</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J10" s="19"/>
-      <c r="K10" s="19" t="s">
-        <v>372</v>
-      </c>
+      <c r="K10" s="19"/>
       <c r="L10" s="19">
         <v>1</v>
       </c>
@@ -7694,50 +7586,50 @@
         <v>43419</v>
       </c>
       <c r="P10" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="82">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R10" s="30" t="s">
-        <v>269</v>
+        <v>156</v>
       </c>
       <c r="S10" s="30"/>
       <c r="T10" s="30"/>
-      <c r="U10" s="22" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" s="1" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U10" s="21"/>
+    </row>
+    <row r="11" spans="1:21" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
-        <v>9</v>
-      </c>
-      <c r="B11" s="31"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="84"/>
       <c r="C11" s="6">
         <v>43362</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E11" s="32" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>331</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19">
+      <c r="I11" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="L11" s="32">
         <v>1</v>
       </c>
       <c r="M11" s="32" t="s">
@@ -7752,49 +7644,50 @@
       <c r="P11" s="26">
         <v>0</v>
       </c>
-      <c r="Q11" s="82">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="Q11" s="82" t="s">
+        <v>141</v>
       </c>
       <c r="R11" s="30" t="s">
-        <v>156</v>
+        <v>269</v>
       </c>
       <c r="S11" s="30"/>
       <c r="T11" s="30"/>
-      <c r="U11" s="21"/>
-    </row>
-    <row r="12" spans="1:21" s="1" customFormat="1" ht="142.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U11" s="21" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" s="1" customFormat="1" ht="280" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
-        <v>10</v>
-      </c>
-      <c r="B12" s="84"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>403</v>
+      </c>
       <c r="C12" s="6">
-        <v>43362</v>
+        <v>43395</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="42" t="s">
-        <v>335</v>
+        <v>33</v>
+      </c>
+      <c r="G12" s="43" t="s">
+        <v>34</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J12" s="32"/>
-      <c r="K12" s="32" t="s">
-        <v>384</v>
-      </c>
+      <c r="K12" s="32"/>
       <c r="L12" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M12" s="32" t="s">
         <v>19</v>
@@ -7805,53 +7698,49 @@
       <c r="O12" s="21">
         <v>43419</v>
       </c>
-      <c r="P12" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="82" t="s">
-        <v>141</v>
-      </c>
-      <c r="R12" s="30" t="s">
-        <v>269</v>
-      </c>
+      <c r="P12" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q12" s="79"/>
+      <c r="R12" s="30"/>
       <c r="S12" s="30"/>
       <c r="T12" s="30"/>
-      <c r="U12" s="21" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" s="1" customFormat="1" ht="285" hidden="1" x14ac:dyDescent="0.25">
+      <c r="U12" s="21"/>
+    </row>
+    <row r="13" spans="1:21" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>410</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>486</v>
       </c>
       <c r="C13" s="6">
-        <v>43395</v>
+        <v>43397</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="43" t="s">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="G13" s="44" t="s">
+        <v>332</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
+        <v>38</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19" t="s">
+        <v>366</v>
+      </c>
       <c r="L13" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13" s="32" t="s">
         <v>19</v>
@@ -7862,21 +7751,28 @@
       <c r="O13" s="21">
         <v>43419</v>
       </c>
-      <c r="P13" s="77" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q13" s="79"/>
-      <c r="R13" s="30"/>
+      <c r="P13" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="82">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="R13" s="30" t="s">
+        <v>269</v>
+      </c>
       <c r="S13" s="30"/>
       <c r="T13" s="30"/>
-      <c r="U13" s="21"/>
-    </row>
-    <row r="14" spans="1:21" s="1" customFormat="1" ht="114" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U13" s="21" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" s="1" customFormat="1" ht="98" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
-        <v>12</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>285</v>
+        <v>14</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>383</v>
       </c>
       <c r="C14" s="6">
         <v>43397</v>
@@ -7885,24 +7781,22 @@
         <v>37</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F14" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="44" t="s">
-        <v>336</v>
+      <c r="G14" s="51" t="s">
+        <v>179</v>
       </c>
       <c r="H14" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19" t="s">
-        <v>373</v>
-      </c>
+      <c r="I14" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
       <c r="L14" s="32">
         <v>1</v>
       </c>
@@ -7915,28 +7809,32 @@
       <c r="O14" s="21">
         <v>43419</v>
       </c>
-      <c r="P14" s="26">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="82">
+      <c r="P14" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q14" s="91">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="R14" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
+      <c r="S14" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="T14" s="30" t="s">
+        <v>172</v>
+      </c>
       <c r="U14" s="21" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" s="1" customFormat="1" ht="99.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" s="1" customFormat="1" ht="182" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C15" s="6">
         <v>43397</v>
@@ -7951,13 +7849,13 @@
         <v>26</v>
       </c>
       <c r="G15" s="51" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
@@ -7973,12 +7871,12 @@
       <c r="O15" s="21">
         <v>43419</v>
       </c>
-      <c r="P15" s="50" t="s">
-        <v>41</v>
+      <c r="P15" s="52">
+        <v>36</v>
       </c>
       <c r="Q15" s="91">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="R15" s="30" t="s">
         <v>269</v>
@@ -7993,12 +7891,12 @@
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1" ht="199.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" s="4" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C16" s="6">
         <v>43397</v>
@@ -8012,18 +7910,18 @@
       <c r="F16" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="51" t="s">
-        <v>178</v>
+      <c r="G16" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="H16" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32">
+      <c r="I16" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19">
         <v>1</v>
       </c>
       <c r="M16" s="32" t="s">
@@ -8035,12 +7933,12 @@
       <c r="O16" s="21">
         <v>43419</v>
       </c>
-      <c r="P16" s="52">
-        <v>36</v>
+      <c r="P16" s="50" t="s">
+        <v>45</v>
       </c>
       <c r="Q16" s="91">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="R16" s="30" t="s">
         <v>269</v>
@@ -8049,18 +7947,18 @@
         <v>171</v>
       </c>
       <c r="T16" s="30" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="U16" s="21" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" s="4" customFormat="1" ht="213.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" s="1" customFormat="1" ht="126" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>392</v>
+        <v>156</v>
       </c>
       <c r="C17" s="6">
         <v>43397</v>
@@ -8074,18 +7972,18 @@
       <c r="F17" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="19" t="s">
-        <v>43</v>
+      <c r="G17" s="42" t="s">
+        <v>46</v>
       </c>
       <c r="H17" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19">
+      <c r="I17" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23">
         <v>1</v>
       </c>
       <c r="M17" s="32" t="s">
@@ -8097,32 +7995,32 @@
       <c r="O17" s="21">
         <v>43419</v>
       </c>
-      <c r="P17" s="50" t="s">
-        <v>45</v>
+      <c r="P17" s="41">
+        <v>0</v>
       </c>
       <c r="Q17" s="91">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="R17" s="30" t="s">
-        <v>269</v>
-      </c>
-      <c r="S17" s="60" t="s">
-        <v>171</v>
+        <v>156</v>
+      </c>
+      <c r="S17" s="61" t="s">
+        <v>193</v>
       </c>
       <c r="T17" s="30" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="U17" s="21" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" s="1" customFormat="1" ht="156.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" s="4" customFormat="1" ht="126" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>156</v>
+        <v>386</v>
       </c>
       <c r="C18" s="6">
         <v>43397</v>
@@ -8136,18 +8034,18 @@
       <c r="F18" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="42" t="s">
-        <v>46</v>
+      <c r="G18" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="H18" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23">
+      <c r="I18" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32">
         <v>1</v>
       </c>
       <c r="M18" s="32" t="s">
@@ -8159,53 +8057,49 @@
       <c r="O18" s="21">
         <v>43419</v>
       </c>
-      <c r="P18" s="41">
-        <v>0</v>
+      <c r="P18" s="53">
+        <v>10</v>
       </c>
       <c r="Q18" s="91">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="R18" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="S18" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="T18" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="U18" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="S18" s="61" t="s">
-        <v>193</v>
-      </c>
-      <c r="T18" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="U18" s="21" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" s="4" customFormat="1" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:21" s="1" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="C19" s="6">
-        <v>43397</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="12" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="F19" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="19" t="s">
-        <v>49</v>
+      <c r="G19" s="45" t="s">
+        <v>53</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I19" s="32" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
@@ -8221,29 +8115,19 @@
       <c r="O19" s="21">
         <v>43419</v>
       </c>
-      <c r="P19" s="53">
-        <v>10</v>
-      </c>
-      <c r="Q19" s="91">
+      <c r="P19" s="30"/>
+      <c r="Q19" s="79">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="R19" s="30" t="s">
-        <v>269</v>
-      </c>
-      <c r="S19" s="62" t="s">
-        <v>171</v>
-      </c>
-      <c r="T19" s="54" t="s">
-        <v>183</v>
-      </c>
-      <c r="U19" s="55" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" s="1" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="21"/>
+    </row>
+    <row r="20" spans="1:21" s="4" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
@@ -8256,14 +8140,14 @@
       <c r="F20" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="45" t="s">
-        <v>53</v>
+      <c r="G20" s="42" t="s">
+        <v>55</v>
       </c>
       <c r="H20" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I20" s="32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
@@ -8289,32 +8173,38 @@
       <c r="T20" s="30"/>
       <c r="U20" s="21"/>
     </row>
-    <row r="21" spans="1:21" s="4" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="84" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="B21" s="83" t="s">
+        <v>284</v>
+      </c>
+      <c r="C21" s="6">
+        <v>43402</v>
+      </c>
       <c r="D21" s="12" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="F21" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="42" t="s">
-        <v>55</v>
+      <c r="G21" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="H21" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I21" s="32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
+      <c r="K21" s="19" t="s">
+        <v>366</v>
+      </c>
       <c r="L21" s="32">
         <v>1</v>
       </c>
@@ -8327,22 +8217,28 @@
       <c r="O21" s="21">
         <v>43419</v>
       </c>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="79">
+      <c r="P21" s="26">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="82">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="30"/>
+        <v>15</v>
+      </c>
+      <c r="R21" s="30" t="s">
+        <v>269</v>
+      </c>
       <c r="S21" s="30"/>
       <c r="T21" s="30"/>
-      <c r="U21" s="21"/>
-    </row>
-    <row r="22" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="U21" s="21" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="84" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
-        <v>21</v>
-      </c>
-      <c r="B22" s="83" t="s">
-        <v>286</v>
+        <v>22</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>485</v>
       </c>
       <c r="C22" s="6">
         <v>43402</v>
@@ -8357,7 +8253,7 @@
         <v>26</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>58</v>
+        <v>349</v>
       </c>
       <c r="H22" s="14" t="s">
         <v>38</v>
@@ -8366,11 +8262,11 @@
         <v>54</v>
       </c>
       <c r="J22" s="32"/>
-      <c r="K22" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="L22" s="32">
-        <v>1</v>
+      <c r="K22" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="L22" s="32" t="s">
+        <v>140</v>
       </c>
       <c r="M22" s="32" t="s">
         <v>19</v>
@@ -8381,12 +8277,12 @@
       <c r="O22" s="21">
         <v>43419</v>
       </c>
-      <c r="P22" s="26">
-        <v>10</v>
+      <c r="P22" s="25" t="s">
+        <v>256</v>
       </c>
       <c r="Q22" s="82">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="R22" s="30" t="s">
         <v>269</v>
@@ -8394,15 +8290,15 @@
       <c r="S22" s="30"/>
       <c r="T22" s="30"/>
       <c r="U22" s="21" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="112" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>472</v>
+        <v>387</v>
       </c>
       <c r="C23" s="6">
         <v>43402</v>
@@ -8411,26 +8307,24 @@
         <v>57</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F23" s="32" t="s">
         <v>26</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>354</v>
+        <v>59</v>
       </c>
       <c r="H23" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I23" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32" t="s">
-        <v>366</v>
-      </c>
-      <c r="L23" s="32" t="s">
-        <v>140</v>
+        <v>60</v>
+      </c>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14">
+        <v>1</v>
       </c>
       <c r="M23" s="32" t="s">
         <v>19</v>
@@ -8441,53 +8335,55 @@
       <c r="O23" s="21">
         <v>43419</v>
       </c>
-      <c r="P23" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q23" s="82">
+      <c r="P23" s="52">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="91">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="R23" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
+      <c r="S23" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="T23" s="30" t="s">
+        <v>183</v>
+      </c>
       <c r="U23" s="21" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="114" hidden="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
-        <v>23</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>394</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B24" s="5"/>
       <c r="C24" s="6">
         <v>43402</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="F24" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="19" t="s">
-        <v>59</v>
+      <c r="G24" s="46" t="s">
+        <v>64</v>
       </c>
       <c r="H24" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I24" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14">
+        <v>54</v>
+      </c>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32">
         <v>1</v>
       </c>
       <c r="M24" s="32" t="s">
@@ -8499,36 +8395,26 @@
       <c r="O24" s="21">
         <v>43419</v>
       </c>
-      <c r="P24" s="52">
-        <v>20</v>
-      </c>
-      <c r="Q24" s="91">
+      <c r="P24" s="30"/>
+      <c r="Q24" s="79">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="R24" s="30" t="s">
-        <v>269</v>
-      </c>
-      <c r="S24" s="62" t="s">
-        <v>171</v>
-      </c>
-      <c r="T24" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="U24" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="21"/>
+    </row>
+    <row r="25" spans="1:21" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="6">
         <v>43402</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E25" s="32" t="s">
         <v>52</v>
@@ -8537,17 +8423,17 @@
         <v>26</v>
       </c>
       <c r="G25" s="46" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H25" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32">
+      <c r="I25" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23">
         <v>1</v>
       </c>
       <c r="M25" s="32" t="s">
@@ -8569,35 +8455,39 @@
       <c r="T25" s="30"/>
       <c r="U25" s="21"/>
     </row>
-    <row r="26" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="84" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="B26" s="83" t="s">
+        <v>462</v>
+      </c>
       <c r="C26" s="6">
         <v>43402</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="32" t="s">
-        <v>52</v>
+      <c r="E26" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="F26" s="32" t="s">
         <v>26</v>
       </c>
       <c r="G26" s="46" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H26" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I26" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23">
+      <c r="I26" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="J26" s="32"/>
+      <c r="K26" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="L26" s="32">
         <v>1</v>
       </c>
       <c r="M26" s="32" t="s">
@@ -8609,28 +8499,34 @@
       <c r="O26" s="21">
         <v>43419</v>
       </c>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="79">
+      <c r="P26" s="29">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="82">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="30"/>
+        <v>15</v>
+      </c>
+      <c r="R26" s="30" t="s">
+        <v>269</v>
+      </c>
       <c r="S26" s="30"/>
       <c r="T26" s="30"/>
-      <c r="U26" s="21"/>
-    </row>
-    <row r="27" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="U26" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="70" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="83" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="C27" s="6">
-        <v>43402</v>
+        <v>43418</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>15</v>
@@ -8639,7 +8535,7 @@
         <v>26</v>
       </c>
       <c r="G27" s="46" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H27" s="14" t="s">
         <v>38</v>
@@ -8647,11 +8543,13 @@
       <c r="I27" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="J27" s="32"/>
+      <c r="J27" s="32" t="s">
+        <v>301</v>
+      </c>
       <c r="K27" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="L27" s="32">
+        <v>366</v>
+      </c>
+      <c r="L27" s="14">
         <v>1</v>
       </c>
       <c r="M27" s="32" t="s">
@@ -8663,12 +8561,12 @@
       <c r="O27" s="21">
         <v>43419</v>
       </c>
-      <c r="P27" s="29">
-        <v>10</v>
+      <c r="P27" s="26">
+        <v>5</v>
       </c>
       <c r="Q27" s="82">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="R27" s="30" t="s">
         <v>269</v>
@@ -8676,30 +8574,28 @@
       <c r="S27" s="30"/>
       <c r="T27" s="30"/>
       <c r="U27" s="21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
-        <v>27</v>
-      </c>
-      <c r="B28" s="83" t="s">
-        <v>474</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B28" s="5"/>
       <c r="C28" s="6">
         <v>43418</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="13" t="s">
-        <v>15</v>
+      <c r="E28" s="32" t="s">
+        <v>52</v>
       </c>
       <c r="F28" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="46" t="s">
-        <v>69</v>
+      <c r="G28" s="42" t="s">
+        <v>70</v>
       </c>
       <c r="H28" s="14" t="s">
         <v>38</v>
@@ -8707,12 +8603,8 @@
       <c r="I28" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="J28" s="32" t="s">
-        <v>305</v>
-      </c>
-      <c r="K28" s="19" t="s">
-        <v>373</v>
-      </c>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
       <c r="L28" s="14">
         <v>1</v>
       </c>
@@ -8725,41 +8617,35 @@
       <c r="O28" s="21">
         <v>43419</v>
       </c>
-      <c r="P28" s="26">
-        <v>5</v>
-      </c>
-      <c r="Q28" s="82">
+      <c r="P28" s="26"/>
+      <c r="Q28" s="79">
         <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="R28" s="30" t="s">
-        <v>269</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R28" s="30"/>
       <c r="S28" s="30"/>
       <c r="T28" s="30"/>
-      <c r="U28" s="21" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="U28" s="21"/>
+    </row>
+    <row r="29" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="6">
         <v>43418</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="32" t="s">
-        <v>52</v>
+        <v>71</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="F29" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="42" t="s">
-        <v>70</v>
+      <c r="G29" s="47" t="s">
+        <v>73</v>
       </c>
       <c r="H29" s="14" t="s">
         <v>38</v>
@@ -8767,49 +8653,57 @@
       <c r="I29" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="J29" s="32"/>
+      <c r="J29" s="32" t="s">
+        <v>232</v>
+      </c>
       <c r="K29" s="32"/>
       <c r="L29" s="14">
         <v>1</v>
       </c>
-      <c r="M29" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="N29" s="32" t="s">
-        <v>20</v>
+      <c r="M29" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="N29" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="O29" s="21">
         <v>43419</v>
       </c>
-      <c r="P29" s="26"/>
+      <c r="P29" s="5">
+        <v>30</v>
+      </c>
       <c r="Q29" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="30"/>
+        <v>45</v>
+      </c>
+      <c r="R29" s="30" t="s">
+        <v>269</v>
+      </c>
       <c r="S29" s="30"/>
       <c r="T29" s="30"/>
-      <c r="U29" s="21"/>
-    </row>
-    <row r="30" spans="1:21" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="U29" s="14"/>
+    </row>
+    <row r="30" spans="1:21" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
-        <v>29</v>
-      </c>
-      <c r="B30" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="C30" s="6">
         <v>43418</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>72</v>
+        <v>76</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>39</v>
       </c>
       <c r="F30" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="47" t="s">
-        <v>73</v>
+      <c r="G30" s="46" t="s">
+        <v>77</v>
       </c>
       <c r="H30" s="14" t="s">
         <v>38</v>
@@ -8817,9 +8711,7 @@
       <c r="I30" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="J30" s="32" t="s">
-        <v>232</v>
-      </c>
+      <c r="J30" s="32"/>
       <c r="K30" s="32"/>
       <c r="L30" s="14">
         <v>1</v>
@@ -8833,89 +8725,89 @@
       <c r="O30" s="21">
         <v>43419</v>
       </c>
-      <c r="P30" s="5">
+      <c r="P30" s="52">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="91">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="Q30" s="79">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="R30" s="30" t="s">
+      <c r="R30" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="14"/>
-    </row>
-    <row r="31" spans="1:21" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S30" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="T30" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="U30" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="C31" s="6">
-        <v>43418</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>76</v>
+        <v>43430</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>79</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="F31" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="G31" s="46" t="s">
-        <v>77</v>
+      <c r="G31" s="19" t="s">
+        <v>150</v>
       </c>
       <c r="H31" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I31" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="J31" s="32"/>
+        <v>81</v>
+      </c>
+      <c r="J31" s="32" t="s">
+        <v>229</v>
+      </c>
       <c r="K31" s="32"/>
-      <c r="L31" s="14">
+      <c r="L31" s="32">
         <v>1</v>
       </c>
-      <c r="M31" s="14" t="s">
+      <c r="M31" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="N31" s="14" t="s">
-        <v>75</v>
+      <c r="N31" s="32" t="s">
+        <v>20</v>
       </c>
       <c r="O31" s="21">
-        <v>43419</v>
-      </c>
-      <c r="P31" s="52">
-        <v>20</v>
-      </c>
-      <c r="Q31" s="91">
+        <v>43440</v>
+      </c>
+      <c r="P31" s="31">
+        <v>6</v>
+      </c>
+      <c r="Q31" s="79">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="R31" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="S31" s="63" t="s">
-        <v>184</v>
-      </c>
-      <c r="T31" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="U31" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S31" s="30"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="32"/>
+    </row>
+    <row r="32" spans="1:21" s="8" customFormat="1" ht="126" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
-        <v>31</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>156</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B32" s="31"/>
       <c r="C32" s="6">
         <v>43430</v>
       </c>
@@ -8923,22 +8815,22 @@
         <v>79</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>150</v>
+        <v>33</v>
+      </c>
+      <c r="G32" s="46" t="s">
+        <v>333</v>
       </c>
       <c r="H32" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I32" s="32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J32" s="32" t="s">
-        <v>229</v>
+        <v>302</v>
       </c>
       <c r="K32" s="32"/>
       <c r="L32" s="32">
@@ -8953,25 +8845,29 @@
       <c r="O32" s="21">
         <v>43440</v>
       </c>
-      <c r="P32" s="31">
-        <v>6</v>
-      </c>
-      <c r="Q32" s="79">
+      <c r="P32" s="29">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="82">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="R32" s="41" t="s">
         <v>269</v>
       </c>
       <c r="S32" s="30"/>
       <c r="T32" s="30"/>
-      <c r="U32" s="32"/>
-    </row>
-    <row r="33" spans="1:21" s="8" customFormat="1" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="U32" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" s="8" customFormat="1" ht="98" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
-        <v>32</v>
-      </c>
-      <c r="B33" s="31"/>
+        <v>33</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>285</v>
+      </c>
       <c r="C33" s="6">
         <v>43430</v>
       </c>
@@ -8982,23 +8878,25 @@
         <v>15</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G33" s="46" t="s">
-        <v>337</v>
+        <v>84</v>
       </c>
       <c r="H33" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I33" s="32" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J33" s="32" t="s">
-        <v>306</v>
-      </c>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32">
-        <v>1</v>
+        <v>303</v>
+      </c>
+      <c r="K33" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="L33" s="85" t="s">
+        <v>345</v>
       </c>
       <c r="M33" s="32" t="s">
         <v>74</v>
@@ -9010,11 +8908,11 @@
         <v>43440</v>
       </c>
       <c r="P33" s="29">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q33" s="82">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>22.5</v>
       </c>
       <c r="R33" s="41" t="s">
         <v>269</v>
@@ -9022,15 +8920,15 @@
       <c r="S33" s="30"/>
       <c r="T33" s="30"/>
       <c r="U33" s="32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" s="8" customFormat="1" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="84" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
-        <v>33</v>
-      </c>
-      <c r="B34" s="31" t="s">
-        <v>287</v>
+        <v>34</v>
+      </c>
+      <c r="B34" s="83" t="s">
+        <v>465</v>
       </c>
       <c r="C34" s="6">
         <v>43430</v>
@@ -9044,23 +8942,21 @@
       <c r="F34" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="G34" s="46" t="s">
-        <v>84</v>
+      <c r="G34" s="48" t="s">
+        <v>334</v>
       </c>
       <c r="H34" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I34" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="J34" s="32" t="s">
-        <v>307</v>
-      </c>
-      <c r="K34" s="32" t="s">
-        <v>374</v>
-      </c>
-      <c r="L34" s="85" t="s">
-        <v>350</v>
+        <v>87</v>
+      </c>
+      <c r="J34" s="32"/>
+      <c r="K34" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="L34" s="32">
+        <v>1</v>
       </c>
       <c r="M34" s="32" t="s">
         <v>74</v>
@@ -9071,55 +8967,52 @@
       <c r="O34" s="21">
         <v>43440</v>
       </c>
-      <c r="P34" s="29">
-        <v>15</v>
-      </c>
-      <c r="Q34" s="82">
-        <f t="shared" si="0"/>
-        <v>22.5</v>
+      <c r="P34" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="82" t="s">
+        <v>141</v>
       </c>
       <c r="R34" s="41" t="s">
         <v>269</v>
       </c>
       <c r="S34" s="30"/>
       <c r="T34" s="30"/>
-      <c r="U34" s="32" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="U34" s="14"/>
+    </row>
+    <row r="35" spans="1:21" ht="182" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
-        <v>34</v>
-      </c>
-      <c r="B35" s="83" t="s">
-        <v>477</v>
+        <v>35</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>404</v>
       </c>
       <c r="C35" s="6">
         <v>43430</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G35" s="48" t="s">
-        <v>338</v>
+      <c r="G35" s="49" t="s">
+        <v>89</v>
       </c>
       <c r="H35" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I35" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="J35" s="32"/>
-      <c r="K35" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="L35" s="32">
+      <c r="I35" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="J35" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="K35" s="28"/>
+      <c r="L35" s="15">
         <v>1</v>
       </c>
       <c r="M35" s="32" t="s">
@@ -9134,28 +9027,35 @@
       <c r="P35" s="5">
         <v>0</v>
       </c>
-      <c r="Q35" s="82" t="s">
-        <v>141</v>
+      <c r="Q35" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R35" s="41" t="s">
-        <v>269</v>
-      </c>
-      <c r="S35" s="30"/>
-      <c r="T35" s="30"/>
-      <c r="U35" s="14"/>
-    </row>
-    <row r="36" spans="1:21" ht="185.25" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="S35" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="T35" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="U35" s="32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C36" s="6">
         <v>43430</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E36" s="32" t="s">
         <v>32</v>
@@ -9163,17 +9063,17 @@
       <c r="F36" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G36" s="49" t="s">
-        <v>89</v>
+      <c r="G36" s="46" t="s">
+        <v>92</v>
       </c>
       <c r="H36" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I36" s="28" t="s">
-        <v>90</v>
+      <c r="I36" s="32" t="s">
+        <v>93</v>
       </c>
       <c r="J36" s="28" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K36" s="28"/>
       <c r="L36" s="15">
@@ -9188,32 +9088,32 @@
       <c r="O36" s="21">
         <v>43440</v>
       </c>
-      <c r="P36" s="5">
-        <v>0</v>
+      <c r="P36" s="31">
+        <v>10</v>
       </c>
       <c r="Q36" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="R36" s="41" t="s">
-        <v>156</v>
+        <v>269</v>
       </c>
       <c r="S36" s="30" t="s">
-        <v>156</v>
+        <v>399</v>
       </c>
       <c r="T36" s="30" t="s">
-        <v>156</v>
+        <v>398</v>
       </c>
       <c r="U36" s="32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" ht="114" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="168" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C37" s="6">
         <v>43430</v>
@@ -9224,23 +9124,23 @@
       <c r="E37" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="23" t="s">
+      <c r="F37" s="32" t="s">
         <v>26</v>
       </c>
       <c r="G37" s="46" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H37" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I37" s="32" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J37" s="28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K37" s="28"/>
-      <c r="L37" s="15">
+      <c r="L37" s="32">
         <v>1</v>
       </c>
       <c r="M37" s="32" t="s">
@@ -9253,31 +9153,31 @@
         <v>43440</v>
       </c>
       <c r="P37" s="31">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="79">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R37" s="41" t="s">
-        <v>269</v>
+        <v>156</v>
       </c>
       <c r="S37" s="30" t="s">
-        <v>406</v>
+        <v>156</v>
       </c>
       <c r="T37" s="30" t="s">
-        <v>405</v>
+        <v>156</v>
       </c>
       <c r="U37" s="32" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" ht="171" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C38" s="6">
         <v>43430</v>
@@ -9292,7 +9192,7 @@
         <v>26</v>
       </c>
       <c r="G38" s="46" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H38" s="14" t="s">
         <v>38</v>
@@ -9301,7 +9201,7 @@
         <v>95</v>
       </c>
       <c r="J38" s="28" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K38" s="28"/>
       <c r="L38" s="32">
@@ -9336,40 +9236,40 @@
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="C39" s="6">
         <v>43430</v>
       </c>
-      <c r="D39" s="32" t="s">
-        <v>79</v>
+      <c r="D39" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G39" s="46" t="s">
-        <v>96</v>
+        <v>33</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>98</v>
       </c>
       <c r="H39" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I39" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="J39" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="K39" s="28"/>
+        <v>99</v>
+      </c>
+      <c r="J39" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="K39" s="32"/>
       <c r="L39" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M39" s="32" t="s">
         <v>74</v>
@@ -9380,32 +9280,22 @@
       <c r="O39" s="21">
         <v>43440</v>
       </c>
-      <c r="P39" s="31">
-        <v>0</v>
-      </c>
+      <c r="P39" s="31"/>
       <c r="Q39" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R39" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="S39" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="T39" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="U39" s="32" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R39" s="41"/>
+      <c r="S39" s="30"/>
+      <c r="T39" s="30"/>
+      <c r="U39" s="32"/>
+    </row>
+    <row r="40" spans="1:21" ht="70" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
-        <v>39</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>389</v>
+        <v>40</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>487</v>
       </c>
       <c r="C40" s="6">
         <v>43430</v>
@@ -9414,13 +9304,13 @@
         <v>97</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="F40" s="32" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>98</v>
+        <v>335</v>
       </c>
       <c r="H40" s="14" t="s">
         <v>38</v>
@@ -9428,12 +9318,12 @@
       <c r="I40" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="J40" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="K40" s="32"/>
-      <c r="L40" s="32">
-        <v>2</v>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="L40" s="85" t="s">
+        <v>346</v>
       </c>
       <c r="M40" s="32" t="s">
         <v>74</v>
@@ -9444,50 +9334,50 @@
       <c r="O40" s="21">
         <v>43440</v>
       </c>
-      <c r="P40" s="31"/>
-      <c r="Q40" s="79">
+      <c r="P40" s="78" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q40" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R40" s="41"/>
+      <c r="R40" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="S40" s="30"/>
       <c r="T40" s="30"/>
       <c r="U40" s="32"/>
     </row>
-    <row r="41" spans="1:21" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
-        <v>40</v>
-      </c>
-      <c r="B41" s="31" t="s">
-        <v>475</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B41" s="31"/>
       <c r="C41" s="6">
-        <v>43430</v>
+        <v>43427</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E41" s="32" t="s">
         <v>15</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>339</v>
+        <v>101</v>
       </c>
       <c r="H41" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I41" s="32" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J41" s="32"/>
-      <c r="K41" s="32" t="s">
-        <v>375</v>
-      </c>
-      <c r="L41" s="85" t="s">
-        <v>351</v>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32" t="s">
+        <v>156</v>
       </c>
       <c r="M41" s="32" t="s">
         <v>74</v>
@@ -9498,8 +9388,8 @@
       <c r="O41" s="21">
         <v>43440</v>
       </c>
-      <c r="P41" s="78" t="s">
-        <v>141</v>
+      <c r="P41" s="31">
+        <v>0</v>
       </c>
       <c r="Q41" s="82">
         <f t="shared" si="0"/>
@@ -9512,11 +9402,13 @@
       <c r="T41" s="30"/>
       <c r="U41" s="32"/>
     </row>
-    <row r="42" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="56" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
-        <v>41</v>
-      </c>
-      <c r="B42" s="31"/>
+        <v>42</v>
+      </c>
+      <c r="B42" s="87" t="s">
+        <v>464</v>
+      </c>
       <c r="C42" s="6">
         <v>43427</v>
       </c>
@@ -9527,21 +9419,23 @@
         <v>15</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>101</v>
+        <v>336</v>
       </c>
       <c r="H42" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I42" s="32" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32" t="s">
-        <v>156</v>
+      <c r="K42" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="L42" s="32">
+        <v>2</v>
       </c>
       <c r="M42" s="32" t="s">
         <v>74</v>
@@ -9550,10 +9444,10 @@
         <v>20</v>
       </c>
       <c r="O42" s="21">
-        <v>43440</v>
-      </c>
-      <c r="P42" s="31">
-        <v>0</v>
+        <v>43452</v>
+      </c>
+      <c r="P42" s="78" t="s">
+        <v>141</v>
       </c>
       <c r="Q42" s="82">
         <f t="shared" si="0"/>
@@ -9566,12 +9460,12 @@
       <c r="T42" s="30"/>
       <c r="U42" s="32"/>
     </row>
-    <row r="43" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="252" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
-        <v>42</v>
-      </c>
-      <c r="B43" s="87" t="s">
-        <v>476</v>
+        <v>43</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>388</v>
       </c>
       <c r="C43" s="6">
         <v>43427</v>
@@ -9580,26 +9474,24 @@
         <v>100</v>
       </c>
       <c r="E43" s="32" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F43" s="32" t="s">
         <v>26</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>340</v>
+        <v>103</v>
       </c>
       <c r="H43" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I43" s="32" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="J43" s="32"/>
-      <c r="K43" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="L43" s="32">
-        <v>2</v>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32" t="s">
+        <v>140</v>
       </c>
       <c r="M43" s="32" t="s">
         <v>74</v>
@@ -9608,28 +9500,32 @@
         <v>20</v>
       </c>
       <c r="O43" s="21">
-        <v>43452</v>
-      </c>
-      <c r="P43" s="78" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q43" s="82">
+        <v>43440</v>
+      </c>
+      <c r="P43" s="52">
+        <v>60</v>
+      </c>
+      <c r="Q43" s="91">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R43" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="S43" s="30"/>
+        <v>90</v>
+      </c>
+      <c r="R43" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="S43" s="59" t="s">
+        <v>171</v>
+      </c>
       <c r="T43" s="30"/>
-      <c r="U43" s="32"/>
-    </row>
-    <row r="44" spans="1:21" ht="299.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="U43" s="32" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="112" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
-        <v>43</v>
-      </c>
-      <c r="B44" s="31" t="s">
-        <v>395</v>
+        <v>44</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>393</v>
       </c>
       <c r="C44" s="6">
         <v>43427</v>
@@ -9641,21 +9537,21 @@
         <v>39</v>
       </c>
       <c r="F44" s="32" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H44" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I44" s="32" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J44" s="32"/>
       <c r="K44" s="32"/>
-      <c r="L44" s="32" t="s">
-        <v>140</v>
+      <c r="L44" s="32">
+        <v>2</v>
       </c>
       <c r="M44" s="32" t="s">
         <v>74</v>
@@ -9666,30 +9562,28 @@
       <c r="O44" s="21">
         <v>43440</v>
       </c>
-      <c r="P44" s="52">
+      <c r="P44" s="31">
         <v>60</v>
       </c>
-      <c r="Q44" s="91">
+      <c r="Q44" s="79">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="R44" s="41" t="s">
+      <c r="R44" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="S44" s="59" t="s">
-        <v>171</v>
-      </c>
+      <c r="S44" s="30"/>
       <c r="T44" s="30"/>
       <c r="U44" s="32" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="C45" s="6">
         <v>43427</v>
@@ -9701,21 +9595,21 @@
         <v>39</v>
       </c>
       <c r="F45" s="32" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H45" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I45" s="32" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="J45" s="32"/>
       <c r="K45" s="32"/>
       <c r="L45" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M45" s="32" t="s">
         <v>74</v>
@@ -9727,27 +9621,31 @@
         <v>43440</v>
       </c>
       <c r="P45" s="31">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="79">
+        <v>18</v>
+      </c>
+      <c r="Q45" s="91">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="R45" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="S45" s="30"/>
-      <c r="T45" s="30"/>
+      <c r="S45" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="T45" s="30" t="s">
+        <v>181</v>
+      </c>
       <c r="U45" s="32" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C46" s="6">
         <v>43427</v>
@@ -9762,13 +9660,13 @@
         <v>26</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>106</v>
+        <v>188</v>
       </c>
       <c r="H46" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I46" s="32" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="J46" s="32"/>
       <c r="K46" s="32"/>
@@ -9782,34 +9680,34 @@
         <v>20</v>
       </c>
       <c r="O46" s="21">
-        <v>43440</v>
-      </c>
-      <c r="P46" s="31">
-        <v>18</v>
+        <v>43452</v>
+      </c>
+      <c r="P46" s="40">
+        <v>20</v>
       </c>
       <c r="Q46" s="91">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="R46" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="R46" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="S46" s="63" t="s">
-        <v>187</v>
+      <c r="S46" s="75" t="s">
+        <v>392</v>
       </c>
       <c r="T46" s="30" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="U46" s="32" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>398</v>
+        <v>479</v>
       </c>
       <c r="C47" s="6">
         <v>43427</v>
@@ -9824,54 +9722,51 @@
         <v>26</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="H47" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I47" s="32" t="s">
-        <v>85</v>
+        <v>154</v>
       </c>
       <c r="J47" s="32"/>
       <c r="K47" s="32"/>
       <c r="L47" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M47" s="32" t="s">
         <v>74</v>
       </c>
       <c r="N47" s="32" t="s">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="O47" s="21">
         <v>43452</v>
       </c>
-      <c r="P47" s="40">
-        <v>20</v>
-      </c>
-      <c r="Q47" s="91">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="R47" s="41" t="s">
+      <c r="P47" s="31"/>
+      <c r="Q47" s="82" t="s">
+        <v>478</v>
+      </c>
+      <c r="R47" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="S47" s="75" t="s">
-        <v>399</v>
+      <c r="S47" s="62" t="s">
+        <v>171</v>
       </c>
       <c r="T47" s="30" t="s">
-        <v>156</v>
+        <v>401</v>
       </c>
       <c r="U47" s="32" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>494</v>
+        <v>389</v>
       </c>
       <c r="C48" s="6">
         <v>43427</v>
@@ -9886,51 +9781,54 @@
         <v>26</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="H48" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I48" s="32" t="s">
-        <v>154</v>
+        <v>85</v>
       </c>
       <c r="J48" s="32"/>
       <c r="K48" s="32"/>
       <c r="L48" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M48" s="32" t="s">
         <v>74</v>
       </c>
       <c r="N48" s="32" t="s">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="O48" s="21">
-        <v>43452</v>
-      </c>
-      <c r="P48" s="31"/>
-      <c r="Q48" s="82" t="s">
-        <v>493</v>
-      </c>
-      <c r="R48" s="30" t="s">
+        <v>43440</v>
+      </c>
+      <c r="P48" s="56">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="91">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="R48" s="57" t="s">
         <v>269</v>
       </c>
-      <c r="S48" s="62" t="s">
-        <v>171</v>
-      </c>
-      <c r="T48" s="30" t="s">
-        <v>408</v>
-      </c>
-      <c r="U48" s="32" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S48" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="T48" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="U48" s="19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="C49" s="6">
         <v>43427</v>
@@ -9939,22 +9837,24 @@
         <v>100</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F49" s="32" t="s">
         <v>26</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H49" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I49" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="J49" s="32"/>
-      <c r="K49" s="32"/>
+      <c r="I49" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="J49" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="K49" s="28"/>
       <c r="L49" s="32">
         <v>1</v>
       </c>
@@ -9967,33 +9867,30 @@
       <c r="O49" s="21">
         <v>43440</v>
       </c>
-      <c r="P49" s="56">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="91">
-        <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="R49" s="57" t="s">
-        <v>269</v>
-      </c>
-      <c r="S49" s="64" t="s">
-        <v>186</v>
-      </c>
-      <c r="T49" s="54" t="s">
-        <v>197</v>
-      </c>
-      <c r="U49" s="19" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="P49" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="79" t="s">
+        <v>141</v>
+      </c>
+      <c r="R49" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="S49" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="T49" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="U49" s="32" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
-        <v>49</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>412</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B50" s="31"/>
       <c r="C50" s="6">
         <v>43427</v>
       </c>
@@ -10001,26 +9898,24 @@
         <v>100</v>
       </c>
       <c r="E50" s="32" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F50" s="32" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H50" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I50" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="J50" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="K50" s="28"/>
+      <c r="I50" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
       <c r="L50" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M50" s="32" t="s">
         <v>74</v>
@@ -10031,30 +9926,25 @@
       <c r="O50" s="21">
         <v>43440</v>
       </c>
-      <c r="P50" s="31">
+      <c r="P50" s="78" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q50" s="82">
+        <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="Q50" s="79" t="s">
-        <v>141</v>
       </c>
       <c r="R50" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="S50" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="T50" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="U50" s="32" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S50" s="30"/>
+      <c r="T50" s="30"/>
+      <c r="U50" s="32"/>
+    </row>
+    <row r="51" spans="1:21" ht="196" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
-        <v>50</v>
-      </c>
-      <c r="B51" s="31"/>
+        <v>51</v>
+      </c>
+      <c r="B51" s="5"/>
       <c r="C51" s="6">
         <v>43427</v>
       </c>
@@ -10062,24 +9952,24 @@
         <v>100</v>
       </c>
       <c r="E51" s="32" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="F51" s="32" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H51" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I51" s="32" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="J51" s="32"/>
       <c r="K51" s="32"/>
       <c r="L51" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M51" s="32" t="s">
         <v>74</v>
@@ -10090,25 +9980,23 @@
       <c r="O51" s="21">
         <v>43440</v>
       </c>
-      <c r="P51" s="78" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q51" s="82">
+      <c r="P51" s="31"/>
+      <c r="Q51" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R51" s="30" t="s">
-        <v>156</v>
-      </c>
+      <c r="R51" s="30"/>
       <c r="S51" s="30"/>
       <c r="T51" s="30"/>
       <c r="U51" s="32"/>
     </row>
-    <row r="52" spans="1:21" ht="199.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" ht="56" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
-        <v>51</v>
-      </c>
-      <c r="B52" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="B52" s="83" t="s">
+        <v>286</v>
+      </c>
       <c r="C52" s="6">
         <v>43427</v>
       </c>
@@ -10116,22 +10004,24 @@
         <v>100</v>
       </c>
       <c r="E52" s="32" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="F52" s="32" t="s">
         <v>26</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H52" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I52" s="32" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="J52" s="32"/>
-      <c r="K52" s="32"/>
+      <c r="K52" s="19" t="s">
+        <v>366</v>
+      </c>
       <c r="L52" s="32">
         <v>1</v>
       </c>
@@ -10144,81 +10034,77 @@
       <c r="O52" s="21">
         <v>43440</v>
       </c>
-      <c r="P52" s="31"/>
-      <c r="Q52" s="79">
+      <c r="P52" s="31">
+        <v>12</v>
+      </c>
+      <c r="Q52" s="82">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="R52" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="S52" s="30"/>
+      <c r="T52" s="30"/>
+      <c r="U52" s="32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" ht="42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="5">
+        <v>53</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="6">
+        <v>43427</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E53" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F53" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I53" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="32">
+        <v>1</v>
+      </c>
+      <c r="M53" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="N53" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="O53" s="21">
+        <v>43440</v>
+      </c>
+      <c r="P53" s="31"/>
+      <c r="Q53" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R52" s="30"/>
-      <c r="S52" s="30"/>
-      <c r="T52" s="30"/>
-      <c r="U52" s="32"/>
-    </row>
-    <row r="53" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
-        <v>52</v>
-      </c>
-      <c r="B53" s="83" t="s">
-        <v>288</v>
-      </c>
-      <c r="C53" s="6">
-        <v>43427</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E53" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F53" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G53" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="H53" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="I53" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="J53" s="32"/>
-      <c r="K53" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="L53" s="32">
-        <v>1</v>
-      </c>
-      <c r="M53" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="N53" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="O53" s="21">
-        <v>43440</v>
-      </c>
-      <c r="P53" s="31">
-        <v>12</v>
-      </c>
-      <c r="Q53" s="82">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="R53" s="30" t="s">
-        <v>269</v>
-      </c>
+      <c r="R53" s="30"/>
       <c r="S53" s="30"/>
       <c r="T53" s="30"/>
-      <c r="U53" s="32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="U53" s="32"/>
+    </row>
+    <row r="54" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
-        <v>53</v>
-      </c>
-      <c r="B54" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="B54" s="31"/>
       <c r="C54" s="6">
         <v>43427</v>
       </c>
@@ -10226,24 +10112,24 @@
         <v>100</v>
       </c>
       <c r="E54" s="32" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="F54" s="32" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H54" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I54" s="32" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="J54" s="32"/>
       <c r="K54" s="32"/>
       <c r="L54" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M54" s="32" t="s">
         <v>74</v>
@@ -10252,23 +10138,29 @@
         <v>20</v>
       </c>
       <c r="O54" s="21">
-        <v>43440</v>
-      </c>
-      <c r="P54" s="31"/>
-      <c r="Q54" s="79">
+        <v>43452</v>
+      </c>
+      <c r="P54" s="78" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q54" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R54" s="30"/>
+      <c r="R54" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="S54" s="30"/>
       <c r="T54" s="30"/>
       <c r="U54" s="32"/>
     </row>
-    <row r="55" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" ht="70" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
-        <v>54</v>
-      </c>
-      <c r="B55" s="31"/>
+        <v>55</v>
+      </c>
+      <c r="B55" s="83" t="s">
+        <v>489</v>
+      </c>
       <c r="C55" s="6">
         <v>43427</v>
       </c>
@@ -10279,21 +10171,23 @@
         <v>15</v>
       </c>
       <c r="F55" s="32" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G55" s="19" t="s">
-        <v>117</v>
+        <v>488</v>
       </c>
       <c r="H55" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I55" s="32" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="J55" s="32"/>
-      <c r="K55" s="32"/>
+      <c r="K55" s="19" t="s">
+        <v>366</v>
+      </c>
       <c r="L55" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M55" s="32" t="s">
         <v>74</v>
@@ -10304,26 +10198,27 @@
       <c r="O55" s="21">
         <v>43452</v>
       </c>
-      <c r="P55" s="78" t="s">
+      <c r="P55" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="82" t="s">
         <v>141</v>
       </c>
-      <c r="Q55" s="82">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="R55" s="30" t="s">
-        <v>156</v>
+        <v>269</v>
       </c>
       <c r="S55" s="30"/>
       <c r="T55" s="30"/>
-      <c r="U55" s="32"/>
-    </row>
-    <row r="56" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="U55" s="32" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" ht="56" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>55</v>
       </c>
-      <c r="B56" s="83" t="s">
-        <v>478</v>
+      <c r="B56" s="84" t="s">
+        <v>490</v>
       </c>
       <c r="C56" s="6">
         <v>43427</v>
@@ -10338,7 +10233,7 @@
         <v>26</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="H56" s="14" t="s">
         <v>38</v>
@@ -10348,10 +10243,10 @@
       </c>
       <c r="J56" s="32"/>
       <c r="K56" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="L56" s="32">
-        <v>1</v>
+        <v>366</v>
+      </c>
+      <c r="L56" s="32" t="s">
+        <v>140</v>
       </c>
       <c r="M56" s="32" t="s">
         <v>74</v>
@@ -10363,10 +10258,10 @@
         <v>43452</v>
       </c>
       <c r="P56" s="31">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q56" s="82" t="s">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="R56" s="30" t="s">
         <v>269</v>
@@ -10374,15 +10269,15 @@
       <c r="S56" s="30"/>
       <c r="T56" s="30"/>
       <c r="U56" s="32" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" ht="42" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
-        <v>55</v>
-      </c>
-      <c r="B57" s="83" t="s">
-        <v>479</v>
+        <v>56</v>
+      </c>
+      <c r="B57" s="84" t="s">
+        <v>491</v>
       </c>
       <c r="C57" s="6">
         <v>43427</v>
@@ -10397,20 +10292,20 @@
         <v>26</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>356</v>
+        <v>119</v>
       </c>
       <c r="H57" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I57" s="32" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="J57" s="32"/>
-      <c r="K57" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="L57" s="32" t="s">
-        <v>140</v>
+      <c r="K57" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="L57" s="85" t="s">
+        <v>347</v>
       </c>
       <c r="M57" s="32" t="s">
         <v>74</v>
@@ -10419,13 +10314,14 @@
         <v>20</v>
       </c>
       <c r="O57" s="21">
-        <v>43452</v>
+        <v>43440</v>
       </c>
       <c r="P57" s="31">
-        <v>20</v>
-      </c>
-      <c r="Q57" s="82" t="s">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="Q57" s="82">
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="R57" s="30" t="s">
         <v>269</v>
@@ -10433,16 +10329,14 @@
       <c r="S57" s="30"/>
       <c r="T57" s="30"/>
       <c r="U57" s="32" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
-        <v>56</v>
-      </c>
-      <c r="B58" s="84" t="s">
-        <v>480</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B58" s="31"/>
       <c r="C58" s="6">
         <v>43427</v>
       </c>
@@ -10453,23 +10347,21 @@
         <v>15</v>
       </c>
       <c r="F58" s="32" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G58" s="19" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H58" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I58" s="32" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="J58" s="32"/>
-      <c r="K58" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="L58" s="85" t="s">
-        <v>352</v>
+      <c r="K58" s="32"/>
+      <c r="L58" s="32">
+        <v>2</v>
       </c>
       <c r="M58" s="32" t="s">
         <v>74</v>
@@ -10480,25 +10372,23 @@
       <c r="O58" s="21">
         <v>43440</v>
       </c>
-      <c r="P58" s="31">
-        <v>40</v>
+      <c r="P58" s="78" t="s">
+        <v>141</v>
       </c>
       <c r="Q58" s="82">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="R58" s="30" t="s">
-        <v>269</v>
+        <v>156</v>
       </c>
       <c r="S58" s="30"/>
       <c r="T58" s="30"/>
-      <c r="U58" s="32" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
+      <c r="U58" s="32"/>
+    </row>
+    <row r="59" spans="1:21" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" s="31"/>
       <c r="C59" s="6">
@@ -10514,13 +10404,13 @@
         <v>33</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H59" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I59" s="32" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="J59" s="32"/>
       <c r="K59" s="32"/>
@@ -10550,36 +10440,40 @@
       <c r="T59" s="30"/>
       <c r="U59" s="32"/>
     </row>
-    <row r="60" spans="1:21" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
-        <v>58</v>
-      </c>
-      <c r="B60" s="31"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>460</v>
+      </c>
       <c r="C60" s="6">
-        <v>43427</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>100</v>
+        <v>43432</v>
+      </c>
+      <c r="D60" s="32" t="s">
+        <v>124</v>
       </c>
       <c r="E60" s="32" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="F60" s="32" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G60" s="19" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H60" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I60" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="J60" s="32"/>
+        <v>85</v>
+      </c>
+      <c r="J60" s="32" t="s">
+        <v>238</v>
+      </c>
       <c r="K60" s="32"/>
       <c r="L60" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M60" s="32" t="s">
         <v>74</v>
@@ -10590,41 +10484,40 @@
       <c r="O60" s="21">
         <v>43440</v>
       </c>
-      <c r="P60" s="78" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q60" s="82">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="P60" s="31">
+        <v>4</v>
+      </c>
+      <c r="Q60" s="81" t="s">
+        <v>461</v>
       </c>
       <c r="R60" s="30" t="s">
-        <v>156</v>
+        <v>269</v>
       </c>
       <c r="S60" s="30"/>
       <c r="T60" s="30"/>
       <c r="U60" s="32"/>
     </row>
-    <row r="61" spans="1:21" ht="114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
-        <v>59</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>470</v>
+        <v>60</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>406</v>
       </c>
       <c r="C61" s="6">
         <v>43432</v>
       </c>
-      <c r="D61" s="32" t="s">
-        <v>124</v>
+      <c r="D61" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="E61" s="32" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="F61" s="32" t="s">
         <v>26</v>
       </c>
       <c r="G61" s="19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H61" s="14" t="s">
         <v>38</v>
@@ -10632,10 +10525,10 @@
       <c r="I61" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="J61" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="K61" s="32"/>
+      <c r="J61" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="K61" s="28"/>
       <c r="L61" s="32">
         <v>1</v>
       </c>
@@ -10649,24 +10542,30 @@
         <v>43440</v>
       </c>
       <c r="P61" s="31">
-        <v>4</v>
-      </c>
-      <c r="Q61" s="81" t="s">
-        <v>471</v>
+        <v>0</v>
+      </c>
+      <c r="Q61" s="30">
+        <v>0</v>
       </c>
       <c r="R61" s="30" t="s">
-        <v>269</v>
-      </c>
-      <c r="S61" s="30"/>
-      <c r="T61" s="30"/>
-      <c r="U61" s="32"/>
-    </row>
-    <row r="62" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="S61" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="T61" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="U61" s="32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="C62" s="6">
         <v>43432</v>
@@ -10675,13 +10574,13 @@
         <v>100</v>
       </c>
       <c r="E62" s="32" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F62" s="32" t="s">
         <v>26</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H62" s="14" t="s">
         <v>38</v>
@@ -10689,10 +10588,8 @@
       <c r="I62" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="J62" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="K62" s="28"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="32"/>
       <c r="L62" s="32">
         <v>1</v>
       </c>
@@ -10705,57 +10602,59 @@
       <c r="O62" s="21">
         <v>43440</v>
       </c>
-      <c r="P62" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="30">
-        <v>0</v>
-      </c>
-      <c r="R62" s="30" t="s">
+      <c r="P62" s="40">
+        <v>20</v>
+      </c>
+      <c r="Q62" s="41">
+        <v>30</v>
+      </c>
+      <c r="R62" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="S62" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="T62" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="U62" s="32" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" ht="98" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="5">
+        <v>62</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="S62" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="T62" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="U62" s="32" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5">
-        <v>61</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>401</v>
       </c>
       <c r="C63" s="6">
         <v>43432</v>
       </c>
-      <c r="D63" s="14" t="s">
-        <v>100</v>
+      <c r="D63" s="32" t="s">
+        <v>130</v>
       </c>
       <c r="E63" s="32" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="F63" s="32" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H63" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I63" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="J63" s="32"/>
+        <v>132</v>
+      </c>
+      <c r="J63" s="32" t="s">
+        <v>229</v>
+      </c>
       <c r="K63" s="32"/>
       <c r="L63" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M63" s="32" t="s">
         <v>74</v>
@@ -10766,28 +10665,16 @@
       <c r="O63" s="21">
         <v>43440</v>
       </c>
-      <c r="P63" s="40">
-        <v>20</v>
-      </c>
-      <c r="Q63" s="41">
-        <v>30</v>
-      </c>
-      <c r="R63" s="41" t="s">
-        <v>269</v>
-      </c>
-      <c r="S63" s="63" t="s">
-        <v>184</v>
-      </c>
-      <c r="T63" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="U63" s="32" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P63" s="31"/>
+      <c r="Q63" s="33"/>
+      <c r="R63" s="33"/>
+      <c r="S63" s="33"/>
+      <c r="T63" s="33"/>
+      <c r="U63" s="32"/>
+    </row>
+    <row r="64" spans="1:21" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>156</v>
@@ -10796,7 +10683,7 @@
         <v>43432</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E64" s="32" t="s">
         <v>125</v>
@@ -10805,20 +10692,20 @@
         <v>33</v>
       </c>
       <c r="G64" s="19" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="H64" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I64" s="32" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J64" s="32" t="s">
         <v>229</v>
       </c>
       <c r="K64" s="32"/>
-      <c r="L64" s="32">
-        <v>2</v>
+      <c r="L64" s="32" t="s">
+        <v>156</v>
       </c>
       <c r="M64" s="32" t="s">
         <v>74</v>
@@ -10836,78 +10723,90 @@
       <c r="T64" s="33"/>
       <c r="U64" s="32"/>
     </row>
-    <row r="65" spans="1:23" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" ht="210" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>156</v>
+        <v>407</v>
       </c>
       <c r="C65" s="6">
-        <v>43432</v>
+        <v>43440</v>
       </c>
       <c r="D65" s="32" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E65" s="32" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="F65" s="32" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G65" s="19" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H65" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I65" s="32" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="J65" s="32" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="K65" s="32"/>
-      <c r="L65" s="32" t="s">
-        <v>156</v>
+      <c r="L65" s="32">
+        <v>1</v>
       </c>
       <c r="M65" s="32" t="s">
         <v>74</v>
       </c>
       <c r="N65" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="O65" s="21">
+        <v>43452</v>
+      </c>
+      <c r="P65" s="31">
         <v>20</v>
       </c>
-      <c r="O65" s="21">
-        <v>43440</v>
-      </c>
-      <c r="P65" s="31"/>
-      <c r="Q65" s="33"/>
-      <c r="R65" s="33"/>
-      <c r="S65" s="33"/>
-      <c r="T65" s="33"/>
-      <c r="U65" s="32"/>
-    </row>
-    <row r="66" spans="1:23" ht="228" x14ac:dyDescent="0.25">
+      <c r="Q65" s="5">
+        <v>20</v>
+      </c>
+      <c r="R65" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="S65" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="T65" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="U65" s="32" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" ht="112" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
-        <v>64</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>414</v>
+        <v>65</v>
+      </c>
+      <c r="B66" s="84" t="s">
+        <v>287</v>
       </c>
       <c r="C66" s="6">
         <v>43440</v>
       </c>
-      <c r="D66" s="32" t="s">
-        <v>135</v>
+      <c r="D66" s="14" t="s">
+        <v>136</v>
       </c>
       <c r="E66" s="32" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F66" s="32" t="s">
         <v>26</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="H66" s="14" t="s">
         <v>38</v>
@@ -10915,47 +10814,44 @@
       <c r="I66" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="J66" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="K66" s="32"/>
-      <c r="L66" s="32">
-        <v>1</v>
+      <c r="J66" s="32"/>
+      <c r="K66" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="L66" s="32" t="s">
+        <v>140</v>
       </c>
       <c r="M66" s="32" t="s">
         <v>74</v>
       </c>
       <c r="N66" s="32" t="s">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="O66" s="21">
         <v>43452</v>
       </c>
       <c r="P66" s="31">
-        <v>20</v>
-      </c>
-      <c r="Q66" s="5">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="Q66" s="82">
+        <f t="shared" ref="Q66" si="1">P66*1.5</f>
+        <v>45</v>
       </c>
       <c r="R66" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="S66" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="T66" s="5" t="s">
-        <v>172</v>
-      </c>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
       <c r="U66" s="32" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" ht="114" hidden="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" ht="112" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
-        <v>65</v>
-      </c>
-      <c r="B67" s="84" t="s">
-        <v>289</v>
+        <v>66</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>412</v>
       </c>
       <c r="C67" s="6">
         <v>43440</v>
@@ -10964,7 +10860,7 @@
         <v>136</v>
       </c>
       <c r="E67" s="32" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="F67" s="32" t="s">
         <v>26</v>
@@ -10978,10 +10874,10 @@
       <c r="I67" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="J67" s="32"/>
-      <c r="K67" s="32" t="s">
-        <v>379</v>
-      </c>
+      <c r="J67" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="K67" s="32"/>
       <c r="L67" s="32" t="s">
         <v>140</v>
       </c>
@@ -10995,11 +10891,10 @@
         <v>43452</v>
       </c>
       <c r="P67" s="31">
-        <v>30</v>
-      </c>
-      <c r="Q67" s="82">
-        <f t="shared" ref="Q67" si="1">P67*1.5</f>
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="Q67" s="5">
+        <v>56</v>
       </c>
       <c r="R67" s="5" t="s">
         <v>269</v>
@@ -11007,30 +10902,30 @@
       <c r="S67" s="5"/>
       <c r="T67" s="5"/>
       <c r="U67" s="32" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23" ht="114" hidden="1" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" ht="266" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
-        <v>66</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>419</v>
+        <v>67</v>
+      </c>
+      <c r="B68" s="83" t="s">
+        <v>466</v>
       </c>
       <c r="C68" s="6">
-        <v>43440</v>
-      </c>
-      <c r="D68" s="14" t="s">
-        <v>136</v>
+        <v>43446</v>
+      </c>
+      <c r="D68" s="32" t="s">
+        <v>144</v>
       </c>
       <c r="E68" s="32" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="F68" s="32" t="s">
         <v>26</v>
       </c>
       <c r="G68" s="19" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H68" s="14" t="s">
         <v>38</v>
@@ -11038,12 +10933,12 @@
       <c r="I68" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="J68" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="K68" s="32"/>
-      <c r="L68" s="32" t="s">
-        <v>140</v>
+      <c r="J68" s="32"/>
+      <c r="K68" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="L68" s="32">
+        <v>1</v>
       </c>
       <c r="M68" s="32" t="s">
         <v>74</v>
@@ -11052,13 +10947,14 @@
         <v>20</v>
       </c>
       <c r="O68" s="21">
-        <v>43452</v>
+        <v>43446</v>
       </c>
       <c r="P68" s="31">
-        <v>40</v>
-      </c>
-      <c r="Q68" s="5">
-        <v>56</v>
+        <v>12</v>
+      </c>
+      <c r="Q68" s="82">
+        <f t="shared" ref="Q68:Q70" si="2">P68*1.5</f>
+        <v>18</v>
       </c>
       <c r="R68" s="5" t="s">
         <v>269</v>
@@ -11066,15 +10962,15 @@
       <c r="S68" s="5"/>
       <c r="T68" s="5"/>
       <c r="U68" s="32" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" ht="285" hidden="1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" ht="56" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" s="83" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="C69" s="6">
         <v>43446</v>
@@ -11089,7 +10985,7 @@
         <v>26</v>
       </c>
       <c r="G69" s="19" t="s">
-        <v>143</v>
+        <v>337</v>
       </c>
       <c r="H69" s="14" t="s">
         <v>38</v>
@@ -11099,7 +10995,7 @@
       </c>
       <c r="J69" s="32"/>
       <c r="K69" s="19" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="L69" s="32">
         <v>1</v>
@@ -11114,33 +11010,31 @@
         <v>43446</v>
       </c>
       <c r="P69" s="31">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="Q69" s="82">
-        <f t="shared" ref="Q69:Q71" si="2">P69*1.5</f>
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="R69" s="5" t="s">
         <v>269</v>
       </c>
       <c r="S69" s="5"/>
       <c r="T69" s="5"/>
-      <c r="U69" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23" ht="57" hidden="1" x14ac:dyDescent="0.25">
+      <c r="U69" s="32"/>
+    </row>
+    <row r="70" spans="1:23" ht="126" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" s="83" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="C70" s="6">
-        <v>43446</v>
+        <v>43451</v>
       </c>
       <c r="D70" s="32" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E70" s="32" t="s">
         <v>15</v>
@@ -11149,7 +11043,7 @@
         <v>26</v>
       </c>
       <c r="G70" s="19" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H70" s="14" t="s">
         <v>38</v>
@@ -11159,7 +11053,7 @@
       </c>
       <c r="J70" s="32"/>
       <c r="K70" s="19" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="L70" s="32">
         <v>1</v>
@@ -11171,28 +11065,30 @@
         <v>20</v>
       </c>
       <c r="O70" s="21">
-        <v>43446</v>
+        <v>43451</v>
       </c>
       <c r="P70" s="31">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q70" s="82">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="R70" s="5" t="s">
         <v>269</v>
       </c>
       <c r="S70" s="5"/>
       <c r="T70" s="5"/>
-      <c r="U70" s="32"/>
-    </row>
-    <row r="71" spans="1:23" ht="142.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="U70" s="32" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" ht="168" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
-        <v>69</v>
-      </c>
-      <c r="B71" s="83" t="s">
-        <v>483</v>
+        <v>70</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="C71" s="6">
         <v>43451</v>
@@ -11201,13 +11097,13 @@
         <v>151</v>
       </c>
       <c r="E71" s="32" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="F71" s="32" t="s">
         <v>26</v>
       </c>
       <c r="G71" s="19" t="s">
-        <v>343</v>
+        <v>162</v>
       </c>
       <c r="H71" s="14" t="s">
         <v>38</v>
@@ -11215,10 +11111,10 @@
       <c r="I71" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="J71" s="32"/>
-      <c r="K71" s="19" t="s">
-        <v>373</v>
-      </c>
+      <c r="J71" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="K71" s="32"/>
       <c r="L71" s="32">
         <v>1</v>
       </c>
@@ -11229,14 +11125,13 @@
         <v>20</v>
       </c>
       <c r="O71" s="21">
-        <v>43451</v>
+        <v>43452</v>
       </c>
       <c r="P71" s="31">
-        <v>10</v>
-      </c>
-      <c r="Q71" s="82">
-        <f t="shared" si="2"/>
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="Q71" s="5">
+        <v>12</v>
       </c>
       <c r="R71" s="5" t="s">
         <v>269</v>
@@ -11244,15 +11139,17 @@
       <c r="S71" s="5"/>
       <c r="T71" s="5"/>
       <c r="U71" s="32" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" ht="171" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="V71" s="5"/>
+      <c r="W71" s="32"/>
+    </row>
+    <row r="72" spans="1:23" ht="168" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
-        <v>70</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>388</v>
+        <v>71</v>
+      </c>
+      <c r="B72" s="83" t="s">
+        <v>288</v>
       </c>
       <c r="C72" s="6">
         <v>43451</v>
@@ -11261,13 +11158,13 @@
         <v>151</v>
       </c>
       <c r="E72" s="32" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="F72" s="32" t="s">
         <v>26</v>
       </c>
       <c r="G72" s="19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H72" s="14" t="s">
         <v>38</v>
@@ -11275,10 +11172,10 @@
       <c r="I72" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="J72" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="K72" s="32"/>
+      <c r="J72" s="32"/>
+      <c r="K72" s="19" t="s">
+        <v>366</v>
+      </c>
       <c r="L72" s="32">
         <v>1</v>
       </c>
@@ -11294,110 +11191,106 @@
       <c r="P72" s="31">
         <v>6</v>
       </c>
-      <c r="Q72" s="5">
-        <v>12</v>
+      <c r="Q72" s="82">
+        <f t="shared" ref="Q72" si="3">P72*1.5</f>
+        <v>9</v>
       </c>
       <c r="R72" s="5" t="s">
         <v>269</v>
       </c>
       <c r="S72" s="5"/>
       <c r="T72" s="5"/>
-      <c r="U72" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="V72" s="5"/>
-      <c r="W72" s="32"/>
-    </row>
-    <row r="73" spans="1:23" ht="171" hidden="1" x14ac:dyDescent="0.25">
+      <c r="U72" s="5"/>
+      <c r="V72" s="39"/>
+      <c r="W72" s="28"/>
+    </row>
+    <row r="73" spans="1:23" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
-        <v>71</v>
-      </c>
-      <c r="B73" s="83" t="s">
-        <v>290</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B73" s="31"/>
       <c r="C73" s="6">
-        <v>43451</v>
+        <v>43454</v>
       </c>
       <c r="D73" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="E73" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="E73" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F73" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G73" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="H73" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G73" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="H73" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I73" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="J73" s="32"/>
-      <c r="K73" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="L73" s="32">
-        <v>1</v>
-      </c>
-      <c r="M73" s="32" t="s">
+      <c r="I73" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="J73" s="28"/>
+      <c r="K73" s="28"/>
+      <c r="L73" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="M73" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="N73" s="32" t="s">
+      <c r="N73" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O73" s="21">
+      <c r="O73" s="38">
         <v>43452</v>
       </c>
-      <c r="P73" s="31">
-        <v>6</v>
-      </c>
-      <c r="Q73" s="82">
-        <f t="shared" ref="Q73" si="3">P73*1.5</f>
-        <v>9</v>
+      <c r="P73" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="5">
+        <v>0</v>
       </c>
       <c r="R73" s="5" t="s">
-        <v>269</v>
+        <v>156</v>
       </c>
       <c r="S73" s="5"/>
       <c r="T73" s="5"/>
       <c r="U73" s="5"/>
-      <c r="V73" s="39"/>
-      <c r="W73" s="28"/>
-    </row>
-    <row r="74" spans="1:23" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="V73" s="5"/>
+      <c r="W73" s="32"/>
+    </row>
+    <row r="74" spans="1:23" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
-        <v>72</v>
-      </c>
-      <c r="B74" s="31"/>
-      <c r="C74" s="6">
+        <v>73</v>
+      </c>
+      <c r="B74" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="C74" s="37">
         <v>43454</v>
       </c>
-      <c r="D74" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="E74" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="F74" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G74" s="32" t="s">
-        <v>168</v>
+      <c r="D74" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="E74" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="F74" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="H74" s="15" t="s">
         <v>38</v>
       </c>
       <c r="I74" s="28" t="s">
-        <v>175</v>
+        <v>85</v>
       </c>
       <c r="J74" s="28"/>
       <c r="K74" s="28"/>
-      <c r="L74" s="28" t="s">
-        <v>156</v>
+      <c r="L74" s="28">
+        <v>1</v>
       </c>
       <c r="M74" s="28" t="s">
         <v>74</v>
@@ -11408,103 +11301,107 @@
       <c r="O74" s="38">
         <v>43452</v>
       </c>
-      <c r="P74" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="5">
-        <v>0</v>
-      </c>
-      <c r="R74" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="S74" s="5"/>
-      <c r="T74" s="5"/>
-      <c r="U74" s="5"/>
-      <c r="V74" s="5"/>
-      <c r="W74" s="32"/>
-    </row>
-    <row r="75" spans="1:23" ht="57" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P74" s="40">
+        <v>20</v>
+      </c>
+      <c r="Q74" s="39">
+        <v>30</v>
+      </c>
+      <c r="R74" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="S74" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="T74" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="U74" s="65" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" ht="154" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
-        <v>73</v>
-      </c>
-      <c r="B75" s="39" t="s">
-        <v>402</v>
-      </c>
-      <c r="C75" s="37">
+        <v>74</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C75" s="6">
         <v>43454</v>
       </c>
-      <c r="D75" s="28" t="s">
+      <c r="D75" s="32" t="s">
         <v>169</v>
       </c>
       <c r="E75" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="F75" s="28" t="s">
+      <c r="F75" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="G75" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="H75" s="15" t="s">
+      <c r="G75" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="H75" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I75" s="28" t="s">
+      <c r="I75" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="J75" s="28"/>
-      <c r="K75" s="28"/>
-      <c r="L75" s="28">
+      <c r="J75" s="32"/>
+      <c r="K75" s="32"/>
+      <c r="L75" s="32">
         <v>1</v>
       </c>
-      <c r="M75" s="28" t="s">
+      <c r="M75" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="N75" s="28" t="s">
+      <c r="N75" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="O75" s="38">
+      <c r="O75" s="21">
         <v>43452</v>
       </c>
       <c r="P75" s="40">
-        <v>20</v>
-      </c>
-      <c r="Q75" s="39">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="Q75" s="41">
+        <v>15</v>
       </c>
       <c r="R75" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="S75" s="62" t="s">
-        <v>171</v>
-      </c>
-      <c r="T75" s="39" t="s">
-        <v>172</v>
+      <c r="S75" s="75" t="s">
+        <v>224</v>
+      </c>
+      <c r="T75" s="5" t="s">
+        <v>183</v>
       </c>
       <c r="U75" s="65" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" ht="196" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
-        <v>74</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>403</v>
+        <v>75</v>
+      </c>
+      <c r="B76" s="87" t="s">
+        <v>492</v>
       </c>
       <c r="C76" s="6">
-        <v>43454</v>
+        <v>43465</v>
       </c>
       <c r="D76" s="32" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E76" s="32" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F76" s="32" t="s">
         <v>26</v>
       </c>
       <c r="G76" s="32" t="s">
-        <v>173</v>
+        <v>493</v>
       </c>
       <c r="H76" s="14" t="s">
         <v>38</v>
@@ -11513,44 +11410,43 @@
         <v>85</v>
       </c>
       <c r="J76" s="32"/>
-      <c r="K76" s="32"/>
-      <c r="L76" s="32">
-        <v>1</v>
+      <c r="K76" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="L76" s="85" t="s">
+        <v>347</v>
       </c>
       <c r="M76" s="32" t="s">
         <v>74</v>
       </c>
       <c r="N76" s="32" t="s">
-        <v>20</v>
+        <v>189</v>
       </c>
       <c r="O76" s="21">
-        <v>43452</v>
-      </c>
-      <c r="P76" s="40">
-        <v>10</v>
-      </c>
-      <c r="Q76" s="41">
-        <v>15</v>
+        <v>43465</v>
+      </c>
+      <c r="P76" s="5">
+        <v>12</v>
+      </c>
+      <c r="Q76" s="82">
+        <f t="shared" ref="Q76" si="4">P76*1.5</f>
+        <v>18</v>
       </c>
       <c r="R76" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="S76" s="75" t="s">
-        <v>224</v>
-      </c>
-      <c r="T76" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="U76" s="65" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23" ht="213.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S76" s="5"/>
+      <c r="T76" s="5"/>
+      <c r="U76" s="31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" ht="168" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
         <v>75</v>
       </c>
-      <c r="B77" s="87" t="s">
-        <v>291</v>
+      <c r="B77" s="31" t="s">
+        <v>435</v>
       </c>
       <c r="C77" s="6">
         <v>43465</v>
@@ -11565,7 +11461,7 @@
         <v>26</v>
       </c>
       <c r="G77" s="32" t="s">
-        <v>361</v>
+        <v>441</v>
       </c>
       <c r="H77" s="14" t="s">
         <v>38</v>
@@ -11575,10 +11471,10 @@
       </c>
       <c r="J77" s="32"/>
       <c r="K77" s="32" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L77" s="85" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="M77" s="32" t="s">
         <v>74</v>
@@ -11590,11 +11486,11 @@
         <v>43465</v>
       </c>
       <c r="P77" s="5">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="Q77" s="82">
-        <f t="shared" ref="Q77" si="4">P77*1.5</f>
-        <v>18</v>
+        <f t="shared" ref="Q77:Q81" si="5">P77*1.5</f>
+        <v>6</v>
       </c>
       <c r="R77" s="39" t="s">
         <v>269</v>
@@ -11604,13 +11500,15 @@
       <c r="U77" s="31" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="78" spans="1:23" ht="185.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="V77" s="5"/>
+      <c r="W77" s="32"/>
+    </row>
+    <row r="78" spans="1:23" ht="126" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
-        <v>75</v>
-      </c>
-      <c r="B78" s="31" t="s">
-        <v>442</v>
+        <v>76</v>
+      </c>
+      <c r="B78" s="84" t="s">
+        <v>494</v>
       </c>
       <c r="C78" s="6">
         <v>43465</v>
@@ -11625,7 +11523,7 @@
         <v>26</v>
       </c>
       <c r="G78" s="32" t="s">
-        <v>449</v>
+        <v>339</v>
       </c>
       <c r="H78" s="14" t="s">
         <v>38</v>
@@ -11635,10 +11533,10 @@
       </c>
       <c r="J78" s="32"/>
       <c r="K78" s="32" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="L78" s="85" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="M78" s="32" t="s">
         <v>74</v>
@@ -11650,29 +11548,27 @@
         <v>43465</v>
       </c>
       <c r="P78" s="5">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="Q78" s="82">
-        <f t="shared" ref="Q78:Q82" si="5">P78*1.5</f>
-        <v>6</v>
+        <f t="shared" si="5"/>
+        <v>45</v>
       </c>
       <c r="R78" s="39" t="s">
         <v>269</v>
       </c>
       <c r="S78" s="5"/>
       <c r="T78" s="5"/>
-      <c r="U78" s="31" t="s">
-        <v>254</v>
-      </c>
+      <c r="U78" s="5"/>
       <c r="V78" s="5"/>
       <c r="W78" s="32"/>
     </row>
-    <row r="79" spans="1:23" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" ht="126" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
-        <v>76</v>
-      </c>
-      <c r="B79" s="84" t="s">
-        <v>292</v>
+        <v>77</v>
+      </c>
+      <c r="B79" s="31" t="s">
+        <v>289</v>
       </c>
       <c r="C79" s="6">
         <v>43465</v>
@@ -11687,7 +11583,7 @@
         <v>26</v>
       </c>
       <c r="G79" s="32" t="s">
-        <v>344</v>
+        <v>190</v>
       </c>
       <c r="H79" s="14" t="s">
         <v>38</v>
@@ -11697,10 +11593,10 @@
       </c>
       <c r="J79" s="32"/>
       <c r="K79" s="32" t="s">
-        <v>431</v>
+        <v>371</v>
       </c>
       <c r="L79" s="85" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="M79" s="32" t="s">
         <v>74</v>
@@ -11711,28 +11607,30 @@
       <c r="O79" s="21">
         <v>43465</v>
       </c>
-      <c r="P79" s="5">
-        <v>30</v>
+      <c r="P79" s="30">
+        <v>20</v>
       </c>
       <c r="Q79" s="82">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="R79" s="39" t="s">
         <v>269</v>
       </c>
       <c r="S79" s="5"/>
       <c r="T79" s="5"/>
-      <c r="U79" s="5"/>
+      <c r="U79" s="5" t="s">
+        <v>259</v>
+      </c>
       <c r="V79" s="5"/>
       <c r="W79" s="32"/>
     </row>
-    <row r="80" spans="1:23" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" ht="84" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>293</v>
+        <v>348</v>
       </c>
       <c r="C80" s="6">
         <v>43465</v>
@@ -11747,7 +11645,7 @@
         <v>26</v>
       </c>
       <c r="G80" s="32" t="s">
-        <v>190</v>
+        <v>342</v>
       </c>
       <c r="H80" s="14" t="s">
         <v>38</v>
@@ -11757,10 +11655,10 @@
       </c>
       <c r="J80" s="32"/>
       <c r="K80" s="32" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="L80" s="85" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="M80" s="32" t="s">
         <v>74</v>
@@ -11771,30 +11669,28 @@
       <c r="O80" s="21">
         <v>43465</v>
       </c>
-      <c r="P80" s="30">
-        <v>20</v>
+      <c r="P80" s="30" t="s">
+        <v>164</v>
       </c>
       <c r="Q80" s="82">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="R80" s="39" t="s">
         <v>269</v>
       </c>
       <c r="S80" s="5"/>
       <c r="T80" s="5"/>
-      <c r="U80" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="V80" s="5"/>
+      <c r="U80" s="5"/>
+      <c r="V80" s="74"/>
       <c r="W80" s="32"/>
     </row>
-    <row r="81" spans="1:23" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" ht="168" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
-        <v>78</v>
-      </c>
-      <c r="B81" s="31" t="s">
-        <v>353</v>
+        <v>79</v>
+      </c>
+      <c r="B81" s="84" t="s">
+        <v>495</v>
       </c>
       <c r="C81" s="6">
         <v>43465</v>
@@ -11809,7 +11705,7 @@
         <v>26</v>
       </c>
       <c r="G81" s="32" t="s">
-        <v>347</v>
+        <v>378</v>
       </c>
       <c r="H81" s="14" t="s">
         <v>38</v>
@@ -11819,10 +11715,10 @@
       </c>
       <c r="J81" s="32"/>
       <c r="K81" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="L81" s="85" t="s">
-        <v>352</v>
+        <v>372</v>
+      </c>
+      <c r="L81" s="32">
+        <v>1</v>
       </c>
       <c r="M81" s="32" t="s">
         <v>74</v>
@@ -11834,154 +11730,156 @@
         <v>43465</v>
       </c>
       <c r="P81" s="30" t="s">
-        <v>164</v>
+        <v>48</v>
       </c>
       <c r="Q81" s="82">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="R81" s="39" t="s">
         <v>269</v>
       </c>
       <c r="S81" s="5"/>
       <c r="T81" s="5"/>
-      <c r="U81" s="5"/>
+      <c r="U81" s="32" t="s">
+        <v>260</v>
+      </c>
       <c r="V81" s="74"/>
       <c r="W81" s="32"/>
     </row>
-    <row r="82" spans="1:23" ht="171" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" ht="112" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
-        <v>79</v>
-      </c>
-      <c r="B82" s="84" t="s">
-        <v>294</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B82" s="5"/>
       <c r="C82" s="6">
-        <v>43465</v>
+        <v>43477</v>
       </c>
       <c r="D82" s="32" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="E82" s="32" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F82" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G82" s="32" t="s">
-        <v>385</v>
+        <v>33</v>
+      </c>
+      <c r="G82" s="19" t="s">
+        <v>214</v>
       </c>
       <c r="H82" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I82" s="32" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="J82" s="32"/>
-      <c r="K82" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="L82" s="32">
-        <v>1</v>
+      <c r="K82" s="32"/>
+      <c r="L82" s="32" t="s">
+        <v>156</v>
       </c>
       <c r="M82" s="32" t="s">
         <v>74</v>
       </c>
       <c r="N82" s="32" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="O82" s="21">
+        <v>43477</v>
+      </c>
+      <c r="P82" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="5">
+        <v>0</v>
+      </c>
+      <c r="R82" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="S82" s="61" t="s">
+        <v>195</v>
+      </c>
+      <c r="T82" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="U82" s="32" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" ht="252" x14ac:dyDescent="0.35">
+      <c r="A83" s="5">
+        <v>81</v>
+      </c>
+      <c r="B83" s="84" t="s">
+        <v>290</v>
+      </c>
+      <c r="C83" s="6">
         <v>43465</v>
       </c>
-      <c r="P82" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q82" s="82">
-        <f t="shared" si="5"/>
-        <v>45</v>
-      </c>
-      <c r="R82" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="S82" s="5"/>
-      <c r="T82" s="5"/>
-      <c r="U82" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="V82" s="74"/>
-      <c r="W82" s="32"/>
-    </row>
-    <row r="83" spans="1:23" ht="114" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="5">
-        <v>80</v>
-      </c>
-      <c r="B83" s="5"/>
-      <c r="C83" s="6">
-        <v>43477</v>
-      </c>
       <c r="D83" s="32" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="E83" s="32" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F83" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G83" s="19" t="s">
-        <v>214</v>
+        <v>26</v>
+      </c>
+      <c r="G83" s="32" t="s">
+        <v>448</v>
       </c>
       <c r="H83" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I83" s="32" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="J83" s="32"/>
-      <c r="K83" s="32"/>
-      <c r="L83" s="32" t="s">
-        <v>156</v>
+      <c r="K83" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="L83" s="32">
+        <v>1</v>
       </c>
       <c r="M83" s="32" t="s">
         <v>74</v>
       </c>
       <c r="N83" s="32" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="O83" s="21">
+        <v>43465</v>
+      </c>
+      <c r="P83" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q83" s="82">
+        <f t="shared" ref="Q83:Q85" si="6">P83*1.5</f>
+        <v>15</v>
+      </c>
+      <c r="R83" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="S83" s="5"/>
+      <c r="T83" s="5"/>
+      <c r="U83" s="32" t="s">
+        <v>445</v>
+      </c>
+      <c r="V83" s="74"/>
+      <c r="W83" s="32"/>
+    </row>
+    <row r="84" spans="1:23" ht="70" x14ac:dyDescent="0.35">
+      <c r="A84" s="5">
+        <v>82</v>
+      </c>
+      <c r="B84" s="83" t="s">
+        <v>291</v>
+      </c>
+      <c r="C84" s="6">
         <v>43477</v>
       </c>
-      <c r="P83" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="5">
-        <v>0</v>
-      </c>
-      <c r="R83" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="S83" s="61" t="s">
-        <v>195</v>
-      </c>
-      <c r="T83" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="U83" s="32" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23" ht="270.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="5">
-        <v>81</v>
-      </c>
-      <c r="B84" s="84" t="s">
-        <v>443</v>
-      </c>
-      <c r="C84" s="6">
-        <v>43465</v>
-      </c>
       <c r="D84" s="32" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="E84" s="32" t="s">
         <v>15</v>
@@ -11989,8 +11887,8 @@
       <c r="F84" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="G84" s="32" t="s">
-        <v>458</v>
+      <c r="G84" s="19" t="s">
+        <v>215</v>
       </c>
       <c r="H84" s="14" t="s">
         <v>38</v>
@@ -11998,9 +11896,11 @@
       <c r="I84" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="J84" s="32"/>
-      <c r="K84" s="32" t="s">
-        <v>379</v>
+      <c r="J84" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="K84" s="19" t="s">
+        <v>366</v>
       </c>
       <c r="L84" s="32">
         <v>1</v>
@@ -12009,35 +11909,33 @@
         <v>74</v>
       </c>
       <c r="N84" s="32" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="O84" s="21">
-        <v>43465</v>
+        <v>43477</v>
       </c>
       <c r="P84" s="30" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="Q84" s="82">
-        <f t="shared" ref="Q84:Q86" si="6">P84*1.5</f>
-        <v>15</v>
+        <f t="shared" si="6"/>
+        <v>30</v>
       </c>
       <c r="R84" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="S84" s="5"/>
+      <c r="S84" s="33"/>
       <c r="T84" s="5"/>
       <c r="U84" s="32" t="s">
-        <v>455</v>
-      </c>
-      <c r="V84" s="74"/>
-      <c r="W84" s="32"/>
-    </row>
-    <row r="85" spans="1:23" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" ht="70" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B85" s="83" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C85" s="6">
         <v>43477</v>
@@ -12051,8 +11949,8 @@
       <c r="F85" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="G85" s="19" t="s">
-        <v>215</v>
+      <c r="G85" s="32" t="s">
+        <v>216</v>
       </c>
       <c r="H85" s="14" t="s">
         <v>38</v>
@@ -12061,10 +11959,10 @@
         <v>85</v>
       </c>
       <c r="J85" s="32" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K85" s="19" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="L85" s="32">
         <v>1</v>
@@ -12078,28 +11976,26 @@
       <c r="O85" s="21">
         <v>43477</v>
       </c>
-      <c r="P85" s="30" t="s">
-        <v>61</v>
+      <c r="P85" s="31">
+        <v>6</v>
       </c>
       <c r="Q85" s="82">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="R85" s="5" t="s">
         <v>269</v>
       </c>
       <c r="S85" s="33"/>
       <c r="T85" s="5"/>
-      <c r="U85" s="32" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="U85" s="32"/>
+    </row>
+    <row r="86" spans="1:23" ht="112" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
-        <v>83</v>
-      </c>
-      <c r="B86" s="83" t="s">
-        <v>295</v>
+        <v>84</v>
+      </c>
+      <c r="B86" s="31" t="s">
+        <v>292</v>
       </c>
       <c r="C86" s="6">
         <v>43477</v>
@@ -12108,13 +12004,13 @@
         <v>210</v>
       </c>
       <c r="E86" s="32" t="s">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c r="F86" s="32" t="s">
         <v>26</v>
       </c>
       <c r="G86" s="32" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H86" s="14" t="s">
         <v>38</v>
@@ -12123,11 +12019,9 @@
         <v>85</v>
       </c>
       <c r="J86" s="32" t="s">
-        <v>308</v>
-      </c>
-      <c r="K86" s="19" t="s">
-        <v>373</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="K86" s="32"/>
       <c r="L86" s="32">
         <v>1</v>
       </c>
@@ -12135,31 +12029,32 @@
         <v>74</v>
       </c>
       <c r="N86" s="32" t="s">
-        <v>153</v>
+        <v>211</v>
       </c>
       <c r="O86" s="21">
         <v>43477</v>
       </c>
       <c r="P86" s="31">
-        <v>6</v>
-      </c>
-      <c r="Q86" s="82">
-        <f t="shared" si="6"/>
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="Q86" s="5">
+        <v>0</v>
       </c>
       <c r="R86" s="5" t="s">
-        <v>269</v>
+        <v>156</v>
       </c>
       <c r="S86" s="33"/>
       <c r="T86" s="5"/>
-      <c r="U86" s="32"/>
-    </row>
-    <row r="87" spans="1:23" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="U86" s="32" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" ht="126" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
-        <v>84</v>
-      </c>
-      <c r="B87" s="31" t="s">
-        <v>296</v>
+        <v>85</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C87" s="6">
         <v>43477</v>
@@ -12168,13 +12063,13 @@
         <v>210</v>
       </c>
       <c r="E87" s="32" t="s">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="F87" s="32" t="s">
         <v>26</v>
       </c>
       <c r="G87" s="32" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H87" s="14" t="s">
         <v>38</v>
@@ -12183,7 +12078,7 @@
         <v>85</v>
       </c>
       <c r="J87" s="32" t="s">
-        <v>309</v>
+        <v>242</v>
       </c>
       <c r="K87" s="32"/>
       <c r="L87" s="32">
@@ -12198,27 +12093,29 @@
       <c r="O87" s="21">
         <v>43477</v>
       </c>
-      <c r="P87" s="31">
-        <v>0</v>
-      </c>
+      <c r="P87" s="31"/>
       <c r="Q87" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R87" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="S87" s="33"/>
-      <c r="T87" s="5"/>
+        <v>269</v>
+      </c>
+      <c r="S87" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="T87" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="U87" s="32" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23" ht="128.25" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" ht="168" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="5">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C88" s="6">
         <v>43477</v>
@@ -12233,7 +12130,7 @@
         <v>26</v>
       </c>
       <c r="G88" s="32" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="H88" s="14" t="s">
         <v>38</v>
@@ -12242,7 +12139,7 @@
         <v>85</v>
       </c>
       <c r="J88" s="32" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K88" s="32"/>
       <c r="L88" s="32">
@@ -12258,29 +12155,21 @@
         <v>43477</v>
       </c>
       <c r="P88" s="31"/>
-      <c r="Q88" s="5">
-        <v>50</v>
-      </c>
-      <c r="R88" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="S88" s="5" t="s">
-        <v>407</v>
-      </c>
+      <c r="Q88" s="5"/>
+      <c r="R88" s="5"/>
+      <c r="S88" s="33"/>
       <c r="T88" s="5" t="s">
-        <v>172</v>
+        <v>401</v>
       </c>
       <c r="U88" s="32" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23" ht="185.25" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="5">
-        <v>86</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>416</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="B89" s="5"/>
       <c r="C89" s="6">
         <v>43477</v>
       </c>
@@ -12288,13 +12177,13 @@
         <v>210</v>
       </c>
       <c r="E89" s="32" t="s">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="F89" s="32" t="s">
         <v>26</v>
       </c>
       <c r="G89" s="32" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H89" s="14" t="s">
         <v>38</v>
@@ -12303,7 +12192,7 @@
         <v>85</v>
       </c>
       <c r="J89" s="32" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K89" s="32"/>
       <c r="L89" s="32">
@@ -12322,16 +12211,12 @@
       <c r="Q89" s="5"/>
       <c r="R89" s="5"/>
       <c r="S89" s="33"/>
-      <c r="T89" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="U89" s="32" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="T89" s="5"/>
+      <c r="U89" s="32"/>
+    </row>
+    <row r="90" spans="1:23" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="5">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B90" s="5"/>
       <c r="C90" s="6">
@@ -12341,13 +12226,13 @@
         <v>210</v>
       </c>
       <c r="E90" s="32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F90" s="32" t="s">
         <v>26</v>
       </c>
       <c r="G90" s="32" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H90" s="14" t="s">
         <v>38</v>
@@ -12355,9 +12240,7 @@
       <c r="I90" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="J90" s="32" t="s">
-        <v>244</v>
-      </c>
+      <c r="J90" s="32"/>
       <c r="K90" s="32"/>
       <c r="L90" s="32">
         <v>1</v>
@@ -12378,25 +12261,27 @@
       <c r="T90" s="5"/>
       <c r="U90" s="32"/>
     </row>
-    <row r="91" spans="1:23" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" ht="196" x14ac:dyDescent="0.35">
       <c r="A91" s="5">
-        <v>88</v>
-      </c>
-      <c r="B91" s="5"/>
+        <v>89</v>
+      </c>
+      <c r="B91" s="84" t="s">
+        <v>293</v>
+      </c>
       <c r="C91" s="6">
-        <v>43477</v>
+        <v>43486</v>
       </c>
       <c r="D91" s="32" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="E91" s="32" t="s">
-        <v>213</v>
+        <v>15</v>
       </c>
       <c r="F91" s="32" t="s">
         <v>26</v>
       </c>
       <c r="G91" s="32" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="H91" s="14" t="s">
         <v>38</v>
@@ -12405,7 +12290,9 @@
         <v>85</v>
       </c>
       <c r="J91" s="32"/>
-      <c r="K91" s="32"/>
+      <c r="K91" s="32" t="s">
+        <v>134</v>
+      </c>
       <c r="L91" s="32">
         <v>1</v>
       </c>
@@ -12413,30 +12300,39 @@
         <v>74</v>
       </c>
       <c r="N91" s="32" t="s">
-        <v>211</v>
+        <v>153</v>
       </c>
       <c r="O91" s="21">
-        <v>43477</v>
-      </c>
-      <c r="P91" s="31"/>
-      <c r="Q91" s="5"/>
-      <c r="R91" s="5"/>
+        <v>43486</v>
+      </c>
+      <c r="P91" s="31">
+        <v>40</v>
+      </c>
+      <c r="Q91" s="82">
+        <f t="shared" ref="Q91:Q103" si="7">P91*1.5</f>
+        <v>60</v>
+      </c>
+      <c r="R91" s="5" t="s">
+        <v>269</v>
+      </c>
       <c r="S91" s="33"/>
       <c r="T91" s="5"/>
-      <c r="U91" s="32"/>
-    </row>
-    <row r="92" spans="1:23" ht="199.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="U91" s="32" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" ht="42" x14ac:dyDescent="0.35">
       <c r="A92" s="5">
-        <v>89</v>
-      </c>
-      <c r="B92" s="84" t="s">
-        <v>297</v>
+        <v>90</v>
+      </c>
+      <c r="B92" s="83" t="s">
+        <v>469</v>
       </c>
       <c r="C92" s="6">
-        <v>43486</v>
+        <v>43489</v>
       </c>
       <c r="D92" s="32" t="s">
-        <v>226</v>
+        <v>276</v>
       </c>
       <c r="E92" s="32" t="s">
         <v>15</v>
@@ -12445,17 +12341,17 @@
         <v>26</v>
       </c>
       <c r="G92" s="32" t="s">
-        <v>227</v>
+        <v>321</v>
       </c>
       <c r="H92" s="14" t="s">
-        <v>38</v>
+        <v>245</v>
       </c>
       <c r="I92" s="32" t="s">
         <v>85</v>
       </c>
       <c r="J92" s="32"/>
-      <c r="K92" s="32" t="s">
-        <v>134</v>
+      <c r="K92" s="19" t="s">
+        <v>366</v>
       </c>
       <c r="L92" s="32">
         <v>1</v>
@@ -12464,39 +12360,37 @@
         <v>74</v>
       </c>
       <c r="N92" s="32" t="s">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="O92" s="21">
-        <v>43486</v>
+        <v>43489</v>
       </c>
       <c r="P92" s="31">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="Q92" s="82">
-        <f t="shared" ref="Q92:Q104" si="7">P92*1.5</f>
-        <v>60</v>
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
       <c r="R92" s="5" t="s">
         <v>269</v>
       </c>
       <c r="S92" s="33"/>
       <c r="T92" s="5"/>
-      <c r="U92" s="32" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="U92" s="32"/>
+    </row>
+    <row r="93" spans="1:23" ht="56" x14ac:dyDescent="0.35">
       <c r="A93" s="5">
-        <v>90</v>
-      </c>
-      <c r="B93" s="83" t="s">
-        <v>484</v>
+        <v>91</v>
+      </c>
+      <c r="B93" s="84" t="s">
+        <v>294</v>
       </c>
       <c r="C93" s="6">
         <v>43489</v>
       </c>
       <c r="D93" s="32" t="s">
-        <v>276</v>
+        <v>130</v>
       </c>
       <c r="E93" s="32" t="s">
         <v>15</v>
@@ -12505,7 +12399,7 @@
         <v>26</v>
       </c>
       <c r="G93" s="32" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H93" s="14" t="s">
         <v>245</v>
@@ -12514,11 +12408,11 @@
         <v>85</v>
       </c>
       <c r="J93" s="32"/>
-      <c r="K93" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="L93" s="32">
-        <v>1</v>
+      <c r="K93" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="L93" s="85" t="s">
+        <v>140</v>
       </c>
       <c r="M93" s="32" t="s">
         <v>74</v>
@@ -12530,25 +12424,27 @@
         <v>43489</v>
       </c>
       <c r="P93" s="31">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="Q93" s="82">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="R93" s="5" t="s">
         <v>269</v>
       </c>
       <c r="S93" s="33"/>
       <c r="T93" s="5"/>
-      <c r="U93" s="32"/>
-    </row>
-    <row r="94" spans="1:23" ht="57" hidden="1" x14ac:dyDescent="0.25">
+      <c r="U93" s="32" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" ht="70" x14ac:dyDescent="0.35">
       <c r="A94" s="5">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B94" s="84" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C94" s="6">
         <v>43489</v>
@@ -12563,7 +12459,7 @@
         <v>26</v>
       </c>
       <c r="G94" s="32" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="H94" s="14" t="s">
         <v>245</v>
@@ -12573,7 +12469,7 @@
       </c>
       <c r="J94" s="32"/>
       <c r="K94" s="32" t="s">
-        <v>379</v>
+        <v>156</v>
       </c>
       <c r="L94" s="85" t="s">
         <v>140</v>
@@ -12588,11 +12484,11 @@
         <v>43489</v>
       </c>
       <c r="P94" s="31">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="Q94" s="82">
         <f t="shared" si="7"/>
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="R94" s="5" t="s">
         <v>269</v>
@@ -12600,15 +12496,15 @@
       <c r="S94" s="33"/>
       <c r="T94" s="5"/>
       <c r="U94" s="32" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" ht="70" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B95" s="84" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C95" s="6">
         <v>43489</v>
@@ -12623,7 +12519,7 @@
         <v>26</v>
       </c>
       <c r="G95" s="32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H95" s="14" t="s">
         <v>245</v>
@@ -12648,11 +12544,11 @@
         <v>43489</v>
       </c>
       <c r="P95" s="31">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q95" s="82">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="R95" s="5" t="s">
         <v>269</v>
@@ -12660,21 +12556,21 @@
       <c r="S95" s="33"/>
       <c r="T95" s="5"/>
       <c r="U95" s="32" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" ht="182" x14ac:dyDescent="0.35">
       <c r="A96" s="5">
-        <v>93</v>
-      </c>
-      <c r="B96" s="84" t="s">
-        <v>298</v>
+        <v>94</v>
+      </c>
+      <c r="B96" s="83" t="s">
+        <v>295</v>
       </c>
       <c r="C96" s="6">
-        <v>43489</v>
+        <v>43473</v>
       </c>
       <c r="D96" s="32" t="s">
-        <v>130</v>
+        <v>314</v>
       </c>
       <c r="E96" s="32" t="s">
         <v>15</v>
@@ -12683,7 +12579,7 @@
         <v>26</v>
       </c>
       <c r="G96" s="32" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H96" s="14" t="s">
         <v>245</v>
@@ -12693,10 +12589,10 @@
       </c>
       <c r="J96" s="32"/>
       <c r="K96" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="L96" s="85" t="s">
-        <v>140</v>
+        <v>366</v>
+      </c>
+      <c r="L96" s="85">
+        <v>1</v>
       </c>
       <c r="M96" s="32" t="s">
         <v>74</v>
@@ -12705,57 +12601,53 @@
         <v>20</v>
       </c>
       <c r="O96" s="21">
-        <v>43489</v>
+        <v>43467</v>
       </c>
       <c r="P96" s="31">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q96" s="82">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R96" s="5" t="s">
         <v>269</v>
       </c>
       <c r="S96" s="33"/>
       <c r="T96" s="5"/>
-      <c r="U96" s="32" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" ht="171" hidden="1" x14ac:dyDescent="0.25">
+      <c r="U96" s="32"/>
+    </row>
+    <row r="97" spans="1:21" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="5">
-        <v>94</v>
-      </c>
-      <c r="B97" s="83" t="s">
-        <v>299</v>
+        <v>95</v>
+      </c>
+      <c r="B97" s="31" t="s">
+        <v>379</v>
       </c>
       <c r="C97" s="6">
         <v>43473</v>
       </c>
       <c r="D97" s="32" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E97" s="32" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="F97" s="32" t="s">
         <v>26</v>
       </c>
       <c r="G97" s="32" t="s">
-        <v>359</v>
+        <v>319</v>
       </c>
       <c r="H97" s="14" t="s">
-        <v>245</v>
+        <v>38</v>
       </c>
       <c r="I97" s="32" t="s">
         <v>85</v>
       </c>
       <c r="J97" s="32"/>
-      <c r="K97" s="32" t="s">
-        <v>373</v>
-      </c>
-      <c r="L97" s="85">
+      <c r="K97" s="32"/>
+      <c r="L97" s="32">
         <v>1</v>
       </c>
       <c r="M97" s="32" t="s">
@@ -12767,51 +12659,46 @@
       <c r="O97" s="21">
         <v>43467</v>
       </c>
-      <c r="P97" s="31">
-        <v>12</v>
-      </c>
-      <c r="Q97" s="82">
-        <f t="shared" si="7"/>
-        <v>18</v>
-      </c>
-      <c r="R97" s="5" t="s">
-        <v>269</v>
-      </c>
+      <c r="P97" s="31"/>
+      <c r="Q97" s="82"/>
+      <c r="R97" s="5"/>
       <c r="S97" s="33"/>
       <c r="T97" s="5"/>
       <c r="U97" s="32"/>
     </row>
-    <row r="98" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" ht="140" x14ac:dyDescent="0.35">
       <c r="A98" s="5">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B98" s="31" t="s">
-        <v>386</v>
+        <v>470</v>
       </c>
       <c r="C98" s="6">
-        <v>43473</v>
+        <v>43489</v>
       </c>
       <c r="D98" s="32" t="s">
-        <v>318</v>
+        <v>277</v>
       </c>
       <c r="E98" s="32" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="F98" s="32" t="s">
         <v>26</v>
       </c>
       <c r="G98" s="32" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="H98" s="14" t="s">
-        <v>38</v>
+        <v>245</v>
       </c>
       <c r="I98" s="32" t="s">
         <v>85</v>
       </c>
       <c r="J98" s="32"/>
-      <c r="K98" s="32"/>
-      <c r="L98" s="32">
+      <c r="K98" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="L98" s="85">
         <v>1</v>
       </c>
       <c r="M98" s="32" t="s">
@@ -12820,22 +12707,29 @@
       <c r="N98" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="O98" s="21">
-        <v>43467</v>
-      </c>
-      <c r="P98" s="31"/>
-      <c r="Q98" s="82"/>
-      <c r="R98" s="5"/>
+      <c r="O98" s="86">
+        <v>43479</v>
+      </c>
+      <c r="P98" s="31">
+        <v>10</v>
+      </c>
+      <c r="Q98" s="82">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="R98" s="5" t="s">
+        <v>269</v>
+      </c>
       <c r="S98" s="33"/>
       <c r="T98" s="5"/>
       <c r="U98" s="32"/>
     </row>
-    <row r="99" spans="1:21" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" ht="112" x14ac:dyDescent="0.35">
       <c r="A99" s="5">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B99" s="31" t="s">
-        <v>485</v>
+        <v>296</v>
       </c>
       <c r="C99" s="6">
         <v>43489</v>
@@ -12850,7 +12744,7 @@
         <v>26</v>
       </c>
       <c r="G99" s="32" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H99" s="14" t="s">
         <v>245</v>
@@ -12871,35 +12765,37 @@
       <c r="N99" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="O99" s="86">
+      <c r="O99" s="21">
         <v>43479</v>
       </c>
       <c r="P99" s="31">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q99" s="82">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="R99" s="5" t="s">
         <v>269</v>
       </c>
       <c r="S99" s="33"/>
       <c r="T99" s="5"/>
-      <c r="U99" s="32"/>
-    </row>
-    <row r="100" spans="1:21" ht="114" hidden="1" x14ac:dyDescent="0.25">
+      <c r="U99" s="32" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" ht="322" x14ac:dyDescent="0.35">
       <c r="A100" s="5">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B100" s="31" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C100" s="6">
         <v>43489</v>
       </c>
       <c r="D100" s="32" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E100" s="32" t="s">
         <v>15</v>
@@ -12908,7 +12804,7 @@
         <v>26</v>
       </c>
       <c r="G100" s="32" t="s">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="H100" s="14" t="s">
         <v>245</v>
@@ -12918,7 +12814,7 @@
       </c>
       <c r="J100" s="32"/>
       <c r="K100" s="32" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="L100" s="85">
         <v>1</v>
@@ -12929,15 +12825,15 @@
       <c r="N100" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="O100" s="21">
-        <v>43479</v>
+      <c r="O100" s="86">
+        <v>43468</v>
       </c>
       <c r="P100" s="31">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q100" s="82">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="R100" s="5" t="s">
         <v>269</v>
@@ -12945,21 +12841,21 @@
       <c r="S100" s="33"/>
       <c r="T100" s="5"/>
       <c r="U100" s="32" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21" ht="342" hidden="1" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" ht="42" x14ac:dyDescent="0.35">
       <c r="A101" s="5">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B101" s="31" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C101" s="6">
         <v>43489</v>
       </c>
       <c r="D101" s="32" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E101" s="32" t="s">
         <v>15</v>
@@ -12968,7 +12864,7 @@
         <v>26</v>
       </c>
       <c r="G101" s="32" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H101" s="14" t="s">
         <v>245</v>
@@ -12978,7 +12874,7 @@
       </c>
       <c r="J101" s="32"/>
       <c r="K101" s="32" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="L101" s="85">
         <v>1</v>
@@ -12987,39 +12883,37 @@
         <v>74</v>
       </c>
       <c r="N101" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="O101" s="86">
-        <v>43468</v>
+        <v>153</v>
+      </c>
+      <c r="O101" s="21">
+        <v>43489</v>
       </c>
       <c r="P101" s="31">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q101" s="82">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="R101" s="5" t="s">
         <v>269</v>
       </c>
       <c r="S101" s="33"/>
       <c r="T101" s="5"/>
-      <c r="U101" s="32" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
+      <c r="U101" s="32"/>
+    </row>
+    <row r="102" spans="1:21" ht="28" x14ac:dyDescent="0.35">
       <c r="A102" s="5">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B102" s="31" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C102" s="6">
         <v>43489</v>
       </c>
       <c r="D102" s="32" t="s">
-        <v>279</v>
+        <v>174</v>
       </c>
       <c r="E102" s="32" t="s">
         <v>15</v>
@@ -13028,7 +12922,7 @@
         <v>26</v>
       </c>
       <c r="G102" s="32" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="H102" s="14" t="s">
         <v>245</v>
@@ -13038,7 +12932,7 @@
       </c>
       <c r="J102" s="32"/>
       <c r="K102" s="32" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="L102" s="85">
         <v>1</v>
@@ -13053,25 +12947,27 @@
         <v>43489</v>
       </c>
       <c r="P102" s="31">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q102" s="82">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="R102" s="5" t="s">
         <v>269</v>
       </c>
       <c r="S102" s="33"/>
       <c r="T102" s="5"/>
-      <c r="U102" s="32"/>
-    </row>
-    <row r="103" spans="1:21" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="U102" s="32" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" ht="28" x14ac:dyDescent="0.35">
       <c r="A103" s="5">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B103" s="31" t="s">
-        <v>303</v>
+        <v>436</v>
       </c>
       <c r="C103" s="6">
         <v>43489</v>
@@ -13086,7 +12982,7 @@
         <v>26</v>
       </c>
       <c r="G103" s="32" t="s">
-        <v>320</v>
+        <v>446</v>
       </c>
       <c r="H103" s="14" t="s">
         <v>245</v>
@@ -13096,7 +12992,7 @@
       </c>
       <c r="J103" s="32"/>
       <c r="K103" s="32" t="s">
-        <v>373</v>
+        <v>156</v>
       </c>
       <c r="L103" s="85">
         <v>1</v>
@@ -13111,11 +13007,11 @@
         <v>43489</v>
       </c>
       <c r="P103" s="31">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q103" s="82">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="R103" s="5" t="s">
         <v>269</v>
@@ -13123,81 +13019,80 @@
       <c r="S103" s="33"/>
       <c r="T103" s="5"/>
       <c r="U103" s="32" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="5">
-        <v>101</v>
-      </c>
-      <c r="B104" s="31" t="s">
-        <v>444</v>
+        <v>102</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>410</v>
       </c>
       <c r="C104" s="6">
-        <v>43489</v>
+        <v>43448</v>
       </c>
       <c r="D104" s="32" t="s">
-        <v>174</v>
+        <v>246</v>
       </c>
       <c r="E104" s="32" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F104" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="G104" s="32" t="s">
-        <v>456</v>
+      <c r="G104" s="76" t="s">
+        <v>247</v>
       </c>
       <c r="H104" s="14" t="s">
-        <v>245</v>
+        <v>35</v>
       </c>
       <c r="I104" s="32" t="s">
         <v>85</v>
       </c>
       <c r="J104" s="32"/>
-      <c r="K104" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="L104" s="85">
+      <c r="K104" s="32"/>
+      <c r="L104" s="32">
         <v>1</v>
       </c>
       <c r="M104" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="N104" s="32" t="s">
+      <c r="N104" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="O104" s="21">
-        <v>43489</v>
+      <c r="O104" s="6">
+        <v>43448</v>
       </c>
       <c r="P104" s="31">
-        <v>4</v>
-      </c>
-      <c r="Q104" s="82">
-        <f t="shared" si="7"/>
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="Q104" s="5">
+        <v>40</v>
       </c>
       <c r="R104" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="S104" s="33"/>
-      <c r="T104" s="5"/>
-      <c r="U104" s="32" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="S104" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="T104" s="32" t="s">
+        <v>402</v>
+      </c>
+      <c r="U104" s="33"/>
+    </row>
+    <row r="105" spans="1:21" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="5">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C105" s="6">
-        <v>43448</v>
+        <v>43447</v>
       </c>
       <c r="D105" s="32" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="E105" s="32" t="s">
         <v>32</v>
@@ -13205,8 +13100,8 @@
       <c r="F105" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="G105" s="76" t="s">
-        <v>247</v>
+      <c r="G105" s="32" t="s">
+        <v>267</v>
       </c>
       <c r="H105" s="14" t="s">
         <v>35</v>
@@ -13223,55 +13118,55 @@
         <v>74</v>
       </c>
       <c r="N105" s="21" t="s">
-        <v>153</v>
+        <v>211</v>
       </c>
       <c r="O105" s="6">
-        <v>43448</v>
-      </c>
-      <c r="P105" s="31">
-        <v>20</v>
-      </c>
-      <c r="Q105" s="5">
-        <v>40</v>
-      </c>
-      <c r="R105" s="5" t="s">
+        <v>43447</v>
+      </c>
+      <c r="P105" s="5"/>
+      <c r="Q105" s="33">
+        <v>30</v>
+      </c>
+      <c r="R105" s="33" t="s">
         <v>269</v>
       </c>
       <c r="S105" s="5" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="T105" s="32" t="s">
-        <v>409</v>
-      </c>
-      <c r="U105" s="33"/>
-    </row>
-    <row r="106" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="U105" s="88" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="5">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>418</v>
+        <v>380</v>
       </c>
       <c r="C106" s="6">
-        <v>43447</v>
+        <v>43495</v>
       </c>
       <c r="D106" s="32" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E106" s="32" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="F106" s="32" t="s">
         <v>26</v>
       </c>
       <c r="G106" s="32" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="H106" s="14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I106" s="32" t="s">
-        <v>85</v>
+        <v>272</v>
       </c>
       <c r="J106" s="32"/>
       <c r="K106" s="32"/>
@@ -13281,35 +13176,25 @@
       <c r="M106" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="N106" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="O106" s="6">
-        <v>43447</v>
-      </c>
-      <c r="P106" s="5"/>
-      <c r="Q106" s="33">
-        <v>30</v>
-      </c>
-      <c r="R106" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="S106" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="T106" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="U106" s="88" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21" ht="114" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N106" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="O106" s="21">
+        <v>43495</v>
+      </c>
+      <c r="P106" s="31"/>
+      <c r="Q106" s="5"/>
+      <c r="R106" s="5"/>
+      <c r="S106" s="33"/>
+      <c r="T106" s="5"/>
+      <c r="U106" s="32"/>
+    </row>
+    <row r="107" spans="1:21" ht="140" x14ac:dyDescent="0.35">
       <c r="A107" s="5">
-        <v>104</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>387</v>
+        <v>105</v>
+      </c>
+      <c r="B107" s="31" t="s">
+        <v>300</v>
       </c>
       <c r="C107" s="6">
         <v>43495</v>
@@ -13318,13 +13203,13 @@
         <v>275</v>
       </c>
       <c r="E107" s="32" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="F107" s="32" t="s">
         <v>26</v>
       </c>
       <c r="G107" s="32" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H107" s="14" t="s">
         <v>38</v>
@@ -13333,7 +13218,9 @@
         <v>272</v>
       </c>
       <c r="J107" s="32"/>
-      <c r="K107" s="32"/>
+      <c r="K107" s="32" t="s">
+        <v>374</v>
+      </c>
       <c r="L107" s="32">
         <v>1</v>
       </c>
@@ -13346,93 +13233,97 @@
       <c r="O107" s="21">
         <v>43495</v>
       </c>
-      <c r="P107" s="31"/>
-      <c r="Q107" s="5"/>
-      <c r="R107" s="5"/>
+      <c r="P107" s="31">
+        <v>4</v>
+      </c>
+      <c r="Q107" s="5">
+        <v>6</v>
+      </c>
+      <c r="R107" s="5" t="s">
+        <v>269</v>
+      </c>
       <c r="S107" s="33"/>
       <c r="T107" s="5"/>
-      <c r="U107" s="32"/>
-    </row>
-    <row r="108" spans="1:21" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="U107" s="85" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="5">
-        <v>105</v>
-      </c>
-      <c r="B108" s="31" t="s">
-        <v>304</v>
+        <v>111</v>
+      </c>
+      <c r="B108" s="32" t="s">
+        <v>414</v>
       </c>
       <c r="C108" s="6">
-        <v>43495</v>
+        <v>43108</v>
       </c>
       <c r="D108" s="32" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="E108" s="32" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="F108" s="32" t="s">
         <v>26</v>
       </c>
       <c r="G108" s="32" t="s">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="H108" s="14" t="s">
-        <v>38</v>
+        <v>306</v>
       </c>
       <c r="I108" s="32" t="s">
-        <v>272</v>
+        <v>85</v>
       </c>
       <c r="J108" s="32"/>
-      <c r="K108" s="32" t="s">
-        <v>381</v>
-      </c>
+      <c r="K108" s="32"/>
       <c r="L108" s="32">
         <v>1</v>
       </c>
       <c r="M108" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="N108" s="32" t="s">
-        <v>20</v>
+      <c r="N108" s="21" t="s">
+        <v>153</v>
       </c>
       <c r="O108" s="21">
-        <v>43495</v>
-      </c>
-      <c r="P108" s="31">
-        <v>4</v>
-      </c>
+        <v>43473</v>
+      </c>
+      <c r="P108" s="31"/>
       <c r="Q108" s="5">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="R108" s="5" t="s">
         <v>269</v>
       </c>
       <c r="S108" s="33"/>
-      <c r="T108" s="5"/>
-      <c r="U108" s="85" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="T108" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="U108" s="32"/>
+    </row>
+    <row r="109" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="5">
-        <v>111</v>
-      </c>
-      <c r="B109" s="32" t="s">
-        <v>421</v>
+        <v>112</v>
+      </c>
+      <c r="B109" s="31" t="s">
+        <v>397</v>
       </c>
       <c r="C109" s="6">
         <v>43108</v>
       </c>
       <c r="D109" s="32" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E109" s="32" t="s">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="F109" s="32" t="s">
         <v>26</v>
       </c>
       <c r="G109" s="32" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H109" s="14" t="s">
         <v>310</v>
@@ -13454,43 +13345,43 @@
       <c r="O109" s="21">
         <v>43473</v>
       </c>
-      <c r="P109" s="31"/>
+      <c r="P109" s="31">
+        <v>10</v>
+      </c>
       <c r="Q109" s="5">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="R109" s="5" t="s">
         <v>269</v>
       </c>
       <c r="S109" s="33"/>
-      <c r="T109" s="5" t="s">
-        <v>172</v>
-      </c>
+      <c r="T109" s="5"/>
       <c r="U109" s="32"/>
     </row>
-    <row r="110" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="5">
-        <v>112</v>
-      </c>
-      <c r="B110" s="31" t="s">
-        <v>404</v>
+        <v>113</v>
+      </c>
+      <c r="B110" s="32" t="s">
+        <v>308</v>
       </c>
       <c r="C110" s="6">
-        <v>43108</v>
+        <v>43436</v>
       </c>
       <c r="D110" s="32" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E110" s="32" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="F110" s="32" t="s">
         <v>26</v>
       </c>
       <c r="G110" s="32" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H110" s="14" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="I110" s="32" t="s">
         <v>85</v>
@@ -13504,36 +13395,38 @@
         <v>74</v>
       </c>
       <c r="N110" s="21" t="s">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="O110" s="21">
         <v>43473</v>
       </c>
       <c r="P110" s="31">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Q110" s="5">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="R110" s="5" t="s">
         <v>269</v>
       </c>
       <c r="S110" s="33"/>
-      <c r="T110" s="5"/>
+      <c r="T110" s="5" t="s">
+        <v>307</v>
+      </c>
       <c r="U110" s="32"/>
     </row>
-    <row r="111" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="5">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B111" s="32" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C111" s="6">
         <v>43436</v>
       </c>
       <c r="D111" s="32" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E111" s="32" t="s">
         <v>125</v>
@@ -13542,10 +13435,10 @@
         <v>26</v>
       </c>
       <c r="G111" s="32" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H111" s="14" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I111" s="32" t="s">
         <v>85</v>
@@ -13575,22 +13468,22 @@
       </c>
       <c r="S111" s="33"/>
       <c r="T111" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="U111" s="32"/>
+    </row>
+    <row r="112" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="5">
+        <v>115</v>
+      </c>
+      <c r="B112" s="32" t="s">
         <v>311</v>
       </c>
-      <c r="U111" s="32"/>
-    </row>
-    <row r="112" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="5">
-        <v>114</v>
-      </c>
-      <c r="B112" s="32" t="s">
+      <c r="C112" s="6">
+        <v>43496</v>
+      </c>
+      <c r="D112" s="32" t="s">
         <v>313</v>
-      </c>
-      <c r="C112" s="6">
-        <v>43436</v>
-      </c>
-      <c r="D112" s="32" t="s">
-        <v>319</v>
       </c>
       <c r="E112" s="32" t="s">
         <v>125</v>
@@ -13599,10 +13492,10 @@
         <v>26</v>
       </c>
       <c r="G112" s="32" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H112" s="14" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I112" s="32" t="s">
         <v>85</v>
@@ -13615,11 +13508,11 @@
       <c r="M112" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="N112" s="21" t="s">
-        <v>20</v>
+      <c r="N112" s="32" t="s">
+        <v>153</v>
       </c>
       <c r="O112" s="21">
-        <v>43473</v>
+        <v>43496</v>
       </c>
       <c r="P112" s="31">
         <v>2</v>
@@ -13632,22 +13525,22 @@
       </c>
       <c r="S112" s="33"/>
       <c r="T112" s="5" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="U112" s="32"/>
     </row>
-    <row r="113" spans="1:21" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="5">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B113" s="32" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C113" s="6">
         <v>43496</v>
       </c>
       <c r="D113" s="32" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E113" s="32" t="s">
         <v>125</v>
@@ -13656,10 +13549,10 @@
         <v>26</v>
       </c>
       <c r="G113" s="32" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H113" s="14" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I113" s="32" t="s">
         <v>85</v>
@@ -13679,32 +13572,32 @@
         <v>43496</v>
       </c>
       <c r="P113" s="31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q113" s="5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R113" s="5" t="s">
         <v>269</v>
       </c>
       <c r="S113" s="33"/>
       <c r="T113" s="5" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="U113" s="32"/>
     </row>
-    <row r="114" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="5">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B114" s="32" t="s">
-        <v>316</v>
+        <v>413</v>
       </c>
       <c r="C114" s="6">
         <v>43496</v>
       </c>
       <c r="D114" s="32" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E114" s="32" t="s">
         <v>125</v>
@@ -13713,10 +13606,10 @@
         <v>26</v>
       </c>
       <c r="G114" s="32" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H114" s="14" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I114" s="32" t="s">
         <v>85</v>
@@ -13735,33 +13628,31 @@
       <c r="O114" s="21">
         <v>43496</v>
       </c>
-      <c r="P114" s="31">
-        <v>4</v>
-      </c>
+      <c r="P114" s="31"/>
       <c r="Q114" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R114" s="5" t="s">
         <v>269</v>
       </c>
       <c r="S114" s="33"/>
       <c r="T114" s="5" t="s">
-        <v>311</v>
+        <v>172</v>
       </c>
       <c r="U114" s="32"/>
     </row>
-    <row r="115" spans="1:21" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="5">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B115" s="32" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C115" s="6">
         <v>43496</v>
       </c>
       <c r="D115" s="32" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E115" s="32" t="s">
         <v>125</v>
@@ -13770,16 +13661,10 @@
         <v>26</v>
       </c>
       <c r="G115" s="32" t="s">
-        <v>332</v>
-      </c>
-      <c r="H115" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="I115" s="32" t="s">
-        <v>85</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="I115" s="32"/>
       <c r="J115" s="32"/>
-      <c r="K115" s="32"/>
       <c r="L115" s="32">
         <v>1</v>
       </c>
@@ -13789,12 +13674,9 @@
       <c r="N115" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="O115" s="21">
-        <v>43496</v>
-      </c>
-      <c r="P115" s="31"/>
+      <c r="O115" s="32"/>
       <c r="Q115" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R115" s="5" t="s">
         <v>269</v>
@@ -13805,125 +13687,126 @@
       </c>
       <c r="U115" s="32"/>
     </row>
-    <row r="116" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="5">
-        <v>118</v>
-      </c>
-      <c r="B116" s="32" t="s">
-        <v>422</v>
-      </c>
-      <c r="C116" s="6">
-        <v>43496</v>
-      </c>
-      <c r="D116" s="32" t="s">
-        <v>317</v>
-      </c>
-      <c r="E116" s="32" t="s">
+    <row r="116" spans="1:21" ht="84" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="39">
+        <v>119</v>
+      </c>
+      <c r="B116" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="C116" s="37">
+        <v>43497</v>
+      </c>
+      <c r="D116" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="E116" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="F116" s="32" t="s">
+      <c r="F116" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="G116" s="32" t="s">
-        <v>423</v>
-      </c>
-      <c r="I116" s="32"/>
-      <c r="J116" s="32"/>
-      <c r="L116" s="32">
+      <c r="G116" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="I116" s="28" t="s">
+        <v>426</v>
+      </c>
+      <c r="J116" s="28"/>
+      <c r="L116" s="28">
         <v>1</v>
       </c>
-      <c r="M116" s="32" t="s">
+      <c r="M116" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="N116" s="32" t="s">
+      <c r="N116" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="O116" s="32"/>
-      <c r="Q116" s="5">
-        <v>12</v>
-      </c>
-      <c r="R116" s="5" t="s">
+      <c r="O116" s="28"/>
+      <c r="Q116" s="39">
+        <v>5</v>
+      </c>
+      <c r="R116" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="S116" s="33"/>
-      <c r="T116" s="5" t="s">
+      <c r="S116" s="89"/>
+      <c r="T116" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="U116" s="32"/>
-    </row>
-    <row r="117" spans="1:21" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="39">
-        <v>119</v>
-      </c>
-      <c r="B117" s="28" t="s">
+      <c r="U116" s="28"/>
+    </row>
+    <row r="117" spans="1:21" ht="180.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="5">
+        <v>120</v>
+      </c>
+      <c r="B117" s="31" t="s">
+        <v>471</v>
+      </c>
+      <c r="C117" s="6">
+        <v>43517</v>
+      </c>
+      <c r="D117" s="32" t="s">
         <v>425</v>
       </c>
-      <c r="C117" s="37">
-        <v>43497</v>
-      </c>
-      <c r="D117" s="28" t="s">
-        <v>424</v>
-      </c>
-      <c r="E117" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="F117" s="28" t="s">
+      <c r="E117" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F117" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="G117" s="28" t="s">
+      <c r="G117" s="32" t="s">
+        <v>427</v>
+      </c>
+      <c r="H117" s="14"/>
+      <c r="I117" s="32" t="s">
         <v>426</v>
       </c>
-      <c r="I117" s="28" t="s">
-        <v>433</v>
-      </c>
-      <c r="J117" s="28"/>
-      <c r="L117" s="28">
+      <c r="J117" s="32"/>
+      <c r="K117" s="32"/>
+      <c r="L117" s="32">
         <v>1</v>
       </c>
-      <c r="M117" s="28" t="s">
+      <c r="M117" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="N117" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="O117" s="28"/>
-      <c r="Q117" s="39">
-        <v>5</v>
-      </c>
-      <c r="R117" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="S117" s="89"/>
-      <c r="T117" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="U117" s="28"/>
-    </row>
-    <row r="118" spans="1:21" ht="180.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N117" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="O117" s="21">
+        <v>43517</v>
+      </c>
+      <c r="P117" s="31"/>
+      <c r="Q117" s="5"/>
+      <c r="R117" s="5"/>
+      <c r="S117" s="33"/>
+      <c r="T117" s="5"/>
+      <c r="U117" s="32"/>
+    </row>
+    <row r="118" spans="1:21" ht="180.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="5">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B118" s="31" t="s">
-        <v>486</v>
+        <v>428</v>
       </c>
       <c r="C118" s="6">
         <v>43517</v>
       </c>
       <c r="D118" s="32" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="E118" s="32" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="F118" s="32" t="s">
         <v>26</v>
       </c>
       <c r="G118" s="32" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="H118" s="14"/>
       <c r="I118" s="32" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="J118" s="32"/>
       <c r="K118" s="32"/>
@@ -13946,19 +13829,18 @@
       <c r="T118" s="5"/>
       <c r="U118" s="32"/>
     </row>
-    <row r="119" spans="1:21" ht="180.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" ht="28" x14ac:dyDescent="0.35">
       <c r="A119" s="5">
-        <v>121</v>
+        <f>1+A118</f>
+        <v>122</v>
       </c>
       <c r="B119" s="31" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C119" s="6">
         <v>43517</v>
       </c>
-      <c r="D119" s="32" t="s">
-        <v>432</v>
-      </c>
+      <c r="D119" s="32"/>
       <c r="E119" s="32" t="s">
         <v>15</v>
       </c>
@@ -13966,16 +13848,16 @@
         <v>26</v>
       </c>
       <c r="G119" s="32" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="H119" s="14"/>
       <c r="I119" s="32" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="J119" s="32"/>
       <c r="K119" s="32"/>
       <c r="L119" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M119" s="32" t="s">
         <v>74</v>
@@ -13993,44 +13875,43 @@
       <c r="T119" s="5"/>
       <c r="U119" s="32"/>
     </row>
-    <row r="120" spans="1:21" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="5">
-        <f>1+A119</f>
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B120" s="31" t="s">
-        <v>437</v>
+        <v>473</v>
       </c>
       <c r="C120" s="6">
-        <v>43517</v>
-      </c>
-      <c r="D120" s="32"/>
+        <v>43525</v>
+      </c>
+      <c r="D120" s="32" t="s">
+        <v>450</v>
+      </c>
       <c r="E120" s="32" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F120" s="32" t="s">
         <v>26</v>
       </c>
       <c r="G120" s="32" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="H120" s="14"/>
-      <c r="I120" s="32" t="s">
-        <v>433</v>
-      </c>
+      <c r="I120" s="32"/>
       <c r="J120" s="32"/>
       <c r="K120" s="32"/>
       <c r="L120" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M120" s="32" t="s">
         <v>74</v>
       </c>
       <c r="N120" s="32" t="s">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="O120" s="21">
-        <v>43517</v>
+        <v>43525</v>
       </c>
       <c r="P120" s="31"/>
       <c r="Q120" s="5"/>
@@ -14039,18 +13920,18 @@
       <c r="T120" s="5"/>
       <c r="U120" s="32"/>
     </row>
-    <row r="121" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="5">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B121" s="31" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="C121" s="6">
         <v>43525</v>
       </c>
       <c r="D121" s="32" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="E121" s="32" t="s">
         <v>32</v>
@@ -14059,7 +13940,7 @@
         <v>26</v>
       </c>
       <c r="G121" s="32" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="H121" s="14"/>
       <c r="I121" s="32"/>
@@ -14084,27 +13965,27 @@
       <c r="T121" s="5"/>
       <c r="U121" s="32"/>
     </row>
-    <row r="122" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" ht="140" x14ac:dyDescent="0.35">
       <c r="A122" s="5">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B122" s="31" t="s">
-        <v>489</v>
+        <v>455</v>
       </c>
       <c r="C122" s="6">
-        <v>43525</v>
+        <v>43528</v>
       </c>
       <c r="D122" s="32" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="E122" s="32" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F122" s="32" t="s">
         <v>26</v>
       </c>
       <c r="G122" s="32" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="H122" s="14"/>
       <c r="I122" s="32"/>
@@ -14117,10 +13998,10 @@
         <v>74</v>
       </c>
       <c r="N122" s="32" t="s">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="O122" s="21">
-        <v>43525</v>
+        <v>43528</v>
       </c>
       <c r="P122" s="31"/>
       <c r="Q122" s="5"/>
@@ -14129,27 +14010,27 @@
       <c r="T122" s="5"/>
       <c r="U122" s="32"/>
     </row>
-    <row r="123" spans="1:21" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" ht="140" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="5">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B123" s="31" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="C123" s="6">
         <v>43528</v>
       </c>
       <c r="D123" s="32" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="E123" s="32" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F123" s="32" t="s">
         <v>26</v>
       </c>
       <c r="G123" s="32" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="H123" s="14"/>
       <c r="I123" s="32"/>
@@ -14169,34 +14050,35 @@
       </c>
       <c r="P123" s="31"/>
       <c r="Q123" s="5"/>
-      <c r="R123" s="5"/>
+      <c r="R123" s="5" t="s">
+        <v>476</v>
+      </c>
       <c r="S123" s="33"/>
       <c r="T123" s="5"/>
       <c r="U123" s="32"/>
     </row>
-    <row r="124" spans="1:21" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="5">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B124" s="31" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="C124" s="6">
-        <v>43528</v>
+        <v>43529</v>
       </c>
       <c r="D124" s="32" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="E124" s="32" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="F124" s="32" t="s">
         <v>26</v>
       </c>
       <c r="G124" s="32" t="s">
-        <v>464</v>
-      </c>
-      <c r="H124" s="14"/>
+        <v>457</v>
+      </c>
       <c r="I124" s="32"/>
       <c r="J124" s="32"/>
       <c r="K124" s="32"/>
@@ -14210,53 +14092,50 @@
         <v>20</v>
       </c>
       <c r="O124" s="21">
-        <v>43528</v>
-      </c>
-      <c r="P124" s="31"/>
+        <v>43529</v>
+      </c>
       <c r="Q124" s="5"/>
-      <c r="R124" s="5" t="s">
-        <v>491</v>
-      </c>
+      <c r="R124" s="5"/>
       <c r="S124" s="33"/>
       <c r="T124" s="5"/>
       <c r="U124" s="32"/>
     </row>
-    <row r="125" spans="1:21" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" ht="28" x14ac:dyDescent="0.35">
       <c r="A125" s="5">
-        <v>127</v>
-      </c>
-      <c r="B125" s="31" t="s">
-        <v>487</v>
+        <v>128</v>
+      </c>
+      <c r="B125" s="90" t="s">
+        <v>458</v>
       </c>
       <c r="C125" s="6">
-        <v>43529</v>
+        <v>43531</v>
       </c>
       <c r="D125" s="32" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="E125" s="32" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="F125" s="32" t="s">
         <v>26</v>
       </c>
       <c r="G125" s="32" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="I125" s="32"/>
       <c r="J125" s="32"/>
       <c r="K125" s="32"/>
       <c r="L125" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M125" s="32" t="s">
         <v>74</v>
       </c>
       <c r="N125" s="32" t="s">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="O125" s="21">
-        <v>43529</v>
+        <v>43531</v>
       </c>
       <c r="Q125" s="5"/>
       <c r="R125" s="5"/>
@@ -14264,18 +14143,18 @@
       <c r="T125" s="5"/>
       <c r="U125" s="32"/>
     </row>
-    <row r="126" spans="1:21" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" ht="28" x14ac:dyDescent="0.35">
       <c r="A126" s="5">
-        <v>128</v>
-      </c>
-      <c r="B126" s="90" t="s">
-        <v>468</v>
+        <v>129</v>
+      </c>
+      <c r="B126" s="31" t="s">
+        <v>481</v>
       </c>
       <c r="C126" s="6">
-        <v>43531</v>
+        <v>43537</v>
       </c>
       <c r="D126" s="32" t="s">
-        <v>466</v>
+        <v>130</v>
       </c>
       <c r="E126" s="32" t="s">
         <v>15</v>
@@ -14284,111 +14163,68 @@
         <v>26</v>
       </c>
       <c r="G126" s="32" t="s">
-        <v>469</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="H126" s="32"/>
       <c r="I126" s="32"/>
       <c r="J126" s="32"/>
       <c r="K126" s="32"/>
-      <c r="L126" s="32">
-        <v>2</v>
-      </c>
+      <c r="L126" s="32"/>
       <c r="M126" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="N126" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="O126" s="21">
-        <v>43531</v>
-      </c>
-      <c r="Q126" s="5"/>
+      <c r="N126" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="O126" s="6">
+        <v>43537</v>
+      </c>
+      <c r="P126" s="5"/>
+      <c r="Q126" s="33"/>
       <c r="R126" s="5"/>
-      <c r="S126" s="33"/>
-      <c r="T126" s="5"/>
-      <c r="U126" s="32"/>
-    </row>
-    <row r="127" spans="1:21" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S126" s="32"/>
+    </row>
+    <row r="127" spans="1:21" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="5">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B127" s="31" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="C127" s="6">
-        <v>43537</v>
+        <v>43539</v>
       </c>
       <c r="D127" s="32" t="s">
-        <v>130</v>
+        <v>484</v>
       </c>
       <c r="E127" s="32" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F127" s="32" t="s">
         <v>26</v>
       </c>
       <c r="G127" s="32" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="H127" s="32"/>
       <c r="I127" s="32"/>
       <c r="J127" s="32"/>
       <c r="K127" s="32"/>
       <c r="L127" s="32"/>
-      <c r="M127" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="N127" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="O127" s="6">
-        <v>43537</v>
-      </c>
+      <c r="M127" s="21"/>
+      <c r="N127" s="6"/>
+      <c r="O127" s="33"/>
       <c r="P127" s="5"/>
-      <c r="Q127" s="33"/>
-      <c r="R127" s="5"/>
-      <c r="S127" s="32"/>
-    </row>
-    <row r="128" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="5">
-        <v>130</v>
-      </c>
-      <c r="B128" s="31" t="s">
-        <v>497</v>
-      </c>
-      <c r="C128" s="6">
-        <v>43539</v>
-      </c>
-      <c r="D128" s="32" t="s">
-        <v>499</v>
-      </c>
-      <c r="E128" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="F128" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G128" s="32" t="s">
-        <v>498</v>
-      </c>
-      <c r="H128" s="32"/>
-      <c r="I128" s="32"/>
-      <c r="J128" s="32"/>
-      <c r="K128" s="32"/>
-      <c r="L128" s="32"/>
-      <c r="M128" s="21"/>
-      <c r="N128" s="6"/>
-      <c r="O128" s="33"/>
-      <c r="P128" s="5"/>
-      <c r="Q128" s="32"/>
-      <c r="S128" s="3"/>
-      <c r="T128" s="10"/>
-      <c r="U128" s="10"/>
+      <c r="Q127" s="32"/>
+      <c r="S127" s="3"/>
+      <c r="T127" s="10"/>
+      <c r="U127" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:U128" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A2:U127">
     <filterColumn colId="4">
       <filters>
-        <filter val="ID Authentication"/>
+        <filter val="Registration Client"/>
       </filters>
     </filterColumn>
     <filterColumn colId="5">
@@ -14401,7 +14237,7 @@
     <mergeCell ref="A1:U1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B126" r:id="rId1" display="https://mosipid.atlassian.net/browse/MOS-18100" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B125" r:id="rId1" display="https://mosipid.atlassian.net/browse/MOS-18100"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -14409,57 +14245,57 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B6" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B7" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B8" s="9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B9" s="9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B10" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B11" s="9"/>
     </row>
   </sheetData>
@@ -14469,19 +14305,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="s">
         <v>145</v>
       </c>
@@ -14492,7 +14328,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
         <v>72</v>
       </c>
@@ -14503,7 +14339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="35" t="s">
         <v>32</v>
       </c>
@@ -14514,7 +14350,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="35" t="s">
         <v>125</v>
       </c>
@@ -14525,7 +14361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="35" t="s">
         <v>80</v>
       </c>
@@ -14536,7 +14372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="35" t="s">
         <v>15</v>
       </c>
@@ -14547,7 +14383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
         <v>39</v>
       </c>
@@ -14558,7 +14394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="35" t="s">
         <v>52</v>
       </c>
@@ -14569,7 +14405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="35" t="s">
         <v>146</v>
       </c>
@@ -14587,17 +14423,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="52.28515625" customWidth="1"/>
+    <col min="3" max="3" width="52.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="66" t="s">
         <v>207</v>
       </c>
@@ -14605,25 +14441,25 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="68"/>
       <c r="C2" s="69" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="70"/>
       <c r="C3" s="69" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="71"/>
       <c r="C4" s="69" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="72"/>
       <c r="C5" s="73" t="s">
         <v>206</v>
@@ -14636,6 +14472,38 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D32E068FDE16E34B8075022FB1536456" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d905b7d076fda08b8ad7ac1f301e6870">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7784986bdb25cf89cb05135ef15ccb6c" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -14807,52 +14675,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62A013D4-4E69-4E0D-8B8F-1AA53B7A2CEA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14874,9 +14700,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62A013D4-4E69-4E0D-8B8F-1AA53B7A2CEA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
+++ b/docs/requirements/MOSIP_FeaturesRoadmap.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1037145\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1002694\Documents\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30AF2D4-FAE3-477E-A481-D2EBF4F989C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MOSIP_Feature_Roadmap" sheetId="5" r:id="rId1"/>
@@ -20,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MOSIP_Feature_Roadmap!$A$2:$U$127</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
@@ -29,12 +30,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="497">
   <si>
     <t>S.No.</t>
   </si>
@@ -4820,11 +4826,18 @@
   <si>
     <t>MOS-19014</t>
   </si>
+  <si>
+    <t>[Shrikant] This is a good thought. Analyze the impact to understand the effort involved from Reg. Client and Reg. Processor perspective, so that a decision could be made on whether it should be part of v1 or v1.5
+[Mindtree] 
+We should not use VIN in place of UIN because VIN is timebound and could have already expired when the Packet is received from Registration Client for processing.  
+As a work around if we start Validating Packets using &lt;VIN&gt; and &lt;Packet Creation Date&gt;, then this would lead to Fraud Scenarios and we would have to stop the current time-stamp Validation for Timebound VINs in IDA.  
+Hence, due to Security reasons, it is recommended: Updates through Reg Client would be UIN Driven. VID can be used for Online Update using Resident Portal as it will be processed instantaneously.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
@@ -5463,7 +5476,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -5480,7 +5493,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="MINDTREE" refreshedDate="43448.660082060182" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="64">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="MINDTREE" refreshedDate="43448.660082060182" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="64" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A2:U69" sheet="MOSIP_Feature_Roadmap"/>
   </cacheSource>
@@ -6641,7 +6654,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField dataField="1" showAll="0"/>
@@ -6989,42 +7002,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="20.44140625" defaultRowHeight="13.8" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.26953125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" style="27" customWidth="1"/>
-    <col min="3" max="3" width="25.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="3" customWidth="1"/>
     <col min="7" max="7" width="49" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" style="16" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="28.453125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="38.453125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="16" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="43.88671875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="27.33203125" style="3" customWidth="1"/>
     <col min="11" max="11" width="24" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="11.26953125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="22.7265625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.26953125" style="27" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="17.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.7265625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="22.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="83.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="20.453125" style="10"/>
+    <col min="12" max="12" width="11.21875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="22.77734375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="12.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.21875" style="27" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="17.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.77734375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="22.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="83.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="20.44140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="92" t="s">
         <v>209</v>
       </c>
@@ -7049,7 +7062,7 @@
       <c r="T1" s="94"/>
       <c r="U1" s="96"/>
     </row>
-    <row r="2" spans="1:21" ht="42" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
@@ -7114,7 +7127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1" ht="140" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" s="4" customFormat="1" ht="138" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -7176,7 +7189,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="4" customFormat="1" ht="154" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" s="4" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -7237,7 +7250,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -7299,7 +7312,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="4" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" s="4" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -7361,7 +7374,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="4" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" s="4" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -7423,7 +7436,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="4" customFormat="1" ht="140" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" s="4" customFormat="1" ht="138" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -7485,7 +7498,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="4" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" s="4" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -7545,7 +7558,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" s="1" customFormat="1" ht="41.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -7599,7 +7612,7 @@
       <c r="T10" s="30"/>
       <c r="U10" s="21"/>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -7656,7 +7669,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1" ht="280" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" s="1" customFormat="1" ht="276" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -7707,7 +7720,7 @@
       <c r="T12" s="30"/>
       <c r="U12" s="21"/>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -7767,7 +7780,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1" ht="98" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="1" customFormat="1" ht="96.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>14</v>
       </c>
@@ -7829,7 +7842,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1" ht="182" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" s="1" customFormat="1" ht="179.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>15</v>
       </c>
@@ -7891,7 +7904,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="4" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" s="4" customFormat="1" ht="207" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>16</v>
       </c>
@@ -7953,7 +7966,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1" ht="126" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" s="1" customFormat="1" ht="138" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>17</v>
       </c>
@@ -8015,7 +8028,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="4" customFormat="1" ht="126" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" s="4" customFormat="1" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>18</v>
       </c>
@@ -8077,7 +8090,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" s="1" customFormat="1" ht="41.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>19</v>
       </c>
@@ -8125,7 +8138,7 @@
       <c r="T19" s="30"/>
       <c r="U19" s="21"/>
     </row>
-    <row r="20" spans="1:21" s="4" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" s="4" customFormat="1" ht="41.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>20</v>
       </c>
@@ -8173,7 +8186,7 @@
       <c r="T20" s="30"/>
       <c r="U20" s="21"/>
     </row>
-    <row r="21" spans="1:21" ht="84" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>21</v>
       </c>
@@ -8233,7 +8246,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="84" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>22</v>
       </c>
@@ -8293,7 +8306,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>23</v>
       </c>
@@ -8355,7 +8368,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" ht="69" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>24</v>
       </c>
@@ -8405,7 +8418,7 @@
       <c r="T24" s="30"/>
       <c r="U24" s="21"/>
     </row>
-    <row r="25" spans="1:21" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>25</v>
       </c>
@@ -8455,7 +8468,7 @@
       <c r="T25" s="30"/>
       <c r="U25" s="21"/>
     </row>
-    <row r="26" spans="1:21" ht="84" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>26</v>
       </c>
@@ -8515,7 +8528,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="70" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" ht="69" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>27</v>
       </c>
@@ -8577,7 +8590,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" ht="69" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>28</v>
       </c>
@@ -8627,7 +8640,7 @@
       <c r="T28" s="30"/>
       <c r="U28" s="21"/>
     </row>
-    <row r="29" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" ht="69" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>29</v>
       </c>
@@ -8683,7 +8696,7 @@
       <c r="T29" s="30"/>
       <c r="U29" s="14"/>
     </row>
-    <row r="30" spans="1:21" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>30</v>
       </c>
@@ -8745,7 +8758,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>31</v>
       </c>
@@ -8803,7 +8816,7 @@
       <c r="T31" s="30"/>
       <c r="U31" s="32"/>
     </row>
-    <row r="32" spans="1:21" s="8" customFormat="1" ht="126" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" s="8" customFormat="1" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>32</v>
       </c>
@@ -8861,7 +8874,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="8" customFormat="1" ht="98" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" s="8" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>33</v>
       </c>
@@ -8923,7 +8936,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="84" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>34</v>
       </c>
@@ -8980,7 +8993,7 @@
       <c r="T34" s="30"/>
       <c r="U34" s="14"/>
     </row>
-    <row r="35" spans="1:21" ht="182" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" ht="179.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>35</v>
       </c>
@@ -9044,7 +9057,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>36</v>
       </c>
@@ -9108,7 +9121,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="168" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" ht="165.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>37</v>
       </c>
@@ -9172,7 +9185,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>38</v>
       </c>
@@ -9236,7 +9249,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" ht="41.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>39</v>
       </c>
@@ -9290,7 +9303,7 @@
       <c r="T39" s="30"/>
       <c r="U39" s="32"/>
     </row>
-    <row r="40" spans="1:21" ht="70" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" ht="69" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>40</v>
       </c>
@@ -9348,7 +9361,7 @@
       <c r="T40" s="30"/>
       <c r="U40" s="32"/>
     </row>
-    <row r="41" spans="1:21" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" ht="41.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>41</v>
       </c>
@@ -9402,7 +9415,7 @@
       <c r="T41" s="30"/>
       <c r="U41" s="32"/>
     </row>
-    <row r="42" spans="1:21" ht="56" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>42</v>
       </c>
@@ -9460,7 +9473,7 @@
       <c r="T42" s="30"/>
       <c r="U42" s="32"/>
     </row>
-    <row r="43" spans="1:21" ht="252" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" ht="262.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>43</v>
       </c>
@@ -9520,7 +9533,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>44</v>
       </c>
@@ -9578,7 +9591,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21" ht="41.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>45</v>
       </c>
@@ -9640,7 +9653,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21" ht="69" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>46</v>
       </c>
@@ -9702,7 +9715,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21" ht="69" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>47</v>
       </c>
@@ -9761,7 +9774,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:21" ht="41.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>48</v>
       </c>
@@ -9823,7 +9836,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:21" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>49</v>
       </c>
@@ -9886,7 +9899,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:21" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>50</v>
       </c>
@@ -9940,7 +9953,7 @@
       <c r="T50" s="30"/>
       <c r="U50" s="32"/>
     </row>
-    <row r="51" spans="1:21" ht="196" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:21" ht="193.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>51</v>
       </c>
@@ -9990,7 +10003,7 @@
       <c r="T51" s="30"/>
       <c r="U51" s="32"/>
     </row>
-    <row r="52" spans="1:21" ht="56" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:21" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>52</v>
       </c>
@@ -10050,7 +10063,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:21" ht="41.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>53</v>
       </c>
@@ -10100,7 +10113,7 @@
       <c r="T53" s="30"/>
       <c r="U53" s="32"/>
     </row>
-    <row r="54" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:21" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>54</v>
       </c>
@@ -10154,7 +10167,7 @@
       <c r="T54" s="30"/>
       <c r="U54" s="32"/>
     </row>
-    <row r="55" spans="1:21" ht="70" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>55</v>
       </c>
@@ -10213,7 +10226,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="56" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:21" ht="69" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -10272,7 +10285,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="42" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -10332,7 +10345,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:21" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -10386,7 +10399,7 @@
       <c r="T58" s="30"/>
       <c r="U58" s="32"/>
     </row>
-    <row r="59" spans="1:21" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:21" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -10440,7 +10453,7 @@
       <c r="T59" s="30"/>
       <c r="U59" s="32"/>
     </row>
-    <row r="60" spans="1:21" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:21" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -10497,7 +10510,7 @@
       <c r="T60" s="30"/>
       <c r="U60" s="32"/>
     </row>
-    <row r="61" spans="1:21" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:21" ht="41.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -10560,7 +10573,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:21" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -10621,7 +10634,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:21" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -10672,7 +10685,7 @@
       <c r="T63" s="33"/>
       <c r="U63" s="32"/>
     </row>
-    <row r="64" spans="1:21" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:21" ht="41.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -10723,7 +10736,7 @@
       <c r="T64" s="33"/>
       <c r="U64" s="32"/>
     </row>
-    <row r="65" spans="1:23" ht="210" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:23" ht="207" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -10786,7 +10799,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="112" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:23" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -10846,7 +10859,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:23" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -10905,7 +10918,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="266" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:23" ht="276" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -10965,7 +10978,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="56" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:23" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -11023,7 +11036,7 @@
       <c r="T69" s="5"/>
       <c r="U69" s="32"/>
     </row>
-    <row r="70" spans="1:23" ht="126" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:23" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -11083,7 +11096,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="168" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:23" ht="165.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -11144,7 +11157,7 @@
       <c r="V71" s="5"/>
       <c r="W71" s="32"/>
     </row>
-    <row r="72" spans="1:23" ht="168" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:23" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -11204,7 +11217,7 @@
       <c r="V72" s="39"/>
       <c r="W72" s="28"/>
     </row>
-    <row r="73" spans="1:23" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:23" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -11259,7 +11272,7 @@
       <c r="V73" s="5"/>
       <c r="W73" s="32"/>
     </row>
-    <row r="74" spans="1:23" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:23" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -11320,7 +11333,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="154" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:23" ht="151.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -11381,7 +11394,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="196" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:23" ht="193.2" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -11441,7 +11454,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="168" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:23" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>75</v>
       </c>
@@ -11503,7 +11516,7 @@
       <c r="V77" s="5"/>
       <c r="W77" s="32"/>
     </row>
-    <row r="78" spans="1:23" ht="126" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:23" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>76</v>
       </c>
@@ -11563,7 +11576,7 @@
       <c r="V78" s="5"/>
       <c r="W78" s="32"/>
     </row>
-    <row r="79" spans="1:23" ht="126" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:23" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>77</v>
       </c>
@@ -11625,7 +11638,7 @@
       <c r="V79" s="5"/>
       <c r="W79" s="32"/>
     </row>
-    <row r="80" spans="1:23" ht="84" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:23" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>78</v>
       </c>
@@ -11685,7 +11698,7 @@
       <c r="V80" s="74"/>
       <c r="W80" s="32"/>
     </row>
-    <row r="81" spans="1:23" ht="168" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:23" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>79</v>
       </c>
@@ -11747,7 +11760,7 @@
       <c r="V81" s="74"/>
       <c r="W81" s="32"/>
     </row>
-    <row r="82" spans="1:23" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:23" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
         <v>80</v>
       </c>
@@ -11806,7 +11819,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="252" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:23" ht="248.4" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
         <v>81</v>
       </c>
@@ -11868,7 +11881,7 @@
       <c r="V83" s="74"/>
       <c r="W83" s="32"/>
     </row>
-    <row r="84" spans="1:23" ht="70" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:23" ht="69" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
         <v>82</v>
       </c>
@@ -11930,7 +11943,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="70" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:23" ht="69" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
         <v>83</v>
       </c>
@@ -11990,7 +12003,7 @@
       <c r="T85" s="5"/>
       <c r="U85" s="32"/>
     </row>
-    <row r="86" spans="1:23" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:23" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>84</v>
       </c>
@@ -12049,7 +12062,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="126" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:23" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <v>85</v>
       </c>
@@ -12110,7 +12123,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="168" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:23" ht="165.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
         <v>86</v>
       </c>
@@ -12165,7 +12178,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:23" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
         <v>87</v>
       </c>
@@ -12214,7 +12227,7 @@
       <c r="T89" s="5"/>
       <c r="U89" s="32"/>
     </row>
-    <row r="90" spans="1:23" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:23" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
         <v>88</v>
       </c>
@@ -12261,7 +12274,7 @@
       <c r="T90" s="5"/>
       <c r="U90" s="32"/>
     </row>
-    <row r="91" spans="1:23" ht="196" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:23" ht="193.2" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
         <v>89</v>
       </c>
@@ -12321,7 +12334,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="92" spans="1:23" ht="42" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:23" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
         <v>90</v>
       </c>
@@ -12379,7 +12392,7 @@
       <c r="T92" s="5"/>
       <c r="U92" s="32"/>
     </row>
-    <row r="93" spans="1:23" ht="56" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:23" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
         <v>91</v>
       </c>
@@ -12439,7 +12452,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="94" spans="1:23" ht="70" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:23" ht="69" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
         <v>92</v>
       </c>
@@ -12499,7 +12512,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="95" spans="1:23" ht="70" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:23" ht="69" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
         <v>93</v>
       </c>
@@ -12559,7 +12572,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="96" spans="1:23" ht="182" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:23" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
         <v>94</v>
       </c>
@@ -12617,7 +12630,7 @@
       <c r="T96" s="5"/>
       <c r="U96" s="32"/>
     </row>
-    <row r="97" spans="1:21" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:21" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
         <v>95</v>
       </c>
@@ -12666,7 +12679,7 @@
       <c r="T97" s="5"/>
       <c r="U97" s="32"/>
     </row>
-    <row r="98" spans="1:21" ht="140" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:21" ht="138" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
         <v>96</v>
       </c>
@@ -12724,7 +12737,7 @@
       <c r="T98" s="5"/>
       <c r="U98" s="32"/>
     </row>
-    <row r="99" spans="1:21" ht="112" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:21" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A99" s="5">
         <v>97</v>
       </c>
@@ -12784,7 +12797,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="100" spans="1:21" ht="322" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:21" ht="317.39999999999998" x14ac:dyDescent="0.3">
       <c r="A100" s="5">
         <v>98</v>
       </c>
@@ -12844,7 +12857,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="42" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
         <v>99</v>
       </c>
@@ -12902,7 +12915,7 @@
       <c r="T101" s="5"/>
       <c r="U101" s="32"/>
     </row>
-    <row r="102" spans="1:21" ht="28" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A102" s="5">
         <v>100</v>
       </c>
@@ -12962,7 +12975,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="103" spans="1:21" ht="28" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A103" s="5">
         <v>101</v>
       </c>
@@ -13022,7 +13035,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="104" spans="1:21" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:21" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="5">
         <v>102</v>
       </c>
@@ -13081,7 +13094,7 @@
       </c>
       <c r="U104" s="33"/>
     </row>
-    <row r="105" spans="1:21" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:21" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="5">
         <v>103</v>
       </c>
@@ -13140,7 +13153,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="106" spans="1:21" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:21" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
         <v>104</v>
       </c>
@@ -13189,7 +13202,7 @@
       <c r="T106" s="5"/>
       <c r="U106" s="32"/>
     </row>
-    <row r="107" spans="1:21" ht="140" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:21" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A107" s="5">
         <v>105</v>
       </c>
@@ -13248,7 +13261,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="108" spans="1:21" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:21" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5">
         <v>111</v>
       </c>
@@ -13303,7 +13316,7 @@
       </c>
       <c r="U108" s="32"/>
     </row>
-    <row r="109" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:21" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5">
         <v>112</v>
       </c>
@@ -13358,7 +13371,7 @@
       <c r="T109" s="5"/>
       <c r="U109" s="32"/>
     </row>
-    <row r="110" spans="1:21" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:21" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="5">
         <v>113</v>
       </c>
@@ -13415,7 +13428,7 @@
       </c>
       <c r="U110" s="32"/>
     </row>
-    <row r="111" spans="1:21" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:21" ht="69" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="5">
         <v>114</v>
       </c>
@@ -13472,7 +13485,7 @@
       </c>
       <c r="U111" s="32"/>
     </row>
-    <row r="112" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:21" ht="69" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="5">
         <v>115</v>
       </c>
@@ -13529,7 +13542,7 @@
       </c>
       <c r="U112" s="32"/>
     </row>
-    <row r="113" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:21" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="5">
         <v>116</v>
       </c>
@@ -13586,7 +13599,7 @@
       </c>
       <c r="U113" s="32"/>
     </row>
-    <row r="114" spans="1:21" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:21" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="5">
         <v>117</v>
       </c>
@@ -13641,7 +13654,7 @@
       </c>
       <c r="U114" s="32"/>
     </row>
-    <row r="115" spans="1:21" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:21" ht="41.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="5">
         <v>118</v>
       </c>
@@ -13687,7 +13700,7 @@
       </c>
       <c r="U115" s="32"/>
     </row>
-    <row r="116" spans="1:21" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:21" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="39">
         <v>119</v>
       </c>
@@ -13735,7 +13748,7 @@
       </c>
       <c r="U116" s="28"/>
     </row>
-    <row r="117" spans="1:21" ht="180.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:21" ht="180.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="5">
         <v>120</v>
       </c>
@@ -13782,7 +13795,7 @@
       <c r="T117" s="5"/>
       <c r="U117" s="32"/>
     </row>
-    <row r="118" spans="1:21" ht="180.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:21" ht="180.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="5">
         <v>121</v>
       </c>
@@ -13829,7 +13842,7 @@
       <c r="T118" s="5"/>
       <c r="U118" s="32"/>
     </row>
-    <row r="119" spans="1:21" ht="28" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A119" s="5">
         <f>1+A118</f>
         <v>122</v>
@@ -13875,7 +13888,7 @@
       <c r="T119" s="5"/>
       <c r="U119" s="32"/>
     </row>
-    <row r="120" spans="1:21" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:21" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="5">
         <v>123</v>
       </c>
@@ -13920,7 +13933,7 @@
       <c r="T120" s="5"/>
       <c r="U120" s="32"/>
     </row>
-    <row r="121" spans="1:21" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:21" ht="69" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="5">
         <v>124</v>
       </c>
@@ -13965,7 +13978,7 @@
       <c r="T121" s="5"/>
       <c r="U121" s="32"/>
     </row>
-    <row r="122" spans="1:21" ht="140" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:21" ht="138" x14ac:dyDescent="0.3">
       <c r="A122" s="5">
         <v>125</v>
       </c>
@@ -14010,7 +14023,7 @@
       <c r="T122" s="5"/>
       <c r="U122" s="32"/>
     </row>
-    <row r="123" spans="1:21" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:21" ht="138" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="5">
         <v>126</v>
       </c>
@@ -14057,7 +14070,7 @@
       <c r="T123" s="5"/>
       <c r="U123" s="32"/>
     </row>
-    <row r="124" spans="1:21" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:21" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="5">
         <v>127</v>
       </c>
@@ -14100,7 +14113,7 @@
       <c r="T124" s="5"/>
       <c r="U124" s="32"/>
     </row>
-    <row r="125" spans="1:21" ht="28" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A125" s="5">
         <v>128</v>
       </c>
@@ -14143,7 +14156,7 @@
       <c r="T125" s="5"/>
       <c r="U125" s="32"/>
     </row>
-    <row r="126" spans="1:21" ht="28" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:21" ht="276" x14ac:dyDescent="0.3">
       <c r="A126" s="5">
         <v>129</v>
       </c>
@@ -14166,10 +14179,14 @@
         <v>480</v>
       </c>
       <c r="H126" s="32"/>
-      <c r="I126" s="32"/>
+      <c r="I126" s="32" t="s">
+        <v>496</v>
+      </c>
       <c r="J126" s="32"/>
       <c r="K126" s="32"/>
-      <c r="L126" s="32"/>
+      <c r="L126" s="32">
+        <v>1.5</v>
+      </c>
       <c r="M126" s="32" t="s">
         <v>74</v>
       </c>
@@ -14177,14 +14194,14 @@
         <v>20</v>
       </c>
       <c r="O126" s="6">
-        <v>43537</v>
+        <v>43539</v>
       </c>
       <c r="P126" s="5"/>
       <c r="Q126" s="33"/>
       <c r="R126" s="5"/>
       <c r="S126" s="32"/>
     </row>
-    <row r="127" spans="1:21" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:21" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="5">
         <v>130</v>
       </c>
@@ -14221,7 +14238,7 @@
       <c r="U127" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:U127">
+  <autoFilter ref="A2:U127" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="4">
       <filters>
         <filter val="Registration Client"/>
@@ -14237,7 +14254,7 @@
     <mergeCell ref="A1:U1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B125" r:id="rId1" display="https://mosipid.atlassian.net/browse/MOS-18100"/>
+    <hyperlink ref="B125" r:id="rId1" display="https://mosipid.atlassian.net/browse/MOS-18100" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -14245,57 +14262,57 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" s="9"/>
     </row>
   </sheetData>
@@ -14305,19 +14322,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
         <v>145</v>
       </c>
@@ -14328,7 +14345,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>72</v>
       </c>
@@ -14339,7 +14356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
         <v>32</v>
       </c>
@@ -14350,7 +14367,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="35" t="s">
         <v>125</v>
       </c>
@@ -14361,7 +14378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
         <v>80</v>
       </c>
@@ -14372,7 +14389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
         <v>15</v>
       </c>
@@ -14383,7 +14400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
         <v>39</v>
       </c>
@@ -14394,7 +14411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
         <v>52</v>
       </c>
@@ -14405,7 +14422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
         <v>146</v>
       </c>
@@ -14423,17 +14440,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="52.26953125" customWidth="1"/>
+    <col min="3" max="3" width="52.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="66" t="s">
         <v>207</v>
       </c>
@@ -14441,25 +14458,25 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="68"/>
       <c r="C2" s="69" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:3" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="70"/>
       <c r="C3" s="69" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:3" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="71"/>
       <c r="C4" s="69" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:3" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="72"/>
       <c r="C5" s="73" t="s">
         <v>206</v>
@@ -14472,15 +14489,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metad